--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="working" sheetId="9" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19120" uniqueCount="6957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19121" uniqueCount="6958">
   <si>
     <t>pacman</t>
   </si>
@@ -20946,6 +20946,9 @@
   </si>
   <si>
     <t>screen doesn't clear blue color in left and right of screen</t>
+  </si>
+  <si>
+    <t>small artifacts left side of screen</t>
   </si>
 </sst>
 </file>
@@ -21261,7 +21264,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21271,7 +21274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -22473,10 +22476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22603,6 +22606,29 @@
         <v>6956</v>
       </c>
     </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" t="s">
+        <v>6957</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22612,8 +22638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R3103"/>
   <sheetViews>
-    <sheetView topLeftCell="A2507" workbookViewId="0">
-      <selection activeCell="A2525" sqref="A2525:XFD2526"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22693,23 +22719,6 @@
         <v>5014</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>74</v>
-      </c>
-    </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>75</v>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19137" uniqueCount="6958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19143" uniqueCount="6960">
   <si>
     <t>pacman</t>
   </si>
@@ -20955,6 +20955,12 @@
   </si>
   <si>
     <t>small artifacts left side of screen</t>
+  </si>
+  <si>
+    <t>triviaes</t>
+  </si>
+  <si>
+    <t>Trivial Pursuit (Spanish Edition)</t>
   </si>
 </sst>
 </file>
@@ -21290,8 +21296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q156"/>
   <sheetViews>
-    <sheetView topLeftCell="G46" workbookViewId="0">
-      <selection activeCell="Q57" sqref="Q57"/>
+    <sheetView topLeftCell="J126" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141:Q141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82532,10 +82538,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q342"/>
+  <dimension ref="B1:Q344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="F339" sqref="F339"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="Q344" sqref="Q344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89627,6 +89633,29 @@
         <v>3761</v>
       </c>
     </row>
+    <row r="343" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B343" s="1" t="s">
+        <v>6958</v>
+      </c>
+      <c r="C343" t="s">
+        <v>865</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E343" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L343" t="s">
+        <v>3894</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>6959</v>
+      </c>
+    </row>
+    <row r="344" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q344" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NetBeansProjects\arcadeflex056\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="working" sheetId="9" r:id="rId1"/>
@@ -21,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$2636</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$2635</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -21014,7 +21009,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -21288,7 +21283,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21296,13 +21291,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q156"/>
+  <dimension ref="A1:Q157"/>
   <sheetViews>
-    <sheetView topLeftCell="J126" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141:Q141"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -24743,6 +24738,29 @@
       </c>
       <c r="Q156" t="s">
         <v>4828</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>2</v>
+      </c>
+      <c r="L157" t="s">
+        <v>5071</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>3456</v>
       </c>
     </row>
   </sheetData>
@@ -24758,7 +24776,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
@@ -24873,7 +24891,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -24961,7 +24979,7 @@
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -25116,13 +25134,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R2636"/>
+  <dimension ref="B1:R2635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
-      <selection activeCell="B517" sqref="B517"/>
+    <sheetView tabSelected="1" topLeftCell="A2406" workbookViewId="0">
+      <selection activeCell="H2415" sqref="H2415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -77934,27 +77952,21 @@
     </row>
     <row r="2421" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2421" s="1" t="s">
-        <v>3454</v>
+        <v>6808</v>
       </c>
       <c r="C2421" t="s">
-        <v>3455</v>
-      </c>
-      <c r="D2421" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2421" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2421" t="s">
-        <v>5071</v>
+        <v>6809</v>
+      </c>
+      <c r="D2421" s="1">
+        <v>68000</v>
       </c>
       <c r="Q2421" t="s">
-        <v>3456</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="2422" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2422" s="1" t="s">
-        <v>6808</v>
+        <v>6811</v>
       </c>
       <c r="C2422" t="s">
         <v>6809</v>
@@ -77963,12 +77975,12 @@
         <v>68000</v>
       </c>
       <c r="Q2422" t="s">
-        <v>6810</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="2423" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2423" s="1" t="s">
-        <v>6811</v>
+        <v>6813</v>
       </c>
       <c r="C2423" t="s">
         <v>6809</v>
@@ -77977,12 +77989,12 @@
         <v>68000</v>
       </c>
       <c r="Q2423" t="s">
-        <v>6812</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="2424" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2424" s="1" t="s">
-        <v>6813</v>
+        <v>6815</v>
       </c>
       <c r="C2424" t="s">
         <v>6809</v>
@@ -77991,12 +78003,12 @@
         <v>68000</v>
       </c>
       <c r="Q2424" t="s">
-        <v>6814</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="2425" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2425" s="1" t="s">
-        <v>6815</v>
+        <v>6817</v>
       </c>
       <c r="C2425" t="s">
         <v>6809</v>
@@ -78005,12 +78017,12 @@
         <v>68000</v>
       </c>
       <c r="Q2425" t="s">
-        <v>6816</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="2426" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2426" s="1" t="s">
-        <v>6817</v>
+        <v>6819</v>
       </c>
       <c r="C2426" t="s">
         <v>6809</v>
@@ -78019,12 +78031,12 @@
         <v>68000</v>
       </c>
       <c r="Q2426" t="s">
-        <v>6818</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="2427" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2427" s="1" t="s">
-        <v>6819</v>
+        <v>6821</v>
       </c>
       <c r="C2427" t="s">
         <v>6809</v>
@@ -78033,12 +78045,12 @@
         <v>68000</v>
       </c>
       <c r="Q2427" t="s">
-        <v>6820</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="2428" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2428" s="1" t="s">
-        <v>6821</v>
+        <v>6823</v>
       </c>
       <c r="C2428" t="s">
         <v>6809</v>
@@ -78047,12 +78059,12 @@
         <v>68000</v>
       </c>
       <c r="Q2428" t="s">
-        <v>6822</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="2429" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2429" s="1" t="s">
-        <v>6823</v>
+        <v>6825</v>
       </c>
       <c r="C2429" t="s">
         <v>6809</v>
@@ -78061,12 +78073,12 @@
         <v>68000</v>
       </c>
       <c r="Q2429" t="s">
-        <v>6824</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="2430" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2430" s="1" t="s">
-        <v>6825</v>
+        <v>6827</v>
       </c>
       <c r="C2430" t="s">
         <v>6809</v>
@@ -78075,12 +78087,12 @@
         <v>68000</v>
       </c>
       <c r="Q2430" t="s">
-        <v>6826</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="2431" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2431" s="1" t="s">
-        <v>6827</v>
+        <v>6829</v>
       </c>
       <c r="C2431" t="s">
         <v>6809</v>
@@ -78089,12 +78101,12 @@
         <v>68000</v>
       </c>
       <c r="Q2431" t="s">
-        <v>6828</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="2432" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2432" s="1" t="s">
-        <v>6829</v>
+        <v>6831</v>
       </c>
       <c r="C2432" t="s">
         <v>6809</v>
@@ -78103,12 +78115,12 @@
         <v>68000</v>
       </c>
       <c r="Q2432" t="s">
-        <v>6830</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="2433" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2433" s="1" t="s">
-        <v>6831</v>
+        <v>6833</v>
       </c>
       <c r="C2433" t="s">
         <v>6809</v>
@@ -78116,13 +78128,19 @@
       <c r="D2433" s="1">
         <v>68000</v>
       </c>
+      <c r="L2433" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2433" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2433" t="s">
-        <v>6832</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="2434" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2434" s="1" t="s">
-        <v>6833</v>
+        <v>6835</v>
       </c>
       <c r="C2434" t="s">
         <v>6809</v>
@@ -78137,12 +78155,12 @@
         <v>6093</v>
       </c>
       <c r="Q2434" t="s">
-        <v>6834</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="2435" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2435" s="1" t="s">
-        <v>6835</v>
+        <v>6837</v>
       </c>
       <c r="C2435" t="s">
         <v>6809</v>
@@ -78150,19 +78168,13 @@
       <c r="D2435" s="1">
         <v>68000</v>
       </c>
-      <c r="L2435" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2435" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q2435" t="s">
-        <v>6836</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="2436" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2436" s="1" t="s">
-        <v>6837</v>
+        <v>6839</v>
       </c>
       <c r="C2436" t="s">
         <v>6809</v>
@@ -78171,12 +78183,12 @@
         <v>68000</v>
       </c>
       <c r="Q2436" t="s">
-        <v>6838</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="2437" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2437" s="1" t="s">
-        <v>6839</v>
+        <v>6841</v>
       </c>
       <c r="C2437" t="s">
         <v>6809</v>
@@ -78185,12 +78197,12 @@
         <v>68000</v>
       </c>
       <c r="Q2437" t="s">
-        <v>6840</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="2438" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2438" s="1" t="s">
-        <v>6841</v>
+        <v>6843</v>
       </c>
       <c r="C2438" t="s">
         <v>6809</v>
@@ -78198,13 +78210,19 @@
       <c r="D2438" s="1">
         <v>68000</v>
       </c>
+      <c r="L2438" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2438" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2438" t="s">
-        <v>6842</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="2439" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2439" s="1" t="s">
-        <v>6843</v>
+        <v>6845</v>
       </c>
       <c r="C2439" t="s">
         <v>6809</v>
@@ -78212,19 +78230,13 @@
       <c r="D2439" s="1">
         <v>68000</v>
       </c>
-      <c r="L2439" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2439" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q2439" t="s">
-        <v>6844</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="2440" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2440" s="1" t="s">
-        <v>6845</v>
+        <v>6847</v>
       </c>
       <c r="C2440" t="s">
         <v>6809</v>
@@ -78232,13 +78244,19 @@
       <c r="D2440" s="1">
         <v>68000</v>
       </c>
+      <c r="L2440" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2440" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2440" t="s">
-        <v>6846</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="2441" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2441" s="1" t="s">
-        <v>6847</v>
+        <v>6849</v>
       </c>
       <c r="C2441" t="s">
         <v>6809</v>
@@ -78253,12 +78271,12 @@
         <v>6093</v>
       </c>
       <c r="Q2441" t="s">
-        <v>6848</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="2442" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2442" s="1" t="s">
-        <v>6849</v>
+        <v>6851</v>
       </c>
       <c r="C2442" t="s">
         <v>6809</v>
@@ -78266,33 +78284,33 @@
       <c r="D2442" s="1">
         <v>68000</v>
       </c>
-      <c r="L2442" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2442" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q2442" t="s">
-        <v>6850</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="2443" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2443" s="1" t="s">
-        <v>6851</v>
+        <v>6853</v>
       </c>
       <c r="C2443" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D2443" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D2443" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E2443" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L2443" t="s">
+        <v>1900</v>
       </c>
       <c r="Q2443" t="s">
-        <v>6852</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="2444" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2444" s="1" t="s">
-        <v>6853</v>
+        <v>6856</v>
       </c>
       <c r="C2444" t="s">
         <v>6854</v>
@@ -78307,12 +78325,12 @@
         <v>1900</v>
       </c>
       <c r="Q2444" t="s">
-        <v>6855</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="2445" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2445" s="1" t="s">
-        <v>6856</v>
+        <v>3468</v>
       </c>
       <c r="C2445" t="s">
         <v>6854</v>
@@ -78327,32 +78345,44 @@
         <v>1900</v>
       </c>
       <c r="Q2445" t="s">
-        <v>6857</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="2446" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2446" s="1" t="s">
-        <v>3468</v>
+        <v>6858</v>
       </c>
       <c r="C2446" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D2446" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E2446" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F2446" t="s">
+        <v>6862</v>
       </c>
       <c r="L2446" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M2446" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N2446" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O2446" t="s">
+        <v>6866</v>
       </c>
       <c r="Q2446" t="s">
-        <v>3470</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="2447" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2447" s="1" t="s">
-        <v>6858</v>
+        <v>6868</v>
       </c>
       <c r="C2447" t="s">
         <v>6859</v>
@@ -78379,12 +78409,12 @@
         <v>6866</v>
       </c>
       <c r="Q2447" t="s">
-        <v>6867</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="2448" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2448" s="1" t="s">
-        <v>6868</v>
+        <v>6870</v>
       </c>
       <c r="C2448" t="s">
         <v>6859</v>
@@ -78411,44 +78441,35 @@
         <v>6866</v>
       </c>
       <c r="Q2448" t="s">
-        <v>6869</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="2449" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2449" s="1" t="s">
-        <v>6870</v>
+        <v>6872</v>
       </c>
       <c r="C2449" t="s">
-        <v>6859</v>
+        <v>6873</v>
       </c>
       <c r="D2449" s="1" t="s">
-        <v>6860</v>
+        <v>2</v>
       </c>
       <c r="E2449" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F2449" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L2449" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M2449" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N2449" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O2449" t="s">
-        <v>6866</v>
+        <v>3974</v>
       </c>
       <c r="Q2449" t="s">
-        <v>6871</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="2450" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2450" s="1" t="s">
-        <v>6872</v>
+        <v>3490</v>
       </c>
       <c r="C2450" t="s">
         <v>6873</v>
@@ -78466,18 +78487,18 @@
         <v>3974</v>
       </c>
       <c r="Q2450" t="s">
-        <v>6874</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="2451" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2451" s="1" t="s">
-        <v>3490</v>
+        <v>6876</v>
       </c>
       <c r="C2451" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D2451" s="1" t="s">
-        <v>2</v>
+        <v>6877</v>
+      </c>
+      <c r="D2451" s="1">
+        <v>68000</v>
       </c>
       <c r="E2451" t="s">
         <v>2426</v>
@@ -78486,15 +78507,15 @@
         <v>5071</v>
       </c>
       <c r="M2451" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q2451" t="s">
-        <v>6875</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="2452" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2452" s="1" t="s">
-        <v>6876</v>
+        <v>6879</v>
       </c>
       <c r="C2452" t="s">
         <v>6877</v>
@@ -78502,39 +78523,42 @@
       <c r="D2452" s="1">
         <v>68000</v>
       </c>
-      <c r="E2452" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2452" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2452" t="s">
         <v>1687</v>
       </c>
       <c r="Q2452" t="s">
-        <v>6878</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="2453" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2453" s="1" t="s">
-        <v>6879</v>
+        <v>6881</v>
       </c>
       <c r="C2453" t="s">
-        <v>6877</v>
+        <v>6882</v>
       </c>
       <c r="D2453" s="1">
         <v>68000</v>
       </c>
+      <c r="E2453" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2453" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M2453" t="s">
+        <v>5071</v>
+      </c>
+      <c r="N2453" t="s">
         <v>1687</v>
       </c>
       <c r="Q2453" t="s">
-        <v>6880</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="2454" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2454" s="1" t="s">
-        <v>6881</v>
+        <v>6884</v>
       </c>
       <c r="C2454" t="s">
         <v>6882</v>
@@ -78555,12 +78579,12 @@
         <v>1687</v>
       </c>
       <c r="Q2454" t="s">
-        <v>6883</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="2455" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2455" s="1" t="s">
-        <v>6884</v>
+        <v>6886</v>
       </c>
       <c r="C2455" t="s">
         <v>6882</v>
@@ -78581,38 +78605,32 @@
         <v>1687</v>
       </c>
       <c r="Q2455" t="s">
-        <v>6885</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="2456" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2456" s="1" t="s">
-        <v>6886</v>
+        <v>6888</v>
       </c>
       <c r="C2456" t="s">
-        <v>6882</v>
+        <v>6889</v>
       </c>
       <c r="D2456" s="1">
         <v>68000</v>
       </c>
-      <c r="E2456" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2456" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M2456" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N2456" t="s">
         <v>1687</v>
       </c>
       <c r="Q2456" t="s">
-        <v>6887</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="2457" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2457" s="1" t="s">
-        <v>6888</v>
+        <v>6891</v>
       </c>
       <c r="C2457" t="s">
         <v>6889</v>
@@ -78627,32 +78645,35 @@
         <v>1687</v>
       </c>
       <c r="Q2457" t="s">
-        <v>6890</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="2458" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2458" s="1" t="s">
-        <v>6891</v>
+        <v>6893</v>
       </c>
       <c r="C2458" t="s">
-        <v>6889</v>
+        <v>6894</v>
       </c>
       <c r="D2458" s="1">
         <v>68000</v>
       </c>
+      <c r="E2458" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2458" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M2458" t="s">
         <v>1687</v>
       </c>
       <c r="Q2458" t="s">
-        <v>6892</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="2459" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2459" s="1" t="s">
-        <v>6893</v>
+        <v>6896</v>
       </c>
       <c r="C2459" t="s">
         <v>6894</v>
@@ -78670,15 +78691,15 @@
         <v>1687</v>
       </c>
       <c r="Q2459" t="s">
-        <v>6895</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="2460" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2460" s="1" t="s">
-        <v>6896</v>
+        <v>6898</v>
       </c>
       <c r="C2460" t="s">
-        <v>6894</v>
+        <v>6899</v>
       </c>
       <c r="D2460" s="1">
         <v>68000</v>
@@ -78687,58 +78708,61 @@
         <v>2426</v>
       </c>
       <c r="L2460" t="s">
-        <v>5238</v>
+        <v>5071</v>
       </c>
       <c r="M2460" t="s">
         <v>1687</v>
       </c>
       <c r="Q2460" t="s">
-        <v>6897</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="2461" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2461" s="1" t="s">
-        <v>6898</v>
+        <v>6901</v>
       </c>
       <c r="C2461" t="s">
-        <v>6899</v>
-      </c>
-      <c r="D2461" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2461" t="s">
-        <v>2426</v>
+        <v>6902</v>
+      </c>
+      <c r="D2461" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2461" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2461" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q2461" t="s">
-        <v>6900</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="2462" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2462" s="1" t="s">
-        <v>6901</v>
+        <v>6904</v>
       </c>
       <c r="C2462" t="s">
-        <v>6902</v>
+        <v>6905</v>
       </c>
       <c r="D2462" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E2462" t="s">
+        <v>6906</v>
+      </c>
+      <c r="F2462" t="s">
+        <v>6906</v>
       </c>
       <c r="L2462" t="s">
-        <v>5070</v>
+        <v>3714</v>
+      </c>
+      <c r="M2462" t="s">
+        <v>2605</v>
       </c>
       <c r="Q2462" t="s">
-        <v>6903</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="2463" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2463" s="1" t="s">
-        <v>6904</v>
+        <v>6908</v>
       </c>
       <c r="C2463" t="s">
         <v>6905</v>
@@ -78759,12 +78783,12 @@
         <v>2605</v>
       </c>
       <c r="Q2463" t="s">
-        <v>6907</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="2464" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2464" s="1" t="s">
-        <v>6908</v>
+        <v>6910</v>
       </c>
       <c r="C2464" t="s">
         <v>6905</v>
@@ -78785,38 +78809,29 @@
         <v>2605</v>
       </c>
       <c r="Q2464" t="s">
-        <v>6909</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="2465" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2465" s="1" t="s">
-        <v>6910</v>
+        <v>3439</v>
       </c>
       <c r="C2465" t="s">
-        <v>6905</v>
+        <v>3440</v>
       </c>
       <c r="D2465" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E2465" t="s">
-        <v>6906</v>
-      </c>
-      <c r="F2465" t="s">
-        <v>6906</v>
-      </c>
-      <c r="L2465" t="s">
-        <v>3714</v>
-      </c>
-      <c r="M2465" t="s">
-        <v>2605</v>
+        <v>3888</v>
       </c>
       <c r="Q2465" t="s">
-        <v>6911</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="2466" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2466" s="1" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="C2466" t="s">
         <v>3440</v>
@@ -78828,29 +78843,32 @@
         <v>3888</v>
       </c>
       <c r="Q2466" t="s">
-        <v>3441</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="2467" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2467" s="1" t="s">
-        <v>3442</v>
+        <v>3402</v>
       </c>
       <c r="C2467" t="s">
-        <v>3440</v>
+        <v>3403</v>
       </c>
       <c r="D2467" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E2467" t="s">
-        <v>3888</v>
+        <v>3794</v>
+      </c>
+      <c r="L2467" t="s">
+        <v>542</v>
       </c>
       <c r="Q2467" t="s">
-        <v>3443</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="2468" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2468" s="1" t="s">
-        <v>3402</v>
+        <v>3404</v>
       </c>
       <c r="C2468" t="s">
         <v>3403</v>
@@ -78865,12 +78883,12 @@
         <v>542</v>
       </c>
       <c r="Q2468" t="s">
-        <v>4580</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="2469" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2469" s="1" t="s">
-        <v>3404</v>
+        <v>3406</v>
       </c>
       <c r="C2469" t="s">
         <v>3403</v>
@@ -78885,12 +78903,12 @@
         <v>542</v>
       </c>
       <c r="Q2469" t="s">
-        <v>3405</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="2470" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2470" s="1" t="s">
-        <v>3406</v>
+        <v>3408</v>
       </c>
       <c r="C2470" t="s">
         <v>3403</v>
@@ -78905,12 +78923,12 @@
         <v>542</v>
       </c>
       <c r="Q2470" t="s">
-        <v>3407</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="2471" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2471" s="1" t="s">
-        <v>3408</v>
+        <v>3410</v>
       </c>
       <c r="C2471" t="s">
         <v>3403</v>
@@ -78925,52 +78943,49 @@
         <v>542</v>
       </c>
       <c r="Q2471" t="s">
-        <v>3409</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="2472" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2472" s="1" t="s">
-        <v>3410</v>
+        <v>3419</v>
       </c>
       <c r="C2472" t="s">
-        <v>3403</v>
+        <v>3420</v>
       </c>
       <c r="D2472" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2472" t="s">
-        <v>3794</v>
+        <v>2426</v>
       </c>
       <c r="L2472" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q2472" t="s">
-        <v>3411</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="2473" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2473" s="1" t="s">
-        <v>3419</v>
+        <v>3422</v>
       </c>
       <c r="C2473" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="D2473" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E2473" t="s">
-        <v>2426</v>
       </c>
       <c r="L2473" t="s">
         <v>1155</v>
       </c>
       <c r="Q2473" t="s">
-        <v>3421</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="2474" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2474" s="1" t="s">
-        <v>3422</v>
+        <v>3425</v>
       </c>
       <c r="C2474" t="s">
         <v>3423</v>
@@ -78982,180 +78997,180 @@
         <v>1155</v>
       </c>
       <c r="Q2474" t="s">
-        <v>3424</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="2475" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2475" s="1" t="s">
-        <v>3425</v>
+        <v>3432</v>
       </c>
       <c r="C2475" t="s">
-        <v>3423</v>
+        <v>3433</v>
       </c>
       <c r="D2475" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2475" t="s">
-        <v>1155</v>
+        <v>55</v>
       </c>
       <c r="Q2475" t="s">
-        <v>3426</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="2476" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2476" s="1" t="s">
-        <v>3432</v>
+        <v>3444</v>
       </c>
       <c r="C2476" t="s">
-        <v>3433</v>
-      </c>
-      <c r="D2476" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2476" t="s">
-        <v>55</v>
+        <v>3445</v>
+      </c>
+      <c r="D2476" s="1">
+        <v>8080</v>
       </c>
       <c r="Q2476" t="s">
-        <v>3434</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="2477" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2477" s="1" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="C2477" t="s">
-        <v>3445</v>
-      </c>
-      <c r="D2477" s="1">
-        <v>8080</v>
+        <v>3448</v>
+      </c>
+      <c r="D2477" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E2477" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F2477" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G2477" t="s">
+        <v>3899</v>
+      </c>
+      <c r="L2477" t="s">
+        <v>2605</v>
+      </c>
+      <c r="M2477" t="s">
+        <v>5238</v>
       </c>
       <c r="Q2477" t="s">
-        <v>3446</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="2478" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2478" s="1" t="s">
-        <v>3447</v>
+        <v>3460</v>
       </c>
       <c r="C2478" t="s">
-        <v>3448</v>
+        <v>3461</v>
       </c>
       <c r="D2478" s="1" t="s">
-        <v>3006</v>
-      </c>
-      <c r="E2478" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F2478" t="s">
-        <v>3899</v>
-      </c>
-      <c r="G2478" t="s">
-        <v>3899</v>
+        <v>2</v>
       </c>
       <c r="L2478" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M2478" t="s">
-        <v>5238</v>
+        <v>1155</v>
       </c>
       <c r="Q2478" t="s">
-        <v>4581</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="2479" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2479" s="1" t="s">
-        <v>3460</v>
+        <v>3463</v>
       </c>
       <c r="C2479" t="s">
-        <v>3461</v>
-      </c>
-      <c r="D2479" s="1" t="s">
-        <v>2</v>
+        <v>3464</v>
+      </c>
+      <c r="D2479" s="1">
+        <v>8080</v>
       </c>
       <c r="L2479" t="s">
-        <v>1155</v>
+        <v>352</v>
       </c>
       <c r="Q2479" t="s">
-        <v>3462</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="2480" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2480" s="1" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
       <c r="C2480" t="s">
-        <v>3464</v>
-      </c>
-      <c r="D2480" s="1">
-        <v>8080</v>
+        <v>3356</v>
+      </c>
+      <c r="D2480" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2480" t="s">
+        <v>2426</v>
       </c>
       <c r="L2480" t="s">
-        <v>352</v>
+        <v>5070</v>
       </c>
       <c r="Q2480" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="2481" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2481" s="1" t="s">
-        <v>3466</v>
+        <v>3471</v>
       </c>
       <c r="C2481" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D2481" s="1" t="s">
-        <v>2</v>
+        <v>3472</v>
+      </c>
+      <c r="D2481" s="1">
+        <v>68000</v>
       </c>
       <c r="E2481" t="s">
         <v>2426</v>
       </c>
       <c r="L2481" t="s">
-        <v>5070</v>
+        <v>3954</v>
       </c>
       <c r="Q2481" t="s">
-        <v>3467</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="2482" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2482" s="1" t="s">
-        <v>3471</v>
+        <v>3474</v>
       </c>
       <c r="C2482" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D2482" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2482" t="s">
-        <v>2426</v>
+        <v>3475</v>
+      </c>
+      <c r="D2482" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="L2482" t="s">
-        <v>3954</v>
+        <v>55</v>
       </c>
       <c r="Q2482" t="s">
-        <v>3473</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="2483" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2483" s="1" t="s">
-        <v>3474</v>
+        <v>6912</v>
       </c>
       <c r="C2483" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="D2483" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="L2483" t="s">
-        <v>55</v>
+        <v>352</v>
       </c>
       <c r="Q2483" t="s">
-        <v>3476</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="2484" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2484" s="1" t="s">
-        <v>6912</v>
+        <v>3477</v>
       </c>
       <c r="C2484" t="s">
         <v>3478</v>
@@ -79167,29 +79182,29 @@
         <v>352</v>
       </c>
       <c r="Q2484" t="s">
-        <v>6913</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="2485" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2485" s="1" t="s">
-        <v>3477</v>
+        <v>3479</v>
       </c>
       <c r="C2485" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="D2485" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2485" t="s">
-        <v>352</v>
+        <v>58</v>
       </c>
       <c r="Q2485" t="s">
-        <v>4586</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="2486" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2486" s="1" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="C2486" t="s">
         <v>3480</v>
@@ -79201,80 +79216,83 @@
         <v>58</v>
       </c>
       <c r="Q2486" t="s">
-        <v>3481</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="2487" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2487" s="1" t="s">
-        <v>3482</v>
+        <v>3484</v>
       </c>
       <c r="C2487" t="s">
-        <v>3480</v>
+        <v>3485</v>
       </c>
       <c r="D2487" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2487" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="Q2487" t="s">
-        <v>3483</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="2488" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2488" s="1" t="s">
-        <v>3484</v>
+        <v>3487</v>
       </c>
       <c r="C2488" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="D2488" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2488" t="s">
-        <v>77</v>
+        <v>1155</v>
       </c>
       <c r="Q2488" t="s">
-        <v>3486</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="2489" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2489" s="1" t="s">
-        <v>3487</v>
+        <v>3491</v>
       </c>
       <c r="C2489" t="s">
-        <v>3488</v>
+        <v>3492</v>
       </c>
       <c r="D2489" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2489" t="s">
-        <v>1155</v>
+        <v>55</v>
       </c>
       <c r="Q2489" t="s">
-        <v>3489</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="2490" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2490" s="1" t="s">
-        <v>3491</v>
+        <v>6914</v>
       </c>
       <c r="C2490" t="s">
-        <v>3492</v>
+        <v>6915</v>
       </c>
       <c r="D2490" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2490" t="s">
+        <v>2</v>
+      </c>
       <c r="L2490" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="Q2490" t="s">
-        <v>3493</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="2491" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2491" s="1" t="s">
-        <v>6914</v>
+        <v>6917</v>
       </c>
       <c r="C2491" t="s">
         <v>6915</v>
@@ -79289,32 +79307,29 @@
         <v>5238</v>
       </c>
       <c r="Q2491" t="s">
-        <v>6916</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="2492" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2492" s="1" t="s">
-        <v>6917</v>
+        <v>6919</v>
       </c>
       <c r="C2492" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D2492" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2492" t="s">
-        <v>2</v>
-      </c>
       <c r="L2492" t="s">
-        <v>5238</v>
+        <v>55</v>
       </c>
       <c r="Q2492" t="s">
-        <v>6918</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="2493" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2493" s="1" t="s">
-        <v>6919</v>
+        <v>6922</v>
       </c>
       <c r="C2493" t="s">
         <v>6920</v>
@@ -79322,16 +79337,25 @@
       <c r="D2493" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2493" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2493" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2493" t="s">
+        <v>542</v>
+      </c>
+      <c r="M2493" t="s">
         <v>55</v>
       </c>
       <c r="Q2493" t="s">
-        <v>6921</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="2494" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2494" s="1" t="s">
-        <v>6922</v>
+        <v>6924</v>
       </c>
       <c r="C2494" t="s">
         <v>6920</v>
@@ -79352,55 +79376,49 @@
         <v>55</v>
       </c>
       <c r="Q2494" t="s">
-        <v>6923</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="2495" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2495" s="1" t="s">
-        <v>6924</v>
+        <v>6926</v>
       </c>
       <c r="C2495" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D2495" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2495" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2495" t="s">
-        <v>2426</v>
+        <v>6927</v>
+      </c>
+      <c r="D2495" s="1">
+        <v>68000</v>
       </c>
       <c r="L2495" t="s">
-        <v>542</v>
-      </c>
-      <c r="M2495" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q2495" t="s">
-        <v>6925</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="2496" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2496" s="1" t="s">
-        <v>6926</v>
+        <v>3494</v>
       </c>
       <c r="C2496" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D2496" s="1">
         <v>68000</v>
       </c>
+      <c r="E2496" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2496" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q2496" t="s">
-        <v>6928</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="2497" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2497" s="1" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="C2497" t="s">
         <v>3495</v>
@@ -79415,12 +79433,12 @@
         <v>5549</v>
       </c>
       <c r="Q2497" t="s">
-        <v>3496</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="2498" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2498" s="1" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="C2498" t="s">
         <v>3495</v>
@@ -79435,12 +79453,12 @@
         <v>5549</v>
       </c>
       <c r="Q2498" t="s">
-        <v>4587</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="2499" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2499" s="1" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="C2499" t="s">
         <v>3495</v>
@@ -79455,12 +79473,12 @@
         <v>5549</v>
       </c>
       <c r="Q2499" t="s">
-        <v>3499</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="2500" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2500" s="1" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="C2500" t="s">
         <v>3495</v>
@@ -79475,12 +79493,12 @@
         <v>5549</v>
       </c>
       <c r="Q2500" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="2501" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2501" s="1" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="C2501" t="s">
         <v>3495</v>
@@ -79495,12 +79513,12 @@
         <v>5549</v>
       </c>
       <c r="Q2501" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="2502" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2502" s="1" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="C2502" t="s">
         <v>3495</v>
@@ -79515,12 +79533,12 @@
         <v>5549</v>
       </c>
       <c r="Q2502" t="s">
-        <v>3505</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="2503" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2503" s="1" t="s">
-        <v>3506</v>
+        <v>6930</v>
       </c>
       <c r="C2503" t="s">
         <v>3495</v>
@@ -79535,12 +79553,12 @@
         <v>5549</v>
       </c>
       <c r="Q2503" t="s">
-        <v>6929</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="2504" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2504" s="1" t="s">
-        <v>6930</v>
+        <v>3507</v>
       </c>
       <c r="C2504" t="s">
         <v>3495</v>
@@ -79555,12 +79573,12 @@
         <v>5549</v>
       </c>
       <c r="Q2504" t="s">
-        <v>6931</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="2505" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2505" s="1" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="C2505" t="s">
         <v>3495</v>
@@ -79575,12 +79593,12 @@
         <v>5549</v>
       </c>
       <c r="Q2505" t="s">
-        <v>4952</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="2506" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2506" s="1" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="C2506" t="s">
         <v>3495</v>
@@ -79595,12 +79613,12 @@
         <v>5549</v>
       </c>
       <c r="Q2506" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="2507" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2507" s="1" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="C2507" t="s">
         <v>3495</v>
@@ -79615,12 +79633,12 @@
         <v>5549</v>
       </c>
       <c r="Q2507" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="2508" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2508" s="1" t="s">
-        <v>3512</v>
+        <v>3514</v>
       </c>
       <c r="C2508" t="s">
         <v>3495</v>
@@ -79635,12 +79653,12 @@
         <v>5549</v>
       </c>
       <c r="Q2508" t="s">
-        <v>3513</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="2509" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2509" s="1" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="C2509" t="s">
         <v>3495</v>
@@ -79655,12 +79673,12 @@
         <v>5549</v>
       </c>
       <c r="Q2509" t="s">
-        <v>3515</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="2510" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2510" s="1" t="s">
-        <v>3516</v>
+        <v>3518</v>
       </c>
       <c r="C2510" t="s">
         <v>3495</v>
@@ -79675,12 +79693,12 @@
         <v>5549</v>
       </c>
       <c r="Q2510" t="s">
-        <v>3517</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2511" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2511" s="1" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="C2511" t="s">
         <v>3495</v>
@@ -79695,12 +79713,12 @@
         <v>5549</v>
       </c>
       <c r="Q2511" t="s">
-        <v>4953</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="2512" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2512" s="1" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="C2512" t="s">
         <v>3495</v>
@@ -79715,12 +79733,12 @@
         <v>5549</v>
       </c>
       <c r="Q2512" t="s">
-        <v>4954</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="2513" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2513" s="1" t="s">
-        <v>3520</v>
+        <v>3522</v>
       </c>
       <c r="C2513" t="s">
         <v>3495</v>
@@ -79735,12 +79753,12 @@
         <v>5549</v>
       </c>
       <c r="Q2513" t="s">
-        <v>3521</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="2514" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2514" s="1" t="s">
-        <v>3522</v>
+        <v>3524</v>
       </c>
       <c r="C2514" t="s">
         <v>3495</v>
@@ -79755,12 +79773,12 @@
         <v>5549</v>
       </c>
       <c r="Q2514" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="2515" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2515" s="1" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="C2515" t="s">
         <v>3495</v>
@@ -79775,12 +79793,12 @@
         <v>5549</v>
       </c>
       <c r="Q2515" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="2516" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2516" s="1" t="s">
-        <v>3526</v>
+        <v>3528</v>
       </c>
       <c r="C2516" t="s">
         <v>3495</v>
@@ -79795,12 +79813,12 @@
         <v>5549</v>
       </c>
       <c r="Q2516" t="s">
-        <v>3527</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="2517" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2517" s="1" t="s">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="C2517" t="s">
         <v>3495</v>
@@ -79815,12 +79833,12 @@
         <v>5549</v>
       </c>
       <c r="Q2517" t="s">
-        <v>3529</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="2518" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2518" s="1" t="s">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="C2518" t="s">
         <v>3495</v>
@@ -79835,12 +79853,12 @@
         <v>5549</v>
       </c>
       <c r="Q2518" t="s">
-        <v>3531</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="2519" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2519" s="1" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="C2519" t="s">
         <v>3495</v>
@@ -79855,12 +79873,12 @@
         <v>5549</v>
       </c>
       <c r="Q2519" t="s">
-        <v>4955</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="2520" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2520" s="1" t="s">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="C2520" t="s">
         <v>3495</v>
@@ -79875,12 +79893,12 @@
         <v>5549</v>
       </c>
       <c r="Q2520" t="s">
-        <v>3534</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="2521" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2521" s="1" t="s">
-        <v>3535</v>
+        <v>3537</v>
       </c>
       <c r="C2521" t="s">
         <v>3495</v>
@@ -79895,12 +79913,12 @@
         <v>5549</v>
       </c>
       <c r="Q2521" t="s">
-        <v>3536</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="2522" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2522" s="1" t="s">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="C2522" t="s">
         <v>3495</v>
@@ -79915,12 +79933,12 @@
         <v>5549</v>
       </c>
       <c r="Q2522" t="s">
-        <v>3538</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="2523" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2523" s="1" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="C2523" t="s">
         <v>3495</v>
@@ -79935,12 +79953,12 @@
         <v>5549</v>
       </c>
       <c r="Q2523" t="s">
-        <v>4956</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="2524" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2524" s="1" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="C2524" t="s">
         <v>3495</v>
@@ -79955,12 +79973,12 @@
         <v>5549</v>
       </c>
       <c r="Q2524" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2525" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2525" s="1" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="C2525" t="s">
         <v>3495</v>
@@ -79975,12 +79993,12 @@
         <v>5549</v>
       </c>
       <c r="Q2525" t="s">
-        <v>4589</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="2526" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2526" s="1" t="s">
-        <v>3542</v>
+        <v>3544</v>
       </c>
       <c r="C2526" t="s">
         <v>3495</v>
@@ -79995,12 +80013,12 @@
         <v>5549</v>
       </c>
       <c r="Q2526" t="s">
-        <v>3543</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="2527" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2527" s="1" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="C2527" t="s">
         <v>3495</v>
@@ -80015,12 +80033,12 @@
         <v>5549</v>
       </c>
       <c r="Q2527" t="s">
-        <v>3545</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="2528" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2528" s="1" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="C2528" t="s">
         <v>3495</v>
@@ -80035,12 +80053,12 @@
         <v>5549</v>
       </c>
       <c r="Q2528" t="s">
-        <v>4957</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="2529" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2529" s="1" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="C2529" t="s">
         <v>3495</v>
@@ -80055,12 +80073,12 @@
         <v>5549</v>
       </c>
       <c r="Q2529" t="s">
-        <v>3548</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="2530" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2530" s="1" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="C2530" t="s">
         <v>3495</v>
@@ -80075,12 +80093,12 @@
         <v>5549</v>
       </c>
       <c r="Q2530" t="s">
-        <v>4590</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="2531" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2531" s="1" t="s">
-        <v>3550</v>
+        <v>3552</v>
       </c>
       <c r="C2531" t="s">
         <v>3495</v>
@@ -80095,12 +80113,12 @@
         <v>5549</v>
       </c>
       <c r="Q2531" t="s">
-        <v>3551</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="2532" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2532" s="1" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="C2532" t="s">
         <v>3495</v>
@@ -80115,12 +80133,12 @@
         <v>5549</v>
       </c>
       <c r="Q2532" t="s">
-        <v>3553</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="2533" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2533" s="1" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="C2533" t="s">
         <v>3495</v>
@@ -80135,12 +80153,12 @@
         <v>5549</v>
       </c>
       <c r="Q2533" t="s">
-        <v>4958</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="2534" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2534" s="1" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="C2534" t="s">
         <v>3495</v>
@@ -80155,12 +80173,12 @@
         <v>5549</v>
       </c>
       <c r="Q2534" t="s">
-        <v>4591</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="2535" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2535" s="1" t="s">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="C2535" t="s">
         <v>3495</v>
@@ -80175,12 +80193,12 @@
         <v>5549</v>
       </c>
       <c r="Q2535" t="s">
-        <v>3557</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="2536" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2536" s="1" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="C2536" t="s">
         <v>3495</v>
@@ -80195,12 +80213,12 @@
         <v>5549</v>
       </c>
       <c r="Q2536" t="s">
-        <v>4959</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="2537" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2537" s="1" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="C2537" t="s">
         <v>3495</v>
@@ -80215,12 +80233,12 @@
         <v>5549</v>
       </c>
       <c r="Q2537" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="2538" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2538" s="1" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="C2538" t="s">
         <v>3495</v>
@@ -80235,12 +80253,12 @@
         <v>5549</v>
       </c>
       <c r="Q2538" t="s">
-        <v>4593</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="2539" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2539" s="1" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="C2539" t="s">
         <v>3495</v>
@@ -80255,12 +80273,12 @@
         <v>5549</v>
       </c>
       <c r="Q2539" t="s">
-        <v>4960</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="2540" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2540" s="1" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="C2540" t="s">
         <v>3495</v>
@@ -80275,12 +80293,12 @@
         <v>5549</v>
       </c>
       <c r="Q2540" t="s">
-        <v>4594</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2541" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2541" s="1" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="C2541" t="s">
         <v>3495</v>
@@ -80295,12 +80313,12 @@
         <v>5549</v>
       </c>
       <c r="Q2541" t="s">
-        <v>4961</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="2542" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2542" s="1" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="C2542" t="s">
         <v>3495</v>
@@ -80315,12 +80333,12 @@
         <v>5549</v>
       </c>
       <c r="Q2542" t="s">
-        <v>4962</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="2543" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2543" s="1" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="C2543" t="s">
         <v>3495</v>
@@ -80335,12 +80353,12 @@
         <v>5549</v>
       </c>
       <c r="Q2543" t="s">
-        <v>3566</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="2544" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2544" s="1" t="s">
-        <v>3567</v>
+        <v>3569</v>
       </c>
       <c r="C2544" t="s">
         <v>3495</v>
@@ -80355,12 +80373,12 @@
         <v>5549</v>
       </c>
       <c r="Q2544" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="2545" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2545" s="1" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="C2545" t="s">
         <v>3495</v>
@@ -80375,12 +80393,12 @@
         <v>5549</v>
       </c>
       <c r="Q2545" t="s">
-        <v>3570</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="2546" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2546" s="1" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="C2546" t="s">
         <v>3495</v>
@@ -80395,12 +80413,12 @@
         <v>5549</v>
       </c>
       <c r="Q2546" t="s">
-        <v>4595</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="2547" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2547" s="1" t="s">
-        <v>3572</v>
+        <v>3574</v>
       </c>
       <c r="C2547" t="s">
         <v>3495</v>
@@ -80415,12 +80433,12 @@
         <v>5549</v>
       </c>
       <c r="Q2547" t="s">
-        <v>3573</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="2548" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2548" s="1" t="s">
-        <v>3574</v>
+        <v>3576</v>
       </c>
       <c r="C2548" t="s">
         <v>3495</v>
@@ -80435,12 +80453,12 @@
         <v>5549</v>
       </c>
       <c r="Q2548" t="s">
-        <v>3575</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="2549" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2549" s="1" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="C2549" t="s">
         <v>3495</v>
@@ -80455,12 +80473,12 @@
         <v>5549</v>
       </c>
       <c r="Q2549" t="s">
-        <v>4963</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="2550" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2550" s="1" t="s">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="C2550" t="s">
         <v>3495</v>
@@ -80475,12 +80493,12 @@
         <v>5549</v>
       </c>
       <c r="Q2550" t="s">
-        <v>3578</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="2551" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2551" s="1" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="C2551" t="s">
         <v>3495</v>
@@ -80495,12 +80513,12 @@
         <v>5549</v>
       </c>
       <c r="Q2551" t="s">
-        <v>4964</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2552" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2552" s="1" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="C2552" t="s">
         <v>3495</v>
@@ -80515,12 +80533,12 @@
         <v>5549</v>
       </c>
       <c r="Q2552" t="s">
-        <v>4965</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="2553" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2553" s="1" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="C2553" t="s">
         <v>3495</v>
@@ -80535,12 +80553,12 @@
         <v>5549</v>
       </c>
       <c r="Q2553" t="s">
-        <v>4596</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="2554" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2554" s="1" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="C2554" t="s">
         <v>3495</v>
@@ -80555,12 +80573,12 @@
         <v>5549</v>
       </c>
       <c r="Q2554" t="s">
-        <v>4966</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="2555" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2555" s="1" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="C2555" t="s">
         <v>3495</v>
@@ -80575,12 +80593,12 @@
         <v>5549</v>
       </c>
       <c r="Q2555" t="s">
-        <v>4597</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2556" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2556" s="1" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="C2556" t="s">
         <v>3495</v>
@@ -80595,12 +80613,12 @@
         <v>5549</v>
       </c>
       <c r="Q2556" t="s">
-        <v>4967</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="2557" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2557" s="1" t="s">
-        <v>3585</v>
+        <v>3587</v>
       </c>
       <c r="C2557" t="s">
         <v>3495</v>
@@ -80615,12 +80633,12 @@
         <v>5549</v>
       </c>
       <c r="Q2557" t="s">
-        <v>3586</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="2558" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2558" s="1" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="C2558" t="s">
         <v>3495</v>
@@ -80635,12 +80653,12 @@
         <v>5549</v>
       </c>
       <c r="Q2558" t="s">
-        <v>4598</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="2559" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2559" s="1" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="C2559" t="s">
         <v>3495</v>
@@ -80655,12 +80673,12 @@
         <v>5549</v>
       </c>
       <c r="Q2559" t="s">
-        <v>4968</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="2560" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2560" s="1" t="s">
-        <v>3589</v>
+        <v>3591</v>
       </c>
       <c r="C2560" t="s">
         <v>3495</v>
@@ -80675,12 +80693,12 @@
         <v>5549</v>
       </c>
       <c r="Q2560" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="2561" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2561" s="1" t="s">
-        <v>3591</v>
+        <v>3593</v>
       </c>
       <c r="C2561" t="s">
         <v>3495</v>
@@ -80695,12 +80713,12 @@
         <v>5549</v>
       </c>
       <c r="Q2561" t="s">
-        <v>3592</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="2562" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2562" s="1" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="C2562" t="s">
         <v>3495</v>
@@ -80715,12 +80733,12 @@
         <v>5549</v>
       </c>
       <c r="Q2562" t="s">
-        <v>4969</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="2563" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2563" s="1" t="s">
-        <v>3594</v>
+        <v>3596</v>
       </c>
       <c r="C2563" t="s">
         <v>3495</v>
@@ -80735,12 +80753,12 @@
         <v>5549</v>
       </c>
       <c r="Q2563" t="s">
-        <v>3595</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="2564" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2564" s="1" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="C2564" t="s">
         <v>3495</v>
@@ -80755,12 +80773,12 @@
         <v>5549</v>
       </c>
       <c r="Q2564" t="s">
-        <v>4970</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="2565" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2565" s="1" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="C2565" t="s">
         <v>3495</v>
@@ -80775,12 +80793,12 @@
         <v>5549</v>
       </c>
       <c r="Q2565" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="2566" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2566" s="1" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="C2566" t="s">
         <v>3495</v>
@@ -80795,12 +80813,12 @@
         <v>5549</v>
       </c>
       <c r="Q2566" t="s">
-        <v>4600</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2567" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2567" s="1" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="C2567" t="s">
         <v>3495</v>
@@ -80815,12 +80833,12 @@
         <v>5549</v>
       </c>
       <c r="Q2567" t="s">
-        <v>4971</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="2568" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2568" s="1" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="C2568" t="s">
         <v>3495</v>
@@ -80835,12 +80853,12 @@
         <v>5549</v>
       </c>
       <c r="Q2568" t="s">
-        <v>4972</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="2569" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2569" s="1" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="C2569" t="s">
         <v>3495</v>
@@ -80855,12 +80873,12 @@
         <v>5549</v>
       </c>
       <c r="Q2569" t="s">
-        <v>3602</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2570" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2570" s="1" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="C2570" t="s">
         <v>3495</v>
@@ -80875,12 +80893,12 @@
         <v>5549</v>
       </c>
       <c r="Q2570" t="s">
-        <v>4973</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2571" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2571" s="1" t="s">
-        <v>3604</v>
+        <v>6932</v>
       </c>
       <c r="C2571" t="s">
         <v>3495</v>
@@ -80895,12 +80913,12 @@
         <v>5549</v>
       </c>
       <c r="Q2571" t="s">
-        <v>3605</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="2572" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2572" s="1" t="s">
-        <v>6932</v>
+        <v>3607</v>
       </c>
       <c r="C2572" t="s">
         <v>3495</v>
@@ -80915,12 +80933,12 @@
         <v>5549</v>
       </c>
       <c r="Q2572" t="s">
-        <v>4974</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="2573" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2573" s="1" t="s">
-        <v>3607</v>
+        <v>3609</v>
       </c>
       <c r="C2573" t="s">
         <v>3495</v>
@@ -80935,12 +80953,12 @@
         <v>5549</v>
       </c>
       <c r="Q2573" t="s">
-        <v>3608</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="2574" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2574" s="1" t="s">
-        <v>3609</v>
+        <v>3611</v>
       </c>
       <c r="C2574" t="s">
         <v>3495</v>
@@ -80955,12 +80973,12 @@
         <v>5549</v>
       </c>
       <c r="Q2574" t="s">
-        <v>3610</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="2575" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2575" s="1" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="C2575" t="s">
         <v>3495</v>
@@ -80975,12 +80993,12 @@
         <v>5549</v>
       </c>
       <c r="Q2575" t="s">
-        <v>4975</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="2576" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2576" s="1" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="C2576" t="s">
         <v>3495</v>
@@ -80995,12 +81013,12 @@
         <v>5549</v>
       </c>
       <c r="Q2576" t="s">
-        <v>4976</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="2577" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2577" s="1" t="s">
-        <v>3613</v>
+        <v>3615</v>
       </c>
       <c r="C2577" t="s">
         <v>3495</v>
@@ -81015,12 +81033,12 @@
         <v>5549</v>
       </c>
       <c r="Q2577" t="s">
-        <v>3614</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="2578" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2578" s="1" t="s">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C2578" t="s">
         <v>3495</v>
@@ -81035,12 +81053,12 @@
         <v>5549</v>
       </c>
       <c r="Q2578" t="s">
-        <v>3616</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2579" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2579" s="1" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="C2579" t="s">
         <v>3495</v>
@@ -81055,12 +81073,12 @@
         <v>5549</v>
       </c>
       <c r="Q2579" t="s">
-        <v>4977</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="2580" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2580" s="1" t="s">
-        <v>3618</v>
+        <v>3620</v>
       </c>
       <c r="C2580" t="s">
         <v>3495</v>
@@ -81075,12 +81093,12 @@
         <v>5549</v>
       </c>
       <c r="Q2580" t="s">
-        <v>3619</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="2581" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2581" s="1" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="C2581" t="s">
         <v>3495</v>
@@ -81095,12 +81113,12 @@
         <v>5549</v>
       </c>
       <c r="Q2581" t="s">
-        <v>4978</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2582" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2582" s="1" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="C2582" t="s">
         <v>3495</v>
@@ -81115,12 +81133,12 @@
         <v>5549</v>
       </c>
       <c r="Q2582" t="s">
-        <v>4979</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="2583" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2583" s="1" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="C2583" t="s">
         <v>3495</v>
@@ -81135,12 +81153,12 @@
         <v>5549</v>
       </c>
       <c r="Q2583" t="s">
-        <v>4980</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="2584" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2584" s="1" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="C2584" t="s">
         <v>3495</v>
@@ -81155,12 +81173,12 @@
         <v>5549</v>
       </c>
       <c r="Q2584" t="s">
-        <v>4601</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="2585" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2585" s="1" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="C2585" t="s">
         <v>3495</v>
@@ -81175,12 +81193,12 @@
         <v>5549</v>
       </c>
       <c r="Q2585" t="s">
-        <v>4981</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="2586" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2586" s="1" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="C2586" t="s">
         <v>3495</v>
@@ -81195,12 +81213,12 @@
         <v>5549</v>
       </c>
       <c r="Q2586" t="s">
-        <v>4602</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="2587" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2587" s="1" t="s">
-        <v>3626</v>
+        <v>3628</v>
       </c>
       <c r="C2587" t="s">
         <v>3495</v>
@@ -81215,12 +81233,12 @@
         <v>5549</v>
       </c>
       <c r="Q2587" t="s">
-        <v>3627</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="2588" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2588" s="1" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="C2588" t="s">
         <v>3495</v>
@@ -81235,12 +81253,12 @@
         <v>5549</v>
       </c>
       <c r="Q2588" t="s">
-        <v>4982</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="2589" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2589" s="1" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="C2589" t="s">
         <v>3495</v>
@@ -81255,12 +81273,12 @@
         <v>5549</v>
       </c>
       <c r="Q2589" t="s">
-        <v>4603</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="2590" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2590" s="1" t="s">
-        <v>3630</v>
+        <v>3632</v>
       </c>
       <c r="C2590" t="s">
         <v>3495</v>
@@ -81275,12 +81293,12 @@
         <v>5549</v>
       </c>
       <c r="Q2590" t="s">
-        <v>3631</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="2591" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2591" s="1" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="C2591" t="s">
         <v>3495</v>
@@ -81295,12 +81313,12 @@
         <v>5549</v>
       </c>
       <c r="Q2591" t="s">
-        <v>4983</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="2592" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2592" s="1" t="s">
-        <v>3633</v>
+        <v>3635</v>
       </c>
       <c r="C2592" t="s">
         <v>3495</v>
@@ -81315,12 +81333,12 @@
         <v>5549</v>
       </c>
       <c r="Q2592" t="s">
-        <v>3634</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="2593" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2593" s="1" t="s">
-        <v>3635</v>
+        <v>3637</v>
       </c>
       <c r="C2593" t="s">
         <v>3495</v>
@@ -81335,12 +81353,12 @@
         <v>5549</v>
       </c>
       <c r="Q2593" t="s">
-        <v>3636</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="2594" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2594" s="1" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="C2594" t="s">
         <v>3495</v>
@@ -81355,12 +81373,12 @@
         <v>5549</v>
       </c>
       <c r="Q2594" t="s">
-        <v>4604</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="2595" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2595" s="1" t="s">
-        <v>3638</v>
+        <v>3640</v>
       </c>
       <c r="C2595" t="s">
         <v>3495</v>
@@ -81375,12 +81393,12 @@
         <v>5549</v>
       </c>
       <c r="Q2595" t="s">
-        <v>3639</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="2596" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2596" s="1" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="C2596" t="s">
         <v>3495</v>
@@ -81395,12 +81413,12 @@
         <v>5549</v>
       </c>
       <c r="Q2596" t="s">
-        <v>4984</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2597" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2597" s="1" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="C2597" t="s">
         <v>3495</v>
@@ -81415,12 +81433,12 @@
         <v>5549</v>
       </c>
       <c r="Q2597" t="s">
-        <v>4985</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="2598" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2598" s="1" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="C2598" t="s">
         <v>3495</v>
@@ -81435,12 +81453,12 @@
         <v>5549</v>
       </c>
       <c r="Q2598" t="s">
-        <v>4605</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="2599" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2599" s="1" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="C2599" t="s">
         <v>3495</v>
@@ -81455,12 +81473,12 @@
         <v>5549</v>
       </c>
       <c r="Q2599" t="s">
-        <v>4986</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2600" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2600" s="1" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="C2600" t="s">
         <v>3495</v>
@@ -81475,12 +81493,12 @@
         <v>5549</v>
       </c>
       <c r="Q2600" t="s">
-        <v>4987</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="2601" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2601" s="1" t="s">
-        <v>3645</v>
+        <v>3647</v>
       </c>
       <c r="C2601" t="s">
         <v>3495</v>
@@ -81495,12 +81513,12 @@
         <v>5549</v>
       </c>
       <c r="Q2601" t="s">
-        <v>3646</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="2602" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2602" s="1" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="C2602" t="s">
         <v>3495</v>
@@ -81515,12 +81533,12 @@
         <v>5549</v>
       </c>
       <c r="Q2602" t="s">
-        <v>4988</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2603" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2603" s="1" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C2603" t="s">
         <v>3495</v>
@@ -81535,12 +81553,12 @@
         <v>5549</v>
       </c>
       <c r="Q2603" t="s">
-        <v>4989</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="2604" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2604" s="1" t="s">
-        <v>3649</v>
+        <v>3651</v>
       </c>
       <c r="C2604" t="s">
         <v>3495</v>
@@ -81555,12 +81573,12 @@
         <v>5549</v>
       </c>
       <c r="Q2604" t="s">
-        <v>3650</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="2605" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2605" s="1" t="s">
-        <v>3651</v>
+        <v>3653</v>
       </c>
       <c r="C2605" t="s">
         <v>3495</v>
@@ -81575,12 +81593,12 @@
         <v>5549</v>
       </c>
       <c r="Q2605" t="s">
-        <v>3652</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="2606" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2606" s="1" t="s">
-        <v>3653</v>
+        <v>3655</v>
       </c>
       <c r="C2606" t="s">
         <v>3495</v>
@@ -81595,12 +81613,12 @@
         <v>5549</v>
       </c>
       <c r="Q2606" t="s">
-        <v>3654</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="2607" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2607" s="1" t="s">
-        <v>3655</v>
+        <v>3657</v>
       </c>
       <c r="C2607" t="s">
         <v>3495</v>
@@ -81615,12 +81633,12 @@
         <v>5549</v>
       </c>
       <c r="Q2607" t="s">
-        <v>3656</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="2608" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2608" s="1" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="C2608" t="s">
         <v>3495</v>
@@ -81635,12 +81653,12 @@
         <v>5549</v>
       </c>
       <c r="Q2608" t="s">
-        <v>4990</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="2609" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2609" s="1" t="s">
-        <v>3658</v>
+        <v>3660</v>
       </c>
       <c r="C2609" t="s">
         <v>3495</v>
@@ -81655,12 +81673,12 @@
         <v>5549</v>
       </c>
       <c r="Q2609" t="s">
-        <v>3659</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="2610" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2610" s="1" t="s">
-        <v>3660</v>
+        <v>3662</v>
       </c>
       <c r="C2610" t="s">
         <v>3495</v>
@@ -81675,12 +81693,12 @@
         <v>5549</v>
       </c>
       <c r="Q2610" t="s">
-        <v>3661</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2611" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2611" s="1" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="C2611" t="s">
         <v>3495</v>
@@ -81695,12 +81713,12 @@
         <v>5549</v>
       </c>
       <c r="Q2611" t="s">
-        <v>4991</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="2612" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2612" s="1" t="s">
-        <v>3663</v>
+        <v>3665</v>
       </c>
       <c r="C2612" t="s">
         <v>3495</v>
@@ -81715,12 +81733,12 @@
         <v>5549</v>
       </c>
       <c r="Q2612" t="s">
-        <v>3664</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="2613" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2613" s="1" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="C2613" t="s">
         <v>3495</v>
@@ -81735,12 +81753,12 @@
         <v>5549</v>
       </c>
       <c r="Q2613" t="s">
-        <v>4992</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="2614" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2614" s="1" t="s">
-        <v>3666</v>
+        <v>3668</v>
       </c>
       <c r="C2614" t="s">
         <v>3495</v>
@@ -81755,12 +81773,12 @@
         <v>5549</v>
       </c>
       <c r="Q2614" t="s">
-        <v>3667</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="2615" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2615" s="1" t="s">
-        <v>3668</v>
+        <v>3670</v>
       </c>
       <c r="C2615" t="s">
         <v>3495</v>
@@ -81775,12 +81793,12 @@
         <v>5549</v>
       </c>
       <c r="Q2615" t="s">
-        <v>3669</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="2616" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2616" s="1" t="s">
-        <v>3670</v>
+        <v>3672</v>
       </c>
       <c r="C2616" t="s">
         <v>3495</v>
@@ -81795,12 +81813,12 @@
         <v>5549</v>
       </c>
       <c r="Q2616" t="s">
-        <v>3671</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="2617" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2617" s="1" t="s">
-        <v>3672</v>
+        <v>3674</v>
       </c>
       <c r="C2617" t="s">
         <v>3495</v>
@@ -81815,12 +81833,12 @@
         <v>5549</v>
       </c>
       <c r="Q2617" t="s">
-        <v>3673</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="2618" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2618" s="1" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="C2618" t="s">
         <v>3495</v>
@@ -81835,12 +81853,12 @@
         <v>5549</v>
       </c>
       <c r="Q2618" t="s">
-        <v>4993</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="2619" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2619" s="1" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="C2619" t="s">
         <v>3495</v>
@@ -81855,12 +81873,12 @@
         <v>5549</v>
       </c>
       <c r="Q2619" t="s">
-        <v>4994</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="2620" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2620" s="1" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="C2620" t="s">
         <v>3495</v>
@@ -81875,12 +81893,12 @@
         <v>5549</v>
       </c>
       <c r="Q2620" t="s">
-        <v>4995</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="2621" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2621" s="1" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="C2621" t="s">
         <v>3495</v>
@@ -81895,12 +81913,12 @@
         <v>5549</v>
       </c>
       <c r="Q2621" t="s">
-        <v>4996</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="2622" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2622" s="1" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="C2622" t="s">
         <v>3495</v>
@@ -81915,12 +81933,12 @@
         <v>5549</v>
       </c>
       <c r="Q2622" t="s">
-        <v>4997</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="2623" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2623" s="1" t="s">
-        <v>3679</v>
+        <v>3681</v>
       </c>
       <c r="C2623" t="s">
         <v>3495</v>
@@ -81935,12 +81953,12 @@
         <v>5549</v>
       </c>
       <c r="Q2623" t="s">
-        <v>3680</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="2624" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2624" s="1" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="C2624" t="s">
         <v>3495</v>
@@ -81955,12 +81973,12 @@
         <v>5549</v>
       </c>
       <c r="Q2624" t="s">
-        <v>4606</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="2625" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2625" s="1" t="s">
-        <v>3682</v>
+        <v>6933</v>
       </c>
       <c r="C2625" t="s">
         <v>3495</v>
@@ -81975,12 +81993,12 @@
         <v>5549</v>
       </c>
       <c r="Q2625" t="s">
-        <v>3683</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="2626" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2626" s="1" t="s">
-        <v>6933</v>
+        <v>6935</v>
       </c>
       <c r="C2626" t="s">
         <v>3495</v>
@@ -81995,12 +82013,12 @@
         <v>5549</v>
       </c>
       <c r="Q2626" t="s">
-        <v>6934</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="2627" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2627" s="1" t="s">
-        <v>6935</v>
+        <v>6937</v>
       </c>
       <c r="C2627" t="s">
         <v>3495</v>
@@ -82015,12 +82033,12 @@
         <v>5549</v>
       </c>
       <c r="Q2627" t="s">
-        <v>6936</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="2628" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2628" s="1" t="s">
-        <v>6937</v>
+        <v>6939</v>
       </c>
       <c r="C2628" t="s">
         <v>3495</v>
@@ -82035,12 +82053,12 @@
         <v>5549</v>
       </c>
       <c r="Q2628" t="s">
-        <v>6938</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="2629" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2629" s="1" t="s">
-        <v>6939</v>
+        <v>6941</v>
       </c>
       <c r="C2629" t="s">
         <v>3495</v>
@@ -82055,12 +82073,12 @@
         <v>5549</v>
       </c>
       <c r="Q2629" t="s">
-        <v>6940</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="2630" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2630" s="1" t="s">
-        <v>6941</v>
+        <v>6943</v>
       </c>
       <c r="C2630" t="s">
         <v>3495</v>
@@ -82075,12 +82093,12 @@
         <v>5549</v>
       </c>
       <c r="Q2630" t="s">
-        <v>6942</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="2631" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2631" s="1" t="s">
-        <v>6943</v>
+        <v>6945</v>
       </c>
       <c r="C2631" t="s">
         <v>3495</v>
@@ -82095,12 +82113,12 @@
         <v>5549</v>
       </c>
       <c r="Q2631" t="s">
-        <v>6944</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="2632" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2632" s="1" t="s">
-        <v>6945</v>
+        <v>6947</v>
       </c>
       <c r="C2632" t="s">
         <v>3495</v>
@@ -82115,12 +82133,12 @@
         <v>5549</v>
       </c>
       <c r="Q2632" t="s">
-        <v>6946</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="2633" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2633" s="1" t="s">
-        <v>6947</v>
+        <v>6949</v>
       </c>
       <c r="C2633" t="s">
         <v>3495</v>
@@ -82135,12 +82153,12 @@
         <v>5549</v>
       </c>
       <c r="Q2633" t="s">
-        <v>6948</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="2634" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2634" s="1" t="s">
-        <v>6949</v>
+        <v>6951</v>
       </c>
       <c r="C2634" t="s">
         <v>3495</v>
@@ -82155,12 +82173,12 @@
         <v>5549</v>
       </c>
       <c r="Q2634" t="s">
-        <v>6950</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="2635" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2635" s="1" t="s">
-        <v>6951</v>
+        <v>6953</v>
       </c>
       <c r="C2635" t="s">
         <v>3495</v>
@@ -82175,26 +82193,6 @@
         <v>5549</v>
       </c>
       <c r="Q2635" t="s">
-        <v>6952</v>
-      </c>
-    </row>
-    <row r="2636" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2636" s="1" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C2636" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D2636" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2636" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2636" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q2636" t="s">
         <v>6954</v>
       </c>
     </row>
@@ -82212,7 +82210,7 @@
       <selection activeCell="A360" sqref="A360:XFD360"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NetBeansProjects\arcadeflex056\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="working" sheetId="9" r:id="rId1"/>
@@ -21,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$2626</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$2625</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -21014,7 +21009,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -21288,7 +21283,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21296,13 +21291,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q157"/>
+  <dimension ref="A1:Q158"/>
   <sheetViews>
     <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -24766,6 +24761,26 @@
       </c>
       <c r="Q157" t="s">
         <v>3456</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L158" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>3486</v>
       </c>
     </row>
   </sheetData>
@@ -24781,7 +24796,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
@@ -24896,7 +24911,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -24984,7 +24999,7 @@
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -25139,13 +25154,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R2626"/>
+  <dimension ref="B1:R2625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A2463" workbookViewId="0">
+      <selection activeCell="A2478" sqref="A2478:XFD2478"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -79034,58 +79049,61 @@
     </row>
     <row r="2478" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2478" s="1" t="s">
-        <v>3484</v>
+        <v>3487</v>
       </c>
       <c r="C2478" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="D2478" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2478" t="s">
-        <v>77</v>
+        <v>1155</v>
       </c>
       <c r="Q2478" t="s">
-        <v>3486</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="2479" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2479" s="1" t="s">
-        <v>3487</v>
+        <v>3491</v>
       </c>
       <c r="C2479" t="s">
-        <v>3488</v>
+        <v>3492</v>
       </c>
       <c r="D2479" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2479" t="s">
-        <v>1155</v>
+        <v>55</v>
       </c>
       <c r="Q2479" t="s">
-        <v>3489</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="2480" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2480" s="1" t="s">
-        <v>3491</v>
+        <v>6914</v>
       </c>
       <c r="C2480" t="s">
-        <v>3492</v>
+        <v>6915</v>
       </c>
       <c r="D2480" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2480" t="s">
+        <v>2</v>
+      </c>
       <c r="L2480" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="Q2480" t="s">
-        <v>3493</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="2481" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2481" s="1" t="s">
-        <v>6914</v>
+        <v>6917</v>
       </c>
       <c r="C2481" t="s">
         <v>6915</v>
@@ -79100,32 +79118,29 @@
         <v>5238</v>
       </c>
       <c r="Q2481" t="s">
-        <v>6916</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="2482" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2482" s="1" t="s">
-        <v>6917</v>
+        <v>6919</v>
       </c>
       <c r="C2482" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D2482" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2482" t="s">
-        <v>2</v>
-      </c>
       <c r="L2482" t="s">
-        <v>5238</v>
+        <v>55</v>
       </c>
       <c r="Q2482" t="s">
-        <v>6918</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="2483" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2483" s="1" t="s">
-        <v>6919</v>
+        <v>6922</v>
       </c>
       <c r="C2483" t="s">
         <v>6920</v>
@@ -79133,16 +79148,25 @@
       <c r="D2483" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2483" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2483" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2483" t="s">
+        <v>542</v>
+      </c>
+      <c r="M2483" t="s">
         <v>55</v>
       </c>
       <c r="Q2483" t="s">
-        <v>6921</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="2484" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2484" s="1" t="s">
-        <v>6922</v>
+        <v>6924</v>
       </c>
       <c r="C2484" t="s">
         <v>6920</v>
@@ -79163,55 +79187,49 @@
         <v>55</v>
       </c>
       <c r="Q2484" t="s">
-        <v>6923</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="2485" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2485" s="1" t="s">
-        <v>6924</v>
+        <v>6926</v>
       </c>
       <c r="C2485" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D2485" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2485" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2485" t="s">
-        <v>2426</v>
+        <v>6927</v>
+      </c>
+      <c r="D2485" s="1">
+        <v>68000</v>
       </c>
       <c r="L2485" t="s">
-        <v>542</v>
-      </c>
-      <c r="M2485" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q2485" t="s">
-        <v>6925</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="2486" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2486" s="1" t="s">
-        <v>6926</v>
+        <v>3494</v>
       </c>
       <c r="C2486" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D2486" s="1">
         <v>68000</v>
       </c>
+      <c r="E2486" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2486" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q2486" t="s">
-        <v>6928</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="2487" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2487" s="1" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="C2487" t="s">
         <v>3495</v>
@@ -79226,12 +79244,12 @@
         <v>5549</v>
       </c>
       <c r="Q2487" t="s">
-        <v>3496</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="2488" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2488" s="1" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="C2488" t="s">
         <v>3495</v>
@@ -79246,12 +79264,12 @@
         <v>5549</v>
       </c>
       <c r="Q2488" t="s">
-        <v>4587</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="2489" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2489" s="1" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="C2489" t="s">
         <v>3495</v>
@@ -79266,12 +79284,12 @@
         <v>5549</v>
       </c>
       <c r="Q2489" t="s">
-        <v>3499</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="2490" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2490" s="1" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="C2490" t="s">
         <v>3495</v>
@@ -79286,12 +79304,12 @@
         <v>5549</v>
       </c>
       <c r="Q2490" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="2491" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2491" s="1" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="C2491" t="s">
         <v>3495</v>
@@ -79306,12 +79324,12 @@
         <v>5549</v>
       </c>
       <c r="Q2491" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="2492" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2492" s="1" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="C2492" t="s">
         <v>3495</v>
@@ -79326,12 +79344,12 @@
         <v>5549</v>
       </c>
       <c r="Q2492" t="s">
-        <v>3505</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="2493" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2493" s="1" t="s">
-        <v>3506</v>
+        <v>6930</v>
       </c>
       <c r="C2493" t="s">
         <v>3495</v>
@@ -79346,12 +79364,12 @@
         <v>5549</v>
       </c>
       <c r="Q2493" t="s">
-        <v>6929</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="2494" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2494" s="1" t="s">
-        <v>6930</v>
+        <v>3507</v>
       </c>
       <c r="C2494" t="s">
         <v>3495</v>
@@ -79366,12 +79384,12 @@
         <v>5549</v>
       </c>
       <c r="Q2494" t="s">
-        <v>6931</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="2495" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2495" s="1" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="C2495" t="s">
         <v>3495</v>
@@ -79386,12 +79404,12 @@
         <v>5549</v>
       </c>
       <c r="Q2495" t="s">
-        <v>4952</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="2496" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2496" s="1" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="C2496" t="s">
         <v>3495</v>
@@ -79406,12 +79424,12 @@
         <v>5549</v>
       </c>
       <c r="Q2496" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="2497" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2497" s="1" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="C2497" t="s">
         <v>3495</v>
@@ -79426,12 +79444,12 @@
         <v>5549</v>
       </c>
       <c r="Q2497" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="2498" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2498" s="1" t="s">
-        <v>3512</v>
+        <v>3514</v>
       </c>
       <c r="C2498" t="s">
         <v>3495</v>
@@ -79446,12 +79464,12 @@
         <v>5549</v>
       </c>
       <c r="Q2498" t="s">
-        <v>3513</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="2499" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2499" s="1" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="C2499" t="s">
         <v>3495</v>
@@ -79466,12 +79484,12 @@
         <v>5549</v>
       </c>
       <c r="Q2499" t="s">
-        <v>3515</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="2500" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2500" s="1" t="s">
-        <v>3516</v>
+        <v>3518</v>
       </c>
       <c r="C2500" t="s">
         <v>3495</v>
@@ -79486,12 +79504,12 @@
         <v>5549</v>
       </c>
       <c r="Q2500" t="s">
-        <v>3517</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2501" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2501" s="1" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="C2501" t="s">
         <v>3495</v>
@@ -79506,12 +79524,12 @@
         <v>5549</v>
       </c>
       <c r="Q2501" t="s">
-        <v>4953</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="2502" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2502" s="1" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="C2502" t="s">
         <v>3495</v>
@@ -79526,12 +79544,12 @@
         <v>5549</v>
       </c>
       <c r="Q2502" t="s">
-        <v>4954</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="2503" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2503" s="1" t="s">
-        <v>3520</v>
+        <v>3522</v>
       </c>
       <c r="C2503" t="s">
         <v>3495</v>
@@ -79546,12 +79564,12 @@
         <v>5549</v>
       </c>
       <c r="Q2503" t="s">
-        <v>3521</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="2504" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2504" s="1" t="s">
-        <v>3522</v>
+        <v>3524</v>
       </c>
       <c r="C2504" t="s">
         <v>3495</v>
@@ -79566,12 +79584,12 @@
         <v>5549</v>
       </c>
       <c r="Q2504" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="2505" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2505" s="1" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="C2505" t="s">
         <v>3495</v>
@@ -79586,12 +79604,12 @@
         <v>5549</v>
       </c>
       <c r="Q2505" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="2506" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2506" s="1" t="s">
-        <v>3526</v>
+        <v>3528</v>
       </c>
       <c r="C2506" t="s">
         <v>3495</v>
@@ -79606,12 +79624,12 @@
         <v>5549</v>
       </c>
       <c r="Q2506" t="s">
-        <v>3527</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="2507" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2507" s="1" t="s">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="C2507" t="s">
         <v>3495</v>
@@ -79626,12 +79644,12 @@
         <v>5549</v>
       </c>
       <c r="Q2507" t="s">
-        <v>3529</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="2508" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2508" s="1" t="s">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="C2508" t="s">
         <v>3495</v>
@@ -79646,12 +79664,12 @@
         <v>5549</v>
       </c>
       <c r="Q2508" t="s">
-        <v>3531</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="2509" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2509" s="1" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="C2509" t="s">
         <v>3495</v>
@@ -79666,12 +79684,12 @@
         <v>5549</v>
       </c>
       <c r="Q2509" t="s">
-        <v>4955</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="2510" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2510" s="1" t="s">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="C2510" t="s">
         <v>3495</v>
@@ -79686,12 +79704,12 @@
         <v>5549</v>
       </c>
       <c r="Q2510" t="s">
-        <v>3534</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="2511" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2511" s="1" t="s">
-        <v>3535</v>
+        <v>3537</v>
       </c>
       <c r="C2511" t="s">
         <v>3495</v>
@@ -79706,12 +79724,12 @@
         <v>5549</v>
       </c>
       <c r="Q2511" t="s">
-        <v>3536</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="2512" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2512" s="1" t="s">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="C2512" t="s">
         <v>3495</v>
@@ -79726,12 +79744,12 @@
         <v>5549</v>
       </c>
       <c r="Q2512" t="s">
-        <v>3538</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="2513" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2513" s="1" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="C2513" t="s">
         <v>3495</v>
@@ -79746,12 +79764,12 @@
         <v>5549</v>
       </c>
       <c r="Q2513" t="s">
-        <v>4956</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="2514" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2514" s="1" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="C2514" t="s">
         <v>3495</v>
@@ -79766,12 +79784,12 @@
         <v>5549</v>
       </c>
       <c r="Q2514" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2515" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2515" s="1" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="C2515" t="s">
         <v>3495</v>
@@ -79786,12 +79804,12 @@
         <v>5549</v>
       </c>
       <c r="Q2515" t="s">
-        <v>4589</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="2516" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2516" s="1" t="s">
-        <v>3542</v>
+        <v>3544</v>
       </c>
       <c r="C2516" t="s">
         <v>3495</v>
@@ -79806,12 +79824,12 @@
         <v>5549</v>
       </c>
       <c r="Q2516" t="s">
-        <v>3543</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="2517" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2517" s="1" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="C2517" t="s">
         <v>3495</v>
@@ -79826,12 +79844,12 @@
         <v>5549</v>
       </c>
       <c r="Q2517" t="s">
-        <v>3545</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="2518" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2518" s="1" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="C2518" t="s">
         <v>3495</v>
@@ -79846,12 +79864,12 @@
         <v>5549</v>
       </c>
       <c r="Q2518" t="s">
-        <v>4957</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="2519" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2519" s="1" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="C2519" t="s">
         <v>3495</v>
@@ -79866,12 +79884,12 @@
         <v>5549</v>
       </c>
       <c r="Q2519" t="s">
-        <v>3548</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="2520" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2520" s="1" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="C2520" t="s">
         <v>3495</v>
@@ -79886,12 +79904,12 @@
         <v>5549</v>
       </c>
       <c r="Q2520" t="s">
-        <v>4590</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="2521" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2521" s="1" t="s">
-        <v>3550</v>
+        <v>3552</v>
       </c>
       <c r="C2521" t="s">
         <v>3495</v>
@@ -79906,12 +79924,12 @@
         <v>5549</v>
       </c>
       <c r="Q2521" t="s">
-        <v>3551</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="2522" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2522" s="1" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="C2522" t="s">
         <v>3495</v>
@@ -79926,12 +79944,12 @@
         <v>5549</v>
       </c>
       <c r="Q2522" t="s">
-        <v>3553</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="2523" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2523" s="1" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="C2523" t="s">
         <v>3495</v>
@@ -79946,12 +79964,12 @@
         <v>5549</v>
       </c>
       <c r="Q2523" t="s">
-        <v>4958</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="2524" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2524" s="1" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="C2524" t="s">
         <v>3495</v>
@@ -79966,12 +79984,12 @@
         <v>5549</v>
       </c>
       <c r="Q2524" t="s">
-        <v>4591</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="2525" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2525" s="1" t="s">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="C2525" t="s">
         <v>3495</v>
@@ -79986,12 +80004,12 @@
         <v>5549</v>
       </c>
       <c r="Q2525" t="s">
-        <v>3557</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="2526" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2526" s="1" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="C2526" t="s">
         <v>3495</v>
@@ -80006,12 +80024,12 @@
         <v>5549</v>
       </c>
       <c r="Q2526" t="s">
-        <v>4959</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="2527" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2527" s="1" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="C2527" t="s">
         <v>3495</v>
@@ -80026,12 +80044,12 @@
         <v>5549</v>
       </c>
       <c r="Q2527" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="2528" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2528" s="1" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="C2528" t="s">
         <v>3495</v>
@@ -80046,12 +80064,12 @@
         <v>5549</v>
       </c>
       <c r="Q2528" t="s">
-        <v>4593</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="2529" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2529" s="1" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="C2529" t="s">
         <v>3495</v>
@@ -80066,12 +80084,12 @@
         <v>5549</v>
       </c>
       <c r="Q2529" t="s">
-        <v>4960</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="2530" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2530" s="1" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="C2530" t="s">
         <v>3495</v>
@@ -80086,12 +80104,12 @@
         <v>5549</v>
       </c>
       <c r="Q2530" t="s">
-        <v>4594</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2531" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2531" s="1" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="C2531" t="s">
         <v>3495</v>
@@ -80106,12 +80124,12 @@
         <v>5549</v>
       </c>
       <c r="Q2531" t="s">
-        <v>4961</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="2532" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2532" s="1" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="C2532" t="s">
         <v>3495</v>
@@ -80126,12 +80144,12 @@
         <v>5549</v>
       </c>
       <c r="Q2532" t="s">
-        <v>4962</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="2533" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2533" s="1" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="C2533" t="s">
         <v>3495</v>
@@ -80146,12 +80164,12 @@
         <v>5549</v>
       </c>
       <c r="Q2533" t="s">
-        <v>3566</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="2534" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2534" s="1" t="s">
-        <v>3567</v>
+        <v>3569</v>
       </c>
       <c r="C2534" t="s">
         <v>3495</v>
@@ -80166,12 +80184,12 @@
         <v>5549</v>
       </c>
       <c r="Q2534" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="2535" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2535" s="1" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="C2535" t="s">
         <v>3495</v>
@@ -80186,12 +80204,12 @@
         <v>5549</v>
       </c>
       <c r="Q2535" t="s">
-        <v>3570</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="2536" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2536" s="1" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="C2536" t="s">
         <v>3495</v>
@@ -80206,12 +80224,12 @@
         <v>5549</v>
       </c>
       <c r="Q2536" t="s">
-        <v>4595</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="2537" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2537" s="1" t="s">
-        <v>3572</v>
+        <v>3574</v>
       </c>
       <c r="C2537" t="s">
         <v>3495</v>
@@ -80226,12 +80244,12 @@
         <v>5549</v>
       </c>
       <c r="Q2537" t="s">
-        <v>3573</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="2538" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2538" s="1" t="s">
-        <v>3574</v>
+        <v>3576</v>
       </c>
       <c r="C2538" t="s">
         <v>3495</v>
@@ -80246,12 +80264,12 @@
         <v>5549</v>
       </c>
       <c r="Q2538" t="s">
-        <v>3575</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="2539" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2539" s="1" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="C2539" t="s">
         <v>3495</v>
@@ -80266,12 +80284,12 @@
         <v>5549</v>
       </c>
       <c r="Q2539" t="s">
-        <v>4963</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="2540" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2540" s="1" t="s">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="C2540" t="s">
         <v>3495</v>
@@ -80286,12 +80304,12 @@
         <v>5549</v>
       </c>
       <c r="Q2540" t="s">
-        <v>3578</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="2541" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2541" s="1" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="C2541" t="s">
         <v>3495</v>
@@ -80306,12 +80324,12 @@
         <v>5549</v>
       </c>
       <c r="Q2541" t="s">
-        <v>4964</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2542" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2542" s="1" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="C2542" t="s">
         <v>3495</v>
@@ -80326,12 +80344,12 @@
         <v>5549</v>
       </c>
       <c r="Q2542" t="s">
-        <v>4965</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="2543" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2543" s="1" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="C2543" t="s">
         <v>3495</v>
@@ -80346,12 +80364,12 @@
         <v>5549</v>
       </c>
       <c r="Q2543" t="s">
-        <v>4596</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="2544" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2544" s="1" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="C2544" t="s">
         <v>3495</v>
@@ -80366,12 +80384,12 @@
         <v>5549</v>
       </c>
       <c r="Q2544" t="s">
-        <v>4966</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="2545" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2545" s="1" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="C2545" t="s">
         <v>3495</v>
@@ -80386,12 +80404,12 @@
         <v>5549</v>
       </c>
       <c r="Q2545" t="s">
-        <v>4597</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2546" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2546" s="1" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="C2546" t="s">
         <v>3495</v>
@@ -80406,12 +80424,12 @@
         <v>5549</v>
       </c>
       <c r="Q2546" t="s">
-        <v>4967</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="2547" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2547" s="1" t="s">
-        <v>3585</v>
+        <v>3587</v>
       </c>
       <c r="C2547" t="s">
         <v>3495</v>
@@ -80426,12 +80444,12 @@
         <v>5549</v>
       </c>
       <c r="Q2547" t="s">
-        <v>3586</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="2548" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2548" s="1" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="C2548" t="s">
         <v>3495</v>
@@ -80446,12 +80464,12 @@
         <v>5549</v>
       </c>
       <c r="Q2548" t="s">
-        <v>4598</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="2549" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2549" s="1" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="C2549" t="s">
         <v>3495</v>
@@ -80466,12 +80484,12 @@
         <v>5549</v>
       </c>
       <c r="Q2549" t="s">
-        <v>4968</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="2550" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2550" s="1" t="s">
-        <v>3589</v>
+        <v>3591</v>
       </c>
       <c r="C2550" t="s">
         <v>3495</v>
@@ -80486,12 +80504,12 @@
         <v>5549</v>
       </c>
       <c r="Q2550" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="2551" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2551" s="1" t="s">
-        <v>3591</v>
+        <v>3593</v>
       </c>
       <c r="C2551" t="s">
         <v>3495</v>
@@ -80506,12 +80524,12 @@
         <v>5549</v>
       </c>
       <c r="Q2551" t="s">
-        <v>3592</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="2552" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2552" s="1" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="C2552" t="s">
         <v>3495</v>
@@ -80526,12 +80544,12 @@
         <v>5549</v>
       </c>
       <c r="Q2552" t="s">
-        <v>4969</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="2553" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2553" s="1" t="s">
-        <v>3594</v>
+        <v>3596</v>
       </c>
       <c r="C2553" t="s">
         <v>3495</v>
@@ -80546,12 +80564,12 @@
         <v>5549</v>
       </c>
       <c r="Q2553" t="s">
-        <v>3595</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="2554" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2554" s="1" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="C2554" t="s">
         <v>3495</v>
@@ -80566,12 +80584,12 @@
         <v>5549</v>
       </c>
       <c r="Q2554" t="s">
-        <v>4970</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="2555" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2555" s="1" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="C2555" t="s">
         <v>3495</v>
@@ -80586,12 +80604,12 @@
         <v>5549</v>
       </c>
       <c r="Q2555" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="2556" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2556" s="1" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="C2556" t="s">
         <v>3495</v>
@@ -80606,12 +80624,12 @@
         <v>5549</v>
       </c>
       <c r="Q2556" t="s">
-        <v>4600</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2557" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2557" s="1" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="C2557" t="s">
         <v>3495</v>
@@ -80626,12 +80644,12 @@
         <v>5549</v>
       </c>
       <c r="Q2557" t="s">
-        <v>4971</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="2558" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2558" s="1" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="C2558" t="s">
         <v>3495</v>
@@ -80646,12 +80664,12 @@
         <v>5549</v>
       </c>
       <c r="Q2558" t="s">
-        <v>4972</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="2559" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2559" s="1" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="C2559" t="s">
         <v>3495</v>
@@ -80666,12 +80684,12 @@
         <v>5549</v>
       </c>
       <c r="Q2559" t="s">
-        <v>3602</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2560" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2560" s="1" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="C2560" t="s">
         <v>3495</v>
@@ -80686,12 +80704,12 @@
         <v>5549</v>
       </c>
       <c r="Q2560" t="s">
-        <v>4973</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2561" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2561" s="1" t="s">
-        <v>3604</v>
+        <v>6932</v>
       </c>
       <c r="C2561" t="s">
         <v>3495</v>
@@ -80706,12 +80724,12 @@
         <v>5549</v>
       </c>
       <c r="Q2561" t="s">
-        <v>3605</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="2562" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2562" s="1" t="s">
-        <v>6932</v>
+        <v>3607</v>
       </c>
       <c r="C2562" t="s">
         <v>3495</v>
@@ -80726,12 +80744,12 @@
         <v>5549</v>
       </c>
       <c r="Q2562" t="s">
-        <v>4974</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="2563" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2563" s="1" t="s">
-        <v>3607</v>
+        <v>3609</v>
       </c>
       <c r="C2563" t="s">
         <v>3495</v>
@@ -80746,12 +80764,12 @@
         <v>5549</v>
       </c>
       <c r="Q2563" t="s">
-        <v>3608</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="2564" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2564" s="1" t="s">
-        <v>3609</v>
+        <v>3611</v>
       </c>
       <c r="C2564" t="s">
         <v>3495</v>
@@ -80766,12 +80784,12 @@
         <v>5549</v>
       </c>
       <c r="Q2564" t="s">
-        <v>3610</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="2565" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2565" s="1" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="C2565" t="s">
         <v>3495</v>
@@ -80786,12 +80804,12 @@
         <v>5549</v>
       </c>
       <c r="Q2565" t="s">
-        <v>4975</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="2566" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2566" s="1" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="C2566" t="s">
         <v>3495</v>
@@ -80806,12 +80824,12 @@
         <v>5549</v>
       </c>
       <c r="Q2566" t="s">
-        <v>4976</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="2567" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2567" s="1" t="s">
-        <v>3613</v>
+        <v>3615</v>
       </c>
       <c r="C2567" t="s">
         <v>3495</v>
@@ -80826,12 +80844,12 @@
         <v>5549</v>
       </c>
       <c r="Q2567" t="s">
-        <v>3614</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="2568" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2568" s="1" t="s">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C2568" t="s">
         <v>3495</v>
@@ -80846,12 +80864,12 @@
         <v>5549</v>
       </c>
       <c r="Q2568" t="s">
-        <v>3616</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2569" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2569" s="1" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="C2569" t="s">
         <v>3495</v>
@@ -80866,12 +80884,12 @@
         <v>5549</v>
       </c>
       <c r="Q2569" t="s">
-        <v>4977</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="2570" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2570" s="1" t="s">
-        <v>3618</v>
+        <v>3620</v>
       </c>
       <c r="C2570" t="s">
         <v>3495</v>
@@ -80886,12 +80904,12 @@
         <v>5549</v>
       </c>
       <c r="Q2570" t="s">
-        <v>3619</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="2571" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2571" s="1" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="C2571" t="s">
         <v>3495</v>
@@ -80906,12 +80924,12 @@
         <v>5549</v>
       </c>
       <c r="Q2571" t="s">
-        <v>4978</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2572" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2572" s="1" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="C2572" t="s">
         <v>3495</v>
@@ -80926,12 +80944,12 @@
         <v>5549</v>
       </c>
       <c r="Q2572" t="s">
-        <v>4979</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="2573" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2573" s="1" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="C2573" t="s">
         <v>3495</v>
@@ -80946,12 +80964,12 @@
         <v>5549</v>
       </c>
       <c r="Q2573" t="s">
-        <v>4980</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="2574" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2574" s="1" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="C2574" t="s">
         <v>3495</v>
@@ -80966,12 +80984,12 @@
         <v>5549</v>
       </c>
       <c r="Q2574" t="s">
-        <v>4601</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="2575" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2575" s="1" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="C2575" t="s">
         <v>3495</v>
@@ -80986,12 +81004,12 @@
         <v>5549</v>
       </c>
       <c r="Q2575" t="s">
-        <v>4981</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="2576" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2576" s="1" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="C2576" t="s">
         <v>3495</v>
@@ -81006,12 +81024,12 @@
         <v>5549</v>
       </c>
       <c r="Q2576" t="s">
-        <v>4602</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="2577" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2577" s="1" t="s">
-        <v>3626</v>
+        <v>3628</v>
       </c>
       <c r="C2577" t="s">
         <v>3495</v>
@@ -81026,12 +81044,12 @@
         <v>5549</v>
       </c>
       <c r="Q2577" t="s">
-        <v>3627</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="2578" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2578" s="1" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="C2578" t="s">
         <v>3495</v>
@@ -81046,12 +81064,12 @@
         <v>5549</v>
       </c>
       <c r="Q2578" t="s">
-        <v>4982</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="2579" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2579" s="1" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="C2579" t="s">
         <v>3495</v>
@@ -81066,12 +81084,12 @@
         <v>5549</v>
       </c>
       <c r="Q2579" t="s">
-        <v>4603</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="2580" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2580" s="1" t="s">
-        <v>3630</v>
+        <v>3632</v>
       </c>
       <c r="C2580" t="s">
         <v>3495</v>
@@ -81086,12 +81104,12 @@
         <v>5549</v>
       </c>
       <c r="Q2580" t="s">
-        <v>3631</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="2581" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2581" s="1" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="C2581" t="s">
         <v>3495</v>
@@ -81106,12 +81124,12 @@
         <v>5549</v>
       </c>
       <c r="Q2581" t="s">
-        <v>4983</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="2582" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2582" s="1" t="s">
-        <v>3633</v>
+        <v>3635</v>
       </c>
       <c r="C2582" t="s">
         <v>3495</v>
@@ -81126,12 +81144,12 @@
         <v>5549</v>
       </c>
       <c r="Q2582" t="s">
-        <v>3634</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="2583" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2583" s="1" t="s">
-        <v>3635</v>
+        <v>3637</v>
       </c>
       <c r="C2583" t="s">
         <v>3495</v>
@@ -81146,12 +81164,12 @@
         <v>5549</v>
       </c>
       <c r="Q2583" t="s">
-        <v>3636</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="2584" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2584" s="1" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="C2584" t="s">
         <v>3495</v>
@@ -81166,12 +81184,12 @@
         <v>5549</v>
       </c>
       <c r="Q2584" t="s">
-        <v>4604</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="2585" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2585" s="1" t="s">
-        <v>3638</v>
+        <v>3640</v>
       </c>
       <c r="C2585" t="s">
         <v>3495</v>
@@ -81186,12 +81204,12 @@
         <v>5549</v>
       </c>
       <c r="Q2585" t="s">
-        <v>3639</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="2586" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2586" s="1" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="C2586" t="s">
         <v>3495</v>
@@ -81206,12 +81224,12 @@
         <v>5549</v>
       </c>
       <c r="Q2586" t="s">
-        <v>4984</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2587" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2587" s="1" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="C2587" t="s">
         <v>3495</v>
@@ -81226,12 +81244,12 @@
         <v>5549</v>
       </c>
       <c r="Q2587" t="s">
-        <v>4985</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="2588" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2588" s="1" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="C2588" t="s">
         <v>3495</v>
@@ -81246,12 +81264,12 @@
         <v>5549</v>
       </c>
       <c r="Q2588" t="s">
-        <v>4605</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="2589" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2589" s="1" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="C2589" t="s">
         <v>3495</v>
@@ -81266,12 +81284,12 @@
         <v>5549</v>
       </c>
       <c r="Q2589" t="s">
-        <v>4986</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2590" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2590" s="1" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="C2590" t="s">
         <v>3495</v>
@@ -81286,12 +81304,12 @@
         <v>5549</v>
       </c>
       <c r="Q2590" t="s">
-        <v>4987</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="2591" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2591" s="1" t="s">
-        <v>3645</v>
+        <v>3647</v>
       </c>
       <c r="C2591" t="s">
         <v>3495</v>
@@ -81306,12 +81324,12 @@
         <v>5549</v>
       </c>
       <c r="Q2591" t="s">
-        <v>3646</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="2592" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2592" s="1" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="C2592" t="s">
         <v>3495</v>
@@ -81326,12 +81344,12 @@
         <v>5549</v>
       </c>
       <c r="Q2592" t="s">
-        <v>4988</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2593" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2593" s="1" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C2593" t="s">
         <v>3495</v>
@@ -81346,12 +81364,12 @@
         <v>5549</v>
       </c>
       <c r="Q2593" t="s">
-        <v>4989</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="2594" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2594" s="1" t="s">
-        <v>3649</v>
+        <v>3651</v>
       </c>
       <c r="C2594" t="s">
         <v>3495</v>
@@ -81366,12 +81384,12 @@
         <v>5549</v>
       </c>
       <c r="Q2594" t="s">
-        <v>3650</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="2595" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2595" s="1" t="s">
-        <v>3651</v>
+        <v>3653</v>
       </c>
       <c r="C2595" t="s">
         <v>3495</v>
@@ -81386,12 +81404,12 @@
         <v>5549</v>
       </c>
       <c r="Q2595" t="s">
-        <v>3652</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="2596" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2596" s="1" t="s">
-        <v>3653</v>
+        <v>3655</v>
       </c>
       <c r="C2596" t="s">
         <v>3495</v>
@@ -81406,12 +81424,12 @@
         <v>5549</v>
       </c>
       <c r="Q2596" t="s">
-        <v>3654</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="2597" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2597" s="1" t="s">
-        <v>3655</v>
+        <v>3657</v>
       </c>
       <c r="C2597" t="s">
         <v>3495</v>
@@ -81426,12 +81444,12 @@
         <v>5549</v>
       </c>
       <c r="Q2597" t="s">
-        <v>3656</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="2598" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2598" s="1" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="C2598" t="s">
         <v>3495</v>
@@ -81446,12 +81464,12 @@
         <v>5549</v>
       </c>
       <c r="Q2598" t="s">
-        <v>4990</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="2599" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2599" s="1" t="s">
-        <v>3658</v>
+        <v>3660</v>
       </c>
       <c r="C2599" t="s">
         <v>3495</v>
@@ -81466,12 +81484,12 @@
         <v>5549</v>
       </c>
       <c r="Q2599" t="s">
-        <v>3659</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="2600" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2600" s="1" t="s">
-        <v>3660</v>
+        <v>3662</v>
       </c>
       <c r="C2600" t="s">
         <v>3495</v>
@@ -81486,12 +81504,12 @@
         <v>5549</v>
       </c>
       <c r="Q2600" t="s">
-        <v>3661</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2601" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2601" s="1" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="C2601" t="s">
         <v>3495</v>
@@ -81506,12 +81524,12 @@
         <v>5549</v>
       </c>
       <c r="Q2601" t="s">
-        <v>4991</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="2602" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2602" s="1" t="s">
-        <v>3663</v>
+        <v>3665</v>
       </c>
       <c r="C2602" t="s">
         <v>3495</v>
@@ -81526,12 +81544,12 @@
         <v>5549</v>
       </c>
       <c r="Q2602" t="s">
-        <v>3664</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="2603" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2603" s="1" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="C2603" t="s">
         <v>3495</v>
@@ -81546,12 +81564,12 @@
         <v>5549</v>
       </c>
       <c r="Q2603" t="s">
-        <v>4992</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="2604" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2604" s="1" t="s">
-        <v>3666</v>
+        <v>3668</v>
       </c>
       <c r="C2604" t="s">
         <v>3495</v>
@@ -81566,12 +81584,12 @@
         <v>5549</v>
       </c>
       <c r="Q2604" t="s">
-        <v>3667</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="2605" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2605" s="1" t="s">
-        <v>3668</v>
+        <v>3670</v>
       </c>
       <c r="C2605" t="s">
         <v>3495</v>
@@ -81586,12 +81604,12 @@
         <v>5549</v>
       </c>
       <c r="Q2605" t="s">
-        <v>3669</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="2606" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2606" s="1" t="s">
-        <v>3670</v>
+        <v>3672</v>
       </c>
       <c r="C2606" t="s">
         <v>3495</v>
@@ -81606,12 +81624,12 @@
         <v>5549</v>
       </c>
       <c r="Q2606" t="s">
-        <v>3671</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="2607" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2607" s="1" t="s">
-        <v>3672</v>
+        <v>3674</v>
       </c>
       <c r="C2607" t="s">
         <v>3495</v>
@@ -81626,12 +81644,12 @@
         <v>5549</v>
       </c>
       <c r="Q2607" t="s">
-        <v>3673</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="2608" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2608" s="1" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="C2608" t="s">
         <v>3495</v>
@@ -81646,12 +81664,12 @@
         <v>5549</v>
       </c>
       <c r="Q2608" t="s">
-        <v>4993</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="2609" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2609" s="1" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="C2609" t="s">
         <v>3495</v>
@@ -81666,12 +81684,12 @@
         <v>5549</v>
       </c>
       <c r="Q2609" t="s">
-        <v>4994</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="2610" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2610" s="1" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="C2610" t="s">
         <v>3495</v>
@@ -81686,12 +81704,12 @@
         <v>5549</v>
       </c>
       <c r="Q2610" t="s">
-        <v>4995</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="2611" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2611" s="1" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="C2611" t="s">
         <v>3495</v>
@@ -81706,12 +81724,12 @@
         <v>5549</v>
       </c>
       <c r="Q2611" t="s">
-        <v>4996</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="2612" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2612" s="1" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="C2612" t="s">
         <v>3495</v>
@@ -81726,12 +81744,12 @@
         <v>5549</v>
       </c>
       <c r="Q2612" t="s">
-        <v>4997</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="2613" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2613" s="1" t="s">
-        <v>3679</v>
+        <v>3681</v>
       </c>
       <c r="C2613" t="s">
         <v>3495</v>
@@ -81746,12 +81764,12 @@
         <v>5549</v>
       </c>
       <c r="Q2613" t="s">
-        <v>3680</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="2614" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2614" s="1" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="C2614" t="s">
         <v>3495</v>
@@ -81766,12 +81784,12 @@
         <v>5549</v>
       </c>
       <c r="Q2614" t="s">
-        <v>4606</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="2615" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2615" s="1" t="s">
-        <v>3682</v>
+        <v>6933</v>
       </c>
       <c r="C2615" t="s">
         <v>3495</v>
@@ -81786,12 +81804,12 @@
         <v>5549</v>
       </c>
       <c r="Q2615" t="s">
-        <v>3683</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="2616" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2616" s="1" t="s">
-        <v>6933</v>
+        <v>6935</v>
       </c>
       <c r="C2616" t="s">
         <v>3495</v>
@@ -81806,12 +81824,12 @@
         <v>5549</v>
       </c>
       <c r="Q2616" t="s">
-        <v>6934</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="2617" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2617" s="1" t="s">
-        <v>6935</v>
+        <v>6937</v>
       </c>
       <c r="C2617" t="s">
         <v>3495</v>
@@ -81826,12 +81844,12 @@
         <v>5549</v>
       </c>
       <c r="Q2617" t="s">
-        <v>6936</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="2618" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2618" s="1" t="s">
-        <v>6937</v>
+        <v>6939</v>
       </c>
       <c r="C2618" t="s">
         <v>3495</v>
@@ -81846,12 +81864,12 @@
         <v>5549</v>
       </c>
       <c r="Q2618" t="s">
-        <v>6938</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="2619" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2619" s="1" t="s">
-        <v>6939</v>
+        <v>6941</v>
       </c>
       <c r="C2619" t="s">
         <v>3495</v>
@@ -81866,12 +81884,12 @@
         <v>5549</v>
       </c>
       <c r="Q2619" t="s">
-        <v>6940</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="2620" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2620" s="1" t="s">
-        <v>6941</v>
+        <v>6943</v>
       </c>
       <c r="C2620" t="s">
         <v>3495</v>
@@ -81886,12 +81904,12 @@
         <v>5549</v>
       </c>
       <c r="Q2620" t="s">
-        <v>6942</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="2621" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2621" s="1" t="s">
-        <v>6943</v>
+        <v>6945</v>
       </c>
       <c r="C2621" t="s">
         <v>3495</v>
@@ -81906,12 +81924,12 @@
         <v>5549</v>
       </c>
       <c r="Q2621" t="s">
-        <v>6944</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="2622" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2622" s="1" t="s">
-        <v>6945</v>
+        <v>6947</v>
       </c>
       <c r="C2622" t="s">
         <v>3495</v>
@@ -81926,12 +81944,12 @@
         <v>5549</v>
       </c>
       <c r="Q2622" t="s">
-        <v>6946</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="2623" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2623" s="1" t="s">
-        <v>6947</v>
+        <v>6949</v>
       </c>
       <c r="C2623" t="s">
         <v>3495</v>
@@ -81946,12 +81964,12 @@
         <v>5549</v>
       </c>
       <c r="Q2623" t="s">
-        <v>6948</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="2624" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2624" s="1" t="s">
-        <v>6949</v>
+        <v>6951</v>
       </c>
       <c r="C2624" t="s">
         <v>3495</v>
@@ -81966,12 +81984,12 @@
         <v>5549</v>
       </c>
       <c r="Q2624" t="s">
-        <v>6950</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="2625" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2625" s="1" t="s">
-        <v>6951</v>
+        <v>6953</v>
       </c>
       <c r="C2625" t="s">
         <v>3495</v>
@@ -81986,26 +82004,6 @@
         <v>5549</v>
       </c>
       <c r="Q2625" t="s">
-        <v>6952</v>
-      </c>
-    </row>
-    <row r="2626" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2626" s="1" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C2626" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D2626" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2626" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2626" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q2626" t="s">
         <v>6954</v>
       </c>
     </row>
@@ -82020,10 +82018,10 @@
   <dimension ref="B1:Q369"/>
   <sheetViews>
     <sheetView topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="C364" sqref="C364"/>
+      <selection activeCell="G370" sqref="G370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$2625</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$2624</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -21283,7 +21283,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21291,10 +21291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q158"/>
+  <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+      <selection activeCell="A156" sqref="A156:A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24781,6 +24781,26 @@
       </c>
       <c r="Q158" t="s">
         <v>3486</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C159" t="s">
+        <v>3433</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L159" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>3434</v>
       </c>
     </row>
   </sheetData>
@@ -25154,10 +25174,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R2625"/>
+  <dimension ref="B1:R2624"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2463" workbookViewId="0">
-      <selection activeCell="A2478" sqref="A2478:XFD2478"/>
+    <sheetView tabSelected="1" topLeftCell="A1166" workbookViewId="0">
+      <selection activeCell="G2474" sqref="G2474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78830,158 +78850,158 @@
     </row>
     <row r="2466" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2466" s="1" t="s">
-        <v>3432</v>
+        <v>3444</v>
       </c>
       <c r="C2466" t="s">
-        <v>3433</v>
-      </c>
-      <c r="D2466" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2466" t="s">
-        <v>55</v>
+        <v>3445</v>
+      </c>
+      <c r="D2466" s="1">
+        <v>8080</v>
       </c>
       <c r="Q2466" t="s">
-        <v>3434</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="2467" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2467" s="1" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="C2467" t="s">
-        <v>3445</v>
-      </c>
-      <c r="D2467" s="1">
-        <v>8080</v>
+        <v>3448</v>
+      </c>
+      <c r="D2467" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E2467" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F2467" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G2467" t="s">
+        <v>3899</v>
+      </c>
+      <c r="L2467" t="s">
+        <v>2605</v>
+      </c>
+      <c r="M2467" t="s">
+        <v>5238</v>
       </c>
       <c r="Q2467" t="s">
-        <v>3446</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="2468" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2468" s="1" t="s">
-        <v>3447</v>
+        <v>3460</v>
       </c>
       <c r="C2468" t="s">
-        <v>3448</v>
+        <v>3461</v>
       </c>
       <c r="D2468" s="1" t="s">
-        <v>3006</v>
-      </c>
-      <c r="E2468" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F2468" t="s">
-        <v>3899</v>
-      </c>
-      <c r="G2468" t="s">
-        <v>3899</v>
+        <v>2</v>
       </c>
       <c r="L2468" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M2468" t="s">
-        <v>5238</v>
+        <v>1155</v>
       </c>
       <c r="Q2468" t="s">
-        <v>4581</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="2469" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2469" s="1" t="s">
-        <v>3460</v>
+        <v>3463</v>
       </c>
       <c r="C2469" t="s">
-        <v>3461</v>
-      </c>
-      <c r="D2469" s="1" t="s">
-        <v>2</v>
+        <v>3464</v>
+      </c>
+      <c r="D2469" s="1">
+        <v>8080</v>
       </c>
       <c r="L2469" t="s">
-        <v>1155</v>
+        <v>352</v>
       </c>
       <c r="Q2469" t="s">
-        <v>3462</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="2470" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2470" s="1" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
       <c r="C2470" t="s">
-        <v>3464</v>
-      </c>
-      <c r="D2470" s="1">
-        <v>8080</v>
+        <v>3356</v>
+      </c>
+      <c r="D2470" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2470" t="s">
+        <v>2426</v>
       </c>
       <c r="L2470" t="s">
-        <v>352</v>
+        <v>5070</v>
       </c>
       <c r="Q2470" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="2471" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2471" s="1" t="s">
-        <v>3466</v>
+        <v>3471</v>
       </c>
       <c r="C2471" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D2471" s="1" t="s">
-        <v>2</v>
+        <v>3472</v>
+      </c>
+      <c r="D2471" s="1">
+        <v>68000</v>
       </c>
       <c r="E2471" t="s">
         <v>2426</v>
       </c>
       <c r="L2471" t="s">
-        <v>5070</v>
+        <v>3954</v>
       </c>
       <c r="Q2471" t="s">
-        <v>3467</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="2472" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2472" s="1" t="s">
-        <v>3471</v>
+        <v>3474</v>
       </c>
       <c r="C2472" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D2472" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2472" t="s">
-        <v>2426</v>
+        <v>3475</v>
+      </c>
+      <c r="D2472" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="L2472" t="s">
-        <v>3954</v>
+        <v>55</v>
       </c>
       <c r="Q2472" t="s">
-        <v>3473</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="2473" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2473" s="1" t="s">
-        <v>3474</v>
+        <v>6912</v>
       </c>
       <c r="C2473" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="D2473" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="L2473" t="s">
-        <v>55</v>
+        <v>352</v>
       </c>
       <c r="Q2473" t="s">
-        <v>3476</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="2474" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2474" s="1" t="s">
-        <v>6912</v>
+        <v>3477</v>
       </c>
       <c r="C2474" t="s">
         <v>3478</v>
@@ -78993,29 +79013,29 @@
         <v>352</v>
       </c>
       <c r="Q2474" t="s">
-        <v>6913</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="2475" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2475" s="1" t="s">
-        <v>3477</v>
+        <v>3479</v>
       </c>
       <c r="C2475" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="D2475" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2475" t="s">
-        <v>352</v>
+        <v>58</v>
       </c>
       <c r="Q2475" t="s">
-        <v>4586</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="2476" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2476" s="1" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="C2476" t="s">
         <v>3480</v>
@@ -79027,63 +79047,66 @@
         <v>58</v>
       </c>
       <c r="Q2476" t="s">
-        <v>3481</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="2477" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2477" s="1" t="s">
-        <v>3482</v>
+        <v>3487</v>
       </c>
       <c r="C2477" t="s">
-        <v>3480</v>
+        <v>3488</v>
       </c>
       <c r="D2477" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2477" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q2477" t="s">
-        <v>3483</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="2478" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2478" s="1" t="s">
-        <v>3487</v>
+        <v>3491</v>
       </c>
       <c r="C2478" t="s">
-        <v>3488</v>
+        <v>3492</v>
       </c>
       <c r="D2478" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2478" t="s">
-        <v>1155</v>
+        <v>55</v>
       </c>
       <c r="Q2478" t="s">
-        <v>3489</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="2479" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2479" s="1" t="s">
-        <v>3491</v>
+        <v>6914</v>
       </c>
       <c r="C2479" t="s">
-        <v>3492</v>
+        <v>6915</v>
       </c>
       <c r="D2479" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2479" t="s">
+        <v>2</v>
+      </c>
       <c r="L2479" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="Q2479" t="s">
-        <v>3493</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="2480" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2480" s="1" t="s">
-        <v>6914</v>
+        <v>6917</v>
       </c>
       <c r="C2480" t="s">
         <v>6915</v>
@@ -79098,32 +79121,29 @@
         <v>5238</v>
       </c>
       <c r="Q2480" t="s">
-        <v>6916</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="2481" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2481" s="1" t="s">
-        <v>6917</v>
+        <v>6919</v>
       </c>
       <c r="C2481" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D2481" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2481" t="s">
-        <v>2</v>
-      </c>
       <c r="L2481" t="s">
-        <v>5238</v>
+        <v>55</v>
       </c>
       <c r="Q2481" t="s">
-        <v>6918</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="2482" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2482" s="1" t="s">
-        <v>6919</v>
+        <v>6922</v>
       </c>
       <c r="C2482" t="s">
         <v>6920</v>
@@ -79131,16 +79151,25 @@
       <c r="D2482" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2482" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2482" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2482" t="s">
+        <v>542</v>
+      </c>
+      <c r="M2482" t="s">
         <v>55</v>
       </c>
       <c r="Q2482" t="s">
-        <v>6921</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="2483" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2483" s="1" t="s">
-        <v>6922</v>
+        <v>6924</v>
       </c>
       <c r="C2483" t="s">
         <v>6920</v>
@@ -79161,55 +79190,49 @@
         <v>55</v>
       </c>
       <c r="Q2483" t="s">
-        <v>6923</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="2484" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2484" s="1" t="s">
-        <v>6924</v>
+        <v>6926</v>
       </c>
       <c r="C2484" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D2484" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2484" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2484" t="s">
-        <v>2426</v>
+        <v>6927</v>
+      </c>
+      <c r="D2484" s="1">
+        <v>68000</v>
       </c>
       <c r="L2484" t="s">
-        <v>542</v>
-      </c>
-      <c r="M2484" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q2484" t="s">
-        <v>6925</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="2485" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2485" s="1" t="s">
-        <v>6926</v>
+        <v>3494</v>
       </c>
       <c r="C2485" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D2485" s="1">
         <v>68000</v>
       </c>
+      <c r="E2485" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2485" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q2485" t="s">
-        <v>6928</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="2486" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2486" s="1" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="C2486" t="s">
         <v>3495</v>
@@ -79224,12 +79247,12 @@
         <v>5549</v>
       </c>
       <c r="Q2486" t="s">
-        <v>3496</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="2487" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2487" s="1" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="C2487" t="s">
         <v>3495</v>
@@ -79244,12 +79267,12 @@
         <v>5549</v>
       </c>
       <c r="Q2487" t="s">
-        <v>4587</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="2488" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2488" s="1" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="C2488" t="s">
         <v>3495</v>
@@ -79264,12 +79287,12 @@
         <v>5549</v>
       </c>
       <c r="Q2488" t="s">
-        <v>3499</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="2489" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2489" s="1" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="C2489" t="s">
         <v>3495</v>
@@ -79284,12 +79307,12 @@
         <v>5549</v>
       </c>
       <c r="Q2489" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="2490" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2490" s="1" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="C2490" t="s">
         <v>3495</v>
@@ -79304,12 +79327,12 @@
         <v>5549</v>
       </c>
       <c r="Q2490" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="2491" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2491" s="1" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="C2491" t="s">
         <v>3495</v>
@@ -79324,12 +79347,12 @@
         <v>5549</v>
       </c>
       <c r="Q2491" t="s">
-        <v>3505</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="2492" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2492" s="1" t="s">
-        <v>3506</v>
+        <v>6930</v>
       </c>
       <c r="C2492" t="s">
         <v>3495</v>
@@ -79344,12 +79367,12 @@
         <v>5549</v>
       </c>
       <c r="Q2492" t="s">
-        <v>6929</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="2493" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2493" s="1" t="s">
-        <v>6930</v>
+        <v>3507</v>
       </c>
       <c r="C2493" t="s">
         <v>3495</v>
@@ -79364,12 +79387,12 @@
         <v>5549</v>
       </c>
       <c r="Q2493" t="s">
-        <v>6931</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="2494" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2494" s="1" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="C2494" t="s">
         <v>3495</v>
@@ -79384,12 +79407,12 @@
         <v>5549</v>
       </c>
       <c r="Q2494" t="s">
-        <v>4952</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="2495" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2495" s="1" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="C2495" t="s">
         <v>3495</v>
@@ -79404,12 +79427,12 @@
         <v>5549</v>
       </c>
       <c r="Q2495" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="2496" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2496" s="1" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="C2496" t="s">
         <v>3495</v>
@@ -79424,12 +79447,12 @@
         <v>5549</v>
       </c>
       <c r="Q2496" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="2497" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2497" s="1" t="s">
-        <v>3512</v>
+        <v>3514</v>
       </c>
       <c r="C2497" t="s">
         <v>3495</v>
@@ -79444,12 +79467,12 @@
         <v>5549</v>
       </c>
       <c r="Q2497" t="s">
-        <v>3513</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="2498" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2498" s="1" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="C2498" t="s">
         <v>3495</v>
@@ -79464,12 +79487,12 @@
         <v>5549</v>
       </c>
       <c r="Q2498" t="s">
-        <v>3515</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="2499" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2499" s="1" t="s">
-        <v>3516</v>
+        <v>3518</v>
       </c>
       <c r="C2499" t="s">
         <v>3495</v>
@@ -79484,12 +79507,12 @@
         <v>5549</v>
       </c>
       <c r="Q2499" t="s">
-        <v>3517</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2500" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2500" s="1" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="C2500" t="s">
         <v>3495</v>
@@ -79504,12 +79527,12 @@
         <v>5549</v>
       </c>
       <c r="Q2500" t="s">
-        <v>4953</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="2501" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2501" s="1" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="C2501" t="s">
         <v>3495</v>
@@ -79524,12 +79547,12 @@
         <v>5549</v>
       </c>
       <c r="Q2501" t="s">
-        <v>4954</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="2502" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2502" s="1" t="s">
-        <v>3520</v>
+        <v>3522</v>
       </c>
       <c r="C2502" t="s">
         <v>3495</v>
@@ -79544,12 +79567,12 @@
         <v>5549</v>
       </c>
       <c r="Q2502" t="s">
-        <v>3521</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="2503" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2503" s="1" t="s">
-        <v>3522</v>
+        <v>3524</v>
       </c>
       <c r="C2503" t="s">
         <v>3495</v>
@@ -79564,12 +79587,12 @@
         <v>5549</v>
       </c>
       <c r="Q2503" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="2504" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2504" s="1" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="C2504" t="s">
         <v>3495</v>
@@ -79584,12 +79607,12 @@
         <v>5549</v>
       </c>
       <c r="Q2504" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="2505" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2505" s="1" t="s">
-        <v>3526</v>
+        <v>3528</v>
       </c>
       <c r="C2505" t="s">
         <v>3495</v>
@@ -79604,12 +79627,12 @@
         <v>5549</v>
       </c>
       <c r="Q2505" t="s">
-        <v>3527</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="2506" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2506" s="1" t="s">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="C2506" t="s">
         <v>3495</v>
@@ -79624,12 +79647,12 @@
         <v>5549</v>
       </c>
       <c r="Q2506" t="s">
-        <v>3529</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="2507" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2507" s="1" t="s">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="C2507" t="s">
         <v>3495</v>
@@ -79644,12 +79667,12 @@
         <v>5549</v>
       </c>
       <c r="Q2507" t="s">
-        <v>3531</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="2508" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2508" s="1" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="C2508" t="s">
         <v>3495</v>
@@ -79664,12 +79687,12 @@
         <v>5549</v>
       </c>
       <c r="Q2508" t="s">
-        <v>4955</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="2509" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2509" s="1" t="s">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="C2509" t="s">
         <v>3495</v>
@@ -79684,12 +79707,12 @@
         <v>5549</v>
       </c>
       <c r="Q2509" t="s">
-        <v>3534</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="2510" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2510" s="1" t="s">
-        <v>3535</v>
+        <v>3537</v>
       </c>
       <c r="C2510" t="s">
         <v>3495</v>
@@ -79704,12 +79727,12 @@
         <v>5549</v>
       </c>
       <c r="Q2510" t="s">
-        <v>3536</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="2511" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2511" s="1" t="s">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="C2511" t="s">
         <v>3495</v>
@@ -79724,12 +79747,12 @@
         <v>5549</v>
       </c>
       <c r="Q2511" t="s">
-        <v>3538</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="2512" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2512" s="1" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="C2512" t="s">
         <v>3495</v>
@@ -79744,12 +79767,12 @@
         <v>5549</v>
       </c>
       <c r="Q2512" t="s">
-        <v>4956</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="2513" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2513" s="1" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="C2513" t="s">
         <v>3495</v>
@@ -79764,12 +79787,12 @@
         <v>5549</v>
       </c>
       <c r="Q2513" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2514" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2514" s="1" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="C2514" t="s">
         <v>3495</v>
@@ -79784,12 +79807,12 @@
         <v>5549</v>
       </c>
       <c r="Q2514" t="s">
-        <v>4589</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="2515" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2515" s="1" t="s">
-        <v>3542</v>
+        <v>3544</v>
       </c>
       <c r="C2515" t="s">
         <v>3495</v>
@@ -79804,12 +79827,12 @@
         <v>5549</v>
       </c>
       <c r="Q2515" t="s">
-        <v>3543</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="2516" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2516" s="1" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="C2516" t="s">
         <v>3495</v>
@@ -79824,12 +79847,12 @@
         <v>5549</v>
       </c>
       <c r="Q2516" t="s">
-        <v>3545</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="2517" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2517" s="1" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="C2517" t="s">
         <v>3495</v>
@@ -79844,12 +79867,12 @@
         <v>5549</v>
       </c>
       <c r="Q2517" t="s">
-        <v>4957</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="2518" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2518" s="1" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="C2518" t="s">
         <v>3495</v>
@@ -79864,12 +79887,12 @@
         <v>5549</v>
       </c>
       <c r="Q2518" t="s">
-        <v>3548</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="2519" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2519" s="1" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="C2519" t="s">
         <v>3495</v>
@@ -79884,12 +79907,12 @@
         <v>5549</v>
       </c>
       <c r="Q2519" t="s">
-        <v>4590</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="2520" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2520" s="1" t="s">
-        <v>3550</v>
+        <v>3552</v>
       </c>
       <c r="C2520" t="s">
         <v>3495</v>
@@ -79904,12 +79927,12 @@
         <v>5549</v>
       </c>
       <c r="Q2520" t="s">
-        <v>3551</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="2521" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2521" s="1" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="C2521" t="s">
         <v>3495</v>
@@ -79924,12 +79947,12 @@
         <v>5549</v>
       </c>
       <c r="Q2521" t="s">
-        <v>3553</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="2522" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2522" s="1" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="C2522" t="s">
         <v>3495</v>
@@ -79944,12 +79967,12 @@
         <v>5549</v>
       </c>
       <c r="Q2522" t="s">
-        <v>4958</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="2523" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2523" s="1" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="C2523" t="s">
         <v>3495</v>
@@ -79964,12 +79987,12 @@
         <v>5549</v>
       </c>
       <c r="Q2523" t="s">
-        <v>4591</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="2524" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2524" s="1" t="s">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="C2524" t="s">
         <v>3495</v>
@@ -79984,12 +80007,12 @@
         <v>5549</v>
       </c>
       <c r="Q2524" t="s">
-        <v>3557</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="2525" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2525" s="1" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="C2525" t="s">
         <v>3495</v>
@@ -80004,12 +80027,12 @@
         <v>5549</v>
       </c>
       <c r="Q2525" t="s">
-        <v>4959</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="2526" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2526" s="1" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="C2526" t="s">
         <v>3495</v>
@@ -80024,12 +80047,12 @@
         <v>5549</v>
       </c>
       <c r="Q2526" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="2527" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2527" s="1" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="C2527" t="s">
         <v>3495</v>
@@ -80044,12 +80067,12 @@
         <v>5549</v>
       </c>
       <c r="Q2527" t="s">
-        <v>4593</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="2528" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2528" s="1" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="C2528" t="s">
         <v>3495</v>
@@ -80064,12 +80087,12 @@
         <v>5549</v>
       </c>
       <c r="Q2528" t="s">
-        <v>4960</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="2529" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2529" s="1" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="C2529" t="s">
         <v>3495</v>
@@ -80084,12 +80107,12 @@
         <v>5549</v>
       </c>
       <c r="Q2529" t="s">
-        <v>4594</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2530" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2530" s="1" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="C2530" t="s">
         <v>3495</v>
@@ -80104,12 +80127,12 @@
         <v>5549</v>
       </c>
       <c r="Q2530" t="s">
-        <v>4961</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="2531" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2531" s="1" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="C2531" t="s">
         <v>3495</v>
@@ -80124,12 +80147,12 @@
         <v>5549</v>
       </c>
       <c r="Q2531" t="s">
-        <v>4962</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="2532" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2532" s="1" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="C2532" t="s">
         <v>3495</v>
@@ -80144,12 +80167,12 @@
         <v>5549</v>
       </c>
       <c r="Q2532" t="s">
-        <v>3566</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="2533" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2533" s="1" t="s">
-        <v>3567</v>
+        <v>3569</v>
       </c>
       <c r="C2533" t="s">
         <v>3495</v>
@@ -80164,12 +80187,12 @@
         <v>5549</v>
       </c>
       <c r="Q2533" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="2534" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2534" s="1" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="C2534" t="s">
         <v>3495</v>
@@ -80184,12 +80207,12 @@
         <v>5549</v>
       </c>
       <c r="Q2534" t="s">
-        <v>3570</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="2535" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2535" s="1" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="C2535" t="s">
         <v>3495</v>
@@ -80204,12 +80227,12 @@
         <v>5549</v>
       </c>
       <c r="Q2535" t="s">
-        <v>4595</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="2536" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2536" s="1" t="s">
-        <v>3572</v>
+        <v>3574</v>
       </c>
       <c r="C2536" t="s">
         <v>3495</v>
@@ -80224,12 +80247,12 @@
         <v>5549</v>
       </c>
       <c r="Q2536" t="s">
-        <v>3573</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="2537" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2537" s="1" t="s">
-        <v>3574</v>
+        <v>3576</v>
       </c>
       <c r="C2537" t="s">
         <v>3495</v>
@@ -80244,12 +80267,12 @@
         <v>5549</v>
       </c>
       <c r="Q2537" t="s">
-        <v>3575</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="2538" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2538" s="1" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="C2538" t="s">
         <v>3495</v>
@@ -80264,12 +80287,12 @@
         <v>5549</v>
       </c>
       <c r="Q2538" t="s">
-        <v>4963</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="2539" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2539" s="1" t="s">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="C2539" t="s">
         <v>3495</v>
@@ -80284,12 +80307,12 @@
         <v>5549</v>
       </c>
       <c r="Q2539" t="s">
-        <v>3578</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="2540" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2540" s="1" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="C2540" t="s">
         <v>3495</v>
@@ -80304,12 +80327,12 @@
         <v>5549</v>
       </c>
       <c r="Q2540" t="s">
-        <v>4964</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2541" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2541" s="1" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="C2541" t="s">
         <v>3495</v>
@@ -80324,12 +80347,12 @@
         <v>5549</v>
       </c>
       <c r="Q2541" t="s">
-        <v>4965</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="2542" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2542" s="1" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="C2542" t="s">
         <v>3495</v>
@@ -80344,12 +80367,12 @@
         <v>5549</v>
       </c>
       <c r="Q2542" t="s">
-        <v>4596</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="2543" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2543" s="1" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="C2543" t="s">
         <v>3495</v>
@@ -80364,12 +80387,12 @@
         <v>5549</v>
       </c>
       <c r="Q2543" t="s">
-        <v>4966</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="2544" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2544" s="1" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="C2544" t="s">
         <v>3495</v>
@@ -80384,12 +80407,12 @@
         <v>5549</v>
       </c>
       <c r="Q2544" t="s">
-        <v>4597</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2545" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2545" s="1" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="C2545" t="s">
         <v>3495</v>
@@ -80404,12 +80427,12 @@
         <v>5549</v>
       </c>
       <c r="Q2545" t="s">
-        <v>4967</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="2546" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2546" s="1" t="s">
-        <v>3585</v>
+        <v>3587</v>
       </c>
       <c r="C2546" t="s">
         <v>3495</v>
@@ -80424,12 +80447,12 @@
         <v>5549</v>
       </c>
       <c r="Q2546" t="s">
-        <v>3586</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="2547" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2547" s="1" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="C2547" t="s">
         <v>3495</v>
@@ -80444,12 +80467,12 @@
         <v>5549</v>
       </c>
       <c r="Q2547" t="s">
-        <v>4598</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="2548" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2548" s="1" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="C2548" t="s">
         <v>3495</v>
@@ -80464,12 +80487,12 @@
         <v>5549</v>
       </c>
       <c r="Q2548" t="s">
-        <v>4968</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="2549" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2549" s="1" t="s">
-        <v>3589</v>
+        <v>3591</v>
       </c>
       <c r="C2549" t="s">
         <v>3495</v>
@@ -80484,12 +80507,12 @@
         <v>5549</v>
       </c>
       <c r="Q2549" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="2550" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2550" s="1" t="s">
-        <v>3591</v>
+        <v>3593</v>
       </c>
       <c r="C2550" t="s">
         <v>3495</v>
@@ -80504,12 +80527,12 @@
         <v>5549</v>
       </c>
       <c r="Q2550" t="s">
-        <v>3592</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="2551" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2551" s="1" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="C2551" t="s">
         <v>3495</v>
@@ -80524,12 +80547,12 @@
         <v>5549</v>
       </c>
       <c r="Q2551" t="s">
-        <v>4969</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="2552" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2552" s="1" t="s">
-        <v>3594</v>
+        <v>3596</v>
       </c>
       <c r="C2552" t="s">
         <v>3495</v>
@@ -80544,12 +80567,12 @@
         <v>5549</v>
       </c>
       <c r="Q2552" t="s">
-        <v>3595</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="2553" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2553" s="1" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="C2553" t="s">
         <v>3495</v>
@@ -80564,12 +80587,12 @@
         <v>5549</v>
       </c>
       <c r="Q2553" t="s">
-        <v>4970</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="2554" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2554" s="1" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="C2554" t="s">
         <v>3495</v>
@@ -80584,12 +80607,12 @@
         <v>5549</v>
       </c>
       <c r="Q2554" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="2555" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2555" s="1" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="C2555" t="s">
         <v>3495</v>
@@ -80604,12 +80627,12 @@
         <v>5549</v>
       </c>
       <c r="Q2555" t="s">
-        <v>4600</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2556" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2556" s="1" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="C2556" t="s">
         <v>3495</v>
@@ -80624,12 +80647,12 @@
         <v>5549</v>
       </c>
       <c r="Q2556" t="s">
-        <v>4971</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="2557" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2557" s="1" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="C2557" t="s">
         <v>3495</v>
@@ -80644,12 +80667,12 @@
         <v>5549</v>
       </c>
       <c r="Q2557" t="s">
-        <v>4972</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="2558" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2558" s="1" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="C2558" t="s">
         <v>3495</v>
@@ -80664,12 +80687,12 @@
         <v>5549</v>
       </c>
       <c r="Q2558" t="s">
-        <v>3602</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2559" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2559" s="1" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="C2559" t="s">
         <v>3495</v>
@@ -80684,12 +80707,12 @@
         <v>5549</v>
       </c>
       <c r="Q2559" t="s">
-        <v>4973</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2560" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2560" s="1" t="s">
-        <v>3604</v>
+        <v>6932</v>
       </c>
       <c r="C2560" t="s">
         <v>3495</v>
@@ -80704,12 +80727,12 @@
         <v>5549</v>
       </c>
       <c r="Q2560" t="s">
-        <v>3605</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="2561" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2561" s="1" t="s">
-        <v>6932</v>
+        <v>3607</v>
       </c>
       <c r="C2561" t="s">
         <v>3495</v>
@@ -80724,12 +80747,12 @@
         <v>5549</v>
       </c>
       <c r="Q2561" t="s">
-        <v>4974</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="2562" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2562" s="1" t="s">
-        <v>3607</v>
+        <v>3609</v>
       </c>
       <c r="C2562" t="s">
         <v>3495</v>
@@ -80744,12 +80767,12 @@
         <v>5549</v>
       </c>
       <c r="Q2562" t="s">
-        <v>3608</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="2563" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2563" s="1" t="s">
-        <v>3609</v>
+        <v>3611</v>
       </c>
       <c r="C2563" t="s">
         <v>3495</v>
@@ -80764,12 +80787,12 @@
         <v>5549</v>
       </c>
       <c r="Q2563" t="s">
-        <v>3610</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="2564" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2564" s="1" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="C2564" t="s">
         <v>3495</v>
@@ -80784,12 +80807,12 @@
         <v>5549</v>
       </c>
       <c r="Q2564" t="s">
-        <v>4975</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="2565" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2565" s="1" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="C2565" t="s">
         <v>3495</v>
@@ -80804,12 +80827,12 @@
         <v>5549</v>
       </c>
       <c r="Q2565" t="s">
-        <v>4976</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="2566" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2566" s="1" t="s">
-        <v>3613</v>
+        <v>3615</v>
       </c>
       <c r="C2566" t="s">
         <v>3495</v>
@@ -80824,12 +80847,12 @@
         <v>5549</v>
       </c>
       <c r="Q2566" t="s">
-        <v>3614</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="2567" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2567" s="1" t="s">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C2567" t="s">
         <v>3495</v>
@@ -80844,12 +80867,12 @@
         <v>5549</v>
       </c>
       <c r="Q2567" t="s">
-        <v>3616</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2568" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2568" s="1" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="C2568" t="s">
         <v>3495</v>
@@ -80864,12 +80887,12 @@
         <v>5549</v>
       </c>
       <c r="Q2568" t="s">
-        <v>4977</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="2569" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2569" s="1" t="s">
-        <v>3618</v>
+        <v>3620</v>
       </c>
       <c r="C2569" t="s">
         <v>3495</v>
@@ -80884,12 +80907,12 @@
         <v>5549</v>
       </c>
       <c r="Q2569" t="s">
-        <v>3619</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="2570" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2570" s="1" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="C2570" t="s">
         <v>3495</v>
@@ -80904,12 +80927,12 @@
         <v>5549</v>
       </c>
       <c r="Q2570" t="s">
-        <v>4978</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2571" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2571" s="1" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="C2571" t="s">
         <v>3495</v>
@@ -80924,12 +80947,12 @@
         <v>5549</v>
       </c>
       <c r="Q2571" t="s">
-        <v>4979</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="2572" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2572" s="1" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="C2572" t="s">
         <v>3495</v>
@@ -80944,12 +80967,12 @@
         <v>5549</v>
       </c>
       <c r="Q2572" t="s">
-        <v>4980</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="2573" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2573" s="1" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="C2573" t="s">
         <v>3495</v>
@@ -80964,12 +80987,12 @@
         <v>5549</v>
       </c>
       <c r="Q2573" t="s">
-        <v>4601</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="2574" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2574" s="1" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="C2574" t="s">
         <v>3495</v>
@@ -80984,12 +81007,12 @@
         <v>5549</v>
       </c>
       <c r="Q2574" t="s">
-        <v>4981</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="2575" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2575" s="1" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="C2575" t="s">
         <v>3495</v>
@@ -81004,12 +81027,12 @@
         <v>5549</v>
       </c>
       <c r="Q2575" t="s">
-        <v>4602</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="2576" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2576" s="1" t="s">
-        <v>3626</v>
+        <v>3628</v>
       </c>
       <c r="C2576" t="s">
         <v>3495</v>
@@ -81024,12 +81047,12 @@
         <v>5549</v>
       </c>
       <c r="Q2576" t="s">
-        <v>3627</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="2577" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2577" s="1" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="C2577" t="s">
         <v>3495</v>
@@ -81044,12 +81067,12 @@
         <v>5549</v>
       </c>
       <c r="Q2577" t="s">
-        <v>4982</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="2578" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2578" s="1" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="C2578" t="s">
         <v>3495</v>
@@ -81064,12 +81087,12 @@
         <v>5549</v>
       </c>
       <c r="Q2578" t="s">
-        <v>4603</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="2579" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2579" s="1" t="s">
-        <v>3630</v>
+        <v>3632</v>
       </c>
       <c r="C2579" t="s">
         <v>3495</v>
@@ -81084,12 +81107,12 @@
         <v>5549</v>
       </c>
       <c r="Q2579" t="s">
-        <v>3631</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="2580" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2580" s="1" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="C2580" t="s">
         <v>3495</v>
@@ -81104,12 +81127,12 @@
         <v>5549</v>
       </c>
       <c r="Q2580" t="s">
-        <v>4983</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="2581" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2581" s="1" t="s">
-        <v>3633</v>
+        <v>3635</v>
       </c>
       <c r="C2581" t="s">
         <v>3495</v>
@@ -81124,12 +81147,12 @@
         <v>5549</v>
       </c>
       <c r="Q2581" t="s">
-        <v>3634</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="2582" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2582" s="1" t="s">
-        <v>3635</v>
+        <v>3637</v>
       </c>
       <c r="C2582" t="s">
         <v>3495</v>
@@ -81144,12 +81167,12 @@
         <v>5549</v>
       </c>
       <c r="Q2582" t="s">
-        <v>3636</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="2583" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2583" s="1" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="C2583" t="s">
         <v>3495</v>
@@ -81164,12 +81187,12 @@
         <v>5549</v>
       </c>
       <c r="Q2583" t="s">
-        <v>4604</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="2584" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2584" s="1" t="s">
-        <v>3638</v>
+        <v>3640</v>
       </c>
       <c r="C2584" t="s">
         <v>3495</v>
@@ -81184,12 +81207,12 @@
         <v>5549</v>
       </c>
       <c r="Q2584" t="s">
-        <v>3639</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="2585" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2585" s="1" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="C2585" t="s">
         <v>3495</v>
@@ -81204,12 +81227,12 @@
         <v>5549</v>
       </c>
       <c r="Q2585" t="s">
-        <v>4984</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2586" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2586" s="1" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="C2586" t="s">
         <v>3495</v>
@@ -81224,12 +81247,12 @@
         <v>5549</v>
       </c>
       <c r="Q2586" t="s">
-        <v>4985</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="2587" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2587" s="1" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="C2587" t="s">
         <v>3495</v>
@@ -81244,12 +81267,12 @@
         <v>5549</v>
       </c>
       <c r="Q2587" t="s">
-        <v>4605</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="2588" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2588" s="1" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="C2588" t="s">
         <v>3495</v>
@@ -81264,12 +81287,12 @@
         <v>5549</v>
       </c>
       <c r="Q2588" t="s">
-        <v>4986</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2589" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2589" s="1" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="C2589" t="s">
         <v>3495</v>
@@ -81284,12 +81307,12 @@
         <v>5549</v>
       </c>
       <c r="Q2589" t="s">
-        <v>4987</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="2590" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2590" s="1" t="s">
-        <v>3645</v>
+        <v>3647</v>
       </c>
       <c r="C2590" t="s">
         <v>3495</v>
@@ -81304,12 +81327,12 @@
         <v>5549</v>
       </c>
       <c r="Q2590" t="s">
-        <v>3646</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="2591" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2591" s="1" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="C2591" t="s">
         <v>3495</v>
@@ -81324,12 +81347,12 @@
         <v>5549</v>
       </c>
       <c r="Q2591" t="s">
-        <v>4988</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2592" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2592" s="1" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C2592" t="s">
         <v>3495</v>
@@ -81344,12 +81367,12 @@
         <v>5549</v>
       </c>
       <c r="Q2592" t="s">
-        <v>4989</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="2593" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2593" s="1" t="s">
-        <v>3649</v>
+        <v>3651</v>
       </c>
       <c r="C2593" t="s">
         <v>3495</v>
@@ -81364,12 +81387,12 @@
         <v>5549</v>
       </c>
       <c r="Q2593" t="s">
-        <v>3650</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="2594" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2594" s="1" t="s">
-        <v>3651</v>
+        <v>3653</v>
       </c>
       <c r="C2594" t="s">
         <v>3495</v>
@@ -81384,12 +81407,12 @@
         <v>5549</v>
       </c>
       <c r="Q2594" t="s">
-        <v>3652</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="2595" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2595" s="1" t="s">
-        <v>3653</v>
+        <v>3655</v>
       </c>
       <c r="C2595" t="s">
         <v>3495</v>
@@ -81404,12 +81427,12 @@
         <v>5549</v>
       </c>
       <c r="Q2595" t="s">
-        <v>3654</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="2596" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2596" s="1" t="s">
-        <v>3655</v>
+        <v>3657</v>
       </c>
       <c r="C2596" t="s">
         <v>3495</v>
@@ -81424,12 +81447,12 @@
         <v>5549</v>
       </c>
       <c r="Q2596" t="s">
-        <v>3656</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="2597" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2597" s="1" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="C2597" t="s">
         <v>3495</v>
@@ -81444,12 +81467,12 @@
         <v>5549</v>
       </c>
       <c r="Q2597" t="s">
-        <v>4990</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="2598" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2598" s="1" t="s">
-        <v>3658</v>
+        <v>3660</v>
       </c>
       <c r="C2598" t="s">
         <v>3495</v>
@@ -81464,12 +81487,12 @@
         <v>5549</v>
       </c>
       <c r="Q2598" t="s">
-        <v>3659</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="2599" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2599" s="1" t="s">
-        <v>3660</v>
+        <v>3662</v>
       </c>
       <c r="C2599" t="s">
         <v>3495</v>
@@ -81484,12 +81507,12 @@
         <v>5549</v>
       </c>
       <c r="Q2599" t="s">
-        <v>3661</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2600" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2600" s="1" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="C2600" t="s">
         <v>3495</v>
@@ -81504,12 +81527,12 @@
         <v>5549</v>
       </c>
       <c r="Q2600" t="s">
-        <v>4991</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="2601" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2601" s="1" t="s">
-        <v>3663</v>
+        <v>3665</v>
       </c>
       <c r="C2601" t="s">
         <v>3495</v>
@@ -81524,12 +81547,12 @@
         <v>5549</v>
       </c>
       <c r="Q2601" t="s">
-        <v>3664</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="2602" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2602" s="1" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="C2602" t="s">
         <v>3495</v>
@@ -81544,12 +81567,12 @@
         <v>5549</v>
       </c>
       <c r="Q2602" t="s">
-        <v>4992</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="2603" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2603" s="1" t="s">
-        <v>3666</v>
+        <v>3668</v>
       </c>
       <c r="C2603" t="s">
         <v>3495</v>
@@ -81564,12 +81587,12 @@
         <v>5549</v>
       </c>
       <c r="Q2603" t="s">
-        <v>3667</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="2604" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2604" s="1" t="s">
-        <v>3668</v>
+        <v>3670</v>
       </c>
       <c r="C2604" t="s">
         <v>3495</v>
@@ -81584,12 +81607,12 @@
         <v>5549</v>
       </c>
       <c r="Q2604" t="s">
-        <v>3669</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="2605" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2605" s="1" t="s">
-        <v>3670</v>
+        <v>3672</v>
       </c>
       <c r="C2605" t="s">
         <v>3495</v>
@@ -81604,12 +81627,12 @@
         <v>5549</v>
       </c>
       <c r="Q2605" t="s">
-        <v>3671</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="2606" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2606" s="1" t="s">
-        <v>3672</v>
+        <v>3674</v>
       </c>
       <c r="C2606" t="s">
         <v>3495</v>
@@ -81624,12 +81647,12 @@
         <v>5549</v>
       </c>
       <c r="Q2606" t="s">
-        <v>3673</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="2607" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2607" s="1" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="C2607" t="s">
         <v>3495</v>
@@ -81644,12 +81667,12 @@
         <v>5549</v>
       </c>
       <c r="Q2607" t="s">
-        <v>4993</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="2608" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2608" s="1" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="C2608" t="s">
         <v>3495</v>
@@ -81664,12 +81687,12 @@
         <v>5549</v>
       </c>
       <c r="Q2608" t="s">
-        <v>4994</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="2609" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2609" s="1" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="C2609" t="s">
         <v>3495</v>
@@ -81684,12 +81707,12 @@
         <v>5549</v>
       </c>
       <c r="Q2609" t="s">
-        <v>4995</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="2610" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2610" s="1" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="C2610" t="s">
         <v>3495</v>
@@ -81704,12 +81727,12 @@
         <v>5549</v>
       </c>
       <c r="Q2610" t="s">
-        <v>4996</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="2611" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2611" s="1" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="C2611" t="s">
         <v>3495</v>
@@ -81724,12 +81747,12 @@
         <v>5549</v>
       </c>
       <c r="Q2611" t="s">
-        <v>4997</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="2612" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2612" s="1" t="s">
-        <v>3679</v>
+        <v>3681</v>
       </c>
       <c r="C2612" t="s">
         <v>3495</v>
@@ -81744,12 +81767,12 @@
         <v>5549</v>
       </c>
       <c r="Q2612" t="s">
-        <v>3680</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="2613" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2613" s="1" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="C2613" t="s">
         <v>3495</v>
@@ -81764,12 +81787,12 @@
         <v>5549</v>
       </c>
       <c r="Q2613" t="s">
-        <v>4606</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="2614" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2614" s="1" t="s">
-        <v>3682</v>
+        <v>6933</v>
       </c>
       <c r="C2614" t="s">
         <v>3495</v>
@@ -81784,12 +81807,12 @@
         <v>5549</v>
       </c>
       <c r="Q2614" t="s">
-        <v>3683</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="2615" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2615" s="1" t="s">
-        <v>6933</v>
+        <v>6935</v>
       </c>
       <c r="C2615" t="s">
         <v>3495</v>
@@ -81804,12 +81827,12 @@
         <v>5549</v>
       </c>
       <c r="Q2615" t="s">
-        <v>6934</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="2616" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2616" s="1" t="s">
-        <v>6935</v>
+        <v>6937</v>
       </c>
       <c r="C2616" t="s">
         <v>3495</v>
@@ -81824,12 +81847,12 @@
         <v>5549</v>
       </c>
       <c r="Q2616" t="s">
-        <v>6936</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="2617" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2617" s="1" t="s">
-        <v>6937</v>
+        <v>6939</v>
       </c>
       <c r="C2617" t="s">
         <v>3495</v>
@@ -81844,12 +81867,12 @@
         <v>5549</v>
       </c>
       <c r="Q2617" t="s">
-        <v>6938</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="2618" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2618" s="1" t="s">
-        <v>6939</v>
+        <v>6941</v>
       </c>
       <c r="C2618" t="s">
         <v>3495</v>
@@ -81864,12 +81887,12 @@
         <v>5549</v>
       </c>
       <c r="Q2618" t="s">
-        <v>6940</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="2619" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2619" s="1" t="s">
-        <v>6941</v>
+        <v>6943</v>
       </c>
       <c r="C2619" t="s">
         <v>3495</v>
@@ -81884,12 +81907,12 @@
         <v>5549</v>
       </c>
       <c r="Q2619" t="s">
-        <v>6942</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="2620" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2620" s="1" t="s">
-        <v>6943</v>
+        <v>6945</v>
       </c>
       <c r="C2620" t="s">
         <v>3495</v>
@@ -81904,12 +81927,12 @@
         <v>5549</v>
       </c>
       <c r="Q2620" t="s">
-        <v>6944</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="2621" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2621" s="1" t="s">
-        <v>6945</v>
+        <v>6947</v>
       </c>
       <c r="C2621" t="s">
         <v>3495</v>
@@ -81924,12 +81947,12 @@
         <v>5549</v>
       </c>
       <c r="Q2621" t="s">
-        <v>6946</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="2622" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2622" s="1" t="s">
-        <v>6947</v>
+        <v>6949</v>
       </c>
       <c r="C2622" t="s">
         <v>3495</v>
@@ -81944,12 +81967,12 @@
         <v>5549</v>
       </c>
       <c r="Q2622" t="s">
-        <v>6948</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="2623" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2623" s="1" t="s">
-        <v>6949</v>
+        <v>6951</v>
       </c>
       <c r="C2623" t="s">
         <v>3495</v>
@@ -81964,12 +81987,12 @@
         <v>5549</v>
       </c>
       <c r="Q2623" t="s">
-        <v>6950</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="2624" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2624" s="1" t="s">
-        <v>6951</v>
+        <v>6953</v>
       </c>
       <c r="C2624" t="s">
         <v>3495</v>
@@ -81984,26 +82007,6 @@
         <v>5549</v>
       </c>
       <c r="Q2624" t="s">
-        <v>6952</v>
-      </c>
-    </row>
-    <row r="2625" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2625" s="1" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C2625" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D2625" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2625" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2625" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q2625" t="s">
         <v>6954</v>
       </c>
     </row>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$2527</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$2523</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25259,10 +25259,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R2527"/>
+  <dimension ref="B1:R2523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2079" workbookViewId="0">
-      <selection activeCell="B2090" sqref="B2090"/>
+    <sheetView tabSelected="1" topLeftCell="A2244" workbookViewId="0">
+      <selection activeCell="D2259" sqref="D2259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74681,90 +74681,90 @@
     </row>
     <row r="2259" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2259" s="1" t="s">
-        <v>2647</v>
+        <v>6751</v>
       </c>
       <c r="C2259" t="s">
-        <v>2648</v>
-      </c>
-      <c r="D2259" s="1" t="s">
+        <v>6752</v>
+      </c>
+      <c r="D2259" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2259" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L2259" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q2259" t="s">
-        <v>2649</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="2260" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2260" s="1" t="s">
-        <v>2650</v>
+        <v>6754</v>
       </c>
       <c r="C2260" t="s">
-        <v>2648</v>
+        <v>6755</v>
       </c>
       <c r="D2260" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2260" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L2260" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q2260" t="s">
-        <v>2651</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="2261" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2261" s="1" t="s">
-        <v>2652</v>
+        <v>6757</v>
       </c>
       <c r="C2261" t="s">
-        <v>2648</v>
+        <v>6755</v>
       </c>
       <c r="D2261" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2261" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L2261" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q2261" t="s">
-        <v>2653</v>
+        <v>6758</v>
       </c>
     </row>
     <row r="2262" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2262" s="1" t="s">
-        <v>2654</v>
+        <v>6759</v>
       </c>
       <c r="C2262" t="s">
-        <v>2648</v>
+        <v>6755</v>
       </c>
       <c r="D2262" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2262" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L2262" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q2262" t="s">
-        <v>2655</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="2263" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2263" s="1" t="s">
-        <v>6751</v>
+        <v>6761</v>
       </c>
       <c r="C2263" t="s">
-        <v>6752</v>
+        <v>6762</v>
       </c>
       <c r="D2263" s="1" t="s">
         <v>2</v>
@@ -74776,333 +74776,321 @@
         <v>58</v>
       </c>
       <c r="Q2263" t="s">
-        <v>6753</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="2264" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2264" s="1" t="s">
-        <v>6754</v>
+        <v>3349</v>
       </c>
       <c r="C2264" t="s">
-        <v>6755</v>
+        <v>3350</v>
       </c>
       <c r="D2264" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2264" t="s">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="L2264" t="s">
-        <v>58</v>
+        <v>5070</v>
       </c>
       <c r="Q2264" t="s">
-        <v>6756</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="2265" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2265" s="1" t="s">
-        <v>6757</v>
+        <v>6765</v>
       </c>
       <c r="C2265" t="s">
-        <v>6755</v>
+        <v>3350</v>
       </c>
       <c r="D2265" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2265" t="s">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="L2265" t="s">
-        <v>58</v>
+        <v>5070</v>
       </c>
       <c r="Q2265" t="s">
-        <v>6758</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="2266" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2266" s="1" t="s">
-        <v>6759</v>
+        <v>3351</v>
       </c>
       <c r="C2266" t="s">
-        <v>6755</v>
-      </c>
-      <c r="D2266" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2266" t="s">
-        <v>2</v>
+        <v>3352</v>
+      </c>
+      <c r="D2266" s="1">
+        <v>68000</v>
       </c>
       <c r="L2266" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="M2266" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2266" t="s">
-        <v>6760</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="2267" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2267" s="1" t="s">
-        <v>6761</v>
+        <v>3353</v>
       </c>
       <c r="C2267" t="s">
-        <v>6762</v>
-      </c>
-      <c r="D2267" s="1" t="s">
-        <v>2</v>
+        <v>3352</v>
+      </c>
+      <c r="D2267" s="1">
+        <v>68000</v>
       </c>
       <c r="E2267" t="s">
         <v>2</v>
       </c>
       <c r="L2267" t="s">
-        <v>58</v>
+        <v>6767</v>
+      </c>
+      <c r="M2267" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2267" t="s">
-        <v>6763</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="2268" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2268" s="1" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="C2268" t="s">
-        <v>3350</v>
-      </c>
-      <c r="D2268" s="1" t="s">
-        <v>951</v>
+        <v>3352</v>
+      </c>
+      <c r="D2268" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E2268" t="s">
+        <v>2</v>
       </c>
       <c r="L2268" t="s">
-        <v>5070</v>
+        <v>6767</v>
+      </c>
+      <c r="M2268" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2268" t="s">
-        <v>6764</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="2269" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2269" s="1" t="s">
-        <v>6765</v>
+        <v>3355</v>
       </c>
       <c r="C2269" t="s">
-        <v>3350</v>
+        <v>3356</v>
       </c>
       <c r="D2269" s="1" t="s">
-        <v>951</v>
+        <v>2</v>
+      </c>
+      <c r="E2269" t="s">
+        <v>2426</v>
       </c>
       <c r="L2269" t="s">
         <v>5070</v>
       </c>
       <c r="Q2269" t="s">
-        <v>6766</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="2270" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2270" s="1" t="s">
-        <v>3351</v>
+        <v>6768</v>
       </c>
       <c r="C2270" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D2270" s="1">
-        <v>68000</v>
+        <v>6769</v>
+      </c>
+      <c r="D2270" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2270" t="s">
+        <v>2426</v>
       </c>
       <c r="L2270" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2270" t="s">
-        <v>1687</v>
+        <v>5505</v>
       </c>
       <c r="Q2270" t="s">
-        <v>4567</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="2271" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2271" s="1" t="s">
-        <v>3353</v>
+        <v>6771</v>
       </c>
       <c r="C2271" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D2271" s="1">
-        <v>68000</v>
+        <v>6769</v>
+      </c>
+      <c r="D2271" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E2271" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L2271" t="s">
-        <v>6767</v>
+        <v>5071</v>
       </c>
       <c r="M2271" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q2271" t="s">
-        <v>4568</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="2272" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2272" s="1" t="s">
-        <v>3354</v>
+        <v>6773</v>
       </c>
       <c r="C2272" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D2272" s="1">
-        <v>68000</v>
+        <v>6769</v>
+      </c>
+      <c r="D2272" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E2272" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L2272" t="s">
-        <v>6767</v>
+        <v>5071</v>
       </c>
       <c r="M2272" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q2272" t="s">
-        <v>4569</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="2273" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2273" s="1" t="s">
-        <v>3355</v>
+        <v>3358</v>
       </c>
       <c r="C2273" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D2273" s="1" t="s">
-        <v>2</v>
+        <v>6775</v>
+      </c>
+      <c r="D2273" s="1">
+        <v>68000</v>
       </c>
       <c r="E2273" t="s">
         <v>2426</v>
       </c>
+      <c r="F2273" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G2273" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2273" t="s">
-        <v>5070</v>
+        <v>5238</v>
+      </c>
+      <c r="M2273" t="s">
+        <v>4570</v>
       </c>
       <c r="Q2273" t="s">
-        <v>3357</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="2274" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2274" s="1" t="s">
-        <v>6768</v>
+        <v>6776</v>
       </c>
       <c r="C2274" t="s">
-        <v>6769</v>
-      </c>
-      <c r="D2274" s="1" t="s">
-        <v>2</v>
+        <v>6775</v>
+      </c>
+      <c r="D2274" s="1">
+        <v>68000</v>
       </c>
       <c r="E2274" t="s">
         <v>2426</v>
       </c>
+      <c r="F2274" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2274" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M2274" t="s">
+        <v>2605</v>
       </c>
       <c r="Q2274" t="s">
-        <v>6770</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="2275" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2275" s="1" t="s">
-        <v>6771</v>
+        <v>3359</v>
       </c>
       <c r="C2275" t="s">
-        <v>6769</v>
+        <v>3360</v>
       </c>
       <c r="D2275" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2275" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2275" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2275" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="Q2275" t="s">
-        <v>6772</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="2276" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2276" s="1" t="s">
-        <v>6773</v>
+        <v>3362</v>
       </c>
       <c r="C2276" t="s">
-        <v>6769</v>
+        <v>3360</v>
       </c>
       <c r="D2276" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2276" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2276" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2276" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="Q2276" t="s">
-        <v>6774</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="2277" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2277" s="1" t="s">
-        <v>3358</v>
+        <v>6778</v>
       </c>
       <c r="C2277" t="s">
-        <v>6775</v>
-      </c>
-      <c r="D2277" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2277" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F2277" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G2277" t="s">
-        <v>2426</v>
+        <v>3360</v>
+      </c>
+      <c r="D2277" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2277" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2277" t="s">
-        <v>4570</v>
+        <v>5070</v>
       </c>
       <c r="Q2277" t="s">
-        <v>4571</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="2278" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2278" s="1" t="s">
-        <v>6776</v>
+        <v>3364</v>
       </c>
       <c r="C2278" t="s">
-        <v>6775</v>
-      </c>
-      <c r="D2278" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2278" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F2278" t="s">
-        <v>2426</v>
+        <v>3360</v>
+      </c>
+      <c r="D2278" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2278" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2278" t="s">
-        <v>2605</v>
+        <v>5070</v>
       </c>
       <c r="Q2278" t="s">
-        <v>6777</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="2279" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2279" s="1" t="s">
-        <v>3359</v>
+        <v>3366</v>
       </c>
       <c r="C2279" t="s">
         <v>3360</v>
@@ -75114,80 +75102,92 @@
         <v>5070</v>
       </c>
       <c r="Q2279" t="s">
-        <v>3361</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="2280" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2280" s="1" t="s">
-        <v>3362</v>
+        <v>3368</v>
       </c>
       <c r="C2280" t="s">
-        <v>3360</v>
+        <v>3369</v>
       </c>
       <c r="D2280" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2280" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2280" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q2280" t="s">
-        <v>3363</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="2281" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2281" s="1" t="s">
-        <v>6778</v>
+        <v>3371</v>
       </c>
       <c r="C2281" t="s">
-        <v>3360</v>
+        <v>3369</v>
       </c>
       <c r="D2281" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2281" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2281" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q2281" t="s">
-        <v>6779</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="2282" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2282" s="1" t="s">
-        <v>3364</v>
+        <v>6780</v>
       </c>
       <c r="C2282" t="s">
-        <v>3360</v>
+        <v>3369</v>
       </c>
       <c r="D2282" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2282" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2282" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q2282" t="s">
-        <v>3365</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="2283" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2283" s="1" t="s">
-        <v>3366</v>
+        <v>6782</v>
       </c>
       <c r="C2283" t="s">
-        <v>3360</v>
+        <v>3369</v>
       </c>
       <c r="D2283" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2283" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2283" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q2283" t="s">
-        <v>3367</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="2284" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2284" s="1" t="s">
-        <v>3368</v>
+        <v>3373</v>
       </c>
       <c r="C2284" t="s">
         <v>3369</v>
@@ -75202,12 +75202,12 @@
         <v>5505</v>
       </c>
       <c r="Q2284" t="s">
-        <v>3370</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="2285" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2285" s="1" t="s">
-        <v>3371</v>
+        <v>3375</v>
       </c>
       <c r="C2285" t="s">
         <v>3369</v>
@@ -75219,15 +75219,18 @@
         <v>2426</v>
       </c>
       <c r="L2285" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M2285" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2285" t="s">
-        <v>3372</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="2286" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2286" s="1" t="s">
-        <v>6780</v>
+        <v>6784</v>
       </c>
       <c r="C2286" t="s">
         <v>3369</v>
@@ -75239,15 +75242,18 @@
         <v>2426</v>
       </c>
       <c r="L2286" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M2286" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2286" t="s">
-        <v>6781</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="2287" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2287" s="1" t="s">
-        <v>6782</v>
+        <v>6786</v>
       </c>
       <c r="C2287" t="s">
         <v>3369</v>
@@ -75259,15 +75265,18 @@
         <v>2426</v>
       </c>
       <c r="L2287" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M2287" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2287" t="s">
-        <v>6783</v>
+        <v>6787</v>
       </c>
     </row>
     <row r="2288" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2288" s="1" t="s">
-        <v>3373</v>
+        <v>6788</v>
       </c>
       <c r="C2288" t="s">
         <v>3369</v>
@@ -75279,15 +75288,18 @@
         <v>2426</v>
       </c>
       <c r="L2288" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M2288" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2288" t="s">
-        <v>3374</v>
+        <v>6789</v>
       </c>
     </row>
     <row r="2289" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2289" s="1" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="C2289" t="s">
         <v>3369</v>
@@ -75305,18 +75317,18 @@
         <v>1687</v>
       </c>
       <c r="Q2289" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="2290" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2290" s="1" t="s">
-        <v>6784</v>
+        <v>3377</v>
       </c>
       <c r="C2290" t="s">
         <v>3369</v>
       </c>
-      <c r="D2290" s="1" t="s">
-        <v>2</v>
+      <c r="D2290" s="1">
+        <v>68000</v>
       </c>
       <c r="E2290" t="s">
         <v>2426</v>
@@ -75328,276 +75340,252 @@
         <v>1687</v>
       </c>
       <c r="Q2290" t="s">
-        <v>6785</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="2291" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2291" s="1" t="s">
-        <v>6786</v>
+        <v>3427</v>
       </c>
       <c r="C2291" t="s">
-        <v>3369</v>
+        <v>3428</v>
       </c>
       <c r="D2291" s="1" t="s">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="E2291" t="s">
-        <v>2426</v>
+        <v>3899</v>
       </c>
       <c r="L2291" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2291" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q2291" t="s">
-        <v>6787</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="2292" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2292" s="1" t="s">
-        <v>6788</v>
+        <v>3430</v>
       </c>
       <c r="C2292" t="s">
-        <v>3369</v>
+        <v>3428</v>
       </c>
       <c r="D2292" s="1" t="s">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="E2292" t="s">
-        <v>2426</v>
+        <v>3899</v>
       </c>
       <c r="L2292" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2292" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q2292" t="s">
-        <v>6789</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="2293" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2293" s="1" t="s">
-        <v>3376</v>
+        <v>6790</v>
       </c>
       <c r="C2293" t="s">
-        <v>3369</v>
+        <v>6791</v>
       </c>
       <c r="D2293" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E2293" t="s">
-        <v>2426</v>
+        <v>404</v>
       </c>
       <c r="L2293" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2293" t="s">
-        <v>1687</v>
+        <v>542</v>
       </c>
       <c r="Q2293" t="s">
-        <v>4573</v>
+        <v>6792</v>
       </c>
     </row>
     <row r="2294" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2294" s="1" t="s">
-        <v>3377</v>
+        <v>6793</v>
       </c>
       <c r="C2294" t="s">
-        <v>3369</v>
-      </c>
-      <c r="D2294" s="1">
-        <v>68000</v>
+        <v>6791</v>
+      </c>
+      <c r="D2294" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E2294" t="s">
-        <v>2426</v>
+        <v>404</v>
       </c>
       <c r="L2294" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2294" t="s">
-        <v>1687</v>
+        <v>542</v>
       </c>
       <c r="Q2294" t="s">
-        <v>4574</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="2295" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2295" s="1" t="s">
-        <v>3427</v>
+        <v>6795</v>
       </c>
       <c r="C2295" t="s">
-        <v>3428</v>
-      </c>
-      <c r="D2295" s="1" t="s">
-        <v>351</v>
+        <v>6796</v>
+      </c>
+      <c r="D2295" s="1">
+        <v>68000</v>
       </c>
       <c r="E2295" t="s">
-        <v>3899</v>
+        <v>3964</v>
+      </c>
+      <c r="F2295" t="s">
+        <v>2426</v>
       </c>
       <c r="L2295" t="s">
-        <v>55</v>
+        <v>5505</v>
       </c>
       <c r="Q2295" t="s">
-        <v>3429</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="2296" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2296" s="1" t="s">
-        <v>3430</v>
+        <v>3381</v>
       </c>
       <c r="C2296" t="s">
-        <v>3428</v>
-      </c>
-      <c r="D2296" s="1" t="s">
-        <v>351</v>
+        <v>3382</v>
+      </c>
+      <c r="D2296" s="1">
+        <v>68000</v>
       </c>
       <c r="E2296" t="s">
-        <v>3899</v>
+        <v>2426</v>
       </c>
       <c r="L2296" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q2296" t="s">
-        <v>3431</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="2297" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2297" s="1" t="s">
-        <v>6790</v>
+        <v>3384</v>
       </c>
       <c r="C2297" t="s">
-        <v>6791</v>
-      </c>
-      <c r="D2297" s="1" t="s">
-        <v>404</v>
+        <v>3385</v>
+      </c>
+      <c r="D2297" s="1">
+        <v>68000</v>
       </c>
       <c r="E2297" t="s">
-        <v>404</v>
+        <v>2426</v>
       </c>
       <c r="L2297" t="s">
-        <v>542</v>
+        <v>5071</v>
+      </c>
+      <c r="M2297" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2297" t="s">
-        <v>6792</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="2298" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2298" s="1" t="s">
-        <v>6793</v>
+        <v>3386</v>
       </c>
       <c r="C2298" t="s">
-        <v>6791</v>
-      </c>
-      <c r="D2298" s="1" t="s">
-        <v>404</v>
+        <v>3385</v>
+      </c>
+      <c r="D2298" s="1">
+        <v>68000</v>
       </c>
       <c r="E2298" t="s">
-        <v>404</v>
+        <v>2426</v>
       </c>
       <c r="L2298" t="s">
-        <v>542</v>
+        <v>5071</v>
+      </c>
+      <c r="M2298" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2298" t="s">
-        <v>6794</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="2299" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2299" s="1" t="s">
-        <v>6795</v>
+        <v>3387</v>
       </c>
       <c r="C2299" t="s">
-        <v>6796</v>
+        <v>3319</v>
       </c>
       <c r="D2299" s="1">
         <v>68000</v>
       </c>
-      <c r="E2299" t="s">
-        <v>3964</v>
-      </c>
-      <c r="F2299" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2299" t="s">
-        <v>5505</v>
+        <v>1687</v>
       </c>
       <c r="Q2299" t="s">
-        <v>6797</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="2300" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2300" s="1" t="s">
-        <v>3381</v>
+        <v>3389</v>
       </c>
       <c r="C2300" t="s">
-        <v>3382</v>
+        <v>3319</v>
       </c>
       <c r="D2300" s="1">
         <v>68000</v>
-      </c>
-      <c r="E2300" t="s">
-        <v>2426</v>
       </c>
       <c r="L2300" t="s">
         <v>1687</v>
       </c>
       <c r="Q2300" t="s">
-        <v>3383</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="2301" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2301" s="1" t="s">
-        <v>3384</v>
+        <v>3391</v>
       </c>
       <c r="C2301" t="s">
-        <v>3385</v>
+        <v>3319</v>
       </c>
       <c r="D2301" s="1">
         <v>68000</v>
       </c>
-      <c r="E2301" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2301" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2301" t="s">
         <v>1687</v>
       </c>
       <c r="Q2301" t="s">
-        <v>4575</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="2302" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2302" s="1" t="s">
-        <v>3386</v>
+        <v>3393</v>
       </c>
       <c r="C2302" t="s">
-        <v>3385</v>
+        <v>3394</v>
       </c>
       <c r="D2302" s="1">
         <v>68000</v>
       </c>
-      <c r="E2302" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2302" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2302" t="s">
         <v>1687</v>
       </c>
       <c r="Q2302" t="s">
-        <v>4576</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="2303" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2303" s="1" t="s">
-        <v>3387</v>
+        <v>3396</v>
       </c>
       <c r="C2303" t="s">
-        <v>3319</v>
+        <v>3394</v>
       </c>
       <c r="D2303" s="1">
         <v>68000</v>
@@ -75606,103 +75594,115 @@
         <v>1687</v>
       </c>
       <c r="Q2303" t="s">
-        <v>3388</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="2304" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2304" s="1" t="s">
-        <v>3389</v>
+        <v>3398</v>
       </c>
       <c r="C2304" t="s">
-        <v>3319</v>
-      </c>
-      <c r="D2304" s="1">
-        <v>68000</v>
+        <v>3399</v>
+      </c>
+      <c r="D2304" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2304" t="s">
-        <v>1687</v>
+        <v>1155</v>
+      </c>
+      <c r="M2304" t="s">
+        <v>352</v>
       </c>
       <c r="Q2304" t="s">
-        <v>3390</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="2305" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2305" s="1" t="s">
-        <v>3391</v>
+        <v>3400</v>
       </c>
       <c r="C2305" t="s">
-        <v>3319</v>
-      </c>
-      <c r="D2305" s="1">
-        <v>68000</v>
+        <v>3399</v>
+      </c>
+      <c r="D2305" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2305" t="s">
-        <v>1687</v>
+        <v>1155</v>
+      </c>
+      <c r="M2305" t="s">
+        <v>352</v>
       </c>
       <c r="Q2305" t="s">
-        <v>3392</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="2306" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2306" s="1" t="s">
-        <v>3393</v>
+        <v>3401</v>
       </c>
       <c r="C2306" t="s">
-        <v>3394</v>
-      </c>
-      <c r="D2306" s="1">
-        <v>68000</v>
+        <v>3399</v>
+      </c>
+      <c r="D2306" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2306" t="s">
-        <v>1687</v>
+        <v>1155</v>
+      </c>
+      <c r="M2306" t="s">
+        <v>352</v>
       </c>
       <c r="Q2306" t="s">
-        <v>3395</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="2307" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2307" s="1" t="s">
-        <v>3396</v>
+        <v>6798</v>
       </c>
       <c r="C2307" t="s">
-        <v>3394</v>
-      </c>
-      <c r="D2307" s="1">
-        <v>68000</v>
+        <v>3399</v>
+      </c>
+      <c r="D2307" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2307" t="s">
-        <v>1687</v>
+        <v>1155</v>
+      </c>
+      <c r="M2307" t="s">
+        <v>352</v>
       </c>
       <c r="Q2307" t="s">
-        <v>3397</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="2308" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2308" s="1" t="s">
-        <v>3398</v>
+        <v>6800</v>
       </c>
       <c r="C2308" t="s">
-        <v>3399</v>
+        <v>6801</v>
       </c>
       <c r="D2308" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2308" t="s">
+        <v>2</v>
+      </c>
       <c r="L2308" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M2308" t="s">
-        <v>352</v>
+        <v>3714</v>
       </c>
       <c r="Q2308" t="s">
-        <v>4577</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="2309" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2309" s="1" t="s">
-        <v>3400</v>
+        <v>6803</v>
       </c>
       <c r="C2309" t="s">
-        <v>3399</v>
+        <v>6804</v>
       </c>
       <c r="D2309" s="1" t="s">
         <v>2</v>
@@ -75710,19 +75710,16 @@
       <c r="L2309" t="s">
         <v>1155</v>
       </c>
-      <c r="M2309" t="s">
-        <v>352</v>
-      </c>
       <c r="Q2309" t="s">
-        <v>4578</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="2310" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2310" s="1" t="s">
-        <v>3401</v>
+        <v>6806</v>
       </c>
       <c r="C2310" t="s">
-        <v>3399</v>
+        <v>6804</v>
       </c>
       <c r="D2310" s="1" t="s">
         <v>2</v>
@@ -75730,90 +75727,69 @@
       <c r="L2310" t="s">
         <v>1155</v>
       </c>
-      <c r="M2310" t="s">
-        <v>352</v>
-      </c>
       <c r="Q2310" t="s">
-        <v>4579</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="2311" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2311" s="1" t="s">
-        <v>6798</v>
+        <v>6808</v>
       </c>
       <c r="C2311" t="s">
-        <v>3399</v>
-      </c>
-      <c r="D2311" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2311" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M2311" t="s">
-        <v>352</v>
+        <v>6809</v>
+      </c>
+      <c r="D2311" s="1">
+        <v>68000</v>
       </c>
       <c r="Q2311" t="s">
-        <v>6799</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="2312" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2312" s="1" t="s">
-        <v>6800</v>
+        <v>6811</v>
       </c>
       <c r="C2312" t="s">
-        <v>6801</v>
-      </c>
-      <c r="D2312" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2312" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2312" t="s">
-        <v>3714</v>
+        <v>6809</v>
+      </c>
+      <c r="D2312" s="1">
+        <v>68000</v>
       </c>
       <c r="Q2312" t="s">
-        <v>6802</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="2313" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2313" s="1" t="s">
-        <v>6803</v>
+        <v>6813</v>
       </c>
       <c r="C2313" t="s">
-        <v>6804</v>
-      </c>
-      <c r="D2313" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2313" t="s">
-        <v>1155</v>
+        <v>6809</v>
+      </c>
+      <c r="D2313" s="1">
+        <v>68000</v>
       </c>
       <c r="Q2313" t="s">
-        <v>6805</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="2314" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2314" s="1" t="s">
-        <v>6806</v>
+        <v>6815</v>
       </c>
       <c r="C2314" t="s">
-        <v>6804</v>
-      </c>
-      <c r="D2314" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2314" t="s">
-        <v>1155</v>
+        <v>6809</v>
+      </c>
+      <c r="D2314" s="1">
+        <v>68000</v>
       </c>
       <c r="Q2314" t="s">
-        <v>6807</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="2315" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2315" s="1" t="s">
-        <v>6808</v>
+        <v>6817</v>
       </c>
       <c r="C2315" t="s">
         <v>6809</v>
@@ -75822,12 +75798,12 @@
         <v>68000</v>
       </c>
       <c r="Q2315" t="s">
-        <v>6810</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="2316" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2316" s="1" t="s">
-        <v>6811</v>
+        <v>6819</v>
       </c>
       <c r="C2316" t="s">
         <v>6809</v>
@@ -75836,12 +75812,12 @@
         <v>68000</v>
       </c>
       <c r="Q2316" t="s">
-        <v>6812</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="2317" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2317" s="1" t="s">
-        <v>6813</v>
+        <v>6821</v>
       </c>
       <c r="C2317" t="s">
         <v>6809</v>
@@ -75850,12 +75826,12 @@
         <v>68000</v>
       </c>
       <c r="Q2317" t="s">
-        <v>6814</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="2318" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2318" s="1" t="s">
-        <v>6815</v>
+        <v>6823</v>
       </c>
       <c r="C2318" t="s">
         <v>6809</v>
@@ -75864,12 +75840,12 @@
         <v>68000</v>
       </c>
       <c r="Q2318" t="s">
-        <v>6816</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="2319" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2319" s="1" t="s">
-        <v>6817</v>
+        <v>6825</v>
       </c>
       <c r="C2319" t="s">
         <v>6809</v>
@@ -75878,12 +75854,12 @@
         <v>68000</v>
       </c>
       <c r="Q2319" t="s">
-        <v>6818</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="2320" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2320" s="1" t="s">
-        <v>6819</v>
+        <v>6827</v>
       </c>
       <c r="C2320" t="s">
         <v>6809</v>
@@ -75892,12 +75868,12 @@
         <v>68000</v>
       </c>
       <c r="Q2320" t="s">
-        <v>6820</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="2321" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2321" s="1" t="s">
-        <v>6821</v>
+        <v>6829</v>
       </c>
       <c r="C2321" t="s">
         <v>6809</v>
@@ -75906,12 +75882,12 @@
         <v>68000</v>
       </c>
       <c r="Q2321" t="s">
-        <v>6822</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="2322" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2322" s="1" t="s">
-        <v>6823</v>
+        <v>6831</v>
       </c>
       <c r="C2322" t="s">
         <v>6809</v>
@@ -75920,12 +75896,12 @@
         <v>68000</v>
       </c>
       <c r="Q2322" t="s">
-        <v>6824</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="2323" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2323" s="1" t="s">
-        <v>6825</v>
+        <v>6833</v>
       </c>
       <c r="C2323" t="s">
         <v>6809</v>
@@ -75933,13 +75909,19 @@
       <c r="D2323" s="1">
         <v>68000</v>
       </c>
+      <c r="L2323" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2323" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2323" t="s">
-        <v>6826</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="2324" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2324" s="1" t="s">
-        <v>6827</v>
+        <v>6835</v>
       </c>
       <c r="C2324" t="s">
         <v>6809</v>
@@ -75947,13 +75929,19 @@
       <c r="D2324" s="1">
         <v>68000</v>
       </c>
+      <c r="L2324" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2324" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2324" t="s">
-        <v>6828</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="2325" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2325" s="1" t="s">
-        <v>6829</v>
+        <v>6837</v>
       </c>
       <c r="C2325" t="s">
         <v>6809</v>
@@ -75962,12 +75950,12 @@
         <v>68000</v>
       </c>
       <c r="Q2325" t="s">
-        <v>6830</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="2326" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2326" s="1" t="s">
-        <v>6831</v>
+        <v>6839</v>
       </c>
       <c r="C2326" t="s">
         <v>6809</v>
@@ -75976,12 +75964,12 @@
         <v>68000</v>
       </c>
       <c r="Q2326" t="s">
-        <v>6832</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="2327" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2327" s="1" t="s">
-        <v>6833</v>
+        <v>6841</v>
       </c>
       <c r="C2327" t="s">
         <v>6809</v>
@@ -75989,19 +75977,13 @@
       <c r="D2327" s="1">
         <v>68000</v>
       </c>
-      <c r="L2327" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2327" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q2327" t="s">
-        <v>6834</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="2328" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2328" s="1" t="s">
-        <v>6835</v>
+        <v>6843</v>
       </c>
       <c r="C2328" t="s">
         <v>6809</v>
@@ -76016,12 +75998,12 @@
         <v>6093</v>
       </c>
       <c r="Q2328" t="s">
-        <v>6836</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="2329" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2329" s="1" t="s">
-        <v>6837</v>
+        <v>6845</v>
       </c>
       <c r="C2329" t="s">
         <v>6809</v>
@@ -76030,12 +76012,12 @@
         <v>68000</v>
       </c>
       <c r="Q2329" t="s">
-        <v>6838</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="2330" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2330" s="1" t="s">
-        <v>6839</v>
+        <v>6847</v>
       </c>
       <c r="C2330" t="s">
         <v>6809</v>
@@ -76043,13 +76025,19 @@
       <c r="D2330" s="1">
         <v>68000</v>
       </c>
+      <c r="L2330" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2330" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2330" t="s">
-        <v>6840</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="2331" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2331" s="1" t="s">
-        <v>6841</v>
+        <v>6849</v>
       </c>
       <c r="C2331" t="s">
         <v>6809</v>
@@ -76057,13 +76045,19 @@
       <c r="D2331" s="1">
         <v>68000</v>
       </c>
+      <c r="L2331" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2331" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2331" t="s">
-        <v>6842</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="2332" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2332" s="1" t="s">
-        <v>6843</v>
+        <v>6851</v>
       </c>
       <c r="C2332" t="s">
         <v>6809</v>
@@ -76071,292 +76065,310 @@
       <c r="D2332" s="1">
         <v>68000</v>
       </c>
-      <c r="L2332" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2332" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q2332" t="s">
-        <v>6844</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="2333" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2333" s="1" t="s">
-        <v>6845</v>
+        <v>6853</v>
       </c>
       <c r="C2333" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D2333" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D2333" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E2333" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L2333" t="s">
+        <v>1900</v>
       </c>
       <c r="Q2333" t="s">
-        <v>6846</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="2334" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2334" s="1" t="s">
-        <v>6847</v>
+        <v>6856</v>
       </c>
       <c r="C2334" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D2334" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D2334" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E2334" t="s">
+        <v>3794</v>
       </c>
       <c r="L2334" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2334" t="s">
-        <v>6093</v>
+        <v>1900</v>
       </c>
       <c r="Q2334" t="s">
-        <v>6848</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="2335" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2335" s="1" t="s">
-        <v>6849</v>
+        <v>3468</v>
       </c>
       <c r="C2335" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D2335" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D2335" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E2335" t="s">
+        <v>3794</v>
       </c>
       <c r="L2335" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2335" t="s">
-        <v>6093</v>
+        <v>1900</v>
       </c>
       <c r="Q2335" t="s">
-        <v>6850</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="2336" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2336" s="1" t="s">
-        <v>6851</v>
+        <v>6858</v>
       </c>
       <c r="C2336" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D2336" s="1">
-        <v>68000</v>
+        <v>6859</v>
+      </c>
+      <c r="D2336" s="1" t="s">
+        <v>6860</v>
+      </c>
+      <c r="E2336" t="s">
+        <v>6861</v>
+      </c>
+      <c r="F2336" t="s">
+        <v>6862</v>
+      </c>
+      <c r="L2336" t="s">
+        <v>6863</v>
+      </c>
+      <c r="M2336" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N2336" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O2336" t="s">
+        <v>6866</v>
       </c>
       <c r="Q2336" t="s">
-        <v>6852</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="2337" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2337" s="1" t="s">
-        <v>6853</v>
+        <v>6868</v>
       </c>
       <c r="C2337" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D2337" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E2337" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F2337" t="s">
+        <v>6862</v>
       </c>
       <c r="L2337" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M2337" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N2337" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O2337" t="s">
+        <v>6866</v>
       </c>
       <c r="Q2337" t="s">
-        <v>6855</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="2338" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2338" s="1" t="s">
-        <v>6856</v>
+        <v>6870</v>
       </c>
       <c r="C2338" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D2338" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E2338" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F2338" t="s">
+        <v>6862</v>
       </c>
       <c r="L2338" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M2338" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N2338" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O2338" t="s">
+        <v>6866</v>
       </c>
       <c r="Q2338" t="s">
-        <v>6857</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="2339" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2339" s="1" t="s">
-        <v>3468</v>
+        <v>6872</v>
       </c>
       <c r="C2339" t="s">
-        <v>6854</v>
+        <v>6873</v>
       </c>
       <c r="D2339" s="1" t="s">
-        <v>3469</v>
+        <v>2</v>
       </c>
       <c r="E2339" t="s">
-        <v>3794</v>
+        <v>2426</v>
       </c>
       <c r="L2339" t="s">
-        <v>1900</v>
+        <v>5071</v>
+      </c>
+      <c r="M2339" t="s">
+        <v>3974</v>
       </c>
       <c r="Q2339" t="s">
-        <v>3470</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="2340" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2340" s="1" t="s">
-        <v>6858</v>
+        <v>3490</v>
       </c>
       <c r="C2340" t="s">
-        <v>6859</v>
+        <v>6873</v>
       </c>
       <c r="D2340" s="1" t="s">
-        <v>6860</v>
+        <v>2</v>
       </c>
       <c r="E2340" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F2340" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L2340" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M2340" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N2340" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O2340" t="s">
-        <v>6866</v>
+        <v>3974</v>
       </c>
       <c r="Q2340" t="s">
-        <v>6867</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="2341" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2341" s="1" t="s">
-        <v>6868</v>
+        <v>6876</v>
       </c>
       <c r="C2341" t="s">
-        <v>6859</v>
-      </c>
-      <c r="D2341" s="1" t="s">
-        <v>6860</v>
+        <v>6877</v>
+      </c>
+      <c r="D2341" s="1">
+        <v>68000</v>
       </c>
       <c r="E2341" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F2341" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L2341" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M2341" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N2341" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O2341" t="s">
-        <v>6866</v>
+        <v>1687</v>
       </c>
       <c r="Q2341" t="s">
-        <v>6869</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="2342" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2342" s="1" t="s">
-        <v>6870</v>
+        <v>6879</v>
       </c>
       <c r="C2342" t="s">
-        <v>6859</v>
-      </c>
-      <c r="D2342" s="1" t="s">
-        <v>6860</v>
-      </c>
-      <c r="E2342" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F2342" t="s">
-        <v>6862</v>
+        <v>6877</v>
+      </c>
+      <c r="D2342" s="1">
+        <v>68000</v>
       </c>
       <c r="L2342" t="s">
-        <v>6863</v>
-      </c>
-      <c r="M2342" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N2342" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O2342" t="s">
-        <v>6866</v>
+        <v>1687</v>
       </c>
       <c r="Q2342" t="s">
-        <v>6871</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="2343" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2343" s="1" t="s">
-        <v>6872</v>
+        <v>6881</v>
       </c>
       <c r="C2343" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D2343" s="1" t="s">
-        <v>2</v>
+        <v>6882</v>
+      </c>
+      <c r="D2343" s="1">
+        <v>68000</v>
       </c>
       <c r="E2343" t="s">
         <v>2426</v>
       </c>
       <c r="L2343" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M2343" t="s">
         <v>5071</v>
       </c>
-      <c r="M2343" t="s">
-        <v>3974</v>
+      <c r="N2343" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2343" t="s">
-        <v>6874</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="2344" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2344" s="1" t="s">
-        <v>3490</v>
+        <v>6884</v>
       </c>
       <c r="C2344" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D2344" s="1" t="s">
-        <v>2</v>
+        <v>6882</v>
+      </c>
+      <c r="D2344" s="1">
+        <v>68000</v>
       </c>
       <c r="E2344" t="s">
         <v>2426</v>
       </c>
       <c r="L2344" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M2344" t="s">
         <v>5071</v>
       </c>
-      <c r="M2344" t="s">
-        <v>3974</v>
+      <c r="N2344" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2344" t="s">
-        <v>6875</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="2345" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2345" s="1" t="s">
-        <v>6876</v>
+        <v>6886</v>
       </c>
       <c r="C2345" t="s">
-        <v>6877</v>
+        <v>6882</v>
       </c>
       <c r="D2345" s="1">
         <v>68000</v>
@@ -76365,64 +76377,64 @@
         <v>2426</v>
       </c>
       <c r="L2345" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M2345" t="s">
         <v>5071</v>
       </c>
-      <c r="M2345" t="s">
+      <c r="N2345" t="s">
         <v>1687</v>
       </c>
       <c r="Q2345" t="s">
-        <v>6878</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="2346" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2346" s="1" t="s">
-        <v>6879</v>
+        <v>6888</v>
       </c>
       <c r="C2346" t="s">
-        <v>6877</v>
+        <v>6889</v>
       </c>
       <c r="D2346" s="1">
         <v>68000</v>
       </c>
       <c r="L2346" t="s">
+        <v>5071</v>
+      </c>
+      <c r="M2346" t="s">
         <v>1687</v>
       </c>
       <c r="Q2346" t="s">
-        <v>6880</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="2347" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2347" s="1" t="s">
-        <v>6881</v>
+        <v>6891</v>
       </c>
       <c r="C2347" t="s">
-        <v>6882</v>
+        <v>6889</v>
       </c>
       <c r="D2347" s="1">
         <v>68000</v>
       </c>
-      <c r="E2347" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2347" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M2347" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N2347" t="s">
         <v>1687</v>
       </c>
       <c r="Q2347" t="s">
-        <v>6883</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="2348" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2348" s="1" t="s">
-        <v>6884</v>
+        <v>6893</v>
       </c>
       <c r="C2348" t="s">
-        <v>6882</v>
+        <v>6894</v>
       </c>
       <c r="D2348" s="1">
         <v>68000</v>
@@ -76431,24 +76443,21 @@
         <v>2426</v>
       </c>
       <c r="L2348" t="s">
-        <v>5070</v>
+        <v>5238</v>
       </c>
       <c r="M2348" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N2348" t="s">
         <v>1687</v>
       </c>
       <c r="Q2348" t="s">
-        <v>6885</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="2349" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2349" s="1" t="s">
-        <v>6886</v>
+        <v>6896</v>
       </c>
       <c r="C2349" t="s">
-        <v>6882</v>
+        <v>6894</v>
       </c>
       <c r="D2349" s="1">
         <v>68000</v>
@@ -76457,27 +76466,27 @@
         <v>2426</v>
       </c>
       <c r="L2349" t="s">
-        <v>5070</v>
+        <v>5238</v>
       </c>
       <c r="M2349" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N2349" t="s">
         <v>1687</v>
       </c>
       <c r="Q2349" t="s">
-        <v>6887</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="2350" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2350" s="1" t="s">
-        <v>6888</v>
+        <v>6898</v>
       </c>
       <c r="C2350" t="s">
-        <v>6889</v>
+        <v>6899</v>
       </c>
       <c r="D2350" s="1">
         <v>68000</v>
+      </c>
+      <c r="E2350" t="s">
+        <v>2426</v>
       </c>
       <c r="L2350" t="s">
         <v>5071</v>
@@ -76486,230 +76495,221 @@
         <v>1687</v>
       </c>
       <c r="Q2350" t="s">
-        <v>6890</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="2351" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2351" s="1" t="s">
-        <v>6891</v>
+        <v>6901</v>
       </c>
       <c r="C2351" t="s">
-        <v>6889</v>
-      </c>
-      <c r="D2351" s="1">
-        <v>68000</v>
+        <v>6902</v>
+      </c>
+      <c r="D2351" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2351" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2351" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q2351" t="s">
-        <v>6892</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="2352" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2352" s="1" t="s">
-        <v>6893</v>
+        <v>6904</v>
       </c>
       <c r="C2352" t="s">
-        <v>6894</v>
-      </c>
-      <c r="D2352" s="1">
-        <v>68000</v>
+        <v>6905</v>
+      </c>
+      <c r="D2352" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E2352" t="s">
-        <v>2426</v>
+        <v>6906</v>
+      </c>
+      <c r="F2352" t="s">
+        <v>6906</v>
       </c>
       <c r="L2352" t="s">
-        <v>5238</v>
+        <v>3714</v>
       </c>
       <c r="M2352" t="s">
-        <v>1687</v>
+        <v>2605</v>
       </c>
       <c r="Q2352" t="s">
-        <v>6895</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="2353" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2353" s="1" t="s">
-        <v>6896</v>
+        <v>6908</v>
       </c>
       <c r="C2353" t="s">
-        <v>6894</v>
-      </c>
-      <c r="D2353" s="1">
-        <v>68000</v>
+        <v>6905</v>
+      </c>
+      <c r="D2353" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E2353" t="s">
-        <v>2426</v>
+        <v>6906</v>
+      </c>
+      <c r="F2353" t="s">
+        <v>6906</v>
       </c>
       <c r="L2353" t="s">
-        <v>5238</v>
+        <v>3714</v>
       </c>
       <c r="M2353" t="s">
-        <v>1687</v>
+        <v>2605</v>
       </c>
       <c r="Q2353" t="s">
-        <v>6897</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="2354" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2354" s="1" t="s">
-        <v>6898</v>
+        <v>6910</v>
       </c>
       <c r="C2354" t="s">
-        <v>6899</v>
-      </c>
-      <c r="D2354" s="1">
-        <v>68000</v>
+        <v>6905</v>
+      </c>
+      <c r="D2354" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E2354" t="s">
-        <v>2426</v>
+        <v>6906</v>
+      </c>
+      <c r="F2354" t="s">
+        <v>6906</v>
       </c>
       <c r="L2354" t="s">
-        <v>5071</v>
+        <v>3714</v>
       </c>
       <c r="M2354" t="s">
-        <v>1687</v>
+        <v>2605</v>
       </c>
       <c r="Q2354" t="s">
-        <v>6900</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="2355" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2355" s="1" t="s">
-        <v>6901</v>
+        <v>3439</v>
       </c>
       <c r="C2355" t="s">
-        <v>6902</v>
+        <v>3440</v>
       </c>
       <c r="D2355" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2355" t="s">
-        <v>5070</v>
+        <v>404</v>
+      </c>
+      <c r="E2355" t="s">
+        <v>3888</v>
       </c>
       <c r="Q2355" t="s">
-        <v>6903</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="2356" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2356" s="1" t="s">
-        <v>6904</v>
+        <v>3442</v>
       </c>
       <c r="C2356" t="s">
-        <v>6905</v>
+        <v>3440</v>
       </c>
       <c r="D2356" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E2356" t="s">
-        <v>6906</v>
-      </c>
-      <c r="F2356" t="s">
-        <v>6906</v>
-      </c>
-      <c r="L2356" t="s">
-        <v>3714</v>
-      </c>
-      <c r="M2356" t="s">
-        <v>2605</v>
+        <v>3888</v>
       </c>
       <c r="Q2356" t="s">
-        <v>6907</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="2357" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2357" s="1" t="s">
-        <v>6908</v>
+        <v>3402</v>
       </c>
       <c r="C2357" t="s">
-        <v>6905</v>
+        <v>3403</v>
       </c>
       <c r="D2357" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E2357" t="s">
-        <v>6906</v>
-      </c>
-      <c r="F2357" t="s">
-        <v>6906</v>
+        <v>3794</v>
       </c>
       <c r="L2357" t="s">
-        <v>3714</v>
-      </c>
-      <c r="M2357" t="s">
-        <v>2605</v>
+        <v>542</v>
       </c>
       <c r="Q2357" t="s">
-        <v>6909</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="2358" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2358" s="1" t="s">
-        <v>6910</v>
+        <v>3404</v>
       </c>
       <c r="C2358" t="s">
-        <v>6905</v>
+        <v>3403</v>
       </c>
       <c r="D2358" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E2358" t="s">
-        <v>6906</v>
-      </c>
-      <c r="F2358" t="s">
-        <v>6906</v>
+        <v>3794</v>
       </c>
       <c r="L2358" t="s">
-        <v>3714</v>
-      </c>
-      <c r="M2358" t="s">
-        <v>2605</v>
+        <v>542</v>
       </c>
       <c r="Q2358" t="s">
-        <v>6911</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="2359" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2359" s="1" t="s">
-        <v>3439</v>
+        <v>3406</v>
       </c>
       <c r="C2359" t="s">
-        <v>3440</v>
+        <v>3403</v>
       </c>
       <c r="D2359" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E2359" t="s">
-        <v>3888</v>
+        <v>3794</v>
+      </c>
+      <c r="L2359" t="s">
+        <v>542</v>
       </c>
       <c r="Q2359" t="s">
-        <v>3441</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="2360" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2360" s="1" t="s">
-        <v>3442</v>
+        <v>3408</v>
       </c>
       <c r="C2360" t="s">
-        <v>3440</v>
+        <v>3403</v>
       </c>
       <c r="D2360" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E2360" t="s">
-        <v>3888</v>
+        <v>3794</v>
+      </c>
+      <c r="L2360" t="s">
+        <v>542</v>
       </c>
       <c r="Q2360" t="s">
-        <v>3443</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="2361" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2361" s="1" t="s">
-        <v>3402</v>
+        <v>3410</v>
       </c>
       <c r="C2361" t="s">
         <v>3403</v>
@@ -76724,115 +76724,112 @@
         <v>542</v>
       </c>
       <c r="Q2361" t="s">
-        <v>4580</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="2362" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2362" s="1" t="s">
-        <v>3404</v>
+        <v>3419</v>
       </c>
       <c r="C2362" t="s">
-        <v>3403</v>
+        <v>3420</v>
       </c>
       <c r="D2362" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2362" t="s">
-        <v>3794</v>
+        <v>2426</v>
       </c>
       <c r="L2362" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q2362" t="s">
-        <v>3405</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="2363" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2363" s="1" t="s">
-        <v>3406</v>
+        <v>3422</v>
       </c>
       <c r="C2363" t="s">
-        <v>3403</v>
+        <v>3423</v>
       </c>
       <c r="D2363" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2363" t="s">
-        <v>3794</v>
-      </c>
       <c r="L2363" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q2363" t="s">
-        <v>3407</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="2364" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2364" s="1" t="s">
-        <v>3408</v>
+        <v>3425</v>
       </c>
       <c r="C2364" t="s">
-        <v>3403</v>
+        <v>3423</v>
       </c>
       <c r="D2364" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2364" t="s">
-        <v>3794</v>
-      </c>
       <c r="L2364" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q2364" t="s">
-        <v>3409</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="2365" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2365" s="1" t="s">
-        <v>3410</v>
+        <v>3444</v>
       </c>
       <c r="C2365" t="s">
-        <v>3403</v>
-      </c>
-      <c r="D2365" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2365" t="s">
-        <v>3794</v>
-      </c>
-      <c r="L2365" t="s">
-        <v>542</v>
+        <v>3445</v>
+      </c>
+      <c r="D2365" s="1">
+        <v>8080</v>
       </c>
       <c r="Q2365" t="s">
-        <v>3411</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="2366" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2366" s="1" t="s">
-        <v>3419</v>
+        <v>3447</v>
       </c>
       <c r="C2366" t="s">
-        <v>3420</v>
+        <v>3448</v>
       </c>
       <c r="D2366" s="1" t="s">
-        <v>2</v>
+        <v>3006</v>
       </c>
       <c r="E2366" t="s">
-        <v>2426</v>
+        <v>3006</v>
+      </c>
+      <c r="F2366" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G2366" t="s">
+        <v>3899</v>
       </c>
       <c r="L2366" t="s">
-        <v>1155</v>
+        <v>2605</v>
+      </c>
+      <c r="M2366" t="s">
+        <v>5238</v>
       </c>
       <c r="Q2366" t="s">
-        <v>3421</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="2367" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2367" s="1" t="s">
-        <v>3422</v>
+        <v>3460</v>
       </c>
       <c r="C2367" t="s">
-        <v>3423</v>
+        <v>3461</v>
       </c>
       <c r="D2367" s="1" t="s">
         <v>2</v>
@@ -76841,268 +76838,274 @@
         <v>1155</v>
       </c>
       <c r="Q2367" t="s">
-        <v>3424</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="2368" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2368" s="1" t="s">
-        <v>3425</v>
+        <v>3463</v>
       </c>
       <c r="C2368" t="s">
-        <v>3423</v>
-      </c>
-      <c r="D2368" s="1" t="s">
-        <v>2</v>
+        <v>3464</v>
+      </c>
+      <c r="D2368" s="1">
+        <v>8080</v>
       </c>
       <c r="L2368" t="s">
-        <v>1155</v>
+        <v>352</v>
       </c>
       <c r="Q2368" t="s">
-        <v>3426</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="2369" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2369" s="1" t="s">
-        <v>3444</v>
+        <v>3466</v>
       </c>
       <c r="C2369" t="s">
-        <v>3445</v>
-      </c>
-      <c r="D2369" s="1">
-        <v>8080</v>
+        <v>3356</v>
+      </c>
+      <c r="D2369" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2369" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L2369" t="s">
+        <v>5070</v>
       </c>
       <c r="Q2369" t="s">
-        <v>3446</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="2370" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2370" s="1" t="s">
-        <v>3447</v>
+        <v>3471</v>
       </c>
       <c r="C2370" t="s">
-        <v>3448</v>
-      </c>
-      <c r="D2370" s="1" t="s">
-        <v>3006</v>
+        <v>3472</v>
+      </c>
+      <c r="D2370" s="1">
+        <v>68000</v>
       </c>
       <c r="E2370" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F2370" t="s">
-        <v>3899</v>
-      </c>
-      <c r="G2370" t="s">
-        <v>3899</v>
+        <v>2426</v>
       </c>
       <c r="L2370" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M2370" t="s">
-        <v>5238</v>
+        <v>3954</v>
       </c>
       <c r="Q2370" t="s">
-        <v>4581</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="2371" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2371" s="1" t="s">
-        <v>3460</v>
+        <v>3474</v>
       </c>
       <c r="C2371" t="s">
-        <v>3461</v>
+        <v>3475</v>
       </c>
       <c r="D2371" s="1" t="s">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="L2371" t="s">
-        <v>1155</v>
+        <v>55</v>
       </c>
       <c r="Q2371" t="s">
-        <v>3462</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="2372" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2372" s="1" t="s">
-        <v>3463</v>
+        <v>6912</v>
       </c>
       <c r="C2372" t="s">
-        <v>3464</v>
-      </c>
-      <c r="D2372" s="1">
-        <v>8080</v>
+        <v>3478</v>
+      </c>
+      <c r="D2372" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2372" t="s">
         <v>352</v>
       </c>
       <c r="Q2372" t="s">
-        <v>3465</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="2373" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2373" s="1" t="s">
-        <v>3466</v>
+        <v>3477</v>
       </c>
       <c r="C2373" t="s">
-        <v>3356</v>
+        <v>3478</v>
       </c>
       <c r="D2373" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2373" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2373" t="s">
-        <v>5070</v>
+        <v>352</v>
       </c>
       <c r="Q2373" t="s">
-        <v>3467</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="2374" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2374" s="1" t="s">
-        <v>3471</v>
+        <v>3479</v>
       </c>
       <c r="C2374" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D2374" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2374" t="s">
-        <v>2426</v>
+        <v>3480</v>
+      </c>
+      <c r="D2374" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2374" t="s">
-        <v>3954</v>
+        <v>58</v>
       </c>
       <c r="Q2374" t="s">
-        <v>3473</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="2375" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2375" s="1" t="s">
-        <v>3474</v>
+        <v>3482</v>
       </c>
       <c r="C2375" t="s">
-        <v>3475</v>
+        <v>3480</v>
       </c>
       <c r="D2375" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="L2375" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q2375" t="s">
-        <v>3476</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="2376" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2376" s="1" t="s">
-        <v>6912</v>
+        <v>3487</v>
       </c>
       <c r="C2376" t="s">
-        <v>3478</v>
+        <v>3488</v>
       </c>
       <c r="D2376" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2376" t="s">
-        <v>352</v>
+        <v>1155</v>
       </c>
       <c r="Q2376" t="s">
-        <v>6913</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="2377" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2377" s="1" t="s">
-        <v>3477</v>
+        <v>3491</v>
       </c>
       <c r="C2377" t="s">
-        <v>3478</v>
+        <v>3492</v>
       </c>
       <c r="D2377" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2377" t="s">
-        <v>352</v>
+        <v>55</v>
       </c>
       <c r="Q2377" t="s">
-        <v>4586</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="2378" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2378" s="1" t="s">
-        <v>3479</v>
+        <v>6914</v>
       </c>
       <c r="C2378" t="s">
-        <v>3480</v>
+        <v>6915</v>
       </c>
       <c r="D2378" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2378" t="s">
+        <v>2</v>
+      </c>
       <c r="L2378" t="s">
-        <v>58</v>
+        <v>5238</v>
       </c>
       <c r="Q2378" t="s">
-        <v>3481</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="2379" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2379" s="1" t="s">
-        <v>3482</v>
+        <v>6917</v>
       </c>
       <c r="C2379" t="s">
-        <v>3480</v>
+        <v>6915</v>
       </c>
       <c r="D2379" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2379" t="s">
+        <v>2</v>
+      </c>
       <c r="L2379" t="s">
-        <v>58</v>
+        <v>5238</v>
       </c>
       <c r="Q2379" t="s">
-        <v>3483</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="2380" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2380" s="1" t="s">
-        <v>3487</v>
+        <v>6919</v>
       </c>
       <c r="C2380" t="s">
-        <v>3488</v>
+        <v>6920</v>
       </c>
       <c r="D2380" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2380" t="s">
-        <v>1155</v>
+        <v>55</v>
       </c>
       <c r="Q2380" t="s">
-        <v>3489</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="2381" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2381" s="1" t="s">
-        <v>3491</v>
+        <v>6922</v>
       </c>
       <c r="C2381" t="s">
-        <v>3492</v>
+        <v>6920</v>
       </c>
       <c r="D2381" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2381" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2381" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2381" t="s">
+        <v>542</v>
+      </c>
+      <c r="M2381" t="s">
         <v>55</v>
       </c>
       <c r="Q2381" t="s">
-        <v>3493</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="2382" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2382" s="1" t="s">
-        <v>6914</v>
+        <v>6924</v>
       </c>
       <c r="C2382" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D2382" s="1" t="s">
         <v>2</v>
@@ -77110,122 +77113,119 @@
       <c r="E2382" t="s">
         <v>2</v>
       </c>
+      <c r="F2382" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2382" t="s">
-        <v>5238</v>
+        <v>542</v>
+      </c>
+      <c r="M2382" t="s">
+        <v>55</v>
       </c>
       <c r="Q2382" t="s">
-        <v>6916</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="2383" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2383" s="1" t="s">
-        <v>6917</v>
+        <v>6926</v>
       </c>
       <c r="C2383" t="s">
-        <v>6915</v>
-      </c>
-      <c r="D2383" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2383" t="s">
-        <v>2</v>
+        <v>6927</v>
+      </c>
+      <c r="D2383" s="1">
+        <v>68000</v>
       </c>
       <c r="L2383" t="s">
-        <v>5238</v>
+        <v>1687</v>
       </c>
       <c r="Q2383" t="s">
-        <v>6918</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="2384" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2384" s="1" t="s">
-        <v>6919</v>
+        <v>3494</v>
       </c>
       <c r="C2384" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D2384" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D2384" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E2384" t="s">
+        <v>2426</v>
       </c>
       <c r="L2384" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q2384" t="s">
-        <v>6921</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="2385" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2385" s="1" t="s">
-        <v>6922</v>
+        <v>3497</v>
       </c>
       <c r="C2385" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D2385" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D2385" s="1">
+        <v>68000</v>
       </c>
       <c r="E2385" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2385" t="s">
         <v>2426</v>
       </c>
       <c r="L2385" t="s">
-        <v>542</v>
-      </c>
-      <c r="M2385" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q2385" t="s">
-        <v>6923</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="2386" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2386" s="1" t="s">
-        <v>6924</v>
+        <v>3498</v>
       </c>
       <c r="C2386" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D2386" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D2386" s="1">
+        <v>68000</v>
       </c>
       <c r="E2386" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2386" t="s">
         <v>2426</v>
       </c>
       <c r="L2386" t="s">
-        <v>542</v>
-      </c>
-      <c r="M2386" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q2386" t="s">
-        <v>6925</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="2387" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2387" s="1" t="s">
-        <v>6926</v>
+        <v>3500</v>
       </c>
       <c r="C2387" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D2387" s="1">
         <v>68000</v>
       </c>
+      <c r="E2387" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2387" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q2387" t="s">
-        <v>6928</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="2388" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2388" s="1" t="s">
-        <v>3494</v>
+        <v>3502</v>
       </c>
       <c r="C2388" t="s">
         <v>3495</v>
@@ -77240,12 +77240,12 @@
         <v>5549</v>
       </c>
       <c r="Q2388" t="s">
-        <v>3496</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="2389" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2389" s="1" t="s">
-        <v>3497</v>
+        <v>3504</v>
       </c>
       <c r="C2389" t="s">
         <v>3495</v>
@@ -77260,12 +77260,12 @@
         <v>5549</v>
       </c>
       <c r="Q2389" t="s">
-        <v>4587</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="2390" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2390" s="1" t="s">
-        <v>3498</v>
+        <v>3506</v>
       </c>
       <c r="C2390" t="s">
         <v>3495</v>
@@ -77280,12 +77280,12 @@
         <v>5549</v>
       </c>
       <c r="Q2390" t="s">
-        <v>3499</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="2391" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2391" s="1" t="s">
-        <v>3500</v>
+        <v>6930</v>
       </c>
       <c r="C2391" t="s">
         <v>3495</v>
@@ -77300,12 +77300,12 @@
         <v>5549</v>
       </c>
       <c r="Q2391" t="s">
-        <v>3501</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="2392" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2392" s="1" t="s">
-        <v>3502</v>
+        <v>3507</v>
       </c>
       <c r="C2392" t="s">
         <v>3495</v>
@@ -77320,12 +77320,12 @@
         <v>5549</v>
       </c>
       <c r="Q2392" t="s">
-        <v>3503</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="2393" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2393" s="1" t="s">
-        <v>3504</v>
+        <v>3508</v>
       </c>
       <c r="C2393" t="s">
         <v>3495</v>
@@ -77340,12 +77340,12 @@
         <v>5549</v>
       </c>
       <c r="Q2393" t="s">
-        <v>3505</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="2394" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2394" s="1" t="s">
-        <v>3506</v>
+        <v>3510</v>
       </c>
       <c r="C2394" t="s">
         <v>3495</v>
@@ -77360,12 +77360,12 @@
         <v>5549</v>
       </c>
       <c r="Q2394" t="s">
-        <v>6929</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="2395" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2395" s="1" t="s">
-        <v>6930</v>
+        <v>3512</v>
       </c>
       <c r="C2395" t="s">
         <v>3495</v>
@@ -77380,12 +77380,12 @@
         <v>5549</v>
       </c>
       <c r="Q2395" t="s">
-        <v>6931</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="2396" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2396" s="1" t="s">
-        <v>3507</v>
+        <v>3514</v>
       </c>
       <c r="C2396" t="s">
         <v>3495</v>
@@ -77400,12 +77400,12 @@
         <v>5549</v>
       </c>
       <c r="Q2396" t="s">
-        <v>4952</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="2397" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2397" s="1" t="s">
-        <v>3508</v>
+        <v>3516</v>
       </c>
       <c r="C2397" t="s">
         <v>3495</v>
@@ -77420,12 +77420,12 @@
         <v>5549</v>
       </c>
       <c r="Q2397" t="s">
-        <v>3509</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="2398" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2398" s="1" t="s">
-        <v>3510</v>
+        <v>3518</v>
       </c>
       <c r="C2398" t="s">
         <v>3495</v>
@@ -77440,12 +77440,12 @@
         <v>5549</v>
       </c>
       <c r="Q2398" t="s">
-        <v>3511</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2399" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2399" s="1" t="s">
-        <v>3512</v>
+        <v>3519</v>
       </c>
       <c r="C2399" t="s">
         <v>3495</v>
@@ -77460,12 +77460,12 @@
         <v>5549</v>
       </c>
       <c r="Q2399" t="s">
-        <v>3513</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="2400" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2400" s="1" t="s">
-        <v>3514</v>
+        <v>3520</v>
       </c>
       <c r="C2400" t="s">
         <v>3495</v>
@@ -77480,12 +77480,12 @@
         <v>5549</v>
       </c>
       <c r="Q2400" t="s">
-        <v>3515</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="2401" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2401" s="1" t="s">
-        <v>3516</v>
+        <v>3522</v>
       </c>
       <c r="C2401" t="s">
         <v>3495</v>
@@ -77500,12 +77500,12 @@
         <v>5549</v>
       </c>
       <c r="Q2401" t="s">
-        <v>3517</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="2402" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2402" s="1" t="s">
-        <v>3518</v>
+        <v>3524</v>
       </c>
       <c r="C2402" t="s">
         <v>3495</v>
@@ -77520,12 +77520,12 @@
         <v>5549</v>
       </c>
       <c r="Q2402" t="s">
-        <v>4953</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="2403" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2403" s="1" t="s">
-        <v>3519</v>
+        <v>3526</v>
       </c>
       <c r="C2403" t="s">
         <v>3495</v>
@@ -77540,12 +77540,12 @@
         <v>5549</v>
       </c>
       <c r="Q2403" t="s">
-        <v>4954</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="2404" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2404" s="1" t="s">
-        <v>3520</v>
+        <v>3528</v>
       </c>
       <c r="C2404" t="s">
         <v>3495</v>
@@ -77560,12 +77560,12 @@
         <v>5549</v>
       </c>
       <c r="Q2404" t="s">
-        <v>3521</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="2405" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2405" s="1" t="s">
-        <v>3522</v>
+        <v>3530</v>
       </c>
       <c r="C2405" t="s">
         <v>3495</v>
@@ -77580,12 +77580,12 @@
         <v>5549</v>
       </c>
       <c r="Q2405" t="s">
-        <v>3523</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="2406" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2406" s="1" t="s">
-        <v>3524</v>
+        <v>3532</v>
       </c>
       <c r="C2406" t="s">
         <v>3495</v>
@@ -77600,12 +77600,12 @@
         <v>5549</v>
       </c>
       <c r="Q2406" t="s">
-        <v>3525</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="2407" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2407" s="1" t="s">
-        <v>3526</v>
+        <v>3533</v>
       </c>
       <c r="C2407" t="s">
         <v>3495</v>
@@ -77620,12 +77620,12 @@
         <v>5549</v>
       </c>
       <c r="Q2407" t="s">
-        <v>3527</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="2408" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2408" s="1" t="s">
-        <v>3528</v>
+        <v>3535</v>
       </c>
       <c r="C2408" t="s">
         <v>3495</v>
@@ -77640,12 +77640,12 @@
         <v>5549</v>
       </c>
       <c r="Q2408" t="s">
-        <v>3529</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="2409" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2409" s="1" t="s">
-        <v>3530</v>
+        <v>3537</v>
       </c>
       <c r="C2409" t="s">
         <v>3495</v>
@@ -77660,12 +77660,12 @@
         <v>5549</v>
       </c>
       <c r="Q2409" t="s">
-        <v>3531</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="2410" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2410" s="1" t="s">
-        <v>3532</v>
+        <v>3539</v>
       </c>
       <c r="C2410" t="s">
         <v>3495</v>
@@ -77680,12 +77680,12 @@
         <v>5549</v>
       </c>
       <c r="Q2410" t="s">
-        <v>4955</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="2411" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2411" s="1" t="s">
-        <v>3533</v>
+        <v>3540</v>
       </c>
       <c r="C2411" t="s">
         <v>3495</v>
@@ -77700,12 +77700,12 @@
         <v>5549</v>
       </c>
       <c r="Q2411" t="s">
-        <v>3534</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="2412" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2412" s="1" t="s">
-        <v>3535</v>
+        <v>3541</v>
       </c>
       <c r="C2412" t="s">
         <v>3495</v>
@@ -77720,12 +77720,12 @@
         <v>5549</v>
       </c>
       <c r="Q2412" t="s">
-        <v>3536</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2413" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2413" s="1" t="s">
-        <v>3537</v>
+        <v>3542</v>
       </c>
       <c r="C2413" t="s">
         <v>3495</v>
@@ -77740,12 +77740,12 @@
         <v>5549</v>
       </c>
       <c r="Q2413" t="s">
-        <v>3538</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="2414" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2414" s="1" t="s">
-        <v>3539</v>
+        <v>3544</v>
       </c>
       <c r="C2414" t="s">
         <v>3495</v>
@@ -77760,12 +77760,12 @@
         <v>5549</v>
       </c>
       <c r="Q2414" t="s">
-        <v>4956</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="2415" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2415" s="1" t="s">
-        <v>3540</v>
+        <v>3546</v>
       </c>
       <c r="C2415" t="s">
         <v>3495</v>
@@ -77780,12 +77780,12 @@
         <v>5549</v>
       </c>
       <c r="Q2415" t="s">
-        <v>4588</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="2416" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2416" s="1" t="s">
-        <v>3541</v>
+        <v>3547</v>
       </c>
       <c r="C2416" t="s">
         <v>3495</v>
@@ -77800,12 +77800,12 @@
         <v>5549</v>
       </c>
       <c r="Q2416" t="s">
-        <v>4589</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="2417" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2417" s="1" t="s">
-        <v>3542</v>
+        <v>3549</v>
       </c>
       <c r="C2417" t="s">
         <v>3495</v>
@@ -77820,12 +77820,12 @@
         <v>5549</v>
       </c>
       <c r="Q2417" t="s">
-        <v>3543</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="2418" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2418" s="1" t="s">
-        <v>3544</v>
+        <v>3550</v>
       </c>
       <c r="C2418" t="s">
         <v>3495</v>
@@ -77840,12 +77840,12 @@
         <v>5549</v>
       </c>
       <c r="Q2418" t="s">
-        <v>3545</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="2419" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2419" s="1" t="s">
-        <v>3546</v>
+        <v>3552</v>
       </c>
       <c r="C2419" t="s">
         <v>3495</v>
@@ -77860,12 +77860,12 @@
         <v>5549</v>
       </c>
       <c r="Q2419" t="s">
-        <v>4957</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="2420" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2420" s="1" t="s">
-        <v>3547</v>
+        <v>3554</v>
       </c>
       <c r="C2420" t="s">
         <v>3495</v>
@@ -77880,12 +77880,12 @@
         <v>5549</v>
       </c>
       <c r="Q2420" t="s">
-        <v>3548</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="2421" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2421" s="1" t="s">
-        <v>3549</v>
+        <v>3555</v>
       </c>
       <c r="C2421" t="s">
         <v>3495</v>
@@ -77900,12 +77900,12 @@
         <v>5549</v>
       </c>
       <c r="Q2421" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="2422" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2422" s="1" t="s">
-        <v>3550</v>
+        <v>3556</v>
       </c>
       <c r="C2422" t="s">
         <v>3495</v>
@@ -77920,12 +77920,12 @@
         <v>5549</v>
       </c>
       <c r="Q2422" t="s">
-        <v>3551</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="2423" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2423" s="1" t="s">
-        <v>3552</v>
+        <v>3558</v>
       </c>
       <c r="C2423" t="s">
         <v>3495</v>
@@ -77940,12 +77940,12 @@
         <v>5549</v>
       </c>
       <c r="Q2423" t="s">
-        <v>3553</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="2424" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2424" s="1" t="s">
-        <v>3554</v>
+        <v>3559</v>
       </c>
       <c r="C2424" t="s">
         <v>3495</v>
@@ -77960,12 +77960,12 @@
         <v>5549</v>
       </c>
       <c r="Q2424" t="s">
-        <v>4958</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="2425" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2425" s="1" t="s">
-        <v>3555</v>
+        <v>3560</v>
       </c>
       <c r="C2425" t="s">
         <v>3495</v>
@@ -77980,12 +77980,12 @@
         <v>5549</v>
       </c>
       <c r="Q2425" t="s">
-        <v>4591</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="2426" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2426" s="1" t="s">
-        <v>3556</v>
+        <v>3561</v>
       </c>
       <c r="C2426" t="s">
         <v>3495</v>
@@ -78000,12 +78000,12 @@
         <v>5549</v>
       </c>
       <c r="Q2426" t="s">
-        <v>3557</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="2427" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2427" s="1" t="s">
-        <v>3558</v>
+        <v>3562</v>
       </c>
       <c r="C2427" t="s">
         <v>3495</v>
@@ -78020,12 +78020,12 @@
         <v>5549</v>
       </c>
       <c r="Q2427" t="s">
-        <v>4959</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="2428" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2428" s="1" t="s">
-        <v>3559</v>
+        <v>3563</v>
       </c>
       <c r="C2428" t="s">
         <v>3495</v>
@@ -78040,12 +78040,12 @@
         <v>5549</v>
       </c>
       <c r="Q2428" t="s">
-        <v>4592</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2429" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2429" s="1" t="s">
-        <v>3560</v>
+        <v>3564</v>
       </c>
       <c r="C2429" t="s">
         <v>3495</v>
@@ -78060,12 +78060,12 @@
         <v>5549</v>
       </c>
       <c r="Q2429" t="s">
-        <v>4593</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="2430" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2430" s="1" t="s">
-        <v>3561</v>
+        <v>3565</v>
       </c>
       <c r="C2430" t="s">
         <v>3495</v>
@@ -78080,12 +78080,12 @@
         <v>5549</v>
       </c>
       <c r="Q2430" t="s">
-        <v>4960</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="2431" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2431" s="1" t="s">
-        <v>3562</v>
+        <v>3567</v>
       </c>
       <c r="C2431" t="s">
         <v>3495</v>
@@ -78100,12 +78100,12 @@
         <v>5549</v>
       </c>
       <c r="Q2431" t="s">
-        <v>4594</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="2432" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2432" s="1" t="s">
-        <v>3563</v>
+        <v>3569</v>
       </c>
       <c r="C2432" t="s">
         <v>3495</v>
@@ -78120,12 +78120,12 @@
         <v>5549</v>
       </c>
       <c r="Q2432" t="s">
-        <v>4961</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="2433" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2433" s="1" t="s">
-        <v>3564</v>
+        <v>3571</v>
       </c>
       <c r="C2433" t="s">
         <v>3495</v>
@@ -78140,12 +78140,12 @@
         <v>5549</v>
       </c>
       <c r="Q2433" t="s">
-        <v>4962</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="2434" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2434" s="1" t="s">
-        <v>3565</v>
+        <v>3572</v>
       </c>
       <c r="C2434" t="s">
         <v>3495</v>
@@ -78160,12 +78160,12 @@
         <v>5549</v>
       </c>
       <c r="Q2434" t="s">
-        <v>3566</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="2435" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2435" s="1" t="s">
-        <v>3567</v>
+        <v>3574</v>
       </c>
       <c r="C2435" t="s">
         <v>3495</v>
@@ -78180,12 +78180,12 @@
         <v>5549</v>
       </c>
       <c r="Q2435" t="s">
-        <v>3568</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="2436" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2436" s="1" t="s">
-        <v>3569</v>
+        <v>3576</v>
       </c>
       <c r="C2436" t="s">
         <v>3495</v>
@@ -78200,12 +78200,12 @@
         <v>5549</v>
       </c>
       <c r="Q2436" t="s">
-        <v>3570</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="2437" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2437" s="1" t="s">
-        <v>3571</v>
+        <v>3577</v>
       </c>
       <c r="C2437" t="s">
         <v>3495</v>
@@ -78220,12 +78220,12 @@
         <v>5549</v>
       </c>
       <c r="Q2437" t="s">
-        <v>4595</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="2438" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2438" s="1" t="s">
-        <v>3572</v>
+        <v>3579</v>
       </c>
       <c r="C2438" t="s">
         <v>3495</v>
@@ -78240,12 +78240,12 @@
         <v>5549</v>
       </c>
       <c r="Q2438" t="s">
-        <v>3573</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="2439" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2439" s="1" t="s">
-        <v>3574</v>
+        <v>3580</v>
       </c>
       <c r="C2439" t="s">
         <v>3495</v>
@@ -78260,12 +78260,12 @@
         <v>5549</v>
       </c>
       <c r="Q2439" t="s">
-        <v>3575</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2440" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2440" s="1" t="s">
-        <v>3576</v>
+        <v>3581</v>
       </c>
       <c r="C2440" t="s">
         <v>3495</v>
@@ -78280,12 +78280,12 @@
         <v>5549</v>
       </c>
       <c r="Q2440" t="s">
-        <v>4963</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="2441" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2441" s="1" t="s">
-        <v>3577</v>
+        <v>3582</v>
       </c>
       <c r="C2441" t="s">
         <v>3495</v>
@@ -78300,12 +78300,12 @@
         <v>5549</v>
       </c>
       <c r="Q2441" t="s">
-        <v>3578</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="2442" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2442" s="1" t="s">
-        <v>3579</v>
+        <v>3583</v>
       </c>
       <c r="C2442" t="s">
         <v>3495</v>
@@ -78320,12 +78320,12 @@
         <v>5549</v>
       </c>
       <c r="Q2442" t="s">
-        <v>4964</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="2443" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2443" s="1" t="s">
-        <v>3580</v>
+        <v>3584</v>
       </c>
       <c r="C2443" t="s">
         <v>3495</v>
@@ -78340,12 +78340,12 @@
         <v>5549</v>
       </c>
       <c r="Q2443" t="s">
-        <v>4965</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2444" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2444" s="1" t="s">
-        <v>3581</v>
+        <v>3585</v>
       </c>
       <c r="C2444" t="s">
         <v>3495</v>
@@ -78360,12 +78360,12 @@
         <v>5549</v>
       </c>
       <c r="Q2444" t="s">
-        <v>4596</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="2445" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2445" s="1" t="s">
-        <v>3582</v>
+        <v>3587</v>
       </c>
       <c r="C2445" t="s">
         <v>3495</v>
@@ -78380,12 +78380,12 @@
         <v>5549</v>
       </c>
       <c r="Q2445" t="s">
-        <v>4966</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="2446" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2446" s="1" t="s">
-        <v>3583</v>
+        <v>3588</v>
       </c>
       <c r="C2446" t="s">
         <v>3495</v>
@@ -78400,12 +78400,12 @@
         <v>5549</v>
       </c>
       <c r="Q2446" t="s">
-        <v>4597</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="2447" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2447" s="1" t="s">
-        <v>3584</v>
+        <v>3589</v>
       </c>
       <c r="C2447" t="s">
         <v>3495</v>
@@ -78420,12 +78420,12 @@
         <v>5549</v>
       </c>
       <c r="Q2447" t="s">
-        <v>4967</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="2448" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2448" s="1" t="s">
-        <v>3585</v>
+        <v>3591</v>
       </c>
       <c r="C2448" t="s">
         <v>3495</v>
@@ -78440,12 +78440,12 @@
         <v>5549</v>
       </c>
       <c r="Q2448" t="s">
-        <v>3586</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="2449" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2449" s="1" t="s">
-        <v>3587</v>
+        <v>3593</v>
       </c>
       <c r="C2449" t="s">
         <v>3495</v>
@@ -78460,12 +78460,12 @@
         <v>5549</v>
       </c>
       <c r="Q2449" t="s">
-        <v>4598</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="2450" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2450" s="1" t="s">
-        <v>3588</v>
+        <v>3594</v>
       </c>
       <c r="C2450" t="s">
         <v>3495</v>
@@ -78480,12 +78480,12 @@
         <v>5549</v>
       </c>
       <c r="Q2450" t="s">
-        <v>4968</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="2451" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2451" s="1" t="s">
-        <v>3589</v>
+        <v>3596</v>
       </c>
       <c r="C2451" t="s">
         <v>3495</v>
@@ -78500,12 +78500,12 @@
         <v>5549</v>
       </c>
       <c r="Q2451" t="s">
-        <v>3590</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="2452" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2452" s="1" t="s">
-        <v>3591</v>
+        <v>3597</v>
       </c>
       <c r="C2452" t="s">
         <v>3495</v>
@@ -78520,12 +78520,12 @@
         <v>5549</v>
       </c>
       <c r="Q2452" t="s">
-        <v>3592</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="2453" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2453" s="1" t="s">
-        <v>3593</v>
+        <v>3598</v>
       </c>
       <c r="C2453" t="s">
         <v>3495</v>
@@ -78540,12 +78540,12 @@
         <v>5549</v>
       </c>
       <c r="Q2453" t="s">
-        <v>4969</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="2454" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2454" s="1" t="s">
-        <v>3594</v>
+        <v>3599</v>
       </c>
       <c r="C2454" t="s">
         <v>3495</v>
@@ -78560,12 +78560,12 @@
         <v>5549</v>
       </c>
       <c r="Q2454" t="s">
-        <v>3595</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2455" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2455" s="1" t="s">
-        <v>3596</v>
+        <v>3600</v>
       </c>
       <c r="C2455" t="s">
         <v>3495</v>
@@ -78580,12 +78580,12 @@
         <v>5549</v>
       </c>
       <c r="Q2455" t="s">
-        <v>4970</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="2456" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2456" s="1" t="s">
-        <v>3597</v>
+        <v>3601</v>
       </c>
       <c r="C2456" t="s">
         <v>3495</v>
@@ -78600,12 +78600,12 @@
         <v>5549</v>
       </c>
       <c r="Q2456" t="s">
-        <v>4599</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="2457" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2457" s="1" t="s">
-        <v>3598</v>
+        <v>3603</v>
       </c>
       <c r="C2457" t="s">
         <v>3495</v>
@@ -78620,12 +78620,12 @@
         <v>5549</v>
       </c>
       <c r="Q2457" t="s">
-        <v>4600</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2458" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2458" s="1" t="s">
-        <v>3599</v>
+        <v>3604</v>
       </c>
       <c r="C2458" t="s">
         <v>3495</v>
@@ -78640,12 +78640,12 @@
         <v>5549</v>
       </c>
       <c r="Q2458" t="s">
-        <v>4971</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2459" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2459" s="1" t="s">
-        <v>3600</v>
+        <v>6932</v>
       </c>
       <c r="C2459" t="s">
         <v>3495</v>
@@ -78660,12 +78660,12 @@
         <v>5549</v>
       </c>
       <c r="Q2459" t="s">
-        <v>4972</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="2460" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2460" s="1" t="s">
-        <v>3601</v>
+        <v>3607</v>
       </c>
       <c r="C2460" t="s">
         <v>3495</v>
@@ -78680,12 +78680,12 @@
         <v>5549</v>
       </c>
       <c r="Q2460" t="s">
-        <v>3602</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="2461" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2461" s="1" t="s">
-        <v>3603</v>
+        <v>3609</v>
       </c>
       <c r="C2461" t="s">
         <v>3495</v>
@@ -78700,12 +78700,12 @@
         <v>5549</v>
       </c>
       <c r="Q2461" t="s">
-        <v>4973</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="2462" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2462" s="1" t="s">
-        <v>3604</v>
+        <v>3611</v>
       </c>
       <c r="C2462" t="s">
         <v>3495</v>
@@ -78720,12 +78720,12 @@
         <v>5549</v>
       </c>
       <c r="Q2462" t="s">
-        <v>3605</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="2463" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2463" s="1" t="s">
-        <v>6932</v>
+        <v>3612</v>
       </c>
       <c r="C2463" t="s">
         <v>3495</v>
@@ -78740,12 +78740,12 @@
         <v>5549</v>
       </c>
       <c r="Q2463" t="s">
-        <v>4974</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="2464" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2464" s="1" t="s">
-        <v>3607</v>
+        <v>3613</v>
       </c>
       <c r="C2464" t="s">
         <v>3495</v>
@@ -78760,12 +78760,12 @@
         <v>5549</v>
       </c>
       <c r="Q2464" t="s">
-        <v>3608</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="2465" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2465" s="1" t="s">
-        <v>3609</v>
+        <v>3615</v>
       </c>
       <c r="C2465" t="s">
         <v>3495</v>
@@ -78780,12 +78780,12 @@
         <v>5549</v>
       </c>
       <c r="Q2465" t="s">
-        <v>3610</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="2466" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2466" s="1" t="s">
-        <v>3611</v>
+        <v>3617</v>
       </c>
       <c r="C2466" t="s">
         <v>3495</v>
@@ -78800,12 +78800,12 @@
         <v>5549</v>
       </c>
       <c r="Q2466" t="s">
-        <v>4975</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2467" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2467" s="1" t="s">
-        <v>3612</v>
+        <v>3618</v>
       </c>
       <c r="C2467" t="s">
         <v>3495</v>
@@ -78820,12 +78820,12 @@
         <v>5549</v>
       </c>
       <c r="Q2467" t="s">
-        <v>4976</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="2468" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2468" s="1" t="s">
-        <v>3613</v>
+        <v>3620</v>
       </c>
       <c r="C2468" t="s">
         <v>3495</v>
@@ -78840,12 +78840,12 @@
         <v>5549</v>
       </c>
       <c r="Q2468" t="s">
-        <v>3614</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="2469" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2469" s="1" t="s">
-        <v>3615</v>
+        <v>3621</v>
       </c>
       <c r="C2469" t="s">
         <v>3495</v>
@@ -78860,12 +78860,12 @@
         <v>5549</v>
       </c>
       <c r="Q2469" t="s">
-        <v>3616</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2470" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2470" s="1" t="s">
-        <v>3617</v>
+        <v>3622</v>
       </c>
       <c r="C2470" t="s">
         <v>3495</v>
@@ -78880,12 +78880,12 @@
         <v>5549</v>
       </c>
       <c r="Q2470" t="s">
-        <v>4977</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="2471" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2471" s="1" t="s">
-        <v>3618</v>
+        <v>3623</v>
       </c>
       <c r="C2471" t="s">
         <v>3495</v>
@@ -78900,12 +78900,12 @@
         <v>5549</v>
       </c>
       <c r="Q2471" t="s">
-        <v>3619</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="2472" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2472" s="1" t="s">
-        <v>3620</v>
+        <v>3624</v>
       </c>
       <c r="C2472" t="s">
         <v>3495</v>
@@ -78920,12 +78920,12 @@
         <v>5549</v>
       </c>
       <c r="Q2472" t="s">
-        <v>4978</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="2473" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2473" s="1" t="s">
-        <v>3621</v>
+        <v>3625</v>
       </c>
       <c r="C2473" t="s">
         <v>3495</v>
@@ -78940,12 +78940,12 @@
         <v>5549</v>
       </c>
       <c r="Q2473" t="s">
-        <v>4979</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="2474" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2474" s="1" t="s">
-        <v>3622</v>
+        <v>3626</v>
       </c>
       <c r="C2474" t="s">
         <v>3495</v>
@@ -78960,12 +78960,12 @@
         <v>5549</v>
       </c>
       <c r="Q2474" t="s">
-        <v>4980</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="2475" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2475" s="1" t="s">
-        <v>3623</v>
+        <v>3628</v>
       </c>
       <c r="C2475" t="s">
         <v>3495</v>
@@ -78980,12 +78980,12 @@
         <v>5549</v>
       </c>
       <c r="Q2475" t="s">
-        <v>4601</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="2476" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2476" s="1" t="s">
-        <v>3624</v>
+        <v>3629</v>
       </c>
       <c r="C2476" t="s">
         <v>3495</v>
@@ -79000,12 +79000,12 @@
         <v>5549</v>
       </c>
       <c r="Q2476" t="s">
-        <v>4981</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="2477" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2477" s="1" t="s">
-        <v>3625</v>
+        <v>3630</v>
       </c>
       <c r="C2477" t="s">
         <v>3495</v>
@@ -79020,12 +79020,12 @@
         <v>5549</v>
       </c>
       <c r="Q2477" t="s">
-        <v>4602</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="2478" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2478" s="1" t="s">
-        <v>3626</v>
+        <v>3632</v>
       </c>
       <c r="C2478" t="s">
         <v>3495</v>
@@ -79040,12 +79040,12 @@
         <v>5549</v>
       </c>
       <c r="Q2478" t="s">
-        <v>3627</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="2479" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2479" s="1" t="s">
-        <v>3628</v>
+        <v>3633</v>
       </c>
       <c r="C2479" t="s">
         <v>3495</v>
@@ -79060,12 +79060,12 @@
         <v>5549</v>
       </c>
       <c r="Q2479" t="s">
-        <v>4982</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="2480" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2480" s="1" t="s">
-        <v>3629</v>
+        <v>3635</v>
       </c>
       <c r="C2480" t="s">
         <v>3495</v>
@@ -79080,12 +79080,12 @@
         <v>5549</v>
       </c>
       <c r="Q2480" t="s">
-        <v>4603</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="2481" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2481" s="1" t="s">
-        <v>3630</v>
+        <v>3637</v>
       </c>
       <c r="C2481" t="s">
         <v>3495</v>
@@ -79100,12 +79100,12 @@
         <v>5549</v>
       </c>
       <c r="Q2481" t="s">
-        <v>3631</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="2482" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2482" s="1" t="s">
-        <v>3632</v>
+        <v>3638</v>
       </c>
       <c r="C2482" t="s">
         <v>3495</v>
@@ -79120,12 +79120,12 @@
         <v>5549</v>
       </c>
       <c r="Q2482" t="s">
-        <v>4983</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="2483" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2483" s="1" t="s">
-        <v>3633</v>
+        <v>3640</v>
       </c>
       <c r="C2483" t="s">
         <v>3495</v>
@@ -79140,12 +79140,12 @@
         <v>5549</v>
       </c>
       <c r="Q2483" t="s">
-        <v>3634</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="2484" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2484" s="1" t="s">
-        <v>3635</v>
+        <v>3641</v>
       </c>
       <c r="C2484" t="s">
         <v>3495</v>
@@ -79160,12 +79160,12 @@
         <v>5549</v>
       </c>
       <c r="Q2484" t="s">
-        <v>3636</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2485" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2485" s="1" t="s">
-        <v>3637</v>
+        <v>3642</v>
       </c>
       <c r="C2485" t="s">
         <v>3495</v>
@@ -79180,12 +79180,12 @@
         <v>5549</v>
       </c>
       <c r="Q2485" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="2486" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2486" s="1" t="s">
-        <v>3638</v>
+        <v>3643</v>
       </c>
       <c r="C2486" t="s">
         <v>3495</v>
@@ -79200,12 +79200,12 @@
         <v>5549</v>
       </c>
       <c r="Q2486" t="s">
-        <v>3639</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="2487" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2487" s="1" t="s">
-        <v>3640</v>
+        <v>3644</v>
       </c>
       <c r="C2487" t="s">
         <v>3495</v>
@@ -79220,12 +79220,12 @@
         <v>5549</v>
       </c>
       <c r="Q2487" t="s">
-        <v>4984</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2488" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2488" s="1" t="s">
-        <v>3641</v>
+        <v>3645</v>
       </c>
       <c r="C2488" t="s">
         <v>3495</v>
@@ -79240,12 +79240,12 @@
         <v>5549</v>
       </c>
       <c r="Q2488" t="s">
-        <v>4985</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="2489" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2489" s="1" t="s">
-        <v>3642</v>
+        <v>3647</v>
       </c>
       <c r="C2489" t="s">
         <v>3495</v>
@@ -79260,12 +79260,12 @@
         <v>5549</v>
       </c>
       <c r="Q2489" t="s">
-        <v>4605</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="2490" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2490" s="1" t="s">
-        <v>3643</v>
+        <v>3648</v>
       </c>
       <c r="C2490" t="s">
         <v>3495</v>
@@ -79280,12 +79280,12 @@
         <v>5549</v>
       </c>
       <c r="Q2490" t="s">
-        <v>4986</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2491" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2491" s="1" t="s">
-        <v>3644</v>
+        <v>3649</v>
       </c>
       <c r="C2491" t="s">
         <v>3495</v>
@@ -79300,12 +79300,12 @@
         <v>5549</v>
       </c>
       <c r="Q2491" t="s">
-        <v>4987</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="2492" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2492" s="1" t="s">
-        <v>3645</v>
+        <v>3651</v>
       </c>
       <c r="C2492" t="s">
         <v>3495</v>
@@ -79320,12 +79320,12 @@
         <v>5549</v>
       </c>
       <c r="Q2492" t="s">
-        <v>3646</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="2493" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2493" s="1" t="s">
-        <v>3647</v>
+        <v>3653</v>
       </c>
       <c r="C2493" t="s">
         <v>3495</v>
@@ -79340,12 +79340,12 @@
         <v>5549</v>
       </c>
       <c r="Q2493" t="s">
-        <v>4988</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="2494" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2494" s="1" t="s">
-        <v>3648</v>
+        <v>3655</v>
       </c>
       <c r="C2494" t="s">
         <v>3495</v>
@@ -79360,12 +79360,12 @@
         <v>5549</v>
       </c>
       <c r="Q2494" t="s">
-        <v>4989</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="2495" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2495" s="1" t="s">
-        <v>3649</v>
+        <v>3657</v>
       </c>
       <c r="C2495" t="s">
         <v>3495</v>
@@ -79380,12 +79380,12 @@
         <v>5549</v>
       </c>
       <c r="Q2495" t="s">
-        <v>3650</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="2496" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2496" s="1" t="s">
-        <v>3651</v>
+        <v>3658</v>
       </c>
       <c r="C2496" t="s">
         <v>3495</v>
@@ -79400,12 +79400,12 @@
         <v>5549</v>
       </c>
       <c r="Q2496" t="s">
-        <v>3652</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="2497" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2497" s="1" t="s">
-        <v>3653</v>
+        <v>3660</v>
       </c>
       <c r="C2497" t="s">
         <v>3495</v>
@@ -79420,12 +79420,12 @@
         <v>5549</v>
       </c>
       <c r="Q2497" t="s">
-        <v>3654</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="2498" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2498" s="1" t="s">
-        <v>3655</v>
+        <v>3662</v>
       </c>
       <c r="C2498" t="s">
         <v>3495</v>
@@ -79440,12 +79440,12 @@
         <v>5549</v>
       </c>
       <c r="Q2498" t="s">
-        <v>3656</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2499" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2499" s="1" t="s">
-        <v>3657</v>
+        <v>3663</v>
       </c>
       <c r="C2499" t="s">
         <v>3495</v>
@@ -79460,12 +79460,12 @@
         <v>5549</v>
       </c>
       <c r="Q2499" t="s">
-        <v>4990</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="2500" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2500" s="1" t="s">
-        <v>3658</v>
+        <v>3665</v>
       </c>
       <c r="C2500" t="s">
         <v>3495</v>
@@ -79480,12 +79480,12 @@
         <v>5549</v>
       </c>
       <c r="Q2500" t="s">
-        <v>3659</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="2501" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2501" s="1" t="s">
-        <v>3660</v>
+        <v>3666</v>
       </c>
       <c r="C2501" t="s">
         <v>3495</v>
@@ -79500,12 +79500,12 @@
         <v>5549</v>
       </c>
       <c r="Q2501" t="s">
-        <v>3661</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="2502" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2502" s="1" t="s">
-        <v>3662</v>
+        <v>3668</v>
       </c>
       <c r="C2502" t="s">
         <v>3495</v>
@@ -79520,12 +79520,12 @@
         <v>5549</v>
       </c>
       <c r="Q2502" t="s">
-        <v>4991</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="2503" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2503" s="1" t="s">
-        <v>3663</v>
+        <v>3670</v>
       </c>
       <c r="C2503" t="s">
         <v>3495</v>
@@ -79540,12 +79540,12 @@
         <v>5549</v>
       </c>
       <c r="Q2503" t="s">
-        <v>3664</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="2504" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2504" s="1" t="s">
-        <v>3665</v>
+        <v>3672</v>
       </c>
       <c r="C2504" t="s">
         <v>3495</v>
@@ -79560,12 +79560,12 @@
         <v>5549</v>
       </c>
       <c r="Q2504" t="s">
-        <v>4992</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="2505" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2505" s="1" t="s">
-        <v>3666</v>
+        <v>3674</v>
       </c>
       <c r="C2505" t="s">
         <v>3495</v>
@@ -79580,12 +79580,12 @@
         <v>5549</v>
       </c>
       <c r="Q2505" t="s">
-        <v>3667</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="2506" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2506" s="1" t="s">
-        <v>3668</v>
+        <v>3675</v>
       </c>
       <c r="C2506" t="s">
         <v>3495</v>
@@ -79600,12 +79600,12 @@
         <v>5549</v>
       </c>
       <c r="Q2506" t="s">
-        <v>3669</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="2507" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2507" s="1" t="s">
-        <v>3670</v>
+        <v>3676</v>
       </c>
       <c r="C2507" t="s">
         <v>3495</v>
@@ -79620,12 +79620,12 @@
         <v>5549</v>
       </c>
       <c r="Q2507" t="s">
-        <v>3671</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="2508" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2508" s="1" t="s">
-        <v>3672</v>
+        <v>3677</v>
       </c>
       <c r="C2508" t="s">
         <v>3495</v>
@@ -79640,12 +79640,12 @@
         <v>5549</v>
       </c>
       <c r="Q2508" t="s">
-        <v>3673</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="2509" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2509" s="1" t="s">
-        <v>3674</v>
+        <v>3678</v>
       </c>
       <c r="C2509" t="s">
         <v>3495</v>
@@ -79660,12 +79660,12 @@
         <v>5549</v>
       </c>
       <c r="Q2509" t="s">
-        <v>4993</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="2510" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2510" s="1" t="s">
-        <v>3675</v>
+        <v>3679</v>
       </c>
       <c r="C2510" t="s">
         <v>3495</v>
@@ -79680,12 +79680,12 @@
         <v>5549</v>
       </c>
       <c r="Q2510" t="s">
-        <v>4994</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="2511" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2511" s="1" t="s">
-        <v>3676</v>
+        <v>3681</v>
       </c>
       <c r="C2511" t="s">
         <v>3495</v>
@@ -79700,12 +79700,12 @@
         <v>5549</v>
       </c>
       <c r="Q2511" t="s">
-        <v>4995</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="2512" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2512" s="1" t="s">
-        <v>3677</v>
+        <v>3682</v>
       </c>
       <c r="C2512" t="s">
         <v>3495</v>
@@ -79720,12 +79720,12 @@
         <v>5549</v>
       </c>
       <c r="Q2512" t="s">
-        <v>4996</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="2513" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2513" s="1" t="s">
-        <v>3678</v>
+        <v>6933</v>
       </c>
       <c r="C2513" t="s">
         <v>3495</v>
@@ -79740,12 +79740,12 @@
         <v>5549</v>
       </c>
       <c r="Q2513" t="s">
-        <v>4997</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="2514" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2514" s="1" t="s">
-        <v>3679</v>
+        <v>6935</v>
       </c>
       <c r="C2514" t="s">
         <v>3495</v>
@@ -79760,12 +79760,12 @@
         <v>5549</v>
       </c>
       <c r="Q2514" t="s">
-        <v>3680</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="2515" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2515" s="1" t="s">
-        <v>3681</v>
+        <v>6937</v>
       </c>
       <c r="C2515" t="s">
         <v>3495</v>
@@ -79780,12 +79780,12 @@
         <v>5549</v>
       </c>
       <c r="Q2515" t="s">
-        <v>4606</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="2516" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2516" s="1" t="s">
-        <v>3682</v>
+        <v>6939</v>
       </c>
       <c r="C2516" t="s">
         <v>3495</v>
@@ -79800,12 +79800,12 @@
         <v>5549</v>
       </c>
       <c r="Q2516" t="s">
-        <v>3683</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="2517" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2517" s="1" t="s">
-        <v>6933</v>
+        <v>6941</v>
       </c>
       <c r="C2517" t="s">
         <v>3495</v>
@@ -79820,12 +79820,12 @@
         <v>5549</v>
       </c>
       <c r="Q2517" t="s">
-        <v>6934</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="2518" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2518" s="1" t="s">
-        <v>6935</v>
+        <v>6943</v>
       </c>
       <c r="C2518" t="s">
         <v>3495</v>
@@ -79840,12 +79840,12 @@
         <v>5549</v>
       </c>
       <c r="Q2518" t="s">
-        <v>6936</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="2519" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2519" s="1" t="s">
-        <v>6937</v>
+        <v>6945</v>
       </c>
       <c r="C2519" t="s">
         <v>3495</v>
@@ -79860,12 +79860,12 @@
         <v>5549</v>
       </c>
       <c r="Q2519" t="s">
-        <v>6938</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="2520" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2520" s="1" t="s">
-        <v>6939</v>
+        <v>6947</v>
       </c>
       <c r="C2520" t="s">
         <v>3495</v>
@@ -79880,12 +79880,12 @@
         <v>5549</v>
       </c>
       <c r="Q2520" t="s">
-        <v>6940</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="2521" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2521" s="1" t="s">
-        <v>6941</v>
+        <v>6949</v>
       </c>
       <c r="C2521" t="s">
         <v>3495</v>
@@ -79900,12 +79900,12 @@
         <v>5549</v>
       </c>
       <c r="Q2521" t="s">
-        <v>6942</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="2522" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2522" s="1" t="s">
-        <v>6943</v>
+        <v>6951</v>
       </c>
       <c r="C2522" t="s">
         <v>3495</v>
@@ -79920,12 +79920,12 @@
         <v>5549</v>
       </c>
       <c r="Q2522" t="s">
-        <v>6944</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="2523" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2523" s="1" t="s">
-        <v>6945</v>
+        <v>6953</v>
       </c>
       <c r="C2523" t="s">
         <v>3495</v>
@@ -79940,86 +79940,6 @@
         <v>5549</v>
       </c>
       <c r="Q2523" t="s">
-        <v>6946</v>
-      </c>
-    </row>
-    <row r="2524" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2524" s="1" t="s">
-        <v>6947</v>
-      </c>
-      <c r="C2524" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D2524" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2524" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2524" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q2524" t="s">
-        <v>6948</v>
-      </c>
-    </row>
-    <row r="2525" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2525" s="1" t="s">
-        <v>6949</v>
-      </c>
-      <c r="C2525" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D2525" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2525" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2525" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q2525" t="s">
-        <v>6950</v>
-      </c>
-    </row>
-    <row r="2526" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2526" s="1" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C2526" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D2526" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2526" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2526" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q2526" t="s">
-        <v>6952</v>
-      </c>
-    </row>
-    <row r="2527" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2527" s="1" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C2527" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D2527" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2527" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2527" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q2527" t="s">
         <v>6954</v>
       </c>
     </row>
@@ -80031,10 +79951,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q462"/>
+  <dimension ref="B1:Q466"/>
   <sheetViews>
-    <sheetView topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:XFD462"/>
+    <sheetView topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="A463" sqref="A463:XFD466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89676,6 +89596,86 @@
         <v>3134</v>
       </c>
     </row>
+    <row r="463" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B463" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C463" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E463" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L463" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q463" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="464" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B464" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C464" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E464" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L464" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q464" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="465" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B465" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C465" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E465" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L465" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q465" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="466" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B466" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C466" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E466" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L466" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q466" t="s">
+        <v>2655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$2523</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$2520</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20986,12 +20986,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -21006,12 +21012,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25259,10 +25269,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R2523"/>
+  <dimension ref="B1:R2520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2244" workbookViewId="0">
-      <selection activeCell="D2259" sqref="D2259"/>
+    <sheetView tabSelected="1" topLeftCell="A2256" workbookViewId="0">
+      <selection activeCell="B2261" sqref="B2261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70970,23 +70980,23 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="2080" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2080" s="1" t="s">
+    <row r="2080" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2080" s="5" t="s">
         <v>3098</v>
       </c>
-      <c r="C2080" t="s">
+      <c r="C2080" s="6" t="s">
         <v>3099</v>
       </c>
-      <c r="D2080" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2080" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2080" t="s">
+      <c r="D2080" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2080" s="6" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L2080" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="Q2080" t="s">
+      <c r="Q2080" s="6" t="s">
         <v>3100</v>
       </c>
     </row>
@@ -71150,23 +71160,23 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="2089" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2089" s="1" t="s">
+    <row r="2089" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2089" s="5" t="s">
         <v>6623</v>
       </c>
-      <c r="C2089" t="s">
+      <c r="C2089" s="6" t="s">
         <v>6624</v>
       </c>
-      <c r="D2089" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2089" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2089" t="s">
+      <c r="D2089" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2089" s="6" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L2089" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="Q2089" t="s">
+      <c r="Q2089" s="6" t="s">
         <v>6625</v>
       </c>
     </row>
@@ -74701,10 +74711,10 @@
     </row>
     <row r="2260" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2260" s="1" t="s">
-        <v>6754</v>
+        <v>6761</v>
       </c>
       <c r="C2260" t="s">
-        <v>6755</v>
+        <v>6762</v>
       </c>
       <c r="D2260" s="1" t="s">
         <v>2</v>
@@ -74716,175 +74726,178 @@
         <v>58</v>
       </c>
       <c r="Q2260" t="s">
-        <v>6756</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="2261" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2261" s="1" t="s">
-        <v>6757</v>
+        <v>3349</v>
       </c>
       <c r="C2261" t="s">
-        <v>6755</v>
+        <v>3350</v>
       </c>
       <c r="D2261" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2261" t="s">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="L2261" t="s">
-        <v>58</v>
+        <v>5070</v>
       </c>
       <c r="Q2261" t="s">
-        <v>6758</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="2262" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2262" s="1" t="s">
-        <v>6759</v>
+        <v>6765</v>
       </c>
       <c r="C2262" t="s">
-        <v>6755</v>
+        <v>3350</v>
       </c>
       <c r="D2262" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2262" t="s">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="L2262" t="s">
-        <v>58</v>
+        <v>5070</v>
       </c>
       <c r="Q2262" t="s">
-        <v>6760</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="2263" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2263" s="1" t="s">
-        <v>6761</v>
+        <v>3351</v>
       </c>
       <c r="C2263" t="s">
-        <v>6762</v>
-      </c>
-      <c r="D2263" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2263" t="s">
-        <v>2</v>
+        <v>3352</v>
+      </c>
+      <c r="D2263" s="1">
+        <v>68000</v>
       </c>
       <c r="L2263" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="M2263" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2263" t="s">
-        <v>6763</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="2264" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2264" s="1" t="s">
-        <v>3349</v>
+        <v>3353</v>
       </c>
       <c r="C2264" t="s">
-        <v>3350</v>
-      </c>
-      <c r="D2264" s="1" t="s">
-        <v>951</v>
+        <v>3352</v>
+      </c>
+      <c r="D2264" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E2264" t="s">
+        <v>2</v>
       </c>
       <c r="L2264" t="s">
-        <v>5070</v>
+        <v>6767</v>
+      </c>
+      <c r="M2264" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2264" t="s">
-        <v>6764</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="2265" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2265" s="1" t="s">
-        <v>6765</v>
+        <v>3354</v>
       </c>
       <c r="C2265" t="s">
-        <v>3350</v>
-      </c>
-      <c r="D2265" s="1" t="s">
-        <v>951</v>
+        <v>3352</v>
+      </c>
+      <c r="D2265" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E2265" t="s">
+        <v>2</v>
       </c>
       <c r="L2265" t="s">
-        <v>5070</v>
+        <v>6767</v>
+      </c>
+      <c r="M2265" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2265" t="s">
-        <v>6766</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="2266" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2266" s="1" t="s">
-        <v>3351</v>
+        <v>3355</v>
       </c>
       <c r="C2266" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D2266" s="1">
-        <v>68000</v>
+        <v>3356</v>
+      </c>
+      <c r="D2266" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2266" t="s">
+        <v>2426</v>
       </c>
       <c r="L2266" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2266" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q2266" t="s">
-        <v>4567</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="2267" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2267" s="1" t="s">
-        <v>3353</v>
+        <v>6768</v>
       </c>
       <c r="C2267" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D2267" s="1">
-        <v>68000</v>
+        <v>6769</v>
+      </c>
+      <c r="D2267" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E2267" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L2267" t="s">
-        <v>6767</v>
-      </c>
-      <c r="M2267" t="s">
-        <v>1687</v>
+        <v>5505</v>
       </c>
       <c r="Q2267" t="s">
-        <v>4568</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="2268" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2268" s="1" t="s">
-        <v>3354</v>
+        <v>6771</v>
       </c>
       <c r="C2268" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D2268" s="1">
-        <v>68000</v>
+        <v>6769</v>
+      </c>
+      <c r="D2268" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E2268" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L2268" t="s">
-        <v>6767</v>
+        <v>5071</v>
       </c>
       <c r="M2268" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q2268" t="s">
-        <v>4569</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="2269" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2269" s="1" t="s">
-        <v>3355</v>
+        <v>6773</v>
       </c>
       <c r="C2269" t="s">
-        <v>3356</v>
+        <v>6769</v>
       </c>
       <c r="D2269" s="1" t="s">
         <v>2</v>
@@ -74893,136 +74906,124 @@
         <v>2426</v>
       </c>
       <c r="L2269" t="s">
-        <v>5070</v>
+        <v>5071</v>
+      </c>
+      <c r="M2269" t="s">
+        <v>55</v>
       </c>
       <c r="Q2269" t="s">
-        <v>3357</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="2270" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2270" s="1" t="s">
-        <v>6768</v>
+        <v>3358</v>
       </c>
       <c r="C2270" t="s">
-        <v>6769</v>
-      </c>
-      <c r="D2270" s="1" t="s">
-        <v>2</v>
+        <v>6775</v>
+      </c>
+      <c r="D2270" s="1">
+        <v>68000</v>
       </c>
       <c r="E2270" t="s">
         <v>2426</v>
       </c>
+      <c r="F2270" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G2270" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2270" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M2270" t="s">
+        <v>4570</v>
       </c>
       <c r="Q2270" t="s">
-        <v>6770</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="2271" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2271" s="1" t="s">
-        <v>6771</v>
+        <v>6776</v>
       </c>
       <c r="C2271" t="s">
-        <v>6769</v>
-      </c>
-      <c r="D2271" s="1" t="s">
-        <v>2</v>
+        <v>6775</v>
+      </c>
+      <c r="D2271" s="1">
+        <v>68000</v>
       </c>
       <c r="E2271" t="s">
         <v>2426</v>
       </c>
+      <c r="F2271" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2271" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M2271" t="s">
-        <v>55</v>
+        <v>2605</v>
       </c>
       <c r="Q2271" t="s">
-        <v>6772</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="2272" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2272" s="1" t="s">
-        <v>6773</v>
+        <v>3359</v>
       </c>
       <c r="C2272" t="s">
-        <v>6769</v>
+        <v>3360</v>
       </c>
       <c r="D2272" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2272" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2272" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2272" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="Q2272" t="s">
-        <v>6774</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="2273" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2273" s="1" t="s">
-        <v>3358</v>
+        <v>3362</v>
       </c>
       <c r="C2273" t="s">
-        <v>6775</v>
-      </c>
-      <c r="D2273" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2273" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F2273" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G2273" t="s">
-        <v>2426</v>
+        <v>3360</v>
+      </c>
+      <c r="D2273" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2273" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2273" t="s">
-        <v>4570</v>
+        <v>5070</v>
       </c>
       <c r="Q2273" t="s">
-        <v>4571</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="2274" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2274" s="1" t="s">
-        <v>6776</v>
+        <v>6778</v>
       </c>
       <c r="C2274" t="s">
-        <v>6775</v>
-      </c>
-      <c r="D2274" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2274" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F2274" t="s">
-        <v>2426</v>
+        <v>3360</v>
+      </c>
+      <c r="D2274" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2274" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2274" t="s">
-        <v>2605</v>
+        <v>5070</v>
       </c>
       <c r="Q2274" t="s">
-        <v>6777</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="2275" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2275" s="1" t="s">
-        <v>3359</v>
+        <v>3364</v>
       </c>
       <c r="C2275" t="s">
         <v>3360</v>
@@ -75034,12 +75035,12 @@
         <v>5070</v>
       </c>
       <c r="Q2275" t="s">
-        <v>3361</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="2276" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2276" s="1" t="s">
-        <v>3362</v>
+        <v>3366</v>
       </c>
       <c r="C2276" t="s">
         <v>3360</v>
@@ -75051,63 +75052,72 @@
         <v>5070</v>
       </c>
       <c r="Q2276" t="s">
-        <v>3363</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="2277" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2277" s="1" t="s">
-        <v>6778</v>
+        <v>3368</v>
       </c>
       <c r="C2277" t="s">
-        <v>3360</v>
+        <v>3369</v>
       </c>
       <c r="D2277" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2277" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2277" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q2277" t="s">
-        <v>6779</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="2278" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2278" s="1" t="s">
-        <v>3364</v>
+        <v>3371</v>
       </c>
       <c r="C2278" t="s">
-        <v>3360</v>
+        <v>3369</v>
       </c>
       <c r="D2278" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2278" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2278" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q2278" t="s">
-        <v>3365</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="2279" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2279" s="1" t="s">
-        <v>3366</v>
+        <v>6780</v>
       </c>
       <c r="C2279" t="s">
-        <v>3360</v>
+        <v>3369</v>
       </c>
       <c r="D2279" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2279" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2279" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q2279" t="s">
-        <v>3367</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="2280" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2280" s="1" t="s">
-        <v>3368</v>
+        <v>6782</v>
       </c>
       <c r="C2280" t="s">
         <v>3369</v>
@@ -75122,12 +75132,12 @@
         <v>5505</v>
       </c>
       <c r="Q2280" t="s">
-        <v>3370</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="2281" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2281" s="1" t="s">
-        <v>3371</v>
+        <v>3373</v>
       </c>
       <c r="C2281" t="s">
         <v>3369</v>
@@ -75142,12 +75152,12 @@
         <v>5505</v>
       </c>
       <c r="Q2281" t="s">
-        <v>3372</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="2282" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2282" s="1" t="s">
-        <v>6780</v>
+        <v>3375</v>
       </c>
       <c r="C2282" t="s">
         <v>3369</v>
@@ -75159,15 +75169,18 @@
         <v>2426</v>
       </c>
       <c r="L2282" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M2282" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2282" t="s">
-        <v>6781</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="2283" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2283" s="1" t="s">
-        <v>6782</v>
+        <v>6784</v>
       </c>
       <c r="C2283" t="s">
         <v>3369</v>
@@ -75179,15 +75192,18 @@
         <v>2426</v>
       </c>
       <c r="L2283" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M2283" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2283" t="s">
-        <v>6783</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="2284" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2284" s="1" t="s">
-        <v>3373</v>
+        <v>6786</v>
       </c>
       <c r="C2284" t="s">
         <v>3369</v>
@@ -75199,15 +75215,18 @@
         <v>2426</v>
       </c>
       <c r="L2284" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M2284" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2284" t="s">
-        <v>3374</v>
+        <v>6787</v>
       </c>
     </row>
     <row r="2285" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2285" s="1" t="s">
-        <v>3375</v>
+        <v>6788</v>
       </c>
       <c r="C2285" t="s">
         <v>3369</v>
@@ -75225,12 +75244,12 @@
         <v>1687</v>
       </c>
       <c r="Q2285" t="s">
-        <v>4572</v>
+        <v>6789</v>
       </c>
     </row>
     <row r="2286" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2286" s="1" t="s">
-        <v>6784</v>
+        <v>3376</v>
       </c>
       <c r="C2286" t="s">
         <v>3369</v>
@@ -75248,18 +75267,18 @@
         <v>1687</v>
       </c>
       <c r="Q2286" t="s">
-        <v>6785</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="2287" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2287" s="1" t="s">
-        <v>6786</v>
+        <v>3377</v>
       </c>
       <c r="C2287" t="s">
         <v>3369</v>
       </c>
-      <c r="D2287" s="1" t="s">
-        <v>2</v>
+      <c r="D2287" s="1">
+        <v>68000</v>
       </c>
       <c r="E2287" t="s">
         <v>2426</v>
@@ -75271,253 +75290,235 @@
         <v>1687</v>
       </c>
       <c r="Q2287" t="s">
-        <v>6787</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="2288" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2288" s="1" t="s">
-        <v>6788</v>
+        <v>3427</v>
       </c>
       <c r="C2288" t="s">
-        <v>3369</v>
+        <v>3428</v>
       </c>
       <c r="D2288" s="1" t="s">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="E2288" t="s">
-        <v>2426</v>
+        <v>3899</v>
       </c>
       <c r="L2288" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2288" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q2288" t="s">
-        <v>6789</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="2289" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2289" s="1" t="s">
-        <v>3376</v>
+        <v>3430</v>
       </c>
       <c r="C2289" t="s">
-        <v>3369</v>
+        <v>3428</v>
       </c>
       <c r="D2289" s="1" t="s">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="E2289" t="s">
-        <v>2426</v>
+        <v>3899</v>
       </c>
       <c r="L2289" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2289" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q2289" t="s">
-        <v>4573</v>
-      </c>
-    </row>
-    <row r="2290" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2290" s="1" t="s">
-        <v>3377</v>
-      </c>
-      <c r="C2290" t="s">
-        <v>3369</v>
-      </c>
-      <c r="D2290" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2290" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2290" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2290" t="s">
-        <v>1687</v>
-      </c>
-      <c r="Q2290" t="s">
-        <v>4574</v>
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="2290" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2290" s="5" t="s">
+        <v>6790</v>
+      </c>
+      <c r="C2290" s="6" t="s">
+        <v>6791</v>
+      </c>
+      <c r="D2290" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2290" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="L2290" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q2290" s="6" t="s">
+        <v>6792</v>
       </c>
     </row>
     <row r="2291" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2291" s="1" t="s">
-        <v>3427</v>
+        <v>6793</v>
       </c>
       <c r="C2291" t="s">
-        <v>3428</v>
+        <v>6791</v>
       </c>
       <c r="D2291" s="1" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="E2291" t="s">
-        <v>3899</v>
+        <v>404</v>
       </c>
       <c r="L2291" t="s">
-        <v>55</v>
+        <v>542</v>
       </c>
       <c r="Q2291" t="s">
-        <v>3429</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="2292" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2292" s="1" t="s">
-        <v>3430</v>
+        <v>6795</v>
       </c>
       <c r="C2292" t="s">
-        <v>3428</v>
-      </c>
-      <c r="D2292" s="1" t="s">
-        <v>351</v>
+        <v>6796</v>
+      </c>
+      <c r="D2292" s="1">
+        <v>68000</v>
       </c>
       <c r="E2292" t="s">
-        <v>3899</v>
+        <v>3964</v>
+      </c>
+      <c r="F2292" t="s">
+        <v>2426</v>
       </c>
       <c r="L2292" t="s">
-        <v>55</v>
+        <v>5505</v>
       </c>
       <c r="Q2292" t="s">
-        <v>3431</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="2293" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2293" s="1" t="s">
-        <v>6790</v>
+        <v>3381</v>
       </c>
       <c r="C2293" t="s">
-        <v>6791</v>
-      </c>
-      <c r="D2293" s="1" t="s">
-        <v>404</v>
+        <v>3382</v>
+      </c>
+      <c r="D2293" s="1">
+        <v>68000</v>
       </c>
       <c r="E2293" t="s">
-        <v>404</v>
+        <v>2426</v>
       </c>
       <c r="L2293" t="s">
-        <v>542</v>
+        <v>1687</v>
       </c>
       <c r="Q2293" t="s">
-        <v>6792</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="2294" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2294" s="1" t="s">
-        <v>6793</v>
+        <v>3384</v>
       </c>
       <c r="C2294" t="s">
-        <v>6791</v>
-      </c>
-      <c r="D2294" s="1" t="s">
-        <v>404</v>
+        <v>3385</v>
+      </c>
+      <c r="D2294" s="1">
+        <v>68000</v>
       </c>
       <c r="E2294" t="s">
-        <v>404</v>
+        <v>2426</v>
       </c>
       <c r="L2294" t="s">
-        <v>542</v>
+        <v>5071</v>
+      </c>
+      <c r="M2294" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2294" t="s">
-        <v>6794</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="2295" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2295" s="1" t="s">
-        <v>6795</v>
+        <v>3386</v>
       </c>
       <c r="C2295" t="s">
-        <v>6796</v>
+        <v>3385</v>
       </c>
       <c r="D2295" s="1">
         <v>68000</v>
       </c>
       <c r="E2295" t="s">
-        <v>3964</v>
-      </c>
-      <c r="F2295" t="s">
         <v>2426</v>
       </c>
       <c r="L2295" t="s">
-        <v>5505</v>
+        <v>5071</v>
+      </c>
+      <c r="M2295" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2295" t="s">
-        <v>6797</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="2296" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2296" s="1" t="s">
-        <v>3381</v>
+        <v>3387</v>
       </c>
       <c r="C2296" t="s">
-        <v>3382</v>
+        <v>3319</v>
       </c>
       <c r="D2296" s="1">
         <v>68000</v>
-      </c>
-      <c r="E2296" t="s">
-        <v>2426</v>
       </c>
       <c r="L2296" t="s">
         <v>1687</v>
       </c>
       <c r="Q2296" t="s">
-        <v>3383</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="2297" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2297" s="1" t="s">
-        <v>3384</v>
+        <v>3389</v>
       </c>
       <c r="C2297" t="s">
-        <v>3385</v>
+        <v>3319</v>
       </c>
       <c r="D2297" s="1">
         <v>68000</v>
       </c>
-      <c r="E2297" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2297" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2297" t="s">
         <v>1687</v>
       </c>
       <c r="Q2297" t="s">
-        <v>4575</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="2298" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2298" s="1" t="s">
-        <v>3386</v>
+        <v>3391</v>
       </c>
       <c r="C2298" t="s">
-        <v>3385</v>
+        <v>3319</v>
       </c>
       <c r="D2298" s="1">
         <v>68000</v>
       </c>
-      <c r="E2298" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2298" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2298" t="s">
         <v>1687</v>
       </c>
       <c r="Q2298" t="s">
-        <v>4576</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="2299" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2299" s="1" t="s">
-        <v>3387</v>
+        <v>3393</v>
       </c>
       <c r="C2299" t="s">
-        <v>3319</v>
+        <v>3394</v>
       </c>
       <c r="D2299" s="1">
         <v>68000</v>
@@ -75526,15 +75527,15 @@
         <v>1687</v>
       </c>
       <c r="Q2299" t="s">
-        <v>3388</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="2300" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2300" s="1" t="s">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="C2300" t="s">
-        <v>3319</v>
+        <v>3394</v>
       </c>
       <c r="D2300" s="1">
         <v>68000</v>
@@ -75543,63 +75544,72 @@
         <v>1687</v>
       </c>
       <c r="Q2300" t="s">
-        <v>3390</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="2301" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2301" s="1" t="s">
-        <v>3391</v>
+        <v>3398</v>
       </c>
       <c r="C2301" t="s">
-        <v>3319</v>
-      </c>
-      <c r="D2301" s="1">
-        <v>68000</v>
+        <v>3399</v>
+      </c>
+      <c r="D2301" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2301" t="s">
-        <v>1687</v>
+        <v>1155</v>
+      </c>
+      <c r="M2301" t="s">
+        <v>352</v>
       </c>
       <c r="Q2301" t="s">
-        <v>3392</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="2302" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2302" s="1" t="s">
-        <v>3393</v>
+        <v>3400</v>
       </c>
       <c r="C2302" t="s">
-        <v>3394</v>
-      </c>
-      <c r="D2302" s="1">
-        <v>68000</v>
+        <v>3399</v>
+      </c>
+      <c r="D2302" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2302" t="s">
-        <v>1687</v>
+        <v>1155</v>
+      </c>
+      <c r="M2302" t="s">
+        <v>352</v>
       </c>
       <c r="Q2302" t="s">
-        <v>3395</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="2303" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2303" s="1" t="s">
-        <v>3396</v>
+        <v>3401</v>
       </c>
       <c r="C2303" t="s">
-        <v>3394</v>
-      </c>
-      <c r="D2303" s="1">
-        <v>68000</v>
+        <v>3399</v>
+      </c>
+      <c r="D2303" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2303" t="s">
-        <v>1687</v>
+        <v>1155</v>
+      </c>
+      <c r="M2303" t="s">
+        <v>352</v>
       </c>
       <c r="Q2303" t="s">
-        <v>3397</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="2304" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2304" s="1" t="s">
-        <v>3398</v>
+        <v>6798</v>
       </c>
       <c r="C2304" t="s">
         <v>3399</v>
@@ -75614,35 +75624,35 @@
         <v>352</v>
       </c>
       <c r="Q2304" t="s">
-        <v>4577</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="2305" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2305" s="1" t="s">
-        <v>3400</v>
+        <v>6800</v>
       </c>
       <c r="C2305" t="s">
-        <v>3399</v>
+        <v>6801</v>
       </c>
       <c r="D2305" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2305" t="s">
+        <v>2</v>
+      </c>
       <c r="L2305" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M2305" t="s">
-        <v>352</v>
+        <v>3714</v>
       </c>
       <c r="Q2305" t="s">
-        <v>4578</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="2306" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2306" s="1" t="s">
-        <v>3401</v>
+        <v>6803</v>
       </c>
       <c r="C2306" t="s">
-        <v>3399</v>
+        <v>6804</v>
       </c>
       <c r="D2306" s="1" t="s">
         <v>2</v>
@@ -75650,19 +75660,16 @@
       <c r="L2306" t="s">
         <v>1155</v>
       </c>
-      <c r="M2306" t="s">
-        <v>352</v>
-      </c>
       <c r="Q2306" t="s">
-        <v>4579</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="2307" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2307" s="1" t="s">
-        <v>6798</v>
+        <v>6806</v>
       </c>
       <c r="C2307" t="s">
-        <v>3399</v>
+        <v>6804</v>
       </c>
       <c r="D2307" s="1" t="s">
         <v>2</v>
@@ -75670,70 +75677,55 @@
       <c r="L2307" t="s">
         <v>1155</v>
       </c>
-      <c r="M2307" t="s">
-        <v>352</v>
-      </c>
       <c r="Q2307" t="s">
-        <v>6799</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="2308" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2308" s="1" t="s">
-        <v>6800</v>
+        <v>6808</v>
       </c>
       <c r="C2308" t="s">
-        <v>6801</v>
-      </c>
-      <c r="D2308" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2308" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2308" t="s">
-        <v>3714</v>
+        <v>6809</v>
+      </c>
+      <c r="D2308" s="1">
+        <v>68000</v>
       </c>
       <c r="Q2308" t="s">
-        <v>6802</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="2309" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2309" s="1" t="s">
-        <v>6803</v>
+        <v>6811</v>
       </c>
       <c r="C2309" t="s">
-        <v>6804</v>
-      </c>
-      <c r="D2309" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2309" t="s">
-        <v>1155</v>
+        <v>6809</v>
+      </c>
+      <c r="D2309" s="1">
+        <v>68000</v>
       </c>
       <c r="Q2309" t="s">
-        <v>6805</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="2310" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2310" s="1" t="s">
-        <v>6806</v>
+        <v>6813</v>
       </c>
       <c r="C2310" t="s">
-        <v>6804</v>
-      </c>
-      <c r="D2310" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2310" t="s">
-        <v>1155</v>
+        <v>6809</v>
+      </c>
+      <c r="D2310" s="1">
+        <v>68000</v>
       </c>
       <c r="Q2310" t="s">
-        <v>6807</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="2311" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2311" s="1" t="s">
-        <v>6808</v>
+        <v>6815</v>
       </c>
       <c r="C2311" t="s">
         <v>6809</v>
@@ -75742,12 +75734,12 @@
         <v>68000</v>
       </c>
       <c r="Q2311" t="s">
-        <v>6810</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="2312" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2312" s="1" t="s">
-        <v>6811</v>
+        <v>6817</v>
       </c>
       <c r="C2312" t="s">
         <v>6809</v>
@@ -75756,12 +75748,12 @@
         <v>68000</v>
       </c>
       <c r="Q2312" t="s">
-        <v>6812</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="2313" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2313" s="1" t="s">
-        <v>6813</v>
+        <v>6819</v>
       </c>
       <c r="C2313" t="s">
         <v>6809</v>
@@ -75770,12 +75762,12 @@
         <v>68000</v>
       </c>
       <c r="Q2313" t="s">
-        <v>6814</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="2314" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2314" s="1" t="s">
-        <v>6815</v>
+        <v>6821</v>
       </c>
       <c r="C2314" t="s">
         <v>6809</v>
@@ -75784,12 +75776,12 @@
         <v>68000</v>
       </c>
       <c r="Q2314" t="s">
-        <v>6816</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="2315" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2315" s="1" t="s">
-        <v>6817</v>
+        <v>6823</v>
       </c>
       <c r="C2315" t="s">
         <v>6809</v>
@@ -75798,12 +75790,12 @@
         <v>68000</v>
       </c>
       <c r="Q2315" t="s">
-        <v>6818</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="2316" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2316" s="1" t="s">
-        <v>6819</v>
+        <v>6825</v>
       </c>
       <c r="C2316" t="s">
         <v>6809</v>
@@ -75812,12 +75804,12 @@
         <v>68000</v>
       </c>
       <c r="Q2316" t="s">
-        <v>6820</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="2317" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2317" s="1" t="s">
-        <v>6821</v>
+        <v>6827</v>
       </c>
       <c r="C2317" t="s">
         <v>6809</v>
@@ -75826,12 +75818,12 @@
         <v>68000</v>
       </c>
       <c r="Q2317" t="s">
-        <v>6822</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="2318" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2318" s="1" t="s">
-        <v>6823</v>
+        <v>6829</v>
       </c>
       <c r="C2318" t="s">
         <v>6809</v>
@@ -75840,12 +75832,12 @@
         <v>68000</v>
       </c>
       <c r="Q2318" t="s">
-        <v>6824</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="2319" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2319" s="1" t="s">
-        <v>6825</v>
+        <v>6831</v>
       </c>
       <c r="C2319" t="s">
         <v>6809</v>
@@ -75854,12 +75846,12 @@
         <v>68000</v>
       </c>
       <c r="Q2319" t="s">
-        <v>6826</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="2320" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2320" s="1" t="s">
-        <v>6827</v>
+        <v>6833</v>
       </c>
       <c r="C2320" t="s">
         <v>6809</v>
@@ -75867,13 +75859,19 @@
       <c r="D2320" s="1">
         <v>68000</v>
       </c>
+      <c r="L2320" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2320" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2320" t="s">
-        <v>6828</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="2321" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2321" s="1" t="s">
-        <v>6829</v>
+        <v>6835</v>
       </c>
       <c r="C2321" t="s">
         <v>6809</v>
@@ -75881,13 +75879,19 @@
       <c r="D2321" s="1">
         <v>68000</v>
       </c>
+      <c r="L2321" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2321" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2321" t="s">
-        <v>6830</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="2322" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2322" s="1" t="s">
-        <v>6831</v>
+        <v>6837</v>
       </c>
       <c r="C2322" t="s">
         <v>6809</v>
@@ -75896,12 +75900,12 @@
         <v>68000</v>
       </c>
       <c r="Q2322" t="s">
-        <v>6832</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="2323" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2323" s="1" t="s">
-        <v>6833</v>
+        <v>6839</v>
       </c>
       <c r="C2323" t="s">
         <v>6809</v>
@@ -75909,19 +75913,13 @@
       <c r="D2323" s="1">
         <v>68000</v>
       </c>
-      <c r="L2323" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2323" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q2323" t="s">
-        <v>6834</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="2324" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2324" s="1" t="s">
-        <v>6835</v>
+        <v>6841</v>
       </c>
       <c r="C2324" t="s">
         <v>6809</v>
@@ -75929,19 +75927,13 @@
       <c r="D2324" s="1">
         <v>68000</v>
       </c>
-      <c r="L2324" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2324" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q2324" t="s">
-        <v>6836</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="2325" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2325" s="1" t="s">
-        <v>6837</v>
+        <v>6843</v>
       </c>
       <c r="C2325" t="s">
         <v>6809</v>
@@ -75949,13 +75941,19 @@
       <c r="D2325" s="1">
         <v>68000</v>
       </c>
+      <c r="L2325" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2325" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2325" t="s">
-        <v>6838</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="2326" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2326" s="1" t="s">
-        <v>6839</v>
+        <v>6845</v>
       </c>
       <c r="C2326" t="s">
         <v>6809</v>
@@ -75964,12 +75962,12 @@
         <v>68000</v>
       </c>
       <c r="Q2326" t="s">
-        <v>6840</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="2327" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2327" s="1" t="s">
-        <v>6841</v>
+        <v>6847</v>
       </c>
       <c r="C2327" t="s">
         <v>6809</v>
@@ -75977,13 +75975,19 @@
       <c r="D2327" s="1">
         <v>68000</v>
       </c>
+      <c r="L2327" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2327" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2327" t="s">
-        <v>6842</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="2328" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2328" s="1" t="s">
-        <v>6843</v>
+        <v>6849</v>
       </c>
       <c r="C2328" t="s">
         <v>6809</v>
@@ -75998,12 +76002,12 @@
         <v>6093</v>
       </c>
       <c r="Q2328" t="s">
-        <v>6844</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="2329" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2329" s="1" t="s">
-        <v>6845</v>
+        <v>6851</v>
       </c>
       <c r="C2329" t="s">
         <v>6809</v>
@@ -76012,271 +76016,283 @@
         <v>68000</v>
       </c>
       <c r="Q2329" t="s">
-        <v>6846</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="2330" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2330" s="1" t="s">
-        <v>6847</v>
+        <v>6853</v>
       </c>
       <c r="C2330" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D2330" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D2330" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E2330" t="s">
+        <v>3794</v>
       </c>
       <c r="L2330" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2330" t="s">
-        <v>6093</v>
+        <v>1900</v>
       </c>
       <c r="Q2330" t="s">
-        <v>6848</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="2331" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2331" s="1" t="s">
-        <v>6849</v>
+        <v>6856</v>
       </c>
       <c r="C2331" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D2331" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D2331" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E2331" t="s">
+        <v>3794</v>
       </c>
       <c r="L2331" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2331" t="s">
-        <v>6093</v>
+        <v>1900</v>
       </c>
       <c r="Q2331" t="s">
-        <v>6850</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="2332" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2332" s="1" t="s">
-        <v>6851</v>
+        <v>3468</v>
       </c>
       <c r="C2332" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D2332" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D2332" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E2332" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L2332" t="s">
+        <v>1900</v>
       </c>
       <c r="Q2332" t="s">
-        <v>6852</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="2333" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2333" s="1" t="s">
-        <v>6853</v>
+        <v>6858</v>
       </c>
       <c r="C2333" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D2333" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E2333" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F2333" t="s">
+        <v>6862</v>
       </c>
       <c r="L2333" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M2333" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N2333" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O2333" t="s">
+        <v>6866</v>
       </c>
       <c r="Q2333" t="s">
-        <v>6855</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="2334" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2334" s="1" t="s">
-        <v>6856</v>
+        <v>6868</v>
       </c>
       <c r="C2334" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D2334" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E2334" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F2334" t="s">
+        <v>6862</v>
       </c>
       <c r="L2334" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M2334" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N2334" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O2334" t="s">
+        <v>6866</v>
       </c>
       <c r="Q2334" t="s">
-        <v>6857</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="2335" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2335" s="1" t="s">
-        <v>3468</v>
+        <v>6870</v>
       </c>
       <c r="C2335" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D2335" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E2335" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F2335" t="s">
+        <v>6862</v>
       </c>
       <c r="L2335" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M2335" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N2335" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O2335" t="s">
+        <v>6866</v>
       </c>
       <c r="Q2335" t="s">
-        <v>3470</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="2336" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2336" s="1" t="s">
-        <v>6858</v>
+        <v>6872</v>
       </c>
       <c r="C2336" t="s">
-        <v>6859</v>
+        <v>6873</v>
       </c>
       <c r="D2336" s="1" t="s">
-        <v>6860</v>
+        <v>2</v>
       </c>
       <c r="E2336" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F2336" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L2336" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M2336" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N2336" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O2336" t="s">
-        <v>6866</v>
+        <v>3974</v>
       </c>
       <c r="Q2336" t="s">
-        <v>6867</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="2337" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2337" s="1" t="s">
-        <v>6868</v>
+        <v>3490</v>
       </c>
       <c r="C2337" t="s">
-        <v>6859</v>
+        <v>6873</v>
       </c>
       <c r="D2337" s="1" t="s">
-        <v>6860</v>
+        <v>2</v>
       </c>
       <c r="E2337" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F2337" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L2337" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M2337" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N2337" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O2337" t="s">
-        <v>6866</v>
+        <v>3974</v>
       </c>
       <c r="Q2337" t="s">
-        <v>6869</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="2338" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2338" s="1" t="s">
-        <v>6870</v>
+        <v>6876</v>
       </c>
       <c r="C2338" t="s">
-        <v>6859</v>
-      </c>
-      <c r="D2338" s="1" t="s">
-        <v>6860</v>
+        <v>6877</v>
+      </c>
+      <c r="D2338" s="1">
+        <v>68000</v>
       </c>
       <c r="E2338" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F2338" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L2338" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M2338" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N2338" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O2338" t="s">
-        <v>6866</v>
+        <v>1687</v>
       </c>
       <c r="Q2338" t="s">
-        <v>6871</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="2339" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2339" s="1" t="s">
-        <v>6872</v>
+        <v>6879</v>
       </c>
       <c r="C2339" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D2339" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2339" t="s">
-        <v>2426</v>
+        <v>6877</v>
+      </c>
+      <c r="D2339" s="1">
+        <v>68000</v>
       </c>
       <c r="L2339" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2339" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q2339" t="s">
-        <v>6874</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="2340" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2340" s="1" t="s">
-        <v>3490</v>
+        <v>6881</v>
       </c>
       <c r="C2340" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D2340" s="1" t="s">
-        <v>2</v>
+        <v>6882</v>
+      </c>
+      <c r="D2340" s="1">
+        <v>68000</v>
       </c>
       <c r="E2340" t="s">
         <v>2426</v>
       </c>
       <c r="L2340" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M2340" t="s">
         <v>5071</v>
       </c>
-      <c r="M2340" t="s">
-        <v>3974</v>
+      <c r="N2340" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2340" t="s">
-        <v>6875</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="2341" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2341" s="1" t="s">
-        <v>6876</v>
+        <v>6884</v>
       </c>
       <c r="C2341" t="s">
-        <v>6877</v>
+        <v>6882</v>
       </c>
       <c r="D2341" s="1">
         <v>68000</v>
@@ -76285,90 +76301,90 @@
         <v>2426</v>
       </c>
       <c r="L2341" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M2341" t="s">
         <v>5071</v>
       </c>
-      <c r="M2341" t="s">
+      <c r="N2341" t="s">
         <v>1687</v>
       </c>
       <c r="Q2341" t="s">
-        <v>6878</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="2342" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2342" s="1" t="s">
-        <v>6879</v>
+        <v>6886</v>
       </c>
       <c r="C2342" t="s">
-        <v>6877</v>
+        <v>6882</v>
       </c>
       <c r="D2342" s="1">
         <v>68000</v>
       </c>
+      <c r="E2342" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2342" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M2342" t="s">
+        <v>5071</v>
+      </c>
+      <c r="N2342" t="s">
         <v>1687</v>
       </c>
       <c r="Q2342" t="s">
-        <v>6880</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="2343" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2343" s="1" t="s">
-        <v>6881</v>
+        <v>6888</v>
       </c>
       <c r="C2343" t="s">
-        <v>6882</v>
+        <v>6889</v>
       </c>
       <c r="D2343" s="1">
         <v>68000</v>
       </c>
-      <c r="E2343" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2343" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M2343" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N2343" t="s">
         <v>1687</v>
       </c>
       <c r="Q2343" t="s">
-        <v>6883</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="2344" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2344" s="1" t="s">
-        <v>6884</v>
+        <v>6891</v>
       </c>
       <c r="C2344" t="s">
-        <v>6882</v>
+        <v>6889</v>
       </c>
       <c r="D2344" s="1">
         <v>68000</v>
       </c>
-      <c r="E2344" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2344" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M2344" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N2344" t="s">
         <v>1687</v>
       </c>
       <c r="Q2344" t="s">
-        <v>6885</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="2345" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2345" s="1" t="s">
-        <v>6886</v>
+        <v>6893</v>
       </c>
       <c r="C2345" t="s">
-        <v>6882</v>
+        <v>6894</v>
       </c>
       <c r="D2345" s="1">
         <v>68000</v>
@@ -76377,47 +76393,50 @@
         <v>2426</v>
       </c>
       <c r="L2345" t="s">
-        <v>5070</v>
+        <v>5238</v>
       </c>
       <c r="M2345" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N2345" t="s">
         <v>1687</v>
       </c>
       <c r="Q2345" t="s">
-        <v>6887</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="2346" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2346" s="1" t="s">
-        <v>6888</v>
+        <v>6896</v>
       </c>
       <c r="C2346" t="s">
-        <v>6889</v>
+        <v>6894</v>
       </c>
       <c r="D2346" s="1">
         <v>68000</v>
       </c>
+      <c r="E2346" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2346" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M2346" t="s">
         <v>1687</v>
       </c>
       <c r="Q2346" t="s">
-        <v>6890</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="2347" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2347" s="1" t="s">
-        <v>6891</v>
+        <v>6898</v>
       </c>
       <c r="C2347" t="s">
-        <v>6889</v>
+        <v>6899</v>
       </c>
       <c r="D2347" s="1">
         <v>68000</v>
+      </c>
+      <c r="E2347" t="s">
+        <v>2426</v>
       </c>
       <c r="L2347" t="s">
         <v>5071</v>
@@ -76426,210 +76445,201 @@
         <v>1687</v>
       </c>
       <c r="Q2347" t="s">
-        <v>6892</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="2348" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2348" s="1" t="s">
-        <v>6893</v>
+        <v>6901</v>
       </c>
       <c r="C2348" t="s">
-        <v>6894</v>
-      </c>
-      <c r="D2348" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2348" t="s">
-        <v>2426</v>
+        <v>6902</v>
+      </c>
+      <c r="D2348" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2348" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2348" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q2348" t="s">
-        <v>6895</v>
-      </c>
-    </row>
-    <row r="2349" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2349" s="1" t="s">
-        <v>6896</v>
-      </c>
-      <c r="C2349" t="s">
-        <v>6894</v>
-      </c>
-      <c r="D2349" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2349" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2349" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2349" t="s">
-        <v>1687</v>
-      </c>
-      <c r="Q2349" t="s">
-        <v>6897</v>
+        <v>6903</v>
+      </c>
+    </row>
+    <row r="2349" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2349" s="5" t="s">
+        <v>6904</v>
+      </c>
+      <c r="C2349" s="6" t="s">
+        <v>6905</v>
+      </c>
+      <c r="D2349" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2349" s="6" t="s">
+        <v>6906</v>
+      </c>
+      <c r="F2349" s="6" t="s">
+        <v>6906</v>
+      </c>
+      <c r="L2349" s="6" t="s">
+        <v>3714</v>
+      </c>
+      <c r="M2349" s="6" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Q2349" s="6" t="s">
+        <v>6907</v>
       </c>
     </row>
     <row r="2350" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2350" s="1" t="s">
-        <v>6898</v>
+        <v>6908</v>
       </c>
       <c r="C2350" t="s">
-        <v>6899</v>
-      </c>
-      <c r="D2350" s="1">
-        <v>68000</v>
+        <v>6905</v>
+      </c>
+      <c r="D2350" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E2350" t="s">
-        <v>2426</v>
+        <v>6906</v>
+      </c>
+      <c r="F2350" t="s">
+        <v>6906</v>
       </c>
       <c r="L2350" t="s">
-        <v>5071</v>
+        <v>3714</v>
       </c>
       <c r="M2350" t="s">
-        <v>1687</v>
+        <v>2605</v>
       </c>
       <c r="Q2350" t="s">
-        <v>6900</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="2351" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2351" s="1" t="s">
-        <v>6901</v>
+        <v>6910</v>
       </c>
       <c r="C2351" t="s">
-        <v>6902</v>
+        <v>6905</v>
       </c>
       <c r="D2351" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E2351" t="s">
+        <v>6906</v>
+      </c>
+      <c r="F2351" t="s">
+        <v>6906</v>
       </c>
       <c r="L2351" t="s">
-        <v>5070</v>
+        <v>3714</v>
+      </c>
+      <c r="M2351" t="s">
+        <v>2605</v>
       </c>
       <c r="Q2351" t="s">
-        <v>6903</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="2352" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2352" s="1" t="s">
-        <v>6904</v>
+        <v>3439</v>
       </c>
       <c r="C2352" t="s">
-        <v>6905</v>
+        <v>3440</v>
       </c>
       <c r="D2352" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E2352" t="s">
-        <v>6906</v>
-      </c>
-      <c r="F2352" t="s">
-        <v>6906</v>
-      </c>
-      <c r="L2352" t="s">
-        <v>3714</v>
-      </c>
-      <c r="M2352" t="s">
-        <v>2605</v>
+        <v>3888</v>
       </c>
       <c r="Q2352" t="s">
-        <v>6907</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="2353" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2353" s="1" t="s">
-        <v>6908</v>
+        <v>3442</v>
       </c>
       <c r="C2353" t="s">
-        <v>6905</v>
+        <v>3440</v>
       </c>
       <c r="D2353" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E2353" t="s">
-        <v>6906</v>
-      </c>
-      <c r="F2353" t="s">
-        <v>6906</v>
-      </c>
-      <c r="L2353" t="s">
-        <v>3714</v>
-      </c>
-      <c r="M2353" t="s">
-        <v>2605</v>
+        <v>3888</v>
       </c>
       <c r="Q2353" t="s">
-        <v>6909</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="2354" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2354" s="1" t="s">
-        <v>6910</v>
+        <v>3402</v>
       </c>
       <c r="C2354" t="s">
-        <v>6905</v>
+        <v>3403</v>
       </c>
       <c r="D2354" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E2354" t="s">
-        <v>6906</v>
-      </c>
-      <c r="F2354" t="s">
-        <v>6906</v>
+        <v>3794</v>
       </c>
       <c r="L2354" t="s">
-        <v>3714</v>
-      </c>
-      <c r="M2354" t="s">
-        <v>2605</v>
+        <v>542</v>
       </c>
       <c r="Q2354" t="s">
-        <v>6911</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="2355" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2355" s="1" t="s">
-        <v>3439</v>
+        <v>3404</v>
       </c>
       <c r="C2355" t="s">
-        <v>3440</v>
+        <v>3403</v>
       </c>
       <c r="D2355" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E2355" t="s">
-        <v>3888</v>
+        <v>3794</v>
+      </c>
+      <c r="L2355" t="s">
+        <v>542</v>
       </c>
       <c r="Q2355" t="s">
-        <v>3441</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="2356" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2356" s="1" t="s">
-        <v>3442</v>
+        <v>3406</v>
       </c>
       <c r="C2356" t="s">
-        <v>3440</v>
+        <v>3403</v>
       </c>
       <c r="D2356" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E2356" t="s">
-        <v>3888</v>
+        <v>3794</v>
+      </c>
+      <c r="L2356" t="s">
+        <v>542</v>
       </c>
       <c r="Q2356" t="s">
-        <v>3443</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="2357" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2357" s="1" t="s">
-        <v>3402</v>
+        <v>3408</v>
       </c>
       <c r="C2357" t="s">
         <v>3403</v>
@@ -76644,12 +76654,12 @@
         <v>542</v>
       </c>
       <c r="Q2357" t="s">
-        <v>4580</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="2358" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2358" s="1" t="s">
-        <v>3404</v>
+        <v>3410</v>
       </c>
       <c r="C2358" t="s">
         <v>3403</v>
@@ -76664,112 +76674,112 @@
         <v>542</v>
       </c>
       <c r="Q2358" t="s">
-        <v>3405</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="2359" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2359" s="1" t="s">
-        <v>3406</v>
+        <v>3419</v>
       </c>
       <c r="C2359" t="s">
-        <v>3403</v>
+        <v>3420</v>
       </c>
       <c r="D2359" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2359" t="s">
-        <v>3794</v>
+        <v>2426</v>
       </c>
       <c r="L2359" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q2359" t="s">
-        <v>3407</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="2360" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2360" s="1" t="s">
-        <v>3408</v>
+        <v>3422</v>
       </c>
       <c r="C2360" t="s">
-        <v>3403</v>
+        <v>3423</v>
       </c>
       <c r="D2360" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2360" t="s">
-        <v>3794</v>
-      </c>
       <c r="L2360" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q2360" t="s">
-        <v>3409</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="2361" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2361" s="1" t="s">
-        <v>3410</v>
+        <v>3425</v>
       </c>
       <c r="C2361" t="s">
-        <v>3403</v>
+        <v>3423</v>
       </c>
       <c r="D2361" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2361" t="s">
-        <v>3794</v>
-      </c>
       <c r="L2361" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q2361" t="s">
-        <v>3411</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="2362" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2362" s="1" t="s">
-        <v>3419</v>
+        <v>3444</v>
       </c>
       <c r="C2362" t="s">
-        <v>3420</v>
-      </c>
-      <c r="D2362" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2362" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2362" t="s">
-        <v>1155</v>
+        <v>3445</v>
+      </c>
+      <c r="D2362" s="1">
+        <v>8080</v>
       </c>
       <c r="Q2362" t="s">
-        <v>3421</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="2363" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2363" s="1" t="s">
-        <v>3422</v>
+        <v>3447</v>
       </c>
       <c r="C2363" t="s">
-        <v>3423</v>
+        <v>3448</v>
       </c>
       <c r="D2363" s="1" t="s">
-        <v>2</v>
+        <v>3006</v>
+      </c>
+      <c r="E2363" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F2363" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G2363" t="s">
+        <v>3899</v>
       </c>
       <c r="L2363" t="s">
-        <v>1155</v>
+        <v>2605</v>
+      </c>
+      <c r="M2363" t="s">
+        <v>5238</v>
       </c>
       <c r="Q2363" t="s">
-        <v>3424</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="2364" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2364" s="1" t="s">
-        <v>3425</v>
+        <v>3460</v>
       </c>
       <c r="C2364" t="s">
-        <v>3423</v>
+        <v>3461</v>
       </c>
       <c r="D2364" s="1" t="s">
         <v>2</v>
@@ -76778,234 +76788,231 @@
         <v>1155</v>
       </c>
       <c r="Q2364" t="s">
-        <v>3426</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="2365" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2365" s="1" t="s">
-        <v>3444</v>
+        <v>3463</v>
       </c>
       <c r="C2365" t="s">
-        <v>3445</v>
+        <v>3464</v>
       </c>
       <c r="D2365" s="1">
         <v>8080</v>
       </c>
+      <c r="L2365" t="s">
+        <v>352</v>
+      </c>
       <c r="Q2365" t="s">
-        <v>3446</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="2366" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2366" s="1" t="s">
-        <v>3447</v>
+        <v>3466</v>
       </c>
       <c r="C2366" t="s">
-        <v>3448</v>
+        <v>3356</v>
       </c>
       <c r="D2366" s="1" t="s">
-        <v>3006</v>
+        <v>2</v>
       </c>
       <c r="E2366" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F2366" t="s">
-        <v>3899</v>
-      </c>
-      <c r="G2366" t="s">
-        <v>3899</v>
+        <v>2426</v>
       </c>
       <c r="L2366" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M2366" t="s">
-        <v>5238</v>
+        <v>5070</v>
       </c>
       <c r="Q2366" t="s">
-        <v>4581</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="2367" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2367" s="1" t="s">
-        <v>3460</v>
+        <v>3471</v>
       </c>
       <c r="C2367" t="s">
-        <v>3461</v>
-      </c>
-      <c r="D2367" s="1" t="s">
-        <v>2</v>
+        <v>3472</v>
+      </c>
+      <c r="D2367" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E2367" t="s">
+        <v>2426</v>
       </c>
       <c r="L2367" t="s">
-        <v>1155</v>
+        <v>3954</v>
       </c>
       <c r="Q2367" t="s">
-        <v>3462</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="2368" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2368" s="1" t="s">
-        <v>3463</v>
+        <v>3474</v>
       </c>
       <c r="C2368" t="s">
-        <v>3464</v>
-      </c>
-      <c r="D2368" s="1">
-        <v>8080</v>
+        <v>3475</v>
+      </c>
+      <c r="D2368" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="L2368" t="s">
-        <v>352</v>
+        <v>55</v>
       </c>
       <c r="Q2368" t="s">
-        <v>3465</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="2369" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2369" s="1" t="s">
-        <v>3466</v>
+        <v>6912</v>
       </c>
       <c r="C2369" t="s">
-        <v>3356</v>
+        <v>3478</v>
       </c>
       <c r="D2369" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2369" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2369" t="s">
-        <v>5070</v>
+        <v>352</v>
       </c>
       <c r="Q2369" t="s">
-        <v>3467</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="2370" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2370" s="1" t="s">
-        <v>3471</v>
+        <v>3477</v>
       </c>
       <c r="C2370" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D2370" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2370" t="s">
-        <v>2426</v>
+        <v>3478</v>
+      </c>
+      <c r="D2370" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2370" t="s">
-        <v>3954</v>
+        <v>352</v>
       </c>
       <c r="Q2370" t="s">
-        <v>3473</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="2371" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2371" s="1" t="s">
-        <v>3474</v>
+        <v>3479</v>
       </c>
       <c r="C2371" t="s">
-        <v>3475</v>
+        <v>3480</v>
       </c>
       <c r="D2371" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="L2371" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q2371" t="s">
-        <v>3476</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="2372" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2372" s="1" t="s">
-        <v>6912</v>
+        <v>3482</v>
       </c>
       <c r="C2372" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="D2372" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2372" t="s">
-        <v>352</v>
+        <v>58</v>
       </c>
       <c r="Q2372" t="s">
-        <v>6913</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="2373" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2373" s="1" t="s">
-        <v>3477</v>
+        <v>3487</v>
       </c>
       <c r="C2373" t="s">
-        <v>3478</v>
+        <v>3488</v>
       </c>
       <c r="D2373" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2373" t="s">
-        <v>352</v>
+        <v>1155</v>
       </c>
       <c r="Q2373" t="s">
-        <v>4586</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="2374" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2374" s="1" t="s">
-        <v>3479</v>
+        <v>3491</v>
       </c>
       <c r="C2374" t="s">
-        <v>3480</v>
+        <v>3492</v>
       </c>
       <c r="D2374" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2374" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q2374" t="s">
-        <v>3481</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="2375" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2375" s="1" t="s">
-        <v>3482</v>
+        <v>6914</v>
       </c>
       <c r="C2375" t="s">
-        <v>3480</v>
+        <v>6915</v>
       </c>
       <c r="D2375" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2375" t="s">
+        <v>2</v>
+      </c>
       <c r="L2375" t="s">
-        <v>58</v>
+        <v>5238</v>
       </c>
       <c r="Q2375" t="s">
-        <v>3483</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="2376" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2376" s="1" t="s">
-        <v>3487</v>
+        <v>6917</v>
       </c>
       <c r="C2376" t="s">
-        <v>3488</v>
+        <v>6915</v>
       </c>
       <c r="D2376" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2376" t="s">
+        <v>2</v>
+      </c>
       <c r="L2376" t="s">
-        <v>1155</v>
+        <v>5238</v>
       </c>
       <c r="Q2376" t="s">
-        <v>3489</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="2377" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2377" s="1" t="s">
-        <v>3491</v>
+        <v>6919</v>
       </c>
       <c r="C2377" t="s">
-        <v>3492</v>
+        <v>6920</v>
       </c>
       <c r="D2377" s="1" t="s">
         <v>2</v>
@@ -77014,15 +77021,15 @@
         <v>55</v>
       </c>
       <c r="Q2377" t="s">
-        <v>3493</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="2378" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2378" s="1" t="s">
-        <v>6914</v>
+        <v>6922</v>
       </c>
       <c r="C2378" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D2378" s="1" t="s">
         <v>2</v>
@@ -77030,19 +77037,25 @@
       <c r="E2378" t="s">
         <v>2</v>
       </c>
+      <c r="F2378" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2378" t="s">
-        <v>5238</v>
+        <v>542</v>
+      </c>
+      <c r="M2378" t="s">
+        <v>55</v>
       </c>
       <c r="Q2378" t="s">
-        <v>6916</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="2379" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2379" s="1" t="s">
-        <v>6917</v>
+        <v>6924</v>
       </c>
       <c r="C2379" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D2379" s="1" t="s">
         <v>2</v>
@@ -77050,102 +77063,99 @@
       <c r="E2379" t="s">
         <v>2</v>
       </c>
+      <c r="F2379" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2379" t="s">
-        <v>5238</v>
+        <v>542</v>
+      </c>
+      <c r="M2379" t="s">
+        <v>55</v>
       </c>
       <c r="Q2379" t="s">
-        <v>6918</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="2380" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2380" s="1" t="s">
-        <v>6919</v>
+        <v>6926</v>
       </c>
       <c r="C2380" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D2380" s="1" t="s">
-        <v>2</v>
+        <v>6927</v>
+      </c>
+      <c r="D2380" s="1">
+        <v>68000</v>
       </c>
       <c r="L2380" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q2380" t="s">
-        <v>6921</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="2381" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2381" s="1" t="s">
-        <v>6922</v>
+        <v>3494</v>
       </c>
       <c r="C2381" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D2381" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D2381" s="1">
+        <v>68000</v>
       </c>
       <c r="E2381" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2381" t="s">
         <v>2426</v>
       </c>
       <c r="L2381" t="s">
-        <v>542</v>
-      </c>
-      <c r="M2381" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q2381" t="s">
-        <v>6923</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="2382" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2382" s="1" t="s">
-        <v>6924</v>
+        <v>3497</v>
       </c>
       <c r="C2382" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D2382" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D2382" s="1">
+        <v>68000</v>
       </c>
       <c r="E2382" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2382" t="s">
         <v>2426</v>
       </c>
       <c r="L2382" t="s">
-        <v>542</v>
-      </c>
-      <c r="M2382" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q2382" t="s">
-        <v>6925</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="2383" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2383" s="1" t="s">
-        <v>6926</v>
+        <v>3498</v>
       </c>
       <c r="C2383" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D2383" s="1">
         <v>68000</v>
       </c>
+      <c r="E2383" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2383" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q2383" t="s">
-        <v>6928</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="2384" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2384" s="1" t="s">
-        <v>3494</v>
+        <v>3500</v>
       </c>
       <c r="C2384" t="s">
         <v>3495</v>
@@ -77160,12 +77170,12 @@
         <v>5549</v>
       </c>
       <c r="Q2384" t="s">
-        <v>3496</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="2385" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2385" s="1" t="s">
-        <v>3497</v>
+        <v>3502</v>
       </c>
       <c r="C2385" t="s">
         <v>3495</v>
@@ -77180,12 +77190,12 @@
         <v>5549</v>
       </c>
       <c r="Q2385" t="s">
-        <v>4587</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="2386" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2386" s="1" t="s">
-        <v>3498</v>
+        <v>3504</v>
       </c>
       <c r="C2386" t="s">
         <v>3495</v>
@@ -77200,12 +77210,12 @@
         <v>5549</v>
       </c>
       <c r="Q2386" t="s">
-        <v>3499</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="2387" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2387" s="1" t="s">
-        <v>3500</v>
+        <v>3506</v>
       </c>
       <c r="C2387" t="s">
         <v>3495</v>
@@ -77220,12 +77230,12 @@
         <v>5549</v>
       </c>
       <c r="Q2387" t="s">
-        <v>3501</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="2388" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2388" s="1" t="s">
-        <v>3502</v>
+        <v>6930</v>
       </c>
       <c r="C2388" t="s">
         <v>3495</v>
@@ -77240,12 +77250,12 @@
         <v>5549</v>
       </c>
       <c r="Q2388" t="s">
-        <v>3503</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="2389" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2389" s="1" t="s">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="C2389" t="s">
         <v>3495</v>
@@ -77260,12 +77270,12 @@
         <v>5549</v>
       </c>
       <c r="Q2389" t="s">
-        <v>3505</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="2390" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2390" s="1" t="s">
-        <v>3506</v>
+        <v>3508</v>
       </c>
       <c r="C2390" t="s">
         <v>3495</v>
@@ -77280,12 +77290,12 @@
         <v>5549</v>
       </c>
       <c r="Q2390" t="s">
-        <v>6929</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="2391" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2391" s="1" t="s">
-        <v>6930</v>
+        <v>3510</v>
       </c>
       <c r="C2391" t="s">
         <v>3495</v>
@@ -77300,12 +77310,12 @@
         <v>5549</v>
       </c>
       <c r="Q2391" t="s">
-        <v>6931</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="2392" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2392" s="1" t="s">
-        <v>3507</v>
+        <v>3512</v>
       </c>
       <c r="C2392" t="s">
         <v>3495</v>
@@ -77320,12 +77330,12 @@
         <v>5549</v>
       </c>
       <c r="Q2392" t="s">
-        <v>4952</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="2393" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2393" s="1" t="s">
-        <v>3508</v>
+        <v>3514</v>
       </c>
       <c r="C2393" t="s">
         <v>3495</v>
@@ -77340,12 +77350,12 @@
         <v>5549</v>
       </c>
       <c r="Q2393" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="2394" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2394" s="1" t="s">
-        <v>3510</v>
+        <v>3516</v>
       </c>
       <c r="C2394" t="s">
         <v>3495</v>
@@ -77360,12 +77370,12 @@
         <v>5549</v>
       </c>
       <c r="Q2394" t="s">
-        <v>3511</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="2395" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2395" s="1" t="s">
-        <v>3512</v>
+        <v>3518</v>
       </c>
       <c r="C2395" t="s">
         <v>3495</v>
@@ -77380,12 +77390,12 @@
         <v>5549</v>
       </c>
       <c r="Q2395" t="s">
-        <v>3513</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2396" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2396" s="1" t="s">
-        <v>3514</v>
+        <v>3519</v>
       </c>
       <c r="C2396" t="s">
         <v>3495</v>
@@ -77400,12 +77410,12 @@
         <v>5549</v>
       </c>
       <c r="Q2396" t="s">
-        <v>3515</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="2397" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2397" s="1" t="s">
-        <v>3516</v>
+        <v>3520</v>
       </c>
       <c r="C2397" t="s">
         <v>3495</v>
@@ -77420,12 +77430,12 @@
         <v>5549</v>
       </c>
       <c r="Q2397" t="s">
-        <v>3517</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="2398" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2398" s="1" t="s">
-        <v>3518</v>
+        <v>3522</v>
       </c>
       <c r="C2398" t="s">
         <v>3495</v>
@@ -77440,12 +77450,12 @@
         <v>5549</v>
       </c>
       <c r="Q2398" t="s">
-        <v>4953</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="2399" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2399" s="1" t="s">
-        <v>3519</v>
+        <v>3524</v>
       </c>
       <c r="C2399" t="s">
         <v>3495</v>
@@ -77460,12 +77470,12 @@
         <v>5549</v>
       </c>
       <c r="Q2399" t="s">
-        <v>4954</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="2400" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2400" s="1" t="s">
-        <v>3520</v>
+        <v>3526</v>
       </c>
       <c r="C2400" t="s">
         <v>3495</v>
@@ -77480,12 +77490,12 @@
         <v>5549</v>
       </c>
       <c r="Q2400" t="s">
-        <v>3521</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="2401" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2401" s="1" t="s">
-        <v>3522</v>
+        <v>3528</v>
       </c>
       <c r="C2401" t="s">
         <v>3495</v>
@@ -77500,12 +77510,12 @@
         <v>5549</v>
       </c>
       <c r="Q2401" t="s">
-        <v>3523</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="2402" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2402" s="1" t="s">
-        <v>3524</v>
+        <v>3530</v>
       </c>
       <c r="C2402" t="s">
         <v>3495</v>
@@ -77520,12 +77530,12 @@
         <v>5549</v>
       </c>
       <c r="Q2402" t="s">
-        <v>3525</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="2403" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2403" s="1" t="s">
-        <v>3526</v>
+        <v>3532</v>
       </c>
       <c r="C2403" t="s">
         <v>3495</v>
@@ -77540,12 +77550,12 @@
         <v>5549</v>
       </c>
       <c r="Q2403" t="s">
-        <v>3527</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="2404" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2404" s="1" t="s">
-        <v>3528</v>
+        <v>3533</v>
       </c>
       <c r="C2404" t="s">
         <v>3495</v>
@@ -77560,12 +77570,12 @@
         <v>5549</v>
       </c>
       <c r="Q2404" t="s">
-        <v>3529</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="2405" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2405" s="1" t="s">
-        <v>3530</v>
+        <v>3535</v>
       </c>
       <c r="C2405" t="s">
         <v>3495</v>
@@ -77580,12 +77590,12 @@
         <v>5549</v>
       </c>
       <c r="Q2405" t="s">
-        <v>3531</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="2406" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2406" s="1" t="s">
-        <v>3532</v>
+        <v>3537</v>
       </c>
       <c r="C2406" t="s">
         <v>3495</v>
@@ -77600,12 +77610,12 @@
         <v>5549</v>
       </c>
       <c r="Q2406" t="s">
-        <v>4955</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="2407" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2407" s="1" t="s">
-        <v>3533</v>
+        <v>3539</v>
       </c>
       <c r="C2407" t="s">
         <v>3495</v>
@@ -77620,12 +77630,12 @@
         <v>5549</v>
       </c>
       <c r="Q2407" t="s">
-        <v>3534</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="2408" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2408" s="1" t="s">
-        <v>3535</v>
+        <v>3540</v>
       </c>
       <c r="C2408" t="s">
         <v>3495</v>
@@ -77640,12 +77650,12 @@
         <v>5549</v>
       </c>
       <c r="Q2408" t="s">
-        <v>3536</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="2409" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2409" s="1" t="s">
-        <v>3537</v>
+        <v>3541</v>
       </c>
       <c r="C2409" t="s">
         <v>3495</v>
@@ -77660,12 +77670,12 @@
         <v>5549</v>
       </c>
       <c r="Q2409" t="s">
-        <v>3538</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2410" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2410" s="1" t="s">
-        <v>3539</v>
+        <v>3542</v>
       </c>
       <c r="C2410" t="s">
         <v>3495</v>
@@ -77680,12 +77690,12 @@
         <v>5549</v>
       </c>
       <c r="Q2410" t="s">
-        <v>4956</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="2411" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2411" s="1" t="s">
-        <v>3540</v>
+        <v>3544</v>
       </c>
       <c r="C2411" t="s">
         <v>3495</v>
@@ -77700,12 +77710,12 @@
         <v>5549</v>
       </c>
       <c r="Q2411" t="s">
-        <v>4588</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="2412" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2412" s="1" t="s">
-        <v>3541</v>
+        <v>3546</v>
       </c>
       <c r="C2412" t="s">
         <v>3495</v>
@@ -77720,12 +77730,12 @@
         <v>5549</v>
       </c>
       <c r="Q2412" t="s">
-        <v>4589</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="2413" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2413" s="1" t="s">
-        <v>3542</v>
+        <v>3547</v>
       </c>
       <c r="C2413" t="s">
         <v>3495</v>
@@ -77740,12 +77750,12 @@
         <v>5549</v>
       </c>
       <c r="Q2413" t="s">
-        <v>3543</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="2414" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2414" s="1" t="s">
-        <v>3544</v>
+        <v>3549</v>
       </c>
       <c r="C2414" t="s">
         <v>3495</v>
@@ -77760,12 +77770,12 @@
         <v>5549</v>
       </c>
       <c r="Q2414" t="s">
-        <v>3545</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="2415" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2415" s="1" t="s">
-        <v>3546</v>
+        <v>3550</v>
       </c>
       <c r="C2415" t="s">
         <v>3495</v>
@@ -77780,12 +77790,12 @@
         <v>5549</v>
       </c>
       <c r="Q2415" t="s">
-        <v>4957</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="2416" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2416" s="1" t="s">
-        <v>3547</v>
+        <v>3552</v>
       </c>
       <c r="C2416" t="s">
         <v>3495</v>
@@ -77800,12 +77810,12 @@
         <v>5549</v>
       </c>
       <c r="Q2416" t="s">
-        <v>3548</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="2417" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2417" s="1" t="s">
-        <v>3549</v>
+        <v>3554</v>
       </c>
       <c r="C2417" t="s">
         <v>3495</v>
@@ -77820,12 +77830,12 @@
         <v>5549</v>
       </c>
       <c r="Q2417" t="s">
-        <v>4590</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="2418" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2418" s="1" t="s">
-        <v>3550</v>
+        <v>3555</v>
       </c>
       <c r="C2418" t="s">
         <v>3495</v>
@@ -77840,12 +77850,12 @@
         <v>5549</v>
       </c>
       <c r="Q2418" t="s">
-        <v>3551</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="2419" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2419" s="1" t="s">
-        <v>3552</v>
+        <v>3556</v>
       </c>
       <c r="C2419" t="s">
         <v>3495</v>
@@ -77860,12 +77870,12 @@
         <v>5549</v>
       </c>
       <c r="Q2419" t="s">
-        <v>3553</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="2420" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2420" s="1" t="s">
-        <v>3554</v>
+        <v>3558</v>
       </c>
       <c r="C2420" t="s">
         <v>3495</v>
@@ -77880,12 +77890,12 @@
         <v>5549</v>
       </c>
       <c r="Q2420" t="s">
-        <v>4958</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="2421" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2421" s="1" t="s">
-        <v>3555</v>
+        <v>3559</v>
       </c>
       <c r="C2421" t="s">
         <v>3495</v>
@@ -77900,12 +77910,12 @@
         <v>5549</v>
       </c>
       <c r="Q2421" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="2422" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2422" s="1" t="s">
-        <v>3556</v>
+        <v>3560</v>
       </c>
       <c r="C2422" t="s">
         <v>3495</v>
@@ -77920,12 +77930,12 @@
         <v>5549</v>
       </c>
       <c r="Q2422" t="s">
-        <v>3557</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="2423" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2423" s="1" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="C2423" t="s">
         <v>3495</v>
@@ -77940,12 +77950,12 @@
         <v>5549</v>
       </c>
       <c r="Q2423" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="2424" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2424" s="1" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="C2424" t="s">
         <v>3495</v>
@@ -77960,12 +77970,12 @@
         <v>5549</v>
       </c>
       <c r="Q2424" t="s">
-        <v>4592</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="2425" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2425" s="1" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
       <c r="C2425" t="s">
         <v>3495</v>
@@ -77980,12 +77990,12 @@
         <v>5549</v>
       </c>
       <c r="Q2425" t="s">
-        <v>4593</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2426" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2426" s="1" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="C2426" t="s">
         <v>3495</v>
@@ -78000,12 +78010,12 @@
         <v>5549</v>
       </c>
       <c r="Q2426" t="s">
-        <v>4960</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="2427" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2427" s="1" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="C2427" t="s">
         <v>3495</v>
@@ -78020,12 +78030,12 @@
         <v>5549</v>
       </c>
       <c r="Q2427" t="s">
-        <v>4594</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="2428" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2428" s="1" t="s">
-        <v>3563</v>
+        <v>3567</v>
       </c>
       <c r="C2428" t="s">
         <v>3495</v>
@@ -78040,12 +78050,12 @@
         <v>5549</v>
       </c>
       <c r="Q2428" t="s">
-        <v>4961</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="2429" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2429" s="1" t="s">
-        <v>3564</v>
+        <v>3569</v>
       </c>
       <c r="C2429" t="s">
         <v>3495</v>
@@ -78060,12 +78070,12 @@
         <v>5549</v>
       </c>
       <c r="Q2429" t="s">
-        <v>4962</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="2430" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2430" s="1" t="s">
-        <v>3565</v>
+        <v>3571</v>
       </c>
       <c r="C2430" t="s">
         <v>3495</v>
@@ -78080,12 +78090,12 @@
         <v>5549</v>
       </c>
       <c r="Q2430" t="s">
-        <v>3566</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="2431" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2431" s="1" t="s">
-        <v>3567</v>
+        <v>3572</v>
       </c>
       <c r="C2431" t="s">
         <v>3495</v>
@@ -78100,12 +78110,12 @@
         <v>5549</v>
       </c>
       <c r="Q2431" t="s">
-        <v>3568</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="2432" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2432" s="1" t="s">
-        <v>3569</v>
+        <v>3574</v>
       </c>
       <c r="C2432" t="s">
         <v>3495</v>
@@ -78120,12 +78130,12 @@
         <v>5549</v>
       </c>
       <c r="Q2432" t="s">
-        <v>3570</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="2433" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2433" s="1" t="s">
-        <v>3571</v>
+        <v>3576</v>
       </c>
       <c r="C2433" t="s">
         <v>3495</v>
@@ -78140,12 +78150,12 @@
         <v>5549</v>
       </c>
       <c r="Q2433" t="s">
-        <v>4595</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="2434" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2434" s="1" t="s">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="C2434" t="s">
         <v>3495</v>
@@ -78160,12 +78170,12 @@
         <v>5549</v>
       </c>
       <c r="Q2434" t="s">
-        <v>3573</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="2435" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2435" s="1" t="s">
-        <v>3574</v>
+        <v>3579</v>
       </c>
       <c r="C2435" t="s">
         <v>3495</v>
@@ -78180,12 +78190,12 @@
         <v>5549</v>
       </c>
       <c r="Q2435" t="s">
-        <v>3575</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="2436" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2436" s="1" t="s">
-        <v>3576</v>
+        <v>3580</v>
       </c>
       <c r="C2436" t="s">
         <v>3495</v>
@@ -78200,12 +78210,12 @@
         <v>5549</v>
       </c>
       <c r="Q2436" t="s">
-        <v>4963</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2437" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2437" s="1" t="s">
-        <v>3577</v>
+        <v>3581</v>
       </c>
       <c r="C2437" t="s">
         <v>3495</v>
@@ -78220,12 +78230,12 @@
         <v>5549</v>
       </c>
       <c r="Q2437" t="s">
-        <v>3578</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="2438" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2438" s="1" t="s">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="C2438" t="s">
         <v>3495</v>
@@ -78240,12 +78250,12 @@
         <v>5549</v>
       </c>
       <c r="Q2438" t="s">
-        <v>4964</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="2439" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2439" s="1" t="s">
-        <v>3580</v>
+        <v>3583</v>
       </c>
       <c r="C2439" t="s">
         <v>3495</v>
@@ -78260,12 +78270,12 @@
         <v>5549</v>
       </c>
       <c r="Q2439" t="s">
-        <v>4965</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="2440" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2440" s="1" t="s">
-        <v>3581</v>
+        <v>3584</v>
       </c>
       <c r="C2440" t="s">
         <v>3495</v>
@@ -78280,12 +78290,12 @@
         <v>5549</v>
       </c>
       <c r="Q2440" t="s">
-        <v>4596</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2441" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2441" s="1" t="s">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="C2441" t="s">
         <v>3495</v>
@@ -78300,12 +78310,12 @@
         <v>5549</v>
       </c>
       <c r="Q2441" t="s">
-        <v>4966</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="2442" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2442" s="1" t="s">
-        <v>3583</v>
+        <v>3587</v>
       </c>
       <c r="C2442" t="s">
         <v>3495</v>
@@ -78320,12 +78330,12 @@
         <v>5549</v>
       </c>
       <c r="Q2442" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="2443" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2443" s="1" t="s">
-        <v>3584</v>
+        <v>3588</v>
       </c>
       <c r="C2443" t="s">
         <v>3495</v>
@@ -78340,12 +78350,12 @@
         <v>5549</v>
       </c>
       <c r="Q2443" t="s">
-        <v>4967</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="2444" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2444" s="1" t="s">
-        <v>3585</v>
+        <v>3589</v>
       </c>
       <c r="C2444" t="s">
         <v>3495</v>
@@ -78360,12 +78370,12 @@
         <v>5549</v>
       </c>
       <c r="Q2444" t="s">
-        <v>3586</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="2445" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2445" s="1" t="s">
-        <v>3587</v>
+        <v>3591</v>
       </c>
       <c r="C2445" t="s">
         <v>3495</v>
@@ -78380,12 +78390,12 @@
         <v>5549</v>
       </c>
       <c r="Q2445" t="s">
-        <v>4598</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="2446" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2446" s="1" t="s">
-        <v>3588</v>
+        <v>3593</v>
       </c>
       <c r="C2446" t="s">
         <v>3495</v>
@@ -78400,12 +78410,12 @@
         <v>5549</v>
       </c>
       <c r="Q2446" t="s">
-        <v>4968</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="2447" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2447" s="1" t="s">
-        <v>3589</v>
+        <v>3594</v>
       </c>
       <c r="C2447" t="s">
         <v>3495</v>
@@ -78420,12 +78430,12 @@
         <v>5549</v>
       </c>
       <c r="Q2447" t="s">
-        <v>3590</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="2448" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2448" s="1" t="s">
-        <v>3591</v>
+        <v>3596</v>
       </c>
       <c r="C2448" t="s">
         <v>3495</v>
@@ -78440,12 +78450,12 @@
         <v>5549</v>
       </c>
       <c r="Q2448" t="s">
-        <v>3592</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="2449" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2449" s="1" t="s">
-        <v>3593</v>
+        <v>3597</v>
       </c>
       <c r="C2449" t="s">
         <v>3495</v>
@@ -78460,12 +78470,12 @@
         <v>5549</v>
       </c>
       <c r="Q2449" t="s">
-        <v>4969</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="2450" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2450" s="1" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="C2450" t="s">
         <v>3495</v>
@@ -78480,12 +78490,12 @@
         <v>5549</v>
       </c>
       <c r="Q2450" t="s">
-        <v>3595</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="2451" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2451" s="1" t="s">
-        <v>3596</v>
+        <v>3599</v>
       </c>
       <c r="C2451" t="s">
         <v>3495</v>
@@ -78500,12 +78510,12 @@
         <v>5549</v>
       </c>
       <c r="Q2451" t="s">
-        <v>4970</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2452" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2452" s="1" t="s">
-        <v>3597</v>
+        <v>3600</v>
       </c>
       <c r="C2452" t="s">
         <v>3495</v>
@@ -78520,12 +78530,12 @@
         <v>5549</v>
       </c>
       <c r="Q2452" t="s">
-        <v>4599</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="2453" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2453" s="1" t="s">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="C2453" t="s">
         <v>3495</v>
@@ -78540,12 +78550,12 @@
         <v>5549</v>
       </c>
       <c r="Q2453" t="s">
-        <v>4600</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="2454" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2454" s="1" t="s">
-        <v>3599</v>
+        <v>3603</v>
       </c>
       <c r="C2454" t="s">
         <v>3495</v>
@@ -78560,12 +78570,12 @@
         <v>5549</v>
       </c>
       <c r="Q2454" t="s">
-        <v>4971</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2455" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2455" s="1" t="s">
-        <v>3600</v>
+        <v>3604</v>
       </c>
       <c r="C2455" t="s">
         <v>3495</v>
@@ -78580,12 +78590,12 @@
         <v>5549</v>
       </c>
       <c r="Q2455" t="s">
-        <v>4972</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2456" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2456" s="1" t="s">
-        <v>3601</v>
+        <v>6932</v>
       </c>
       <c r="C2456" t="s">
         <v>3495</v>
@@ -78600,12 +78610,12 @@
         <v>5549</v>
       </c>
       <c r="Q2456" t="s">
-        <v>3602</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="2457" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2457" s="1" t="s">
-        <v>3603</v>
+        <v>3607</v>
       </c>
       <c r="C2457" t="s">
         <v>3495</v>
@@ -78620,12 +78630,12 @@
         <v>5549</v>
       </c>
       <c r="Q2457" t="s">
-        <v>4973</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="2458" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2458" s="1" t="s">
-        <v>3604</v>
+        <v>3609</v>
       </c>
       <c r="C2458" t="s">
         <v>3495</v>
@@ -78640,12 +78650,12 @@
         <v>5549</v>
       </c>
       <c r="Q2458" t="s">
-        <v>3605</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="2459" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2459" s="1" t="s">
-        <v>6932</v>
+        <v>3611</v>
       </c>
       <c r="C2459" t="s">
         <v>3495</v>
@@ -78660,12 +78670,12 @@
         <v>5549</v>
       </c>
       <c r="Q2459" t="s">
-        <v>4974</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="2460" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2460" s="1" t="s">
-        <v>3607</v>
+        <v>3612</v>
       </c>
       <c r="C2460" t="s">
         <v>3495</v>
@@ -78680,12 +78690,12 @@
         <v>5549</v>
       </c>
       <c r="Q2460" t="s">
-        <v>3608</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="2461" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2461" s="1" t="s">
-        <v>3609</v>
+        <v>3613</v>
       </c>
       <c r="C2461" t="s">
         <v>3495</v>
@@ -78700,12 +78710,12 @@
         <v>5549</v>
       </c>
       <c r="Q2461" t="s">
-        <v>3610</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="2462" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2462" s="1" t="s">
-        <v>3611</v>
+        <v>3615</v>
       </c>
       <c r="C2462" t="s">
         <v>3495</v>
@@ -78720,12 +78730,12 @@
         <v>5549</v>
       </c>
       <c r="Q2462" t="s">
-        <v>4975</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="2463" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2463" s="1" t="s">
-        <v>3612</v>
+        <v>3617</v>
       </c>
       <c r="C2463" t="s">
         <v>3495</v>
@@ -78740,12 +78750,12 @@
         <v>5549</v>
       </c>
       <c r="Q2463" t="s">
-        <v>4976</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2464" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2464" s="1" t="s">
-        <v>3613</v>
+        <v>3618</v>
       </c>
       <c r="C2464" t="s">
         <v>3495</v>
@@ -78760,12 +78770,12 @@
         <v>5549</v>
       </c>
       <c r="Q2464" t="s">
-        <v>3614</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="2465" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2465" s="1" t="s">
-        <v>3615</v>
+        <v>3620</v>
       </c>
       <c r="C2465" t="s">
         <v>3495</v>
@@ -78780,12 +78790,12 @@
         <v>5549</v>
       </c>
       <c r="Q2465" t="s">
-        <v>3616</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="2466" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2466" s="1" t="s">
-        <v>3617</v>
+        <v>3621</v>
       </c>
       <c r="C2466" t="s">
         <v>3495</v>
@@ -78800,12 +78810,12 @@
         <v>5549</v>
       </c>
       <c r="Q2466" t="s">
-        <v>4977</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2467" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2467" s="1" t="s">
-        <v>3618</v>
+        <v>3622</v>
       </c>
       <c r="C2467" t="s">
         <v>3495</v>
@@ -78820,12 +78830,12 @@
         <v>5549</v>
       </c>
       <c r="Q2467" t="s">
-        <v>3619</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="2468" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2468" s="1" t="s">
-        <v>3620</v>
+        <v>3623</v>
       </c>
       <c r="C2468" t="s">
         <v>3495</v>
@@ -78840,12 +78850,12 @@
         <v>5549</v>
       </c>
       <c r="Q2468" t="s">
-        <v>4978</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="2469" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2469" s="1" t="s">
-        <v>3621</v>
+        <v>3624</v>
       </c>
       <c r="C2469" t="s">
         <v>3495</v>
@@ -78860,12 +78870,12 @@
         <v>5549</v>
       </c>
       <c r="Q2469" t="s">
-        <v>4979</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="2470" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2470" s="1" t="s">
-        <v>3622</v>
+        <v>3625</v>
       </c>
       <c r="C2470" t="s">
         <v>3495</v>
@@ -78880,12 +78890,12 @@
         <v>5549</v>
       </c>
       <c r="Q2470" t="s">
-        <v>4980</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="2471" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2471" s="1" t="s">
-        <v>3623</v>
+        <v>3626</v>
       </c>
       <c r="C2471" t="s">
         <v>3495</v>
@@ -78900,12 +78910,12 @@
         <v>5549</v>
       </c>
       <c r="Q2471" t="s">
-        <v>4601</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="2472" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2472" s="1" t="s">
-        <v>3624</v>
+        <v>3628</v>
       </c>
       <c r="C2472" t="s">
         <v>3495</v>
@@ -78920,12 +78930,12 @@
         <v>5549</v>
       </c>
       <c r="Q2472" t="s">
-        <v>4981</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="2473" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2473" s="1" t="s">
-        <v>3625</v>
+        <v>3629</v>
       </c>
       <c r="C2473" t="s">
         <v>3495</v>
@@ -78940,12 +78950,12 @@
         <v>5549</v>
       </c>
       <c r="Q2473" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="2474" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2474" s="1" t="s">
-        <v>3626</v>
+        <v>3630</v>
       </c>
       <c r="C2474" t="s">
         <v>3495</v>
@@ -78960,12 +78970,12 @@
         <v>5549</v>
       </c>
       <c r="Q2474" t="s">
-        <v>3627</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="2475" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2475" s="1" t="s">
-        <v>3628</v>
+        <v>3632</v>
       </c>
       <c r="C2475" t="s">
         <v>3495</v>
@@ -78980,12 +78990,12 @@
         <v>5549</v>
       </c>
       <c r="Q2475" t="s">
-        <v>4982</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="2476" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2476" s="1" t="s">
-        <v>3629</v>
+        <v>3633</v>
       </c>
       <c r="C2476" t="s">
         <v>3495</v>
@@ -79000,12 +79010,12 @@
         <v>5549</v>
       </c>
       <c r="Q2476" t="s">
-        <v>4603</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="2477" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2477" s="1" t="s">
-        <v>3630</v>
+        <v>3635</v>
       </c>
       <c r="C2477" t="s">
         <v>3495</v>
@@ -79020,12 +79030,12 @@
         <v>5549</v>
       </c>
       <c r="Q2477" t="s">
-        <v>3631</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="2478" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2478" s="1" t="s">
-        <v>3632</v>
+        <v>3637</v>
       </c>
       <c r="C2478" t="s">
         <v>3495</v>
@@ -79040,12 +79050,12 @@
         <v>5549</v>
       </c>
       <c r="Q2478" t="s">
-        <v>4983</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="2479" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2479" s="1" t="s">
-        <v>3633</v>
+        <v>3638</v>
       </c>
       <c r="C2479" t="s">
         <v>3495</v>
@@ -79060,12 +79070,12 @@
         <v>5549</v>
       </c>
       <c r="Q2479" t="s">
-        <v>3634</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="2480" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2480" s="1" t="s">
-        <v>3635</v>
+        <v>3640</v>
       </c>
       <c r="C2480" t="s">
         <v>3495</v>
@@ -79080,12 +79090,12 @@
         <v>5549</v>
       </c>
       <c r="Q2480" t="s">
-        <v>3636</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="2481" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2481" s="1" t="s">
-        <v>3637</v>
+        <v>3641</v>
       </c>
       <c r="C2481" t="s">
         <v>3495</v>
@@ -79100,12 +79110,12 @@
         <v>5549</v>
       </c>
       <c r="Q2481" t="s">
-        <v>4604</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2482" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2482" s="1" t="s">
-        <v>3638</v>
+        <v>3642</v>
       </c>
       <c r="C2482" t="s">
         <v>3495</v>
@@ -79120,12 +79130,12 @@
         <v>5549</v>
       </c>
       <c r="Q2482" t="s">
-        <v>3639</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="2483" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2483" s="1" t="s">
-        <v>3640</v>
+        <v>3643</v>
       </c>
       <c r="C2483" t="s">
         <v>3495</v>
@@ -79140,12 +79150,12 @@
         <v>5549</v>
       </c>
       <c r="Q2483" t="s">
-        <v>4984</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="2484" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2484" s="1" t="s">
-        <v>3641</v>
+        <v>3644</v>
       </c>
       <c r="C2484" t="s">
         <v>3495</v>
@@ -79160,12 +79170,12 @@
         <v>5549</v>
       </c>
       <c r="Q2484" t="s">
-        <v>4985</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2485" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2485" s="1" t="s">
-        <v>3642</v>
+        <v>3645</v>
       </c>
       <c r="C2485" t="s">
         <v>3495</v>
@@ -79180,12 +79190,12 @@
         <v>5549</v>
       </c>
       <c r="Q2485" t="s">
-        <v>4605</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="2486" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2486" s="1" t="s">
-        <v>3643</v>
+        <v>3647</v>
       </c>
       <c r="C2486" t="s">
         <v>3495</v>
@@ -79200,12 +79210,12 @@
         <v>5549</v>
       </c>
       <c r="Q2486" t="s">
-        <v>4986</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="2487" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2487" s="1" t="s">
-        <v>3644</v>
+        <v>3648</v>
       </c>
       <c r="C2487" t="s">
         <v>3495</v>
@@ -79220,12 +79230,12 @@
         <v>5549</v>
       </c>
       <c r="Q2487" t="s">
-        <v>4987</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2488" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2488" s="1" t="s">
-        <v>3645</v>
+        <v>3649</v>
       </c>
       <c r="C2488" t="s">
         <v>3495</v>
@@ -79240,12 +79250,12 @@
         <v>5549</v>
       </c>
       <c r="Q2488" t="s">
-        <v>3646</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="2489" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2489" s="1" t="s">
-        <v>3647</v>
+        <v>3651</v>
       </c>
       <c r="C2489" t="s">
         <v>3495</v>
@@ -79260,12 +79270,12 @@
         <v>5549</v>
       </c>
       <c r="Q2489" t="s">
-        <v>4988</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="2490" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2490" s="1" t="s">
-        <v>3648</v>
+        <v>3653</v>
       </c>
       <c r="C2490" t="s">
         <v>3495</v>
@@ -79280,12 +79290,12 @@
         <v>5549</v>
       </c>
       <c r="Q2490" t="s">
-        <v>4989</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="2491" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2491" s="1" t="s">
-        <v>3649</v>
+        <v>3655</v>
       </c>
       <c r="C2491" t="s">
         <v>3495</v>
@@ -79300,12 +79310,12 @@
         <v>5549</v>
       </c>
       <c r="Q2491" t="s">
-        <v>3650</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="2492" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2492" s="1" t="s">
-        <v>3651</v>
+        <v>3657</v>
       </c>
       <c r="C2492" t="s">
         <v>3495</v>
@@ -79320,12 +79330,12 @@
         <v>5549</v>
       </c>
       <c r="Q2492" t="s">
-        <v>3652</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="2493" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2493" s="1" t="s">
-        <v>3653</v>
+        <v>3658</v>
       </c>
       <c r="C2493" t="s">
         <v>3495</v>
@@ -79340,12 +79350,12 @@
         <v>5549</v>
       </c>
       <c r="Q2493" t="s">
-        <v>3654</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="2494" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2494" s="1" t="s">
-        <v>3655</v>
+        <v>3660</v>
       </c>
       <c r="C2494" t="s">
         <v>3495</v>
@@ -79360,12 +79370,12 @@
         <v>5549</v>
       </c>
       <c r="Q2494" t="s">
-        <v>3656</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="2495" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2495" s="1" t="s">
-        <v>3657</v>
+        <v>3662</v>
       </c>
       <c r="C2495" t="s">
         <v>3495</v>
@@ -79380,12 +79390,12 @@
         <v>5549</v>
       </c>
       <c r="Q2495" t="s">
-        <v>4990</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2496" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2496" s="1" t="s">
-        <v>3658</v>
+        <v>3663</v>
       </c>
       <c r="C2496" t="s">
         <v>3495</v>
@@ -79400,12 +79410,12 @@
         <v>5549</v>
       </c>
       <c r="Q2496" t="s">
-        <v>3659</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="2497" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2497" s="1" t="s">
-        <v>3660</v>
+        <v>3665</v>
       </c>
       <c r="C2497" t="s">
         <v>3495</v>
@@ -79420,12 +79430,12 @@
         <v>5549</v>
       </c>
       <c r="Q2497" t="s">
-        <v>3661</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="2498" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2498" s="1" t="s">
-        <v>3662</v>
+        <v>3666</v>
       </c>
       <c r="C2498" t="s">
         <v>3495</v>
@@ -79440,12 +79450,12 @@
         <v>5549</v>
       </c>
       <c r="Q2498" t="s">
-        <v>4991</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="2499" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2499" s="1" t="s">
-        <v>3663</v>
+        <v>3668</v>
       </c>
       <c r="C2499" t="s">
         <v>3495</v>
@@ -79460,12 +79470,12 @@
         <v>5549</v>
       </c>
       <c r="Q2499" t="s">
-        <v>3664</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="2500" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2500" s="1" t="s">
-        <v>3665</v>
+        <v>3670</v>
       </c>
       <c r="C2500" t="s">
         <v>3495</v>
@@ -79480,12 +79490,12 @@
         <v>5549</v>
       </c>
       <c r="Q2500" t="s">
-        <v>4992</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="2501" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2501" s="1" t="s">
-        <v>3666</v>
+        <v>3672</v>
       </c>
       <c r="C2501" t="s">
         <v>3495</v>
@@ -79500,12 +79510,12 @@
         <v>5549</v>
       </c>
       <c r="Q2501" t="s">
-        <v>3667</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="2502" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2502" s="1" t="s">
-        <v>3668</v>
+        <v>3674</v>
       </c>
       <c r="C2502" t="s">
         <v>3495</v>
@@ -79520,12 +79530,12 @@
         <v>5549</v>
       </c>
       <c r="Q2502" t="s">
-        <v>3669</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="2503" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2503" s="1" t="s">
-        <v>3670</v>
+        <v>3675</v>
       </c>
       <c r="C2503" t="s">
         <v>3495</v>
@@ -79540,12 +79550,12 @@
         <v>5549</v>
       </c>
       <c r="Q2503" t="s">
-        <v>3671</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="2504" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2504" s="1" t="s">
-        <v>3672</v>
+        <v>3676</v>
       </c>
       <c r="C2504" t="s">
         <v>3495</v>
@@ -79560,12 +79570,12 @@
         <v>5549</v>
       </c>
       <c r="Q2504" t="s">
-        <v>3673</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="2505" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2505" s="1" t="s">
-        <v>3674</v>
+        <v>3677</v>
       </c>
       <c r="C2505" t="s">
         <v>3495</v>
@@ -79580,12 +79590,12 @@
         <v>5549</v>
       </c>
       <c r="Q2505" t="s">
-        <v>4993</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="2506" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2506" s="1" t="s">
-        <v>3675</v>
+        <v>3678</v>
       </c>
       <c r="C2506" t="s">
         <v>3495</v>
@@ -79600,12 +79610,12 @@
         <v>5549</v>
       </c>
       <c r="Q2506" t="s">
-        <v>4994</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="2507" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2507" s="1" t="s">
-        <v>3676</v>
+        <v>3679</v>
       </c>
       <c r="C2507" t="s">
         <v>3495</v>
@@ -79620,12 +79630,12 @@
         <v>5549</v>
       </c>
       <c r="Q2507" t="s">
-        <v>4995</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="2508" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2508" s="1" t="s">
-        <v>3677</v>
+        <v>3681</v>
       </c>
       <c r="C2508" t="s">
         <v>3495</v>
@@ -79640,12 +79650,12 @@
         <v>5549</v>
       </c>
       <c r="Q2508" t="s">
-        <v>4996</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="2509" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2509" s="1" t="s">
-        <v>3678</v>
+        <v>3682</v>
       </c>
       <c r="C2509" t="s">
         <v>3495</v>
@@ -79660,12 +79670,12 @@
         <v>5549</v>
       </c>
       <c r="Q2509" t="s">
-        <v>4997</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="2510" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2510" s="1" t="s">
-        <v>3679</v>
+        <v>6933</v>
       </c>
       <c r="C2510" t="s">
         <v>3495</v>
@@ -79680,12 +79690,12 @@
         <v>5549</v>
       </c>
       <c r="Q2510" t="s">
-        <v>3680</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="2511" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2511" s="1" t="s">
-        <v>3681</v>
+        <v>6935</v>
       </c>
       <c r="C2511" t="s">
         <v>3495</v>
@@ -79700,12 +79710,12 @@
         <v>5549</v>
       </c>
       <c r="Q2511" t="s">
-        <v>4606</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="2512" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2512" s="1" t="s">
-        <v>3682</v>
+        <v>6937</v>
       </c>
       <c r="C2512" t="s">
         <v>3495</v>
@@ -79720,12 +79730,12 @@
         <v>5549</v>
       </c>
       <c r="Q2512" t="s">
-        <v>3683</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="2513" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2513" s="1" t="s">
-        <v>6933</v>
+        <v>6939</v>
       </c>
       <c r="C2513" t="s">
         <v>3495</v>
@@ -79740,12 +79750,12 @@
         <v>5549</v>
       </c>
       <c r="Q2513" t="s">
-        <v>6934</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="2514" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2514" s="1" t="s">
-        <v>6935</v>
+        <v>6941</v>
       </c>
       <c r="C2514" t="s">
         <v>3495</v>
@@ -79760,12 +79770,12 @@
         <v>5549</v>
       </c>
       <c r="Q2514" t="s">
-        <v>6936</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="2515" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2515" s="1" t="s">
-        <v>6937</v>
+        <v>6943</v>
       </c>
       <c r="C2515" t="s">
         <v>3495</v>
@@ -79780,12 +79790,12 @@
         <v>5549</v>
       </c>
       <c r="Q2515" t="s">
-        <v>6938</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="2516" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2516" s="1" t="s">
-        <v>6939</v>
+        <v>6945</v>
       </c>
       <c r="C2516" t="s">
         <v>3495</v>
@@ -79800,12 +79810,12 @@
         <v>5549</v>
       </c>
       <c r="Q2516" t="s">
-        <v>6940</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="2517" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2517" s="1" t="s">
-        <v>6941</v>
+        <v>6947</v>
       </c>
       <c r="C2517" t="s">
         <v>3495</v>
@@ -79820,12 +79830,12 @@
         <v>5549</v>
       </c>
       <c r="Q2517" t="s">
-        <v>6942</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="2518" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2518" s="1" t="s">
-        <v>6943</v>
+        <v>6949</v>
       </c>
       <c r="C2518" t="s">
         <v>3495</v>
@@ -79840,12 +79850,12 @@
         <v>5549</v>
       </c>
       <c r="Q2518" t="s">
-        <v>6944</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="2519" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2519" s="1" t="s">
-        <v>6945</v>
+        <v>6951</v>
       </c>
       <c r="C2519" t="s">
         <v>3495</v>
@@ -79860,12 +79870,12 @@
         <v>5549</v>
       </c>
       <c r="Q2519" t="s">
-        <v>6946</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="2520" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2520" s="1" t="s">
-        <v>6947</v>
+        <v>6953</v>
       </c>
       <c r="C2520" t="s">
         <v>3495</v>
@@ -79880,66 +79890,6 @@
         <v>5549</v>
       </c>
       <c r="Q2520" t="s">
-        <v>6948</v>
-      </c>
-    </row>
-    <row r="2521" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2521" s="1" t="s">
-        <v>6949</v>
-      </c>
-      <c r="C2521" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D2521" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2521" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2521" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q2521" t="s">
-        <v>6950</v>
-      </c>
-    </row>
-    <row r="2522" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2522" s="1" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C2522" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D2522" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2522" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2522" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q2522" t="s">
-        <v>6952</v>
-      </c>
-    </row>
-    <row r="2523" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2523" s="1" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C2523" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D2523" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2523" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2523" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q2523" t="s">
         <v>6954</v>
       </c>
     </row>
@@ -79951,10 +79901,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q466"/>
+  <dimension ref="B1:Q469"/>
   <sheetViews>
     <sheetView topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="A463" sqref="A463:XFD466"/>
+      <selection activeCell="A467" sqref="A467:XFD469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89676,6 +89626,66 @@
         <v>2655</v>
       </c>
     </row>
+    <row r="467" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B467" s="7" t="s">
+        <v>6754</v>
+      </c>
+      <c r="C467" s="8" t="s">
+        <v>6755</v>
+      </c>
+      <c r="D467" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E467" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L467" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q467" s="8" t="s">
+        <v>6756</v>
+      </c>
+    </row>
+    <row r="468" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B468" s="1" t="s">
+        <v>6757</v>
+      </c>
+      <c r="C468" t="s">
+        <v>6755</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E468" t="s">
+        <v>2</v>
+      </c>
+      <c r="L468" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q468" t="s">
+        <v>6758</v>
+      </c>
+    </row>
+    <row r="469" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B469" s="7" t="s">
+        <v>6759</v>
+      </c>
+      <c r="C469" s="8" t="s">
+        <v>6755</v>
+      </c>
+      <c r="D469" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E469" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L469" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q469" s="8" t="s">
+        <v>6760</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$2520</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$2519</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25269,10 +25269,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R2520"/>
+  <dimension ref="B1:R2519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2256" workbookViewId="0">
-      <selection activeCell="B2261" sqref="B2261"/>
+    <sheetView tabSelected="1" topLeftCell="A2080" workbookViewId="0">
+      <selection activeCell="B2092" sqref="B2092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71160,29 +71160,32 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="2089" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2089" s="5" t="s">
-        <v>6623</v>
-      </c>
-      <c r="C2089" s="6" t="s">
-        <v>6624</v>
-      </c>
-      <c r="D2089" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2089" s="6" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2089" s="6" t="s">
+    <row r="2089" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2089" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D2089" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2089" t="s">
+        <v>3901</v>
+      </c>
+      <c r="L2089" t="s">
         <v>1155</v>
       </c>
-      <c r="Q2089" s="6" t="s">
-        <v>6625</v>
+      <c r="M2089" t="s">
+        <v>3902</v>
+      </c>
+      <c r="Q2089" t="s">
+        <v>4517</v>
       </c>
     </row>
     <row r="2090" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2090" s="1" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="C2090" t="s">
         <v>3136</v>
@@ -71200,35 +71203,35 @@
         <v>3902</v>
       </c>
       <c r="Q2090" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="2091" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2091" s="1" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="C2091" t="s">
-        <v>3136</v>
+        <v>3139</v>
       </c>
       <c r="D2091" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2091" t="s">
-        <v>3901</v>
+        <v>2426</v>
       </c>
       <c r="L2091" t="s">
-        <v>1155</v>
+        <v>5505</v>
       </c>
       <c r="M2091" t="s">
-        <v>3902</v>
+        <v>3974</v>
       </c>
       <c r="Q2091" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="2092" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2092" s="1" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="C2092" t="s">
         <v>3139</v>
@@ -71246,12 +71249,12 @@
         <v>3974</v>
       </c>
       <c r="Q2092" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="2093" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2093" s="1" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="C2093" t="s">
         <v>3139</v>
@@ -71269,35 +71272,38 @@
         <v>3974</v>
       </c>
       <c r="Q2093" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="2094" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2094" s="1" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="C2094" t="s">
-        <v>3139</v>
+        <v>3143</v>
       </c>
       <c r="D2094" s="1" t="s">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="E2094" t="s">
+        <v>951</v>
+      </c>
+      <c r="F2094" t="s">
         <v>2426</v>
       </c>
       <c r="L2094" t="s">
-        <v>5505</v>
+        <v>5071</v>
       </c>
       <c r="M2094" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q2094" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="2095" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2095" s="1" t="s">
-        <v>3142</v>
+        <v>3144</v>
       </c>
       <c r="C2095" t="s">
         <v>3143</v>
@@ -71318,15 +71324,15 @@
         <v>1687</v>
       </c>
       <c r="Q2095" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="2096" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2096" s="1" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="C2096" t="s">
-        <v>3143</v>
+        <v>3146</v>
       </c>
       <c r="D2096" s="1" t="s">
         <v>951</v>
@@ -71344,12 +71350,12 @@
         <v>1687</v>
       </c>
       <c r="Q2096" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="2097" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2097" s="1" t="s">
-        <v>3145</v>
+        <v>3147</v>
       </c>
       <c r="C2097" t="s">
         <v>3146</v>
@@ -71370,12 +71376,12 @@
         <v>1687</v>
       </c>
       <c r="Q2097" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="2098" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2098" s="1" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="C2098" t="s">
         <v>3146</v>
@@ -71396,23 +71402,20 @@
         <v>1687</v>
       </c>
       <c r="Q2098" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="2099" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2099" s="1" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C2099" t="s">
-        <v>3146</v>
-      </c>
-      <c r="D2099" s="1" t="s">
-        <v>951</v>
+        <v>3150</v>
+      </c>
+      <c r="D2099" s="1">
+        <v>68000</v>
       </c>
       <c r="E2099" t="s">
-        <v>951</v>
-      </c>
-      <c r="F2099" t="s">
         <v>2426</v>
       </c>
       <c r="L2099" t="s">
@@ -71422,15 +71425,15 @@
         <v>1687</v>
       </c>
       <c r="Q2099" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="2100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2100" s="1" t="s">
-        <v>3149</v>
+        <v>3151</v>
       </c>
       <c r="C2100" t="s">
-        <v>3150</v>
+        <v>3152</v>
       </c>
       <c r="D2100" s="1">
         <v>68000</v>
@@ -71439,18 +71442,15 @@
         <v>2426</v>
       </c>
       <c r="L2100" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2100" t="s">
-        <v>1687</v>
+        <v>5238</v>
       </c>
       <c r="Q2100" t="s">
-        <v>4527</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="2101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2101" s="1" t="s">
-        <v>3151</v>
+        <v>3154</v>
       </c>
       <c r="C2101" t="s">
         <v>3152</v>
@@ -71465,12 +71465,12 @@
         <v>5238</v>
       </c>
       <c r="Q2101" t="s">
-        <v>3153</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="2102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2102" s="1" t="s">
-        <v>3154</v>
+        <v>3156</v>
       </c>
       <c r="C2102" t="s">
         <v>3152</v>
@@ -71484,16 +71484,19 @@
       <c r="L2102" t="s">
         <v>5238</v>
       </c>
+      <c r="M2102" t="s">
+        <v>4528</v>
+      </c>
       <c r="Q2102" t="s">
-        <v>3155</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="2103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2103" s="1" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="C2103" t="s">
-        <v>3152</v>
+        <v>3158</v>
       </c>
       <c r="D2103" s="1">
         <v>68000</v>
@@ -71502,18 +71505,18 @@
         <v>2426</v>
       </c>
       <c r="L2103" t="s">
-        <v>5238</v>
+        <v>5071</v>
       </c>
       <c r="M2103" t="s">
-        <v>4528</v>
+        <v>1687</v>
       </c>
       <c r="Q2103" t="s">
-        <v>4529</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="2104" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2104" s="1" t="s">
-        <v>3157</v>
+        <v>6629</v>
       </c>
       <c r="C2104" t="s">
         <v>3158</v>
@@ -71531,12 +71534,12 @@
         <v>1687</v>
       </c>
       <c r="Q2104" t="s">
-        <v>6628</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="2105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2105" s="1" t="s">
-        <v>6629</v>
+        <v>6631</v>
       </c>
       <c r="C2105" t="s">
         <v>3158</v>
@@ -71554,12 +71557,12 @@
         <v>1687</v>
       </c>
       <c r="Q2105" t="s">
-        <v>6630</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="2106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2106" s="1" t="s">
-        <v>6631</v>
+        <v>3159</v>
       </c>
       <c r="C2106" t="s">
         <v>3158</v>
@@ -71577,12 +71580,12 @@
         <v>1687</v>
       </c>
       <c r="Q2106" t="s">
-        <v>6632</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="2107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2107" s="1" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="C2107" t="s">
         <v>3158</v>
@@ -71597,18 +71600,18 @@
         <v>5071</v>
       </c>
       <c r="M2107" t="s">
-        <v>1687</v>
+        <v>3974</v>
       </c>
       <c r="Q2107" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="2108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2108" s="1" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C2108" t="s">
-        <v>3158</v>
+        <v>3162</v>
       </c>
       <c r="D2108" s="1">
         <v>68000</v>
@@ -71620,15 +71623,15 @@
         <v>5071</v>
       </c>
       <c r="M2108" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q2108" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="2109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2109" s="1" t="s">
-        <v>3161</v>
+        <v>3163</v>
       </c>
       <c r="C2109" t="s">
         <v>3162</v>
@@ -71646,12 +71649,12 @@
         <v>1687</v>
       </c>
       <c r="Q2109" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="2110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2110" s="1" t="s">
-        <v>3163</v>
+        <v>6633</v>
       </c>
       <c r="C2110" t="s">
         <v>3162</v>
@@ -71669,35 +71672,32 @@
         <v>1687</v>
       </c>
       <c r="Q2110" t="s">
-        <v>4533</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="2111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2111" s="1" t="s">
-        <v>6633</v>
+        <v>3164</v>
       </c>
       <c r="C2111" t="s">
-        <v>3162</v>
-      </c>
-      <c r="D2111" s="1">
-        <v>68000</v>
+        <v>3165</v>
+      </c>
+      <c r="D2111" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E2111" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L2111" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2111" t="s">
-        <v>1687</v>
+        <v>1155</v>
       </c>
       <c r="Q2111" t="s">
-        <v>6634</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="2112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2112" s="1" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="C2112" t="s">
         <v>3165</v>
@@ -71712,12 +71712,12 @@
         <v>1155</v>
       </c>
       <c r="Q2112" t="s">
-        <v>3166</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="2113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2113" s="1" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="C2113" t="s">
         <v>3165</v>
@@ -71732,32 +71732,35 @@
         <v>1155</v>
       </c>
       <c r="Q2113" t="s">
-        <v>3168</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="2114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2114" s="1" t="s">
-        <v>3169</v>
+        <v>3171</v>
       </c>
       <c r="C2114" t="s">
-        <v>3165</v>
+        <v>3172</v>
       </c>
       <c r="D2114" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E2114" t="s">
-        <v>2</v>
+        <v>3766</v>
       </c>
       <c r="L2114" t="s">
-        <v>1155</v>
+        <v>55</v>
+      </c>
+      <c r="M2114" t="s">
+        <v>5070</v>
       </c>
       <c r="Q2114" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="2115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2115" s="1" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="C2115" t="s">
         <v>3172</v>
@@ -71775,12 +71778,12 @@
         <v>5070</v>
       </c>
       <c r="Q2115" t="s">
-        <v>3173</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="2116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2116" s="1" t="s">
-        <v>3174</v>
+        <v>3176</v>
       </c>
       <c r="C2116" t="s">
         <v>3172</v>
@@ -71798,35 +71801,32 @@
         <v>5070</v>
       </c>
       <c r="Q2116" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="2117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2117" s="1" t="s">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="C2117" t="s">
-        <v>3172</v>
+        <v>3179</v>
       </c>
       <c r="D2117" s="1" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="E2117" t="s">
-        <v>3766</v>
+        <v>2</v>
       </c>
       <c r="L2117" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2117" t="s">
-        <v>5070</v>
+        <v>1155</v>
       </c>
       <c r="Q2117" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="2118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2118" s="1" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="C2118" t="s">
         <v>3179</v>
@@ -71841,35 +71841,35 @@
         <v>1155</v>
       </c>
       <c r="Q2118" t="s">
-        <v>3180</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="2119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2119" s="1" t="s">
-        <v>3181</v>
+        <v>6635</v>
       </c>
       <c r="C2119" t="s">
-        <v>3179</v>
+        <v>6636</v>
       </c>
       <c r="D2119" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="E2119" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L2119" t="s">
-        <v>1155</v>
+        <v>5505</v>
       </c>
       <c r="Q2119" t="s">
-        <v>3182</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="2120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2120" s="1" t="s">
-        <v>6635</v>
+        <v>6638</v>
       </c>
       <c r="C2120" t="s">
-        <v>6636</v>
+        <v>6639</v>
       </c>
       <c r="D2120" s="1" t="s">
         <v>2</v>
@@ -71878,15 +71878,15 @@
         <v>2426</v>
       </c>
       <c r="L2120" t="s">
-        <v>5505</v>
+        <v>5070</v>
       </c>
       <c r="Q2120" t="s">
-        <v>6637</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="2121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2121" s="1" t="s">
-        <v>6638</v>
+        <v>6641</v>
       </c>
       <c r="C2121" t="s">
         <v>6639</v>
@@ -71898,15 +71898,15 @@
         <v>2426</v>
       </c>
       <c r="L2121" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q2121" t="s">
-        <v>6640</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="2122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2122" s="1" t="s">
-        <v>6641</v>
+        <v>6643</v>
       </c>
       <c r="C2122" t="s">
         <v>6639</v>
@@ -71921,15 +71921,15 @@
         <v>5505</v>
       </c>
       <c r="Q2122" t="s">
-        <v>6642</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="2123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2123" s="1" t="s">
-        <v>6643</v>
+        <v>3183</v>
       </c>
       <c r="C2123" t="s">
-        <v>6639</v>
+        <v>3184</v>
       </c>
       <c r="D2123" s="1" t="s">
         <v>2</v>
@@ -71941,55 +71941,55 @@
         <v>5505</v>
       </c>
       <c r="Q2123" t="s">
-        <v>6644</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="2124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2124" s="1" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
       <c r="C2124" t="s">
-        <v>3184</v>
-      </c>
-      <c r="D2124" s="1" t="s">
-        <v>2</v>
+        <v>3187</v>
+      </c>
+      <c r="D2124" s="1">
+        <v>68000</v>
       </c>
       <c r="E2124" t="s">
-        <v>2426</v>
+        <v>3766</v>
       </c>
       <c r="L2124" t="s">
-        <v>5505</v>
+        <v>55</v>
+      </c>
+      <c r="M2124" t="s">
+        <v>4454</v>
       </c>
       <c r="Q2124" t="s">
-        <v>3185</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="2125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2125" s="1" t="s">
-        <v>3186</v>
+        <v>3188</v>
       </c>
       <c r="C2125" t="s">
-        <v>3187</v>
-      </c>
-      <c r="D2125" s="1">
-        <v>68000</v>
+        <v>3189</v>
+      </c>
+      <c r="D2125" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E2125" t="s">
-        <v>3766</v>
+        <v>2426</v>
       </c>
       <c r="L2125" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2125" t="s">
-        <v>4454</v>
+        <v>5505</v>
       </c>
       <c r="Q2125" t="s">
-        <v>4534</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="2126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2126" s="1" t="s">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="C2126" t="s">
         <v>3189</v>
@@ -72004,32 +72004,41 @@
         <v>5505</v>
       </c>
       <c r="Q2126" t="s">
-        <v>3190</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="2127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2127" s="1" t="s">
-        <v>3191</v>
+        <v>6645</v>
       </c>
       <c r="C2127" t="s">
-        <v>3189</v>
-      </c>
-      <c r="D2127" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2127" t="s">
-        <v>2426</v>
+        <v>3193</v>
+      </c>
+      <c r="D2127" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E2127">
+        <v>68000</v>
+      </c>
+      <c r="F2127">
+        <v>68000</v>
+      </c>
+      <c r="G2127" t="s">
+        <v>3892</v>
       </c>
       <c r="L2127" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M2127" t="s">
+        <v>3315</v>
       </c>
       <c r="Q2127" t="s">
-        <v>4535</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="2128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2128" s="1" t="s">
-        <v>6645</v>
+        <v>3192</v>
       </c>
       <c r="C2128" t="s">
         <v>3193</v>
@@ -72053,12 +72062,12 @@
         <v>3315</v>
       </c>
       <c r="Q2128" t="s">
-        <v>6646</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="2129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2129" s="1" t="s">
-        <v>3192</v>
+        <v>3194</v>
       </c>
       <c r="C2129" t="s">
         <v>3193</v>
@@ -72082,12 +72091,12 @@
         <v>3315</v>
       </c>
       <c r="Q2129" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="2130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2130" s="1" t="s">
-        <v>3194</v>
+        <v>6647</v>
       </c>
       <c r="C2130" t="s">
         <v>3193</v>
@@ -72095,45 +72104,33 @@
       <c r="D2130" s="1">
         <v>68000</v>
       </c>
-      <c r="E2130">
-        <v>68000</v>
-      </c>
-      <c r="F2130">
-        <v>68000</v>
-      </c>
-      <c r="G2130" t="s">
-        <v>3892</v>
-      </c>
       <c r="L2130" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2130" t="s">
         <v>3315</v>
       </c>
       <c r="Q2130" t="s">
-        <v>4537</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="2131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2131" s="1" t="s">
-        <v>6647</v>
+        <v>6649</v>
       </c>
       <c r="C2131" t="s">
-        <v>3193</v>
+        <v>6650</v>
       </c>
       <c r="D2131" s="1">
         <v>68000</v>
       </c>
       <c r="L2131" t="s">
-        <v>3315</v>
+        <v>1409</v>
       </c>
       <c r="Q2131" t="s">
-        <v>6648</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="2132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2132" s="1" t="s">
-        <v>6649</v>
+        <v>6652</v>
       </c>
       <c r="C2132" t="s">
         <v>6650</v>
@@ -72145,29 +72142,32 @@
         <v>1409</v>
       </c>
       <c r="Q2132" t="s">
-        <v>6651</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="2133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2133" s="1" t="s">
-        <v>6652</v>
+        <v>3195</v>
       </c>
       <c r="C2133" t="s">
-        <v>6650</v>
+        <v>3196</v>
       </c>
       <c r="D2133" s="1">
         <v>68000</v>
       </c>
+      <c r="E2133" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2133" t="s">
-        <v>1409</v>
+        <v>5070</v>
       </c>
       <c r="Q2133" t="s">
-        <v>6653</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="2134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2134" s="1" t="s">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="C2134" t="s">
         <v>3196</v>
@@ -72182,12 +72182,12 @@
         <v>5070</v>
       </c>
       <c r="Q2134" t="s">
-        <v>3197</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="2135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2135" s="1" t="s">
-        <v>3198</v>
+        <v>3200</v>
       </c>
       <c r="C2135" t="s">
         <v>3196</v>
@@ -72196,18 +72196,21 @@
         <v>68000</v>
       </c>
       <c r="E2135" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L2135" t="s">
-        <v>5070</v>
+        <v>5238</v>
+      </c>
+      <c r="M2135" t="s">
+        <v>3315</v>
       </c>
       <c r="Q2135" t="s">
-        <v>3199</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="2136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2136" s="1" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="C2136" t="s">
         <v>3196</v>
@@ -72225,12 +72228,12 @@
         <v>3315</v>
       </c>
       <c r="Q2136" t="s">
-        <v>4944</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="2137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2137" s="1" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="C2137" t="s">
         <v>3196</v>
@@ -72248,12 +72251,12 @@
         <v>3315</v>
       </c>
       <c r="Q2137" t="s">
-        <v>4945</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="2138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2138" s="1" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="C2138" t="s">
         <v>3196</v>
@@ -72271,12 +72274,12 @@
         <v>3315</v>
       </c>
       <c r="Q2138" t="s">
-        <v>4538</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="2139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2139" s="1" t="s">
-        <v>3203</v>
+        <v>6655</v>
       </c>
       <c r="C2139" t="s">
         <v>3196</v>
@@ -72294,12 +72297,12 @@
         <v>3315</v>
       </c>
       <c r="Q2139" t="s">
-        <v>6654</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="2140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2140" s="1" t="s">
-        <v>6655</v>
+        <v>3209</v>
       </c>
       <c r="C2140" t="s">
         <v>3196</v>
@@ -72317,12 +72320,12 @@
         <v>3315</v>
       </c>
       <c r="Q2140" t="s">
-        <v>6656</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="2141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2141" s="1" t="s">
-        <v>3209</v>
+        <v>3204</v>
       </c>
       <c r="C2141" t="s">
         <v>3196</v>
@@ -72340,12 +72343,12 @@
         <v>3315</v>
       </c>
       <c r="Q2141" t="s">
-        <v>4544</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="2142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2142" s="1" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="C2142" t="s">
         <v>3196</v>
@@ -72363,12 +72366,12 @@
         <v>3315</v>
       </c>
       <c r="Q2142" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="2143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2143" s="1" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="C2143" t="s">
         <v>3196</v>
@@ -72386,12 +72389,12 @@
         <v>3315</v>
       </c>
       <c r="Q2143" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="2144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2144" s="1" t="s">
-        <v>3206</v>
+        <v>6657</v>
       </c>
       <c r="C2144" t="s">
         <v>3196</v>
@@ -72409,12 +72412,12 @@
         <v>3315</v>
       </c>
       <c r="Q2144" t="s">
-        <v>4541</v>
+        <v>6658</v>
       </c>
     </row>
     <row r="2145" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2145" s="1" t="s">
-        <v>6657</v>
+        <v>3207</v>
       </c>
       <c r="C2145" t="s">
         <v>3196</v>
@@ -72432,12 +72435,12 @@
         <v>3315</v>
       </c>
       <c r="Q2145" t="s">
-        <v>6658</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="2146" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2146" s="1" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="C2146" t="s">
         <v>3196</v>
@@ -72455,12 +72458,12 @@
         <v>3315</v>
       </c>
       <c r="Q2146" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="2147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2147" s="1" t="s">
-        <v>3208</v>
+        <v>3210</v>
       </c>
       <c r="C2147" t="s">
         <v>3196</v>
@@ -72478,12 +72481,12 @@
         <v>3315</v>
       </c>
       <c r="Q2147" t="s">
-        <v>4543</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="2148" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2148" s="1" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="C2148" t="s">
         <v>3196</v>
@@ -72501,12 +72504,12 @@
         <v>3315</v>
       </c>
       <c r="Q2148" t="s">
-        <v>6659</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="2149" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2149" s="1" t="s">
-        <v>3211</v>
+        <v>6661</v>
       </c>
       <c r="C2149" t="s">
         <v>3196</v>
@@ -72524,12 +72527,12 @@
         <v>3315</v>
       </c>
       <c r="Q2149" t="s">
-        <v>6660</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="2150" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2150" s="1" t="s">
-        <v>6661</v>
+        <v>3215</v>
       </c>
       <c r="C2150" t="s">
         <v>3196</v>
@@ -72547,12 +72550,12 @@
         <v>3315</v>
       </c>
       <c r="Q2150" t="s">
-        <v>6662</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="2151" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2151" s="1" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="C2151" t="s">
         <v>3196</v>
@@ -72570,12 +72573,12 @@
         <v>3315</v>
       </c>
       <c r="Q2151" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="2152" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2152" s="1" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="C2152" t="s">
         <v>3196</v>
@@ -72593,12 +72596,12 @@
         <v>3315</v>
       </c>
       <c r="Q2152" t="s">
-        <v>4547</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="2153" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2153" s="1" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="C2153" t="s">
         <v>3196</v>
@@ -72616,12 +72619,12 @@
         <v>3315</v>
       </c>
       <c r="Q2153" t="s">
-        <v>4545</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="2154" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2154" s="1" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="C2154" t="s">
         <v>3196</v>
@@ -72639,12 +72642,12 @@
         <v>3315</v>
       </c>
       <c r="Q2154" t="s">
-        <v>4946</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="2155" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2155" s="1" t="s">
-        <v>3213</v>
+        <v>3222</v>
       </c>
       <c r="C2155" t="s">
         <v>3196</v>
@@ -72662,12 +72665,12 @@
         <v>3315</v>
       </c>
       <c r="Q2155" t="s">
-        <v>4947</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="2156" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2156" s="1" t="s">
-        <v>3222</v>
+        <v>3217</v>
       </c>
       <c r="C2156" t="s">
         <v>3196</v>
@@ -72685,12 +72688,12 @@
         <v>3315</v>
       </c>
       <c r="Q2156" t="s">
-        <v>4551</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="2157" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2157" s="1" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="C2157" t="s">
         <v>3196</v>
@@ -72708,12 +72711,12 @@
         <v>3315</v>
       </c>
       <c r="Q2157" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="2158" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2158" s="1" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="C2158" t="s">
         <v>3196</v>
@@ -72731,12 +72734,12 @@
         <v>3315</v>
       </c>
       <c r="Q2158" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="2159" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2159" s="1" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="C2159" t="s">
         <v>3196</v>
@@ -72744,39 +72747,39 @@
       <c r="D2159" s="1">
         <v>68000</v>
       </c>
-      <c r="E2159" t="s">
-        <v>3892</v>
-      </c>
       <c r="L2159" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2159" t="s">
-        <v>3315</v>
+        <v>1687</v>
       </c>
       <c r="Q2159" t="s">
-        <v>4550</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="2160" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2160" s="1" t="s">
-        <v>3220</v>
+        <v>3223</v>
       </c>
       <c r="C2160" t="s">
-        <v>3196</v>
+        <v>3224</v>
       </c>
       <c r="D2160" s="1">
         <v>68000</v>
       </c>
+      <c r="E2160" t="s">
+        <v>2</v>
+      </c>
       <c r="L2160" t="s">
-        <v>1687</v>
+        <v>5238</v>
+      </c>
+      <c r="M2160" t="s">
+        <v>4179</v>
       </c>
       <c r="Q2160" t="s">
-        <v>3221</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="2161" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2161" s="1" t="s">
-        <v>3223</v>
+        <v>3225</v>
       </c>
       <c r="C2161" t="s">
         <v>3224</v>
@@ -72794,12 +72797,12 @@
         <v>4179</v>
       </c>
       <c r="Q2161" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="2162" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2162" s="1" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="C2162" t="s">
         <v>3224</v>
@@ -72817,12 +72820,12 @@
         <v>4179</v>
       </c>
       <c r="Q2162" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="2163" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2163" s="1" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="C2163" t="s">
         <v>3224</v>
@@ -72840,35 +72843,32 @@
         <v>4179</v>
       </c>
       <c r="Q2163" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="2164" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2164" s="1" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="C2164" t="s">
-        <v>3224</v>
+        <v>3229</v>
       </c>
       <c r="D2164" s="1">
         <v>68000</v>
       </c>
       <c r="E2164" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L2164" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2164" t="s">
-        <v>4179</v>
+        <v>6383</v>
       </c>
       <c r="Q2164" t="s">
-        <v>4555</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="2165" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2165" s="1" t="s">
-        <v>3228</v>
+        <v>3230</v>
       </c>
       <c r="C2165" t="s">
         <v>3229</v>
@@ -72883,32 +72883,35 @@
         <v>6383</v>
       </c>
       <c r="Q2165" t="s">
-        <v>4948</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="2166" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2166" s="1" t="s">
-        <v>3230</v>
+        <v>6663</v>
       </c>
       <c r="C2166" t="s">
-        <v>3229</v>
-      </c>
-      <c r="D2166" s="1">
-        <v>68000</v>
+        <v>6664</v>
+      </c>
+      <c r="D2166" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E2166" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L2166" t="s">
-        <v>6383</v>
+        <v>55</v>
+      </c>
+      <c r="M2166" t="s">
+        <v>3974</v>
       </c>
       <c r="Q2166" t="s">
-        <v>3231</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="2167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2167" s="1" t="s">
-        <v>6663</v>
+        <v>6666</v>
       </c>
       <c r="C2167" t="s">
         <v>6664</v>
@@ -72920,18 +72923,18 @@
         <v>2</v>
       </c>
       <c r="L2167" t="s">
-        <v>55</v>
+        <v>6093</v>
       </c>
       <c r="M2167" t="s">
         <v>3974</v>
       </c>
       <c r="Q2167" t="s">
-        <v>6665</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="2168" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2168" s="1" t="s">
-        <v>6666</v>
+        <v>6668</v>
       </c>
       <c r="C2168" t="s">
         <v>6664</v>
@@ -72949,12 +72952,12 @@
         <v>3974</v>
       </c>
       <c r="Q2168" t="s">
-        <v>6667</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="2169" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2169" s="1" t="s">
-        <v>6668</v>
+        <v>6670</v>
       </c>
       <c r="C2169" t="s">
         <v>6664</v>
@@ -72972,12 +72975,12 @@
         <v>3974</v>
       </c>
       <c r="Q2169" t="s">
-        <v>6669</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="2170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2170" s="1" t="s">
-        <v>6670</v>
+        <v>6672</v>
       </c>
       <c r="C2170" t="s">
         <v>6664</v>
@@ -72995,12 +72998,12 @@
         <v>3974</v>
       </c>
       <c r="Q2170" t="s">
-        <v>6671</v>
+        <v>6673</v>
       </c>
     </row>
     <row r="2171" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2171" s="1" t="s">
-        <v>6672</v>
+        <v>6674</v>
       </c>
       <c r="C2171" t="s">
         <v>6664</v>
@@ -73018,35 +73021,32 @@
         <v>3974</v>
       </c>
       <c r="Q2171" t="s">
-        <v>6673</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="2172" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2172" s="1" t="s">
-        <v>6674</v>
+        <v>3232</v>
       </c>
       <c r="C2172" t="s">
-        <v>6664</v>
+        <v>3233</v>
       </c>
       <c r="D2172" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2172" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L2172" t="s">
-        <v>6093</v>
-      </c>
-      <c r="M2172" t="s">
-        <v>3974</v>
+        <v>5549</v>
       </c>
       <c r="Q2172" t="s">
-        <v>6675</v>
+        <v>6676</v>
       </c>
     </row>
     <row r="2173" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2173" s="1" t="s">
-        <v>3232</v>
+        <v>6677</v>
       </c>
       <c r="C2173" t="s">
         <v>3233</v>
@@ -73061,12 +73061,12 @@
         <v>5549</v>
       </c>
       <c r="Q2173" t="s">
-        <v>6676</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="2174" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2174" s="1" t="s">
-        <v>6677</v>
+        <v>3235</v>
       </c>
       <c r="C2174" t="s">
         <v>3233</v>
@@ -73078,35 +73078,35 @@
         <v>2426</v>
       </c>
       <c r="L2174" t="s">
-        <v>5549</v>
+        <v>6383</v>
       </c>
       <c r="Q2174" t="s">
-        <v>3234</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="2175" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2175" s="1" t="s">
-        <v>3235</v>
+        <v>3237</v>
       </c>
       <c r="C2175" t="s">
-        <v>3233</v>
-      </c>
-      <c r="D2175" s="1" t="s">
-        <v>2</v>
+        <v>3238</v>
+      </c>
+      <c r="D2175" s="1">
+        <v>68000</v>
       </c>
       <c r="E2175" t="s">
         <v>2426</v>
       </c>
       <c r="L2175" t="s">
-        <v>6383</v>
+        <v>5549</v>
       </c>
       <c r="Q2175" t="s">
-        <v>3236</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="2176" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2176" s="1" t="s">
-        <v>3237</v>
+        <v>3240</v>
       </c>
       <c r="C2176" t="s">
         <v>3238</v>
@@ -73121,12 +73121,12 @@
         <v>5549</v>
       </c>
       <c r="Q2176" t="s">
-        <v>3239</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="2177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2177" s="1" t="s">
-        <v>3240</v>
+        <v>3242</v>
       </c>
       <c r="C2177" t="s">
         <v>3238</v>
@@ -73141,12 +73141,12 @@
         <v>5549</v>
       </c>
       <c r="Q2177" t="s">
-        <v>3241</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="2178" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2178" s="1" t="s">
-        <v>3242</v>
+        <v>3244</v>
       </c>
       <c r="C2178" t="s">
         <v>3238</v>
@@ -73161,12 +73161,12 @@
         <v>5549</v>
       </c>
       <c r="Q2178" t="s">
-        <v>3243</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="2179" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2179" s="1" t="s">
-        <v>3244</v>
+        <v>3246</v>
       </c>
       <c r="C2179" t="s">
         <v>3238</v>
@@ -73181,12 +73181,12 @@
         <v>5549</v>
       </c>
       <c r="Q2179" t="s">
-        <v>3245</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="2180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2180" s="1" t="s">
-        <v>3246</v>
+        <v>3248</v>
       </c>
       <c r="C2180" t="s">
         <v>3238</v>
@@ -73201,12 +73201,12 @@
         <v>5549</v>
       </c>
       <c r="Q2180" t="s">
-        <v>3247</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="2181" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2181" s="1" t="s">
-        <v>3248</v>
+        <v>3250</v>
       </c>
       <c r="C2181" t="s">
         <v>3238</v>
@@ -73221,12 +73221,12 @@
         <v>5549</v>
       </c>
       <c r="Q2181" t="s">
-        <v>3249</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="2182" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2182" s="1" t="s">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="C2182" t="s">
         <v>3238</v>
@@ -73241,12 +73241,12 @@
         <v>5549</v>
       </c>
       <c r="Q2182" t="s">
-        <v>3251</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="2183" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2183" s="1" t="s">
-        <v>3252</v>
+        <v>3254</v>
       </c>
       <c r="C2183" t="s">
         <v>3238</v>
@@ -73261,12 +73261,12 @@
         <v>5549</v>
       </c>
       <c r="Q2183" t="s">
-        <v>3253</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="2184" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2184" s="1" t="s">
-        <v>3254</v>
+        <v>3256</v>
       </c>
       <c r="C2184" t="s">
         <v>3238</v>
@@ -73281,12 +73281,12 @@
         <v>5549</v>
       </c>
       <c r="Q2184" t="s">
-        <v>3255</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="2185" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2185" s="1" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="C2185" t="s">
         <v>3238</v>
@@ -73301,12 +73301,12 @@
         <v>5549</v>
       </c>
       <c r="Q2185" t="s">
-        <v>4949</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="2186" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2186" s="1" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="C2186" t="s">
         <v>3238</v>
@@ -73321,18 +73321,18 @@
         <v>5549</v>
       </c>
       <c r="Q2186" t="s">
-        <v>4950</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="2187" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2187" s="1" t="s">
-        <v>3258</v>
+        <v>3260</v>
       </c>
       <c r="C2187" t="s">
-        <v>3238</v>
-      </c>
-      <c r="D2187" s="1">
-        <v>68000</v>
+        <v>3261</v>
+      </c>
+      <c r="D2187" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E2187" t="s">
         <v>2426</v>
@@ -73341,12 +73341,12 @@
         <v>5549</v>
       </c>
       <c r="Q2187" t="s">
-        <v>3259</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="2188" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2188" s="1" t="s">
-        <v>3260</v>
+        <v>3263</v>
       </c>
       <c r="C2188" t="s">
         <v>3261</v>
@@ -73361,12 +73361,12 @@
         <v>5549</v>
       </c>
       <c r="Q2188" t="s">
-        <v>3262</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="2189" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2189" s="1" t="s">
-        <v>3263</v>
+        <v>6678</v>
       </c>
       <c r="C2189" t="s">
         <v>3261</v>
@@ -73381,32 +73381,29 @@
         <v>5549</v>
       </c>
       <c r="Q2189" t="s">
-        <v>3264</v>
+        <v>6679</v>
       </c>
     </row>
     <row r="2190" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2190" s="1" t="s">
-        <v>6678</v>
+        <v>3282</v>
       </c>
       <c r="C2190" t="s">
-        <v>3261</v>
+        <v>3283</v>
       </c>
       <c r="D2190" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E2190" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L2190" t="s">
-        <v>5549</v>
+        <v>55</v>
       </c>
       <c r="Q2190" t="s">
-        <v>6679</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="2191" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2191" s="1" t="s">
-        <v>3282</v>
+        <v>3285</v>
       </c>
       <c r="C2191" t="s">
         <v>3283</v>
@@ -73418,29 +73415,32 @@
         <v>55</v>
       </c>
       <c r="Q2191" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="2192" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2192" s="1" t="s">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="C2192" t="s">
-        <v>3283</v>
+        <v>3288</v>
       </c>
       <c r="D2192" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2192" t="s">
         <v>2</v>
       </c>
       <c r="L2192" t="s">
         <v>55</v>
       </c>
       <c r="Q2192" t="s">
-        <v>3286</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="2193" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2193" s="1" t="s">
-        <v>3287</v>
+        <v>3290</v>
       </c>
       <c r="C2193" t="s">
         <v>3288</v>
@@ -73455,12 +73455,12 @@
         <v>55</v>
       </c>
       <c r="Q2193" t="s">
-        <v>3289</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="2194" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2194" s="1" t="s">
-        <v>3290</v>
+        <v>3292</v>
       </c>
       <c r="C2194" t="s">
         <v>3288</v>
@@ -73475,12 +73475,12 @@
         <v>55</v>
       </c>
       <c r="Q2194" t="s">
-        <v>3291</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="2195" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2195" s="1" t="s">
-        <v>3292</v>
+        <v>3294</v>
       </c>
       <c r="C2195" t="s">
         <v>3288</v>
@@ -73495,12 +73495,12 @@
         <v>55</v>
       </c>
       <c r="Q2195" t="s">
-        <v>3293</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="2196" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2196" s="1" t="s">
-        <v>3294</v>
+        <v>6682</v>
       </c>
       <c r="C2196" t="s">
         <v>3288</v>
@@ -73515,15 +73515,15 @@
         <v>55</v>
       </c>
       <c r="Q2196" t="s">
-        <v>3295</v>
+        <v>6683</v>
       </c>
     </row>
     <row r="2197" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2197" s="1" t="s">
-        <v>6682</v>
+        <v>3301</v>
       </c>
       <c r="C2197" t="s">
-        <v>3288</v>
+        <v>3302</v>
       </c>
       <c r="D2197" s="1" t="s">
         <v>2</v>
@@ -73535,12 +73535,12 @@
         <v>55</v>
       </c>
       <c r="Q2197" t="s">
-        <v>6683</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="2198" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2198" s="1" t="s">
-        <v>3301</v>
+        <v>3304</v>
       </c>
       <c r="C2198" t="s">
         <v>3302</v>
@@ -73555,95 +73555,95 @@
         <v>55</v>
       </c>
       <c r="Q2198" t="s">
-        <v>3303</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="2199" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2199" s="1" t="s">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="C2199" t="s">
-        <v>3302</v>
-      </c>
-      <c r="D2199" s="1" t="s">
-        <v>2</v>
+        <v>3307</v>
+      </c>
+      <c r="D2199" s="1">
+        <v>68000</v>
       </c>
       <c r="E2199" t="s">
-        <v>2</v>
+        <v>3766</v>
       </c>
       <c r="L2199" t="s">
-        <v>55</v>
+        <v>5071</v>
+      </c>
+      <c r="M2199" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2199" t="s">
-        <v>3305</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="2200" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2200" s="1" t="s">
-        <v>3306</v>
+        <v>3308</v>
       </c>
       <c r="C2200" t="s">
-        <v>3307</v>
+        <v>3309</v>
       </c>
       <c r="D2200" s="1">
         <v>68000</v>
       </c>
       <c r="E2200" t="s">
-        <v>3766</v>
+        <v>2426</v>
       </c>
       <c r="L2200" t="s">
         <v>5071</v>
       </c>
       <c r="M2200" t="s">
-        <v>1687</v>
+        <v>3974</v>
       </c>
       <c r="Q2200" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="2201" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2201" s="1" t="s">
-        <v>3308</v>
+        <v>3310</v>
       </c>
       <c r="C2201" t="s">
-        <v>3309</v>
+        <v>3307</v>
       </c>
       <c r="D2201" s="1">
         <v>68000</v>
       </c>
-      <c r="E2201" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2201" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2201" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q2201" t="s">
-        <v>4557</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="2202" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2202" s="1" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="C2202" t="s">
-        <v>3307</v>
+        <v>3312</v>
       </c>
       <c r="D2202" s="1">
         <v>68000</v>
       </c>
       <c r="L2202" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M2202" t="s">
         <v>1687</v>
       </c>
       <c r="Q2202" t="s">
-        <v>6684</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="2203" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2203" s="1" t="s">
-        <v>3311</v>
+        <v>3313</v>
       </c>
       <c r="C2203" t="s">
         <v>3312</v>
@@ -73658,12 +73658,12 @@
         <v>1687</v>
       </c>
       <c r="Q2203" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="2204" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2204" s="1" t="s">
-        <v>3313</v>
+        <v>6685</v>
       </c>
       <c r="C2204" t="s">
         <v>3312</v>
@@ -73678,12 +73678,12 @@
         <v>1687</v>
       </c>
       <c r="Q2204" t="s">
-        <v>4559</v>
+        <v>6686</v>
       </c>
     </row>
     <row r="2205" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2205" s="1" t="s">
-        <v>6685</v>
+        <v>6687</v>
       </c>
       <c r="C2205" t="s">
         <v>3312</v>
@@ -73691,19 +73691,19 @@
       <c r="D2205" s="1">
         <v>68000</v>
       </c>
+      <c r="E2205" t="s">
+        <v>2</v>
+      </c>
       <c r="L2205" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M2205" t="s">
-        <v>1687</v>
+        <v>5238</v>
       </c>
       <c r="Q2205" t="s">
-        <v>6686</v>
+        <v>6688</v>
       </c>
     </row>
     <row r="2206" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2206" s="1" t="s">
-        <v>6687</v>
+        <v>6689</v>
       </c>
       <c r="C2206" t="s">
         <v>3312</v>
@@ -73715,15 +73715,18 @@
         <v>2</v>
       </c>
       <c r="L2206" t="s">
-        <v>5238</v>
+        <v>1687</v>
+      </c>
+      <c r="M2206" t="s">
+        <v>5070</v>
       </c>
       <c r="Q2206" t="s">
-        <v>6688</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="2207" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2207" s="1" t="s">
-        <v>6689</v>
+        <v>3314</v>
       </c>
       <c r="C2207" t="s">
         <v>3312</v>
@@ -73731,22 +73734,16 @@
       <c r="D2207" s="1">
         <v>68000</v>
       </c>
-      <c r="E2207" t="s">
-        <v>2</v>
-      </c>
       <c r="L2207" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2207" t="s">
-        <v>5070</v>
+        <v>3315</v>
       </c>
       <c r="Q2207" t="s">
-        <v>6690</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="2208" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2208" s="1" t="s">
-        <v>3314</v>
+        <v>3317</v>
       </c>
       <c r="C2208" t="s">
         <v>3312</v>
@@ -73758,12 +73755,12 @@
         <v>3315</v>
       </c>
       <c r="Q2208" t="s">
-        <v>3316</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="2209" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2209" s="1" t="s">
-        <v>3317</v>
+        <v>6691</v>
       </c>
       <c r="C2209" t="s">
         <v>3312</v>
@@ -73775,95 +73772,98 @@
         <v>3315</v>
       </c>
       <c r="Q2209" t="s">
-        <v>4951</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="2210" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2210" s="1" t="s">
-        <v>6691</v>
+        <v>3318</v>
       </c>
       <c r="C2210" t="s">
-        <v>3312</v>
+        <v>3319</v>
       </c>
       <c r="D2210" s="1">
         <v>68000</v>
       </c>
       <c r="L2210" t="s">
-        <v>3315</v>
+        <v>1687</v>
       </c>
       <c r="Q2210" t="s">
-        <v>6692</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="2211" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2211" s="1" t="s">
-        <v>3318</v>
+        <v>3321</v>
       </c>
       <c r="C2211" t="s">
-        <v>3319</v>
-      </c>
-      <c r="D2211" s="1">
-        <v>68000</v>
+        <v>3322</v>
+      </c>
+      <c r="D2211" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2211" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2211" t="s">
+        <v>2</v>
       </c>
       <c r="L2211" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M2211" t="s">
         <v>1687</v>
       </c>
       <c r="Q2211" t="s">
-        <v>3320</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="2212" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2212" s="1" t="s">
-        <v>3321</v>
+        <v>3323</v>
       </c>
       <c r="C2212" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
       <c r="D2212" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2212" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2212" t="s">
-        <v>2</v>
-      </c>
       <c r="L2212" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M2212" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q2212" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="2213" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2213" s="1" t="s">
-        <v>3323</v>
+        <v>6693</v>
       </c>
       <c r="C2213" t="s">
-        <v>3324</v>
-      </c>
-      <c r="D2213" s="1" t="s">
-        <v>2</v>
+        <v>6694</v>
+      </c>
+      <c r="D2213" s="1">
+        <v>68000</v>
       </c>
       <c r="L2213" t="s">
         <v>55</v>
       </c>
+      <c r="M2213" t="s">
+        <v>3974</v>
+      </c>
       <c r="Q2213" t="s">
-        <v>4561</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="2214" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2214" s="1" t="s">
-        <v>6693</v>
+        <v>6696</v>
       </c>
       <c r="C2214" t="s">
         <v>6694</v>
       </c>
-      <c r="D2214" s="1">
-        <v>68000</v>
+      <c r="D2214" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2214" t="s">
         <v>55</v>
@@ -73872,18 +73872,18 @@
         <v>3974</v>
       </c>
       <c r="Q2214" t="s">
-        <v>6695</v>
+        <v>6697</v>
       </c>
     </row>
     <row r="2215" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2215" s="1" t="s">
-        <v>6696</v>
+        <v>6698</v>
       </c>
       <c r="C2215" t="s">
         <v>6694</v>
       </c>
-      <c r="D2215" s="1" t="s">
-        <v>2</v>
+      <c r="D2215" s="1">
+        <v>68000</v>
       </c>
       <c r="L2215" t="s">
         <v>55</v>
@@ -73892,12 +73892,12 @@
         <v>3974</v>
       </c>
       <c r="Q2215" t="s">
-        <v>6697</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="2216" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2216" s="1" t="s">
-        <v>6698</v>
+        <v>6700</v>
       </c>
       <c r="C2216" t="s">
         <v>6694</v>
@@ -73912,32 +73912,35 @@
         <v>3974</v>
       </c>
       <c r="Q2216" t="s">
-        <v>6699</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="2217" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2217" s="1" t="s">
-        <v>6700</v>
+        <v>3325</v>
       </c>
       <c r="C2217" t="s">
-        <v>6694</v>
+        <v>3326</v>
       </c>
       <c r="D2217" s="1">
         <v>68000</v>
       </c>
+      <c r="E2217" t="s">
+        <v>4562</v>
+      </c>
       <c r="L2217" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="M2217" t="s">
-        <v>3974</v>
+        <v>5071</v>
       </c>
       <c r="Q2217" t="s">
-        <v>6701</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="2218" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2218" s="1" t="s">
-        <v>3325</v>
+        <v>3327</v>
       </c>
       <c r="C2218" t="s">
         <v>3326</v>
@@ -73955,12 +73958,12 @@
         <v>5071</v>
       </c>
       <c r="Q2218" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="2219" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2219" s="1" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="C2219" t="s">
         <v>3326</v>
@@ -73972,18 +73975,15 @@
         <v>4562</v>
       </c>
       <c r="L2219" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M2219" t="s">
-        <v>5071</v>
+        <v>77</v>
       </c>
       <c r="Q2219" t="s">
-        <v>4564</v>
+        <v>6702</v>
       </c>
     </row>
     <row r="2220" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2220" s="1" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="C2220" t="s">
         <v>3326</v>
@@ -73998,12 +73998,12 @@
         <v>77</v>
       </c>
       <c r="Q2220" t="s">
-        <v>6702</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="2221" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2221" s="1" t="s">
-        <v>3329</v>
+        <v>3331</v>
       </c>
       <c r="C2221" t="s">
         <v>3326</v>
@@ -74018,12 +74018,12 @@
         <v>77</v>
       </c>
       <c r="Q2221" t="s">
-        <v>3330</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="2222" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2222" s="1" t="s">
-        <v>3331</v>
+        <v>3333</v>
       </c>
       <c r="C2222" t="s">
         <v>3326</v>
@@ -74038,12 +74038,12 @@
         <v>77</v>
       </c>
       <c r="Q2222" t="s">
-        <v>3332</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="2223" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2223" s="1" t="s">
-        <v>3333</v>
+        <v>3335</v>
       </c>
       <c r="C2223" t="s">
         <v>3326</v>
@@ -74051,19 +74051,16 @@
       <c r="D2223" s="1">
         <v>68000</v>
       </c>
-      <c r="E2223" t="s">
-        <v>4562</v>
-      </c>
       <c r="L2223" t="s">
         <v>77</v>
       </c>
       <c r="Q2223" t="s">
-        <v>3334</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="2224" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2224" s="1" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="C2224" t="s">
         <v>3326</v>
@@ -74071,16 +74068,19 @@
       <c r="D2224" s="1">
         <v>68000</v>
       </c>
+      <c r="E2224" t="s">
+        <v>4562</v>
+      </c>
       <c r="L2224" t="s">
         <v>77</v>
       </c>
       <c r="Q2224" t="s">
-        <v>4565</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="2225" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2225" s="1" t="s">
-        <v>3336</v>
+        <v>3338</v>
       </c>
       <c r="C2225" t="s">
         <v>3326</v>
@@ -74095,12 +74095,12 @@
         <v>77</v>
       </c>
       <c r="Q2225" t="s">
-        <v>3337</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="2226" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2226" s="1" t="s">
-        <v>3338</v>
+        <v>6703</v>
       </c>
       <c r="C2226" t="s">
         <v>3326</v>
@@ -74108,19 +74108,16 @@
       <c r="D2226" s="1">
         <v>68000</v>
       </c>
-      <c r="E2226" t="s">
-        <v>4562</v>
-      </c>
       <c r="L2226" t="s">
         <v>77</v>
       </c>
       <c r="Q2226" t="s">
-        <v>3339</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="2227" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2227" s="1" t="s">
-        <v>6703</v>
+        <v>6705</v>
       </c>
       <c r="C2227" t="s">
         <v>3326</v>
@@ -74132,12 +74129,12 @@
         <v>77</v>
       </c>
       <c r="Q2227" t="s">
-        <v>6704</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="2228" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2228" s="1" t="s">
-        <v>6705</v>
+        <v>6707</v>
       </c>
       <c r="C2228" t="s">
         <v>3326</v>
@@ -74149,12 +74146,12 @@
         <v>77</v>
       </c>
       <c r="Q2228" t="s">
-        <v>6706</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="2229" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2229" s="1" t="s">
-        <v>6707</v>
+        <v>3340</v>
       </c>
       <c r="C2229" t="s">
         <v>3326</v>
@@ -74166,12 +74163,12 @@
         <v>77</v>
       </c>
       <c r="Q2229" t="s">
-        <v>6708</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="2230" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2230" s="1" t="s">
-        <v>3340</v>
+        <v>6710</v>
       </c>
       <c r="C2230" t="s">
         <v>3326</v>
@@ -74183,12 +74180,12 @@
         <v>77</v>
       </c>
       <c r="Q2230" t="s">
-        <v>6709</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="2231" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2231" s="1" t="s">
-        <v>6710</v>
+        <v>6712</v>
       </c>
       <c r="C2231" t="s">
         <v>3326</v>
@@ -74200,12 +74197,12 @@
         <v>77</v>
       </c>
       <c r="Q2231" t="s">
-        <v>6711</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="2232" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2232" s="1" t="s">
-        <v>6712</v>
+        <v>6714</v>
       </c>
       <c r="C2232" t="s">
         <v>3326</v>
@@ -74217,12 +74214,12 @@
         <v>77</v>
       </c>
       <c r="Q2232" t="s">
-        <v>6713</v>
+        <v>6715</v>
       </c>
     </row>
     <row r="2233" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2233" s="1" t="s">
-        <v>6714</v>
+        <v>3341</v>
       </c>
       <c r="C2233" t="s">
         <v>3326</v>
@@ -74234,12 +74231,12 @@
         <v>77</v>
       </c>
       <c r="Q2233" t="s">
-        <v>6715</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="2234" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2234" s="1" t="s">
-        <v>3341</v>
+        <v>6716</v>
       </c>
       <c r="C2234" t="s">
         <v>3326</v>
@@ -74251,12 +74248,12 @@
         <v>77</v>
       </c>
       <c r="Q2234" t="s">
-        <v>3342</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="2235" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2235" s="1" t="s">
-        <v>6716</v>
+        <v>6718</v>
       </c>
       <c r="C2235" t="s">
         <v>3326</v>
@@ -74268,12 +74265,12 @@
         <v>77</v>
       </c>
       <c r="Q2235" t="s">
-        <v>6717</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="2236" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2236" s="1" t="s">
-        <v>6718</v>
+        <v>6720</v>
       </c>
       <c r="C2236" t="s">
         <v>3326</v>
@@ -74285,12 +74282,12 @@
         <v>77</v>
       </c>
       <c r="Q2236" t="s">
-        <v>6719</v>
+        <v>6721</v>
       </c>
     </row>
     <row r="2237" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2237" s="1" t="s">
-        <v>6720</v>
+        <v>3343</v>
       </c>
       <c r="C2237" t="s">
         <v>3326</v>
@@ -74302,12 +74299,12 @@
         <v>77</v>
       </c>
       <c r="Q2237" t="s">
-        <v>6721</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="2238" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2238" s="1" t="s">
-        <v>3343</v>
+        <v>6722</v>
       </c>
       <c r="C2238" t="s">
         <v>3326</v>
@@ -74319,12 +74316,12 @@
         <v>77</v>
       </c>
       <c r="Q2238" t="s">
-        <v>4566</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="2239" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2239" s="1" t="s">
-        <v>6722</v>
+        <v>6724</v>
       </c>
       <c r="C2239" t="s">
         <v>3326</v>
@@ -74336,12 +74333,12 @@
         <v>77</v>
       </c>
       <c r="Q2239" t="s">
-        <v>6723</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="2240" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2240" s="1" t="s">
-        <v>6724</v>
+        <v>6726</v>
       </c>
       <c r="C2240" t="s">
         <v>3326</v>
@@ -74353,12 +74350,12 @@
         <v>77</v>
       </c>
       <c r="Q2240" t="s">
-        <v>6725</v>
+        <v>6727</v>
       </c>
     </row>
     <row r="2241" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2241" s="1" t="s">
-        <v>6726</v>
+        <v>6728</v>
       </c>
       <c r="C2241" t="s">
         <v>3326</v>
@@ -74370,12 +74367,12 @@
         <v>77</v>
       </c>
       <c r="Q2241" t="s">
-        <v>6727</v>
+        <v>6729</v>
       </c>
     </row>
     <row r="2242" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2242" s="1" t="s">
-        <v>6728</v>
+        <v>6730</v>
       </c>
       <c r="C2242" t="s">
         <v>3326</v>
@@ -74387,12 +74384,12 @@
         <v>77</v>
       </c>
       <c r="Q2242" t="s">
-        <v>6729</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="2243" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2243" s="1" t="s">
-        <v>6730</v>
+        <v>6732</v>
       </c>
       <c r="C2243" t="s">
         <v>3326</v>
@@ -74404,12 +74401,12 @@
         <v>77</v>
       </c>
       <c r="Q2243" t="s">
-        <v>6731</v>
+        <v>6733</v>
       </c>
     </row>
     <row r="2244" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2244" s="1" t="s">
-        <v>6732</v>
+        <v>6734</v>
       </c>
       <c r="C2244" t="s">
         <v>3326</v>
@@ -74421,15 +74418,15 @@
         <v>77</v>
       </c>
       <c r="Q2244" t="s">
-        <v>6733</v>
+        <v>6735</v>
       </c>
     </row>
     <row r="2245" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2245" s="1" t="s">
-        <v>6734</v>
+        <v>6736</v>
       </c>
       <c r="C2245" t="s">
-        <v>3326</v>
+        <v>6737</v>
       </c>
       <c r="D2245" s="1">
         <v>68000</v>
@@ -74438,12 +74435,12 @@
         <v>77</v>
       </c>
       <c r="Q2245" t="s">
-        <v>6735</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="2246" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2246" s="1" t="s">
-        <v>6736</v>
+        <v>6739</v>
       </c>
       <c r="C2246" t="s">
         <v>6737</v>
@@ -74455,12 +74452,12 @@
         <v>77</v>
       </c>
       <c r="Q2246" t="s">
-        <v>6738</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="2247" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2247" s="1" t="s">
-        <v>6739</v>
+        <v>6741</v>
       </c>
       <c r="C2247" t="s">
         <v>6737</v>
@@ -74472,32 +74469,32 @@
         <v>77</v>
       </c>
       <c r="Q2247" t="s">
-        <v>6740</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="2248" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2248" s="1" t="s">
-        <v>6741</v>
+        <v>3347</v>
       </c>
       <c r="C2248" t="s">
-        <v>6737</v>
+        <v>3348</v>
       </c>
       <c r="D2248" s="1">
         <v>68000</v>
       </c>
       <c r="L2248" t="s">
-        <v>77</v>
+        <v>1687</v>
       </c>
       <c r="Q2248" t="s">
-        <v>6742</v>
+        <v>6743</v>
       </c>
     </row>
     <row r="2249" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2249" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="C2249" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="D2249" s="1">
         <v>68000</v>
@@ -74506,12 +74503,12 @@
         <v>1687</v>
       </c>
       <c r="Q2249" t="s">
-        <v>6743</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="2250" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2250" s="1" t="s">
-        <v>3344</v>
+        <v>6744</v>
       </c>
       <c r="C2250" t="s">
         <v>3345</v>
@@ -74523,15 +74520,15 @@
         <v>1687</v>
       </c>
       <c r="Q2250" t="s">
-        <v>3346</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="2251" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2251" s="1" t="s">
-        <v>6744</v>
+        <v>6746</v>
       </c>
       <c r="C2251" t="s">
-        <v>3345</v>
+        <v>6747</v>
       </c>
       <c r="D2251" s="1">
         <v>68000</v>
@@ -74540,12 +74537,12 @@
         <v>1687</v>
       </c>
       <c r="Q2251" t="s">
-        <v>6745</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="2252" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2252" s="1" t="s">
-        <v>6746</v>
+        <v>6749</v>
       </c>
       <c r="C2252" t="s">
         <v>6747</v>
@@ -74557,29 +74554,38 @@
         <v>1687</v>
       </c>
       <c r="Q2252" t="s">
-        <v>6748</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="2253" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2253" s="1" t="s">
-        <v>6749</v>
+        <v>2965</v>
       </c>
       <c r="C2253" t="s">
-        <v>6747</v>
-      </c>
-      <c r="D2253" s="1">
-        <v>68000</v>
+        <v>2960</v>
+      </c>
+      <c r="D2253" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2253" t="s">
+        <v>2</v>
       </c>
       <c r="L2253" t="s">
-        <v>1687</v>
+        <v>55</v>
+      </c>
+      <c r="M2253" t="s">
+        <v>734</v>
+      </c>
+      <c r="N2253" t="s">
+        <v>542</v>
       </c>
       <c r="Q2253" t="s">
-        <v>6750</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="2254" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2254" s="1" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="C2254" t="s">
         <v>2960</v>
@@ -74600,12 +74606,12 @@
         <v>542</v>
       </c>
       <c r="Q2254" t="s">
-        <v>4909</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="2255" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2255" s="1" t="s">
-        <v>2964</v>
+        <v>2959</v>
       </c>
       <c r="C2255" t="s">
         <v>2960</v>
@@ -74619,19 +74625,13 @@
       <c r="L2255" t="s">
         <v>55</v>
       </c>
-      <c r="M2255" t="s">
-        <v>734</v>
-      </c>
-      <c r="N2255" t="s">
-        <v>542</v>
-      </c>
       <c r="Q2255" t="s">
-        <v>4908</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="2256" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2256" s="1" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="C2256" t="s">
         <v>2960</v>
@@ -74646,15 +74646,15 @@
         <v>55</v>
       </c>
       <c r="Q2256" t="s">
-        <v>2961</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="2257" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2257" s="1" t="s">
-        <v>2962</v>
+        <v>2966</v>
       </c>
       <c r="C2257" t="s">
-        <v>2960</v>
+        <v>2967</v>
       </c>
       <c r="D2257" s="1" t="s">
         <v>2</v>
@@ -74666,37 +74666,37 @@
         <v>55</v>
       </c>
       <c r="Q2257" t="s">
-        <v>2963</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="2258" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2258" s="1" t="s">
-        <v>2966</v>
+        <v>6751</v>
       </c>
       <c r="C2258" t="s">
-        <v>2967</v>
-      </c>
-      <c r="D2258" s="1" t="s">
+        <v>6752</v>
+      </c>
+      <c r="D2258" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2258" t="s">
         <v>2</v>
       </c>
       <c r="L2258" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q2258" t="s">
-        <v>2968</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="2259" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2259" s="1" t="s">
-        <v>6751</v>
+        <v>6761</v>
       </c>
       <c r="C2259" t="s">
-        <v>6752</v>
-      </c>
-      <c r="D2259" s="4" t="s">
+        <v>6762</v>
+      </c>
+      <c r="D2259" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2259" t="s">
@@ -74706,32 +74706,29 @@
         <v>58</v>
       </c>
       <c r="Q2259" t="s">
-        <v>6753</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="2260" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2260" s="1" t="s">
-        <v>6761</v>
+        <v>3349</v>
       </c>
       <c r="C2260" t="s">
-        <v>6762</v>
+        <v>3350</v>
       </c>
       <c r="D2260" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2260" t="s">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="L2260" t="s">
-        <v>58</v>
+        <v>5070</v>
       </c>
       <c r="Q2260" t="s">
-        <v>6763</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="2261" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2261" s="1" t="s">
-        <v>3349</v>
+        <v>6765</v>
       </c>
       <c r="C2261" t="s">
         <v>3350</v>
@@ -74743,29 +74740,32 @@
         <v>5070</v>
       </c>
       <c r="Q2261" t="s">
-        <v>6764</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="2262" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2262" s="1" t="s">
-        <v>6765</v>
+        <v>3351</v>
       </c>
       <c r="C2262" t="s">
-        <v>3350</v>
-      </c>
-      <c r="D2262" s="1" t="s">
-        <v>951</v>
+        <v>3352</v>
+      </c>
+      <c r="D2262" s="1">
+        <v>68000</v>
       </c>
       <c r="L2262" t="s">
-        <v>5070</v>
+        <v>55</v>
+      </c>
+      <c r="M2262" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2262" t="s">
-        <v>6766</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="2263" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2263" s="1" t="s">
-        <v>3351</v>
+        <v>3353</v>
       </c>
       <c r="C2263" t="s">
         <v>3352</v>
@@ -74773,19 +74773,22 @@
       <c r="D2263" s="1">
         <v>68000</v>
       </c>
+      <c r="E2263" t="s">
+        <v>2</v>
+      </c>
       <c r="L2263" t="s">
-        <v>55</v>
+        <v>6767</v>
       </c>
       <c r="M2263" t="s">
         <v>1687</v>
       </c>
       <c r="Q2263" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="2264" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2264" s="1" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="C2264" t="s">
         <v>3352</v>
@@ -74803,38 +74806,35 @@
         <v>1687</v>
       </c>
       <c r="Q2264" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="2265" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2265" s="1" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="C2265" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D2265" s="1">
-        <v>68000</v>
+        <v>3356</v>
+      </c>
+      <c r="D2265" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E2265" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L2265" t="s">
-        <v>6767</v>
-      </c>
-      <c r="M2265" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q2265" t="s">
-        <v>4569</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="2266" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2266" s="1" t="s">
-        <v>3355</v>
+        <v>6768</v>
       </c>
       <c r="C2266" t="s">
-        <v>3356</v>
+        <v>6769</v>
       </c>
       <c r="D2266" s="1" t="s">
         <v>2</v>
@@ -74843,15 +74843,15 @@
         <v>2426</v>
       </c>
       <c r="L2266" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q2266" t="s">
-        <v>3357</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="2267" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2267" s="1" t="s">
-        <v>6768</v>
+        <v>6771</v>
       </c>
       <c r="C2267" t="s">
         <v>6769</v>
@@ -74863,15 +74863,18 @@
         <v>2426</v>
       </c>
       <c r="L2267" t="s">
-        <v>5505</v>
+        <v>5071</v>
+      </c>
+      <c r="M2267" t="s">
+        <v>55</v>
       </c>
       <c r="Q2267" t="s">
-        <v>6770</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="2268" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2268" s="1" t="s">
-        <v>6771</v>
+        <v>6773</v>
       </c>
       <c r="C2268" t="s">
         <v>6769</v>
@@ -74889,35 +74892,41 @@
         <v>55</v>
       </c>
       <c r="Q2268" t="s">
-        <v>6772</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="2269" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2269" s="1" t="s">
-        <v>6773</v>
+        <v>3358</v>
       </c>
       <c r="C2269" t="s">
-        <v>6769</v>
-      </c>
-      <c r="D2269" s="1" t="s">
-        <v>2</v>
+        <v>6775</v>
+      </c>
+      <c r="D2269" s="1">
+        <v>68000</v>
       </c>
       <c r="E2269" t="s">
         <v>2426</v>
       </c>
+      <c r="F2269" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G2269" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2269" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M2269" t="s">
-        <v>55</v>
+        <v>4570</v>
       </c>
       <c r="Q2269" t="s">
-        <v>6774</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="2270" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2270" s="1" t="s">
-        <v>3358</v>
+        <v>6776</v>
       </c>
       <c r="C2270" t="s">
         <v>6775</v>
@@ -74931,48 +74940,36 @@
       <c r="F2270" t="s">
         <v>2426</v>
       </c>
-      <c r="G2270" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2270" t="s">
         <v>5238</v>
       </c>
       <c r="M2270" t="s">
-        <v>4570</v>
+        <v>2605</v>
       </c>
       <c r="Q2270" t="s">
-        <v>4571</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="2271" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2271" s="1" t="s">
-        <v>6776</v>
+        <v>3359</v>
       </c>
       <c r="C2271" t="s">
-        <v>6775</v>
-      </c>
-      <c r="D2271" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2271" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F2271" t="s">
-        <v>2426</v>
+        <v>3360</v>
+      </c>
+      <c r="D2271" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2271" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2271" t="s">
-        <v>2605</v>
+        <v>5070</v>
       </c>
       <c r="Q2271" t="s">
-        <v>6777</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="2272" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2272" s="1" t="s">
-        <v>3359</v>
+        <v>3362</v>
       </c>
       <c r="C2272" t="s">
         <v>3360</v>
@@ -74984,12 +74981,12 @@
         <v>5070</v>
       </c>
       <c r="Q2272" t="s">
-        <v>3361</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="2273" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2273" s="1" t="s">
-        <v>3362</v>
+        <v>6778</v>
       </c>
       <c r="C2273" t="s">
         <v>3360</v>
@@ -75001,12 +74998,12 @@
         <v>5070</v>
       </c>
       <c r="Q2273" t="s">
-        <v>3363</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="2274" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2274" s="1" t="s">
-        <v>6778</v>
+        <v>3364</v>
       </c>
       <c r="C2274" t="s">
         <v>3360</v>
@@ -75018,12 +75015,12 @@
         <v>5070</v>
       </c>
       <c r="Q2274" t="s">
-        <v>6779</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="2275" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2275" s="1" t="s">
-        <v>3364</v>
+        <v>3366</v>
       </c>
       <c r="C2275" t="s">
         <v>3360</v>
@@ -75035,29 +75032,32 @@
         <v>5070</v>
       </c>
       <c r="Q2275" t="s">
-        <v>3365</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="2276" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2276" s="1" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="C2276" t="s">
-        <v>3360</v>
+        <v>3369</v>
       </c>
       <c r="D2276" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2276" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2276" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q2276" t="s">
-        <v>3367</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="2277" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2277" s="1" t="s">
-        <v>3368</v>
+        <v>3371</v>
       </c>
       <c r="C2277" t="s">
         <v>3369</v>
@@ -75072,12 +75072,12 @@
         <v>5505</v>
       </c>
       <c r="Q2277" t="s">
-        <v>3370</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="2278" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2278" s="1" t="s">
-        <v>3371</v>
+        <v>6780</v>
       </c>
       <c r="C2278" t="s">
         <v>3369</v>
@@ -75092,12 +75092,12 @@
         <v>5505</v>
       </c>
       <c r="Q2278" t="s">
-        <v>3372</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="2279" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2279" s="1" t="s">
-        <v>6780</v>
+        <v>6782</v>
       </c>
       <c r="C2279" t="s">
         <v>3369</v>
@@ -75112,12 +75112,12 @@
         <v>5505</v>
       </c>
       <c r="Q2279" t="s">
-        <v>6781</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="2280" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2280" s="1" t="s">
-        <v>6782</v>
+        <v>3373</v>
       </c>
       <c r="C2280" t="s">
         <v>3369</v>
@@ -75132,12 +75132,12 @@
         <v>5505</v>
       </c>
       <c r="Q2280" t="s">
-        <v>6783</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="2281" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2281" s="1" t="s">
-        <v>3373</v>
+        <v>3375</v>
       </c>
       <c r="C2281" t="s">
         <v>3369</v>
@@ -75149,15 +75149,18 @@
         <v>2426</v>
       </c>
       <c r="L2281" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M2281" t="s">
+        <v>1687</v>
       </c>
       <c r="Q2281" t="s">
-        <v>3374</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="2282" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2282" s="1" t="s">
-        <v>3375</v>
+        <v>6784</v>
       </c>
       <c r="C2282" t="s">
         <v>3369</v>
@@ -75175,12 +75178,12 @@
         <v>1687</v>
       </c>
       <c r="Q2282" t="s">
-        <v>4572</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="2283" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2283" s="1" t="s">
-        <v>6784</v>
+        <v>6786</v>
       </c>
       <c r="C2283" t="s">
         <v>3369</v>
@@ -75198,12 +75201,12 @@
         <v>1687</v>
       </c>
       <c r="Q2283" t="s">
-        <v>6785</v>
+        <v>6787</v>
       </c>
     </row>
     <row r="2284" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2284" s="1" t="s">
-        <v>6786</v>
+        <v>6788</v>
       </c>
       <c r="C2284" t="s">
         <v>3369</v>
@@ -75221,12 +75224,12 @@
         <v>1687</v>
       </c>
       <c r="Q2284" t="s">
-        <v>6787</v>
+        <v>6789</v>
       </c>
     </row>
     <row r="2285" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2285" s="1" t="s">
-        <v>6788</v>
+        <v>3376</v>
       </c>
       <c r="C2285" t="s">
         <v>3369</v>
@@ -75244,18 +75247,18 @@
         <v>1687</v>
       </c>
       <c r="Q2285" t="s">
-        <v>6789</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="2286" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2286" s="1" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="C2286" t="s">
         <v>3369</v>
       </c>
-      <c r="D2286" s="1" t="s">
-        <v>2</v>
+      <c r="D2286" s="1">
+        <v>68000</v>
       </c>
       <c r="E2286" t="s">
         <v>2426</v>
@@ -75267,35 +75270,32 @@
         <v>1687</v>
       </c>
       <c r="Q2286" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="2287" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2287" s="1" t="s">
-        <v>3377</v>
+        <v>3427</v>
       </c>
       <c r="C2287" t="s">
-        <v>3369</v>
-      </c>
-      <c r="D2287" s="1">
-        <v>68000</v>
+        <v>3428</v>
+      </c>
+      <c r="D2287" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="E2287" t="s">
-        <v>2426</v>
+        <v>3899</v>
       </c>
       <c r="L2287" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M2287" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q2287" t="s">
-        <v>4574</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="2288" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2288" s="1" t="s">
-        <v>3427</v>
+        <v>3430</v>
       </c>
       <c r="C2288" t="s">
         <v>3428</v>
@@ -75310,98 +75310,98 @@
         <v>55</v>
       </c>
       <c r="Q2288" t="s">
-        <v>3429</v>
-      </c>
-    </row>
-    <row r="2289" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2289" s="1" t="s">
-        <v>3430</v>
-      </c>
-      <c r="C2289" t="s">
-        <v>3428</v>
-      </c>
-      <c r="D2289" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E2289" t="s">
-        <v>3899</v>
-      </c>
-      <c r="L2289" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2289" t="s">
         <v>3431</v>
       </c>
     </row>
-    <row r="2290" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2290" s="5" t="s">
+    <row r="2289" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2289" s="5" t="s">
         <v>6790</v>
       </c>
-      <c r="C2290" s="6" t="s">
+      <c r="C2289" s="6" t="s">
         <v>6791</v>
       </c>
-      <c r="D2290" s="5" t="s">
+      <c r="D2289" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E2290" s="6" t="s">
+      <c r="E2289" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="L2290" s="6" t="s">
+      <c r="L2289" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="Q2290" s="6" t="s">
+      <c r="Q2289" s="6" t="s">
         <v>6792</v>
+      </c>
+    </row>
+    <row r="2290" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2290" s="1" t="s">
+        <v>6793</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>6791</v>
+      </c>
+      <c r="D2290" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2290" t="s">
+        <v>404</v>
+      </c>
+      <c r="L2290" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q2290" t="s">
+        <v>6794</v>
       </c>
     </row>
     <row r="2291" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2291" s="1" t="s">
-        <v>6793</v>
+        <v>6795</v>
       </c>
       <c r="C2291" t="s">
-        <v>6791</v>
-      </c>
-      <c r="D2291" s="1" t="s">
-        <v>404</v>
+        <v>6796</v>
+      </c>
+      <c r="D2291" s="1">
+        <v>68000</v>
       </c>
       <c r="E2291" t="s">
-        <v>404</v>
+        <v>3964</v>
+      </c>
+      <c r="F2291" t="s">
+        <v>2426</v>
       </c>
       <c r="L2291" t="s">
-        <v>542</v>
+        <v>5505</v>
       </c>
       <c r="Q2291" t="s">
-        <v>6794</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="2292" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2292" s="1" t="s">
-        <v>6795</v>
+        <v>3381</v>
       </c>
       <c r="C2292" t="s">
-        <v>6796</v>
+        <v>3382</v>
       </c>
       <c r="D2292" s="1">
         <v>68000</v>
       </c>
       <c r="E2292" t="s">
-        <v>3964</v>
-      </c>
-      <c r="F2292" t="s">
         <v>2426</v>
       </c>
       <c r="L2292" t="s">
-        <v>5505</v>
+        <v>1687</v>
       </c>
       <c r="Q2292" t="s">
-        <v>6797</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="2293" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2293" s="1" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="C2293" t="s">
-        <v>3382</v>
+        <v>3385</v>
       </c>
       <c r="D2293" s="1">
         <v>68000</v>
@@ -75410,15 +75410,18 @@
         <v>2426</v>
       </c>
       <c r="L2293" t="s">
+        <v>5071</v>
+      </c>
+      <c r="M2293" t="s">
         <v>1687</v>
       </c>
       <c r="Q2293" t="s">
-        <v>3383</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="2294" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2294" s="1" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="C2294" t="s">
         <v>3385</v>
@@ -75436,35 +75439,29 @@
         <v>1687</v>
       </c>
       <c r="Q2294" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="2295" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2295" s="1" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="C2295" t="s">
-        <v>3385</v>
+        <v>3319</v>
       </c>
       <c r="D2295" s="1">
         <v>68000</v>
       </c>
-      <c r="E2295" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2295" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2295" t="s">
         <v>1687</v>
       </c>
       <c r="Q2295" t="s">
-        <v>4576</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="2296" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2296" s="1" t="s">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="C2296" t="s">
         <v>3319</v>
@@ -75476,12 +75473,12 @@
         <v>1687</v>
       </c>
       <c r="Q2296" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="2297" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2297" s="1" t="s">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="C2297" t="s">
         <v>3319</v>
@@ -75493,15 +75490,15 @@
         <v>1687</v>
       </c>
       <c r="Q2297" t="s">
-        <v>3390</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="2298" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2298" s="1" t="s">
-        <v>3391</v>
+        <v>3393</v>
       </c>
       <c r="C2298" t="s">
-        <v>3319</v>
+        <v>3394</v>
       </c>
       <c r="D2298" s="1">
         <v>68000</v>
@@ -75510,12 +75507,12 @@
         <v>1687</v>
       </c>
       <c r="Q2298" t="s">
-        <v>3392</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="2299" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2299" s="1" t="s">
-        <v>3393</v>
+        <v>3396</v>
       </c>
       <c r="C2299" t="s">
         <v>3394</v>
@@ -75527,29 +75524,32 @@
         <v>1687</v>
       </c>
       <c r="Q2299" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="2300" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2300" s="1" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
       <c r="C2300" t="s">
-        <v>3394</v>
-      </c>
-      <c r="D2300" s="1">
-        <v>68000</v>
+        <v>3399</v>
+      </c>
+      <c r="D2300" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2300" t="s">
-        <v>1687</v>
+        <v>1155</v>
+      </c>
+      <c r="M2300" t="s">
+        <v>352</v>
       </c>
       <c r="Q2300" t="s">
-        <v>3397</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="2301" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2301" s="1" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="C2301" t="s">
         <v>3399</v>
@@ -75564,12 +75564,12 @@
         <v>352</v>
       </c>
       <c r="Q2301" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="2302" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2302" s="1" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="C2302" t="s">
         <v>3399</v>
@@ -75584,12 +75584,12 @@
         <v>352</v>
       </c>
       <c r="Q2302" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="2303" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2303" s="1" t="s">
-        <v>3401</v>
+        <v>6798</v>
       </c>
       <c r="C2303" t="s">
         <v>3399</v>
@@ -75604,52 +75604,49 @@
         <v>352</v>
       </c>
       <c r="Q2303" t="s">
-        <v>4579</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="2304" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2304" s="1" t="s">
-        <v>6798</v>
+        <v>6800</v>
       </c>
       <c r="C2304" t="s">
-        <v>3399</v>
+        <v>6801</v>
       </c>
       <c r="D2304" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2304" t="s">
+        <v>2</v>
+      </c>
       <c r="L2304" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M2304" t="s">
-        <v>352</v>
+        <v>3714</v>
       </c>
       <c r="Q2304" t="s">
-        <v>6799</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="2305" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2305" s="1" t="s">
-        <v>6800</v>
+        <v>6803</v>
       </c>
       <c r="C2305" t="s">
-        <v>6801</v>
+        <v>6804</v>
       </c>
       <c r="D2305" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2305" t="s">
-        <v>2</v>
-      </c>
       <c r="L2305" t="s">
-        <v>3714</v>
+        <v>1155</v>
       </c>
       <c r="Q2305" t="s">
-        <v>6802</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="2306" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2306" s="1" t="s">
-        <v>6803</v>
+        <v>6806</v>
       </c>
       <c r="C2306" t="s">
         <v>6804</v>
@@ -75661,29 +75658,26 @@
         <v>1155</v>
       </c>
       <c r="Q2306" t="s">
-        <v>6805</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="2307" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2307" s="1" t="s">
-        <v>6806</v>
+        <v>6808</v>
       </c>
       <c r="C2307" t="s">
-        <v>6804</v>
-      </c>
-      <c r="D2307" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2307" t="s">
-        <v>1155</v>
+        <v>6809</v>
+      </c>
+      <c r="D2307" s="1">
+        <v>68000</v>
       </c>
       <c r="Q2307" t="s">
-        <v>6807</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="2308" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2308" s="1" t="s">
-        <v>6808</v>
+        <v>6811</v>
       </c>
       <c r="C2308" t="s">
         <v>6809</v>
@@ -75692,12 +75686,12 @@
         <v>68000</v>
       </c>
       <c r="Q2308" t="s">
-        <v>6810</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="2309" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2309" s="1" t="s">
-        <v>6811</v>
+        <v>6813</v>
       </c>
       <c r="C2309" t="s">
         <v>6809</v>
@@ -75706,12 +75700,12 @@
         <v>68000</v>
       </c>
       <c r="Q2309" t="s">
-        <v>6812</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="2310" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2310" s="1" t="s">
-        <v>6813</v>
+        <v>6815</v>
       </c>
       <c r="C2310" t="s">
         <v>6809</v>
@@ -75720,12 +75714,12 @@
         <v>68000</v>
       </c>
       <c r="Q2310" t="s">
-        <v>6814</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="2311" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2311" s="1" t="s">
-        <v>6815</v>
+        <v>6817</v>
       </c>
       <c r="C2311" t="s">
         <v>6809</v>
@@ -75734,12 +75728,12 @@
         <v>68000</v>
       </c>
       <c r="Q2311" t="s">
-        <v>6816</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="2312" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2312" s="1" t="s">
-        <v>6817</v>
+        <v>6819</v>
       </c>
       <c r="C2312" t="s">
         <v>6809</v>
@@ -75748,12 +75742,12 @@
         <v>68000</v>
       </c>
       <c r="Q2312" t="s">
-        <v>6818</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="2313" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2313" s="1" t="s">
-        <v>6819</v>
+        <v>6821</v>
       </c>
       <c r="C2313" t="s">
         <v>6809</v>
@@ -75762,12 +75756,12 @@
         <v>68000</v>
       </c>
       <c r="Q2313" t="s">
-        <v>6820</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="2314" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2314" s="1" t="s">
-        <v>6821</v>
+        <v>6823</v>
       </c>
       <c r="C2314" t="s">
         <v>6809</v>
@@ -75776,12 +75770,12 @@
         <v>68000</v>
       </c>
       <c r="Q2314" t="s">
-        <v>6822</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="2315" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2315" s="1" t="s">
-        <v>6823</v>
+        <v>6825</v>
       </c>
       <c r="C2315" t="s">
         <v>6809</v>
@@ -75790,12 +75784,12 @@
         <v>68000</v>
       </c>
       <c r="Q2315" t="s">
-        <v>6824</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="2316" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2316" s="1" t="s">
-        <v>6825</v>
+        <v>6827</v>
       </c>
       <c r="C2316" t="s">
         <v>6809</v>
@@ -75804,12 +75798,12 @@
         <v>68000</v>
       </c>
       <c r="Q2316" t="s">
-        <v>6826</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="2317" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2317" s="1" t="s">
-        <v>6827</v>
+        <v>6829</v>
       </c>
       <c r="C2317" t="s">
         <v>6809</v>
@@ -75818,12 +75812,12 @@
         <v>68000</v>
       </c>
       <c r="Q2317" t="s">
-        <v>6828</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="2318" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2318" s="1" t="s">
-        <v>6829</v>
+        <v>6831</v>
       </c>
       <c r="C2318" t="s">
         <v>6809</v>
@@ -75832,12 +75826,12 @@
         <v>68000</v>
       </c>
       <c r="Q2318" t="s">
-        <v>6830</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="2319" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2319" s="1" t="s">
-        <v>6831</v>
+        <v>6833</v>
       </c>
       <c r="C2319" t="s">
         <v>6809</v>
@@ -75845,13 +75839,19 @@
       <c r="D2319" s="1">
         <v>68000</v>
       </c>
+      <c r="L2319" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2319" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2319" t="s">
-        <v>6832</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="2320" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2320" s="1" t="s">
-        <v>6833</v>
+        <v>6835</v>
       </c>
       <c r="C2320" t="s">
         <v>6809</v>
@@ -75866,12 +75866,12 @@
         <v>6093</v>
       </c>
       <c r="Q2320" t="s">
-        <v>6834</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="2321" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2321" s="1" t="s">
-        <v>6835</v>
+        <v>6837</v>
       </c>
       <c r="C2321" t="s">
         <v>6809</v>
@@ -75879,19 +75879,13 @@
       <c r="D2321" s="1">
         <v>68000</v>
       </c>
-      <c r="L2321" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2321" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q2321" t="s">
-        <v>6836</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="2322" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2322" s="1" t="s">
-        <v>6837</v>
+        <v>6839</v>
       </c>
       <c r="C2322" t="s">
         <v>6809</v>
@@ -75900,12 +75894,12 @@
         <v>68000</v>
       </c>
       <c r="Q2322" t="s">
-        <v>6838</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="2323" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2323" s="1" t="s">
-        <v>6839</v>
+        <v>6841</v>
       </c>
       <c r="C2323" t="s">
         <v>6809</v>
@@ -75914,12 +75908,12 @@
         <v>68000</v>
       </c>
       <c r="Q2323" t="s">
-        <v>6840</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="2324" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2324" s="1" t="s">
-        <v>6841</v>
+        <v>6843</v>
       </c>
       <c r="C2324" t="s">
         <v>6809</v>
@@ -75927,13 +75921,19 @@
       <c r="D2324" s="1">
         <v>68000</v>
       </c>
+      <c r="L2324" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2324" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2324" t="s">
-        <v>6842</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="2325" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2325" s="1" t="s">
-        <v>6843</v>
+        <v>6845</v>
       </c>
       <c r="C2325" t="s">
         <v>6809</v>
@@ -75941,19 +75941,13 @@
       <c r="D2325" s="1">
         <v>68000</v>
       </c>
-      <c r="L2325" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2325" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q2325" t="s">
-        <v>6844</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="2326" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2326" s="1" t="s">
-        <v>6845</v>
+        <v>6847</v>
       </c>
       <c r="C2326" t="s">
         <v>6809</v>
@@ -75961,13 +75955,19 @@
       <c r="D2326" s="1">
         <v>68000</v>
       </c>
+      <c r="L2326" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M2326" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q2326" t="s">
-        <v>6846</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="2327" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2327" s="1" t="s">
-        <v>6847</v>
+        <v>6849</v>
       </c>
       <c r="C2327" t="s">
         <v>6809</v>
@@ -75982,12 +75982,12 @@
         <v>6093</v>
       </c>
       <c r="Q2327" t="s">
-        <v>6848</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="2328" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2328" s="1" t="s">
-        <v>6849</v>
+        <v>6851</v>
       </c>
       <c r="C2328" t="s">
         <v>6809</v>
@@ -75995,33 +75995,33 @@
       <c r="D2328" s="1">
         <v>68000</v>
       </c>
-      <c r="L2328" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M2328" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q2328" t="s">
-        <v>6850</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="2329" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2329" s="1" t="s">
-        <v>6851</v>
+        <v>6853</v>
       </c>
       <c r="C2329" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D2329" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D2329" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E2329" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L2329" t="s">
+        <v>1900</v>
       </c>
       <c r="Q2329" t="s">
-        <v>6852</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="2330" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2330" s="1" t="s">
-        <v>6853</v>
+        <v>6856</v>
       </c>
       <c r="C2330" t="s">
         <v>6854</v>
@@ -76036,12 +76036,12 @@
         <v>1900</v>
       </c>
       <c r="Q2330" t="s">
-        <v>6855</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="2331" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2331" s="1" t="s">
-        <v>6856</v>
+        <v>3468</v>
       </c>
       <c r="C2331" t="s">
         <v>6854</v>
@@ -76056,32 +76056,44 @@
         <v>1900</v>
       </c>
       <c r="Q2331" t="s">
-        <v>6857</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="2332" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2332" s="1" t="s">
-        <v>3468</v>
+        <v>6858</v>
       </c>
       <c r="C2332" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D2332" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E2332" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F2332" t="s">
+        <v>6862</v>
       </c>
       <c r="L2332" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M2332" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N2332" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O2332" t="s">
+        <v>6866</v>
       </c>
       <c r="Q2332" t="s">
-        <v>3470</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="2333" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2333" s="1" t="s">
-        <v>6858</v>
+        <v>6868</v>
       </c>
       <c r="C2333" t="s">
         <v>6859</v>
@@ -76108,12 +76120,12 @@
         <v>6866</v>
       </c>
       <c r="Q2333" t="s">
-        <v>6867</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="2334" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2334" s="1" t="s">
-        <v>6868</v>
+        <v>6870</v>
       </c>
       <c r="C2334" t="s">
         <v>6859</v>
@@ -76140,44 +76152,35 @@
         <v>6866</v>
       </c>
       <c r="Q2334" t="s">
-        <v>6869</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="2335" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2335" s="1" t="s">
-        <v>6870</v>
+        <v>6872</v>
       </c>
       <c r="C2335" t="s">
-        <v>6859</v>
+        <v>6873</v>
       </c>
       <c r="D2335" s="1" t="s">
-        <v>6860</v>
+        <v>2</v>
       </c>
       <c r="E2335" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F2335" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L2335" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M2335" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N2335" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O2335" t="s">
-        <v>6866</v>
+        <v>3974</v>
       </c>
       <c r="Q2335" t="s">
-        <v>6871</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="2336" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2336" s="1" t="s">
-        <v>6872</v>
+        <v>3490</v>
       </c>
       <c r="C2336" t="s">
         <v>6873</v>
@@ -76195,18 +76198,18 @@
         <v>3974</v>
       </c>
       <c r="Q2336" t="s">
-        <v>6874</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="2337" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2337" s="1" t="s">
-        <v>3490</v>
+        <v>6876</v>
       </c>
       <c r="C2337" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D2337" s="1" t="s">
-        <v>2</v>
+        <v>6877</v>
+      </c>
+      <c r="D2337" s="1">
+        <v>68000</v>
       </c>
       <c r="E2337" t="s">
         <v>2426</v>
@@ -76215,15 +76218,15 @@
         <v>5071</v>
       </c>
       <c r="M2337" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q2337" t="s">
-        <v>6875</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="2338" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2338" s="1" t="s">
-        <v>6876</v>
+        <v>6879</v>
       </c>
       <c r="C2338" t="s">
         <v>6877</v>
@@ -76231,39 +76234,42 @@
       <c r="D2338" s="1">
         <v>68000</v>
       </c>
-      <c r="E2338" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2338" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2338" t="s">
         <v>1687</v>
       </c>
       <c r="Q2338" t="s">
-        <v>6878</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="2339" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2339" s="1" t="s">
-        <v>6879</v>
+        <v>6881</v>
       </c>
       <c r="C2339" t="s">
-        <v>6877</v>
+        <v>6882</v>
       </c>
       <c r="D2339" s="1">
         <v>68000</v>
       </c>
+      <c r="E2339" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2339" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M2339" t="s">
+        <v>5071</v>
+      </c>
+      <c r="N2339" t="s">
         <v>1687</v>
       </c>
       <c r="Q2339" t="s">
-        <v>6880</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="2340" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2340" s="1" t="s">
-        <v>6881</v>
+        <v>6884</v>
       </c>
       <c r="C2340" t="s">
         <v>6882</v>
@@ -76284,12 +76290,12 @@
         <v>1687</v>
       </c>
       <c r="Q2340" t="s">
-        <v>6883</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="2341" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2341" s="1" t="s">
-        <v>6884</v>
+        <v>6886</v>
       </c>
       <c r="C2341" t="s">
         <v>6882</v>
@@ -76310,38 +76316,32 @@
         <v>1687</v>
       </c>
       <c r="Q2341" t="s">
-        <v>6885</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="2342" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2342" s="1" t="s">
-        <v>6886</v>
+        <v>6888</v>
       </c>
       <c r="C2342" t="s">
-        <v>6882</v>
+        <v>6889</v>
       </c>
       <c r="D2342" s="1">
         <v>68000</v>
       </c>
-      <c r="E2342" t="s">
-        <v>2426</v>
-      </c>
       <c r="L2342" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M2342" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N2342" t="s">
         <v>1687</v>
       </c>
       <c r="Q2342" t="s">
-        <v>6887</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="2343" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2343" s="1" t="s">
-        <v>6888</v>
+        <v>6891</v>
       </c>
       <c r="C2343" t="s">
         <v>6889</v>
@@ -76356,32 +76356,35 @@
         <v>1687</v>
       </c>
       <c r="Q2343" t="s">
-        <v>6890</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="2344" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2344" s="1" t="s">
-        <v>6891</v>
+        <v>6893</v>
       </c>
       <c r="C2344" t="s">
-        <v>6889</v>
+        <v>6894</v>
       </c>
       <c r="D2344" s="1">
         <v>68000</v>
       </c>
+      <c r="E2344" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2344" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M2344" t="s">
         <v>1687</v>
       </c>
       <c r="Q2344" t="s">
-        <v>6892</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="2345" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2345" s="1" t="s">
-        <v>6893</v>
+        <v>6896</v>
       </c>
       <c r="C2345" t="s">
         <v>6894</v>
@@ -76399,15 +76402,15 @@
         <v>1687</v>
       </c>
       <c r="Q2345" t="s">
-        <v>6895</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="2346" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2346" s="1" t="s">
-        <v>6896</v>
+        <v>6898</v>
       </c>
       <c r="C2346" t="s">
-        <v>6894</v>
+        <v>6899</v>
       </c>
       <c r="D2346" s="1">
         <v>68000</v>
@@ -76416,84 +76419,87 @@
         <v>2426</v>
       </c>
       <c r="L2346" t="s">
-        <v>5238</v>
+        <v>5071</v>
       </c>
       <c r="M2346" t="s">
         <v>1687</v>
       </c>
       <c r="Q2346" t="s">
-        <v>6897</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="2347" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2347" s="1" t="s">
-        <v>6898</v>
+        <v>6901</v>
       </c>
       <c r="C2347" t="s">
-        <v>6899</v>
-      </c>
-      <c r="D2347" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2347" t="s">
-        <v>2426</v>
+        <v>6902</v>
+      </c>
+      <c r="D2347" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2347" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M2347" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q2347" t="s">
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="2348" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2348" s="1" t="s">
-        <v>6901</v>
-      </c>
-      <c r="C2348" t="s">
-        <v>6902</v>
-      </c>
-      <c r="D2348" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2348" t="s">
-        <v>5070</v>
-      </c>
-      <c r="Q2348" t="s">
         <v>6903</v>
       </c>
     </row>
-    <row r="2349" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2349" s="5" t="s">
+    <row r="2348" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2348" s="5" t="s">
         <v>6904</v>
       </c>
-      <c r="C2349" s="6" t="s">
+      <c r="C2348" s="6" t="s">
         <v>6905</v>
       </c>
-      <c r="D2349" s="5" t="s">
+      <c r="D2348" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E2349" s="6" t="s">
+      <c r="E2348" s="6" t="s">
         <v>6906</v>
       </c>
-      <c r="F2349" s="6" t="s">
+      <c r="F2348" s="6" t="s">
         <v>6906</v>
       </c>
-      <c r="L2349" s="6" t="s">
+      <c r="L2348" s="6" t="s">
         <v>3714</v>
       </c>
-      <c r="M2349" s="6" t="s">
+      <c r="M2348" s="6" t="s">
         <v>2605</v>
       </c>
-      <c r="Q2349" s="6" t="s">
+      <c r="Q2348" s="6" t="s">
         <v>6907</v>
+      </c>
+    </row>
+    <row r="2349" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2349" s="1" t="s">
+        <v>6908</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>6905</v>
+      </c>
+      <c r="D2349" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2349" t="s">
+        <v>6906</v>
+      </c>
+      <c r="F2349" t="s">
+        <v>6906</v>
+      </c>
+      <c r="L2349" t="s">
+        <v>3714</v>
+      </c>
+      <c r="M2349" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Q2349" t="s">
+        <v>6909</v>
       </c>
     </row>
     <row r="2350" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2350" s="1" t="s">
-        <v>6908</v>
+        <v>6910</v>
       </c>
       <c r="C2350" t="s">
         <v>6905</v>
@@ -76514,38 +76520,29 @@
         <v>2605</v>
       </c>
       <c r="Q2350" t="s">
-        <v>6909</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="2351" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2351" s="1" t="s">
-        <v>6910</v>
+        <v>3439</v>
       </c>
       <c r="C2351" t="s">
-        <v>6905</v>
+        <v>3440</v>
       </c>
       <c r="D2351" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E2351" t="s">
-        <v>6906</v>
-      </c>
-      <c r="F2351" t="s">
-        <v>6906</v>
-      </c>
-      <c r="L2351" t="s">
-        <v>3714</v>
-      </c>
-      <c r="M2351" t="s">
-        <v>2605</v>
+        <v>3888</v>
       </c>
       <c r="Q2351" t="s">
-        <v>6911</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="2352" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2352" s="1" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="C2352" t="s">
         <v>3440</v>
@@ -76557,29 +76554,32 @@
         <v>3888</v>
       </c>
       <c r="Q2352" t="s">
-        <v>3441</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="2353" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2353" s="1" t="s">
-        <v>3442</v>
+        <v>3402</v>
       </c>
       <c r="C2353" t="s">
-        <v>3440</v>
+        <v>3403</v>
       </c>
       <c r="D2353" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E2353" t="s">
-        <v>3888</v>
+        <v>3794</v>
+      </c>
+      <c r="L2353" t="s">
+        <v>542</v>
       </c>
       <c r="Q2353" t="s">
-        <v>3443</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="2354" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2354" s="1" t="s">
-        <v>3402</v>
+        <v>3404</v>
       </c>
       <c r="C2354" t="s">
         <v>3403</v>
@@ -76594,12 +76594,12 @@
         <v>542</v>
       </c>
       <c r="Q2354" t="s">
-        <v>4580</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="2355" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2355" s="1" t="s">
-        <v>3404</v>
+        <v>3406</v>
       </c>
       <c r="C2355" t="s">
         <v>3403</v>
@@ -76614,12 +76614,12 @@
         <v>542</v>
       </c>
       <c r="Q2355" t="s">
-        <v>3405</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="2356" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2356" s="1" t="s">
-        <v>3406</v>
+        <v>3408</v>
       </c>
       <c r="C2356" t="s">
         <v>3403</v>
@@ -76634,12 +76634,12 @@
         <v>542</v>
       </c>
       <c r="Q2356" t="s">
-        <v>3407</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="2357" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2357" s="1" t="s">
-        <v>3408</v>
+        <v>3410</v>
       </c>
       <c r="C2357" t="s">
         <v>3403</v>
@@ -76654,52 +76654,49 @@
         <v>542</v>
       </c>
       <c r="Q2357" t="s">
-        <v>3409</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="2358" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2358" s="1" t="s">
-        <v>3410</v>
+        <v>3419</v>
       </c>
       <c r="C2358" t="s">
-        <v>3403</v>
+        <v>3420</v>
       </c>
       <c r="D2358" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2358" t="s">
-        <v>3794</v>
+        <v>2426</v>
       </c>
       <c r="L2358" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q2358" t="s">
-        <v>3411</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="2359" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2359" s="1" t="s">
-        <v>3419</v>
+        <v>3422</v>
       </c>
       <c r="C2359" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="D2359" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E2359" t="s">
-        <v>2426</v>
       </c>
       <c r="L2359" t="s">
         <v>1155</v>
       </c>
       <c r="Q2359" t="s">
-        <v>3421</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="2360" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2360" s="1" t="s">
-        <v>3422</v>
+        <v>3425</v>
       </c>
       <c r="C2360" t="s">
         <v>3423</v>
@@ -76711,163 +76708,163 @@
         <v>1155</v>
       </c>
       <c r="Q2360" t="s">
-        <v>3424</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="2361" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2361" s="1" t="s">
-        <v>3425</v>
+        <v>3444</v>
       </c>
       <c r="C2361" t="s">
-        <v>3423</v>
-      </c>
-      <c r="D2361" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2361" t="s">
-        <v>1155</v>
+        <v>3445</v>
+      </c>
+      <c r="D2361" s="1">
+        <v>8080</v>
       </c>
       <c r="Q2361" t="s">
-        <v>3426</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="2362" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2362" s="1" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="C2362" t="s">
-        <v>3445</v>
-      </c>
-      <c r="D2362" s="1">
-        <v>8080</v>
+        <v>3448</v>
+      </c>
+      <c r="D2362" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E2362" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F2362" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G2362" t="s">
+        <v>3899</v>
+      </c>
+      <c r="L2362" t="s">
+        <v>2605</v>
+      </c>
+      <c r="M2362" t="s">
+        <v>5238</v>
       </c>
       <c r="Q2362" t="s">
-        <v>3446</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="2363" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2363" s="1" t="s">
-        <v>3447</v>
+        <v>3460</v>
       </c>
       <c r="C2363" t="s">
-        <v>3448</v>
+        <v>3461</v>
       </c>
       <c r="D2363" s="1" t="s">
-        <v>3006</v>
-      </c>
-      <c r="E2363" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F2363" t="s">
-        <v>3899</v>
-      </c>
-      <c r="G2363" t="s">
-        <v>3899</v>
+        <v>2</v>
       </c>
       <c r="L2363" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M2363" t="s">
-        <v>5238</v>
+        <v>1155</v>
       </c>
       <c r="Q2363" t="s">
-        <v>4581</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="2364" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2364" s="1" t="s">
-        <v>3460</v>
+        <v>3463</v>
       </c>
       <c r="C2364" t="s">
-        <v>3461</v>
-      </c>
-      <c r="D2364" s="1" t="s">
-        <v>2</v>
+        <v>3464</v>
+      </c>
+      <c r="D2364" s="1">
+        <v>8080</v>
       </c>
       <c r="L2364" t="s">
-        <v>1155</v>
+        <v>352</v>
       </c>
       <c r="Q2364" t="s">
-        <v>3462</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="2365" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2365" s="1" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
       <c r="C2365" t="s">
-        <v>3464</v>
-      </c>
-      <c r="D2365" s="1">
-        <v>8080</v>
+        <v>3356</v>
+      </c>
+      <c r="D2365" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2365" t="s">
+        <v>2426</v>
       </c>
       <c r="L2365" t="s">
-        <v>352</v>
+        <v>5070</v>
       </c>
       <c r="Q2365" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="2366" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2366" s="1" t="s">
-        <v>3466</v>
+        <v>3471</v>
       </c>
       <c r="C2366" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D2366" s="1" t="s">
-        <v>2</v>
+        <v>3472</v>
+      </c>
+      <c r="D2366" s="1">
+        <v>68000</v>
       </c>
       <c r="E2366" t="s">
         <v>2426</v>
       </c>
       <c r="L2366" t="s">
-        <v>5070</v>
+        <v>3954</v>
       </c>
       <c r="Q2366" t="s">
-        <v>3467</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="2367" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2367" s="1" t="s">
-        <v>3471</v>
+        <v>3474</v>
       </c>
       <c r="C2367" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D2367" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2367" t="s">
-        <v>2426</v>
+        <v>3475</v>
+      </c>
+      <c r="D2367" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="L2367" t="s">
-        <v>3954</v>
+        <v>55</v>
       </c>
       <c r="Q2367" t="s">
-        <v>3473</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="2368" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2368" s="1" t="s">
-        <v>3474</v>
+        <v>6912</v>
       </c>
       <c r="C2368" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="D2368" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="L2368" t="s">
-        <v>55</v>
+        <v>352</v>
       </c>
       <c r="Q2368" t="s">
-        <v>3476</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="2369" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2369" s="1" t="s">
-        <v>6912</v>
+        <v>3477</v>
       </c>
       <c r="C2369" t="s">
         <v>3478</v>
@@ -76879,29 +76876,29 @@
         <v>352</v>
       </c>
       <c r="Q2369" t="s">
-        <v>6913</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="2370" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2370" s="1" t="s">
-        <v>3477</v>
+        <v>3479</v>
       </c>
       <c r="C2370" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="D2370" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2370" t="s">
-        <v>352</v>
+        <v>58</v>
       </c>
       <c r="Q2370" t="s">
-        <v>4586</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="2371" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2371" s="1" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="C2371" t="s">
         <v>3480</v>
@@ -76913,63 +76910,66 @@
         <v>58</v>
       </c>
       <c r="Q2371" t="s">
-        <v>3481</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="2372" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2372" s="1" t="s">
-        <v>3482</v>
+        <v>3487</v>
       </c>
       <c r="C2372" t="s">
-        <v>3480</v>
+        <v>3488</v>
       </c>
       <c r="D2372" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2372" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q2372" t="s">
-        <v>3483</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="2373" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2373" s="1" t="s">
-        <v>3487</v>
+        <v>3491</v>
       </c>
       <c r="C2373" t="s">
-        <v>3488</v>
+        <v>3492</v>
       </c>
       <c r="D2373" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L2373" t="s">
-        <v>1155</v>
+        <v>55</v>
       </c>
       <c r="Q2373" t="s">
-        <v>3489</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="2374" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2374" s="1" t="s">
-        <v>3491</v>
+        <v>6914</v>
       </c>
       <c r="C2374" t="s">
-        <v>3492</v>
+        <v>6915</v>
       </c>
       <c r="D2374" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2374" t="s">
+        <v>2</v>
+      </c>
       <c r="L2374" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="Q2374" t="s">
-        <v>3493</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="2375" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2375" s="1" t="s">
-        <v>6914</v>
+        <v>6917</v>
       </c>
       <c r="C2375" t="s">
         <v>6915</v>
@@ -76984,32 +76984,29 @@
         <v>5238</v>
       </c>
       <c r="Q2375" t="s">
-        <v>6916</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="2376" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2376" s="1" t="s">
-        <v>6917</v>
+        <v>6919</v>
       </c>
       <c r="C2376" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D2376" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2376" t="s">
-        <v>2</v>
-      </c>
       <c r="L2376" t="s">
-        <v>5238</v>
+        <v>55</v>
       </c>
       <c r="Q2376" t="s">
-        <v>6918</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="2377" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2377" s="1" t="s">
-        <v>6919</v>
+        <v>6922</v>
       </c>
       <c r="C2377" t="s">
         <v>6920</v>
@@ -77017,16 +77014,25 @@
       <c r="D2377" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2377" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2377" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2377" t="s">
+        <v>542</v>
+      </c>
+      <c r="M2377" t="s">
         <v>55</v>
       </c>
       <c r="Q2377" t="s">
-        <v>6921</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="2378" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2378" s="1" t="s">
-        <v>6922</v>
+        <v>6924</v>
       </c>
       <c r="C2378" t="s">
         <v>6920</v>
@@ -77047,55 +77053,49 @@
         <v>55</v>
       </c>
       <c r="Q2378" t="s">
-        <v>6923</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="2379" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2379" s="1" t="s">
-        <v>6924</v>
+        <v>6926</v>
       </c>
       <c r="C2379" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D2379" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2379" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2379" t="s">
-        <v>2426</v>
+        <v>6927</v>
+      </c>
+      <c r="D2379" s="1">
+        <v>68000</v>
       </c>
       <c r="L2379" t="s">
-        <v>542</v>
-      </c>
-      <c r="M2379" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q2379" t="s">
-        <v>6925</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="2380" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2380" s="1" t="s">
-        <v>6926</v>
+        <v>3494</v>
       </c>
       <c r="C2380" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D2380" s="1">
         <v>68000</v>
       </c>
+      <c r="E2380" t="s">
+        <v>2426</v>
+      </c>
       <c r="L2380" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q2380" t="s">
-        <v>6928</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="2381" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2381" s="1" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="C2381" t="s">
         <v>3495</v>
@@ -77110,12 +77110,12 @@
         <v>5549</v>
       </c>
       <c r="Q2381" t="s">
-        <v>3496</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="2382" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2382" s="1" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="C2382" t="s">
         <v>3495</v>
@@ -77130,12 +77130,12 @@
         <v>5549</v>
       </c>
       <c r="Q2382" t="s">
-        <v>4587</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="2383" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2383" s="1" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="C2383" t="s">
         <v>3495</v>
@@ -77150,12 +77150,12 @@
         <v>5549</v>
       </c>
       <c r="Q2383" t="s">
-        <v>3499</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="2384" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2384" s="1" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="C2384" t="s">
         <v>3495</v>
@@ -77170,12 +77170,12 @@
         <v>5549</v>
       </c>
       <c r="Q2384" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="2385" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2385" s="1" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="C2385" t="s">
         <v>3495</v>
@@ -77190,12 +77190,12 @@
         <v>5549</v>
       </c>
       <c r="Q2385" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="2386" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2386" s="1" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="C2386" t="s">
         <v>3495</v>
@@ -77210,12 +77210,12 @@
         <v>5549</v>
       </c>
       <c r="Q2386" t="s">
-        <v>3505</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="2387" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2387" s="1" t="s">
-        <v>3506</v>
+        <v>6930</v>
       </c>
       <c r="C2387" t="s">
         <v>3495</v>
@@ -77230,12 +77230,12 @@
         <v>5549</v>
       </c>
       <c r="Q2387" t="s">
-        <v>6929</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="2388" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2388" s="1" t="s">
-        <v>6930</v>
+        <v>3507</v>
       </c>
       <c r="C2388" t="s">
         <v>3495</v>
@@ -77250,12 +77250,12 @@
         <v>5549</v>
       </c>
       <c r="Q2388" t="s">
-        <v>6931</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="2389" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2389" s="1" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="C2389" t="s">
         <v>3495</v>
@@ -77270,12 +77270,12 @@
         <v>5549</v>
       </c>
       <c r="Q2389" t="s">
-        <v>4952</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="2390" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2390" s="1" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="C2390" t="s">
         <v>3495</v>
@@ -77290,12 +77290,12 @@
         <v>5549</v>
       </c>
       <c r="Q2390" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="2391" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2391" s="1" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="C2391" t="s">
         <v>3495</v>
@@ -77310,12 +77310,12 @@
         <v>5549</v>
       </c>
       <c r="Q2391" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="2392" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2392" s="1" t="s">
-        <v>3512</v>
+        <v>3514</v>
       </c>
       <c r="C2392" t="s">
         <v>3495</v>
@@ -77330,12 +77330,12 @@
         <v>5549</v>
       </c>
       <c r="Q2392" t="s">
-        <v>3513</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="2393" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2393" s="1" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="C2393" t="s">
         <v>3495</v>
@@ -77350,12 +77350,12 @@
         <v>5549</v>
       </c>
       <c r="Q2393" t="s">
-        <v>3515</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="2394" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2394" s="1" t="s">
-        <v>3516</v>
+        <v>3518</v>
       </c>
       <c r="C2394" t="s">
         <v>3495</v>
@@ -77370,12 +77370,12 @@
         <v>5549</v>
       </c>
       <c r="Q2394" t="s">
-        <v>3517</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2395" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2395" s="1" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="C2395" t="s">
         <v>3495</v>
@@ -77390,12 +77390,12 @@
         <v>5549</v>
       </c>
       <c r="Q2395" t="s">
-        <v>4953</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="2396" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2396" s="1" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="C2396" t="s">
         <v>3495</v>
@@ -77410,12 +77410,12 @@
         <v>5549</v>
       </c>
       <c r="Q2396" t="s">
-        <v>4954</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="2397" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2397" s="1" t="s">
-        <v>3520</v>
+        <v>3522</v>
       </c>
       <c r="C2397" t="s">
         <v>3495</v>
@@ -77430,12 +77430,12 @@
         <v>5549</v>
       </c>
       <c r="Q2397" t="s">
-        <v>3521</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="2398" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2398" s="1" t="s">
-        <v>3522</v>
+        <v>3524</v>
       </c>
       <c r="C2398" t="s">
         <v>3495</v>
@@ -77450,12 +77450,12 @@
         <v>5549</v>
       </c>
       <c r="Q2398" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="2399" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2399" s="1" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="C2399" t="s">
         <v>3495</v>
@@ -77470,12 +77470,12 @@
         <v>5549</v>
       </c>
       <c r="Q2399" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="2400" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2400" s="1" t="s">
-        <v>3526</v>
+        <v>3528</v>
       </c>
       <c r="C2400" t="s">
         <v>3495</v>
@@ -77490,12 +77490,12 @@
         <v>5549</v>
       </c>
       <c r="Q2400" t="s">
-        <v>3527</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="2401" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2401" s="1" t="s">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="C2401" t="s">
         <v>3495</v>
@@ -77510,12 +77510,12 @@
         <v>5549</v>
       </c>
       <c r="Q2401" t="s">
-        <v>3529</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="2402" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2402" s="1" t="s">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="C2402" t="s">
         <v>3495</v>
@@ -77530,12 +77530,12 @@
         <v>5549</v>
       </c>
       <c r="Q2402" t="s">
-        <v>3531</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="2403" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2403" s="1" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="C2403" t="s">
         <v>3495</v>
@@ -77550,12 +77550,12 @@
         <v>5549</v>
       </c>
       <c r="Q2403" t="s">
-        <v>4955</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="2404" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2404" s="1" t="s">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="C2404" t="s">
         <v>3495</v>
@@ -77570,12 +77570,12 @@
         <v>5549</v>
       </c>
       <c r="Q2404" t="s">
-        <v>3534</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="2405" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2405" s="1" t="s">
-        <v>3535</v>
+        <v>3537</v>
       </c>
       <c r="C2405" t="s">
         <v>3495</v>
@@ -77590,12 +77590,12 @@
         <v>5549</v>
       </c>
       <c r="Q2405" t="s">
-        <v>3536</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="2406" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2406" s="1" t="s">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="C2406" t="s">
         <v>3495</v>
@@ -77610,12 +77610,12 @@
         <v>5549</v>
       </c>
       <c r="Q2406" t="s">
-        <v>3538</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="2407" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2407" s="1" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="C2407" t="s">
         <v>3495</v>
@@ -77630,12 +77630,12 @@
         <v>5549</v>
       </c>
       <c r="Q2407" t="s">
-        <v>4956</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="2408" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2408" s="1" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="C2408" t="s">
         <v>3495</v>
@@ -77650,12 +77650,12 @@
         <v>5549</v>
       </c>
       <c r="Q2408" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2409" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2409" s="1" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="C2409" t="s">
         <v>3495</v>
@@ -77670,12 +77670,12 @@
         <v>5549</v>
       </c>
       <c r="Q2409" t="s">
-        <v>4589</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="2410" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2410" s="1" t="s">
-        <v>3542</v>
+        <v>3544</v>
       </c>
       <c r="C2410" t="s">
         <v>3495</v>
@@ -77690,12 +77690,12 @@
         <v>5549</v>
       </c>
       <c r="Q2410" t="s">
-        <v>3543</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="2411" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2411" s="1" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="C2411" t="s">
         <v>3495</v>
@@ -77710,12 +77710,12 @@
         <v>5549</v>
       </c>
       <c r="Q2411" t="s">
-        <v>3545</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="2412" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2412" s="1" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="C2412" t="s">
         <v>3495</v>
@@ -77730,12 +77730,12 @@
         <v>5549</v>
       </c>
       <c r="Q2412" t="s">
-        <v>4957</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="2413" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2413" s="1" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="C2413" t="s">
         <v>3495</v>
@@ -77750,12 +77750,12 @@
         <v>5549</v>
       </c>
       <c r="Q2413" t="s">
-        <v>3548</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="2414" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2414" s="1" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="C2414" t="s">
         <v>3495</v>
@@ -77770,12 +77770,12 @@
         <v>5549</v>
       </c>
       <c r="Q2414" t="s">
-        <v>4590</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="2415" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2415" s="1" t="s">
-        <v>3550</v>
+        <v>3552</v>
       </c>
       <c r="C2415" t="s">
         <v>3495</v>
@@ -77790,12 +77790,12 @@
         <v>5549</v>
       </c>
       <c r="Q2415" t="s">
-        <v>3551</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="2416" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2416" s="1" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="C2416" t="s">
         <v>3495</v>
@@ -77810,12 +77810,12 @@
         <v>5549</v>
       </c>
       <c r="Q2416" t="s">
-        <v>3553</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="2417" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2417" s="1" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="C2417" t="s">
         <v>3495</v>
@@ -77830,12 +77830,12 @@
         <v>5549</v>
       </c>
       <c r="Q2417" t="s">
-        <v>4958</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="2418" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2418" s="1" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="C2418" t="s">
         <v>3495</v>
@@ -77850,12 +77850,12 @@
         <v>5549</v>
       </c>
       <c r="Q2418" t="s">
-        <v>4591</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="2419" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2419" s="1" t="s">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="C2419" t="s">
         <v>3495</v>
@@ -77870,12 +77870,12 @@
         <v>5549</v>
       </c>
       <c r="Q2419" t="s">
-        <v>3557</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="2420" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2420" s="1" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="C2420" t="s">
         <v>3495</v>
@@ -77890,12 +77890,12 @@
         <v>5549</v>
       </c>
       <c r="Q2420" t="s">
-        <v>4959</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="2421" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2421" s="1" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="C2421" t="s">
         <v>3495</v>
@@ -77910,12 +77910,12 @@
         <v>5549</v>
       </c>
       <c r="Q2421" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="2422" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2422" s="1" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="C2422" t="s">
         <v>3495</v>
@@ -77930,12 +77930,12 @@
         <v>5549</v>
       </c>
       <c r="Q2422" t="s">
-        <v>4593</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="2423" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2423" s="1" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="C2423" t="s">
         <v>3495</v>
@@ -77950,12 +77950,12 @@
         <v>5549</v>
       </c>
       <c r="Q2423" t="s">
-        <v>4960</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="2424" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2424" s="1" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="C2424" t="s">
         <v>3495</v>
@@ -77970,12 +77970,12 @@
         <v>5549</v>
       </c>
       <c r="Q2424" t="s">
-        <v>4594</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2425" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2425" s="1" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="C2425" t="s">
         <v>3495</v>
@@ -77990,12 +77990,12 @@
         <v>5549</v>
       </c>
       <c r="Q2425" t="s">
-        <v>4961</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="2426" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2426" s="1" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="C2426" t="s">
         <v>3495</v>
@@ -78010,12 +78010,12 @@
         <v>5549</v>
       </c>
       <c r="Q2426" t="s">
-        <v>4962</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="2427" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2427" s="1" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="C2427" t="s">
         <v>3495</v>
@@ -78030,12 +78030,12 @@
         <v>5549</v>
       </c>
       <c r="Q2427" t="s">
-        <v>3566</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="2428" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2428" s="1" t="s">
-        <v>3567</v>
+        <v>3569</v>
       </c>
       <c r="C2428" t="s">
         <v>3495</v>
@@ -78050,12 +78050,12 @@
         <v>5549</v>
       </c>
       <c r="Q2428" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="2429" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2429" s="1" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="C2429" t="s">
         <v>3495</v>
@@ -78070,12 +78070,12 @@
         <v>5549</v>
       </c>
       <c r="Q2429" t="s">
-        <v>3570</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="2430" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2430" s="1" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="C2430" t="s">
         <v>3495</v>
@@ -78090,12 +78090,12 @@
         <v>5549</v>
       </c>
       <c r="Q2430" t="s">
-        <v>4595</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="2431" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2431" s="1" t="s">
-        <v>3572</v>
+        <v>3574</v>
       </c>
       <c r="C2431" t="s">
         <v>3495</v>
@@ -78110,12 +78110,12 @@
         <v>5549</v>
       </c>
       <c r="Q2431" t="s">
-        <v>3573</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="2432" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2432" s="1" t="s">
-        <v>3574</v>
+        <v>3576</v>
       </c>
       <c r="C2432" t="s">
         <v>3495</v>
@@ -78130,12 +78130,12 @@
         <v>5549</v>
       </c>
       <c r="Q2432" t="s">
-        <v>3575</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="2433" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2433" s="1" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="C2433" t="s">
         <v>3495</v>
@@ -78150,12 +78150,12 @@
         <v>5549</v>
       </c>
       <c r="Q2433" t="s">
-        <v>4963</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="2434" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2434" s="1" t="s">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="C2434" t="s">
         <v>3495</v>
@@ -78170,12 +78170,12 @@
         <v>5549</v>
       </c>
       <c r="Q2434" t="s">
-        <v>3578</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="2435" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2435" s="1" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="C2435" t="s">
         <v>3495</v>
@@ -78190,12 +78190,12 @@
         <v>5549</v>
       </c>
       <c r="Q2435" t="s">
-        <v>4964</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2436" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2436" s="1" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="C2436" t="s">
         <v>3495</v>
@@ -78210,12 +78210,12 @@
         <v>5549</v>
       </c>
       <c r="Q2436" t="s">
-        <v>4965</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="2437" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2437" s="1" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="C2437" t="s">
         <v>3495</v>
@@ -78230,12 +78230,12 @@
         <v>5549</v>
       </c>
       <c r="Q2437" t="s">
-        <v>4596</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="2438" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2438" s="1" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="C2438" t="s">
         <v>3495</v>
@@ -78250,12 +78250,12 @@
         <v>5549</v>
       </c>
       <c r="Q2438" t="s">
-        <v>4966</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="2439" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2439" s="1" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="C2439" t="s">
         <v>3495</v>
@@ -78270,12 +78270,12 @@
         <v>5549</v>
       </c>
       <c r="Q2439" t="s">
-        <v>4597</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2440" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2440" s="1" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="C2440" t="s">
         <v>3495</v>
@@ -78290,12 +78290,12 @@
         <v>5549</v>
       </c>
       <c r="Q2440" t="s">
-        <v>4967</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="2441" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2441" s="1" t="s">
-        <v>3585</v>
+        <v>3587</v>
       </c>
       <c r="C2441" t="s">
         <v>3495</v>
@@ -78310,12 +78310,12 @@
         <v>5549</v>
       </c>
       <c r="Q2441" t="s">
-        <v>3586</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="2442" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2442" s="1" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="C2442" t="s">
         <v>3495</v>
@@ -78330,12 +78330,12 @@
         <v>5549</v>
       </c>
       <c r="Q2442" t="s">
-        <v>4598</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="2443" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2443" s="1" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="C2443" t="s">
         <v>3495</v>
@@ -78350,12 +78350,12 @@
         <v>5549</v>
       </c>
       <c r="Q2443" t="s">
-        <v>4968</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="2444" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2444" s="1" t="s">
-        <v>3589</v>
+        <v>3591</v>
       </c>
       <c r="C2444" t="s">
         <v>3495</v>
@@ -78370,12 +78370,12 @@
         <v>5549</v>
       </c>
       <c r="Q2444" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="2445" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2445" s="1" t="s">
-        <v>3591</v>
+        <v>3593</v>
       </c>
       <c r="C2445" t="s">
         <v>3495</v>
@@ -78390,12 +78390,12 @@
         <v>5549</v>
       </c>
       <c r="Q2445" t="s">
-        <v>3592</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="2446" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2446" s="1" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="C2446" t="s">
         <v>3495</v>
@@ -78410,12 +78410,12 @@
         <v>5549</v>
       </c>
       <c r="Q2446" t="s">
-        <v>4969</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="2447" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2447" s="1" t="s">
-        <v>3594</v>
+        <v>3596</v>
       </c>
       <c r="C2447" t="s">
         <v>3495</v>
@@ -78430,12 +78430,12 @@
         <v>5549</v>
       </c>
       <c r="Q2447" t="s">
-        <v>3595</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="2448" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2448" s="1" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="C2448" t="s">
         <v>3495</v>
@@ -78450,12 +78450,12 @@
         <v>5549</v>
       </c>
       <c r="Q2448" t="s">
-        <v>4970</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="2449" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2449" s="1" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="C2449" t="s">
         <v>3495</v>
@@ -78470,12 +78470,12 @@
         <v>5549</v>
       </c>
       <c r="Q2449" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="2450" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2450" s="1" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="C2450" t="s">
         <v>3495</v>
@@ -78490,12 +78490,12 @@
         <v>5549</v>
       </c>
       <c r="Q2450" t="s">
-        <v>4600</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2451" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2451" s="1" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="C2451" t="s">
         <v>3495</v>
@@ -78510,12 +78510,12 @@
         <v>5549</v>
       </c>
       <c r="Q2451" t="s">
-        <v>4971</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="2452" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2452" s="1" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="C2452" t="s">
         <v>3495</v>
@@ -78530,12 +78530,12 @@
         <v>5549</v>
       </c>
       <c r="Q2452" t="s">
-        <v>4972</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="2453" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2453" s="1" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="C2453" t="s">
         <v>3495</v>
@@ -78550,12 +78550,12 @@
         <v>5549</v>
       </c>
       <c r="Q2453" t="s">
-        <v>3602</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2454" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2454" s="1" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="C2454" t="s">
         <v>3495</v>
@@ -78570,12 +78570,12 @@
         <v>5549</v>
       </c>
       <c r="Q2454" t="s">
-        <v>4973</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2455" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2455" s="1" t="s">
-        <v>3604</v>
+        <v>6932</v>
       </c>
       <c r="C2455" t="s">
         <v>3495</v>
@@ -78590,12 +78590,12 @@
         <v>5549</v>
       </c>
       <c r="Q2455" t="s">
-        <v>3605</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="2456" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2456" s="1" t="s">
-        <v>6932</v>
+        <v>3607</v>
       </c>
       <c r="C2456" t="s">
         <v>3495</v>
@@ -78610,12 +78610,12 @@
         <v>5549</v>
       </c>
       <c r="Q2456" t="s">
-        <v>4974</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="2457" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2457" s="1" t="s">
-        <v>3607</v>
+        <v>3609</v>
       </c>
       <c r="C2457" t="s">
         <v>3495</v>
@@ -78630,12 +78630,12 @@
         <v>5549</v>
       </c>
       <c r="Q2457" t="s">
-        <v>3608</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="2458" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2458" s="1" t="s">
-        <v>3609</v>
+        <v>3611</v>
       </c>
       <c r="C2458" t="s">
         <v>3495</v>
@@ -78650,12 +78650,12 @@
         <v>5549</v>
       </c>
       <c r="Q2458" t="s">
-        <v>3610</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="2459" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2459" s="1" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="C2459" t="s">
         <v>3495</v>
@@ -78670,12 +78670,12 @@
         <v>5549</v>
       </c>
       <c r="Q2459" t="s">
-        <v>4975</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="2460" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2460" s="1" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="C2460" t="s">
         <v>3495</v>
@@ -78690,12 +78690,12 @@
         <v>5549</v>
       </c>
       <c r="Q2460" t="s">
-        <v>4976</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="2461" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2461" s="1" t="s">
-        <v>3613</v>
+        <v>3615</v>
       </c>
       <c r="C2461" t="s">
         <v>3495</v>
@@ -78710,12 +78710,12 @@
         <v>5549</v>
       </c>
       <c r="Q2461" t="s">
-        <v>3614</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="2462" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2462" s="1" t="s">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C2462" t="s">
         <v>3495</v>
@@ -78730,12 +78730,12 @@
         <v>5549</v>
       </c>
       <c r="Q2462" t="s">
-        <v>3616</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2463" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2463" s="1" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="C2463" t="s">
         <v>3495</v>
@@ -78750,12 +78750,12 @@
         <v>5549</v>
       </c>
       <c r="Q2463" t="s">
-        <v>4977</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="2464" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2464" s="1" t="s">
-        <v>3618</v>
+        <v>3620</v>
       </c>
       <c r="C2464" t="s">
         <v>3495</v>
@@ -78770,12 +78770,12 @@
         <v>5549</v>
       </c>
       <c r="Q2464" t="s">
-        <v>3619</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="2465" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2465" s="1" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="C2465" t="s">
         <v>3495</v>
@@ -78790,12 +78790,12 @@
         <v>5549</v>
       </c>
       <c r="Q2465" t="s">
-        <v>4978</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2466" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2466" s="1" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="C2466" t="s">
         <v>3495</v>
@@ -78810,12 +78810,12 @@
         <v>5549</v>
       </c>
       <c r="Q2466" t="s">
-        <v>4979</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="2467" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2467" s="1" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="C2467" t="s">
         <v>3495</v>
@@ -78830,12 +78830,12 @@
         <v>5549</v>
       </c>
       <c r="Q2467" t="s">
-        <v>4980</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="2468" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2468" s="1" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="C2468" t="s">
         <v>3495</v>
@@ -78850,12 +78850,12 @@
         <v>5549</v>
       </c>
       <c r="Q2468" t="s">
-        <v>4601</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="2469" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2469" s="1" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="C2469" t="s">
         <v>3495</v>
@@ -78870,12 +78870,12 @@
         <v>5549</v>
       </c>
       <c r="Q2469" t="s">
-        <v>4981</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="2470" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2470" s="1" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="C2470" t="s">
         <v>3495</v>
@@ -78890,12 +78890,12 @@
         <v>5549</v>
       </c>
       <c r="Q2470" t="s">
-        <v>4602</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="2471" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2471" s="1" t="s">
-        <v>3626</v>
+        <v>3628</v>
       </c>
       <c r="C2471" t="s">
         <v>3495</v>
@@ -78910,12 +78910,12 @@
         <v>5549</v>
       </c>
       <c r="Q2471" t="s">
-        <v>3627</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="2472" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2472" s="1" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="C2472" t="s">
         <v>3495</v>
@@ -78930,12 +78930,12 @@
         <v>5549</v>
       </c>
       <c r="Q2472" t="s">
-        <v>4982</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="2473" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2473" s="1" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="C2473" t="s">
         <v>3495</v>
@@ -78950,12 +78950,12 @@
         <v>5549</v>
       </c>
       <c r="Q2473" t="s">
-        <v>4603</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="2474" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2474" s="1" t="s">
-        <v>3630</v>
+        <v>3632</v>
       </c>
       <c r="C2474" t="s">
         <v>3495</v>
@@ -78970,12 +78970,12 @@
         <v>5549</v>
       </c>
       <c r="Q2474" t="s">
-        <v>3631</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="2475" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2475" s="1" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="C2475" t="s">
         <v>3495</v>
@@ -78990,12 +78990,12 @@
         <v>5549</v>
       </c>
       <c r="Q2475" t="s">
-        <v>4983</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="2476" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2476" s="1" t="s">
-        <v>3633</v>
+        <v>3635</v>
       </c>
       <c r="C2476" t="s">
         <v>3495</v>
@@ -79010,12 +79010,12 @@
         <v>5549</v>
       </c>
       <c r="Q2476" t="s">
-        <v>3634</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="2477" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2477" s="1" t="s">
-        <v>3635</v>
+        <v>3637</v>
       </c>
       <c r="C2477" t="s">
         <v>3495</v>
@@ -79030,12 +79030,12 @@
         <v>5549</v>
       </c>
       <c r="Q2477" t="s">
-        <v>3636</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="2478" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2478" s="1" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="C2478" t="s">
         <v>3495</v>
@@ -79050,12 +79050,12 @@
         <v>5549</v>
       </c>
       <c r="Q2478" t="s">
-        <v>4604</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="2479" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2479" s="1" t="s">
-        <v>3638</v>
+        <v>3640</v>
       </c>
       <c r="C2479" t="s">
         <v>3495</v>
@@ -79070,12 +79070,12 @@
         <v>5549</v>
       </c>
       <c r="Q2479" t="s">
-        <v>3639</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="2480" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2480" s="1" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="C2480" t="s">
         <v>3495</v>
@@ -79090,12 +79090,12 @@
         <v>5549</v>
       </c>
       <c r="Q2480" t="s">
-        <v>4984</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2481" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2481" s="1" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="C2481" t="s">
         <v>3495</v>
@@ -79110,12 +79110,12 @@
         <v>5549</v>
       </c>
       <c r="Q2481" t="s">
-        <v>4985</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="2482" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2482" s="1" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="C2482" t="s">
         <v>3495</v>
@@ -79130,12 +79130,12 @@
         <v>5549</v>
       </c>
       <c r="Q2482" t="s">
-        <v>4605</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="2483" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2483" s="1" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="C2483" t="s">
         <v>3495</v>
@@ -79150,12 +79150,12 @@
         <v>5549</v>
       </c>
       <c r="Q2483" t="s">
-        <v>4986</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2484" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2484" s="1" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="C2484" t="s">
         <v>3495</v>
@@ -79170,12 +79170,12 @@
         <v>5549</v>
       </c>
       <c r="Q2484" t="s">
-        <v>4987</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="2485" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2485" s="1" t="s">
-        <v>3645</v>
+        <v>3647</v>
       </c>
       <c r="C2485" t="s">
         <v>3495</v>
@@ -79190,12 +79190,12 @@
         <v>5549</v>
       </c>
       <c r="Q2485" t="s">
-        <v>3646</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="2486" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2486" s="1" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="C2486" t="s">
         <v>3495</v>
@@ -79210,12 +79210,12 @@
         <v>5549</v>
       </c>
       <c r="Q2486" t="s">
-        <v>4988</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2487" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2487" s="1" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C2487" t="s">
         <v>3495</v>
@@ -79230,12 +79230,12 @@
         <v>5549</v>
       </c>
       <c r="Q2487" t="s">
-        <v>4989</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="2488" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2488" s="1" t="s">
-        <v>3649</v>
+        <v>3651</v>
       </c>
       <c r="C2488" t="s">
         <v>3495</v>
@@ -79250,12 +79250,12 @@
         <v>5549</v>
       </c>
       <c r="Q2488" t="s">
-        <v>3650</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="2489" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2489" s="1" t="s">
-        <v>3651</v>
+        <v>3653</v>
       </c>
       <c r="C2489" t="s">
         <v>3495</v>
@@ -79270,12 +79270,12 @@
         <v>5549</v>
       </c>
       <c r="Q2489" t="s">
-        <v>3652</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="2490" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2490" s="1" t="s">
-        <v>3653</v>
+        <v>3655</v>
       </c>
       <c r="C2490" t="s">
         <v>3495</v>
@@ -79290,12 +79290,12 @@
         <v>5549</v>
       </c>
       <c r="Q2490" t="s">
-        <v>3654</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="2491" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2491" s="1" t="s">
-        <v>3655</v>
+        <v>3657</v>
       </c>
       <c r="C2491" t="s">
         <v>3495</v>
@@ -79310,12 +79310,12 @@
         <v>5549</v>
       </c>
       <c r="Q2491" t="s">
-        <v>3656</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="2492" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2492" s="1" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="C2492" t="s">
         <v>3495</v>
@@ -79330,12 +79330,12 @@
         <v>5549</v>
       </c>
       <c r="Q2492" t="s">
-        <v>4990</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="2493" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2493" s="1" t="s">
-        <v>3658</v>
+        <v>3660</v>
       </c>
       <c r="C2493" t="s">
         <v>3495</v>
@@ -79350,12 +79350,12 @@
         <v>5549</v>
       </c>
       <c r="Q2493" t="s">
-        <v>3659</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="2494" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2494" s="1" t="s">
-        <v>3660</v>
+        <v>3662</v>
       </c>
       <c r="C2494" t="s">
         <v>3495</v>
@@ -79370,12 +79370,12 @@
         <v>5549</v>
       </c>
       <c r="Q2494" t="s">
-        <v>3661</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2495" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2495" s="1" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="C2495" t="s">
         <v>3495</v>
@@ -79390,12 +79390,12 @@
         <v>5549</v>
       </c>
       <c r="Q2495" t="s">
-        <v>4991</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="2496" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2496" s="1" t="s">
-        <v>3663</v>
+        <v>3665</v>
       </c>
       <c r="C2496" t="s">
         <v>3495</v>
@@ -79410,12 +79410,12 @@
         <v>5549</v>
       </c>
       <c r="Q2496" t="s">
-        <v>3664</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="2497" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2497" s="1" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="C2497" t="s">
         <v>3495</v>
@@ -79430,12 +79430,12 @@
         <v>5549</v>
       </c>
       <c r="Q2497" t="s">
-        <v>4992</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="2498" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2498" s="1" t="s">
-        <v>3666</v>
+        <v>3668</v>
       </c>
       <c r="C2498" t="s">
         <v>3495</v>
@@ -79450,12 +79450,12 @@
         <v>5549</v>
       </c>
       <c r="Q2498" t="s">
-        <v>3667</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="2499" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2499" s="1" t="s">
-        <v>3668</v>
+        <v>3670</v>
       </c>
       <c r="C2499" t="s">
         <v>3495</v>
@@ -79470,12 +79470,12 @@
         <v>5549</v>
       </c>
       <c r="Q2499" t="s">
-        <v>3669</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="2500" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2500" s="1" t="s">
-        <v>3670</v>
+        <v>3672</v>
       </c>
       <c r="C2500" t="s">
         <v>3495</v>
@@ -79490,12 +79490,12 @@
         <v>5549</v>
       </c>
       <c r="Q2500" t="s">
-        <v>3671</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="2501" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2501" s="1" t="s">
-        <v>3672</v>
+        <v>3674</v>
       </c>
       <c r="C2501" t="s">
         <v>3495</v>
@@ -79510,12 +79510,12 @@
         <v>5549</v>
       </c>
       <c r="Q2501" t="s">
-        <v>3673</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="2502" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2502" s="1" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="C2502" t="s">
         <v>3495</v>
@@ -79530,12 +79530,12 @@
         <v>5549</v>
       </c>
       <c r="Q2502" t="s">
-        <v>4993</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="2503" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2503" s="1" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="C2503" t="s">
         <v>3495</v>
@@ -79550,12 +79550,12 @@
         <v>5549</v>
       </c>
       <c r="Q2503" t="s">
-        <v>4994</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="2504" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2504" s="1" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="C2504" t="s">
         <v>3495</v>
@@ -79570,12 +79570,12 @@
         <v>5549</v>
       </c>
       <c r="Q2504" t="s">
-        <v>4995</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="2505" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2505" s="1" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="C2505" t="s">
         <v>3495</v>
@@ -79590,12 +79590,12 @@
         <v>5549</v>
       </c>
       <c r="Q2505" t="s">
-        <v>4996</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="2506" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2506" s="1" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="C2506" t="s">
         <v>3495</v>
@@ -79610,12 +79610,12 @@
         <v>5549</v>
       </c>
       <c r="Q2506" t="s">
-        <v>4997</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="2507" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2507" s="1" t="s">
-        <v>3679</v>
+        <v>3681</v>
       </c>
       <c r="C2507" t="s">
         <v>3495</v>
@@ -79630,12 +79630,12 @@
         <v>5549</v>
       </c>
       <c r="Q2507" t="s">
-        <v>3680</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="2508" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2508" s="1" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="C2508" t="s">
         <v>3495</v>
@@ -79650,12 +79650,12 @@
         <v>5549</v>
       </c>
       <c r="Q2508" t="s">
-        <v>4606</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="2509" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2509" s="1" t="s">
-        <v>3682</v>
+        <v>6933</v>
       </c>
       <c r="C2509" t="s">
         <v>3495</v>
@@ -79670,12 +79670,12 @@
         <v>5549</v>
       </c>
       <c r="Q2509" t="s">
-        <v>3683</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="2510" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2510" s="1" t="s">
-        <v>6933</v>
+        <v>6935</v>
       </c>
       <c r="C2510" t="s">
         <v>3495</v>
@@ -79690,12 +79690,12 @@
         <v>5549</v>
       </c>
       <c r="Q2510" t="s">
-        <v>6934</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="2511" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2511" s="1" t="s">
-        <v>6935</v>
+        <v>6937</v>
       </c>
       <c r="C2511" t="s">
         <v>3495</v>
@@ -79710,12 +79710,12 @@
         <v>5549</v>
       </c>
       <c r="Q2511" t="s">
-        <v>6936</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="2512" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2512" s="1" t="s">
-        <v>6937</v>
+        <v>6939</v>
       </c>
       <c r="C2512" t="s">
         <v>3495</v>
@@ -79730,12 +79730,12 @@
         <v>5549</v>
       </c>
       <c r="Q2512" t="s">
-        <v>6938</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="2513" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2513" s="1" t="s">
-        <v>6939</v>
+        <v>6941</v>
       </c>
       <c r="C2513" t="s">
         <v>3495</v>
@@ -79750,12 +79750,12 @@
         <v>5549</v>
       </c>
       <c r="Q2513" t="s">
-        <v>6940</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="2514" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2514" s="1" t="s">
-        <v>6941</v>
+        <v>6943</v>
       </c>
       <c r="C2514" t="s">
         <v>3495</v>
@@ -79770,12 +79770,12 @@
         <v>5549</v>
       </c>
       <c r="Q2514" t="s">
-        <v>6942</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="2515" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2515" s="1" t="s">
-        <v>6943</v>
+        <v>6945</v>
       </c>
       <c r="C2515" t="s">
         <v>3495</v>
@@ -79790,12 +79790,12 @@
         <v>5549</v>
       </c>
       <c r="Q2515" t="s">
-        <v>6944</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="2516" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2516" s="1" t="s">
-        <v>6945</v>
+        <v>6947</v>
       </c>
       <c r="C2516" t="s">
         <v>3495</v>
@@ -79810,12 +79810,12 @@
         <v>5549</v>
       </c>
       <c r="Q2516" t="s">
-        <v>6946</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="2517" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2517" s="1" t="s">
-        <v>6947</v>
+        <v>6949</v>
       </c>
       <c r="C2517" t="s">
         <v>3495</v>
@@ -79830,12 +79830,12 @@
         <v>5549</v>
       </c>
       <c r="Q2517" t="s">
-        <v>6948</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="2518" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2518" s="1" t="s">
-        <v>6949</v>
+        <v>6951</v>
       </c>
       <c r="C2518" t="s">
         <v>3495</v>
@@ -79850,12 +79850,12 @@
         <v>5549</v>
       </c>
       <c r="Q2518" t="s">
-        <v>6950</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="2519" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2519" s="1" t="s">
-        <v>6951</v>
+        <v>6953</v>
       </c>
       <c r="C2519" t="s">
         <v>3495</v>
@@ -79870,26 +79870,6 @@
         <v>5549</v>
       </c>
       <c r="Q2519" t="s">
-        <v>6952</v>
-      </c>
-    </row>
-    <row r="2520" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2520" s="1" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C2520" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D2520" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E2520" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L2520" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q2520" t="s">
         <v>6954</v>
       </c>
     </row>
@@ -79901,10 +79881,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q469"/>
+  <dimension ref="B1:Q470"/>
   <sheetViews>
     <sheetView topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:XFD469"/>
+      <selection activeCell="A470" sqref="A470:XFD470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89686,6 +89666,26 @@
         <v>6760</v>
       </c>
     </row>
+    <row r="470" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B470" s="7" t="s">
+        <v>6623</v>
+      </c>
+      <c r="C470" s="8" t="s">
+        <v>6624</v>
+      </c>
+      <c r="D470" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E470" s="8" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L470" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q470" s="8" t="s">
+        <v>6625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -79578,10 +79578,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q12"/>
+  <dimension ref="B1:Q109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD12"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -79832,6 +79832,2060 @@
         <v>4707</v>
       </c>
     </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>6176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>6177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>6178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>6179</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>6180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L21" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L22" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L23" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>6182</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>6184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L25" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>6185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>6186</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L26" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>6188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L27" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>6189</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>6190</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L28" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>6191</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L31" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L32" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L33" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>6193</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L35" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L38" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
+        <v>6196</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L40" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>6197</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L41" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L42" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>6198</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L44" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L45" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L46" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L47" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L48" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L49" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>6199</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L50" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B51" s="1" t="s">
+        <v>6201</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L51" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
+        <v>6204</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L53" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B54" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L54" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>6206</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L55" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L56" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L57" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B58" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L58" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B59" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L59" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B60" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L60" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>6208</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
+        <v>6209</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L61" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B62" s="1" t="s">
+        <v>6211</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L62" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>4765</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B63" s="1" t="s">
+        <v>6212</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L63" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B64" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M64" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B65" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M65" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B66" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M66" t="s">
+        <v>3974</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B67" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M67" t="s">
+        <v>3974</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B68" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E68" t="s">
+        <v>3766</v>
+      </c>
+      <c r="L68" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M68" t="s">
+        <v>5068</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B69" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3766</v>
+      </c>
+      <c r="L69" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M69" t="s">
+        <v>5068</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B70" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3766</v>
+      </c>
+      <c r="L70" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M70" t="s">
+        <v>5068</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B71" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L71" t="s">
+        <v>3714</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B72" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L72" t="s">
+        <v>3714</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B73" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M73" t="s">
+        <v>3974</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B74" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M74" t="s">
+        <v>3974</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B75" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M75" t="s">
+        <v>3974</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B76" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B77" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B78" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B79" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B80" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B81" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B82" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B83" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B84" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L84" t="s">
+        <v>542</v>
+      </c>
+      <c r="M84" t="s">
+        <v>2256</v>
+      </c>
+      <c r="N84" t="s">
+        <v>3807</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B85" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L85" t="s">
+        <v>542</v>
+      </c>
+      <c r="M85" t="s">
+        <v>2256</v>
+      </c>
+      <c r="N85" t="s">
+        <v>3807</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B86" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L86" t="s">
+        <v>542</v>
+      </c>
+      <c r="M86" t="s">
+        <v>2256</v>
+      </c>
+      <c r="N86" t="s">
+        <v>3807</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B87" s="1" t="s">
+        <v>6387</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L87" t="s">
+        <v>542</v>
+      </c>
+      <c r="M87" t="s">
+        <v>2256</v>
+      </c>
+      <c r="N87" t="s">
+        <v>3807</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>6388</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B88" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L88" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B89" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L89" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B90" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L90" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B91" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L91" t="s">
+        <v>542</v>
+      </c>
+      <c r="M91" t="s">
+        <v>2256</v>
+      </c>
+      <c r="N91" t="s">
+        <v>3807</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B92" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L92" t="s">
+        <v>542</v>
+      </c>
+      <c r="M92" t="s">
+        <v>2256</v>
+      </c>
+      <c r="N92" t="s">
+        <v>3807</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B93" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L93" t="s">
+        <v>2256</v>
+      </c>
+      <c r="M93" t="s">
+        <v>3807</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B94" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L94" t="s">
+        <v>2256</v>
+      </c>
+      <c r="M94" t="s">
+        <v>3807</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B95" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L95" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B96" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L96" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B97" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L97" t="s">
+        <v>2256</v>
+      </c>
+      <c r="M97" t="s">
+        <v>3807</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B98" s="1" t="s">
+        <v>6389</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L98" t="s">
+        <v>2256</v>
+      </c>
+      <c r="M98" t="s">
+        <v>3807</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B99" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L99" t="s">
+        <v>5070</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B100" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L100" t="s">
+        <v>5070</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B101" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L101" t="s">
+        <v>5070</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B102" s="1" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L102" t="s">
+        <v>55</v>
+      </c>
+      <c r="M102" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B103" s="1" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L103" t="s">
+        <v>55</v>
+      </c>
+      <c r="M103" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B104" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L104" t="s">
+        <v>55</v>
+      </c>
+      <c r="M104" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B105" s="1" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>2</v>
+      </c>
+      <c r="G105" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L105" t="s">
+        <v>55</v>
+      </c>
+      <c r="M105" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B106" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C106" t="s">
+        <v>976</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L106" t="s">
+        <v>5238</v>
+      </c>
+      <c r="M106" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B107" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C107" t="s">
+        <v>976</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L107" t="s">
+        <v>5238</v>
+      </c>
+      <c r="M107" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B108" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C108" t="s">
+        <v>976</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L108" t="s">
+        <v>5238</v>
+      </c>
+      <c r="M108" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B109" s="1" t="s">
+        <v>6958</v>
+      </c>
+      <c r="C109" t="s">
+        <v>865</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L109" t="s">
+        <v>3894</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>6959</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79839,10 +81893,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q477"/>
+  <dimension ref="B1:Q380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -83810,390 +85864,450 @@
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B195" s="1" t="s">
-        <v>1831</v>
+        <v>2212</v>
       </c>
       <c r="C195" t="s">
-        <v>1832</v>
+        <v>2213</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E195" t="s">
-        <v>2426</v>
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>3803</v>
       </c>
       <c r="L195" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="M195" t="s">
+        <v>542</v>
       </c>
       <c r="Q195" t="s">
-        <v>1833</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B196" s="1" t="s">
-        <v>1834</v>
+        <v>2214</v>
       </c>
       <c r="C196" t="s">
-        <v>1832</v>
+        <v>2213</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E196" t="s">
-        <v>2426</v>
+        <v>2</v>
+      </c>
+      <c r="F196" t="s">
+        <v>3803</v>
       </c>
       <c r="L196" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="M196" t="s">
+        <v>542</v>
       </c>
       <c r="Q196" t="s">
-        <v>1835</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B197" s="1" t="s">
-        <v>1836</v>
+        <v>2217</v>
       </c>
       <c r="C197" t="s">
-        <v>1832</v>
+        <v>2218</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>2426</v>
+        <v>404</v>
+      </c>
+      <c r="F197" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G197" t="s">
+        <v>3803</v>
       </c>
       <c r="L197" t="s">
-        <v>58</v>
+        <v>4315</v>
+      </c>
+      <c r="M197" t="s">
+        <v>542</v>
       </c>
       <c r="Q197" t="s">
-        <v>6175</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B198" s="1" t="s">
-        <v>6176</v>
+        <v>2219</v>
       </c>
       <c r="C198" t="s">
-        <v>1832</v>
+        <v>2218</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>2426</v>
+        <v>404</v>
+      </c>
+      <c r="F198" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G198" t="s">
+        <v>3803</v>
       </c>
       <c r="L198" t="s">
-        <v>58</v>
+        <v>4315</v>
+      </c>
+      <c r="M198" t="s">
+        <v>542</v>
       </c>
       <c r="Q198" t="s">
-        <v>6177</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B199" s="1" t="s">
-        <v>1837</v>
+        <v>2220</v>
       </c>
       <c r="C199" t="s">
-        <v>1832</v>
+        <v>2218</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E199" t="s">
-        <v>2426</v>
+        <v>404</v>
+      </c>
+      <c r="F199" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G199" t="s">
+        <v>3803</v>
       </c>
       <c r="L199" t="s">
-        <v>58</v>
+        <v>4315</v>
+      </c>
+      <c r="M199" t="s">
+        <v>542</v>
       </c>
       <c r="Q199" t="s">
-        <v>1838</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B200" s="1" t="s">
-        <v>1839</v>
+        <v>2236</v>
       </c>
       <c r="C200" t="s">
-        <v>1832</v>
+        <v>2237</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E200" t="s">
+        <v>404</v>
+      </c>
+      <c r="F200" t="s">
         <v>2426</v>
       </c>
       <c r="L200" t="s">
-        <v>58</v>
+        <v>1900</v>
       </c>
       <c r="Q200" t="s">
-        <v>1840</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B201" s="1" t="s">
-        <v>6178</v>
+        <v>2239</v>
       </c>
       <c r="C201" t="s">
-        <v>1832</v>
+        <v>2237</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E201" t="s">
+        <v>404</v>
+      </c>
+      <c r="F201" t="s">
         <v>2426</v>
       </c>
       <c r="L201" t="s">
-        <v>58</v>
+        <v>1900</v>
       </c>
       <c r="Q201" t="s">
-        <v>6179</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B202" s="1" t="s">
-        <v>1841</v>
+        <v>2286</v>
       </c>
       <c r="C202" t="s">
-        <v>1832</v>
+        <v>2287</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E202" t="s">
-        <v>2426</v>
+        <v>404</v>
       </c>
       <c r="L202" t="s">
-        <v>58</v>
+        <v>5238</v>
       </c>
       <c r="Q202" t="s">
-        <v>1842</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B203" s="1" t="s">
-        <v>6180</v>
+        <v>2289</v>
       </c>
       <c r="C203" t="s">
-        <v>1832</v>
+        <v>2287</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E203" t="s">
-        <v>2426</v>
+        <v>404</v>
       </c>
       <c r="L203" t="s">
-        <v>58</v>
+        <v>5238</v>
       </c>
       <c r="Q203" t="s">
-        <v>1843</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="204" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B204" s="1" t="s">
-        <v>1844</v>
+        <v>2291</v>
       </c>
       <c r="C204" t="s">
-        <v>1832</v>
+        <v>2287</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E204" t="s">
-        <v>2426</v>
+        <v>404</v>
       </c>
       <c r="L204" t="s">
-        <v>58</v>
+        <v>5238</v>
       </c>
       <c r="Q204" t="s">
-        <v>1845</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="205" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B205" s="1" t="s">
-        <v>1846</v>
+        <v>2292</v>
       </c>
       <c r="C205" t="s">
-        <v>1832</v>
+        <v>2287</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E205" t="s">
-        <v>2426</v>
+        <v>404</v>
       </c>
       <c r="L205" t="s">
-        <v>58</v>
+        <v>5238</v>
       </c>
       <c r="Q205" t="s">
-        <v>6181</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B206" s="1" t="s">
-        <v>6182</v>
+        <v>2624</v>
       </c>
       <c r="C206" t="s">
-        <v>1832</v>
+        <v>2625</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E206" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L206" t="s">
-        <v>58</v>
+        <v>2626</v>
       </c>
       <c r="Q206" t="s">
-        <v>6183</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B207" s="1" t="s">
-        <v>6184</v>
+        <v>2814</v>
       </c>
       <c r="C207" t="s">
-        <v>1832</v>
+        <v>2815</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E207" t="s">
+        <v>2</v>
+      </c>
+      <c r="F207" t="s">
         <v>2426</v>
       </c>
       <c r="L207" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q207" t="s">
-        <v>6185</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="208" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B208" s="1" t="s">
-        <v>6186</v>
+        <v>2817</v>
       </c>
       <c r="C208" t="s">
-        <v>1832</v>
+        <v>2815</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E208" t="s">
+        <v>2</v>
+      </c>
+      <c r="F208" t="s">
         <v>2426</v>
       </c>
       <c r="L208" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q208" t="s">
-        <v>6187</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="209" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B209" s="1" t="s">
-        <v>6188</v>
+        <v>2819</v>
       </c>
       <c r="C209" t="s">
-        <v>1832</v>
+        <v>2815</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E209" t="s">
+        <v>2</v>
+      </c>
+      <c r="F209" t="s">
         <v>2426</v>
       </c>
       <c r="L209" t="s">
-        <v>58</v>
+        <v>5068</v>
       </c>
       <c r="Q209" t="s">
-        <v>6189</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="210" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B210" s="1" t="s">
-        <v>6190</v>
+        <v>2838</v>
       </c>
       <c r="C210" t="s">
-        <v>1832</v>
+        <v>2821</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E210" t="s">
+        <v>2</v>
+      </c>
+      <c r="F210" t="s">
         <v>2426</v>
       </c>
       <c r="L210" t="s">
-        <v>58</v>
+        <v>4452</v>
       </c>
       <c r="Q210" t="s">
-        <v>6191</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="211" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B211" s="1" t="s">
-        <v>1847</v>
+        <v>2840</v>
       </c>
       <c r="C211" t="s">
-        <v>1832</v>
+        <v>2821</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E211" t="s">
+        <v>2</v>
+      </c>
+      <c r="F211" t="s">
         <v>2426</v>
       </c>
       <c r="L211" t="s">
-        <v>58</v>
+        <v>4452</v>
       </c>
       <c r="Q211" t="s">
-        <v>1848</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="212" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B212" s="1" t="s">
-        <v>1849</v>
+        <v>2842</v>
       </c>
       <c r="C212" t="s">
-        <v>1832</v>
+        <v>2821</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E212" t="s">
+        <v>2</v>
+      </c>
+      <c r="F212" t="s">
         <v>2426</v>
       </c>
       <c r="L212" t="s">
-        <v>58</v>
+        <v>4452</v>
       </c>
       <c r="Q212" t="s">
-        <v>4168</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="213" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B213" s="1" t="s">
-        <v>1850</v>
+        <v>2843</v>
       </c>
       <c r="C213" t="s">
-        <v>1832</v>
+        <v>2821</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E213" t="s">
+        <v>2</v>
+      </c>
+      <c r="F213" t="s">
         <v>2426</v>
       </c>
       <c r="L213" t="s">
-        <v>58</v>
+        <v>4452</v>
       </c>
       <c r="Q213" t="s">
-        <v>1851</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="214" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B214" s="1" t="s">
-        <v>1852</v>
+        <v>2889</v>
       </c>
       <c r="C214" t="s">
-        <v>1832</v>
+        <v>2890</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>2</v>
@@ -84202,18 +86316,21 @@
         <v>2426</v>
       </c>
       <c r="L214" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="M214" t="s">
+        <v>542</v>
       </c>
       <c r="Q214" t="s">
-        <v>4169</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="215" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B215" s="1" t="s">
-        <v>1853</v>
+        <v>2891</v>
       </c>
       <c r="C215" t="s">
-        <v>1832</v>
+        <v>2890</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>2</v>
@@ -84222,18 +86339,21 @@
         <v>2426</v>
       </c>
       <c r="L215" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="M215" t="s">
+        <v>542</v>
       </c>
       <c r="Q215" t="s">
-        <v>6192</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="216" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B216" s="1" t="s">
-        <v>6193</v>
+        <v>3047</v>
       </c>
       <c r="C216" t="s">
-        <v>1832</v>
+        <v>3048</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>2</v>
@@ -84242,18 +86362,18 @@
         <v>2426</v>
       </c>
       <c r="L216" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q216" t="s">
-        <v>6194</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="217" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B217" s="1" t="s">
-        <v>1854</v>
+        <v>3049</v>
       </c>
       <c r="C217" t="s">
-        <v>1832</v>
+        <v>3048</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>2</v>
@@ -84262,18 +86382,18 @@
         <v>2426</v>
       </c>
       <c r="L217" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q217" t="s">
-        <v>4170</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="218" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B218" s="1" t="s">
-        <v>1855</v>
+        <v>3050</v>
       </c>
       <c r="C218" t="s">
-        <v>1832</v>
+        <v>3048</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>2</v>
@@ -84282,18 +86402,18 @@
         <v>2426</v>
       </c>
       <c r="L218" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q218" t="s">
-        <v>4171</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="219" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B219" s="1" t="s">
-        <v>1856</v>
+        <v>3051</v>
       </c>
       <c r="C219" t="s">
-        <v>1832</v>
+        <v>3048</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>2</v>
@@ -84302,18 +86422,18 @@
         <v>2426</v>
       </c>
       <c r="L219" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q219" t="s">
-        <v>1857</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="220" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B220" s="1" t="s">
-        <v>1858</v>
+        <v>3053</v>
       </c>
       <c r="C220" t="s">
-        <v>1832</v>
+        <v>3048</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>2</v>
@@ -84322,18 +86442,18 @@
         <v>2426</v>
       </c>
       <c r="L220" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q220" t="s">
-        <v>1859</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="221" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B221" s="1" t="s">
-        <v>1860</v>
+        <v>3055</v>
       </c>
       <c r="C221" t="s">
-        <v>1832</v>
+        <v>3048</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>2</v>
@@ -84342,18 +86462,18 @@
         <v>2426</v>
       </c>
       <c r="L221" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q221" t="s">
-        <v>6195</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="222" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B222" s="1" t="s">
-        <v>6196</v>
+        <v>3057</v>
       </c>
       <c r="C222" t="s">
-        <v>1832</v>
+        <v>3048</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>2</v>
@@ -84362,18 +86482,18 @@
         <v>2426</v>
       </c>
       <c r="L222" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q222" t="s">
-        <v>6197</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="223" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B223" s="1" t="s">
-        <v>1861</v>
+        <v>3059</v>
       </c>
       <c r="C223" t="s">
-        <v>1832</v>
+        <v>3048</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>2</v>
@@ -84382,18 +86502,18 @@
         <v>2426</v>
       </c>
       <c r="L223" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q223" t="s">
-        <v>1862</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="224" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B224" s="1" t="s">
-        <v>1863</v>
+        <v>3061</v>
       </c>
       <c r="C224" t="s">
-        <v>1832</v>
+        <v>3048</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>2</v>
@@ -84402,238 +86522,205 @@
         <v>2426</v>
       </c>
       <c r="L224" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q224" t="s">
-        <v>1864</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="225" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B225" s="1" t="s">
-        <v>6198</v>
+        <v>3265</v>
       </c>
       <c r="C225" t="s">
-        <v>1832</v>
+        <v>3266</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E225" t="s">
-        <v>2426</v>
-      </c>
       <c r="L225" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q225" t="s">
-        <v>1865</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="226" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B226" s="1" t="s">
-        <v>1866</v>
+        <v>3268</v>
       </c>
       <c r="C226" t="s">
-        <v>1832</v>
+        <v>3266</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E226" t="s">
-        <v>2426</v>
-      </c>
       <c r="L226" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q226" t="s">
-        <v>1867</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="227" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B227" s="1" t="s">
-        <v>1868</v>
+        <v>3270</v>
       </c>
       <c r="C227" t="s">
-        <v>1832</v>
+        <v>3266</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E227" t="s">
-        <v>2426</v>
-      </c>
       <c r="L227" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q227" t="s">
-        <v>1869</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="228" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B228" s="1" t="s">
-        <v>1870</v>
+        <v>3272</v>
       </c>
       <c r="C228" t="s">
-        <v>1832</v>
+        <v>3266</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E228" t="s">
-        <v>2426</v>
-      </c>
       <c r="L228" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q228" t="s">
-        <v>1871</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="229" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B229" s="1" t="s">
-        <v>1872</v>
+        <v>3274</v>
       </c>
       <c r="C229" t="s">
-        <v>1832</v>
+        <v>3266</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E229" t="s">
-        <v>2426</v>
-      </c>
       <c r="L229" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q229" t="s">
-        <v>1873</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="230" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B230" s="1" t="s">
-        <v>1874</v>
+        <v>3276</v>
       </c>
       <c r="C230" t="s">
-        <v>1832</v>
+        <v>3266</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E230" t="s">
-        <v>2426</v>
-      </c>
       <c r="L230" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q230" t="s">
-        <v>1875</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="231" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B231" s="1" t="s">
-        <v>1876</v>
+        <v>6680</v>
       </c>
       <c r="C231" t="s">
-        <v>1832</v>
+        <v>3266</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E231" t="s">
-        <v>2426</v>
-      </c>
       <c r="L231" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q231" t="s">
-        <v>1877</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="232" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B232" s="1" t="s">
-        <v>6199</v>
+        <v>3278</v>
       </c>
       <c r="C232" t="s">
-        <v>1832</v>
+        <v>3266</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E232" t="s">
-        <v>2426</v>
-      </c>
       <c r="L232" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q232" t="s">
-        <v>6200</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="233" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B233" s="1" t="s">
-        <v>6201</v>
+        <v>3280</v>
       </c>
       <c r="C233" t="s">
-        <v>1832</v>
+        <v>3266</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E233" t="s">
-        <v>2426</v>
-      </c>
       <c r="L233" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q233" t="s">
-        <v>6202</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="234" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B234" s="1" t="s">
-        <v>1878</v>
+        <v>2656</v>
       </c>
       <c r="C234" t="s">
-        <v>1832</v>
+        <v>2657</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E234" t="s">
-        <v>2426</v>
-      </c>
       <c r="L234" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q234" t="s">
-        <v>6203</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="235" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B235" s="1" t="s">
-        <v>6204</v>
+        <v>2659</v>
       </c>
       <c r="C235" t="s">
-        <v>1832</v>
+        <v>2657</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E235" t="s">
-        <v>2426</v>
-      </c>
       <c r="L235" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q235" t="s">
-        <v>6205</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="236" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B236" s="1" t="s">
-        <v>1879</v>
+        <v>3457</v>
       </c>
       <c r="C236" t="s">
-        <v>1832</v>
+        <v>3458</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>2</v>
@@ -84642,557 +86729,525 @@
         <v>2426</v>
       </c>
       <c r="L236" t="s">
-        <v>58</v>
+        <v>5071</v>
       </c>
       <c r="Q236" t="s">
-        <v>1880</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="237" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B237" s="1" t="s">
-        <v>6206</v>
+        <v>6522</v>
       </c>
       <c r="C237" t="s">
-        <v>1832</v>
+        <v>6523</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E237" t="s">
-        <v>2426</v>
+        <v>2</v>
+      </c>
+      <c r="F237" t="s">
+        <v>2</v>
       </c>
       <c r="L237" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q237" t="s">
-        <v>6207</v>
+        <v>6524</v>
       </c>
     </row>
     <row r="238" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B238" s="1" t="s">
-        <v>1881</v>
+        <v>1490</v>
       </c>
       <c r="C238" t="s">
-        <v>1832</v>
+        <v>1491</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E238" t="s">
-        <v>2426</v>
+        <v>3766</v>
       </c>
       <c r="L238" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q238" t="s">
-        <v>1882</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="239" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B239" s="1" t="s">
-        <v>1883</v>
+        <v>5875</v>
       </c>
       <c r="C239" t="s">
-        <v>1832</v>
+        <v>1491</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E239" t="s">
-        <v>2426</v>
+        <v>3766</v>
       </c>
       <c r="L239" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q239" t="s">
-        <v>4172</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="240" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B240" s="1" t="s">
-        <v>1884</v>
+        <v>3296</v>
       </c>
       <c r="C240" t="s">
-        <v>1832</v>
+        <v>3297</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E240" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L240" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q240" t="s">
-        <v>1885</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="241" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B241" s="1" t="s">
-        <v>1886</v>
+        <v>3299</v>
       </c>
       <c r="C241" t="s">
-        <v>1832</v>
+        <v>3297</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E241" t="s">
-        <v>2426</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F241" s="2"/>
       <c r="L241" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q241" t="s">
-        <v>4173</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="242" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B242" s="1" t="s">
-        <v>1887</v>
+        <v>432</v>
       </c>
       <c r="C242" t="s">
-        <v>1832</v>
+        <v>433</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E242" t="s">
-        <v>2426</v>
+        <v>404</v>
       </c>
       <c r="L242" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="M242" t="s">
+        <v>542</v>
       </c>
       <c r="Q242" t="s">
-        <v>6208</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="243" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B243" s="1" t="s">
-        <v>6209</v>
+        <v>434</v>
       </c>
       <c r="C243" t="s">
-        <v>1832</v>
+        <v>433</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E243" t="s">
-        <v>2426</v>
+        <v>404</v>
       </c>
       <c r="L243" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="M243" t="s">
+        <v>542</v>
       </c>
       <c r="Q243" t="s">
-        <v>6210</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="244" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B244" s="1" t="s">
-        <v>6211</v>
+        <v>435</v>
       </c>
       <c r="C244" t="s">
-        <v>1832</v>
+        <v>433</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E244" t="s">
-        <v>2426</v>
+        <v>404</v>
       </c>
       <c r="L244" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="M244" t="s">
+        <v>542</v>
       </c>
       <c r="Q244" t="s">
-        <v>4765</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="245" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B245" s="1" t="s">
-        <v>6212</v>
+        <v>534</v>
       </c>
       <c r="C245" t="s">
-        <v>1832</v>
+        <v>533</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E245" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L245" t="s">
-        <v>58</v>
-      </c>
       <c r="Q245" t="s">
-        <v>4174</v>
+        <v>535</v>
       </c>
     </row>
     <row r="246" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B246" s="1" t="s">
-        <v>2029</v>
+        <v>536</v>
       </c>
       <c r="C246" t="s">
-        <v>2030</v>
+        <v>533</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E246" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L246" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M246" t="s">
-        <v>542</v>
-      </c>
       <c r="Q246" t="s">
-        <v>4249</v>
+        <v>537</v>
       </c>
     </row>
     <row r="247" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B247" s="1" t="s">
-        <v>2031</v>
+        <v>538</v>
       </c>
       <c r="C247" t="s">
-        <v>2030</v>
+        <v>533</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E247" t="s">
-        <v>2426</v>
-      </c>
       <c r="L247" t="s">
-        <v>1155</v>
+        <v>352</v>
       </c>
       <c r="M247" t="s">
         <v>542</v>
       </c>
       <c r="Q247" t="s">
-        <v>4250</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="248" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B248" s="1" t="s">
-        <v>2032</v>
+        <v>539</v>
       </c>
       <c r="C248" t="s">
-        <v>2030</v>
+        <v>533</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E248" t="s">
-        <v>2426</v>
-      </c>
       <c r="L248" t="s">
-        <v>1155</v>
+        <v>352</v>
       </c>
       <c r="M248" t="s">
-        <v>3974</v>
+        <v>542</v>
       </c>
       <c r="Q248" t="s">
-        <v>4251</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="249" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B249" s="1" t="s">
-        <v>2033</v>
+        <v>532</v>
       </c>
       <c r="C249" t="s">
-        <v>2030</v>
+        <v>533</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E249" t="s">
-        <v>2426</v>
+        <v>6955</v>
       </c>
       <c r="L249" t="s">
-        <v>1155</v>
+        <v>352</v>
       </c>
       <c r="M249" t="s">
-        <v>3974</v>
+        <v>542</v>
       </c>
       <c r="Q249" t="s">
-        <v>4773</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="250" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B250" s="1" t="s">
-        <v>2037</v>
+        <v>540</v>
       </c>
       <c r="C250" t="s">
-        <v>2038</v>
+        <v>533</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E250" t="s">
-        <v>3766</v>
+        <v>2</v>
       </c>
       <c r="L250" t="s">
-        <v>5070</v>
+        <v>352</v>
       </c>
       <c r="M250" t="s">
-        <v>5068</v>
+        <v>542</v>
       </c>
       <c r="Q250" t="s">
-        <v>4254</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="251" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B251" s="1" t="s">
-        <v>2039</v>
+        <v>541</v>
       </c>
       <c r="C251" t="s">
-        <v>2038</v>
+        <v>533</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E251" t="s">
-        <v>3766</v>
+        <v>2</v>
       </c>
       <c r="L251" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M251" t="s">
-        <v>5068</v>
+        <v>542</v>
       </c>
       <c r="Q251" t="s">
-        <v>4255</v>
+        <v>543</v>
       </c>
     </row>
     <row r="252" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B252" s="1" t="s">
-        <v>2040</v>
+        <v>544</v>
       </c>
       <c r="C252" t="s">
-        <v>2038</v>
+        <v>533</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E252" t="s">
-        <v>3766</v>
+        <v>2</v>
       </c>
       <c r="L252" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M252" t="s">
-        <v>5068</v>
+        <v>542</v>
       </c>
       <c r="Q252" t="s">
-        <v>4256</v>
+        <v>545</v>
       </c>
     </row>
     <row r="253" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B253" s="1" t="s">
-        <v>2155</v>
+        <v>546</v>
       </c>
       <c r="C253" t="s">
-        <v>2156</v>
+        <v>533</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E253" t="s">
-        <v>2426</v>
-      </c>
       <c r="L253" t="s">
-        <v>3714</v>
+        <v>542</v>
       </c>
       <c r="Q253" t="s">
-        <v>2157</v>
+        <v>547</v>
       </c>
     </row>
     <row r="254" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B254" s="1" t="s">
-        <v>2158</v>
+        <v>548</v>
       </c>
       <c r="C254" t="s">
-        <v>2156</v>
+        <v>533</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E254" t="s">
-        <v>2426</v>
-      </c>
       <c r="L254" t="s">
-        <v>3714</v>
+        <v>542</v>
       </c>
       <c r="Q254" t="s">
-        <v>2159</v>
+        <v>549</v>
       </c>
     </row>
     <row r="255" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B255" s="1" t="s">
-        <v>2160</v>
+        <v>606</v>
       </c>
       <c r="C255" t="s">
-        <v>2161</v>
+        <v>607</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E255" t="s">
-        <v>2</v>
-      </c>
-      <c r="F255" t="s">
-        <v>2</v>
+        <v>3803</v>
       </c>
       <c r="L255" t="s">
-        <v>1155</v>
+        <v>542</v>
       </c>
       <c r="M255" t="s">
-        <v>3974</v>
+        <v>352</v>
       </c>
       <c r="Q255" t="s">
-        <v>4294</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="256" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B256" s="1" t="s">
-        <v>2162</v>
+        <v>608</v>
       </c>
       <c r="C256" t="s">
-        <v>2161</v>
+        <v>607</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E256" t="s">
-        <v>2</v>
-      </c>
-      <c r="F256" t="s">
-        <v>2</v>
+        <v>3803</v>
       </c>
       <c r="L256" t="s">
-        <v>1155</v>
+        <v>542</v>
       </c>
       <c r="M256" t="s">
-        <v>3974</v>
+        <v>352</v>
       </c>
       <c r="Q256" t="s">
-        <v>4295</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="257" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B257" s="1" t="s">
-        <v>2163</v>
+        <v>609</v>
       </c>
       <c r="C257" t="s">
-        <v>2161</v>
+        <v>607</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E257" t="s">
-        <v>2</v>
-      </c>
-      <c r="F257" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L257" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="258" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B258" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>3901</v>
+      </c>
+      <c r="L258" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="M257" t="s">
-        <v>3974</v>
-      </c>
-      <c r="Q257" t="s">
-        <v>4296</v>
-      </c>
-    </row>
-    <row r="258" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B258" s="1" t="s">
-        <v>2188</v>
-      </c>
-      <c r="C258" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E258" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L258" t="s">
+      <c r="M258" s="2" t="s">
+        <v>3902</v>
+      </c>
+      <c r="Q258" s="2" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="259" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B259" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>3901</v>
+      </c>
+      <c r="L259" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="Q258" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="259" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B259" s="1" t="s">
-        <v>2191</v>
-      </c>
-      <c r="C259" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E259" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L259" t="s">
+      <c r="M259" s="2" t="s">
+        <v>3902</v>
+      </c>
+      <c r="Q259" s="2" t="s">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="260" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B260" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>3901</v>
+      </c>
+      <c r="L260" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="Q259" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="260" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B260" s="1" t="s">
-        <v>2203</v>
-      </c>
-      <c r="C260" t="s">
-        <v>2204</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E260" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L260" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q260" t="s">
-        <v>2205</v>
+      <c r="M260" s="2" t="s">
+        <v>3902</v>
+      </c>
+      <c r="Q260" s="2" t="s">
+        <v>4695</v>
       </c>
     </row>
     <row r="261" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B261" s="1" t="s">
-        <v>2206</v>
+        <v>918</v>
       </c>
       <c r="C261" t="s">
-        <v>2204</v>
+        <v>919</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E261" t="s">
-        <v>2426</v>
+        <v>3901</v>
       </c>
       <c r="L261" t="s">
         <v>1155</v>
       </c>
+      <c r="M261" t="s">
+        <v>3902</v>
+      </c>
       <c r="Q261" t="s">
-        <v>2207</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="262" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B262" s="1" t="s">
-        <v>2208</v>
+      <c r="B262" s="4" t="s">
+        <v>944</v>
       </c>
       <c r="C262" t="s">
-        <v>2204</v>
+        <v>945</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>2</v>
@@ -85201,18 +87256,21 @@
         <v>2426</v>
       </c>
       <c r="L262" t="s">
-        <v>1155</v>
+        <v>5238</v>
+      </c>
+      <c r="M262" t="s">
+        <v>542</v>
       </c>
       <c r="Q262" t="s">
-        <v>2209</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="263" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B263" s="1" t="s">
-        <v>2210</v>
+        <v>946</v>
       </c>
       <c r="C263" t="s">
-        <v>2204</v>
+        <v>945</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>2</v>
@@ -85221,862 +87279,802 @@
         <v>2426</v>
       </c>
       <c r="L263" t="s">
-        <v>1155</v>
+        <v>5238</v>
+      </c>
+      <c r="M263" t="s">
+        <v>542</v>
       </c>
       <c r="Q263" t="s">
-        <v>2211</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="264" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B264" s="1" t="s">
-        <v>2212</v>
+        <v>947</v>
       </c>
       <c r="C264" t="s">
-        <v>2213</v>
+        <v>945</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E264" t="s">
-        <v>2</v>
-      </c>
-      <c r="F264" t="s">
-        <v>3803</v>
+        <v>2426</v>
       </c>
       <c r="L264" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="M264" t="s">
         <v>542</v>
       </c>
       <c r="Q264" t="s">
-        <v>4312</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="265" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B265" s="1" t="s">
-        <v>2214</v>
+        <v>948</v>
       </c>
       <c r="C265" t="s">
-        <v>2213</v>
+        <v>945</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E265" t="s">
-        <v>2</v>
-      </c>
-      <c r="F265" t="s">
-        <v>3803</v>
+        <v>2426</v>
       </c>
       <c r="L265" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="M265" t="s">
         <v>542</v>
       </c>
       <c r="Q265" t="s">
-        <v>4313</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="266" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B266" s="1" t="s">
-        <v>2217</v>
+        <v>326</v>
       </c>
       <c r="C266" t="s">
-        <v>2218</v>
+        <v>327</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E266" t="s">
-        <v>404</v>
-      </c>
-      <c r="F266" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G266" t="s">
-        <v>3803</v>
-      </c>
       <c r="L266" t="s">
-        <v>4315</v>
+        <v>318</v>
       </c>
       <c r="M266" t="s">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Q266" t="s">
-        <v>4316</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="267" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B267" s="1" t="s">
-        <v>2219</v>
+        <v>328</v>
       </c>
       <c r="C267" t="s">
-        <v>2218</v>
+        <v>327</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E267" t="s">
-        <v>404</v>
-      </c>
-      <c r="F267" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G267" t="s">
-        <v>3803</v>
-      </c>
       <c r="L267" t="s">
-        <v>4315</v>
+        <v>318</v>
       </c>
       <c r="M267" t="s">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Q267" t="s">
-        <v>4317</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="268" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B268" s="1" t="s">
-        <v>2220</v>
+        <v>329</v>
       </c>
       <c r="C268" t="s">
-        <v>2218</v>
+        <v>327</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E268" t="s">
-        <v>404</v>
-      </c>
-      <c r="F268" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G268" t="s">
-        <v>3803</v>
-      </c>
       <c r="L268" t="s">
-        <v>4315</v>
+        <v>318</v>
       </c>
       <c r="M268" t="s">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Q268" t="s">
-        <v>4318</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="269" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B269" s="1" t="s">
-        <v>2226</v>
+        <v>330</v>
       </c>
       <c r="C269" t="s">
-        <v>2227</v>
+        <v>327</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E269" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L269" t="s">
-        <v>1155</v>
+        <v>318</v>
+      </c>
+      <c r="M269" t="s">
+        <v>77</v>
       </c>
       <c r="Q269" t="s">
-        <v>2228</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="270" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B270" s="1" t="s">
-        <v>2229</v>
+        <v>331</v>
       </c>
       <c r="C270" t="s">
-        <v>2227</v>
+        <v>327</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E270" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L270" t="s">
-        <v>1155</v>
+        <v>318</v>
+      </c>
+      <c r="M270" t="s">
+        <v>77</v>
       </c>
       <c r="Q270" t="s">
-        <v>2230</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="271" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B271" s="1" t="s">
-        <v>2236</v>
+        <v>795</v>
       </c>
       <c r="C271" t="s">
-        <v>2237</v>
+        <v>796</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E271" t="s">
-        <v>404</v>
-      </c>
-      <c r="F271" t="s">
         <v>2426</v>
       </c>
       <c r="L271" t="s">
-        <v>1900</v>
+        <v>1155</v>
       </c>
       <c r="Q271" t="s">
-        <v>2238</v>
+        <v>797</v>
       </c>
     </row>
     <row r="272" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B272" s="1" t="s">
-        <v>2239</v>
+        <v>798</v>
       </c>
       <c r="C272" t="s">
-        <v>2237</v>
+        <v>796</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E272" t="s">
-        <v>404</v>
-      </c>
-      <c r="F272" t="s">
         <v>2426</v>
       </c>
       <c r="L272" t="s">
-        <v>1900</v>
+        <v>1155</v>
       </c>
       <c r="Q272" t="s">
-        <v>2240</v>
+        <v>799</v>
       </c>
     </row>
     <row r="273" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B273" s="1" t="s">
-        <v>2241</v>
+        <v>800</v>
       </c>
       <c r="C273" t="s">
-        <v>2242</v>
+        <v>796</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E273" t="s">
         <v>2426</v>
       </c>
       <c r="L273" t="s">
-        <v>542</v>
-      </c>
-      <c r="M273" t="s">
-        <v>2256</v>
-      </c>
-      <c r="N273" t="s">
-        <v>3807</v>
+        <v>1155</v>
       </c>
       <c r="Q273" t="s">
-        <v>4830</v>
+        <v>801</v>
       </c>
     </row>
     <row r="274" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B274" s="1" t="s">
-        <v>2243</v>
+        <v>802</v>
       </c>
       <c r="C274" t="s">
-        <v>2242</v>
+        <v>803</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E274" t="s">
         <v>2426</v>
       </c>
       <c r="L274" t="s">
-        <v>542</v>
-      </c>
-      <c r="M274" t="s">
-        <v>2256</v>
-      </c>
-      <c r="N274" t="s">
-        <v>3807</v>
+        <v>1155</v>
       </c>
       <c r="Q274" t="s">
-        <v>4831</v>
+        <v>804</v>
       </c>
     </row>
     <row r="275" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B275" s="1" t="s">
-        <v>2244</v>
+        <v>805</v>
       </c>
       <c r="C275" t="s">
-        <v>2245</v>
+        <v>803</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E275" t="s">
         <v>2426</v>
       </c>
       <c r="L275" t="s">
-        <v>542</v>
-      </c>
-      <c r="M275" t="s">
-        <v>2256</v>
-      </c>
-      <c r="N275" t="s">
-        <v>3807</v>
+        <v>1155</v>
       </c>
       <c r="Q275" t="s">
-        <v>4832</v>
+        <v>806</v>
       </c>
     </row>
     <row r="276" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B276" s="1" t="s">
-        <v>6387</v>
+        <v>807</v>
       </c>
       <c r="C276" t="s">
-        <v>2245</v>
+        <v>803</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E276" t="s">
         <v>2426</v>
       </c>
       <c r="L276" t="s">
-        <v>542</v>
-      </c>
-      <c r="M276" t="s">
-        <v>2256</v>
-      </c>
-      <c r="N276" t="s">
-        <v>3807</v>
+        <v>1155</v>
       </c>
       <c r="Q276" t="s">
-        <v>6388</v>
+        <v>808</v>
       </c>
     </row>
     <row r="277" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B277" s="1" t="s">
-        <v>2246</v>
+        <v>809</v>
       </c>
       <c r="C277" t="s">
-        <v>2247</v>
+        <v>803</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E277" t="s">
         <v>2426</v>
       </c>
       <c r="L277" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q277" t="s">
-        <v>2248</v>
+        <v>810</v>
       </c>
     </row>
     <row r="278" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B278" s="1" t="s">
-        <v>2249</v>
+        <v>811</v>
       </c>
       <c r="C278" t="s">
-        <v>2247</v>
+        <v>803</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E278" t="s">
         <v>2426</v>
       </c>
       <c r="L278" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q278" t="s">
-        <v>2250</v>
+        <v>812</v>
       </c>
     </row>
     <row r="279" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B279" s="1" t="s">
-        <v>2251</v>
+        <v>813</v>
       </c>
       <c r="C279" t="s">
-        <v>2247</v>
+        <v>803</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E279" t="s">
         <v>2426</v>
       </c>
       <c r="L279" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q279" t="s">
-        <v>4322</v>
+        <v>814</v>
       </c>
     </row>
     <row r="280" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B280" s="1" t="s">
-        <v>2252</v>
+        <v>815</v>
       </c>
       <c r="C280" t="s">
-        <v>2242</v>
+        <v>803</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E280" t="s">
         <v>2426</v>
       </c>
       <c r="L280" t="s">
-        <v>542</v>
-      </c>
-      <c r="M280" t="s">
-        <v>2256</v>
-      </c>
-      <c r="N280" t="s">
-        <v>3807</v>
+        <v>1155</v>
       </c>
       <c r="Q280" t="s">
-        <v>4833</v>
+        <v>816</v>
       </c>
     </row>
     <row r="281" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B281" s="1" t="s">
-        <v>2253</v>
+        <v>817</v>
       </c>
       <c r="C281" t="s">
-        <v>2242</v>
+        <v>803</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E281" t="s">
         <v>2426</v>
       </c>
       <c r="L281" t="s">
-        <v>542</v>
-      </c>
-      <c r="M281" t="s">
-        <v>2256</v>
-      </c>
-      <c r="N281" t="s">
-        <v>3807</v>
+        <v>1155</v>
       </c>
       <c r="Q281" t="s">
-        <v>4834</v>
+        <v>818</v>
       </c>
     </row>
     <row r="282" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B282" s="1" t="s">
-        <v>2254</v>
+        <v>5449</v>
       </c>
       <c r="C282" t="s">
-        <v>2255</v>
+        <v>803</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
+      </c>
+      <c r="E282" t="s">
+        <v>2426</v>
       </c>
       <c r="L282" t="s">
-        <v>2256</v>
-      </c>
-      <c r="M282" t="s">
-        <v>3807</v>
+        <v>1155</v>
       </c>
       <c r="Q282" t="s">
-        <v>4323</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="283" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B283" s="1" t="s">
-        <v>2257</v>
+        <v>819</v>
       </c>
       <c r="C283" t="s">
-        <v>2255</v>
+        <v>803</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
+      </c>
+      <c r="E283" t="s">
+        <v>2426</v>
       </c>
       <c r="L283" t="s">
-        <v>2256</v>
-      </c>
-      <c r="M283" t="s">
-        <v>3807</v>
+        <v>1155</v>
       </c>
       <c r="Q283" t="s">
-        <v>4324</v>
+        <v>820</v>
       </c>
     </row>
     <row r="284" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B284" s="1" t="s">
-        <v>2258</v>
+        <v>821</v>
       </c>
       <c r="C284" t="s">
-        <v>2259</v>
+        <v>822</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
+      </c>
+      <c r="E284" t="s">
+        <v>2426</v>
       </c>
       <c r="L284" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q284" t="s">
-        <v>2260</v>
+        <v>823</v>
       </c>
     </row>
     <row r="285" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B285" s="1" t="s">
-        <v>2261</v>
+        <v>824</v>
       </c>
       <c r="C285" t="s">
-        <v>2259</v>
+        <v>822</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
+      </c>
+      <c r="E285" t="s">
+        <v>2426</v>
       </c>
       <c r="L285" t="s">
-        <v>58</v>
+        <v>1155</v>
       </c>
       <c r="Q285" t="s">
-        <v>2262</v>
+        <v>825</v>
       </c>
     </row>
     <row r="286" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B286" s="1" t="s">
-        <v>2275</v>
+        <v>826</v>
       </c>
       <c r="C286" t="s">
-        <v>2276</v>
+        <v>822</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
+      </c>
+      <c r="E286" t="s">
+        <v>2426</v>
       </c>
       <c r="L286" t="s">
-        <v>2256</v>
-      </c>
-      <c r="M286" t="s">
-        <v>3807</v>
+        <v>1155</v>
       </c>
       <c r="Q286" t="s">
-        <v>4325</v>
+        <v>827</v>
       </c>
     </row>
     <row r="287" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B287" s="1" t="s">
-        <v>6389</v>
+        <v>828</v>
       </c>
       <c r="C287" t="s">
-        <v>2276</v>
+        <v>822</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
+      </c>
+      <c r="E287" t="s">
+        <v>2426</v>
       </c>
       <c r="L287" t="s">
-        <v>2256</v>
-      </c>
-      <c r="M287" t="s">
-        <v>3807</v>
+        <v>1155</v>
       </c>
       <c r="Q287" t="s">
-        <v>6390</v>
+        <v>829</v>
       </c>
     </row>
     <row r="288" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B288" s="1" t="s">
-        <v>2280</v>
+        <v>830</v>
       </c>
       <c r="C288" t="s">
-        <v>2281</v>
+        <v>822</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E288" t="s">
         <v>2426</v>
       </c>
       <c r="L288" t="s">
-        <v>5070</v>
+        <v>1155</v>
       </c>
       <c r="Q288" t="s">
-        <v>2282</v>
+        <v>831</v>
       </c>
     </row>
     <row r="289" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B289" s="1" t="s">
-        <v>2283</v>
+        <v>832</v>
       </c>
       <c r="C289" t="s">
-        <v>2281</v>
+        <v>822</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E289" t="s">
         <v>2426</v>
       </c>
+      <c r="F289" t="s">
+        <v>3888</v>
+      </c>
       <c r="L289" t="s">
-        <v>5070</v>
+        <v>1155</v>
+      </c>
+      <c r="M289" t="s">
+        <v>3889</v>
       </c>
       <c r="Q289" t="s">
-        <v>4327</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="290" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B290" s="1" t="s">
-        <v>2284</v>
+        <v>833</v>
       </c>
       <c r="C290" t="s">
-        <v>2281</v>
+        <v>822</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E290" t="s">
         <v>2426</v>
       </c>
+      <c r="F290" t="s">
+        <v>3888</v>
+      </c>
       <c r="L290" t="s">
-        <v>5070</v>
+        <v>1155</v>
+      </c>
+      <c r="M290" t="s">
+        <v>3889</v>
       </c>
       <c r="Q290" t="s">
-        <v>2285</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="291" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B291" s="1" t="s">
-        <v>2286</v>
+        <v>5451</v>
       </c>
       <c r="C291" t="s">
-        <v>2287</v>
+        <v>822</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E291" t="s">
-        <v>404</v>
+        <v>3766</v>
       </c>
       <c r="L291" t="s">
-        <v>5238</v>
+        <v>542</v>
       </c>
       <c r="Q291" t="s">
-        <v>2288</v>
+        <v>834</v>
       </c>
     </row>
     <row r="292" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B292" s="1" t="s">
-        <v>2289</v>
+        <v>5452</v>
       </c>
       <c r="C292" t="s">
-        <v>2287</v>
+        <v>822</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E292" t="s">
-        <v>404</v>
+        <v>3766</v>
       </c>
       <c r="L292" t="s">
-        <v>5238</v>
+        <v>542</v>
       </c>
       <c r="Q292" t="s">
-        <v>2290</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="293" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B293" s="1" t="s">
-        <v>2291</v>
+        <v>835</v>
       </c>
       <c r="C293" t="s">
-        <v>2287</v>
+        <v>822</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E293" t="s">
-        <v>404</v>
+        <v>3766</v>
       </c>
       <c r="L293" t="s">
-        <v>5238</v>
+        <v>542</v>
       </c>
       <c r="Q293" t="s">
-        <v>4328</v>
+        <v>836</v>
       </c>
     </row>
     <row r="294" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B294" s="1" t="s">
-        <v>2292</v>
+        <v>837</v>
       </c>
       <c r="C294" t="s">
-        <v>2287</v>
+        <v>822</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E294" t="s">
-        <v>404</v>
+        <v>3892</v>
       </c>
       <c r="L294" t="s">
-        <v>5238</v>
+        <v>542</v>
       </c>
       <c r="Q294" t="s">
-        <v>2293</v>
+        <v>838</v>
       </c>
     </row>
     <row r="295" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B295" s="1" t="s">
-        <v>2624</v>
+        <v>839</v>
       </c>
       <c r="C295" t="s">
-        <v>2625</v>
+        <v>822</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>2626</v>
+        <v>2</v>
+      </c>
+      <c r="E295" t="s">
+        <v>3892</v>
+      </c>
+      <c r="L295" t="s">
+        <v>542</v>
       </c>
       <c r="Q295" t="s">
-        <v>2627</v>
+        <v>840</v>
       </c>
     </row>
     <row r="296" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B296" s="1" t="s">
-        <v>2814</v>
+        <v>841</v>
       </c>
       <c r="C296" t="s">
-        <v>2815</v>
+        <v>822</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E296" t="s">
-        <v>2</v>
-      </c>
-      <c r="F296" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L296" t="s">
-        <v>1155</v>
+        <v>542</v>
       </c>
       <c r="Q296" t="s">
-        <v>2816</v>
+        <v>842</v>
       </c>
     </row>
     <row r="297" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B297" s="1" t="s">
-        <v>2817</v>
+        <v>5453</v>
       </c>
       <c r="C297" t="s">
-        <v>2815</v>
+        <v>822</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E297" t="s">
-        <v>2</v>
-      </c>
-      <c r="F297" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L297" t="s">
-        <v>1155</v>
+        <v>542</v>
       </c>
       <c r="Q297" t="s">
-        <v>2818</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="298" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B298" s="1" t="s">
-        <v>2819</v>
+        <v>843</v>
       </c>
       <c r="C298" t="s">
-        <v>2815</v>
+        <v>822</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E298" t="s">
-        <v>2</v>
-      </c>
-      <c r="F298" t="s">
-        <v>2426</v>
+        <v>3766</v>
       </c>
       <c r="L298" t="s">
-        <v>5068</v>
+        <v>542</v>
       </c>
       <c r="Q298" t="s">
-        <v>4450</v>
+        <v>844</v>
       </c>
     </row>
     <row r="299" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B299" s="1" t="s">
-        <v>2838</v>
+        <v>845</v>
       </c>
       <c r="C299" t="s">
-        <v>2821</v>
+        <v>822</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E299" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="F299" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L299" t="s">
-        <v>4452</v>
+        <v>1155</v>
+      </c>
+      <c r="M299" t="s">
+        <v>542</v>
       </c>
       <c r="Q299" t="s">
-        <v>2839</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="300" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B300" s="1" t="s">
-        <v>2840</v>
+        <v>846</v>
       </c>
       <c r="C300" t="s">
-        <v>2821</v>
+        <v>822</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E300" t="s">
-        <v>2</v>
-      </c>
-      <c r="F300" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L300" t="s">
-        <v>4452</v>
+        <v>542</v>
       </c>
       <c r="Q300" t="s">
-        <v>2841</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="301" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B301" s="1" t="s">
-        <v>2842</v>
+        <v>847</v>
       </c>
       <c r="C301" t="s">
-        <v>2821</v>
+        <v>822</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E301" t="s">
-        <v>2</v>
-      </c>
-      <c r="F301" t="s">
         <v>2426</v>
       </c>
       <c r="L301" t="s">
-        <v>4452</v>
+        <v>1155</v>
       </c>
       <c r="Q301" t="s">
-        <v>4453</v>
+        <v>848</v>
       </c>
     </row>
     <row r="302" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B302" s="1" t="s">
-        <v>2843</v>
+        <v>2820</v>
       </c>
       <c r="C302" t="s">
         <v>2821</v>
@@ -86091,613 +88089,658 @@
         <v>2426</v>
       </c>
       <c r="L302" t="s">
-        <v>4452</v>
+        <v>5068</v>
       </c>
       <c r="Q302" t="s">
-        <v>2844</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="303" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B303" s="1" t="s">
-        <v>2889</v>
+        <v>2823</v>
       </c>
       <c r="C303" t="s">
-        <v>2890</v>
+        <v>2821</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E303" t="s">
+        <v>2</v>
+      </c>
+      <c r="F303" t="s">
         <v>2426</v>
       </c>
       <c r="L303" t="s">
-        <v>55</v>
-      </c>
-      <c r="M303" t="s">
-        <v>542</v>
+        <v>5068</v>
       </c>
       <c r="Q303" t="s">
-        <v>4468</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="304" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B304" s="1" t="s">
-        <v>2891</v>
+        <v>2825</v>
       </c>
       <c r="C304" t="s">
-        <v>2890</v>
+        <v>2821</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E304" t="s">
+        <v>2</v>
+      </c>
+      <c r="F304" t="s">
         <v>2426</v>
       </c>
       <c r="L304" t="s">
-        <v>55</v>
-      </c>
-      <c r="M304" t="s">
-        <v>542</v>
+        <v>6525</v>
       </c>
       <c r="Q304" t="s">
-        <v>4469</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="305" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B305" s="1" t="s">
-        <v>3047</v>
+        <v>2827</v>
       </c>
       <c r="C305" t="s">
-        <v>3048</v>
+        <v>2821</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E305" t="s">
+        <v>2</v>
+      </c>
+      <c r="F305" t="s">
         <v>2426</v>
       </c>
       <c r="L305" t="s">
-        <v>55</v>
+        <v>6525</v>
       </c>
       <c r="Q305" t="s">
-        <v>4505</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="306" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B306" s="1" t="s">
-        <v>3049</v>
+        <v>2829</v>
       </c>
       <c r="C306" t="s">
-        <v>3048</v>
+        <v>2821</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E306" t="s">
+        <v>2</v>
+      </c>
+      <c r="F306" t="s">
         <v>2426</v>
       </c>
       <c r="L306" t="s">
-        <v>55</v>
+        <v>6525</v>
       </c>
       <c r="Q306" t="s">
-        <v>4506</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="307" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B307" s="1" t="s">
-        <v>3050</v>
+        <v>2831</v>
       </c>
       <c r="C307" t="s">
-        <v>3048</v>
+        <v>2821</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E307" t="s">
+        <v>2</v>
+      </c>
+      <c r="F307" t="s">
         <v>2426</v>
       </c>
       <c r="L307" t="s">
-        <v>55</v>
+        <v>6525</v>
       </c>
       <c r="Q307" t="s">
-        <v>4507</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="308" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B308" s="1" t="s">
-        <v>3051</v>
+        <v>2833</v>
       </c>
       <c r="C308" t="s">
-        <v>3048</v>
+        <v>2821</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E308" t="s">
+        <v>2</v>
+      </c>
+      <c r="F308" t="s">
         <v>2426</v>
       </c>
       <c r="L308" t="s">
-        <v>55</v>
+        <v>6525</v>
       </c>
       <c r="Q308" t="s">
-        <v>3052</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="309" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B309" s="1" t="s">
-        <v>3053</v>
+        <v>2834</v>
       </c>
       <c r="C309" t="s">
-        <v>3048</v>
+        <v>2821</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E309" t="s">
+        <v>2</v>
+      </c>
+      <c r="F309" t="s">
         <v>2426</v>
       </c>
       <c r="L309" t="s">
-        <v>55</v>
+        <v>4452</v>
       </c>
       <c r="Q309" t="s">
-        <v>3054</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="310" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B310" s="1" t="s">
-        <v>3055</v>
+        <v>2836</v>
       </c>
       <c r="C310" t="s">
-        <v>3048</v>
+        <v>2821</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E310" t="s">
+        <v>2</v>
+      </c>
+      <c r="F310" t="s">
         <v>2426</v>
       </c>
       <c r="L310" t="s">
-        <v>55</v>
+        <v>4452</v>
       </c>
       <c r="Q310" t="s">
-        <v>3056</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="311" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B311" s="1" t="s">
-        <v>3057</v>
+        <v>2845</v>
       </c>
       <c r="C311" t="s">
-        <v>3048</v>
+        <v>2821</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E311" t="s">
+        <v>2</v>
+      </c>
+      <c r="F311" t="s">
         <v>2426</v>
       </c>
       <c r="L311" t="s">
-        <v>55</v>
+        <v>4452</v>
       </c>
       <c r="Q311" t="s">
-        <v>3058</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="312" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B312" s="1" t="s">
-        <v>3059</v>
+        <v>2847</v>
       </c>
       <c r="C312" t="s">
-        <v>3048</v>
+        <v>2821</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E312" t="s">
+        <v>2</v>
+      </c>
+      <c r="F312" t="s">
         <v>2426</v>
       </c>
       <c r="L312" t="s">
-        <v>55</v>
+        <v>4452</v>
       </c>
       <c r="Q312" t="s">
-        <v>3060</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="313" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B313" s="1" t="s">
-        <v>3061</v>
+        <v>2849</v>
       </c>
       <c r="C313" t="s">
-        <v>3048</v>
+        <v>2821</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E313" t="s">
+        <v>2</v>
+      </c>
+      <c r="F313" t="s">
         <v>2426</v>
       </c>
       <c r="L313" t="s">
-        <v>55</v>
+        <v>4452</v>
       </c>
       <c r="Q313" t="s">
-        <v>3062</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="314" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B314" s="1" t="s">
-        <v>3265</v>
+        <v>2850</v>
       </c>
       <c r="C314" t="s">
-        <v>3266</v>
+        <v>2821</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E314" t="s">
+        <v>2</v>
+      </c>
+      <c r="F314" t="s">
+        <v>2426</v>
+      </c>
       <c r="L314" t="s">
-        <v>55</v>
+        <v>4452</v>
       </c>
       <c r="Q314" t="s">
-        <v>3267</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="315" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B315" s="1" t="s">
-        <v>3268</v>
+        <v>2852</v>
       </c>
       <c r="C315" t="s">
-        <v>3266</v>
+        <v>2821</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E315" t="s">
+        <v>2</v>
+      </c>
+      <c r="F315" t="s">
+        <v>2426</v>
+      </c>
       <c r="L315" t="s">
-        <v>55</v>
+        <v>4452</v>
       </c>
       <c r="Q315" t="s">
-        <v>3269</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="316" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B316" s="1" t="s">
-        <v>3270</v>
+        <v>2854</v>
       </c>
       <c r="C316" t="s">
-        <v>3266</v>
+        <v>2821</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E316" t="s">
+        <v>2</v>
+      </c>
+      <c r="F316" t="s">
+        <v>2426</v>
+      </c>
       <c r="L316" t="s">
-        <v>55</v>
+        <v>4452</v>
       </c>
       <c r="Q316" t="s">
-        <v>3271</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="317" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B317" s="1" t="s">
-        <v>3272</v>
+        <v>2856</v>
       </c>
       <c r="C317" t="s">
-        <v>3266</v>
+        <v>2821</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E317" t="s">
+        <v>2</v>
+      </c>
+      <c r="F317" t="s">
+        <v>2426</v>
+      </c>
       <c r="L317" t="s">
-        <v>55</v>
+        <v>5071</v>
+      </c>
+      <c r="M317" t="s">
+        <v>4454</v>
       </c>
       <c r="Q317" t="s">
-        <v>3273</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="318" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B318" s="1" t="s">
-        <v>3274</v>
+        <v>2857</v>
       </c>
       <c r="C318" t="s">
-        <v>3266</v>
+        <v>2821</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E318" t="s">
+        <v>2</v>
+      </c>
+      <c r="F318" t="s">
+        <v>2426</v>
+      </c>
       <c r="L318" t="s">
-        <v>55</v>
+        <v>5071</v>
+      </c>
+      <c r="M318" t="s">
+        <v>4454</v>
       </c>
       <c r="Q318" t="s">
-        <v>3275</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="319" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B319" s="1" t="s">
-        <v>3276</v>
+        <v>2858</v>
       </c>
       <c r="C319" t="s">
-        <v>3266</v>
+        <v>2821</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E319" t="s">
+        <v>2</v>
+      </c>
+      <c r="F319" t="s">
+        <v>2426</v>
+      </c>
       <c r="L319" t="s">
-        <v>55</v>
+        <v>5068</v>
       </c>
       <c r="Q319" t="s">
-        <v>3277</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="320" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B320" s="1" t="s">
-        <v>6680</v>
+        <v>2860</v>
       </c>
       <c r="C320" t="s">
-        <v>3266</v>
+        <v>2821</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E320" t="s">
+        <v>2</v>
+      </c>
+      <c r="F320" t="s">
+        <v>2426</v>
+      </c>
       <c r="L320" t="s">
-        <v>1155</v>
+        <v>6525</v>
       </c>
       <c r="Q320" t="s">
-        <v>6681</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="321" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B321" s="1" t="s">
-        <v>3278</v>
+        <v>2862</v>
       </c>
       <c r="C321" t="s">
-        <v>3266</v>
+        <v>2821</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E321" t="s">
+        <v>2</v>
+      </c>
+      <c r="F321" t="s">
+        <v>2426</v>
+      </c>
       <c r="L321" t="s">
-        <v>55</v>
+        <v>6525</v>
       </c>
       <c r="Q321" t="s">
-        <v>3279</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="322" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B322" s="1" t="s">
-        <v>3280</v>
+        <v>282</v>
       </c>
       <c r="C322" t="s">
-        <v>3266</v>
+        <v>283</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E322" t="s">
+        <v>2426</v>
+      </c>
       <c r="L322" t="s">
-        <v>1155</v>
+        <v>77</v>
       </c>
       <c r="Q322" t="s">
-        <v>3281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="323" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B323" s="1" t="s">
-        <v>2656</v>
+        <v>285</v>
       </c>
       <c r="C323" t="s">
-        <v>2657</v>
+        <v>283</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E323" t="s">
+        <v>2426</v>
+      </c>
       <c r="L323" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="Q323" t="s">
-        <v>2658</v>
+        <v>286</v>
       </c>
     </row>
     <row r="324" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B324" s="1" t="s">
-        <v>2659</v>
+        <v>1802</v>
       </c>
       <c r="C324" t="s">
-        <v>2657</v>
+        <v>1803</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E324" t="s">
+        <v>3794</v>
+      </c>
       <c r="L324" t="s">
-        <v>55</v>
+        <v>77</v>
+      </c>
+      <c r="M324" t="s">
+        <v>352</v>
       </c>
       <c r="Q324" t="s">
-        <v>2660</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="325" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B325" s="1" t="s">
-        <v>3457</v>
+        <v>1804</v>
       </c>
       <c r="C325" t="s">
-        <v>3458</v>
+        <v>1803</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E325" t="s">
-        <v>2426</v>
+        <v>3794</v>
       </c>
       <c r="L325" t="s">
-        <v>5071</v>
+        <v>77</v>
+      </c>
+      <c r="M325" t="s">
+        <v>352</v>
       </c>
       <c r="Q325" t="s">
-        <v>3459</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="326" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B326" s="1" t="s">
-        <v>3449</v>
+        <v>1805</v>
       </c>
       <c r="C326" t="s">
-        <v>3450</v>
+        <v>1803</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E326" t="s">
-        <v>2</v>
-      </c>
-      <c r="F326" t="s">
-        <v>2</v>
-      </c>
-      <c r="G326" t="s">
-        <v>2426</v>
+        <v>3794</v>
       </c>
       <c r="L326" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="M326" t="s">
-        <v>542</v>
+        <v>352</v>
       </c>
       <c r="Q326" t="s">
-        <v>4582</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="327" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B327" s="1" t="s">
-        <v>3451</v>
+        <v>6172</v>
       </c>
       <c r="C327" t="s">
-        <v>3450</v>
+        <v>1803</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E327" t="s">
-        <v>2</v>
-      </c>
-      <c r="F327" t="s">
-        <v>2</v>
-      </c>
-      <c r="G327" t="s">
-        <v>2426</v>
-      </c>
       <c r="L327" t="s">
-        <v>55</v>
-      </c>
-      <c r="M327" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q327" t="s">
-        <v>4583</v>
+        <v>352</v>
+      </c>
+      <c r="Q327">
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B328" s="1" t="s">
-        <v>3452</v>
+        <v>1806</v>
       </c>
       <c r="C328" t="s">
-        <v>3450</v>
+        <v>1803</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E328" t="s">
-        <v>2</v>
-      </c>
-      <c r="F328" t="s">
-        <v>2</v>
-      </c>
-      <c r="G328" t="s">
-        <v>2426</v>
+        <v>4165</v>
       </c>
       <c r="L328" t="s">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="M328" t="s">
+        <v>352</v>
+      </c>
+      <c r="N328" t="s">
         <v>542</v>
       </c>
       <c r="Q328" t="s">
-        <v>4584</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="329" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B329" s="1" t="s">
-        <v>3453</v>
+        <v>1807</v>
       </c>
       <c r="C329" t="s">
-        <v>3450</v>
+        <v>1803</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E329" t="s">
-        <v>2</v>
-      </c>
-      <c r="F329" t="s">
-        <v>2</v>
-      </c>
-      <c r="G329" t="s">
-        <v>2426</v>
-      </c>
       <c r="L329" t="s">
-        <v>55</v>
-      </c>
-      <c r="M329" t="s">
-        <v>542</v>
+        <v>352</v>
       </c>
       <c r="Q329" t="s">
-        <v>4585</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="330" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B330" s="1" t="s">
-        <v>6522</v>
+        <v>1809</v>
       </c>
       <c r="C330" t="s">
-        <v>6523</v>
+        <v>1803</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E330" t="s">
-        <v>2</v>
-      </c>
-      <c r="F330" t="s">
-        <v>2</v>
-      </c>
-      <c r="L330" t="s">
-        <v>1155</v>
-      </c>
       <c r="Q330" t="s">
-        <v>6524</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="331" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B331" s="1" t="s">
-        <v>975</v>
+        <v>1811</v>
       </c>
       <c r="C331" t="s">
-        <v>976</v>
+        <v>1803</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E331" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L331" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M331" t="s">
-        <v>542</v>
-      </c>
       <c r="Q331" t="s">
-        <v>3939</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="332" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B332" s="1" t="s">
-        <v>977</v>
+        <v>1813</v>
       </c>
       <c r="C332" t="s">
-        <v>976</v>
+        <v>1803</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>2</v>
@@ -86706,21 +88749,18 @@
         <v>2426</v>
       </c>
       <c r="L332" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M332" t="s">
-        <v>542</v>
+        <v>58</v>
       </c>
       <c r="Q332" t="s">
-        <v>3940</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="333" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B333" s="1" t="s">
-        <v>978</v>
+        <v>912</v>
       </c>
       <c r="C333" t="s">
-        <v>976</v>
+        <v>913</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>2</v>
@@ -86729,102 +88769,77 @@
         <v>2426</v>
       </c>
       <c r="L333" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M333" t="s">
-        <v>542</v>
+        <v>55</v>
       </c>
       <c r="Q333" t="s">
-        <v>3941</v>
+        <v>914</v>
       </c>
     </row>
     <row r="334" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B334" s="1" t="s">
-        <v>1490</v>
+        <v>5284</v>
       </c>
       <c r="C334" t="s">
-        <v>1491</v>
+        <v>5285</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E334" t="s">
-        <v>3766</v>
-      </c>
-      <c r="L334" t="s">
-        <v>1155</v>
+        <v>2</v>
       </c>
       <c r="Q334" t="s">
-        <v>1492</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="335" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B335" s="1" t="s">
-        <v>5875</v>
+        <v>5287</v>
       </c>
       <c r="C335" t="s">
-        <v>1491</v>
+        <v>5285</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E335" t="s">
-        <v>3766</v>
-      </c>
-      <c r="L335" t="s">
-        <v>1155</v>
+        <v>2</v>
       </c>
       <c r="Q335" t="s">
-        <v>5876</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="336" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B336" s="1" t="s">
-        <v>3296</v>
+        <v>5289</v>
       </c>
       <c r="C336" t="s">
-        <v>3297</v>
+        <v>5285</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E336" t="s">
-        <v>2</v>
-      </c>
-      <c r="L336" t="s">
-        <v>55</v>
-      </c>
       <c r="Q336" t="s">
-        <v>3298</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="337" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B337" s="1" t="s">
-        <v>3299</v>
+        <v>550</v>
       </c>
       <c r="C337" t="s">
-        <v>3297</v>
+        <v>551</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E337" t="s">
-        <v>2</v>
-      </c>
-      <c r="F337" s="2"/>
       <c r="L337" t="s">
-        <v>55</v>
+        <v>542</v>
       </c>
       <c r="Q337" t="s">
-        <v>3300</v>
+        <v>552</v>
       </c>
     </row>
     <row r="338" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B338" s="1" t="s">
-        <v>432</v>
+        <v>1042</v>
       </c>
       <c r="C338" t="s">
-        <v>433</v>
+        <v>1043</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>404</v>
@@ -86832,22 +88847,22 @@
       <c r="E338" t="s">
         <v>404</v>
       </c>
+      <c r="F338" t="s">
+        <v>3888</v>
+      </c>
       <c r="L338" t="s">
-        <v>3</v>
-      </c>
-      <c r="M338" t="s">
         <v>542</v>
       </c>
       <c r="Q338" t="s">
-        <v>3759</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="339" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B339" s="1" t="s">
-        <v>434</v>
+        <v>1045</v>
       </c>
       <c r="C339" t="s">
-        <v>433</v>
+        <v>1043</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>404</v>
@@ -86855,22 +88870,22 @@
       <c r="E339" t="s">
         <v>404</v>
       </c>
+      <c r="F339" t="s">
+        <v>3888</v>
+      </c>
       <c r="L339" t="s">
-        <v>3</v>
-      </c>
-      <c r="M339" t="s">
         <v>542</v>
       </c>
       <c r="Q339" t="s">
-        <v>3760</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="340" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B340" s="1" t="s">
-        <v>435</v>
+        <v>1047</v>
       </c>
       <c r="C340" t="s">
-        <v>433</v>
+        <v>1043</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>404</v>
@@ -86878,264 +88893,345 @@
       <c r="E340" t="s">
         <v>404</v>
       </c>
+      <c r="F340" t="s">
+        <v>3888</v>
+      </c>
       <c r="L340" t="s">
-        <v>3</v>
-      </c>
-      <c r="M340" t="s">
         <v>542</v>
       </c>
       <c r="Q340" t="s">
-        <v>3761</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="341" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B341" s="1" t="s">
-        <v>6958</v>
+        <v>1049</v>
       </c>
       <c r="C341" t="s">
-        <v>865</v>
+        <v>1043</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E341" t="s">
-        <v>2426</v>
+        <v>404</v>
+      </c>
+      <c r="F341" t="s">
+        <v>3888</v>
       </c>
       <c r="L341" t="s">
-        <v>3894</v>
+        <v>542</v>
       </c>
       <c r="Q341" t="s">
-        <v>6959</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="342" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B342" s="1" t="s">
-        <v>534</v>
+        <v>1051</v>
       </c>
       <c r="C342" t="s">
-        <v>533</v>
+        <v>1043</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E342" t="s">
+        <v>404</v>
+      </c>
+      <c r="F342" t="s">
+        <v>3888</v>
+      </c>
+      <c r="G342" t="s">
+        <v>3964</v>
+      </c>
+      <c r="L342" t="s">
+        <v>542</v>
       </c>
       <c r="Q342" t="s">
-        <v>535</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="343" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B343" s="1" t="s">
-        <v>536</v>
+        <v>1053</v>
       </c>
       <c r="C343" t="s">
-        <v>533</v>
+        <v>1043</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E343" t="s">
+        <v>404</v>
+      </c>
+      <c r="F343" t="s">
+        <v>3888</v>
+      </c>
+      <c r="G343" t="s">
+        <v>3964</v>
+      </c>
+      <c r="L343" t="s">
+        <v>542</v>
       </c>
       <c r="Q343" t="s">
-        <v>537</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="344" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B344" s="1" t="s">
-        <v>538</v>
+        <v>1054</v>
       </c>
       <c r="C344" t="s">
-        <v>533</v>
+        <v>1043</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E344" t="s">
+        <v>404</v>
+      </c>
+      <c r="F344" t="s">
+        <v>3888</v>
+      </c>
+      <c r="G344" t="s">
+        <v>3964</v>
       </c>
       <c r="L344" t="s">
-        <v>352</v>
-      </c>
-      <c r="M344" t="s">
         <v>542</v>
       </c>
       <c r="Q344" t="s">
-        <v>3790</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="345" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B345" s="1" t="s">
-        <v>539</v>
+        <v>1055</v>
       </c>
       <c r="C345" t="s">
-        <v>533</v>
+        <v>1043</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E345" t="s">
+        <v>404</v>
+      </c>
+      <c r="F345" t="s">
+        <v>3888</v>
+      </c>
+      <c r="G345" t="s">
+        <v>3964</v>
       </c>
       <c r="L345" t="s">
-        <v>352</v>
-      </c>
-      <c r="M345" t="s">
         <v>542</v>
       </c>
       <c r="Q345" t="s">
-        <v>3791</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="346" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B346" s="1" t="s">
-        <v>532</v>
+        <v>1057</v>
       </c>
       <c r="C346" t="s">
-        <v>533</v>
+        <v>1043</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>6955</v>
+        <v>404</v>
+      </c>
+      <c r="E346" t="s">
+        <v>404</v>
+      </c>
+      <c r="F346" t="s">
+        <v>3888</v>
+      </c>
+      <c r="G346" t="s">
+        <v>3964</v>
       </c>
       <c r="L346" t="s">
-        <v>352</v>
-      </c>
-      <c r="M346" t="s">
         <v>542</v>
       </c>
       <c r="Q346" t="s">
-        <v>3789</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="347" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B347" s="1" t="s">
-        <v>540</v>
+        <v>1059</v>
       </c>
       <c r="C347" t="s">
-        <v>533</v>
+        <v>1043</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E347" t="s">
+        <v>404</v>
+      </c>
+      <c r="F347" t="s">
+        <v>3888</v>
+      </c>
+      <c r="G347" t="s">
+        <v>3964</v>
       </c>
       <c r="L347" t="s">
-        <v>352</v>
-      </c>
-      <c r="M347" t="s">
         <v>542</v>
       </c>
       <c r="Q347" t="s">
-        <v>3792</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="348" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B348" s="1" t="s">
-        <v>541</v>
+        <v>1061</v>
       </c>
       <c r="C348" t="s">
-        <v>533</v>
+        <v>1043</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E348" t="s">
+        <v>404</v>
+      </c>
+      <c r="F348" t="s">
+        <v>3888</v>
+      </c>
+      <c r="G348" t="s">
+        <v>3964</v>
       </c>
       <c r="L348" t="s">
         <v>542</v>
       </c>
       <c r="Q348" t="s">
-        <v>543</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="349" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B349" s="1" t="s">
-        <v>544</v>
+        <v>1063</v>
       </c>
       <c r="C349" t="s">
-        <v>533</v>
+        <v>1043</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E349" t="s">
+        <v>404</v>
+      </c>
+      <c r="F349" t="s">
+        <v>3888</v>
+      </c>
+      <c r="G349" t="s">
+        <v>3964</v>
       </c>
       <c r="L349" t="s">
         <v>542</v>
       </c>
       <c r="Q349" t="s">
-        <v>545</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="350" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B350" s="1" t="s">
-        <v>546</v>
+        <v>5496</v>
       </c>
       <c r="C350" t="s">
-        <v>533</v>
+        <v>1043</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E350" t="s">
+        <v>404</v>
       </c>
       <c r="L350" t="s">
-        <v>542</v>
+        <v>58</v>
       </c>
       <c r="Q350" t="s">
-        <v>547</v>
+        <v>5497</v>
       </c>
     </row>
     <row r="351" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B351" s="1" t="s">
-        <v>548</v>
+        <v>5498</v>
       </c>
       <c r="C351" t="s">
-        <v>533</v>
+        <v>1043</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E351" t="s">
+        <v>404</v>
       </c>
       <c r="L351" t="s">
-        <v>542</v>
+        <v>58</v>
       </c>
       <c r="Q351" t="s">
-        <v>549</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="352" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B352" s="1" t="s">
-        <v>606</v>
+        <v>1075</v>
       </c>
       <c r="C352" t="s">
-        <v>607</v>
+        <v>1066</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E352" t="s">
-        <v>3803</v>
+        <v>2426</v>
+      </c>
+      <c r="F352" t="s">
+        <v>3964</v>
       </c>
       <c r="L352" t="s">
+        <v>3954</v>
+      </c>
+      <c r="M352" t="s">
         <v>542</v>
       </c>
-      <c r="M352" t="s">
-        <v>352</v>
-      </c>
       <c r="Q352" t="s">
-        <v>3804</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="353" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B353" s="1" t="s">
-        <v>608</v>
+        <v>1076</v>
       </c>
       <c r="C353" t="s">
-        <v>607</v>
+        <v>1066</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E353" t="s">
-        <v>3803</v>
+        <v>2426</v>
+      </c>
+      <c r="F353" t="s">
+        <v>3964</v>
       </c>
       <c r="L353" t="s">
+        <v>3954</v>
+      </c>
+      <c r="M353" t="s">
         <v>542</v>
       </c>
-      <c r="M353" t="s">
-        <v>352</v>
-      </c>
       <c r="Q353" t="s">
-        <v>3805</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="354" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B354" s="1" t="s">
-        <v>609</v>
+        <v>1078</v>
       </c>
       <c r="C354" t="s">
-        <v>607</v>
+        <v>1066</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>2</v>
@@ -87143,111 +89239,111 @@
       <c r="E354" t="s">
         <v>2426</v>
       </c>
+      <c r="F354" t="s">
+        <v>3964</v>
+      </c>
       <c r="L354" t="s">
-        <v>55</v>
+        <v>3954</v>
+      </c>
+      <c r="M354" t="s">
+        <v>542</v>
       </c>
       <c r="Q354" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="355" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B355" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E355" s="2" t="s">
-        <v>3901</v>
-      </c>
-      <c r="L355" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M355" s="2" t="s">
-        <v>3902</v>
-      </c>
-      <c r="Q355" s="2" t="s">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="356" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B356" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E356" s="2" t="s">
-        <v>3901</v>
-      </c>
-      <c r="L356" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M356" s="2" t="s">
-        <v>3902</v>
-      </c>
-      <c r="Q356" s="2" t="s">
-        <v>4694</v>
-      </c>
-    </row>
-    <row r="357" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B357" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="D357" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>3901</v>
-      </c>
-      <c r="L357" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M357" s="2" t="s">
-        <v>3902</v>
-      </c>
-      <c r="Q357" s="2" t="s">
-        <v>4695</v>
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="355" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B355" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E355" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F355" t="s">
+        <v>3964</v>
+      </c>
+      <c r="L355" t="s">
+        <v>3954</v>
+      </c>
+      <c r="M355" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="356" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B356" s="1" t="s">
+        <v>5506</v>
+      </c>
+      <c r="C356" t="s">
+        <v>5507</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E356" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L356" t="s">
+        <v>3714</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="357" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B357" s="1" t="s">
+        <v>5509</v>
+      </c>
+      <c r="C357" t="s">
+        <v>5507</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E357" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L357" t="s">
+        <v>3714</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>5510</v>
       </c>
     </row>
     <row r="358" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B358" s="1" t="s">
-        <v>918</v>
+        <v>3124</v>
       </c>
       <c r="C358" t="s">
-        <v>919</v>
+        <v>3125</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E358" t="s">
-        <v>3901</v>
+        <v>2426</v>
       </c>
       <c r="L358" t="s">
         <v>1155</v>
       </c>
-      <c r="M358" t="s">
-        <v>3902</v>
-      </c>
       <c r="Q358" t="s">
-        <v>3905</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="359" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B359" s="4" t="s">
-        <v>944</v>
+      <c r="B359" s="1" t="s">
+        <v>6626</v>
       </c>
       <c r="C359" t="s">
-        <v>945</v>
+        <v>3125</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>2</v>
@@ -87256,21 +89352,18 @@
         <v>2426</v>
       </c>
       <c r="L359" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M359" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q359" t="s">
-        <v>3918</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="360" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B360" s="1" t="s">
-        <v>946</v>
+        <v>3127</v>
       </c>
       <c r="C360" t="s">
-        <v>945</v>
+        <v>3125</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>2</v>
@@ -87279,21 +89372,18 @@
         <v>2426</v>
       </c>
       <c r="L360" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M360" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q360" t="s">
-        <v>3919</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="361" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B361" s="1" t="s">
-        <v>947</v>
+        <v>3129</v>
       </c>
       <c r="C361" t="s">
-        <v>945</v>
+        <v>3125</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>2</v>
@@ -87302,21 +89392,18 @@
         <v>2426</v>
       </c>
       <c r="L361" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M361" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q361" t="s">
-        <v>3920</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="362" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B362" s="1" t="s">
-        <v>948</v>
+        <v>3131</v>
       </c>
       <c r="C362" t="s">
-        <v>945</v>
+        <v>3125</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>2</v>
@@ -87325,221 +89412,218 @@
         <v>2426</v>
       </c>
       <c r="L362" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M362" t="s">
-        <v>542</v>
+        <v>3714</v>
       </c>
       <c r="Q362" t="s">
-        <v>3921</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="363" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B363" s="1" t="s">
-        <v>326</v>
+        <v>3133</v>
       </c>
       <c r="C363" t="s">
-        <v>327</v>
+        <v>3125</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E363" t="s">
+        <v>2426</v>
+      </c>
       <c r="L363" t="s">
-        <v>318</v>
-      </c>
-      <c r="M363" t="s">
-        <v>77</v>
+        <v>3714</v>
       </c>
       <c r="Q363" t="s">
-        <v>3736</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="364" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B364" s="1" t="s">
-        <v>328</v>
+        <v>2647</v>
       </c>
       <c r="C364" t="s">
-        <v>327</v>
+        <v>2648</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E364" t="s">
+        <v>2426</v>
+      </c>
       <c r="L364" t="s">
-        <v>318</v>
-      </c>
-      <c r="M364" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="Q364" t="s">
-        <v>3737</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="365" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B365" s="1" t="s">
-        <v>329</v>
+        <v>2650</v>
       </c>
       <c r="C365" t="s">
-        <v>327</v>
+        <v>2648</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E365" t="s">
+        <v>2426</v>
+      </c>
       <c r="L365" t="s">
-        <v>318</v>
-      </c>
-      <c r="M365" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="Q365" t="s">
-        <v>3738</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="366" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B366" s="1" t="s">
-        <v>330</v>
+        <v>2652</v>
       </c>
       <c r="C366" t="s">
-        <v>327</v>
+        <v>2648</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E366" t="s">
+        <v>2426</v>
+      </c>
       <c r="L366" t="s">
-        <v>318</v>
-      </c>
-      <c r="M366" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="Q366" t="s">
-        <v>3739</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="367" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B367" s="1" t="s">
-        <v>331</v>
+        <v>2654</v>
       </c>
       <c r="C367" t="s">
-        <v>327</v>
+        <v>2648</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E367" t="s">
+        <v>2426</v>
+      </c>
       <c r="L367" t="s">
-        <v>318</v>
-      </c>
-      <c r="M367" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="Q367" t="s">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="368" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B368" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="C368" t="s">
-        <v>796</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E368" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L368" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q368" t="s">
-        <v>797</v>
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="368" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B368" s="5" t="s">
+        <v>6754</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>6755</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E368" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L368" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q368" s="6" t="s">
+        <v>6756</v>
       </c>
     </row>
     <row r="369" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B369" s="1" t="s">
-        <v>798</v>
+        <v>6757</v>
       </c>
       <c r="C369" t="s">
-        <v>796</v>
+        <v>6755</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E369" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L369" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>6758</v>
+      </c>
+    </row>
+    <row r="370" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B370" s="5" t="s">
+        <v>6759</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>6755</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E370" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L370" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q370" s="6" t="s">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="371" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B371" s="5" t="s">
+        <v>6623</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>6624</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E371" s="6" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L371" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="Q369" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="370" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B370" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="C370" t="s">
-        <v>796</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E370" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L370" t="s">
+      <c r="Q371" s="6" t="s">
+        <v>6625</v>
+      </c>
+    </row>
+    <row r="372" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B372" s="5" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E372" s="6" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L372" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="Q370" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="371" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B371" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="C371" t="s">
-        <v>803</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E371" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L371" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q371" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="372" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B372" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="C372" t="s">
-        <v>803</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E372" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L372" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q372" t="s">
-        <v>806</v>
+      <c r="Q372" s="6" t="s">
+        <v>3100</v>
       </c>
     </row>
     <row r="373" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B373" s="1" t="s">
-        <v>807</v>
+        <v>3101</v>
       </c>
       <c r="C373" t="s">
-        <v>803</v>
+        <v>3099</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>2</v>
@@ -87551,15 +89635,15 @@
         <v>1155</v>
       </c>
       <c r="Q373" t="s">
-        <v>808</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="374" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B374" s="1" t="s">
-        <v>809</v>
+        <v>3103</v>
       </c>
       <c r="C374" t="s">
-        <v>803</v>
+        <v>3099</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>2</v>
@@ -87571,15 +89655,15 @@
         <v>1155</v>
       </c>
       <c r="Q374" t="s">
-        <v>810</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="375" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B375" s="1" t="s">
-        <v>811</v>
+        <v>3105</v>
       </c>
       <c r="C375" t="s">
-        <v>803</v>
+        <v>3099</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>2</v>
@@ -87591,15 +89675,15 @@
         <v>1155</v>
       </c>
       <c r="Q375" t="s">
-        <v>812</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="376" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B376" s="1" t="s">
-        <v>813</v>
+        <v>3107</v>
       </c>
       <c r="C376" t="s">
-        <v>803</v>
+        <v>3099</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>2</v>
@@ -87611,15 +89695,15 @@
         <v>1155</v>
       </c>
       <c r="Q376" t="s">
-        <v>814</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="377" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B377" s="1" t="s">
-        <v>815</v>
+        <v>3109</v>
       </c>
       <c r="C377" t="s">
-        <v>803</v>
+        <v>3099</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>2</v>
@@ -87631,15 +89715,15 @@
         <v>1155</v>
       </c>
       <c r="Q377" t="s">
-        <v>816</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="378" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B378" s="1" t="s">
-        <v>817</v>
+        <v>6621</v>
       </c>
       <c r="C378" t="s">
-        <v>803</v>
+        <v>3099</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>2</v>
@@ -87651,15 +89735,15 @@
         <v>1155</v>
       </c>
       <c r="Q378" t="s">
-        <v>818</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="379" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B379" s="1" t="s">
-        <v>5449</v>
+        <v>3111</v>
       </c>
       <c r="C379" t="s">
-        <v>803</v>
+        <v>3099</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>2</v>
@@ -87671,15 +89755,15 @@
         <v>1155</v>
       </c>
       <c r="Q379" t="s">
-        <v>5450</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="380" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B380" s="1" t="s">
-        <v>819</v>
+        <v>3113</v>
       </c>
       <c r="C380" t="s">
-        <v>803</v>
+        <v>3099</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>2</v>
@@ -87691,2090 +89775,6 @@
         <v>1155</v>
       </c>
       <c r="Q380" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="381" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B381" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="C381" t="s">
-        <v>822</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E381" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L381" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q381" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="382" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B382" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="C382" t="s">
-        <v>822</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E382" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L382" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q382" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="383" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B383" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="C383" t="s">
-        <v>822</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E383" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L383" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q383" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="384" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B384" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="C384" t="s">
-        <v>822</v>
-      </c>
-      <c r="D384" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E384" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L384" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q384" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="385" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B385" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="C385" t="s">
-        <v>822</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E385" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L385" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q385" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="386" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B386" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="C386" t="s">
-        <v>822</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E386" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F386" t="s">
-        <v>3888</v>
-      </c>
-      <c r="L386" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M386" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q386" t="s">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="387" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B387" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="C387" t="s">
-        <v>822</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E387" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F387" t="s">
-        <v>3888</v>
-      </c>
-      <c r="L387" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M387" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q387" t="s">
-        <v>3891</v>
-      </c>
-    </row>
-    <row r="388" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B388" s="1" t="s">
-        <v>5451</v>
-      </c>
-      <c r="C388" t="s">
-        <v>822</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E388" t="s">
-        <v>3766</v>
-      </c>
-      <c r="L388" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q388" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="389" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B389" s="1" t="s">
-        <v>5452</v>
-      </c>
-      <c r="C389" t="s">
-        <v>822</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E389" t="s">
-        <v>3766</v>
-      </c>
-      <c r="L389" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q389" t="s">
-        <v>4686</v>
-      </c>
-    </row>
-    <row r="390" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B390" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="C390" t="s">
-        <v>822</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E390" t="s">
-        <v>3766</v>
-      </c>
-      <c r="L390" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q390" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="391" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B391" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="C391" t="s">
-        <v>822</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E391" t="s">
-        <v>3892</v>
-      </c>
-      <c r="L391" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q391" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="392" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B392" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="C392" t="s">
-        <v>822</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E392" t="s">
-        <v>3892</v>
-      </c>
-      <c r="L392" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q392" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="393" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B393" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C393" t="s">
-        <v>822</v>
-      </c>
-      <c r="D393" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E393" t="s">
-        <v>3892</v>
-      </c>
-      <c r="L393" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q393" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="394" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B394" s="1" t="s">
-        <v>5453</v>
-      </c>
-      <c r="C394" t="s">
-        <v>822</v>
-      </c>
-      <c r="D394" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E394" t="s">
-        <v>3892</v>
-      </c>
-      <c r="L394" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q394" t="s">
-        <v>5454</v>
-      </c>
-    </row>
-    <row r="395" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B395" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C395" t="s">
-        <v>822</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E395" t="s">
-        <v>3766</v>
-      </c>
-      <c r="L395" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q395" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="396" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B396" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="C396" t="s">
-        <v>822</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E396" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F396" t="s">
-        <v>3892</v>
-      </c>
-      <c r="L396" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M396" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q396" t="s">
-        <v>3893</v>
-      </c>
-    </row>
-    <row r="397" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B397" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C397" t="s">
-        <v>822</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E397" t="s">
-        <v>3892</v>
-      </c>
-      <c r="L397" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q397" t="s">
-        <v>5455</v>
-      </c>
-    </row>
-    <row r="398" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B398" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C398" t="s">
-        <v>822</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E398" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L398" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q398" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="399" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B399" s="1" t="s">
-        <v>2820</v>
-      </c>
-      <c r="C399" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E399" t="s">
-        <v>2</v>
-      </c>
-      <c r="F399" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L399" t="s">
-        <v>5068</v>
-      </c>
-      <c r="Q399" t="s">
-        <v>2822</v>
-      </c>
-    </row>
-    <row r="400" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B400" s="1" t="s">
-        <v>2823</v>
-      </c>
-      <c r="C400" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E400" t="s">
-        <v>2</v>
-      </c>
-      <c r="F400" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L400" t="s">
-        <v>5068</v>
-      </c>
-      <c r="Q400" t="s">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="401" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B401" s="1" t="s">
-        <v>2825</v>
-      </c>
-      <c r="C401" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E401" t="s">
-        <v>2</v>
-      </c>
-      <c r="F401" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L401" t="s">
-        <v>6525</v>
-      </c>
-      <c r="Q401" t="s">
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="402" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B402" s="1" t="s">
-        <v>2827</v>
-      </c>
-      <c r="C402" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E402" t="s">
-        <v>2</v>
-      </c>
-      <c r="F402" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L402" t="s">
-        <v>6525</v>
-      </c>
-      <c r="Q402" t="s">
-        <v>2828</v>
-      </c>
-    </row>
-    <row r="403" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B403" s="1" t="s">
-        <v>2829</v>
-      </c>
-      <c r="C403" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D403" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E403" t="s">
-        <v>2</v>
-      </c>
-      <c r="F403" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L403" t="s">
-        <v>6525</v>
-      </c>
-      <c r="Q403" t="s">
-        <v>2830</v>
-      </c>
-    </row>
-    <row r="404" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B404" s="1" t="s">
-        <v>2831</v>
-      </c>
-      <c r="C404" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E404" t="s">
-        <v>2</v>
-      </c>
-      <c r="F404" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L404" t="s">
-        <v>6525</v>
-      </c>
-      <c r="Q404" t="s">
-        <v>2832</v>
-      </c>
-    </row>
-    <row r="405" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B405" s="1" t="s">
-        <v>2833</v>
-      </c>
-      <c r="C405" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E405" t="s">
-        <v>2</v>
-      </c>
-      <c r="F405" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L405" t="s">
-        <v>6525</v>
-      </c>
-      <c r="Q405" t="s">
-        <v>4451</v>
-      </c>
-    </row>
-    <row r="406" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B406" s="1" t="s">
-        <v>2834</v>
-      </c>
-      <c r="C406" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E406" t="s">
-        <v>2</v>
-      </c>
-      <c r="F406" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L406" t="s">
-        <v>4452</v>
-      </c>
-      <c r="Q406" t="s">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="407" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B407" s="1" t="s">
-        <v>2836</v>
-      </c>
-      <c r="C407" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E407" t="s">
-        <v>2</v>
-      </c>
-      <c r="F407" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L407" t="s">
-        <v>4452</v>
-      </c>
-      <c r="Q407" t="s">
-        <v>2837</v>
-      </c>
-    </row>
-    <row r="408" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B408" s="1" t="s">
-        <v>2845</v>
-      </c>
-      <c r="C408" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E408" t="s">
-        <v>2</v>
-      </c>
-      <c r="F408" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L408" t="s">
-        <v>4452</v>
-      </c>
-      <c r="Q408" t="s">
-        <v>2846</v>
-      </c>
-    </row>
-    <row r="409" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B409" s="1" t="s">
-        <v>2847</v>
-      </c>
-      <c r="C409" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E409" t="s">
-        <v>2</v>
-      </c>
-      <c r="F409" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L409" t="s">
-        <v>4452</v>
-      </c>
-      <c r="Q409" t="s">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="410" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B410" s="1" t="s">
-        <v>2849</v>
-      </c>
-      <c r="C410" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E410" t="s">
-        <v>2</v>
-      </c>
-      <c r="F410" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L410" t="s">
-        <v>4452</v>
-      </c>
-      <c r="Q410" t="s">
-        <v>4892</v>
-      </c>
-    </row>
-    <row r="411" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B411" s="1" t="s">
-        <v>2850</v>
-      </c>
-      <c r="C411" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D411" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E411" t="s">
-        <v>2</v>
-      </c>
-      <c r="F411" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L411" t="s">
-        <v>4452</v>
-      </c>
-      <c r="Q411" t="s">
-        <v>2851</v>
-      </c>
-    </row>
-    <row r="412" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B412" s="1" t="s">
-        <v>2852</v>
-      </c>
-      <c r="C412" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E412" t="s">
-        <v>2</v>
-      </c>
-      <c r="F412" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L412" t="s">
-        <v>4452</v>
-      </c>
-      <c r="Q412" t="s">
-        <v>2853</v>
-      </c>
-    </row>
-    <row r="413" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B413" s="1" t="s">
-        <v>2854</v>
-      </c>
-      <c r="C413" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E413" t="s">
-        <v>2</v>
-      </c>
-      <c r="F413" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L413" t="s">
-        <v>4452</v>
-      </c>
-      <c r="Q413" t="s">
-        <v>2855</v>
-      </c>
-    </row>
-    <row r="414" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B414" s="1" t="s">
-        <v>2856</v>
-      </c>
-      <c r="C414" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E414" t="s">
-        <v>2</v>
-      </c>
-      <c r="F414" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L414" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M414" t="s">
-        <v>4454</v>
-      </c>
-      <c r="Q414" t="s">
-        <v>4455</v>
-      </c>
-    </row>
-    <row r="415" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B415" s="1" t="s">
-        <v>2857</v>
-      </c>
-      <c r="C415" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E415" t="s">
-        <v>2</v>
-      </c>
-      <c r="F415" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L415" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M415" t="s">
-        <v>4454</v>
-      </c>
-      <c r="Q415" t="s">
-        <v>4893</v>
-      </c>
-    </row>
-    <row r="416" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B416" s="1" t="s">
-        <v>2858</v>
-      </c>
-      <c r="C416" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D416" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E416" t="s">
-        <v>2</v>
-      </c>
-      <c r="F416" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L416" t="s">
-        <v>5068</v>
-      </c>
-      <c r="Q416" t="s">
-        <v>2859</v>
-      </c>
-    </row>
-    <row r="417" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B417" s="1" t="s">
-        <v>2860</v>
-      </c>
-      <c r="C417" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E417" t="s">
-        <v>2</v>
-      </c>
-      <c r="F417" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L417" t="s">
-        <v>6525</v>
-      </c>
-      <c r="Q417" t="s">
-        <v>2861</v>
-      </c>
-    </row>
-    <row r="418" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B418" s="1" t="s">
-        <v>2862</v>
-      </c>
-      <c r="C418" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D418" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E418" t="s">
-        <v>2</v>
-      </c>
-      <c r="F418" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L418" t="s">
-        <v>6525</v>
-      </c>
-      <c r="Q418" t="s">
-        <v>2863</v>
-      </c>
-    </row>
-    <row r="419" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B419" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C419" t="s">
-        <v>283</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E419" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L419" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q419" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="420" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B420" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C420" t="s">
-        <v>283</v>
-      </c>
-      <c r="D420" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E420" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L420" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q420" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="421" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B421" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C421" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D421" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E421" t="s">
-        <v>3794</v>
-      </c>
-      <c r="L421" t="s">
-        <v>77</v>
-      </c>
-      <c r="M421" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q421" t="s">
-        <v>4162</v>
-      </c>
-    </row>
-    <row r="422" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B422" s="1" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C422" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E422" t="s">
-        <v>3794</v>
-      </c>
-      <c r="L422" t="s">
-        <v>77</v>
-      </c>
-      <c r="M422" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q422" t="s">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="423" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B423" s="1" t="s">
-        <v>1805</v>
-      </c>
-      <c r="C423" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E423" t="s">
-        <v>3794</v>
-      </c>
-      <c r="L423" t="s">
-        <v>77</v>
-      </c>
-      <c r="M423" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q423" t="s">
-        <v>4164</v>
-      </c>
-    </row>
-    <row r="424" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B424" s="1" t="s">
-        <v>6172</v>
-      </c>
-      <c r="C424" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L424" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q424">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="425" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B425" s="1" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C425" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E425" t="s">
-        <v>4165</v>
-      </c>
-      <c r="L425" t="s">
-        <v>318</v>
-      </c>
-      <c r="M425" t="s">
-        <v>352</v>
-      </c>
-      <c r="N425" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q425" t="s">
-        <v>4764</v>
-      </c>
-    </row>
-    <row r="426" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B426" s="1" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C426" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L426" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q426" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="427" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B427" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C427" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q427" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="428" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B428" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="C428" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q428" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="429" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B429" s="1" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C429" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E429" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L429" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q429" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="430" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B430" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="C430" t="s">
-        <v>913</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E430" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L430" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q430" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="431" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B431" s="1" t="s">
-        <v>5284</v>
-      </c>
-      <c r="C431" t="s">
-        <v>5285</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q431" t="s">
-        <v>5286</v>
-      </c>
-    </row>
-    <row r="432" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B432" s="1" t="s">
-        <v>5287</v>
-      </c>
-      <c r="C432" t="s">
-        <v>5285</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q432" t="s">
-        <v>5288</v>
-      </c>
-    </row>
-    <row r="433" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B433" s="1" t="s">
-        <v>5289</v>
-      </c>
-      <c r="C433" t="s">
-        <v>5285</v>
-      </c>
-      <c r="D433" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q433" t="s">
-        <v>5290</v>
-      </c>
-    </row>
-    <row r="434" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B434" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C434" t="s">
-        <v>551</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L434" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q434" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="435" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B435" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C435" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E435" t="s">
-        <v>404</v>
-      </c>
-      <c r="F435" t="s">
-        <v>3888</v>
-      </c>
-      <c r="L435" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q435" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="436" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B436" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C436" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E436" t="s">
-        <v>404</v>
-      </c>
-      <c r="F436" t="s">
-        <v>3888</v>
-      </c>
-      <c r="L436" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q436" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="437" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B437" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C437" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E437" t="s">
-        <v>404</v>
-      </c>
-      <c r="F437" t="s">
-        <v>3888</v>
-      </c>
-      <c r="L437" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q437" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="438" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B438" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C438" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E438" t="s">
-        <v>404</v>
-      </c>
-      <c r="F438" t="s">
-        <v>3888</v>
-      </c>
-      <c r="L438" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q438" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="439" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B439" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C439" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D439" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E439" t="s">
-        <v>404</v>
-      </c>
-      <c r="F439" t="s">
-        <v>3888</v>
-      </c>
-      <c r="G439" t="s">
-        <v>3964</v>
-      </c>
-      <c r="L439" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q439" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="440" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B440" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C440" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E440" t="s">
-        <v>404</v>
-      </c>
-      <c r="F440" t="s">
-        <v>3888</v>
-      </c>
-      <c r="G440" t="s">
-        <v>3964</v>
-      </c>
-      <c r="L440" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q440" t="s">
-        <v>3952</v>
-      </c>
-    </row>
-    <row r="441" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B441" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C441" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E441" t="s">
-        <v>404</v>
-      </c>
-      <c r="F441" t="s">
-        <v>3888</v>
-      </c>
-      <c r="G441" t="s">
-        <v>3964</v>
-      </c>
-      <c r="L441" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q441" t="s">
-        <v>3953</v>
-      </c>
-    </row>
-    <row r="442" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B442" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C442" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D442" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E442" t="s">
-        <v>404</v>
-      </c>
-      <c r="F442" t="s">
-        <v>3888</v>
-      </c>
-      <c r="G442" t="s">
-        <v>3964</v>
-      </c>
-      <c r="L442" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q442" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="443" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B443" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C443" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E443" t="s">
-        <v>404</v>
-      </c>
-      <c r="F443" t="s">
-        <v>3888</v>
-      </c>
-      <c r="G443" t="s">
-        <v>3964</v>
-      </c>
-      <c r="L443" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q443" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="444" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B444" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C444" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E444" t="s">
-        <v>404</v>
-      </c>
-      <c r="F444" t="s">
-        <v>3888</v>
-      </c>
-      <c r="G444" t="s">
-        <v>3964</v>
-      </c>
-      <c r="L444" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q444" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="445" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B445" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C445" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E445" t="s">
-        <v>404</v>
-      </c>
-      <c r="F445" t="s">
-        <v>3888</v>
-      </c>
-      <c r="G445" t="s">
-        <v>3964</v>
-      </c>
-      <c r="L445" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q445" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="446" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B446" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C446" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E446" t="s">
-        <v>404</v>
-      </c>
-      <c r="F446" t="s">
-        <v>3888</v>
-      </c>
-      <c r="G446" t="s">
-        <v>3964</v>
-      </c>
-      <c r="L446" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q446" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="447" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B447" s="1" t="s">
-        <v>5496</v>
-      </c>
-      <c r="C447" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E447" t="s">
-        <v>404</v>
-      </c>
-      <c r="L447" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q447" t="s">
-        <v>5497</v>
-      </c>
-    </row>
-    <row r="448" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B448" s="1" t="s">
-        <v>5498</v>
-      </c>
-      <c r="C448" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E448" t="s">
-        <v>404</v>
-      </c>
-      <c r="L448" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q448" t="s">
-        <v>5499</v>
-      </c>
-    </row>
-    <row r="449" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B449" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C449" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E449" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F449" t="s">
-        <v>3964</v>
-      </c>
-      <c r="L449" t="s">
-        <v>3954</v>
-      </c>
-      <c r="M449" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q449" t="s">
-        <v>3965</v>
-      </c>
-    </row>
-    <row r="450" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B450" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C450" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E450" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F450" t="s">
-        <v>3964</v>
-      </c>
-      <c r="L450" t="s">
-        <v>3954</v>
-      </c>
-      <c r="M450" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q450" t="s">
-        <v>3966</v>
-      </c>
-    </row>
-    <row r="451" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B451" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C451" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E451" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F451" t="s">
-        <v>3964</v>
-      </c>
-      <c r="L451" t="s">
-        <v>3954</v>
-      </c>
-      <c r="M451" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q451" t="s">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="452" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B452" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C452" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E452" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F452" t="s">
-        <v>3964</v>
-      </c>
-      <c r="L452" t="s">
-        <v>3954</v>
-      </c>
-      <c r="M452" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q452" t="s">
-        <v>3972</v>
-      </c>
-    </row>
-    <row r="453" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B453" s="1" t="s">
-        <v>5506</v>
-      </c>
-      <c r="C453" t="s">
-        <v>5507</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E453" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L453" t="s">
-        <v>3714</v>
-      </c>
-      <c r="Q453" t="s">
-        <v>5508</v>
-      </c>
-    </row>
-    <row r="454" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B454" s="1" t="s">
-        <v>5509</v>
-      </c>
-      <c r="C454" t="s">
-        <v>5507</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E454" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L454" t="s">
-        <v>3714</v>
-      </c>
-      <c r="Q454" t="s">
-        <v>5510</v>
-      </c>
-    </row>
-    <row r="455" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B455" s="1" t="s">
-        <v>3124</v>
-      </c>
-      <c r="C455" t="s">
-        <v>3125</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E455" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L455" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q455" t="s">
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="456" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B456" s="1" t="s">
-        <v>6626</v>
-      </c>
-      <c r="C456" t="s">
-        <v>3125</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E456" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L456" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q456" t="s">
-        <v>6627</v>
-      </c>
-    </row>
-    <row r="457" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B457" s="1" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C457" t="s">
-        <v>3125</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E457" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L457" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q457" t="s">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="458" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B458" s="1" t="s">
-        <v>3129</v>
-      </c>
-      <c r="C458" t="s">
-        <v>3125</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E458" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L458" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q458" t="s">
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="459" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B459" s="1" t="s">
-        <v>3131</v>
-      </c>
-      <c r="C459" t="s">
-        <v>3125</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E459" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L459" t="s">
-        <v>3714</v>
-      </c>
-      <c r="Q459" t="s">
-        <v>3132</v>
-      </c>
-    </row>
-    <row r="460" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B460" s="1" t="s">
-        <v>3133</v>
-      </c>
-      <c r="C460" t="s">
-        <v>3125</v>
-      </c>
-      <c r="D460" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E460" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L460" t="s">
-        <v>3714</v>
-      </c>
-      <c r="Q460" t="s">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="461" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B461" s="1" t="s">
-        <v>2647</v>
-      </c>
-      <c r="C461" t="s">
-        <v>2648</v>
-      </c>
-      <c r="D461" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E461" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L461" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q461" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="462" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B462" s="1" t="s">
-        <v>2650</v>
-      </c>
-      <c r="C462" t="s">
-        <v>2648</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E462" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L462" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q462" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="463" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B463" s="1" t="s">
-        <v>2652</v>
-      </c>
-      <c r="C463" t="s">
-        <v>2648</v>
-      </c>
-      <c r="D463" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E463" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L463" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q463" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="464" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B464" s="1" t="s">
-        <v>2654</v>
-      </c>
-      <c r="C464" t="s">
-        <v>2648</v>
-      </c>
-      <c r="D464" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E464" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L464" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q464" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="465" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B465" s="5" t="s">
-        <v>6754</v>
-      </c>
-      <c r="C465" s="6" t="s">
-        <v>6755</v>
-      </c>
-      <c r="D465" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E465" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L465" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q465" s="6" t="s">
-        <v>6756</v>
-      </c>
-    </row>
-    <row r="466" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B466" s="1" t="s">
-        <v>6757</v>
-      </c>
-      <c r="C466" t="s">
-        <v>6755</v>
-      </c>
-      <c r="D466" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E466" t="s">
-        <v>2</v>
-      </c>
-      <c r="L466" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q466" t="s">
-        <v>6758</v>
-      </c>
-    </row>
-    <row r="467" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B467" s="5" t="s">
-        <v>6759</v>
-      </c>
-      <c r="C467" s="6" t="s">
-        <v>6755</v>
-      </c>
-      <c r="D467" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E467" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L467" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q467" s="6" t="s">
-        <v>6760</v>
-      </c>
-    </row>
-    <row r="468" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B468" s="5" t="s">
-        <v>6623</v>
-      </c>
-      <c r="C468" s="6" t="s">
-        <v>6624</v>
-      </c>
-      <c r="D468" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E468" s="6" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L468" s="6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q468" s="6" t="s">
-        <v>6625</v>
-      </c>
-    </row>
-    <row r="469" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B469" s="5" t="s">
-        <v>3098</v>
-      </c>
-      <c r="C469" s="6" t="s">
-        <v>3099</v>
-      </c>
-      <c r="D469" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E469" s="6" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L469" s="6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q469" s="6" t="s">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="470" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B470" s="1" t="s">
-        <v>3101</v>
-      </c>
-      <c r="C470" t="s">
-        <v>3099</v>
-      </c>
-      <c r="D470" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E470" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L470" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q470" t="s">
-        <v>3102</v>
-      </c>
-    </row>
-    <row r="471" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B471" s="1" t="s">
-        <v>3103</v>
-      </c>
-      <c r="C471" t="s">
-        <v>3099</v>
-      </c>
-      <c r="D471" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E471" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L471" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q471" t="s">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="472" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B472" s="1" t="s">
-        <v>3105</v>
-      </c>
-      <c r="C472" t="s">
-        <v>3099</v>
-      </c>
-      <c r="D472" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E472" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L472" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q472" t="s">
-        <v>3106</v>
-      </c>
-    </row>
-    <row r="473" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B473" s="1" t="s">
-        <v>3107</v>
-      </c>
-      <c r="C473" t="s">
-        <v>3099</v>
-      </c>
-      <c r="D473" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E473" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L473" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q473" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="474" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B474" s="1" t="s">
-        <v>3109</v>
-      </c>
-      <c r="C474" t="s">
-        <v>3099</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E474" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L474" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q474" t="s">
-        <v>3110</v>
-      </c>
-    </row>
-    <row r="475" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B475" s="1" t="s">
-        <v>6621</v>
-      </c>
-      <c r="C475" t="s">
-        <v>3099</v>
-      </c>
-      <c r="D475" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E475" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L475" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q475" t="s">
-        <v>6622</v>
-      </c>
-    </row>
-    <row r="476" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B476" s="1" t="s">
-        <v>3111</v>
-      </c>
-      <c r="C476" t="s">
-        <v>3099</v>
-      </c>
-      <c r="D476" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E476" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L476" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q476" t="s">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="477" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B477" s="1" t="s">
-        <v>3113</v>
-      </c>
-      <c r="C477" t="s">
-        <v>3099</v>
-      </c>
-      <c r="D477" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E477" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L477" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q477" t="s">
         <v>3114</v>
       </c>
     </row>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="working" sheetId="9" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="To Check" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1346</definedName>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1347</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1346</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25879,10 +25879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1347"/>
+  <dimension ref="B1:Q1346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView topLeftCell="A1191" workbookViewId="0">
+      <selection activeCell="A1201" sqref="A1201:XFD1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52479,24 +52479,27 @@
     </row>
     <row r="1201" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1201" s="1" t="s">
-        <v>3491</v>
+        <v>6914</v>
       </c>
       <c r="C1201" t="s">
-        <v>3492</v>
+        <v>6915</v>
       </c>
       <c r="D1201" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1201" t="s">
+        <v>2</v>
+      </c>
       <c r="L1201" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="Q1201" t="s">
-        <v>3493</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="1202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1202" s="1" t="s">
-        <v>6914</v>
+        <v>6917</v>
       </c>
       <c r="C1202" t="s">
         <v>6915</v>
@@ -52511,32 +52514,29 @@
         <v>5238</v>
       </c>
       <c r="Q1202" t="s">
-        <v>6916</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="1203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1203" s="1" t="s">
-        <v>6917</v>
+        <v>6919</v>
       </c>
       <c r="C1203" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D1203" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1203" t="s">
-        <v>2</v>
-      </c>
       <c r="L1203" t="s">
-        <v>5238</v>
+        <v>55</v>
       </c>
       <c r="Q1203" t="s">
-        <v>6918</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="1204" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1204" s="1" t="s">
-        <v>6919</v>
+        <v>6922</v>
       </c>
       <c r="C1204" t="s">
         <v>6920</v>
@@ -52544,16 +52544,25 @@
       <c r="D1204" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1204" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1204" t="s">
+        <v>542</v>
+      </c>
+      <c r="M1204" t="s">
         <v>55</v>
       </c>
       <c r="Q1204" t="s">
-        <v>6921</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="1205" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1205" s="1" t="s">
-        <v>6922</v>
+        <v>6924</v>
       </c>
       <c r="C1205" t="s">
         <v>6920</v>
@@ -52574,55 +52583,49 @@
         <v>55</v>
       </c>
       <c r="Q1205" t="s">
-        <v>6923</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="1206" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1206" s="1" t="s">
-        <v>6924</v>
+        <v>6926</v>
       </c>
       <c r="C1206" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1206" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1206" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1206" t="s">
-        <v>2426</v>
+        <v>6927</v>
+      </c>
+      <c r="D1206" s="1">
+        <v>68000</v>
       </c>
       <c r="L1206" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1206" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q1206" t="s">
-        <v>6925</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="1207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1207" s="1" t="s">
-        <v>6926</v>
+        <v>3494</v>
       </c>
       <c r="C1207" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D1207" s="1">
         <v>68000</v>
       </c>
+      <c r="E1207" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1207" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q1207" t="s">
-        <v>6928</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="1208" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1208" s="1" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="C1208" t="s">
         <v>3495</v>
@@ -52637,12 +52640,12 @@
         <v>5549</v>
       </c>
       <c r="Q1208" t="s">
-        <v>3496</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1209" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1209" s="1" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="C1209" t="s">
         <v>3495</v>
@@ -52657,12 +52660,12 @@
         <v>5549</v>
       </c>
       <c r="Q1209" t="s">
-        <v>4587</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1210" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1210" s="1" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="C1210" t="s">
         <v>3495</v>
@@ -52677,12 +52680,12 @@
         <v>5549</v>
       </c>
       <c r="Q1210" t="s">
-        <v>3499</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1211" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1211" s="1" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="C1211" t="s">
         <v>3495</v>
@@ -52697,12 +52700,12 @@
         <v>5549</v>
       </c>
       <c r="Q1211" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1212" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1212" s="1" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="C1212" t="s">
         <v>3495</v>
@@ -52717,12 +52720,12 @@
         <v>5549</v>
       </c>
       <c r="Q1212" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1213" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1213" s="1" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="C1213" t="s">
         <v>3495</v>
@@ -52737,12 +52740,12 @@
         <v>5549</v>
       </c>
       <c r="Q1213" t="s">
-        <v>3505</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="1214" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1214" s="1" t="s">
-        <v>3506</v>
+        <v>6930</v>
       </c>
       <c r="C1214" t="s">
         <v>3495</v>
@@ -52757,12 +52760,12 @@
         <v>5549</v>
       </c>
       <c r="Q1214" t="s">
-        <v>6929</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="1215" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1215" s="1" t="s">
-        <v>6930</v>
+        <v>3507</v>
       </c>
       <c r="C1215" t="s">
         <v>3495</v>
@@ -52777,12 +52780,12 @@
         <v>5549</v>
       </c>
       <c r="Q1215" t="s">
-        <v>6931</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="1216" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1216" s="1" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="C1216" t="s">
         <v>3495</v>
@@ -52797,12 +52800,12 @@
         <v>5549</v>
       </c>
       <c r="Q1216" t="s">
-        <v>4952</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1217" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1217" s="1" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="C1217" t="s">
         <v>3495</v>
@@ -52817,12 +52820,12 @@
         <v>5549</v>
       </c>
       <c r="Q1217" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1218" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1218" s="1" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="C1218" t="s">
         <v>3495</v>
@@ -52837,12 +52840,12 @@
         <v>5549</v>
       </c>
       <c r="Q1218" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1219" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1219" s="1" t="s">
-        <v>3512</v>
+        <v>3514</v>
       </c>
       <c r="C1219" t="s">
         <v>3495</v>
@@ -52857,12 +52860,12 @@
         <v>5549</v>
       </c>
       <c r="Q1219" t="s">
-        <v>3513</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1220" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1220" s="1" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="C1220" t="s">
         <v>3495</v>
@@ -52877,12 +52880,12 @@
         <v>5549</v>
       </c>
       <c r="Q1220" t="s">
-        <v>3515</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1221" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1221" s="1" t="s">
-        <v>3516</v>
+        <v>3518</v>
       </c>
       <c r="C1221" t="s">
         <v>3495</v>
@@ -52897,12 +52900,12 @@
         <v>5549</v>
       </c>
       <c r="Q1221" t="s">
-        <v>3517</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1222" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1222" s="1" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="C1222" t="s">
         <v>3495</v>
@@ -52917,12 +52920,12 @@
         <v>5549</v>
       </c>
       <c r="Q1222" t="s">
-        <v>4953</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="1223" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1223" s="1" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="C1223" t="s">
         <v>3495</v>
@@ -52937,12 +52940,12 @@
         <v>5549</v>
       </c>
       <c r="Q1223" t="s">
-        <v>4954</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1224" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1224" s="1" t="s">
-        <v>3520</v>
+        <v>3522</v>
       </c>
       <c r="C1224" t="s">
         <v>3495</v>
@@ -52957,12 +52960,12 @@
         <v>5549</v>
       </c>
       <c r="Q1224" t="s">
-        <v>3521</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1225" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1225" s="1" t="s">
-        <v>3522</v>
+        <v>3524</v>
       </c>
       <c r="C1225" t="s">
         <v>3495</v>
@@ -52977,12 +52980,12 @@
         <v>5549</v>
       </c>
       <c r="Q1225" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1226" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1226" s="1" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="C1226" t="s">
         <v>3495</v>
@@ -52997,12 +53000,12 @@
         <v>5549</v>
       </c>
       <c r="Q1226" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1227" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1227" s="1" t="s">
-        <v>3526</v>
+        <v>3528</v>
       </c>
       <c r="C1227" t="s">
         <v>3495</v>
@@ -53017,12 +53020,12 @@
         <v>5549</v>
       </c>
       <c r="Q1227" t="s">
-        <v>3527</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1228" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1228" s="1" t="s">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="C1228" t="s">
         <v>3495</v>
@@ -53037,12 +53040,12 @@
         <v>5549</v>
       </c>
       <c r="Q1228" t="s">
-        <v>3529</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1229" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1229" s="1" t="s">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="C1229" t="s">
         <v>3495</v>
@@ -53057,12 +53060,12 @@
         <v>5549</v>
       </c>
       <c r="Q1229" t="s">
-        <v>3531</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1230" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1230" s="1" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="C1230" t="s">
         <v>3495</v>
@@ -53077,12 +53080,12 @@
         <v>5549</v>
       </c>
       <c r="Q1230" t="s">
-        <v>4955</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1231" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1231" s="1" t="s">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="C1231" t="s">
         <v>3495</v>
@@ -53097,12 +53100,12 @@
         <v>5549</v>
       </c>
       <c r="Q1231" t="s">
-        <v>3534</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1232" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1232" s="1" t="s">
-        <v>3535</v>
+        <v>3537</v>
       </c>
       <c r="C1232" t="s">
         <v>3495</v>
@@ -53117,12 +53120,12 @@
         <v>5549</v>
       </c>
       <c r="Q1232" t="s">
-        <v>3536</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1233" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1233" s="1" t="s">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="C1233" t="s">
         <v>3495</v>
@@ -53137,12 +53140,12 @@
         <v>5549</v>
       </c>
       <c r="Q1233" t="s">
-        <v>3538</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="1234" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1234" s="1" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="C1234" t="s">
         <v>3495</v>
@@ -53157,12 +53160,12 @@
         <v>5549</v>
       </c>
       <c r="Q1234" t="s">
-        <v>4956</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1235" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1235" s="1" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="C1235" t="s">
         <v>3495</v>
@@ -53177,12 +53180,12 @@
         <v>5549</v>
       </c>
       <c r="Q1235" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1236" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1236" s="1" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="C1236" t="s">
         <v>3495</v>
@@ -53197,12 +53200,12 @@
         <v>5549</v>
       </c>
       <c r="Q1236" t="s">
-        <v>4589</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1237" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1237" s="1" t="s">
-        <v>3542</v>
+        <v>3544</v>
       </c>
       <c r="C1237" t="s">
         <v>3495</v>
@@ -53217,12 +53220,12 @@
         <v>5549</v>
       </c>
       <c r="Q1237" t="s">
-        <v>3543</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1238" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1238" s="1" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="C1238" t="s">
         <v>3495</v>
@@ -53237,12 +53240,12 @@
         <v>5549</v>
       </c>
       <c r="Q1238" t="s">
-        <v>3545</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1239" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1239" s="1" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="C1239" t="s">
         <v>3495</v>
@@ -53257,12 +53260,12 @@
         <v>5549</v>
       </c>
       <c r="Q1239" t="s">
-        <v>4957</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="1240" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1240" s="1" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="C1240" t="s">
         <v>3495</v>
@@ -53277,12 +53280,12 @@
         <v>5549</v>
       </c>
       <c r="Q1240" t="s">
-        <v>3548</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1241" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1241" s="1" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="C1241" t="s">
         <v>3495</v>
@@ -53297,12 +53300,12 @@
         <v>5549</v>
       </c>
       <c r="Q1241" t="s">
-        <v>4590</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1242" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1242" s="1" t="s">
-        <v>3550</v>
+        <v>3552</v>
       </c>
       <c r="C1242" t="s">
         <v>3495</v>
@@ -53317,12 +53320,12 @@
         <v>5549</v>
       </c>
       <c r="Q1242" t="s">
-        <v>3551</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1243" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1243" s="1" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="C1243" t="s">
         <v>3495</v>
@@ -53337,12 +53340,12 @@
         <v>5549</v>
       </c>
       <c r="Q1243" t="s">
-        <v>3553</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="1244" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1244" s="1" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="C1244" t="s">
         <v>3495</v>
@@ -53357,12 +53360,12 @@
         <v>5549</v>
       </c>
       <c r="Q1244" t="s">
-        <v>4958</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1245" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1245" s="1" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="C1245" t="s">
         <v>3495</v>
@@ -53377,12 +53380,12 @@
         <v>5549</v>
       </c>
       <c r="Q1245" t="s">
-        <v>4591</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1246" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1246" s="1" t="s">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="C1246" t="s">
         <v>3495</v>
@@ -53397,12 +53400,12 @@
         <v>5549</v>
       </c>
       <c r="Q1246" t="s">
-        <v>3557</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1247" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1247" s="1" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="C1247" t="s">
         <v>3495</v>
@@ -53417,12 +53420,12 @@
         <v>5549</v>
       </c>
       <c r="Q1247" t="s">
-        <v>4959</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1248" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1248" s="1" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="C1248" t="s">
         <v>3495</v>
@@ -53437,12 +53440,12 @@
         <v>5549</v>
       </c>
       <c r="Q1248" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1249" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1249" s="1" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="C1249" t="s">
         <v>3495</v>
@@ -53457,12 +53460,12 @@
         <v>5549</v>
       </c>
       <c r="Q1249" t="s">
-        <v>4593</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="1250" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1250" s="1" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="C1250" t="s">
         <v>3495</v>
@@ -53477,12 +53480,12 @@
         <v>5549</v>
       </c>
       <c r="Q1250" t="s">
-        <v>4960</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1251" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1251" s="1" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="C1251" t="s">
         <v>3495</v>
@@ -53497,12 +53500,12 @@
         <v>5549</v>
       </c>
       <c r="Q1251" t="s">
-        <v>4594</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1252" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1252" s="1" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="C1252" t="s">
         <v>3495</v>
@@ -53517,12 +53520,12 @@
         <v>5549</v>
       </c>
       <c r="Q1252" t="s">
-        <v>4961</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="1253" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1253" s="1" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="C1253" t="s">
         <v>3495</v>
@@ -53537,12 +53540,12 @@
         <v>5549</v>
       </c>
       <c r="Q1253" t="s">
-        <v>4962</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="1254" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1254" s="1" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="C1254" t="s">
         <v>3495</v>
@@ -53557,12 +53560,12 @@
         <v>5549</v>
       </c>
       <c r="Q1254" t="s">
-        <v>3566</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1255" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1255" s="1" t="s">
-        <v>3567</v>
+        <v>3569</v>
       </c>
       <c r="C1255" t="s">
         <v>3495</v>
@@ -53577,12 +53580,12 @@
         <v>5549</v>
       </c>
       <c r="Q1255" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="1256" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1256" s="1" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="C1256" t="s">
         <v>3495</v>
@@ -53597,12 +53600,12 @@
         <v>5549</v>
       </c>
       <c r="Q1256" t="s">
-        <v>3570</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1257" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1257" s="1" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="C1257" t="s">
         <v>3495</v>
@@ -53617,12 +53620,12 @@
         <v>5549</v>
       </c>
       <c r="Q1257" t="s">
-        <v>4595</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1258" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1258" s="1" t="s">
-        <v>3572</v>
+        <v>3574</v>
       </c>
       <c r="C1258" t="s">
         <v>3495</v>
@@ -53637,12 +53640,12 @@
         <v>5549</v>
       </c>
       <c r="Q1258" t="s">
-        <v>3573</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1259" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1259" s="1" t="s">
-        <v>3574</v>
+        <v>3576</v>
       </c>
       <c r="C1259" t="s">
         <v>3495</v>
@@ -53657,12 +53660,12 @@
         <v>5549</v>
       </c>
       <c r="Q1259" t="s">
-        <v>3575</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1260" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1260" s="1" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="C1260" t="s">
         <v>3495</v>
@@ -53677,12 +53680,12 @@
         <v>5549</v>
       </c>
       <c r="Q1260" t="s">
-        <v>4963</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1261" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1261" s="1" t="s">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="C1261" t="s">
         <v>3495</v>
@@ -53697,12 +53700,12 @@
         <v>5549</v>
       </c>
       <c r="Q1261" t="s">
-        <v>3578</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="1262" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1262" s="1" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="C1262" t="s">
         <v>3495</v>
@@ -53717,12 +53720,12 @@
         <v>5549</v>
       </c>
       <c r="Q1262" t="s">
-        <v>4964</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1263" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1263" s="1" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="C1263" t="s">
         <v>3495</v>
@@ -53737,12 +53740,12 @@
         <v>5549</v>
       </c>
       <c r="Q1263" t="s">
-        <v>4965</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1264" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1264" s="1" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="C1264" t="s">
         <v>3495</v>
@@ -53757,12 +53760,12 @@
         <v>5549</v>
       </c>
       <c r="Q1264" t="s">
-        <v>4596</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="1265" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1265" s="1" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="C1265" t="s">
         <v>3495</v>
@@ -53777,12 +53780,12 @@
         <v>5549</v>
       </c>
       <c r="Q1265" t="s">
-        <v>4966</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1266" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1266" s="1" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="C1266" t="s">
         <v>3495</v>
@@ -53797,12 +53800,12 @@
         <v>5549</v>
       </c>
       <c r="Q1266" t="s">
-        <v>4597</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1267" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1267" s="1" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="C1267" t="s">
         <v>3495</v>
@@ -53817,12 +53820,12 @@
         <v>5549</v>
       </c>
       <c r="Q1267" t="s">
-        <v>4967</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="1268" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1268" s="1" t="s">
-        <v>3585</v>
+        <v>3587</v>
       </c>
       <c r="C1268" t="s">
         <v>3495</v>
@@ -53837,12 +53840,12 @@
         <v>5549</v>
       </c>
       <c r="Q1268" t="s">
-        <v>3586</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1269" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1269" s="1" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="C1269" t="s">
         <v>3495</v>
@@ -53857,12 +53860,12 @@
         <v>5549</v>
       </c>
       <c r="Q1269" t="s">
-        <v>4598</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="1270" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1270" s="1" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="C1270" t="s">
         <v>3495</v>
@@ -53877,12 +53880,12 @@
         <v>5549</v>
       </c>
       <c r="Q1270" t="s">
-        <v>4968</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="1271" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1271" s="1" t="s">
-        <v>3589</v>
+        <v>3591</v>
       </c>
       <c r="C1271" t="s">
         <v>3495</v>
@@ -53897,12 +53900,12 @@
         <v>5549</v>
       </c>
       <c r="Q1271" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1272" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1272" s="1" t="s">
-        <v>3591</v>
+        <v>3593</v>
       </c>
       <c r="C1272" t="s">
         <v>3495</v>
@@ -53917,12 +53920,12 @@
         <v>5549</v>
       </c>
       <c r="Q1272" t="s">
-        <v>3592</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1273" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1273" s="1" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="C1273" t="s">
         <v>3495</v>
@@ -53937,12 +53940,12 @@
         <v>5549</v>
       </c>
       <c r="Q1273" t="s">
-        <v>4969</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1274" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1274" s="1" t="s">
-        <v>3594</v>
+        <v>3596</v>
       </c>
       <c r="C1274" t="s">
         <v>3495</v>
@@ -53957,12 +53960,12 @@
         <v>5549</v>
       </c>
       <c r="Q1274" t="s">
-        <v>3595</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="1275" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1275" s="1" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="C1275" t="s">
         <v>3495</v>
@@ -53977,12 +53980,12 @@
         <v>5549</v>
       </c>
       <c r="Q1275" t="s">
-        <v>4970</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1276" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1276" s="1" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="C1276" t="s">
         <v>3495</v>
@@ -53997,12 +54000,12 @@
         <v>5549</v>
       </c>
       <c r="Q1276" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1277" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1277" s="1" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="C1277" t="s">
         <v>3495</v>
@@ -54017,12 +54020,12 @@
         <v>5549</v>
       </c>
       <c r="Q1277" t="s">
-        <v>4600</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1278" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1278" s="1" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="C1278" t="s">
         <v>3495</v>
@@ -54037,12 +54040,12 @@
         <v>5549</v>
       </c>
       <c r="Q1278" t="s">
-        <v>4971</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="1279" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1279" s="1" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="C1279" t="s">
         <v>3495</v>
@@ -54057,12 +54060,12 @@
         <v>5549</v>
       </c>
       <c r="Q1279" t="s">
-        <v>4972</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1280" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1280" s="1" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="C1280" t="s">
         <v>3495</v>
@@ -54077,12 +54080,12 @@
         <v>5549</v>
       </c>
       <c r="Q1280" t="s">
-        <v>3602</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1281" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1281" s="1" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="C1281" t="s">
         <v>3495</v>
@@ -54097,12 +54100,12 @@
         <v>5549</v>
       </c>
       <c r="Q1281" t="s">
-        <v>4973</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1282" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1282" s="1" t="s">
-        <v>3604</v>
+        <v>6932</v>
       </c>
       <c r="C1282" t="s">
         <v>3495</v>
@@ -54117,12 +54120,12 @@
         <v>5549</v>
       </c>
       <c r="Q1282" t="s">
-        <v>3605</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="1283" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1283" s="1" t="s">
-        <v>6932</v>
+        <v>3607</v>
       </c>
       <c r="C1283" t="s">
         <v>3495</v>
@@ -54137,12 +54140,12 @@
         <v>5549</v>
       </c>
       <c r="Q1283" t="s">
-        <v>4974</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1284" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1284" s="1" t="s">
-        <v>3607</v>
+        <v>3609</v>
       </c>
       <c r="C1284" t="s">
         <v>3495</v>
@@ -54157,12 +54160,12 @@
         <v>5549</v>
       </c>
       <c r="Q1284" t="s">
-        <v>3608</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1285" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1285" s="1" t="s">
-        <v>3609</v>
+        <v>3611</v>
       </c>
       <c r="C1285" t="s">
         <v>3495</v>
@@ -54177,12 +54180,12 @@
         <v>5549</v>
       </c>
       <c r="Q1285" t="s">
-        <v>3610</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1286" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1286" s="1" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="C1286" t="s">
         <v>3495</v>
@@ -54197,12 +54200,12 @@
         <v>5549</v>
       </c>
       <c r="Q1286" t="s">
-        <v>4975</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="1287" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1287" s="1" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="C1287" t="s">
         <v>3495</v>
@@ -54217,12 +54220,12 @@
         <v>5549</v>
       </c>
       <c r="Q1287" t="s">
-        <v>4976</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1288" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1288" s="1" t="s">
-        <v>3613</v>
+        <v>3615</v>
       </c>
       <c r="C1288" t="s">
         <v>3495</v>
@@ -54237,12 +54240,12 @@
         <v>5549</v>
       </c>
       <c r="Q1288" t="s">
-        <v>3614</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="1289" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1289" s="1" t="s">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C1289" t="s">
         <v>3495</v>
@@ -54257,12 +54260,12 @@
         <v>5549</v>
       </c>
       <c r="Q1289" t="s">
-        <v>3616</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1290" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1290" s="1" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="C1290" t="s">
         <v>3495</v>
@@ -54277,12 +54280,12 @@
         <v>5549</v>
       </c>
       <c r="Q1290" t="s">
-        <v>4977</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1291" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1291" s="1" t="s">
-        <v>3618</v>
+        <v>3620</v>
       </c>
       <c r="C1291" t="s">
         <v>3495</v>
@@ -54297,12 +54300,12 @@
         <v>5549</v>
       </c>
       <c r="Q1291" t="s">
-        <v>3619</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="1292" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1292" s="1" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="C1292" t="s">
         <v>3495</v>
@@ -54317,12 +54320,12 @@
         <v>5549</v>
       </c>
       <c r="Q1292" t="s">
-        <v>4978</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1293" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1293" s="1" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="C1293" t="s">
         <v>3495</v>
@@ -54337,12 +54340,12 @@
         <v>5549</v>
       </c>
       <c r="Q1293" t="s">
-        <v>4979</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="1294" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1294" s="1" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="C1294" t="s">
         <v>3495</v>
@@ -54357,12 +54360,12 @@
         <v>5549</v>
       </c>
       <c r="Q1294" t="s">
-        <v>4980</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1295" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1295" s="1" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="C1295" t="s">
         <v>3495</v>
@@ -54377,12 +54380,12 @@
         <v>5549</v>
       </c>
       <c r="Q1295" t="s">
-        <v>4601</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1296" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1296" s="1" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="C1296" t="s">
         <v>3495</v>
@@ -54397,12 +54400,12 @@
         <v>5549</v>
       </c>
       <c r="Q1296" t="s">
-        <v>4981</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1297" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1297" s="1" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="C1297" t="s">
         <v>3495</v>
@@ -54417,12 +54420,12 @@
         <v>5549</v>
       </c>
       <c r="Q1297" t="s">
-        <v>4602</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1298" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1298" s="1" t="s">
-        <v>3626</v>
+        <v>3628</v>
       </c>
       <c r="C1298" t="s">
         <v>3495</v>
@@ -54437,12 +54440,12 @@
         <v>5549</v>
       </c>
       <c r="Q1298" t="s">
-        <v>3627</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="1299" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1299" s="1" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="C1299" t="s">
         <v>3495</v>
@@ -54457,12 +54460,12 @@
         <v>5549</v>
       </c>
       <c r="Q1299" t="s">
-        <v>4982</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1300" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1300" s="1" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="C1300" t="s">
         <v>3495</v>
@@ -54477,12 +54480,12 @@
         <v>5549</v>
       </c>
       <c r="Q1300" t="s">
-        <v>4603</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1301" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1301" s="1" t="s">
-        <v>3630</v>
+        <v>3632</v>
       </c>
       <c r="C1301" t="s">
         <v>3495</v>
@@ -54497,12 +54500,12 @@
         <v>5549</v>
       </c>
       <c r="Q1301" t="s">
-        <v>3631</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1302" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1302" s="1" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="C1302" t="s">
         <v>3495</v>
@@ -54517,12 +54520,12 @@
         <v>5549</v>
       </c>
       <c r="Q1302" t="s">
-        <v>4983</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1303" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1303" s="1" t="s">
-        <v>3633</v>
+        <v>3635</v>
       </c>
       <c r="C1303" t="s">
         <v>3495</v>
@@ -54537,12 +54540,12 @@
         <v>5549</v>
       </c>
       <c r="Q1303" t="s">
-        <v>3634</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1304" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1304" s="1" t="s">
-        <v>3635</v>
+        <v>3637</v>
       </c>
       <c r="C1304" t="s">
         <v>3495</v>
@@ -54557,12 +54560,12 @@
         <v>5549</v>
       </c>
       <c r="Q1304" t="s">
-        <v>3636</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1305" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1305" s="1" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="C1305" t="s">
         <v>3495</v>
@@ -54577,12 +54580,12 @@
         <v>5549</v>
       </c>
       <c r="Q1305" t="s">
-        <v>4604</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1306" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1306" s="1" t="s">
-        <v>3638</v>
+        <v>3640</v>
       </c>
       <c r="C1306" t="s">
         <v>3495</v>
@@ -54597,12 +54600,12 @@
         <v>5549</v>
       </c>
       <c r="Q1306" t="s">
-        <v>3639</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="1307" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1307" s="1" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="C1307" t="s">
         <v>3495</v>
@@ -54617,12 +54620,12 @@
         <v>5549</v>
       </c>
       <c r="Q1307" t="s">
-        <v>4984</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1308" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1308" s="1" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="C1308" t="s">
         <v>3495</v>
@@ -54637,12 +54640,12 @@
         <v>5549</v>
       </c>
       <c r="Q1308" t="s">
-        <v>4985</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1309" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1309" s="1" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="C1309" t="s">
         <v>3495</v>
@@ -54657,12 +54660,12 @@
         <v>5549</v>
       </c>
       <c r="Q1309" t="s">
-        <v>4605</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="1310" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1310" s="1" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="C1310" t="s">
         <v>3495</v>
@@ -54677,12 +54680,12 @@
         <v>5549</v>
       </c>
       <c r="Q1310" t="s">
-        <v>4986</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1311" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1311" s="1" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="C1311" t="s">
         <v>3495</v>
@@ -54697,12 +54700,12 @@
         <v>5549</v>
       </c>
       <c r="Q1311" t="s">
-        <v>4987</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="1312" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1312" s="1" t="s">
-        <v>3645</v>
+        <v>3647</v>
       </c>
       <c r="C1312" t="s">
         <v>3495</v>
@@ -54717,12 +54720,12 @@
         <v>5549</v>
       </c>
       <c r="Q1312" t="s">
-        <v>3646</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="1313" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1313" s="1" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="C1313" t="s">
         <v>3495</v>
@@ -54737,12 +54740,12 @@
         <v>5549</v>
       </c>
       <c r="Q1313" t="s">
-        <v>4988</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1314" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1314" s="1" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C1314" t="s">
         <v>3495</v>
@@ -54757,12 +54760,12 @@
         <v>5549</v>
       </c>
       <c r="Q1314" t="s">
-        <v>4989</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1315" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1315" s="1" t="s">
-        <v>3649</v>
+        <v>3651</v>
       </c>
       <c r="C1315" t="s">
         <v>3495</v>
@@ -54777,12 +54780,12 @@
         <v>5549</v>
       </c>
       <c r="Q1315" t="s">
-        <v>3650</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="1316" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1316" s="1" t="s">
-        <v>3651</v>
+        <v>3653</v>
       </c>
       <c r="C1316" t="s">
         <v>3495</v>
@@ -54797,12 +54800,12 @@
         <v>5549</v>
       </c>
       <c r="Q1316" t="s">
-        <v>3652</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1317" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1317" s="1" t="s">
-        <v>3653</v>
+        <v>3655</v>
       </c>
       <c r="C1317" t="s">
         <v>3495</v>
@@ -54817,12 +54820,12 @@
         <v>5549</v>
       </c>
       <c r="Q1317" t="s">
-        <v>3654</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="1318" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1318" s="1" t="s">
-        <v>3655</v>
+        <v>3657</v>
       </c>
       <c r="C1318" t="s">
         <v>3495</v>
@@ -54837,12 +54840,12 @@
         <v>5549</v>
       </c>
       <c r="Q1318" t="s">
-        <v>3656</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="1319" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1319" s="1" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="C1319" t="s">
         <v>3495</v>
@@ -54857,12 +54860,12 @@
         <v>5549</v>
       </c>
       <c r="Q1319" t="s">
-        <v>4990</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1320" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1320" s="1" t="s">
-        <v>3658</v>
+        <v>3660</v>
       </c>
       <c r="C1320" t="s">
         <v>3495</v>
@@ -54877,12 +54880,12 @@
         <v>5549</v>
       </c>
       <c r="Q1320" t="s">
-        <v>3659</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1321" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1321" s="1" t="s">
-        <v>3660</v>
+        <v>3662</v>
       </c>
       <c r="C1321" t="s">
         <v>3495</v>
@@ -54897,12 +54900,12 @@
         <v>5549</v>
       </c>
       <c r="Q1321" t="s">
-        <v>3661</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1322" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1322" s="1" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="C1322" t="s">
         <v>3495</v>
@@ -54917,12 +54920,12 @@
         <v>5549</v>
       </c>
       <c r="Q1322" t="s">
-        <v>4991</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1323" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1323" s="1" t="s">
-        <v>3663</v>
+        <v>3665</v>
       </c>
       <c r="C1323" t="s">
         <v>3495</v>
@@ -54937,12 +54940,12 @@
         <v>5549</v>
       </c>
       <c r="Q1323" t="s">
-        <v>3664</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="1324" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1324" s="1" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="C1324" t="s">
         <v>3495</v>
@@ -54957,12 +54960,12 @@
         <v>5549</v>
       </c>
       <c r="Q1324" t="s">
-        <v>4992</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1325" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1325" s="1" t="s">
-        <v>3666</v>
+        <v>3668</v>
       </c>
       <c r="C1325" t="s">
         <v>3495</v>
@@ -54977,12 +54980,12 @@
         <v>5549</v>
       </c>
       <c r="Q1325" t="s">
-        <v>3667</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1326" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1326" s="1" t="s">
-        <v>3668</v>
+        <v>3670</v>
       </c>
       <c r="C1326" t="s">
         <v>3495</v>
@@ -54997,12 +55000,12 @@
         <v>5549</v>
       </c>
       <c r="Q1326" t="s">
-        <v>3669</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1327" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1327" s="1" t="s">
-        <v>3670</v>
+        <v>3672</v>
       </c>
       <c r="C1327" t="s">
         <v>3495</v>
@@ -55017,12 +55020,12 @@
         <v>5549</v>
       </c>
       <c r="Q1327" t="s">
-        <v>3671</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1328" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1328" s="1" t="s">
-        <v>3672</v>
+        <v>3674</v>
       </c>
       <c r="C1328" t="s">
         <v>3495</v>
@@ -55037,12 +55040,12 @@
         <v>5549</v>
       </c>
       <c r="Q1328" t="s">
-        <v>3673</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1329" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1329" s="1" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="C1329" t="s">
         <v>3495</v>
@@ -55057,12 +55060,12 @@
         <v>5549</v>
       </c>
       <c r="Q1329" t="s">
-        <v>4993</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="1330" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1330" s="1" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="C1330" t="s">
         <v>3495</v>
@@ -55077,12 +55080,12 @@
         <v>5549</v>
       </c>
       <c r="Q1330" t="s">
-        <v>4994</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1331" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1331" s="1" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="C1331" t="s">
         <v>3495</v>
@@ -55097,12 +55100,12 @@
         <v>5549</v>
       </c>
       <c r="Q1331" t="s">
-        <v>4995</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="1332" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1332" s="1" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="C1332" t="s">
         <v>3495</v>
@@ -55117,12 +55120,12 @@
         <v>5549</v>
       </c>
       <c r="Q1332" t="s">
-        <v>4996</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1333" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1333" s="1" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="C1333" t="s">
         <v>3495</v>
@@ -55137,12 +55140,12 @@
         <v>5549</v>
       </c>
       <c r="Q1333" t="s">
-        <v>4997</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1334" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1334" s="1" t="s">
-        <v>3679</v>
+        <v>3681</v>
       </c>
       <c r="C1334" t="s">
         <v>3495</v>
@@ -55157,12 +55160,12 @@
         <v>5549</v>
       </c>
       <c r="Q1334" t="s">
-        <v>3680</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1335" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1335" s="1" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="C1335" t="s">
         <v>3495</v>
@@ -55177,12 +55180,12 @@
         <v>5549</v>
       </c>
       <c r="Q1335" t="s">
-        <v>4606</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1336" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1336" s="1" t="s">
-        <v>3682</v>
+        <v>6933</v>
       </c>
       <c r="C1336" t="s">
         <v>3495</v>
@@ -55197,12 +55200,12 @@
         <v>5549</v>
       </c>
       <c r="Q1336" t="s">
-        <v>3683</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="1337" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1337" s="1" t="s">
-        <v>6933</v>
+        <v>6935</v>
       </c>
       <c r="C1337" t="s">
         <v>3495</v>
@@ -55217,12 +55220,12 @@
         <v>5549</v>
       </c>
       <c r="Q1337" t="s">
-        <v>6934</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="1338" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1338" s="1" t="s">
-        <v>6935</v>
+        <v>6937</v>
       </c>
       <c r="C1338" t="s">
         <v>3495</v>
@@ -55237,12 +55240,12 @@
         <v>5549</v>
       </c>
       <c r="Q1338" t="s">
-        <v>6936</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="1339" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1339" s="1" t="s">
-        <v>6937</v>
+        <v>6939</v>
       </c>
       <c r="C1339" t="s">
         <v>3495</v>
@@ -55257,12 +55260,12 @@
         <v>5549</v>
       </c>
       <c r="Q1339" t="s">
-        <v>6938</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="1340" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1340" s="1" t="s">
-        <v>6939</v>
+        <v>6941</v>
       </c>
       <c r="C1340" t="s">
         <v>3495</v>
@@ -55277,12 +55280,12 @@
         <v>5549</v>
       </c>
       <c r="Q1340" t="s">
-        <v>6940</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="1341" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1341" s="1" t="s">
-        <v>6941</v>
+        <v>6943</v>
       </c>
       <c r="C1341" t="s">
         <v>3495</v>
@@ -55297,12 +55300,12 @@
         <v>5549</v>
       </c>
       <c r="Q1341" t="s">
-        <v>6942</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="1342" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1342" s="1" t="s">
-        <v>6943</v>
+        <v>6945</v>
       </c>
       <c r="C1342" t="s">
         <v>3495</v>
@@ -55317,12 +55320,12 @@
         <v>5549</v>
       </c>
       <c r="Q1342" t="s">
-        <v>6944</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="1343" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1343" s="1" t="s">
-        <v>6945</v>
+        <v>6947</v>
       </c>
       <c r="C1343" t="s">
         <v>3495</v>
@@ -55337,12 +55340,12 @@
         <v>5549</v>
       </c>
       <c r="Q1343" t="s">
-        <v>6946</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="1344" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1344" s="1" t="s">
-        <v>6947</v>
+        <v>6949</v>
       </c>
       <c r="C1344" t="s">
         <v>3495</v>
@@ -55357,12 +55360,12 @@
         <v>5549</v>
       </c>
       <c r="Q1344" t="s">
-        <v>6948</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="1345" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1345" s="1" t="s">
-        <v>6949</v>
+        <v>6951</v>
       </c>
       <c r="C1345" t="s">
         <v>3495</v>
@@ -55377,12 +55380,12 @@
         <v>5549</v>
       </c>
       <c r="Q1345" t="s">
-        <v>6950</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="1346" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1346" s="1" t="s">
-        <v>6951</v>
+        <v>6953</v>
       </c>
       <c r="C1346" t="s">
         <v>3495</v>
@@ -55397,31 +55400,11 @@
         <v>5549</v>
       </c>
       <c r="Q1346" t="s">
-        <v>6952</v>
-      </c>
-    </row>
-    <row r="1347" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1347" s="1" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C1347" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D1347" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1347" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L1347" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q1347" t="s">
         <v>6954</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:R1347"/>
+  <autoFilter ref="B1:R1346"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -55429,10 +55412,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q433"/>
+  <dimension ref="B1:Q434"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:XFD433"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="E433" sqref="E433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64398,6 +64381,23 @@
       </c>
       <c r="Q433" t="s">
         <v>6911</v>
+      </c>
+    </row>
+    <row r="434" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B434" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C434" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L434" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>3493</v>
       </c>
     </row>
   </sheetData>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -21,9 +21,9 @@
     <sheet name="To Check" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1343</definedName>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1345</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1343</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25879,10 +25879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1345"/>
+  <dimension ref="B1:Q1343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A978" workbookViewId="0">
+      <selection activeCell="C988" sqref="C988"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48240,47 +48240,65 @@
     </row>
     <row r="988" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B988" s="1" t="s">
-        <v>3188</v>
+        <v>6645</v>
       </c>
       <c r="C988" t="s">
-        <v>3189</v>
-      </c>
-      <c r="D988" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E988" t="s">
-        <v>2426</v>
+        <v>3193</v>
+      </c>
+      <c r="D988" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E988">
+        <v>68000</v>
+      </c>
+      <c r="F988">
+        <v>68000</v>
+      </c>
+      <c r="G988" t="s">
+        <v>3892</v>
       </c>
       <c r="L988" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M988" t="s">
+        <v>3315</v>
       </c>
       <c r="Q988" t="s">
-        <v>3190</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="989" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B989" s="1" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="C989" t="s">
-        <v>3189</v>
-      </c>
-      <c r="D989" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E989" t="s">
-        <v>2426</v>
+        <v>3193</v>
+      </c>
+      <c r="D989" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E989">
+        <v>68000</v>
+      </c>
+      <c r="F989">
+        <v>68000</v>
+      </c>
+      <c r="G989" t="s">
+        <v>3892</v>
       </c>
       <c r="L989" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M989" t="s">
+        <v>3315</v>
       </c>
       <c r="Q989" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="990" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B990" s="1" t="s">
-        <v>6645</v>
+        <v>3194</v>
       </c>
       <c r="C990" t="s">
         <v>3193</v>
@@ -48304,12 +48322,12 @@
         <v>3315</v>
       </c>
       <c r="Q990" t="s">
-        <v>6646</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="991" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B991" s="1" t="s">
-        <v>3192</v>
+        <v>6647</v>
       </c>
       <c r="C991" t="s">
         <v>3193</v>
@@ -48317,108 +48335,90 @@
       <c r="D991" s="1">
         <v>68000</v>
       </c>
-      <c r="E991">
-        <v>68000</v>
-      </c>
-      <c r="F991">
-        <v>68000</v>
-      </c>
-      <c r="G991" t="s">
-        <v>3892</v>
-      </c>
       <c r="L991" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M991" t="s">
         <v>3315</v>
       </c>
       <c r="Q991" t="s">
-        <v>4536</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="992" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B992" s="1" t="s">
-        <v>3194</v>
+        <v>6649</v>
       </c>
       <c r="C992" t="s">
-        <v>3193</v>
+        <v>6650</v>
       </c>
       <c r="D992" s="1">
         <v>68000</v>
       </c>
-      <c r="E992">
-        <v>68000</v>
-      </c>
-      <c r="F992">
-        <v>68000</v>
-      </c>
-      <c r="G992" t="s">
-        <v>3892</v>
-      </c>
       <c r="L992" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M992" t="s">
-        <v>3315</v>
+        <v>1409</v>
       </c>
       <c r="Q992" t="s">
-        <v>4537</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="993" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B993" s="1" t="s">
-        <v>6647</v>
+        <v>6652</v>
       </c>
       <c r="C993" t="s">
-        <v>3193</v>
+        <v>6650</v>
       </c>
       <c r="D993" s="1">
         <v>68000</v>
       </c>
       <c r="L993" t="s">
-        <v>3315</v>
+        <v>1409</v>
       </c>
       <c r="Q993" t="s">
-        <v>6648</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="994" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B994" s="1" t="s">
-        <v>6649</v>
+        <v>3195</v>
       </c>
       <c r="C994" t="s">
-        <v>6650</v>
+        <v>3196</v>
       </c>
       <c r="D994" s="1">
         <v>68000</v>
       </c>
+      <c r="E994" t="s">
+        <v>2426</v>
+      </c>
       <c r="L994" t="s">
-        <v>1409</v>
+        <v>5070</v>
       </c>
       <c r="Q994" t="s">
-        <v>6651</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="995" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B995" s="1" t="s">
-        <v>6652</v>
+        <v>3198</v>
       </c>
       <c r="C995" t="s">
-        <v>6650</v>
+        <v>3196</v>
       </c>
       <c r="D995" s="1">
         <v>68000</v>
       </c>
+      <c r="E995" t="s">
+        <v>2426</v>
+      </c>
       <c r="L995" t="s">
-        <v>1409</v>
+        <v>5070</v>
       </c>
       <c r="Q995" t="s">
-        <v>6653</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="996" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B996" s="1" t="s">
-        <v>3195</v>
+        <v>3200</v>
       </c>
       <c r="C996" t="s">
         <v>3196</v>
@@ -48427,18 +48427,21 @@
         <v>68000</v>
       </c>
       <c r="E996" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L996" t="s">
-        <v>5070</v>
+        <v>5238</v>
+      </c>
+      <c r="M996" t="s">
+        <v>3315</v>
       </c>
       <c r="Q996" t="s">
-        <v>3197</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="997" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B997" s="1" t="s">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="C997" t="s">
         <v>3196</v>
@@ -48447,18 +48450,21 @@
         <v>68000</v>
       </c>
       <c r="E997" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L997" t="s">
-        <v>5070</v>
+        <v>5238</v>
+      </c>
+      <c r="M997" t="s">
+        <v>3315</v>
       </c>
       <c r="Q997" t="s">
-        <v>3199</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="998" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B998" s="1" t="s">
-        <v>3200</v>
+        <v>3202</v>
       </c>
       <c r="C998" t="s">
         <v>3196</v>
@@ -48476,12 +48482,12 @@
         <v>3315</v>
       </c>
       <c r="Q998" t="s">
-        <v>4944</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="999" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B999" s="1" t="s">
-        <v>3201</v>
+        <v>3203</v>
       </c>
       <c r="C999" t="s">
         <v>3196</v>
@@ -48499,12 +48505,12 @@
         <v>3315</v>
       </c>
       <c r="Q999" t="s">
-        <v>4945</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="1000" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1000" s="1" t="s">
-        <v>3202</v>
+        <v>6655</v>
       </c>
       <c r="C1000" t="s">
         <v>3196</v>
@@ -48522,12 +48528,12 @@
         <v>3315</v>
       </c>
       <c r="Q1000" t="s">
-        <v>4538</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="1001" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1001" s="1" t="s">
-        <v>3203</v>
+        <v>3209</v>
       </c>
       <c r="C1001" t="s">
         <v>3196</v>
@@ -48545,12 +48551,12 @@
         <v>3315</v>
       </c>
       <c r="Q1001" t="s">
-        <v>6654</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1002" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1002" s="1" t="s">
-        <v>6655</v>
+        <v>3204</v>
       </c>
       <c r="C1002" t="s">
         <v>3196</v>
@@ -48568,12 +48574,12 @@
         <v>3315</v>
       </c>
       <c r="Q1002" t="s">
-        <v>6656</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1003" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1003" s="1" t="s">
-        <v>3209</v>
+        <v>3205</v>
       </c>
       <c r="C1003" t="s">
         <v>3196</v>
@@ -48591,12 +48597,12 @@
         <v>3315</v>
       </c>
       <c r="Q1003" t="s">
-        <v>4544</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1004" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1004" s="1" t="s">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="C1004" t="s">
         <v>3196</v>
@@ -48614,12 +48620,12 @@
         <v>3315</v>
       </c>
       <c r="Q1004" t="s">
-        <v>4539</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1005" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1005" s="1" t="s">
-        <v>3205</v>
+        <v>6657</v>
       </c>
       <c r="C1005" t="s">
         <v>3196</v>
@@ -48637,12 +48643,12 @@
         <v>3315</v>
       </c>
       <c r="Q1005" t="s">
-        <v>4540</v>
+        <v>6658</v>
       </c>
     </row>
     <row r="1006" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1006" s="1" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="C1006" t="s">
         <v>3196</v>
@@ -48660,12 +48666,12 @@
         <v>3315</v>
       </c>
       <c r="Q1006" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1007" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1007" s="1" t="s">
-        <v>6657</v>
+        <v>3208</v>
       </c>
       <c r="C1007" t="s">
         <v>3196</v>
@@ -48683,12 +48689,12 @@
         <v>3315</v>
       </c>
       <c r="Q1007" t="s">
-        <v>6658</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1008" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1008" s="1" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="C1008" t="s">
         <v>3196</v>
@@ -48706,12 +48712,12 @@
         <v>3315</v>
       </c>
       <c r="Q1008" t="s">
-        <v>4542</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="1009" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1009" s="1" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
       <c r="C1009" t="s">
         <v>3196</v>
@@ -48729,12 +48735,12 @@
         <v>3315</v>
       </c>
       <c r="Q1009" t="s">
-        <v>4543</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="1010" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1010" s="1" t="s">
-        <v>3210</v>
+        <v>6661</v>
       </c>
       <c r="C1010" t="s">
         <v>3196</v>
@@ -48752,12 +48758,12 @@
         <v>3315</v>
       </c>
       <c r="Q1010" t="s">
-        <v>6659</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="1011" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1011" s="1" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="C1011" t="s">
         <v>3196</v>
@@ -48775,12 +48781,12 @@
         <v>3315</v>
       </c>
       <c r="Q1011" t="s">
-        <v>6660</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1012" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1012" s="1" t="s">
-        <v>6661</v>
+        <v>3216</v>
       </c>
       <c r="C1012" t="s">
         <v>3196</v>
@@ -48798,12 +48804,12 @@
         <v>3315</v>
       </c>
       <c r="Q1012" t="s">
-        <v>6662</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1013" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1013" s="1" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="C1013" t="s">
         <v>3196</v>
@@ -48821,12 +48827,12 @@
         <v>3315</v>
       </c>
       <c r="Q1013" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1014" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1014" s="1" t="s">
-        <v>3216</v>
+        <v>3212</v>
       </c>
       <c r="C1014" t="s">
         <v>3196</v>
@@ -48844,12 +48850,12 @@
         <v>3315</v>
       </c>
       <c r="Q1014" t="s">
-        <v>4547</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="1015" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1015" s="1" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="C1015" t="s">
         <v>3196</v>
@@ -48867,12 +48873,12 @@
         <v>3315</v>
       </c>
       <c r="Q1015" t="s">
-        <v>4545</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="1016" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1016" s="1" t="s">
-        <v>3212</v>
+        <v>3222</v>
       </c>
       <c r="C1016" t="s">
         <v>3196</v>
@@ -48890,12 +48896,12 @@
         <v>3315</v>
       </c>
       <c r="Q1016" t="s">
-        <v>4946</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1017" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1017" s="1" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
       <c r="C1017" t="s">
         <v>3196</v>
@@ -48913,12 +48919,12 @@
         <v>3315</v>
       </c>
       <c r="Q1017" t="s">
-        <v>4947</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1018" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1018" s="1" t="s">
-        <v>3222</v>
+        <v>3218</v>
       </c>
       <c r="C1018" t="s">
         <v>3196</v>
@@ -48936,12 +48942,12 @@
         <v>3315</v>
       </c>
       <c r="Q1018" t="s">
-        <v>4551</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1019" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1019" s="1" t="s">
-        <v>3217</v>
+        <v>3219</v>
       </c>
       <c r="C1019" t="s">
         <v>3196</v>
@@ -48959,12 +48965,12 @@
         <v>3315</v>
       </c>
       <c r="Q1019" t="s">
-        <v>4548</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1020" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1020" s="1" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="C1020" t="s">
         <v>3196</v>
@@ -48972,62 +48978,62 @@
       <c r="D1020" s="1">
         <v>68000</v>
       </c>
-      <c r="E1020" t="s">
-        <v>3892</v>
-      </c>
       <c r="L1020" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1020" t="s">
-        <v>3315</v>
+        <v>1687</v>
       </c>
       <c r="Q1020" t="s">
-        <v>4549</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="1021" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1021" s="1" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="C1021" t="s">
-        <v>3196</v>
+        <v>3224</v>
       </c>
       <c r="D1021" s="1">
         <v>68000</v>
       </c>
       <c r="E1021" t="s">
-        <v>3892</v>
+        <v>2</v>
       </c>
       <c r="L1021" t="s">
         <v>5238</v>
       </c>
       <c r="M1021" t="s">
-        <v>3315</v>
+        <v>4179</v>
       </c>
       <c r="Q1021" t="s">
-        <v>4550</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1022" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1022" s="1" t="s">
-        <v>3220</v>
+        <v>3225</v>
       </c>
       <c r="C1022" t="s">
-        <v>3196</v>
+        <v>3224</v>
       </c>
       <c r="D1022" s="1">
         <v>68000</v>
       </c>
+      <c r="E1022" t="s">
+        <v>2</v>
+      </c>
       <c r="L1022" t="s">
-        <v>1687</v>
+        <v>5238</v>
+      </c>
+      <c r="M1022" t="s">
+        <v>4179</v>
       </c>
       <c r="Q1022" t="s">
-        <v>3221</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1023" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1023" s="1" t="s">
-        <v>3223</v>
+        <v>3226</v>
       </c>
       <c r="C1023" t="s">
         <v>3224</v>
@@ -49045,12 +49051,12 @@
         <v>4179</v>
       </c>
       <c r="Q1023" t="s">
-        <v>4552</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1024" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1024" s="1" t="s">
-        <v>3225</v>
+        <v>3227</v>
       </c>
       <c r="C1024" t="s">
         <v>3224</v>
@@ -49068,98 +49074,98 @@
         <v>4179</v>
       </c>
       <c r="Q1024" t="s">
-        <v>4553</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1025" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1025" s="1" t="s">
-        <v>3226</v>
+        <v>3228</v>
       </c>
       <c r="C1025" t="s">
-        <v>3224</v>
+        <v>3229</v>
       </c>
       <c r="D1025" s="1">
         <v>68000</v>
       </c>
       <c r="E1025" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1025" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1025" t="s">
-        <v>4179</v>
+        <v>6383</v>
       </c>
       <c r="Q1025" t="s">
-        <v>4554</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="1026" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1026" s="1" t="s">
-        <v>3227</v>
+        <v>3230</v>
       </c>
       <c r="C1026" t="s">
-        <v>3224</v>
+        <v>3229</v>
       </c>
       <c r="D1026" s="1">
         <v>68000</v>
       </c>
       <c r="E1026" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1026" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1026" t="s">
-        <v>4179</v>
+        <v>6383</v>
       </c>
       <c r="Q1026" t="s">
-        <v>4555</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="1027" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1027" s="1" t="s">
-        <v>3228</v>
+        <v>6663</v>
       </c>
       <c r="C1027" t="s">
-        <v>3229</v>
-      </c>
-      <c r="D1027" s="1">
-        <v>68000</v>
+        <v>6664</v>
+      </c>
+      <c r="D1027" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1027" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1027" t="s">
-        <v>6383</v>
+        <v>55</v>
+      </c>
+      <c r="M1027" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1027" t="s">
-        <v>4948</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="1028" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1028" s="1" t="s">
-        <v>3230</v>
+        <v>6666</v>
       </c>
       <c r="C1028" t="s">
-        <v>3229</v>
-      </c>
-      <c r="D1028" s="1">
-        <v>68000</v>
+        <v>6664</v>
+      </c>
+      <c r="D1028" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1028" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1028" t="s">
-        <v>6383</v>
+        <v>6093</v>
+      </c>
+      <c r="M1028" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1028" t="s">
-        <v>3231</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="1029" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1029" s="1" t="s">
-        <v>6663</v>
+        <v>6668</v>
       </c>
       <c r="C1029" t="s">
         <v>6664</v>
@@ -49171,18 +49177,18 @@
         <v>2</v>
       </c>
       <c r="L1029" t="s">
-        <v>55</v>
+        <v>6093</v>
       </c>
       <c r="M1029" t="s">
         <v>3974</v>
       </c>
       <c r="Q1029" t="s">
-        <v>6665</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="1030" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1030" s="1" t="s">
-        <v>6666</v>
+        <v>6670</v>
       </c>
       <c r="C1030" t="s">
         <v>6664</v>
@@ -49200,12 +49206,12 @@
         <v>3974</v>
       </c>
       <c r="Q1030" t="s">
-        <v>6667</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="1031" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1031" s="1" t="s">
-        <v>6668</v>
+        <v>6672</v>
       </c>
       <c r="C1031" t="s">
         <v>6664</v>
@@ -49223,12 +49229,12 @@
         <v>3974</v>
       </c>
       <c r="Q1031" t="s">
-        <v>6669</v>
+        <v>6673</v>
       </c>
     </row>
     <row r="1032" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1032" s="1" t="s">
-        <v>6670</v>
+        <v>6674</v>
       </c>
       <c r="C1032" t="s">
         <v>6664</v>
@@ -49246,58 +49252,52 @@
         <v>3974</v>
       </c>
       <c r="Q1032" t="s">
-        <v>6671</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="1033" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1033" s="1" t="s">
-        <v>6672</v>
+        <v>3232</v>
       </c>
       <c r="C1033" t="s">
-        <v>6664</v>
+        <v>3233</v>
       </c>
       <c r="D1033" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1033" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1033" t="s">
-        <v>6093</v>
-      </c>
-      <c r="M1033" t="s">
-        <v>3974</v>
+        <v>5549</v>
       </c>
       <c r="Q1033" t="s">
-        <v>6673</v>
+        <v>6676</v>
       </c>
     </row>
     <row r="1034" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1034" s="1" t="s">
-        <v>6674</v>
+        <v>6677</v>
       </c>
       <c r="C1034" t="s">
-        <v>6664</v>
+        <v>3233</v>
       </c>
       <c r="D1034" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1034" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1034" t="s">
-        <v>6093</v>
-      </c>
-      <c r="M1034" t="s">
-        <v>3974</v>
+        <v>5549</v>
       </c>
       <c r="Q1034" t="s">
-        <v>6675</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="1035" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1035" s="1" t="s">
-        <v>3232</v>
+        <v>3235</v>
       </c>
       <c r="C1035" t="s">
         <v>3233</v>
@@ -49309,21 +49309,21 @@
         <v>2426</v>
       </c>
       <c r="L1035" t="s">
-        <v>5549</v>
+        <v>6383</v>
       </c>
       <c r="Q1035" t="s">
-        <v>6676</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="1036" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1036" s="1" t="s">
-        <v>6677</v>
+        <v>3237</v>
       </c>
       <c r="C1036" t="s">
-        <v>3233</v>
-      </c>
-      <c r="D1036" s="1" t="s">
-        <v>2</v>
+        <v>3238</v>
+      </c>
+      <c r="D1036" s="1">
+        <v>68000</v>
       </c>
       <c r="E1036" t="s">
         <v>2426</v>
@@ -49332,32 +49332,32 @@
         <v>5549</v>
       </c>
       <c r="Q1036" t="s">
-        <v>3234</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="1037" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1037" s="1" t="s">
-        <v>3235</v>
+        <v>3240</v>
       </c>
       <c r="C1037" t="s">
-        <v>3233</v>
-      </c>
-      <c r="D1037" s="1" t="s">
-        <v>2</v>
+        <v>3238</v>
+      </c>
+      <c r="D1037" s="1">
+        <v>68000</v>
       </c>
       <c r="E1037" t="s">
         <v>2426</v>
       </c>
       <c r="L1037" t="s">
-        <v>6383</v>
+        <v>5549</v>
       </c>
       <c r="Q1037" t="s">
-        <v>3236</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="1038" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1038" s="1" t="s">
-        <v>3237</v>
+        <v>3242</v>
       </c>
       <c r="C1038" t="s">
         <v>3238</v>
@@ -49372,12 +49372,12 @@
         <v>5549</v>
       </c>
       <c r="Q1038" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="1039" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1039" s="1" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="C1039" t="s">
         <v>3238</v>
@@ -49392,12 +49392,12 @@
         <v>5549</v>
       </c>
       <c r="Q1039" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="1040" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1040" s="1" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="C1040" t="s">
         <v>3238</v>
@@ -49412,12 +49412,12 @@
         <v>5549</v>
       </c>
       <c r="Q1040" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1041" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1041" s="1" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
       <c r="C1041" t="s">
         <v>3238</v>
@@ -49432,12 +49432,12 @@
         <v>5549</v>
       </c>
       <c r="Q1041" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="1042" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1042" s="1" t="s">
-        <v>3246</v>
+        <v>3250</v>
       </c>
       <c r="C1042" t="s">
         <v>3238</v>
@@ -49452,12 +49452,12 @@
         <v>5549</v>
       </c>
       <c r="Q1042" t="s">
-        <v>3247</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="1043" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1043" s="1" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
       <c r="C1043" t="s">
         <v>3238</v>
@@ -49472,12 +49472,12 @@
         <v>5549</v>
       </c>
       <c r="Q1043" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="1044" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1044" s="1" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="C1044" t="s">
         <v>3238</v>
@@ -49492,12 +49492,12 @@
         <v>5549</v>
       </c>
       <c r="Q1044" t="s">
-        <v>3251</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="1045" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1045" s="1" t="s">
-        <v>3252</v>
+        <v>3256</v>
       </c>
       <c r="C1045" t="s">
         <v>3238</v>
@@ -49512,12 +49512,12 @@
         <v>5549</v>
       </c>
       <c r="Q1045" t="s">
-        <v>3253</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="1046" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1046" s="1" t="s">
-        <v>3254</v>
+        <v>3257</v>
       </c>
       <c r="C1046" t="s">
         <v>3238</v>
@@ -49532,12 +49532,12 @@
         <v>5549</v>
       </c>
       <c r="Q1046" t="s">
-        <v>3255</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="1047" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1047" s="1" t="s">
-        <v>3256</v>
+        <v>3258</v>
       </c>
       <c r="C1047" t="s">
         <v>3238</v>
@@ -49552,18 +49552,18 @@
         <v>5549</v>
       </c>
       <c r="Q1047" t="s">
-        <v>4949</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="1048" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1048" s="1" t="s">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="C1048" t="s">
-        <v>3238</v>
-      </c>
-      <c r="D1048" s="1">
-        <v>68000</v>
+        <v>3261</v>
+      </c>
+      <c r="D1048" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1048" t="s">
         <v>2426</v>
@@ -49572,18 +49572,18 @@
         <v>5549</v>
       </c>
       <c r="Q1048" t="s">
-        <v>4950</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="1049" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1049" s="1" t="s">
-        <v>3258</v>
+        <v>3263</v>
       </c>
       <c r="C1049" t="s">
-        <v>3238</v>
-      </c>
-      <c r="D1049" s="1">
-        <v>68000</v>
+        <v>3261</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1049" t="s">
         <v>2426</v>
@@ -49592,12 +49592,12 @@
         <v>5549</v>
       </c>
       <c r="Q1049" t="s">
-        <v>3259</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="1050" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1050" s="1" t="s">
-        <v>3260</v>
+        <v>6678</v>
       </c>
       <c r="C1050" t="s">
         <v>3261</v>
@@ -49612,52 +49612,52 @@
         <v>5549</v>
       </c>
       <c r="Q1050" t="s">
-        <v>3262</v>
+        <v>6679</v>
       </c>
     </row>
     <row r="1051" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1051" s="1" t="s">
-        <v>3263</v>
+        <v>3287</v>
       </c>
       <c r="C1051" t="s">
-        <v>3261</v>
+        <v>3288</v>
       </c>
       <c r="D1051" s="1" t="s">
-        <v>1652</v>
+        <v>2</v>
       </c>
       <c r="E1051" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1051" t="s">
-        <v>5549</v>
+        <v>55</v>
       </c>
       <c r="Q1051" t="s">
-        <v>3264</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="1052" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1052" s="1" t="s">
-        <v>6678</v>
+        <v>3290</v>
       </c>
       <c r="C1052" t="s">
-        <v>3261</v>
+        <v>3288</v>
       </c>
       <c r="D1052" s="1" t="s">
-        <v>1652</v>
+        <v>2</v>
       </c>
       <c r="E1052" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1052" t="s">
-        <v>5549</v>
+        <v>55</v>
       </c>
       <c r="Q1052" t="s">
-        <v>6679</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="1053" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1053" s="1" t="s">
-        <v>3287</v>
+        <v>3292</v>
       </c>
       <c r="C1053" t="s">
         <v>3288</v>
@@ -49672,12 +49672,12 @@
         <v>55</v>
       </c>
       <c r="Q1053" t="s">
-        <v>3289</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="1054" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1054" s="1" t="s">
-        <v>3290</v>
+        <v>3294</v>
       </c>
       <c r="C1054" t="s">
         <v>3288</v>
@@ -49692,12 +49692,12 @@
         <v>55</v>
       </c>
       <c r="Q1054" t="s">
-        <v>3291</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="1055" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1055" s="1" t="s">
-        <v>3292</v>
+        <v>6682</v>
       </c>
       <c r="C1055" t="s">
         <v>3288</v>
@@ -49712,15 +49712,15 @@
         <v>55</v>
       </c>
       <c r="Q1055" t="s">
-        <v>3293</v>
+        <v>6683</v>
       </c>
     </row>
     <row r="1056" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1056" s="1" t="s">
-        <v>3294</v>
+        <v>3301</v>
       </c>
       <c r="C1056" t="s">
-        <v>3288</v>
+        <v>3302</v>
       </c>
       <c r="D1056" s="1" t="s">
         <v>2</v>
@@ -49732,15 +49732,15 @@
         <v>55</v>
       </c>
       <c r="Q1056" t="s">
-        <v>3295</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="1057" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1057" s="1" t="s">
-        <v>6682</v>
+        <v>3304</v>
       </c>
       <c r="C1057" t="s">
-        <v>3288</v>
+        <v>3302</v>
       </c>
       <c r="D1057" s="1" t="s">
         <v>2</v>
@@ -49752,52 +49752,58 @@
         <v>55</v>
       </c>
       <c r="Q1057" t="s">
-        <v>6683</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="1058" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1058" s="1" t="s">
-        <v>3301</v>
+        <v>3306</v>
       </c>
       <c r="C1058" t="s">
-        <v>3302</v>
-      </c>
-      <c r="D1058" s="1" t="s">
-        <v>2</v>
+        <v>3307</v>
+      </c>
+      <c r="D1058" s="1">
+        <v>68000</v>
       </c>
       <c r="E1058" t="s">
-        <v>2</v>
+        <v>3766</v>
       </c>
       <c r="L1058" t="s">
-        <v>55</v>
+        <v>5071</v>
+      </c>
+      <c r="M1058" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1058" t="s">
-        <v>3303</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1059" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1059" s="1" t="s">
-        <v>3304</v>
+        <v>3308</v>
       </c>
       <c r="C1059" t="s">
-        <v>3302</v>
-      </c>
-      <c r="D1059" s="1" t="s">
-        <v>2</v>
+        <v>3309</v>
+      </c>
+      <c r="D1059" s="1">
+        <v>68000</v>
       </c>
       <c r="E1059" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1059" t="s">
-        <v>55</v>
+        <v>5071</v>
+      </c>
+      <c r="M1059" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1059" t="s">
-        <v>3305</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1060" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1060" s="1" t="s">
-        <v>3306</v>
+        <v>3310</v>
       </c>
       <c r="C1060" t="s">
         <v>3307</v>
@@ -49805,62 +49811,56 @@
       <c r="D1060" s="1">
         <v>68000</v>
       </c>
-      <c r="E1060" t="s">
-        <v>3766</v>
-      </c>
       <c r="L1060" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1060" t="s">
         <v>1687</v>
       </c>
       <c r="Q1060" t="s">
-        <v>4556</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="1061" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1061" s="1" t="s">
-        <v>3308</v>
+        <v>3311</v>
       </c>
       <c r="C1061" t="s">
-        <v>3309</v>
+        <v>3312</v>
       </c>
       <c r="D1061" s="1">
         <v>68000</v>
       </c>
-      <c r="E1061" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1061" t="s">
-        <v>5071</v>
+        <v>1155</v>
       </c>
       <c r="M1061" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q1061" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1062" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1062" s="1" t="s">
-        <v>3310</v>
+        <v>3313</v>
       </c>
       <c r="C1062" t="s">
-        <v>3307</v>
+        <v>3312</v>
       </c>
       <c r="D1062" s="1">
         <v>68000</v>
       </c>
       <c r="L1062" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M1062" t="s">
         <v>1687</v>
       </c>
       <c r="Q1062" t="s">
-        <v>6684</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1063" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1063" s="1" t="s">
-        <v>3311</v>
+        <v>6685</v>
       </c>
       <c r="C1063" t="s">
         <v>3312</v>
@@ -49875,12 +49875,12 @@
         <v>1687</v>
       </c>
       <c r="Q1063" t="s">
-        <v>4558</v>
+        <v>6686</v>
       </c>
     </row>
     <row r="1064" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1064" s="1" t="s">
-        <v>3313</v>
+        <v>6687</v>
       </c>
       <c r="C1064" t="s">
         <v>3312</v>
@@ -49888,19 +49888,19 @@
       <c r="D1064" s="1">
         <v>68000</v>
       </c>
+      <c r="E1064" t="s">
+        <v>2</v>
+      </c>
       <c r="L1064" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M1064" t="s">
-        <v>1687</v>
+        <v>5238</v>
       </c>
       <c r="Q1064" t="s">
-        <v>4559</v>
+        <v>6688</v>
       </c>
     </row>
     <row r="1065" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1065" s="1" t="s">
-        <v>6685</v>
+        <v>6689</v>
       </c>
       <c r="C1065" t="s">
         <v>3312</v>
@@ -49908,19 +49908,22 @@
       <c r="D1065" s="1">
         <v>68000</v>
       </c>
+      <c r="E1065" t="s">
+        <v>2</v>
+      </c>
       <c r="L1065" t="s">
-        <v>1155</v>
+        <v>1687</v>
       </c>
       <c r="M1065" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q1065" t="s">
-        <v>6686</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="1066" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1066" s="1" t="s">
-        <v>6687</v>
+        <v>3314</v>
       </c>
       <c r="C1066" t="s">
         <v>3312</v>
@@ -49928,19 +49931,16 @@
       <c r="D1066" s="1">
         <v>68000</v>
       </c>
-      <c r="E1066" t="s">
-        <v>2</v>
-      </c>
       <c r="L1066" t="s">
-        <v>5238</v>
+        <v>3315</v>
       </c>
       <c r="Q1066" t="s">
-        <v>6688</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="1067" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1067" s="1" t="s">
-        <v>6689</v>
+        <v>3317</v>
       </c>
       <c r="C1067" t="s">
         <v>3312</v>
@@ -49948,22 +49948,16 @@
       <c r="D1067" s="1">
         <v>68000</v>
       </c>
-      <c r="E1067" t="s">
-        <v>2</v>
-      </c>
       <c r="L1067" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M1067" t="s">
-        <v>5070</v>
+        <v>3315</v>
       </c>
       <c r="Q1067" t="s">
-        <v>6690</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="1068" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1068" s="1" t="s">
-        <v>3314</v>
+        <v>6691</v>
       </c>
       <c r="C1068" t="s">
         <v>3312</v>
@@ -49975,89 +49969,95 @@
         <v>3315</v>
       </c>
       <c r="Q1068" t="s">
-        <v>3316</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="1069" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1069" s="1" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="C1069" t="s">
-        <v>3312</v>
+        <v>3319</v>
       </c>
       <c r="D1069" s="1">
         <v>68000</v>
       </c>
       <c r="L1069" t="s">
-        <v>3315</v>
+        <v>1687</v>
       </c>
       <c r="Q1069" t="s">
-        <v>4951</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1070" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1070" s="1" t="s">
-        <v>6691</v>
+        <v>3321</v>
       </c>
       <c r="C1070" t="s">
-        <v>3312</v>
-      </c>
-      <c r="D1070" s="1">
-        <v>68000</v>
+        <v>3322</v>
+      </c>
+      <c r="D1070" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>2</v>
       </c>
       <c r="L1070" t="s">
-        <v>3315</v>
+        <v>5070</v>
+      </c>
+      <c r="M1070" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1070" t="s">
-        <v>6692</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1071" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1071" s="1" t="s">
-        <v>3318</v>
+        <v>6693</v>
       </c>
       <c r="C1071" t="s">
-        <v>3319</v>
+        <v>6694</v>
       </c>
       <c r="D1071" s="1">
         <v>68000</v>
       </c>
       <c r="L1071" t="s">
-        <v>1687</v>
+        <v>55</v>
+      </c>
+      <c r="M1071" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1071" t="s">
-        <v>3320</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="1072" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1072" s="1" t="s">
-        <v>3321</v>
+        <v>6696</v>
       </c>
       <c r="C1072" t="s">
-        <v>3322</v>
+        <v>6694</v>
       </c>
       <c r="D1072" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1072" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1072" t="s">
-        <v>2</v>
-      </c>
       <c r="L1072" t="s">
-        <v>5070</v>
+        <v>55</v>
       </c>
       <c r="M1072" t="s">
-        <v>1687</v>
+        <v>3974</v>
       </c>
       <c r="Q1072" t="s">
-        <v>4560</v>
+        <v>6697</v>
       </c>
     </row>
     <row r="1073" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1073" s="1" t="s">
-        <v>6693</v>
+        <v>6698</v>
       </c>
       <c r="C1073" t="s">
         <v>6694</v>
@@ -50072,18 +50072,18 @@
         <v>3974</v>
       </c>
       <c r="Q1073" t="s">
-        <v>6695</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="1074" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1074" s="1" t="s">
-        <v>6696</v>
+        <v>6700</v>
       </c>
       <c r="C1074" t="s">
         <v>6694</v>
       </c>
-      <c r="D1074" s="1" t="s">
-        <v>2</v>
+      <c r="D1074" s="1">
+        <v>68000</v>
       </c>
       <c r="L1074" t="s">
         <v>55</v>
@@ -50092,52 +50092,58 @@
         <v>3974</v>
       </c>
       <c r="Q1074" t="s">
-        <v>6697</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="1075" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1075" s="1" t="s">
-        <v>6698</v>
+        <v>3325</v>
       </c>
       <c r="C1075" t="s">
-        <v>6694</v>
+        <v>3326</v>
       </c>
       <c r="D1075" s="1">
         <v>68000</v>
       </c>
+      <c r="E1075" t="s">
+        <v>4562</v>
+      </c>
       <c r="L1075" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="M1075" t="s">
-        <v>3974</v>
+        <v>5071</v>
       </c>
       <c r="Q1075" t="s">
-        <v>6699</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="1076" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1076" s="1" t="s">
-        <v>6700</v>
+        <v>3327</v>
       </c>
       <c r="C1076" t="s">
-        <v>6694</v>
+        <v>3326</v>
       </c>
       <c r="D1076" s="1">
         <v>68000</v>
       </c>
+      <c r="E1076" t="s">
+        <v>4562</v>
+      </c>
       <c r="L1076" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="M1076" t="s">
-        <v>3974</v>
+        <v>5071</v>
       </c>
       <c r="Q1076" t="s">
-        <v>6701</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1077" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1077" s="1" t="s">
-        <v>3325</v>
+        <v>3328</v>
       </c>
       <c r="C1077" t="s">
         <v>3326</v>
@@ -50149,18 +50155,15 @@
         <v>4562</v>
       </c>
       <c r="L1077" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1077" t="s">
-        <v>5071</v>
+        <v>77</v>
       </c>
       <c r="Q1077" t="s">
-        <v>4563</v>
+        <v>6702</v>
       </c>
     </row>
     <row r="1078" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1078" s="1" t="s">
-        <v>3327</v>
+        <v>3329</v>
       </c>
       <c r="C1078" t="s">
         <v>3326</v>
@@ -50172,18 +50175,15 @@
         <v>4562</v>
       </c>
       <c r="L1078" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1078" t="s">
-        <v>5071</v>
+        <v>77</v>
       </c>
       <c r="Q1078" t="s">
-        <v>4564</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="1079" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1079" s="1" t="s">
-        <v>3328</v>
+        <v>3331</v>
       </c>
       <c r="C1079" t="s">
         <v>3326</v>
@@ -50198,12 +50198,12 @@
         <v>77</v>
       </c>
       <c r="Q1079" t="s">
-        <v>6702</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1080" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1080" s="1" t="s">
-        <v>3329</v>
+        <v>3333</v>
       </c>
       <c r="C1080" t="s">
         <v>3326</v>
@@ -50218,12 +50218,12 @@
         <v>77</v>
       </c>
       <c r="Q1080" t="s">
-        <v>3330</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1081" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1081" s="1" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="C1081" t="s">
         <v>3326</v>
@@ -50231,19 +50231,16 @@
       <c r="D1081" s="1">
         <v>68000</v>
       </c>
-      <c r="E1081" t="s">
-        <v>4562</v>
-      </c>
       <c r="L1081" t="s">
         <v>77</v>
       </c>
       <c r="Q1081" t="s">
-        <v>3332</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1082" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1082" s="1" t="s">
-        <v>3333</v>
+        <v>3336</v>
       </c>
       <c r="C1082" t="s">
         <v>3326</v>
@@ -50258,12 +50255,12 @@
         <v>77</v>
       </c>
       <c r="Q1082" t="s">
-        <v>3334</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="1083" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1083" s="1" t="s">
-        <v>3335</v>
+        <v>3338</v>
       </c>
       <c r="C1083" t="s">
         <v>3326</v>
@@ -50271,16 +50268,19 @@
       <c r="D1083" s="1">
         <v>68000</v>
       </c>
+      <c r="E1083" t="s">
+        <v>4562</v>
+      </c>
       <c r="L1083" t="s">
         <v>77</v>
       </c>
       <c r="Q1083" t="s">
-        <v>4565</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="1084" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1084" s="1" t="s">
-        <v>3336</v>
+        <v>6703</v>
       </c>
       <c r="C1084" t="s">
         <v>3326</v>
@@ -50288,19 +50288,16 @@
       <c r="D1084" s="1">
         <v>68000</v>
       </c>
-      <c r="E1084" t="s">
-        <v>4562</v>
-      </c>
       <c r="L1084" t="s">
         <v>77</v>
       </c>
       <c r="Q1084" t="s">
-        <v>3337</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="1085" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1085" s="1" t="s">
-        <v>3338</v>
+        <v>6705</v>
       </c>
       <c r="C1085" t="s">
         <v>3326</v>
@@ -50308,19 +50305,16 @@
       <c r="D1085" s="1">
         <v>68000</v>
       </c>
-      <c r="E1085" t="s">
-        <v>4562</v>
-      </c>
       <c r="L1085" t="s">
         <v>77</v>
       </c>
       <c r="Q1085" t="s">
-        <v>3339</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="1086" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1086" s="1" t="s">
-        <v>6703</v>
+        <v>6707</v>
       </c>
       <c r="C1086" t="s">
         <v>3326</v>
@@ -50332,12 +50326,12 @@
         <v>77</v>
       </c>
       <c r="Q1086" t="s">
-        <v>6704</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="1087" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1087" s="1" t="s">
-        <v>6705</v>
+        <v>3340</v>
       </c>
       <c r="C1087" t="s">
         <v>3326</v>
@@ -50349,12 +50343,12 @@
         <v>77</v>
       </c>
       <c r="Q1087" t="s">
-        <v>6706</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="1088" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1088" s="1" t="s">
-        <v>6707</v>
+        <v>6710</v>
       </c>
       <c r="C1088" t="s">
         <v>3326</v>
@@ -50366,12 +50360,12 @@
         <v>77</v>
       </c>
       <c r="Q1088" t="s">
-        <v>6708</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="1089" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1089" s="1" t="s">
-        <v>3340</v>
+        <v>6712</v>
       </c>
       <c r="C1089" t="s">
         <v>3326</v>
@@ -50383,12 +50377,12 @@
         <v>77</v>
       </c>
       <c r="Q1089" t="s">
-        <v>6709</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="1090" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1090" s="1" t="s">
-        <v>6710</v>
+        <v>6714</v>
       </c>
       <c r="C1090" t="s">
         <v>3326</v>
@@ -50400,12 +50394,12 @@
         <v>77</v>
       </c>
       <c r="Q1090" t="s">
-        <v>6711</v>
+        <v>6715</v>
       </c>
     </row>
     <row r="1091" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1091" s="1" t="s">
-        <v>6712</v>
+        <v>3341</v>
       </c>
       <c r="C1091" t="s">
         <v>3326</v>
@@ -50417,12 +50411,12 @@
         <v>77</v>
       </c>
       <c r="Q1091" t="s">
-        <v>6713</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1092" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1092" s="1" t="s">
-        <v>6714</v>
+        <v>6716</v>
       </c>
       <c r="C1092" t="s">
         <v>3326</v>
@@ -50434,12 +50428,12 @@
         <v>77</v>
       </c>
       <c r="Q1092" t="s">
-        <v>6715</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="1093" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1093" s="1" t="s">
-        <v>3341</v>
+        <v>6718</v>
       </c>
       <c r="C1093" t="s">
         <v>3326</v>
@@ -50451,12 +50445,12 @@
         <v>77</v>
       </c>
       <c r="Q1093" t="s">
-        <v>3342</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="1094" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1094" s="1" t="s">
-        <v>6716</v>
+        <v>6720</v>
       </c>
       <c r="C1094" t="s">
         <v>3326</v>
@@ -50468,12 +50462,12 @@
         <v>77</v>
       </c>
       <c r="Q1094" t="s">
-        <v>6717</v>
+        <v>6721</v>
       </c>
     </row>
     <row r="1095" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1095" s="1" t="s">
-        <v>6718</v>
+        <v>3343</v>
       </c>
       <c r="C1095" t="s">
         <v>3326</v>
@@ -50485,12 +50479,12 @@
         <v>77</v>
       </c>
       <c r="Q1095" t="s">
-        <v>6719</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1096" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1096" s="1" t="s">
-        <v>6720</v>
+        <v>6722</v>
       </c>
       <c r="C1096" t="s">
         <v>3326</v>
@@ -50502,12 +50496,12 @@
         <v>77</v>
       </c>
       <c r="Q1096" t="s">
-        <v>6721</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="1097" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1097" s="1" t="s">
-        <v>3343</v>
+        <v>6724</v>
       </c>
       <c r="C1097" t="s">
         <v>3326</v>
@@ -50519,12 +50513,12 @@
         <v>77</v>
       </c>
       <c r="Q1097" t="s">
-        <v>4566</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="1098" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1098" s="1" t="s">
-        <v>6722</v>
+        <v>6726</v>
       </c>
       <c r="C1098" t="s">
         <v>3326</v>
@@ -50536,12 +50530,12 @@
         <v>77</v>
       </c>
       <c r="Q1098" t="s">
-        <v>6723</v>
+        <v>6727</v>
       </c>
     </row>
     <row r="1099" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1099" s="1" t="s">
-        <v>6724</v>
+        <v>6728</v>
       </c>
       <c r="C1099" t="s">
         <v>3326</v>
@@ -50553,12 +50547,12 @@
         <v>77</v>
       </c>
       <c r="Q1099" t="s">
-        <v>6725</v>
+        <v>6729</v>
       </c>
     </row>
     <row r="1100" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1100" s="1" t="s">
-        <v>6726</v>
+        <v>6730</v>
       </c>
       <c r="C1100" t="s">
         <v>3326</v>
@@ -50570,12 +50564,12 @@
         <v>77</v>
       </c>
       <c r="Q1100" t="s">
-        <v>6727</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="1101" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1101" s="1" t="s">
-        <v>6728</v>
+        <v>6732</v>
       </c>
       <c r="C1101" t="s">
         <v>3326</v>
@@ -50587,12 +50581,12 @@
         <v>77</v>
       </c>
       <c r="Q1101" t="s">
-        <v>6729</v>
+        <v>6733</v>
       </c>
     </row>
     <row r="1102" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1102" s="1" t="s">
-        <v>6730</v>
+        <v>6734</v>
       </c>
       <c r="C1102" t="s">
         <v>3326</v>
@@ -50604,15 +50598,15 @@
         <v>77</v>
       </c>
       <c r="Q1102" t="s">
-        <v>6731</v>
+        <v>6735</v>
       </c>
     </row>
     <row r="1103" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1103" s="1" t="s">
-        <v>6732</v>
+        <v>6736</v>
       </c>
       <c r="C1103" t="s">
-        <v>3326</v>
+        <v>6737</v>
       </c>
       <c r="D1103" s="1">
         <v>68000</v>
@@ -50621,15 +50615,15 @@
         <v>77</v>
       </c>
       <c r="Q1103" t="s">
-        <v>6733</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="1104" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1104" s="1" t="s">
-        <v>6734</v>
+        <v>6739</v>
       </c>
       <c r="C1104" t="s">
-        <v>3326</v>
+        <v>6737</v>
       </c>
       <c r="D1104" s="1">
         <v>68000</v>
@@ -50638,12 +50632,12 @@
         <v>77</v>
       </c>
       <c r="Q1104" t="s">
-        <v>6735</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="1105" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1105" s="1" t="s">
-        <v>6736</v>
+        <v>6741</v>
       </c>
       <c r="C1105" t="s">
         <v>6737</v>
@@ -50655,49 +50649,49 @@
         <v>77</v>
       </c>
       <c r="Q1105" t="s">
-        <v>6738</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="1106" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1106" s="1" t="s">
-        <v>6739</v>
+        <v>3347</v>
       </c>
       <c r="C1106" t="s">
-        <v>6737</v>
+        <v>3348</v>
       </c>
       <c r="D1106" s="1">
         <v>68000</v>
       </c>
       <c r="L1106" t="s">
-        <v>77</v>
+        <v>1687</v>
       </c>
       <c r="Q1106" t="s">
-        <v>6740</v>
+        <v>6743</v>
       </c>
     </row>
     <row r="1107" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1107" s="1" t="s">
-        <v>6741</v>
+        <v>3344</v>
       </c>
       <c r="C1107" t="s">
-        <v>6737</v>
+        <v>3345</v>
       </c>
       <c r="D1107" s="1">
         <v>68000</v>
       </c>
       <c r="L1107" t="s">
-        <v>77</v>
+        <v>1687</v>
       </c>
       <c r="Q1107" t="s">
-        <v>6742</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1108" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1108" s="1" t="s">
-        <v>3347</v>
+        <v>6744</v>
       </c>
       <c r="C1108" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="D1108" s="1">
         <v>68000</v>
@@ -50706,15 +50700,15 @@
         <v>1687</v>
       </c>
       <c r="Q1108" t="s">
-        <v>6743</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="1109" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1109" s="1" t="s">
-        <v>3344</v>
+        <v>6746</v>
       </c>
       <c r="C1109" t="s">
-        <v>3345</v>
+        <v>6747</v>
       </c>
       <c r="D1109" s="1">
         <v>68000</v>
@@ -50723,15 +50717,15 @@
         <v>1687</v>
       </c>
       <c r="Q1109" t="s">
-        <v>3346</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="1110" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1110" s="1" t="s">
-        <v>6744</v>
+        <v>6749</v>
       </c>
       <c r="C1110" t="s">
-        <v>3345</v>
+        <v>6747</v>
       </c>
       <c r="D1110" s="1">
         <v>68000</v>
@@ -50740,100 +50734,109 @@
         <v>1687</v>
       </c>
       <c r="Q1110" t="s">
-        <v>6745</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="1111" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1111" s="1" t="s">
-        <v>6746</v>
+        <v>2966</v>
       </c>
       <c r="C1111" t="s">
-        <v>6747</v>
-      </c>
-      <c r="D1111" s="1">
-        <v>68000</v>
+        <v>2967</v>
+      </c>
+      <c r="D1111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>2</v>
       </c>
       <c r="L1111" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q1111" t="s">
-        <v>6748</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1112" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1112" s="1" t="s">
-        <v>6749</v>
+        <v>3349</v>
       </c>
       <c r="C1112" t="s">
-        <v>6747</v>
-      </c>
-      <c r="D1112" s="1">
-        <v>68000</v>
+        <v>3350</v>
+      </c>
+      <c r="D1112" s="1" t="s">
+        <v>951</v>
       </c>
       <c r="L1112" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q1112" t="s">
-        <v>6750</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="1113" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1113" s="1" t="s">
-        <v>2966</v>
+        <v>6765</v>
       </c>
       <c r="C1113" t="s">
-        <v>2967</v>
+        <v>3350</v>
       </c>
       <c r="D1113" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1113" t="s">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="L1113" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="Q1113" t="s">
-        <v>2968</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="1114" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1114" s="1" t="s">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="C1114" t="s">
-        <v>3350</v>
-      </c>
-      <c r="D1114" s="1" t="s">
-        <v>951</v>
+        <v>3352</v>
+      </c>
+      <c r="D1114" s="1">
+        <v>68000</v>
       </c>
       <c r="L1114" t="s">
-        <v>5070</v>
+        <v>55</v>
+      </c>
+      <c r="M1114" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1114" t="s">
-        <v>6764</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="1115" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1115" s="1" t="s">
-        <v>6765</v>
+        <v>3353</v>
       </c>
       <c r="C1115" t="s">
-        <v>3350</v>
-      </c>
-      <c r="D1115" s="1" t="s">
-        <v>951</v>
+        <v>3352</v>
+      </c>
+      <c r="D1115" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>2</v>
       </c>
       <c r="L1115" t="s">
-        <v>5070</v>
+        <v>6767</v>
+      </c>
+      <c r="M1115" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1115" t="s">
-        <v>6766</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1116" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1116" s="1" t="s">
-        <v>3351</v>
+        <v>3354</v>
       </c>
       <c r="C1116" t="s">
         <v>3352</v>
@@ -50841,68 +50844,65 @@
       <c r="D1116" s="1">
         <v>68000</v>
       </c>
+      <c r="E1116" t="s">
+        <v>2</v>
+      </c>
       <c r="L1116" t="s">
-        <v>55</v>
+        <v>6767</v>
       </c>
       <c r="M1116" t="s">
         <v>1687</v>
       </c>
       <c r="Q1116" t="s">
-        <v>4567</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="1117" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1117" s="1" t="s">
-        <v>3353</v>
+        <v>3355</v>
       </c>
       <c r="C1117" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D1117" s="1">
-        <v>68000</v>
+        <v>3356</v>
+      </c>
+      <c r="D1117" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1117" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1117" t="s">
-        <v>6767</v>
-      </c>
-      <c r="M1117" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q1117" t="s">
-        <v>4568</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="1118" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1118" s="1" t="s">
-        <v>3354</v>
+        <v>6768</v>
       </c>
       <c r="C1118" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D1118" s="1">
-        <v>68000</v>
+        <v>6769</v>
+      </c>
+      <c r="D1118" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1118" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1118" t="s">
-        <v>6767</v>
-      </c>
-      <c r="M1118" t="s">
-        <v>1687</v>
+        <v>5505</v>
       </c>
       <c r="Q1118" t="s">
-        <v>4569</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="1119" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1119" s="1" t="s">
-        <v>3355</v>
+        <v>6771</v>
       </c>
       <c r="C1119" t="s">
-        <v>3356</v>
+        <v>6769</v>
       </c>
       <c r="D1119" s="1" t="s">
         <v>2</v>
@@ -50911,15 +50911,18 @@
         <v>2426</v>
       </c>
       <c r="L1119" t="s">
-        <v>5070</v>
+        <v>5071</v>
+      </c>
+      <c r="M1119" t="s">
+        <v>55</v>
       </c>
       <c r="Q1119" t="s">
-        <v>3357</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="1120" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1120" s="1" t="s">
-        <v>6768</v>
+        <v>6773</v>
       </c>
       <c r="C1120" t="s">
         <v>6769</v>
@@ -50931,116 +50934,107 @@
         <v>2426</v>
       </c>
       <c r="L1120" t="s">
-        <v>5505</v>
+        <v>5071</v>
+      </c>
+      <c r="M1120" t="s">
+        <v>55</v>
       </c>
       <c r="Q1120" t="s">
-        <v>6770</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="1121" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1121" s="1" t="s">
-        <v>6771</v>
+        <v>3358</v>
       </c>
       <c r="C1121" t="s">
-        <v>6769</v>
-      </c>
-      <c r="D1121" s="1" t="s">
-        <v>2</v>
+        <v>6775</v>
+      </c>
+      <c r="D1121" s="1">
+        <v>68000</v>
       </c>
       <c r="E1121" t="s">
         <v>2426</v>
       </c>
+      <c r="F1121" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G1121" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1121" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M1121" t="s">
-        <v>55</v>
+        <v>4570</v>
       </c>
       <c r="Q1121" t="s">
-        <v>6772</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1122" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1122" s="1" t="s">
-        <v>6773</v>
+        <v>6776</v>
       </c>
       <c r="C1122" t="s">
-        <v>6769</v>
-      </c>
-      <c r="D1122" s="1" t="s">
-        <v>2</v>
+        <v>6775</v>
+      </c>
+      <c r="D1122" s="1">
+        <v>68000</v>
       </c>
       <c r="E1122" t="s">
         <v>2426</v>
       </c>
+      <c r="F1122" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1122" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M1122" t="s">
-        <v>55</v>
+        <v>2605</v>
       </c>
       <c r="Q1122" t="s">
-        <v>6774</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="1123" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1123" s="1" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="C1123" t="s">
-        <v>6775</v>
-      </c>
-      <c r="D1123" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1123" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1123" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G1123" t="s">
-        <v>2426</v>
+        <v>3360</v>
+      </c>
+      <c r="D1123" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1123" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1123" t="s">
-        <v>4570</v>
+        <v>5070</v>
       </c>
       <c r="Q1123" t="s">
-        <v>4571</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="1124" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1124" s="1" t="s">
-        <v>6776</v>
+        <v>3362</v>
       </c>
       <c r="C1124" t="s">
-        <v>6775</v>
-      </c>
-      <c r="D1124" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1124" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1124" t="s">
-        <v>2426</v>
+        <v>3360</v>
+      </c>
+      <c r="D1124" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1124" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1124" t="s">
-        <v>2605</v>
+        <v>5070</v>
       </c>
       <c r="Q1124" t="s">
-        <v>6777</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="1125" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1125" s="1" t="s">
-        <v>3359</v>
+        <v>6778</v>
       </c>
       <c r="C1125" t="s">
         <v>3360</v>
@@ -51052,12 +51046,12 @@
         <v>5070</v>
       </c>
       <c r="Q1125" t="s">
-        <v>3361</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="1126" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1126" s="1" t="s">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="C1126" t="s">
         <v>3360</v>
@@ -51069,12 +51063,12 @@
         <v>5070</v>
       </c>
       <c r="Q1126" t="s">
-        <v>3363</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1127" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1127" s="1" t="s">
-        <v>6778</v>
+        <v>3366</v>
       </c>
       <c r="C1127" t="s">
         <v>3360</v>
@@ -51086,135 +51080,144 @@
         <v>5070</v>
       </c>
       <c r="Q1127" t="s">
-        <v>6779</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="1128" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1128" s="1" t="s">
-        <v>3364</v>
+        <v>3377</v>
       </c>
       <c r="C1128" t="s">
-        <v>3360</v>
-      </c>
-      <c r="D1128" s="1" t="s">
-        <v>2</v>
+        <v>3369</v>
+      </c>
+      <c r="D1128" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>2426</v>
       </c>
       <c r="L1128" t="s">
-        <v>5070</v>
+        <v>5238</v>
+      </c>
+      <c r="M1128" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1128" t="s">
-        <v>3365</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="1129" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1129" s="1" t="s">
-        <v>3366</v>
+        <v>3427</v>
       </c>
       <c r="C1129" t="s">
-        <v>3360</v>
+        <v>3428</v>
       </c>
       <c r="D1129" s="1" t="s">
-        <v>2</v>
+        <v>351</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>3899</v>
       </c>
       <c r="L1129" t="s">
-        <v>5070</v>
+        <v>55</v>
       </c>
       <c r="Q1129" t="s">
-        <v>3367</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="1130" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1130" s="1" t="s">
-        <v>3377</v>
+        <v>3430</v>
       </c>
       <c r="C1130" t="s">
-        <v>3369</v>
-      </c>
-      <c r="D1130" s="1">
-        <v>68000</v>
+        <v>3428</v>
+      </c>
+      <c r="D1130" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="E1130" t="s">
-        <v>2426</v>
+        <v>3899</v>
       </c>
       <c r="L1130" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1130" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q1130" t="s">
-        <v>4574</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="1131" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1131" s="1" t="s">
-        <v>3427</v>
+        <v>6795</v>
       </c>
       <c r="C1131" t="s">
-        <v>3428</v>
-      </c>
-      <c r="D1131" s="1" t="s">
-        <v>351</v>
+        <v>6796</v>
+      </c>
+      <c r="D1131" s="1">
+        <v>68000</v>
       </c>
       <c r="E1131" t="s">
-        <v>3899</v>
+        <v>3964</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>2426</v>
       </c>
       <c r="L1131" t="s">
-        <v>55</v>
+        <v>5505</v>
       </c>
       <c r="Q1131" t="s">
-        <v>3429</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="1132" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1132" s="1" t="s">
-        <v>3430</v>
+        <v>3381</v>
       </c>
       <c r="C1132" t="s">
-        <v>3428</v>
-      </c>
-      <c r="D1132" s="1" t="s">
-        <v>351</v>
+        <v>3382</v>
+      </c>
+      <c r="D1132" s="1">
+        <v>68000</v>
       </c>
       <c r="E1132" t="s">
-        <v>3899</v>
+        <v>2426</v>
       </c>
       <c r="L1132" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q1132" t="s">
-        <v>3431</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1133" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1133" s="1" t="s">
-        <v>6795</v>
+        <v>3384</v>
       </c>
       <c r="C1133" t="s">
-        <v>6796</v>
+        <v>3385</v>
       </c>
       <c r="D1133" s="1">
         <v>68000</v>
       </c>
       <c r="E1133" t="s">
-        <v>3964</v>
-      </c>
-      <c r="F1133" t="s">
         <v>2426</v>
       </c>
       <c r="L1133" t="s">
-        <v>5505</v>
+        <v>5071</v>
+      </c>
+      <c r="M1133" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1133" t="s">
-        <v>6797</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1134" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1134" s="1" t="s">
-        <v>3381</v>
+        <v>3386</v>
       </c>
       <c r="C1134" t="s">
-        <v>3382</v>
+        <v>3385</v>
       </c>
       <c r="D1134" s="1">
         <v>68000</v>
@@ -51223,61 +51226,52 @@
         <v>2426</v>
       </c>
       <c r="L1134" t="s">
+        <v>5071</v>
+      </c>
+      <c r="M1134" t="s">
         <v>1687</v>
       </c>
       <c r="Q1134" t="s">
-        <v>3383</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1135" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1135" s="1" t="s">
-        <v>3384</v>
+        <v>3387</v>
       </c>
       <c r="C1135" t="s">
-        <v>3385</v>
+        <v>3319</v>
       </c>
       <c r="D1135" s="1">
         <v>68000</v>
       </c>
-      <c r="E1135" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1135" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1135" t="s">
         <v>1687</v>
       </c>
       <c r="Q1135" t="s">
-        <v>4575</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1136" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1136" s="1" t="s">
-        <v>3386</v>
+        <v>3389</v>
       </c>
       <c r="C1136" t="s">
-        <v>3385</v>
+        <v>3319</v>
       </c>
       <c r="D1136" s="1">
         <v>68000</v>
       </c>
-      <c r="E1136" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1136" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1136" t="s">
         <v>1687</v>
       </c>
       <c r="Q1136" t="s">
-        <v>4576</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="1137" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1137" s="1" t="s">
-        <v>3387</v>
+        <v>3391</v>
       </c>
       <c r="C1137" t="s">
         <v>3319</v>
@@ -51289,15 +51283,15 @@
         <v>1687</v>
       </c>
       <c r="Q1137" t="s">
-        <v>3388</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1138" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1138" s="1" t="s">
-        <v>3389</v>
+        <v>3393</v>
       </c>
       <c r="C1138" t="s">
-        <v>3319</v>
+        <v>3394</v>
       </c>
       <c r="D1138" s="1">
         <v>68000</v>
@@ -51306,15 +51300,15 @@
         <v>1687</v>
       </c>
       <c r="Q1138" t="s">
-        <v>3390</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="1139" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1139" s="1" t="s">
-        <v>3391</v>
+        <v>3396</v>
       </c>
       <c r="C1139" t="s">
-        <v>3319</v>
+        <v>3394</v>
       </c>
       <c r="D1139" s="1">
         <v>68000</v>
@@ -51323,46 +51317,52 @@
         <v>1687</v>
       </c>
       <c r="Q1139" t="s">
-        <v>3392</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="1140" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1140" s="1" t="s">
-        <v>3393</v>
+        <v>3398</v>
       </c>
       <c r="C1140" t="s">
-        <v>3394</v>
-      </c>
-      <c r="D1140" s="1">
-        <v>68000</v>
+        <v>3399</v>
+      </c>
+      <c r="D1140" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1140" t="s">
-        <v>1687</v>
+        <v>1155</v>
+      </c>
+      <c r="M1140" t="s">
+        <v>352</v>
       </c>
       <c r="Q1140" t="s">
-        <v>3395</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1141" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1141" s="1" t="s">
-        <v>3396</v>
+        <v>3400</v>
       </c>
       <c r="C1141" t="s">
-        <v>3394</v>
-      </c>
-      <c r="D1141" s="1">
-        <v>68000</v>
+        <v>3399</v>
+      </c>
+      <c r="D1141" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1141" t="s">
-        <v>1687</v>
+        <v>1155</v>
+      </c>
+      <c r="M1141" t="s">
+        <v>352</v>
       </c>
       <c r="Q1141" t="s">
-        <v>3397</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="1142" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1142" s="1" t="s">
-        <v>3398</v>
+        <v>3401</v>
       </c>
       <c r="C1142" t="s">
         <v>3399</v>
@@ -51377,12 +51377,12 @@
         <v>352</v>
       </c>
       <c r="Q1142" t="s">
-        <v>4577</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1143" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1143" s="1" t="s">
-        <v>3400</v>
+        <v>6798</v>
       </c>
       <c r="C1143" t="s">
         <v>3399</v>
@@ -51397,15 +51397,15 @@
         <v>352</v>
       </c>
       <c r="Q1143" t="s">
-        <v>4578</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="1144" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1144" s="1" t="s">
-        <v>3401</v>
+        <v>6803</v>
       </c>
       <c r="C1144" t="s">
-        <v>3399</v>
+        <v>6804</v>
       </c>
       <c r="D1144" s="1" t="s">
         <v>2</v>
@@ -51413,19 +51413,16 @@
       <c r="L1144" t="s">
         <v>1155</v>
       </c>
-      <c r="M1144" t="s">
-        <v>352</v>
-      </c>
       <c r="Q1144" t="s">
-        <v>4579</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="1145" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1145" s="1" t="s">
-        <v>6798</v>
+        <v>6806</v>
       </c>
       <c r="C1145" t="s">
-        <v>3399</v>
+        <v>6804</v>
       </c>
       <c r="D1145" s="1" t="s">
         <v>2</v>
@@ -51433,50 +51430,41 @@
       <c r="L1145" t="s">
         <v>1155</v>
       </c>
-      <c r="M1145" t="s">
-        <v>352</v>
-      </c>
       <c r="Q1145" t="s">
-        <v>6799</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="1146" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1146" s="1" t="s">
-        <v>6803</v>
+        <v>6808</v>
       </c>
       <c r="C1146" t="s">
-        <v>6804</v>
-      </c>
-      <c r="D1146" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1146" t="s">
-        <v>1155</v>
+        <v>6809</v>
+      </c>
+      <c r="D1146" s="1">
+        <v>68000</v>
       </c>
       <c r="Q1146" t="s">
-        <v>6805</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="1147" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1147" s="1" t="s">
-        <v>6806</v>
+        <v>6811</v>
       </c>
       <c r="C1147" t="s">
-        <v>6804</v>
-      </c>
-      <c r="D1147" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1147" t="s">
-        <v>1155</v>
+        <v>6809</v>
+      </c>
+      <c r="D1147" s="1">
+        <v>68000</v>
       </c>
       <c r="Q1147" t="s">
-        <v>6807</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="1148" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1148" s="1" t="s">
-        <v>6808</v>
+        <v>6813</v>
       </c>
       <c r="C1148" t="s">
         <v>6809</v>
@@ -51485,12 +51473,12 @@
         <v>68000</v>
       </c>
       <c r="Q1148" t="s">
-        <v>6810</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="1149" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1149" s="1" t="s">
-        <v>6811</v>
+        <v>6815</v>
       </c>
       <c r="C1149" t="s">
         <v>6809</v>
@@ -51499,12 +51487,12 @@
         <v>68000</v>
       </c>
       <c r="Q1149" t="s">
-        <v>6812</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="1150" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1150" s="1" t="s">
-        <v>6813</v>
+        <v>6817</v>
       </c>
       <c r="C1150" t="s">
         <v>6809</v>
@@ -51513,12 +51501,12 @@
         <v>68000</v>
       </c>
       <c r="Q1150" t="s">
-        <v>6814</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="1151" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1151" s="1" t="s">
-        <v>6815</v>
+        <v>6819</v>
       </c>
       <c r="C1151" t="s">
         <v>6809</v>
@@ -51527,12 +51515,12 @@
         <v>68000</v>
       </c>
       <c r="Q1151" t="s">
-        <v>6816</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="1152" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1152" s="1" t="s">
-        <v>6817</v>
+        <v>6821</v>
       </c>
       <c r="C1152" t="s">
         <v>6809</v>
@@ -51541,12 +51529,12 @@
         <v>68000</v>
       </c>
       <c r="Q1152" t="s">
-        <v>6818</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="1153" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1153" s="1" t="s">
-        <v>6819</v>
+        <v>6823</v>
       </c>
       <c r="C1153" t="s">
         <v>6809</v>
@@ -51555,12 +51543,12 @@
         <v>68000</v>
       </c>
       <c r="Q1153" t="s">
-        <v>6820</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="1154" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1154" s="1" t="s">
-        <v>6821</v>
+        <v>6825</v>
       </c>
       <c r="C1154" t="s">
         <v>6809</v>
@@ -51569,12 +51557,12 @@
         <v>68000</v>
       </c>
       <c r="Q1154" t="s">
-        <v>6822</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="1155" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1155" s="1" t="s">
-        <v>6823</v>
+        <v>6827</v>
       </c>
       <c r="C1155" t="s">
         <v>6809</v>
@@ -51583,12 +51571,12 @@
         <v>68000</v>
       </c>
       <c r="Q1155" t="s">
-        <v>6824</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="1156" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1156" s="1" t="s">
-        <v>6825</v>
+        <v>6829</v>
       </c>
       <c r="C1156" t="s">
         <v>6809</v>
@@ -51597,12 +51585,12 @@
         <v>68000</v>
       </c>
       <c r="Q1156" t="s">
-        <v>6826</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="1157" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1157" s="1" t="s">
-        <v>6827</v>
+        <v>6831</v>
       </c>
       <c r="C1157" t="s">
         <v>6809</v>
@@ -51611,12 +51599,12 @@
         <v>68000</v>
       </c>
       <c r="Q1157" t="s">
-        <v>6828</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="1158" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1158" s="1" t="s">
-        <v>6829</v>
+        <v>6833</v>
       </c>
       <c r="C1158" t="s">
         <v>6809</v>
@@ -51624,13 +51612,19 @@
       <c r="D1158" s="1">
         <v>68000</v>
       </c>
+      <c r="L1158" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1158" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1158" t="s">
-        <v>6830</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="1159" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1159" s="1" t="s">
-        <v>6831</v>
+        <v>6835</v>
       </c>
       <c r="C1159" t="s">
         <v>6809</v>
@@ -51638,13 +51632,19 @@
       <c r="D1159" s="1">
         <v>68000</v>
       </c>
+      <c r="L1159" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1159" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1159" t="s">
-        <v>6832</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="1160" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1160" s="1" t="s">
-        <v>6833</v>
+        <v>6837</v>
       </c>
       <c r="C1160" t="s">
         <v>6809</v>
@@ -51652,19 +51652,13 @@
       <c r="D1160" s="1">
         <v>68000</v>
       </c>
-      <c r="L1160" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M1160" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q1160" t="s">
-        <v>6834</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="1161" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1161" s="1" t="s">
-        <v>6835</v>
+        <v>6839</v>
       </c>
       <c r="C1161" t="s">
         <v>6809</v>
@@ -51672,19 +51666,13 @@
       <c r="D1161" s="1">
         <v>68000</v>
       </c>
-      <c r="L1161" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M1161" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q1161" t="s">
-        <v>6836</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="1162" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1162" s="1" t="s">
-        <v>6837</v>
+        <v>6841</v>
       </c>
       <c r="C1162" t="s">
         <v>6809</v>
@@ -51693,12 +51681,12 @@
         <v>68000</v>
       </c>
       <c r="Q1162" t="s">
-        <v>6838</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="1163" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1163" s="1" t="s">
-        <v>6839</v>
+        <v>6843</v>
       </c>
       <c r="C1163" t="s">
         <v>6809</v>
@@ -51706,13 +51694,19 @@
       <c r="D1163" s="1">
         <v>68000</v>
       </c>
+      <c r="L1163" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1163" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1163" t="s">
-        <v>6840</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="1164" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1164" s="1" t="s">
-        <v>6841</v>
+        <v>6845</v>
       </c>
       <c r="C1164" t="s">
         <v>6809</v>
@@ -51721,12 +51715,12 @@
         <v>68000</v>
       </c>
       <c r="Q1164" t="s">
-        <v>6842</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="1165" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1165" s="1" t="s">
-        <v>6843</v>
+        <v>6847</v>
       </c>
       <c r="C1165" t="s">
         <v>6809</v>
@@ -51741,12 +51735,12 @@
         <v>6093</v>
       </c>
       <c r="Q1165" t="s">
-        <v>6844</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="1166" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1166" s="1" t="s">
-        <v>6845</v>
+        <v>6849</v>
       </c>
       <c r="C1166" t="s">
         <v>6809</v>
@@ -51754,13 +51748,19 @@
       <c r="D1166" s="1">
         <v>68000</v>
       </c>
+      <c r="L1166" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1166" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1166" t="s">
-        <v>6846</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="1167" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1167" s="1" t="s">
-        <v>6847</v>
+        <v>6851</v>
       </c>
       <c r="C1167" t="s">
         <v>6809</v>
@@ -51768,53 +51768,53 @@
       <c r="D1167" s="1">
         <v>68000</v>
       </c>
-      <c r="L1167" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M1167" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q1167" t="s">
-        <v>6848</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="1168" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1168" s="1" t="s">
-        <v>6849</v>
+        <v>6853</v>
       </c>
       <c r="C1168" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D1168" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D1168" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>3794</v>
       </c>
       <c r="L1168" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M1168" t="s">
-        <v>6093</v>
+        <v>1900</v>
       </c>
       <c r="Q1168" t="s">
-        <v>6850</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="1169" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1169" s="1" t="s">
-        <v>6851</v>
+        <v>6856</v>
       </c>
       <c r="C1169" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D1169" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D1169" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L1169" t="s">
+        <v>1900</v>
       </c>
       <c r="Q1169" t="s">
-        <v>6852</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="1170" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1170" s="1" t="s">
-        <v>6853</v>
+        <v>3468</v>
       </c>
       <c r="C1170" t="s">
         <v>6854</v>
@@ -51829,52 +51829,76 @@
         <v>1900</v>
       </c>
       <c r="Q1170" t="s">
-        <v>6855</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="1171" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1171" s="1" t="s">
-        <v>6856</v>
+        <v>6858</v>
       </c>
       <c r="C1171" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D1171" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E1171" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>6862</v>
       </c>
       <c r="L1171" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M1171" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N1171" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O1171" t="s">
+        <v>6866</v>
       </c>
       <c r="Q1171" t="s">
-        <v>6857</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="1172" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1172" s="1" t="s">
-        <v>3468</v>
+        <v>6868</v>
       </c>
       <c r="C1172" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D1172" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E1172" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>6862</v>
       </c>
       <c r="L1172" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M1172" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N1172" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O1172" t="s">
+        <v>6866</v>
       </c>
       <c r="Q1172" t="s">
-        <v>3470</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="1173" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1173" s="1" t="s">
-        <v>6858</v>
+        <v>6870</v>
       </c>
       <c r="C1173" t="s">
         <v>6859</v>
@@ -51901,82 +51925,64 @@
         <v>6866</v>
       </c>
       <c r="Q1173" t="s">
-        <v>6867</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="1174" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1174" s="1" t="s">
-        <v>6868</v>
+        <v>6872</v>
       </c>
       <c r="C1174" t="s">
-        <v>6859</v>
+        <v>6873</v>
       </c>
       <c r="D1174" s="1" t="s">
-        <v>6860</v>
+        <v>2</v>
       </c>
       <c r="E1174" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F1174" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L1174" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M1174" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N1174" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O1174" t="s">
-        <v>6866</v>
+        <v>3974</v>
       </c>
       <c r="Q1174" t="s">
-        <v>6869</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="1175" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1175" s="1" t="s">
-        <v>6870</v>
+        <v>3490</v>
       </c>
       <c r="C1175" t="s">
-        <v>6859</v>
+        <v>6873</v>
       </c>
       <c r="D1175" s="1" t="s">
-        <v>6860</v>
+        <v>2</v>
       </c>
       <c r="E1175" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F1175" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L1175" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M1175" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N1175" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O1175" t="s">
-        <v>6866</v>
+        <v>3974</v>
       </c>
       <c r="Q1175" t="s">
-        <v>6871</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="1176" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1176" s="1" t="s">
-        <v>6872</v>
+        <v>6876</v>
       </c>
       <c r="C1176" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D1176" s="1" t="s">
-        <v>2</v>
+        <v>6877</v>
+      </c>
+      <c r="D1176" s="1">
+        <v>68000</v>
       </c>
       <c r="E1176" t="s">
         <v>2426</v>
@@ -51985,41 +51991,35 @@
         <v>5071</v>
       </c>
       <c r="M1176" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q1176" t="s">
-        <v>6874</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="1177" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1177" s="1" t="s">
-        <v>3490</v>
+        <v>6879</v>
       </c>
       <c r="C1177" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D1177" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1177" t="s">
-        <v>2426</v>
+        <v>6877</v>
+      </c>
+      <c r="D1177" s="1">
+        <v>68000</v>
       </c>
       <c r="L1177" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1177" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q1177" t="s">
-        <v>6875</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="1178" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1178" s="1" t="s">
-        <v>6876</v>
+        <v>6881</v>
       </c>
       <c r="C1178" t="s">
-        <v>6877</v>
+        <v>6882</v>
       </c>
       <c r="D1178" s="1">
         <v>68000</v>
@@ -52028,35 +52028,47 @@
         <v>2426</v>
       </c>
       <c r="L1178" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M1178" t="s">
         <v>5071</v>
       </c>
-      <c r="M1178" t="s">
+      <c r="N1178" t="s">
         <v>1687</v>
       </c>
       <c r="Q1178" t="s">
-        <v>6878</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="1179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1179" s="1" t="s">
-        <v>6879</v>
+        <v>6884</v>
       </c>
       <c r="C1179" t="s">
-        <v>6877</v>
+        <v>6882</v>
       </c>
       <c r="D1179" s="1">
         <v>68000</v>
       </c>
+      <c r="E1179" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1179" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M1179" t="s">
+        <v>5071</v>
+      </c>
+      <c r="N1179" t="s">
         <v>1687</v>
       </c>
       <c r="Q1179" t="s">
-        <v>6880</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="1180" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1180" s="1" t="s">
-        <v>6881</v>
+        <v>6886</v>
       </c>
       <c r="C1180" t="s">
         <v>6882</v>
@@ -52077,107 +52089,101 @@
         <v>1687</v>
       </c>
       <c r="Q1180" t="s">
-        <v>6883</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="1181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1181" s="1" t="s">
-        <v>6884</v>
+        <v>6888</v>
       </c>
       <c r="C1181" t="s">
-        <v>6882</v>
+        <v>6889</v>
       </c>
       <c r="D1181" s="1">
         <v>68000</v>
       </c>
-      <c r="E1181" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1181" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M1181" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N1181" t="s">
         <v>1687</v>
       </c>
       <c r="Q1181" t="s">
-        <v>6885</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="1182" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1182" s="1" t="s">
-        <v>6886</v>
+        <v>6891</v>
       </c>
       <c r="C1182" t="s">
-        <v>6882</v>
+        <v>6889</v>
       </c>
       <c r="D1182" s="1">
         <v>68000</v>
       </c>
-      <c r="E1182" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1182" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M1182" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N1182" t="s">
         <v>1687</v>
       </c>
       <c r="Q1182" t="s">
-        <v>6887</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="1183" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1183" s="1" t="s">
-        <v>6888</v>
+        <v>6893</v>
       </c>
       <c r="C1183" t="s">
-        <v>6889</v>
+        <v>6894</v>
       </c>
       <c r="D1183" s="1">
         <v>68000</v>
       </c>
+      <c r="E1183" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1183" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M1183" t="s">
         <v>1687</v>
       </c>
       <c r="Q1183" t="s">
-        <v>6890</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="1184" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1184" s="1" t="s">
-        <v>6891</v>
+        <v>6896</v>
       </c>
       <c r="C1184" t="s">
-        <v>6889</v>
+        <v>6894</v>
       </c>
       <c r="D1184" s="1">
         <v>68000</v>
       </c>
+      <c r="E1184" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1184" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M1184" t="s">
         <v>1687</v>
       </c>
       <c r="Q1184" t="s">
-        <v>6892</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="1185" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1185" s="1" t="s">
-        <v>6893</v>
+        <v>6898</v>
       </c>
       <c r="C1185" t="s">
-        <v>6894</v>
+        <v>6899</v>
       </c>
       <c r="D1185" s="1">
         <v>68000</v>
@@ -52186,309 +52192,300 @@
         <v>2426</v>
       </c>
       <c r="L1185" t="s">
-        <v>5238</v>
+        <v>5071</v>
       </c>
       <c r="M1185" t="s">
         <v>1687</v>
       </c>
       <c r="Q1185" t="s">
-        <v>6895</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="1186" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1186" s="1" t="s">
-        <v>6896</v>
+        <v>3439</v>
       </c>
       <c r="C1186" t="s">
-        <v>6894</v>
-      </c>
-      <c r="D1186" s="1">
-        <v>68000</v>
+        <v>3440</v>
+      </c>
+      <c r="D1186" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E1186" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L1186" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1186" t="s">
-        <v>1687</v>
+        <v>3888</v>
       </c>
       <c r="Q1186" t="s">
-        <v>6897</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="1187" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1187" s="1" t="s">
-        <v>6898</v>
+        <v>3442</v>
       </c>
       <c r="C1187" t="s">
-        <v>6899</v>
-      </c>
-      <c r="D1187" s="1">
-        <v>68000</v>
+        <v>3440</v>
+      </c>
+      <c r="D1187" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E1187" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L1187" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1187" t="s">
-        <v>1687</v>
+        <v>3888</v>
       </c>
       <c r="Q1187" t="s">
-        <v>6900</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="1188" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1188" s="1" t="s">
-        <v>3439</v>
+        <v>3419</v>
       </c>
       <c r="C1188" t="s">
-        <v>3440</v>
+        <v>3420</v>
       </c>
       <c r="D1188" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E1188" t="s">
-        <v>3888</v>
+        <v>2426</v>
+      </c>
+      <c r="L1188" t="s">
+        <v>1155</v>
       </c>
       <c r="Q1188" t="s">
-        <v>3441</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="1189" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1189" s="1" t="s">
-        <v>3442</v>
+        <v>3422</v>
       </c>
       <c r="C1189" t="s">
-        <v>3440</v>
+        <v>3423</v>
       </c>
       <c r="D1189" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E1189" t="s">
-        <v>3888</v>
+        <v>2</v>
+      </c>
+      <c r="L1189" t="s">
+        <v>1155</v>
       </c>
       <c r="Q1189" t="s">
-        <v>3443</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1190" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1190" s="1" t="s">
-        <v>3419</v>
+        <v>3425</v>
       </c>
       <c r="C1190" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="D1190" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1190" t="s">
-        <v>2426</v>
       </c>
       <c r="L1190" t="s">
         <v>1155</v>
       </c>
       <c r="Q1190" t="s">
-        <v>3421</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="1191" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1191" s="1" t="s">
-        <v>3422</v>
+        <v>3444</v>
       </c>
       <c r="C1191" t="s">
-        <v>3423</v>
-      </c>
-      <c r="D1191" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1191" t="s">
-        <v>1155</v>
+        <v>3445</v>
+      </c>
+      <c r="D1191" s="1">
+        <v>8080</v>
       </c>
       <c r="Q1191" t="s">
-        <v>3424</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1192" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1192" s="1" t="s">
-        <v>3425</v>
+        <v>3447</v>
       </c>
       <c r="C1192" t="s">
-        <v>3423</v>
+        <v>3448</v>
       </c>
       <c r="D1192" s="1" t="s">
-        <v>2</v>
+        <v>3006</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G1192" t="s">
+        <v>3899</v>
       </c>
       <c r="L1192" t="s">
-        <v>1155</v>
+        <v>2605</v>
+      </c>
+      <c r="M1192" t="s">
+        <v>5238</v>
       </c>
       <c r="Q1192" t="s">
-        <v>3426</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1193" s="1" t="s">
-        <v>3444</v>
+        <v>3463</v>
       </c>
       <c r="C1193" t="s">
-        <v>3445</v>
+        <v>3464</v>
       </c>
       <c r="D1193" s="1">
         <v>8080</v>
       </c>
+      <c r="L1193" t="s">
+        <v>352</v>
+      </c>
       <c r="Q1193" t="s">
-        <v>3446</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1194" s="1" t="s">
-        <v>3447</v>
+        <v>3466</v>
       </c>
       <c r="C1194" t="s">
-        <v>3448</v>
+        <v>3356</v>
       </c>
       <c r="D1194" s="1" t="s">
-        <v>3006</v>
+        <v>2</v>
       </c>
       <c r="E1194" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F1194" t="s">
-        <v>3899</v>
-      </c>
-      <c r="G1194" t="s">
-        <v>3899</v>
+        <v>2426</v>
       </c>
       <c r="L1194" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M1194" t="s">
-        <v>5238</v>
+        <v>5070</v>
       </c>
       <c r="Q1194" t="s">
-        <v>4581</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1195" s="1" t="s">
-        <v>3463</v>
+        <v>3471</v>
       </c>
       <c r="C1195" t="s">
-        <v>3464</v>
+        <v>3472</v>
       </c>
       <c r="D1195" s="1">
-        <v>8080</v>
+        <v>68000</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>2426</v>
       </c>
       <c r="L1195" t="s">
-        <v>352</v>
+        <v>3954</v>
       </c>
       <c r="Q1195" t="s">
-        <v>3465</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="1196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1196" s="1" t="s">
-        <v>3466</v>
+        <v>6912</v>
       </c>
       <c r="C1196" t="s">
-        <v>3356</v>
+        <v>3478</v>
       </c>
       <c r="D1196" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1196" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1196" t="s">
-        <v>5070</v>
+        <v>352</v>
       </c>
       <c r="Q1196" t="s">
-        <v>3467</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="1197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1197" s="1" t="s">
-        <v>3471</v>
+        <v>3477</v>
       </c>
       <c r="C1197" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D1197" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1197" t="s">
-        <v>2426</v>
+        <v>3478</v>
+      </c>
+      <c r="D1197" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1197" t="s">
-        <v>3954</v>
+        <v>352</v>
       </c>
       <c r="Q1197" t="s">
-        <v>3473</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1198" s="1" t="s">
-        <v>6912</v>
+        <v>6914</v>
       </c>
       <c r="C1198" t="s">
-        <v>3478</v>
+        <v>6915</v>
       </c>
       <c r="D1198" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1198" t="s">
+        <v>2</v>
+      </c>
       <c r="L1198" t="s">
-        <v>352</v>
+        <v>5238</v>
       </c>
       <c r="Q1198" t="s">
-        <v>6913</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="1199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1199" s="1" t="s">
-        <v>3477</v>
+        <v>6917</v>
       </c>
       <c r="C1199" t="s">
-        <v>3478</v>
+        <v>6915</v>
       </c>
       <c r="D1199" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1199" t="s">
+        <v>2</v>
+      </c>
       <c r="L1199" t="s">
-        <v>352</v>
+        <v>5238</v>
       </c>
       <c r="Q1199" t="s">
-        <v>4586</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="1200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1200" s="1" t="s">
-        <v>6914</v>
+        <v>6919</v>
       </c>
       <c r="C1200" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D1200" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1200" t="s">
-        <v>2</v>
-      </c>
       <c r="L1200" t="s">
-        <v>5238</v>
+        <v>55</v>
       </c>
       <c r="Q1200" t="s">
-        <v>6916</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="1201" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1201" s="1" t="s">
-        <v>6917</v>
+        <v>6922</v>
       </c>
       <c r="C1201" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D1201" s="1" t="s">
         <v>2</v>
@@ -52496,16 +52493,22 @@
       <c r="E1201" t="s">
         <v>2</v>
       </c>
+      <c r="F1201" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1201" t="s">
-        <v>5238</v>
+        <v>542</v>
+      </c>
+      <c r="M1201" t="s">
+        <v>55</v>
       </c>
       <c r="Q1201" t="s">
-        <v>6918</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="1202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1202" s="1" t="s">
-        <v>6919</v>
+        <v>6924</v>
       </c>
       <c r="C1202" t="s">
         <v>6920</v>
@@ -52513,85 +52516,82 @@
       <c r="D1202" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1202" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1202" t="s">
+        <v>542</v>
+      </c>
+      <c r="M1202" t="s">
         <v>55</v>
       </c>
       <c r="Q1202" t="s">
-        <v>6921</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="1203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1203" s="1" t="s">
-        <v>6922</v>
+        <v>6926</v>
       </c>
       <c r="C1203" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1203" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1203" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1203" t="s">
-        <v>2426</v>
+        <v>6927</v>
+      </c>
+      <c r="D1203" s="1">
+        <v>68000</v>
       </c>
       <c r="L1203" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1203" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q1203" t="s">
-        <v>6923</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="1204" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1204" s="1" t="s">
-        <v>6924</v>
+        <v>3494</v>
       </c>
       <c r="C1204" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1204" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D1204" s="1">
+        <v>68000</v>
       </c>
       <c r="E1204" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1204" t="s">
         <v>2426</v>
       </c>
       <c r="L1204" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1204" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q1204" t="s">
-        <v>6925</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="1205" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1205" s="1" t="s">
-        <v>6926</v>
+        <v>3497</v>
       </c>
       <c r="C1205" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D1205" s="1">
         <v>68000</v>
       </c>
+      <c r="E1205" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1205" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q1205" t="s">
-        <v>6928</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1206" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1206" s="1" t="s">
-        <v>3494</v>
+        <v>3498</v>
       </c>
       <c r="C1206" t="s">
         <v>3495</v>
@@ -52606,12 +52606,12 @@
         <v>5549</v>
       </c>
       <c r="Q1206" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1207" s="1" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="C1207" t="s">
         <v>3495</v>
@@ -52626,12 +52626,12 @@
         <v>5549</v>
       </c>
       <c r="Q1207" t="s">
-        <v>4587</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1208" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1208" s="1" t="s">
-        <v>3498</v>
+        <v>3502</v>
       </c>
       <c r="C1208" t="s">
         <v>3495</v>
@@ -52646,12 +52646,12 @@
         <v>5549</v>
       </c>
       <c r="Q1208" t="s">
-        <v>3499</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1209" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1209" s="1" t="s">
-        <v>3500</v>
+        <v>3504</v>
       </c>
       <c r="C1209" t="s">
         <v>3495</v>
@@ -52666,12 +52666,12 @@
         <v>5549</v>
       </c>
       <c r="Q1209" t="s">
-        <v>3501</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1210" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1210" s="1" t="s">
-        <v>3502</v>
+        <v>3506</v>
       </c>
       <c r="C1210" t="s">
         <v>3495</v>
@@ -52686,12 +52686,12 @@
         <v>5549</v>
       </c>
       <c r="Q1210" t="s">
-        <v>3503</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="1211" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1211" s="1" t="s">
-        <v>3504</v>
+        <v>6930</v>
       </c>
       <c r="C1211" t="s">
         <v>3495</v>
@@ -52706,12 +52706,12 @@
         <v>5549</v>
       </c>
       <c r="Q1211" t="s">
-        <v>3505</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="1212" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1212" s="1" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="C1212" t="s">
         <v>3495</v>
@@ -52726,12 +52726,12 @@
         <v>5549</v>
       </c>
       <c r="Q1212" t="s">
-        <v>6929</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="1213" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1213" s="1" t="s">
-        <v>6930</v>
+        <v>3508</v>
       </c>
       <c r="C1213" t="s">
         <v>3495</v>
@@ -52746,12 +52746,12 @@
         <v>5549</v>
       </c>
       <c r="Q1213" t="s">
-        <v>6931</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1214" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1214" s="1" t="s">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="C1214" t="s">
         <v>3495</v>
@@ -52766,12 +52766,12 @@
         <v>5549</v>
       </c>
       <c r="Q1214" t="s">
-        <v>4952</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1215" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1215" s="1" t="s">
-        <v>3508</v>
+        <v>3512</v>
       </c>
       <c r="C1215" t="s">
         <v>3495</v>
@@ -52786,12 +52786,12 @@
         <v>5549</v>
       </c>
       <c r="Q1215" t="s">
-        <v>3509</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1216" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1216" s="1" t="s">
-        <v>3510</v>
+        <v>3514</v>
       </c>
       <c r="C1216" t="s">
         <v>3495</v>
@@ -52806,12 +52806,12 @@
         <v>5549</v>
       </c>
       <c r="Q1216" t="s">
-        <v>3511</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1217" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1217" s="1" t="s">
-        <v>3512</v>
+        <v>3516</v>
       </c>
       <c r="C1217" t="s">
         <v>3495</v>
@@ -52826,12 +52826,12 @@
         <v>5549</v>
       </c>
       <c r="Q1217" t="s">
-        <v>3513</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1218" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1218" s="1" t="s">
-        <v>3514</v>
+        <v>3518</v>
       </c>
       <c r="C1218" t="s">
         <v>3495</v>
@@ -52846,12 +52846,12 @@
         <v>5549</v>
       </c>
       <c r="Q1218" t="s">
-        <v>3515</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1219" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1219" s="1" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="C1219" t="s">
         <v>3495</v>
@@ -52866,12 +52866,12 @@
         <v>5549</v>
       </c>
       <c r="Q1219" t="s">
-        <v>3517</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="1220" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1220" s="1" t="s">
-        <v>3518</v>
+        <v>3520</v>
       </c>
       <c r="C1220" t="s">
         <v>3495</v>
@@ -52886,12 +52886,12 @@
         <v>5549</v>
       </c>
       <c r="Q1220" t="s">
-        <v>4953</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1221" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1221" s="1" t="s">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="C1221" t="s">
         <v>3495</v>
@@ -52906,12 +52906,12 @@
         <v>5549</v>
       </c>
       <c r="Q1221" t="s">
-        <v>4954</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1222" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1222" s="1" t="s">
-        <v>3520</v>
+        <v>3524</v>
       </c>
       <c r="C1222" t="s">
         <v>3495</v>
@@ -52926,12 +52926,12 @@
         <v>5549</v>
       </c>
       <c r="Q1222" t="s">
-        <v>3521</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1223" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1223" s="1" t="s">
-        <v>3522</v>
+        <v>3526</v>
       </c>
       <c r="C1223" t="s">
         <v>3495</v>
@@ -52946,12 +52946,12 @@
         <v>5549</v>
       </c>
       <c r="Q1223" t="s">
-        <v>3523</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1224" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1224" s="1" t="s">
-        <v>3524</v>
+        <v>3528</v>
       </c>
       <c r="C1224" t="s">
         <v>3495</v>
@@ -52966,12 +52966,12 @@
         <v>5549</v>
       </c>
       <c r="Q1224" t="s">
-        <v>3525</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1225" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1225" s="1" t="s">
-        <v>3526</v>
+        <v>3530</v>
       </c>
       <c r="C1225" t="s">
         <v>3495</v>
@@ -52986,12 +52986,12 @@
         <v>5549</v>
       </c>
       <c r="Q1225" t="s">
-        <v>3527</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1226" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1226" s="1" t="s">
-        <v>3528</v>
+        <v>3532</v>
       </c>
       <c r="C1226" t="s">
         <v>3495</v>
@@ -53006,12 +53006,12 @@
         <v>5549</v>
       </c>
       <c r="Q1226" t="s">
-        <v>3529</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1227" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1227" s="1" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="C1227" t="s">
         <v>3495</v>
@@ -53026,12 +53026,12 @@
         <v>5549</v>
       </c>
       <c r="Q1227" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1228" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1228" s="1" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="C1228" t="s">
         <v>3495</v>
@@ -53046,12 +53046,12 @@
         <v>5549</v>
       </c>
       <c r="Q1228" t="s">
-        <v>4955</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1229" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1229" s="1" t="s">
-        <v>3533</v>
+        <v>3537</v>
       </c>
       <c r="C1229" t="s">
         <v>3495</v>
@@ -53066,12 +53066,12 @@
         <v>5549</v>
       </c>
       <c r="Q1229" t="s">
-        <v>3534</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1230" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1230" s="1" t="s">
-        <v>3535</v>
+        <v>3539</v>
       </c>
       <c r="C1230" t="s">
         <v>3495</v>
@@ -53086,12 +53086,12 @@
         <v>5549</v>
       </c>
       <c r="Q1230" t="s">
-        <v>3536</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="1231" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1231" s="1" t="s">
-        <v>3537</v>
+        <v>3540</v>
       </c>
       <c r="C1231" t="s">
         <v>3495</v>
@@ -53106,12 +53106,12 @@
         <v>5549</v>
       </c>
       <c r="Q1231" t="s">
-        <v>3538</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1232" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1232" s="1" t="s">
-        <v>3539</v>
+        <v>3541</v>
       </c>
       <c r="C1232" t="s">
         <v>3495</v>
@@ -53126,12 +53126,12 @@
         <v>5549</v>
       </c>
       <c r="Q1232" t="s">
-        <v>4956</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1233" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1233" s="1" t="s">
-        <v>3540</v>
+        <v>3542</v>
       </c>
       <c r="C1233" t="s">
         <v>3495</v>
@@ -53146,12 +53146,12 @@
         <v>5549</v>
       </c>
       <c r="Q1233" t="s">
-        <v>4588</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1234" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1234" s="1" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="C1234" t="s">
         <v>3495</v>
@@ -53166,12 +53166,12 @@
         <v>5549</v>
       </c>
       <c r="Q1234" t="s">
-        <v>4589</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1235" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1235" s="1" t="s">
-        <v>3542</v>
+        <v>3546</v>
       </c>
       <c r="C1235" t="s">
         <v>3495</v>
@@ -53186,12 +53186,12 @@
         <v>5549</v>
       </c>
       <c r="Q1235" t="s">
-        <v>3543</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1236" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1236" s="1" t="s">
-        <v>3544</v>
+        <v>3547</v>
       </c>
       <c r="C1236" t="s">
         <v>3495</v>
@@ -53206,12 +53206,12 @@
         <v>5549</v>
       </c>
       <c r="Q1236" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="1237" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1237" s="1" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
       <c r="C1237" t="s">
         <v>3495</v>
@@ -53226,12 +53226,12 @@
         <v>5549</v>
       </c>
       <c r="Q1237" t="s">
-        <v>4957</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1238" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1238" s="1" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="C1238" t="s">
         <v>3495</v>
@@ -53246,12 +53246,12 @@
         <v>5549</v>
       </c>
       <c r="Q1238" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1239" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1239" s="1" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="C1239" t="s">
         <v>3495</v>
@@ -53266,12 +53266,12 @@
         <v>5549</v>
       </c>
       <c r="Q1239" t="s">
-        <v>4590</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1240" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1240" s="1" t="s">
-        <v>3550</v>
+        <v>3554</v>
       </c>
       <c r="C1240" t="s">
         <v>3495</v>
@@ -53286,12 +53286,12 @@
         <v>5549</v>
       </c>
       <c r="Q1240" t="s">
-        <v>3551</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="1241" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1241" s="1" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="C1241" t="s">
         <v>3495</v>
@@ -53306,12 +53306,12 @@
         <v>5549</v>
       </c>
       <c r="Q1241" t="s">
-        <v>3553</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1242" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1242" s="1" t="s">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="C1242" t="s">
         <v>3495</v>
@@ -53326,12 +53326,12 @@
         <v>5549</v>
       </c>
       <c r="Q1242" t="s">
-        <v>4958</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1243" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1243" s="1" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="C1243" t="s">
         <v>3495</v>
@@ -53346,12 +53346,12 @@
         <v>5549</v>
       </c>
       <c r="Q1243" t="s">
-        <v>4591</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1244" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1244" s="1" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="C1244" t="s">
         <v>3495</v>
@@ -53366,12 +53366,12 @@
         <v>5549</v>
       </c>
       <c r="Q1244" t="s">
-        <v>3557</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1245" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1245" s="1" t="s">
-        <v>3558</v>
+        <v>3560</v>
       </c>
       <c r="C1245" t="s">
         <v>3495</v>
@@ -53386,12 +53386,12 @@
         <v>5549</v>
       </c>
       <c r="Q1245" t="s">
-        <v>4959</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1246" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1246" s="1" t="s">
-        <v>3559</v>
+        <v>3561</v>
       </c>
       <c r="C1246" t="s">
         <v>3495</v>
@@ -53406,12 +53406,12 @@
         <v>5549</v>
       </c>
       <c r="Q1246" t="s">
-        <v>4592</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="1247" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1247" s="1" t="s">
-        <v>3560</v>
+        <v>3562</v>
       </c>
       <c r="C1247" t="s">
         <v>3495</v>
@@ -53426,12 +53426,12 @@
         <v>5549</v>
       </c>
       <c r="Q1247" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1248" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1248" s="1" t="s">
-        <v>3561</v>
+        <v>3563</v>
       </c>
       <c r="C1248" t="s">
         <v>3495</v>
@@ -53446,12 +53446,12 @@
         <v>5549</v>
       </c>
       <c r="Q1248" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1249" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1249" s="1" t="s">
-        <v>3562</v>
+        <v>3564</v>
       </c>
       <c r="C1249" t="s">
         <v>3495</v>
@@ -53466,12 +53466,12 @@
         <v>5549</v>
       </c>
       <c r="Q1249" t="s">
-        <v>4594</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="1250" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1250" s="1" t="s">
-        <v>3563</v>
+        <v>3565</v>
       </c>
       <c r="C1250" t="s">
         <v>3495</v>
@@ -53486,12 +53486,12 @@
         <v>5549</v>
       </c>
       <c r="Q1250" t="s">
-        <v>4961</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="1251" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1251" s="1" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="C1251" t="s">
         <v>3495</v>
@@ -53506,12 +53506,12 @@
         <v>5549</v>
       </c>
       <c r="Q1251" t="s">
-        <v>4962</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1252" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1252" s="1" t="s">
-        <v>3565</v>
+        <v>3569</v>
       </c>
       <c r="C1252" t="s">
         <v>3495</v>
@@ -53526,12 +53526,12 @@
         <v>5549</v>
       </c>
       <c r="Q1252" t="s">
-        <v>3566</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="1253" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1253" s="1" t="s">
-        <v>3567</v>
+        <v>3571</v>
       </c>
       <c r="C1253" t="s">
         <v>3495</v>
@@ -53546,12 +53546,12 @@
         <v>5549</v>
       </c>
       <c r="Q1253" t="s">
-        <v>3568</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1254" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1254" s="1" t="s">
-        <v>3569</v>
+        <v>3572</v>
       </c>
       <c r="C1254" t="s">
         <v>3495</v>
@@ -53566,12 +53566,12 @@
         <v>5549</v>
       </c>
       <c r="Q1254" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1255" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1255" s="1" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="C1255" t="s">
         <v>3495</v>
@@ -53586,12 +53586,12 @@
         <v>5549</v>
       </c>
       <c r="Q1255" t="s">
-        <v>4595</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1256" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1256" s="1" t="s">
-        <v>3572</v>
+        <v>3576</v>
       </c>
       <c r="C1256" t="s">
         <v>3495</v>
@@ -53606,12 +53606,12 @@
         <v>5549</v>
       </c>
       <c r="Q1256" t="s">
-        <v>3573</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1257" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1257" s="1" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="C1257" t="s">
         <v>3495</v>
@@ -53626,12 +53626,12 @@
         <v>5549</v>
       </c>
       <c r="Q1257" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1258" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1258" s="1" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="C1258" t="s">
         <v>3495</v>
@@ -53646,12 +53646,12 @@
         <v>5549</v>
       </c>
       <c r="Q1258" t="s">
-        <v>4963</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="1259" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1259" s="1" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="C1259" t="s">
         <v>3495</v>
@@ -53666,12 +53666,12 @@
         <v>5549</v>
       </c>
       <c r="Q1259" t="s">
-        <v>3578</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1260" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1260" s="1" t="s">
-        <v>3579</v>
+        <v>3581</v>
       </c>
       <c r="C1260" t="s">
         <v>3495</v>
@@ -53686,12 +53686,12 @@
         <v>5549</v>
       </c>
       <c r="Q1260" t="s">
-        <v>4964</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1261" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1261" s="1" t="s">
-        <v>3580</v>
+        <v>3582</v>
       </c>
       <c r="C1261" t="s">
         <v>3495</v>
@@ -53706,12 +53706,12 @@
         <v>5549</v>
       </c>
       <c r="Q1261" t="s">
-        <v>4965</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="1262" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1262" s="1" t="s">
-        <v>3581</v>
+        <v>3583</v>
       </c>
       <c r="C1262" t="s">
         <v>3495</v>
@@ -53726,12 +53726,12 @@
         <v>5549</v>
       </c>
       <c r="Q1262" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1263" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1263" s="1" t="s">
-        <v>3582</v>
+        <v>3584</v>
       </c>
       <c r="C1263" t="s">
         <v>3495</v>
@@ -53746,12 +53746,12 @@
         <v>5549</v>
       </c>
       <c r="Q1263" t="s">
-        <v>4966</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1264" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1264" s="1" t="s">
-        <v>3583</v>
+        <v>3585</v>
       </c>
       <c r="C1264" t="s">
         <v>3495</v>
@@ -53766,12 +53766,12 @@
         <v>5549</v>
       </c>
       <c r="Q1264" t="s">
-        <v>4597</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="1265" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1265" s="1" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="C1265" t="s">
         <v>3495</v>
@@ -53786,12 +53786,12 @@
         <v>5549</v>
       </c>
       <c r="Q1265" t="s">
-        <v>4967</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1266" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1266" s="1" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="C1266" t="s">
         <v>3495</v>
@@ -53806,12 +53806,12 @@
         <v>5549</v>
       </c>
       <c r="Q1266" t="s">
-        <v>3586</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="1267" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1267" s="1" t="s">
-        <v>3587</v>
+        <v>3589</v>
       </c>
       <c r="C1267" t="s">
         <v>3495</v>
@@ -53826,12 +53826,12 @@
         <v>5549</v>
       </c>
       <c r="Q1267" t="s">
-        <v>4598</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="1268" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1268" s="1" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="C1268" t="s">
         <v>3495</v>
@@ -53846,12 +53846,12 @@
         <v>5549</v>
       </c>
       <c r="Q1268" t="s">
-        <v>4968</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1269" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1269" s="1" t="s">
-        <v>3589</v>
+        <v>3593</v>
       </c>
       <c r="C1269" t="s">
         <v>3495</v>
@@ -53866,12 +53866,12 @@
         <v>5549</v>
       </c>
       <c r="Q1269" t="s">
-        <v>3590</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1270" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1270" s="1" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="C1270" t="s">
         <v>3495</v>
@@ -53886,12 +53886,12 @@
         <v>5549</v>
       </c>
       <c r="Q1270" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1271" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1271" s="1" t="s">
-        <v>3593</v>
+        <v>3596</v>
       </c>
       <c r="C1271" t="s">
         <v>3495</v>
@@ -53906,12 +53906,12 @@
         <v>5549</v>
       </c>
       <c r="Q1271" t="s">
-        <v>4969</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="1272" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1272" s="1" t="s">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="C1272" t="s">
         <v>3495</v>
@@ -53926,12 +53926,12 @@
         <v>5549</v>
       </c>
       <c r="Q1272" t="s">
-        <v>3595</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1273" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1273" s="1" t="s">
-        <v>3596</v>
+        <v>3598</v>
       </c>
       <c r="C1273" t="s">
         <v>3495</v>
@@ -53946,12 +53946,12 @@
         <v>5549</v>
       </c>
       <c r="Q1273" t="s">
-        <v>4970</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1274" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1274" s="1" t="s">
-        <v>3597</v>
+        <v>3599</v>
       </c>
       <c r="C1274" t="s">
         <v>3495</v>
@@ -53966,12 +53966,12 @@
         <v>5549</v>
       </c>
       <c r="Q1274" t="s">
-        <v>4599</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1275" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1275" s="1" t="s">
-        <v>3598</v>
+        <v>3600</v>
       </c>
       <c r="C1275" t="s">
         <v>3495</v>
@@ -53986,12 +53986,12 @@
         <v>5549</v>
       </c>
       <c r="Q1275" t="s">
-        <v>4600</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="1276" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1276" s="1" t="s">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="C1276" t="s">
         <v>3495</v>
@@ -54006,12 +54006,12 @@
         <v>5549</v>
       </c>
       <c r="Q1276" t="s">
-        <v>4971</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1277" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1277" s="1" t="s">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="C1277" t="s">
         <v>3495</v>
@@ -54026,12 +54026,12 @@
         <v>5549</v>
       </c>
       <c r="Q1277" t="s">
-        <v>4972</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1278" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1278" s="1" t="s">
-        <v>3601</v>
+        <v>3604</v>
       </c>
       <c r="C1278" t="s">
         <v>3495</v>
@@ -54046,12 +54046,12 @@
         <v>5549</v>
       </c>
       <c r="Q1278" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1279" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1279" s="1" t="s">
-        <v>3603</v>
+        <v>6932</v>
       </c>
       <c r="C1279" t="s">
         <v>3495</v>
@@ -54066,12 +54066,12 @@
         <v>5549</v>
       </c>
       <c r="Q1279" t="s">
-        <v>4973</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="1280" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1280" s="1" t="s">
-        <v>3604</v>
+        <v>3607</v>
       </c>
       <c r="C1280" t="s">
         <v>3495</v>
@@ -54086,12 +54086,12 @@
         <v>5549</v>
       </c>
       <c r="Q1280" t="s">
-        <v>3605</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1281" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1281" s="1" t="s">
-        <v>6932</v>
+        <v>3609</v>
       </c>
       <c r="C1281" t="s">
         <v>3495</v>
@@ -54106,12 +54106,12 @@
         <v>5549</v>
       </c>
       <c r="Q1281" t="s">
-        <v>4974</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1282" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1282" s="1" t="s">
-        <v>3607</v>
+        <v>3611</v>
       </c>
       <c r="C1282" t="s">
         <v>3495</v>
@@ -54126,12 +54126,12 @@
         <v>5549</v>
       </c>
       <c r="Q1282" t="s">
-        <v>3608</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1283" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1283" s="1" t="s">
-        <v>3609</v>
+        <v>3612</v>
       </c>
       <c r="C1283" t="s">
         <v>3495</v>
@@ -54146,12 +54146,12 @@
         <v>5549</v>
       </c>
       <c r="Q1283" t="s">
-        <v>3610</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="1284" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1284" s="1" t="s">
-        <v>3611</v>
+        <v>3613</v>
       </c>
       <c r="C1284" t="s">
         <v>3495</v>
@@ -54166,12 +54166,12 @@
         <v>5549</v>
       </c>
       <c r="Q1284" t="s">
-        <v>4975</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1285" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1285" s="1" t="s">
-        <v>3612</v>
+        <v>3615</v>
       </c>
       <c r="C1285" t="s">
         <v>3495</v>
@@ -54186,12 +54186,12 @@
         <v>5549</v>
       </c>
       <c r="Q1285" t="s">
-        <v>4976</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="1286" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1286" s="1" t="s">
-        <v>3613</v>
+        <v>3617</v>
       </c>
       <c r="C1286" t="s">
         <v>3495</v>
@@ -54206,12 +54206,12 @@
         <v>5549</v>
       </c>
       <c r="Q1286" t="s">
-        <v>3614</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1287" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1287" s="1" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
       <c r="C1287" t="s">
         <v>3495</v>
@@ -54226,12 +54226,12 @@
         <v>5549</v>
       </c>
       <c r="Q1287" t="s">
-        <v>3616</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1288" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1288" s="1" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
       <c r="C1288" t="s">
         <v>3495</v>
@@ -54246,12 +54246,12 @@
         <v>5549</v>
       </c>
       <c r="Q1288" t="s">
-        <v>4977</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="1289" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1289" s="1" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
       <c r="C1289" t="s">
         <v>3495</v>
@@ -54266,12 +54266,12 @@
         <v>5549</v>
       </c>
       <c r="Q1289" t="s">
-        <v>3619</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1290" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1290" s="1" t="s">
-        <v>3620</v>
+        <v>3622</v>
       </c>
       <c r="C1290" t="s">
         <v>3495</v>
@@ -54286,12 +54286,12 @@
         <v>5549</v>
       </c>
       <c r="Q1290" t="s">
-        <v>4978</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="1291" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1291" s="1" t="s">
-        <v>3621</v>
+        <v>3623</v>
       </c>
       <c r="C1291" t="s">
         <v>3495</v>
@@ -54306,12 +54306,12 @@
         <v>5549</v>
       </c>
       <c r="Q1291" t="s">
-        <v>4979</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1292" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1292" s="1" t="s">
-        <v>3622</v>
+        <v>3624</v>
       </c>
       <c r="C1292" t="s">
         <v>3495</v>
@@ -54326,12 +54326,12 @@
         <v>5549</v>
       </c>
       <c r="Q1292" t="s">
-        <v>4980</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1293" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1293" s="1" t="s">
-        <v>3623</v>
+        <v>3625</v>
       </c>
       <c r="C1293" t="s">
         <v>3495</v>
@@ -54346,12 +54346,12 @@
         <v>5549</v>
       </c>
       <c r="Q1293" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1294" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1294" s="1" t="s">
-        <v>3624</v>
+        <v>3626</v>
       </c>
       <c r="C1294" t="s">
         <v>3495</v>
@@ -54366,12 +54366,12 @@
         <v>5549</v>
       </c>
       <c r="Q1294" t="s">
-        <v>4981</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1295" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1295" s="1" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="C1295" t="s">
         <v>3495</v>
@@ -54386,12 +54386,12 @@
         <v>5549</v>
       </c>
       <c r="Q1295" t="s">
-        <v>4602</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="1296" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1296" s="1" t="s">
-        <v>3626</v>
+        <v>3629</v>
       </c>
       <c r="C1296" t="s">
         <v>3495</v>
@@ -54406,12 +54406,12 @@
         <v>5549</v>
       </c>
       <c r="Q1296" t="s">
-        <v>3627</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1297" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1297" s="1" t="s">
-        <v>3628</v>
+        <v>3630</v>
       </c>
       <c r="C1297" t="s">
         <v>3495</v>
@@ -54426,12 +54426,12 @@
         <v>5549</v>
       </c>
       <c r="Q1297" t="s">
-        <v>4982</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1298" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1298" s="1" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="C1298" t="s">
         <v>3495</v>
@@ -54446,12 +54446,12 @@
         <v>5549</v>
       </c>
       <c r="Q1298" t="s">
-        <v>4603</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1299" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1299" s="1" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="C1299" t="s">
         <v>3495</v>
@@ -54466,12 +54466,12 @@
         <v>5549</v>
       </c>
       <c r="Q1299" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1300" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1300" s="1" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
       <c r="C1300" t="s">
         <v>3495</v>
@@ -54486,12 +54486,12 @@
         <v>5549</v>
       </c>
       <c r="Q1300" t="s">
-        <v>4983</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1301" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1301" s="1" t="s">
-        <v>3633</v>
+        <v>3637</v>
       </c>
       <c r="C1301" t="s">
         <v>3495</v>
@@ -54506,12 +54506,12 @@
         <v>5549</v>
       </c>
       <c r="Q1301" t="s">
-        <v>3634</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1302" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1302" s="1" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
       <c r="C1302" t="s">
         <v>3495</v>
@@ -54526,12 +54526,12 @@
         <v>5549</v>
       </c>
       <c r="Q1302" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1303" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1303" s="1" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
       <c r="C1303" t="s">
         <v>3495</v>
@@ -54546,12 +54546,12 @@
         <v>5549</v>
       </c>
       <c r="Q1303" t="s">
-        <v>4604</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="1304" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1304" s="1" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="C1304" t="s">
         <v>3495</v>
@@ -54566,12 +54566,12 @@
         <v>5549</v>
       </c>
       <c r="Q1304" t="s">
-        <v>3639</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1305" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1305" s="1" t="s">
-        <v>3640</v>
+        <v>3642</v>
       </c>
       <c r="C1305" t="s">
         <v>3495</v>
@@ -54586,12 +54586,12 @@
         <v>5549</v>
       </c>
       <c r="Q1305" t="s">
-        <v>4984</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1306" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1306" s="1" t="s">
-        <v>3641</v>
+        <v>3643</v>
       </c>
       <c r="C1306" t="s">
         <v>3495</v>
@@ -54606,12 +54606,12 @@
         <v>5549</v>
       </c>
       <c r="Q1306" t="s">
-        <v>4985</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="1307" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1307" s="1" t="s">
-        <v>3642</v>
+        <v>3644</v>
       </c>
       <c r="C1307" t="s">
         <v>3495</v>
@@ -54626,12 +54626,12 @@
         <v>5549</v>
       </c>
       <c r="Q1307" t="s">
-        <v>4605</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1308" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1308" s="1" t="s">
-        <v>3643</v>
+        <v>3645</v>
       </c>
       <c r="C1308" t="s">
         <v>3495</v>
@@ -54646,12 +54646,12 @@
         <v>5549</v>
       </c>
       <c r="Q1308" t="s">
-        <v>4986</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="1309" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1309" s="1" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="C1309" t="s">
         <v>3495</v>
@@ -54666,12 +54666,12 @@
         <v>5549</v>
       </c>
       <c r="Q1309" t="s">
-        <v>4987</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="1310" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1310" s="1" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
       <c r="C1310" t="s">
         <v>3495</v>
@@ -54686,12 +54686,12 @@
         <v>5549</v>
       </c>
       <c r="Q1310" t="s">
-        <v>3646</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1311" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1311" s="1" t="s">
-        <v>3647</v>
+        <v>3649</v>
       </c>
       <c r="C1311" t="s">
         <v>3495</v>
@@ -54706,12 +54706,12 @@
         <v>5549</v>
       </c>
       <c r="Q1311" t="s">
-        <v>4988</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1312" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1312" s="1" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="C1312" t="s">
         <v>3495</v>
@@ -54726,12 +54726,12 @@
         <v>5549</v>
       </c>
       <c r="Q1312" t="s">
-        <v>4989</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="1313" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1313" s="1" t="s">
-        <v>3649</v>
+        <v>3653</v>
       </c>
       <c r="C1313" t="s">
         <v>3495</v>
@@ -54746,12 +54746,12 @@
         <v>5549</v>
       </c>
       <c r="Q1313" t="s">
-        <v>3650</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1314" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1314" s="1" t="s">
-        <v>3651</v>
+        <v>3655</v>
       </c>
       <c r="C1314" t="s">
         <v>3495</v>
@@ -54766,12 +54766,12 @@
         <v>5549</v>
       </c>
       <c r="Q1314" t="s">
-        <v>3652</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="1315" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1315" s="1" t="s">
-        <v>3653</v>
+        <v>3657</v>
       </c>
       <c r="C1315" t="s">
         <v>3495</v>
@@ -54786,12 +54786,12 @@
         <v>5549</v>
       </c>
       <c r="Q1315" t="s">
-        <v>3654</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="1316" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1316" s="1" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="C1316" t="s">
         <v>3495</v>
@@ -54806,12 +54806,12 @@
         <v>5549</v>
       </c>
       <c r="Q1316" t="s">
-        <v>3656</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1317" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1317" s="1" t="s">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="C1317" t="s">
         <v>3495</v>
@@ -54826,12 +54826,12 @@
         <v>5549</v>
       </c>
       <c r="Q1317" t="s">
-        <v>4990</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1318" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1318" s="1" t="s">
-        <v>3658</v>
+        <v>3662</v>
       </c>
       <c r="C1318" t="s">
         <v>3495</v>
@@ -54846,12 +54846,12 @@
         <v>5549</v>
       </c>
       <c r="Q1318" t="s">
-        <v>3659</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1319" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1319" s="1" t="s">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="C1319" t="s">
         <v>3495</v>
@@ -54866,12 +54866,12 @@
         <v>5549</v>
       </c>
       <c r="Q1319" t="s">
-        <v>3661</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1320" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1320" s="1" t="s">
-        <v>3662</v>
+        <v>3665</v>
       </c>
       <c r="C1320" t="s">
         <v>3495</v>
@@ -54886,12 +54886,12 @@
         <v>5549</v>
       </c>
       <c r="Q1320" t="s">
-        <v>4991</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="1321" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1321" s="1" t="s">
-        <v>3663</v>
+        <v>3666</v>
       </c>
       <c r="C1321" t="s">
         <v>3495</v>
@@ -54906,12 +54906,12 @@
         <v>5549</v>
       </c>
       <c r="Q1321" t="s">
-        <v>3664</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1322" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1322" s="1" t="s">
-        <v>3665</v>
+        <v>3668</v>
       </c>
       <c r="C1322" t="s">
         <v>3495</v>
@@ -54926,12 +54926,12 @@
         <v>5549</v>
       </c>
       <c r="Q1322" t="s">
-        <v>4992</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1323" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1323" s="1" t="s">
-        <v>3666</v>
+        <v>3670</v>
       </c>
       <c r="C1323" t="s">
         <v>3495</v>
@@ -54946,12 +54946,12 @@
         <v>5549</v>
       </c>
       <c r="Q1323" t="s">
-        <v>3667</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1324" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1324" s="1" t="s">
-        <v>3668</v>
+        <v>3672</v>
       </c>
       <c r="C1324" t="s">
         <v>3495</v>
@@ -54966,12 +54966,12 @@
         <v>5549</v>
       </c>
       <c r="Q1324" t="s">
-        <v>3669</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1325" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1325" s="1" t="s">
-        <v>3670</v>
+        <v>3674</v>
       </c>
       <c r="C1325" t="s">
         <v>3495</v>
@@ -54986,12 +54986,12 @@
         <v>5549</v>
       </c>
       <c r="Q1325" t="s">
-        <v>3671</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1326" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1326" s="1" t="s">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="C1326" t="s">
         <v>3495</v>
@@ -55006,12 +55006,12 @@
         <v>5549</v>
       </c>
       <c r="Q1326" t="s">
-        <v>3673</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="1327" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1327" s="1" t="s">
-        <v>3674</v>
+        <v>3676</v>
       </c>
       <c r="C1327" t="s">
         <v>3495</v>
@@ -55026,12 +55026,12 @@
         <v>5549</v>
       </c>
       <c r="Q1327" t="s">
-        <v>4993</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1328" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1328" s="1" t="s">
-        <v>3675</v>
+        <v>3677</v>
       </c>
       <c r="C1328" t="s">
         <v>3495</v>
@@ -55046,12 +55046,12 @@
         <v>5549</v>
       </c>
       <c r="Q1328" t="s">
-        <v>4994</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="1329" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1329" s="1" t="s">
-        <v>3676</v>
+        <v>3678</v>
       </c>
       <c r="C1329" t="s">
         <v>3495</v>
@@ -55066,12 +55066,12 @@
         <v>5549</v>
       </c>
       <c r="Q1329" t="s">
-        <v>4995</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1330" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1330" s="1" t="s">
-        <v>3677</v>
+        <v>3679</v>
       </c>
       <c r="C1330" t="s">
         <v>3495</v>
@@ -55086,12 +55086,12 @@
         <v>5549</v>
       </c>
       <c r="Q1330" t="s">
-        <v>4996</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1331" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1331" s="1" t="s">
-        <v>3678</v>
+        <v>3681</v>
       </c>
       <c r="C1331" t="s">
         <v>3495</v>
@@ -55106,12 +55106,12 @@
         <v>5549</v>
       </c>
       <c r="Q1331" t="s">
-        <v>4997</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1332" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1332" s="1" t="s">
-        <v>3679</v>
+        <v>3682</v>
       </c>
       <c r="C1332" t="s">
         <v>3495</v>
@@ -55126,12 +55126,12 @@
         <v>5549</v>
       </c>
       <c r="Q1332" t="s">
-        <v>3680</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1333" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1333" s="1" t="s">
-        <v>3681</v>
+        <v>6933</v>
       </c>
       <c r="C1333" t="s">
         <v>3495</v>
@@ -55146,12 +55146,12 @@
         <v>5549</v>
       </c>
       <c r="Q1333" t="s">
-        <v>4606</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="1334" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1334" s="1" t="s">
-        <v>3682</v>
+        <v>6935</v>
       </c>
       <c r="C1334" t="s">
         <v>3495</v>
@@ -55166,12 +55166,12 @@
         <v>5549</v>
       </c>
       <c r="Q1334" t="s">
-        <v>3683</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="1335" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1335" s="1" t="s">
-        <v>6933</v>
+        <v>6937</v>
       </c>
       <c r="C1335" t="s">
         <v>3495</v>
@@ -55186,12 +55186,12 @@
         <v>5549</v>
       </c>
       <c r="Q1335" t="s">
-        <v>6934</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="1336" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1336" s="1" t="s">
-        <v>6935</v>
+        <v>6939</v>
       </c>
       <c r="C1336" t="s">
         <v>3495</v>
@@ -55206,12 +55206,12 @@
         <v>5549</v>
       </c>
       <c r="Q1336" t="s">
-        <v>6936</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="1337" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1337" s="1" t="s">
-        <v>6937</v>
+        <v>6941</v>
       </c>
       <c r="C1337" t="s">
         <v>3495</v>
@@ -55226,12 +55226,12 @@
         <v>5549</v>
       </c>
       <c r="Q1337" t="s">
-        <v>6938</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="1338" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1338" s="1" t="s">
-        <v>6939</v>
+        <v>6943</v>
       </c>
       <c r="C1338" t="s">
         <v>3495</v>
@@ -55246,12 +55246,12 @@
         <v>5549</v>
       </c>
       <c r="Q1338" t="s">
-        <v>6940</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="1339" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1339" s="1" t="s">
-        <v>6941</v>
+        <v>6945</v>
       </c>
       <c r="C1339" t="s">
         <v>3495</v>
@@ -55266,12 +55266,12 @@
         <v>5549</v>
       </c>
       <c r="Q1339" t="s">
-        <v>6942</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="1340" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1340" s="1" t="s">
-        <v>6943</v>
+        <v>6947</v>
       </c>
       <c r="C1340" t="s">
         <v>3495</v>
@@ -55286,12 +55286,12 @@
         <v>5549</v>
       </c>
       <c r="Q1340" t="s">
-        <v>6944</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="1341" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1341" s="1" t="s">
-        <v>6945</v>
+        <v>6949</v>
       </c>
       <c r="C1341" t="s">
         <v>3495</v>
@@ -55306,12 +55306,12 @@
         <v>5549</v>
       </c>
       <c r="Q1341" t="s">
-        <v>6946</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="1342" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1342" s="1" t="s">
-        <v>6947</v>
+        <v>6951</v>
       </c>
       <c r="C1342" t="s">
         <v>3495</v>
@@ -55326,12 +55326,12 @@
         <v>5549</v>
       </c>
       <c r="Q1342" t="s">
-        <v>6948</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="1343" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1343" s="1" t="s">
-        <v>6949</v>
+        <v>6953</v>
       </c>
       <c r="C1343" t="s">
         <v>3495</v>
@@ -55346,51 +55346,11 @@
         <v>5549</v>
       </c>
       <c r="Q1343" t="s">
-        <v>6950</v>
-      </c>
-    </row>
-    <row r="1344" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1344" s="1" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C1344" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D1344" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1344" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L1344" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q1344" t="s">
-        <v>6952</v>
-      </c>
-    </row>
-    <row r="1345" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1345" s="1" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C1345" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D1345" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1345" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L1345" t="s">
-        <v>5549</v>
-      </c>
-      <c r="Q1345" t="s">
         <v>6954</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:R1345"/>
+  <autoFilter ref="B1:R1343"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -64394,10 +64354,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R1183"/>
+  <dimension ref="B1:R1185"/>
   <sheetViews>
     <sheetView topLeftCell="A1127" workbookViewId="0">
-      <selection activeCell="A1183" sqref="A1183:XFD1183"/>
+      <selection activeCell="A1184" sqref="A1184:XFD1185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -89788,6 +89748,46 @@
         <v>755</v>
       </c>
     </row>
+    <row r="1184" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1184" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>3189</v>
+      </c>
+      <c r="D1184" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L1184" t="s">
+        <v>5505</v>
+      </c>
+      <c r="Q1184" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1185" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>3189</v>
+      </c>
+      <c r="D1185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L1185" t="s">
+        <v>5505</v>
+      </c>
+      <c r="Q1185" t="s">
+        <v>4535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -25879,10 +25879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1358"/>
+  <dimension ref="B1:Q1356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1114" workbookViewId="0">
-      <selection activeCell="B1123" sqref="B1123"/>
+    <sheetView tabSelected="1" topLeftCell="A1328" workbookViewId="0">
+      <selection activeCell="A1338" sqref="A1338:XFD1338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55222,44 +55222,59 @@
     </row>
     <row r="1338" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1338" s="1" t="s">
-        <v>2680</v>
+        <v>2691</v>
       </c>
       <c r="C1338" t="s">
-        <v>2681</v>
-      </c>
-      <c r="D1338" s="1" t="s">
-        <v>351</v>
+        <v>2689</v>
+      </c>
+      <c r="D1338" s="1">
+        <v>68010</v>
       </c>
       <c r="E1338" t="s">
         <v>351</v>
       </c>
       <c r="L1338" t="s">
-        <v>2538</v>
+        <v>5238</v>
+      </c>
+      <c r="M1338" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1338" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1338" t="s">
-        <v>2682</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="1339" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1339" s="1" t="s">
-        <v>2683</v>
+        <v>2688</v>
       </c>
       <c r="C1339" t="s">
-        <v>2684</v>
-      </c>
-      <c r="D1339" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D1339" s="1">
+        <v>68010</v>
+      </c>
+      <c r="E1339" t="s">
         <v>351</v>
       </c>
       <c r="L1339" t="s">
-        <v>2538</v>
+        <v>5238</v>
+      </c>
+      <c r="M1339" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1339" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1339" t="s">
-        <v>2685</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="1340" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1340" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C1340" t="s">
         <v>2689</v>
@@ -55280,12 +55295,12 @@
         <v>3889</v>
       </c>
       <c r="Q1340" t="s">
-        <v>4870</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="1341" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1341" s="1" t="s">
-        <v>2688</v>
+        <v>6487</v>
       </c>
       <c r="C1341" t="s">
         <v>2689</v>
@@ -55306,12 +55321,12 @@
         <v>3889</v>
       </c>
       <c r="Q1341" t="s">
-        <v>4867</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="1342" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1342" s="1" t="s">
-        <v>2690</v>
+        <v>6488</v>
       </c>
       <c r="C1342" t="s">
         <v>2689</v>
@@ -55332,12 +55347,12 @@
         <v>3889</v>
       </c>
       <c r="Q1342" t="s">
-        <v>4868</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="1343" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1343" s="1" t="s">
-        <v>6487</v>
+        <v>2692</v>
       </c>
       <c r="C1343" t="s">
         <v>2689</v>
@@ -55358,12 +55373,12 @@
         <v>3889</v>
       </c>
       <c r="Q1343" t="s">
-        <v>4869</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="1344" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1344" s="1" t="s">
-        <v>6488</v>
+        <v>2693</v>
       </c>
       <c r="C1344" t="s">
         <v>2689</v>
@@ -55384,12 +55399,12 @@
         <v>3889</v>
       </c>
       <c r="Q1344" t="s">
-        <v>6489</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="1345" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1345" s="1" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="C1345" t="s">
         <v>2689</v>
@@ -55410,12 +55425,12 @@
         <v>3889</v>
       </c>
       <c r="Q1345" t="s">
-        <v>4871</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="1346" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1346" s="1" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="C1346" t="s">
         <v>2689</v>
@@ -55436,12 +55451,12 @@
         <v>3889</v>
       </c>
       <c r="Q1346" t="s">
-        <v>4872</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="1347" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1347" s="1" t="s">
-        <v>2694</v>
+        <v>6490</v>
       </c>
       <c r="C1347" t="s">
         <v>2689</v>
@@ -55462,12 +55477,12 @@
         <v>3889</v>
       </c>
       <c r="Q1347" t="s">
-        <v>4873</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="1348" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1348" s="1" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="C1348" t="s">
         <v>2689</v>
@@ -55488,12 +55503,12 @@
         <v>3889</v>
       </c>
       <c r="Q1348" t="s">
-        <v>4874</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1349" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1349" s="1" t="s">
-        <v>6490</v>
+        <v>2697</v>
       </c>
       <c r="C1349" t="s">
         <v>2689</v>
@@ -55514,18 +55529,18 @@
         <v>3889</v>
       </c>
       <c r="Q1349" t="s">
-        <v>6491</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="1350" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1350" s="1" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="C1350" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1350" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1350" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1350" t="s">
         <v>351</v>
@@ -55534,24 +55549,24 @@
         <v>5238</v>
       </c>
       <c r="M1350" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="N1350" t="s">
         <v>3889</v>
       </c>
       <c r="Q1350" t="s">
-        <v>4875</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1351" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1351" s="1" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="C1351" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1351" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1351" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1351" t="s">
         <v>351</v>
@@ -55560,18 +55575,15 @@
         <v>5238</v>
       </c>
       <c r="M1351" t="s">
-        <v>2534</v>
-      </c>
-      <c r="N1351" t="s">
-        <v>3889</v>
+        <v>2538</v>
       </c>
       <c r="Q1351" t="s">
-        <v>4876</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1352" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1352" s="1" t="s">
-        <v>2698</v>
+        <v>2702</v>
       </c>
       <c r="C1352" t="s">
         <v>2699</v>
@@ -55588,16 +55600,13 @@
       <c r="M1352" t="s">
         <v>2538</v>
       </c>
-      <c r="N1352" t="s">
-        <v>3889</v>
-      </c>
       <c r="Q1352" t="s">
-        <v>4877</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1353" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1353" s="1" t="s">
-        <v>2701</v>
+        <v>6492</v>
       </c>
       <c r="C1353" t="s">
         <v>2699</v>
@@ -55614,13 +55623,16 @@
       <c r="M1353" t="s">
         <v>2538</v>
       </c>
+      <c r="N1353" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q1353" t="s">
-        <v>4416</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="1354" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1354" s="1" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="C1354" t="s">
         <v>2699</v>
@@ -55637,13 +55649,16 @@
       <c r="M1354" t="s">
         <v>2538</v>
       </c>
+      <c r="N1354" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q1354" t="s">
-        <v>4417</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="1355" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1355" s="1" t="s">
-        <v>6492</v>
+        <v>2704</v>
       </c>
       <c r="C1355" t="s">
         <v>2699</v>
@@ -55664,12 +55679,12 @@
         <v>3889</v>
       </c>
       <c r="Q1355" t="s">
-        <v>4878</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1356" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1356" s="1" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="C1356" t="s">
         <v>2699</v>
@@ -55690,58 +55705,6 @@
         <v>3889</v>
       </c>
       <c r="Q1356" t="s">
-        <v>4879</v>
-      </c>
-    </row>
-    <row r="1357" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1357" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="C1357" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1357" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1357" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1357" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1357" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1357" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1357" t="s">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="1358" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1358" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C1358" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1358" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1358" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1358" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1358" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1358" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1358" t="s">
         <v>4881</v>
       </c>
     </row>
@@ -64947,10 +64910,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R1161"/>
+  <dimension ref="B1:R1163"/>
   <sheetViews>
     <sheetView topLeftCell="A1131" workbookViewId="0">
-      <selection activeCell="A1154" sqref="A1154:XFD1154"/>
+      <selection activeCell="A1163" sqref="A1163:XFD1163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -89788,6 +89751,43 @@
         <v>4535</v>
       </c>
     </row>
+    <row r="1162" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1162" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D1162" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1162" t="s">
+        <v>2538</v>
+      </c>
+      <c r="Q1162" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1163" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D1163" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1163" t="s">
+        <v>2538</v>
+      </c>
+      <c r="Q1163" t="s">
+        <v>2685</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -21,9 +21,9 @@
     <sheet name="To Check" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1320</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1318</definedName>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1320</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1318</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25879,10 +25879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1341"/>
+  <dimension ref="B1:Q1339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A822" workbookViewId="0">
-      <selection activeCell="A832" sqref="A832:XFD832"/>
+    <sheetView tabSelected="1" topLeftCell="A951" workbookViewId="0">
+      <selection activeCell="C961" sqref="C961"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47697,47 +47697,47 @@
     </row>
     <row r="961" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B961" s="1" t="s">
-        <v>3178</v>
+        <v>6638</v>
       </c>
       <c r="C961" t="s">
-        <v>3179</v>
+        <v>6639</v>
       </c>
       <c r="D961" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="E961" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L961" t="s">
-        <v>1155</v>
+        <v>5070</v>
       </c>
       <c r="Q961" t="s">
-        <v>3180</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="962" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B962" s="1" t="s">
-        <v>3181</v>
+        <v>6641</v>
       </c>
       <c r="C962" t="s">
-        <v>3179</v>
+        <v>6639</v>
       </c>
       <c r="D962" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="E962" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L962" t="s">
-        <v>1155</v>
+        <v>5505</v>
       </c>
       <c r="Q962" t="s">
-        <v>3182</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="963" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B963" s="1" t="s">
-        <v>6638</v>
+        <v>6643</v>
       </c>
       <c r="C963" t="s">
         <v>6639</v>
@@ -47749,78 +47749,96 @@
         <v>2426</v>
       </c>
       <c r="L963" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q963" t="s">
-        <v>6640</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="964" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B964" s="1" t="s">
-        <v>6641</v>
+        <v>3186</v>
       </c>
       <c r="C964" t="s">
-        <v>6639</v>
-      </c>
-      <c r="D964" s="1" t="s">
-        <v>2</v>
+        <v>3187</v>
+      </c>
+      <c r="D964" s="1">
+        <v>68000</v>
       </c>
       <c r="E964" t="s">
-        <v>2426</v>
+        <v>3766</v>
       </c>
       <c r="L964" t="s">
-        <v>5505</v>
+        <v>55</v>
+      </c>
+      <c r="M964" t="s">
+        <v>4454</v>
       </c>
       <c r="Q964" t="s">
-        <v>6642</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="965" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B965" s="1" t="s">
-        <v>6643</v>
+        <v>6645</v>
       </c>
       <c r="C965" t="s">
-        <v>6639</v>
-      </c>
-      <c r="D965" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E965" t="s">
-        <v>2426</v>
+        <v>3193</v>
+      </c>
+      <c r="D965" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E965">
+        <v>68000</v>
+      </c>
+      <c r="F965">
+        <v>68000</v>
+      </c>
+      <c r="G965" t="s">
+        <v>3892</v>
       </c>
       <c r="L965" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M965" t="s">
+        <v>3315</v>
       </c>
       <c r="Q965" t="s">
-        <v>6644</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="966" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B966" s="1" t="s">
-        <v>3186</v>
+        <v>3192</v>
       </c>
       <c r="C966" t="s">
-        <v>3187</v>
+        <v>3193</v>
       </c>
       <c r="D966" s="1">
         <v>68000</v>
       </c>
-      <c r="E966" t="s">
-        <v>3766</v>
+      <c r="E966">
+        <v>68000</v>
+      </c>
+      <c r="F966">
+        <v>68000</v>
+      </c>
+      <c r="G966" t="s">
+        <v>3892</v>
       </c>
       <c r="L966" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="M966" t="s">
-        <v>4454</v>
+        <v>3315</v>
       </c>
       <c r="Q966" t="s">
-        <v>4534</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="967" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B967" s="1" t="s">
-        <v>6645</v>
+        <v>3194</v>
       </c>
       <c r="C967" t="s">
         <v>3193</v>
@@ -47844,12 +47862,12 @@
         <v>3315</v>
       </c>
       <c r="Q967" t="s">
-        <v>6646</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="968" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B968" s="1" t="s">
-        <v>3192</v>
+        <v>6647</v>
       </c>
       <c r="C968" t="s">
         <v>3193</v>
@@ -47857,108 +47875,90 @@
       <c r="D968" s="1">
         <v>68000</v>
       </c>
-      <c r="E968">
-        <v>68000</v>
-      </c>
-      <c r="F968">
-        <v>68000</v>
-      </c>
-      <c r="G968" t="s">
-        <v>3892</v>
-      </c>
       <c r="L968" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M968" t="s">
         <v>3315</v>
       </c>
       <c r="Q968" t="s">
-        <v>4536</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="969" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B969" s="1" t="s">
-        <v>3194</v>
+        <v>6649</v>
       </c>
       <c r="C969" t="s">
-        <v>3193</v>
+        <v>6650</v>
       </c>
       <c r="D969" s="1">
         <v>68000</v>
       </c>
-      <c r="E969">
-        <v>68000</v>
-      </c>
-      <c r="F969">
-        <v>68000</v>
-      </c>
-      <c r="G969" t="s">
-        <v>3892</v>
-      </c>
       <c r="L969" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M969" t="s">
-        <v>3315</v>
+        <v>1409</v>
       </c>
       <c r="Q969" t="s">
-        <v>4537</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="970" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B970" s="1" t="s">
-        <v>6647</v>
+        <v>6652</v>
       </c>
       <c r="C970" t="s">
-        <v>3193</v>
+        <v>6650</v>
       </c>
       <c r="D970" s="1">
         <v>68000</v>
       </c>
       <c r="L970" t="s">
-        <v>3315</v>
+        <v>1409</v>
       </c>
       <c r="Q970" t="s">
-        <v>6648</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="971" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B971" s="1" t="s">
-        <v>6649</v>
+        <v>3195</v>
       </c>
       <c r="C971" t="s">
-        <v>6650</v>
+        <v>3196</v>
       </c>
       <c r="D971" s="1">
         <v>68000</v>
       </c>
+      <c r="E971" t="s">
+        <v>2426</v>
+      </c>
       <c r="L971" t="s">
-        <v>1409</v>
+        <v>5070</v>
       </c>
       <c r="Q971" t="s">
-        <v>6651</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="972" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B972" s="1" t="s">
-        <v>6652</v>
+        <v>3198</v>
       </c>
       <c r="C972" t="s">
-        <v>6650</v>
+        <v>3196</v>
       </c>
       <c r="D972" s="1">
         <v>68000</v>
       </c>
+      <c r="E972" t="s">
+        <v>2426</v>
+      </c>
       <c r="L972" t="s">
-        <v>1409</v>
+        <v>5070</v>
       </c>
       <c r="Q972" t="s">
-        <v>6653</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="973" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B973" s="1" t="s">
-        <v>3195</v>
+        <v>3200</v>
       </c>
       <c r="C973" t="s">
         <v>3196</v>
@@ -47967,18 +47967,21 @@
         <v>68000</v>
       </c>
       <c r="E973" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L973" t="s">
-        <v>5070</v>
+        <v>5238</v>
+      </c>
+      <c r="M973" t="s">
+        <v>3315</v>
       </c>
       <c r="Q973" t="s">
-        <v>3197</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="974" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B974" s="1" t="s">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="C974" t="s">
         <v>3196</v>
@@ -47987,18 +47990,21 @@
         <v>68000</v>
       </c>
       <c r="E974" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L974" t="s">
-        <v>5070</v>
+        <v>5238</v>
+      </c>
+      <c r="M974" t="s">
+        <v>3315</v>
       </c>
       <c r="Q974" t="s">
-        <v>3199</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="975" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B975" s="1" t="s">
-        <v>3200</v>
+        <v>3202</v>
       </c>
       <c r="C975" t="s">
         <v>3196</v>
@@ -48016,12 +48022,12 @@
         <v>3315</v>
       </c>
       <c r="Q975" t="s">
-        <v>4944</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="976" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B976" s="1" t="s">
-        <v>3201</v>
+        <v>3203</v>
       </c>
       <c r="C976" t="s">
         <v>3196</v>
@@ -48039,12 +48045,12 @@
         <v>3315</v>
       </c>
       <c r="Q976" t="s">
-        <v>4945</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="977" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B977" s="1" t="s">
-        <v>3202</v>
+        <v>6655</v>
       </c>
       <c r="C977" t="s">
         <v>3196</v>
@@ -48062,12 +48068,12 @@
         <v>3315</v>
       </c>
       <c r="Q977" t="s">
-        <v>4538</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="978" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B978" s="1" t="s">
-        <v>3203</v>
+        <v>3209</v>
       </c>
       <c r="C978" t="s">
         <v>3196</v>
@@ -48085,12 +48091,12 @@
         <v>3315</v>
       </c>
       <c r="Q978" t="s">
-        <v>6654</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="979" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B979" s="1" t="s">
-        <v>6655</v>
+        <v>3204</v>
       </c>
       <c r="C979" t="s">
         <v>3196</v>
@@ -48108,12 +48114,12 @@
         <v>3315</v>
       </c>
       <c r="Q979" t="s">
-        <v>6656</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="980" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B980" s="1" t="s">
-        <v>3209</v>
+        <v>3205</v>
       </c>
       <c r="C980" t="s">
         <v>3196</v>
@@ -48131,12 +48137,12 @@
         <v>3315</v>
       </c>
       <c r="Q980" t="s">
-        <v>4544</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="981" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B981" s="1" t="s">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="C981" t="s">
         <v>3196</v>
@@ -48154,12 +48160,12 @@
         <v>3315</v>
       </c>
       <c r="Q981" t="s">
-        <v>4539</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="982" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B982" s="1" t="s">
-        <v>3205</v>
+        <v>6657</v>
       </c>
       <c r="C982" t="s">
         <v>3196</v>
@@ -48177,12 +48183,12 @@
         <v>3315</v>
       </c>
       <c r="Q982" t="s">
-        <v>4540</v>
+        <v>6658</v>
       </c>
     </row>
     <row r="983" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B983" s="1" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="C983" t="s">
         <v>3196</v>
@@ -48200,12 +48206,12 @@
         <v>3315</v>
       </c>
       <c r="Q983" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="984" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B984" s="1" t="s">
-        <v>6657</v>
+        <v>3208</v>
       </c>
       <c r="C984" t="s">
         <v>3196</v>
@@ -48223,12 +48229,12 @@
         <v>3315</v>
       </c>
       <c r="Q984" t="s">
-        <v>6658</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="985" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B985" s="1" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="C985" t="s">
         <v>3196</v>
@@ -48246,12 +48252,12 @@
         <v>3315</v>
       </c>
       <c r="Q985" t="s">
-        <v>4542</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="986" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B986" s="1" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
       <c r="C986" t="s">
         <v>3196</v>
@@ -48269,12 +48275,12 @@
         <v>3315</v>
       </c>
       <c r="Q986" t="s">
-        <v>4543</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="987" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B987" s="1" t="s">
-        <v>3210</v>
+        <v>6661</v>
       </c>
       <c r="C987" t="s">
         <v>3196</v>
@@ -48292,12 +48298,12 @@
         <v>3315</v>
       </c>
       <c r="Q987" t="s">
-        <v>6659</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="988" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B988" s="1" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="C988" t="s">
         <v>3196</v>
@@ -48315,12 +48321,12 @@
         <v>3315</v>
       </c>
       <c r="Q988" t="s">
-        <v>6660</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="989" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B989" s="1" t="s">
-        <v>6661</v>
+        <v>3216</v>
       </c>
       <c r="C989" t="s">
         <v>3196</v>
@@ -48338,12 +48344,12 @@
         <v>3315</v>
       </c>
       <c r="Q989" t="s">
-        <v>6662</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="990" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B990" s="1" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="C990" t="s">
         <v>3196</v>
@@ -48361,12 +48367,12 @@
         <v>3315</v>
       </c>
       <c r="Q990" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="991" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B991" s="1" t="s">
-        <v>3216</v>
+        <v>3212</v>
       </c>
       <c r="C991" t="s">
         <v>3196</v>
@@ -48384,12 +48390,12 @@
         <v>3315</v>
       </c>
       <c r="Q991" t="s">
-        <v>4547</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="992" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B992" s="1" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="C992" t="s">
         <v>3196</v>
@@ -48407,12 +48413,12 @@
         <v>3315</v>
       </c>
       <c r="Q992" t="s">
-        <v>4545</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="993" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B993" s="1" t="s">
-        <v>3212</v>
+        <v>3222</v>
       </c>
       <c r="C993" t="s">
         <v>3196</v>
@@ -48430,12 +48436,12 @@
         <v>3315</v>
       </c>
       <c r="Q993" t="s">
-        <v>4946</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="994" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B994" s="1" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
       <c r="C994" t="s">
         <v>3196</v>
@@ -48453,12 +48459,12 @@
         <v>3315</v>
       </c>
       <c r="Q994" t="s">
-        <v>4947</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="995" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B995" s="1" t="s">
-        <v>3222</v>
+        <v>3218</v>
       </c>
       <c r="C995" t="s">
         <v>3196</v>
@@ -48476,12 +48482,12 @@
         <v>3315</v>
       </c>
       <c r="Q995" t="s">
-        <v>4551</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="996" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B996" s="1" t="s">
-        <v>3217</v>
+        <v>3219</v>
       </c>
       <c r="C996" t="s">
         <v>3196</v>
@@ -48499,12 +48505,12 @@
         <v>3315</v>
       </c>
       <c r="Q996" t="s">
-        <v>4548</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="997" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B997" s="1" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="C997" t="s">
         <v>3196</v>
@@ -48512,62 +48518,62 @@
       <c r="D997" s="1">
         <v>68000</v>
       </c>
-      <c r="E997" t="s">
-        <v>3892</v>
-      </c>
       <c r="L997" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M997" t="s">
-        <v>3315</v>
+        <v>1687</v>
       </c>
       <c r="Q997" t="s">
-        <v>4549</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="998" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B998" s="1" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="C998" t="s">
-        <v>3196</v>
+        <v>3224</v>
       </c>
       <c r="D998" s="1">
         <v>68000</v>
       </c>
       <c r="E998" t="s">
-        <v>3892</v>
+        <v>2</v>
       </c>
       <c r="L998" t="s">
         <v>5238</v>
       </c>
       <c r="M998" t="s">
-        <v>3315</v>
+        <v>4179</v>
       </c>
       <c r="Q998" t="s">
-        <v>4550</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="999" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B999" s="1" t="s">
-        <v>3220</v>
+        <v>3225</v>
       </c>
       <c r="C999" t="s">
-        <v>3196</v>
+        <v>3224</v>
       </c>
       <c r="D999" s="1">
         <v>68000</v>
       </c>
+      <c r="E999" t="s">
+        <v>2</v>
+      </c>
       <c r="L999" t="s">
-        <v>1687</v>
+        <v>5238</v>
+      </c>
+      <c r="M999" t="s">
+        <v>4179</v>
       </c>
       <c r="Q999" t="s">
-        <v>3221</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1000" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1000" s="1" t="s">
-        <v>3223</v>
+        <v>3226</v>
       </c>
       <c r="C1000" t="s">
         <v>3224</v>
@@ -48585,12 +48591,12 @@
         <v>4179</v>
       </c>
       <c r="Q1000" t="s">
-        <v>4552</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1001" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1001" s="1" t="s">
-        <v>3225</v>
+        <v>3227</v>
       </c>
       <c r="C1001" t="s">
         <v>3224</v>
@@ -48608,98 +48614,98 @@
         <v>4179</v>
       </c>
       <c r="Q1001" t="s">
-        <v>4553</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1002" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1002" s="1" t="s">
-        <v>3226</v>
+        <v>3228</v>
       </c>
       <c r="C1002" t="s">
-        <v>3224</v>
+        <v>3229</v>
       </c>
       <c r="D1002" s="1">
         <v>68000</v>
       </c>
       <c r="E1002" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1002" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1002" t="s">
-        <v>4179</v>
+        <v>6383</v>
       </c>
       <c r="Q1002" t="s">
-        <v>4554</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="1003" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1003" s="1" t="s">
-        <v>3227</v>
+        <v>3230</v>
       </c>
       <c r="C1003" t="s">
-        <v>3224</v>
+        <v>3229</v>
       </c>
       <c r="D1003" s="1">
         <v>68000</v>
       </c>
       <c r="E1003" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1003" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1003" t="s">
-        <v>4179</v>
+        <v>6383</v>
       </c>
       <c r="Q1003" t="s">
-        <v>4555</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="1004" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1004" s="1" t="s">
-        <v>3228</v>
+        <v>6663</v>
       </c>
       <c r="C1004" t="s">
-        <v>3229</v>
-      </c>
-      <c r="D1004" s="1">
-        <v>68000</v>
+        <v>6664</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1004" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1004" t="s">
-        <v>6383</v>
+        <v>55</v>
+      </c>
+      <c r="M1004" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1004" t="s">
-        <v>4948</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="1005" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1005" s="1" t="s">
-        <v>3230</v>
+        <v>6666</v>
       </c>
       <c r="C1005" t="s">
-        <v>3229</v>
-      </c>
-      <c r="D1005" s="1">
-        <v>68000</v>
+        <v>6664</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1005" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1005" t="s">
-        <v>6383</v>
+        <v>6093</v>
+      </c>
+      <c r="M1005" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1005" t="s">
-        <v>3231</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="1006" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1006" s="1" t="s">
-        <v>6663</v>
+        <v>6668</v>
       </c>
       <c r="C1006" t="s">
         <v>6664</v>
@@ -48711,18 +48717,18 @@
         <v>2</v>
       </c>
       <c r="L1006" t="s">
-        <v>55</v>
+        <v>6093</v>
       </c>
       <c r="M1006" t="s">
         <v>3974</v>
       </c>
       <c r="Q1006" t="s">
-        <v>6665</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="1007" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1007" s="1" t="s">
-        <v>6666</v>
+        <v>6670</v>
       </c>
       <c r="C1007" t="s">
         <v>6664</v>
@@ -48740,12 +48746,12 @@
         <v>3974</v>
       </c>
       <c r="Q1007" t="s">
-        <v>6667</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="1008" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1008" s="1" t="s">
-        <v>6668</v>
+        <v>6672</v>
       </c>
       <c r="C1008" t="s">
         <v>6664</v>
@@ -48763,12 +48769,12 @@
         <v>3974</v>
       </c>
       <c r="Q1008" t="s">
-        <v>6669</v>
+        <v>6673</v>
       </c>
     </row>
     <row r="1009" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1009" s="1" t="s">
-        <v>6670</v>
+        <v>6674</v>
       </c>
       <c r="C1009" t="s">
         <v>6664</v>
@@ -48786,58 +48792,52 @@
         <v>3974</v>
       </c>
       <c r="Q1009" t="s">
-        <v>6671</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="1010" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1010" s="1" t="s">
-        <v>6672</v>
+        <v>3232</v>
       </c>
       <c r="C1010" t="s">
-        <v>6664</v>
+        <v>3233</v>
       </c>
       <c r="D1010" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1010" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1010" t="s">
-        <v>6093</v>
-      </c>
-      <c r="M1010" t="s">
-        <v>3974</v>
+        <v>5549</v>
       </c>
       <c r="Q1010" t="s">
-        <v>6673</v>
+        <v>6676</v>
       </c>
     </row>
     <row r="1011" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1011" s="1" t="s">
-        <v>6674</v>
+        <v>6677</v>
       </c>
       <c r="C1011" t="s">
-        <v>6664</v>
+        <v>3233</v>
       </c>
       <c r="D1011" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1011" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1011" t="s">
-        <v>6093</v>
-      </c>
-      <c r="M1011" t="s">
-        <v>3974</v>
+        <v>5549</v>
       </c>
       <c r="Q1011" t="s">
-        <v>6675</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="1012" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1012" s="1" t="s">
-        <v>3232</v>
+        <v>3235</v>
       </c>
       <c r="C1012" t="s">
         <v>3233</v>
@@ -48849,21 +48849,21 @@
         <v>2426</v>
       </c>
       <c r="L1012" t="s">
-        <v>5549</v>
+        <v>6383</v>
       </c>
       <c r="Q1012" t="s">
-        <v>6676</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="1013" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1013" s="1" t="s">
-        <v>6677</v>
+        <v>3237</v>
       </c>
       <c r="C1013" t="s">
-        <v>3233</v>
-      </c>
-      <c r="D1013" s="1" t="s">
-        <v>2</v>
+        <v>3238</v>
+      </c>
+      <c r="D1013" s="1">
+        <v>68000</v>
       </c>
       <c r="E1013" t="s">
         <v>2426</v>
@@ -48872,32 +48872,32 @@
         <v>5549</v>
       </c>
       <c r="Q1013" t="s">
-        <v>3234</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="1014" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1014" s="1" t="s">
-        <v>3235</v>
+        <v>3240</v>
       </c>
       <c r="C1014" t="s">
-        <v>3233</v>
-      </c>
-      <c r="D1014" s="1" t="s">
-        <v>2</v>
+        <v>3238</v>
+      </c>
+      <c r="D1014" s="1">
+        <v>68000</v>
       </c>
       <c r="E1014" t="s">
         <v>2426</v>
       </c>
       <c r="L1014" t="s">
-        <v>6383</v>
+        <v>5549</v>
       </c>
       <c r="Q1014" t="s">
-        <v>3236</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="1015" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1015" s="1" t="s">
-        <v>3237</v>
+        <v>3242</v>
       </c>
       <c r="C1015" t="s">
         <v>3238</v>
@@ -48912,12 +48912,12 @@
         <v>5549</v>
       </c>
       <c r="Q1015" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="1016" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1016" s="1" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="C1016" t="s">
         <v>3238</v>
@@ -48932,12 +48932,12 @@
         <v>5549</v>
       </c>
       <c r="Q1016" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="1017" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1017" s="1" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="C1017" t="s">
         <v>3238</v>
@@ -48952,12 +48952,12 @@
         <v>5549</v>
       </c>
       <c r="Q1017" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1018" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1018" s="1" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
       <c r="C1018" t="s">
         <v>3238</v>
@@ -48972,12 +48972,12 @@
         <v>5549</v>
       </c>
       <c r="Q1018" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="1019" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1019" s="1" t="s">
-        <v>3246</v>
+        <v>3250</v>
       </c>
       <c r="C1019" t="s">
         <v>3238</v>
@@ -48992,12 +48992,12 @@
         <v>5549</v>
       </c>
       <c r="Q1019" t="s">
-        <v>3247</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="1020" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1020" s="1" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
       <c r="C1020" t="s">
         <v>3238</v>
@@ -49012,12 +49012,12 @@
         <v>5549</v>
       </c>
       <c r="Q1020" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="1021" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1021" s="1" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="C1021" t="s">
         <v>3238</v>
@@ -49032,12 +49032,12 @@
         <v>5549</v>
       </c>
       <c r="Q1021" t="s">
-        <v>3251</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="1022" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1022" s="1" t="s">
-        <v>3252</v>
+        <v>3256</v>
       </c>
       <c r="C1022" t="s">
         <v>3238</v>
@@ -49052,12 +49052,12 @@
         <v>5549</v>
       </c>
       <c r="Q1022" t="s">
-        <v>3253</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="1023" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1023" s="1" t="s">
-        <v>3254</v>
+        <v>3257</v>
       </c>
       <c r="C1023" t="s">
         <v>3238</v>
@@ -49072,12 +49072,12 @@
         <v>5549</v>
       </c>
       <c r="Q1023" t="s">
-        <v>3255</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="1024" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1024" s="1" t="s">
-        <v>3256</v>
+        <v>3258</v>
       </c>
       <c r="C1024" t="s">
         <v>3238</v>
@@ -49092,18 +49092,18 @@
         <v>5549</v>
       </c>
       <c r="Q1024" t="s">
-        <v>4949</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="1025" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1025" s="1" t="s">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="C1025" t="s">
-        <v>3238</v>
-      </c>
-      <c r="D1025" s="1">
-        <v>68000</v>
+        <v>3261</v>
+      </c>
+      <c r="D1025" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1025" t="s">
         <v>2426</v>
@@ -49112,18 +49112,18 @@
         <v>5549</v>
       </c>
       <c r="Q1025" t="s">
-        <v>4950</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="1026" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1026" s="1" t="s">
-        <v>3258</v>
+        <v>3263</v>
       </c>
       <c r="C1026" t="s">
-        <v>3238</v>
-      </c>
-      <c r="D1026" s="1">
-        <v>68000</v>
+        <v>3261</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1026" t="s">
         <v>2426</v>
@@ -49132,12 +49132,12 @@
         <v>5549</v>
       </c>
       <c r="Q1026" t="s">
-        <v>3259</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="1027" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1027" s="1" t="s">
-        <v>3260</v>
+        <v>6678</v>
       </c>
       <c r="C1027" t="s">
         <v>3261</v>
@@ -49152,52 +49152,52 @@
         <v>5549</v>
       </c>
       <c r="Q1027" t="s">
-        <v>3262</v>
+        <v>6679</v>
       </c>
     </row>
     <row r="1028" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1028" s="1" t="s">
-        <v>3263</v>
+        <v>3287</v>
       </c>
       <c r="C1028" t="s">
-        <v>3261</v>
+        <v>3288</v>
       </c>
       <c r="D1028" s="1" t="s">
-        <v>1652</v>
+        <v>2</v>
       </c>
       <c r="E1028" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1028" t="s">
-        <v>5549</v>
+        <v>55</v>
       </c>
       <c r="Q1028" t="s">
-        <v>3264</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="1029" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1029" s="1" t="s">
-        <v>6678</v>
+        <v>3290</v>
       </c>
       <c r="C1029" t="s">
-        <v>3261</v>
+        <v>3288</v>
       </c>
       <c r="D1029" s="1" t="s">
-        <v>1652</v>
+        <v>2</v>
       </c>
       <c r="E1029" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1029" t="s">
-        <v>5549</v>
+        <v>55</v>
       </c>
       <c r="Q1029" t="s">
-        <v>6679</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="1030" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1030" s="1" t="s">
-        <v>3287</v>
+        <v>3292</v>
       </c>
       <c r="C1030" t="s">
         <v>3288</v>
@@ -49212,12 +49212,12 @@
         <v>55</v>
       </c>
       <c r="Q1030" t="s">
-        <v>3289</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="1031" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1031" s="1" t="s">
-        <v>3290</v>
+        <v>3294</v>
       </c>
       <c r="C1031" t="s">
         <v>3288</v>
@@ -49232,12 +49232,12 @@
         <v>55</v>
       </c>
       <c r="Q1031" t="s">
-        <v>3291</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="1032" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1032" s="1" t="s">
-        <v>3292</v>
+        <v>6682</v>
       </c>
       <c r="C1032" t="s">
         <v>3288</v>
@@ -49252,15 +49252,15 @@
         <v>55</v>
       </c>
       <c r="Q1032" t="s">
-        <v>3293</v>
+        <v>6683</v>
       </c>
     </row>
     <row r="1033" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1033" s="1" t="s">
-        <v>3294</v>
+        <v>3301</v>
       </c>
       <c r="C1033" t="s">
-        <v>3288</v>
+        <v>3302</v>
       </c>
       <c r="D1033" s="1" t="s">
         <v>2</v>
@@ -49272,15 +49272,15 @@
         <v>55</v>
       </c>
       <c r="Q1033" t="s">
-        <v>3295</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="1034" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1034" s="1" t="s">
-        <v>6682</v>
+        <v>3304</v>
       </c>
       <c r="C1034" t="s">
-        <v>3288</v>
+        <v>3302</v>
       </c>
       <c r="D1034" s="1" t="s">
         <v>2</v>
@@ -49292,52 +49292,58 @@
         <v>55</v>
       </c>
       <c r="Q1034" t="s">
-        <v>6683</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="1035" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1035" s="1" t="s">
-        <v>3301</v>
+        <v>3306</v>
       </c>
       <c r="C1035" t="s">
-        <v>3302</v>
-      </c>
-      <c r="D1035" s="1" t="s">
-        <v>2</v>
+        <v>3307</v>
+      </c>
+      <c r="D1035" s="1">
+        <v>68000</v>
       </c>
       <c r="E1035" t="s">
-        <v>2</v>
+        <v>3766</v>
       </c>
       <c r="L1035" t="s">
-        <v>55</v>
+        <v>5071</v>
+      </c>
+      <c r="M1035" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1035" t="s">
-        <v>3303</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1036" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1036" s="1" t="s">
-        <v>3304</v>
+        <v>3308</v>
       </c>
       <c r="C1036" t="s">
-        <v>3302</v>
-      </c>
-      <c r="D1036" s="1" t="s">
-        <v>2</v>
+        <v>3309</v>
+      </c>
+      <c r="D1036" s="1">
+        <v>68000</v>
       </c>
       <c r="E1036" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1036" t="s">
-        <v>55</v>
+        <v>5071</v>
+      </c>
+      <c r="M1036" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1036" t="s">
-        <v>3305</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1037" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1037" s="1" t="s">
-        <v>3306</v>
+        <v>3310</v>
       </c>
       <c r="C1037" t="s">
         <v>3307</v>
@@ -49345,62 +49351,56 @@
       <c r="D1037" s="1">
         <v>68000</v>
       </c>
-      <c r="E1037" t="s">
-        <v>3766</v>
-      </c>
       <c r="L1037" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1037" t="s">
         <v>1687</v>
       </c>
       <c r="Q1037" t="s">
-        <v>4556</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="1038" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1038" s="1" t="s">
-        <v>3308</v>
+        <v>3311</v>
       </c>
       <c r="C1038" t="s">
-        <v>3309</v>
+        <v>3312</v>
       </c>
       <c r="D1038" s="1">
         <v>68000</v>
       </c>
-      <c r="E1038" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1038" t="s">
-        <v>5071</v>
+        <v>1155</v>
       </c>
       <c r="M1038" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q1038" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1039" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1039" s="1" t="s">
-        <v>3310</v>
+        <v>3313</v>
       </c>
       <c r="C1039" t="s">
-        <v>3307</v>
+        <v>3312</v>
       </c>
       <c r="D1039" s="1">
         <v>68000</v>
       </c>
       <c r="L1039" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M1039" t="s">
         <v>1687</v>
       </c>
       <c r="Q1039" t="s">
-        <v>6684</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1040" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1040" s="1" t="s">
-        <v>3311</v>
+        <v>6685</v>
       </c>
       <c r="C1040" t="s">
         <v>3312</v>
@@ -49415,12 +49415,12 @@
         <v>1687</v>
       </c>
       <c r="Q1040" t="s">
-        <v>4558</v>
+        <v>6686</v>
       </c>
     </row>
     <row r="1041" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1041" s="1" t="s">
-        <v>3313</v>
+        <v>6687</v>
       </c>
       <c r="C1041" t="s">
         <v>3312</v>
@@ -49428,19 +49428,19 @@
       <c r="D1041" s="1">
         <v>68000</v>
       </c>
+      <c r="E1041" t="s">
+        <v>2</v>
+      </c>
       <c r="L1041" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M1041" t="s">
-        <v>1687</v>
+        <v>5238</v>
       </c>
       <c r="Q1041" t="s">
-        <v>4559</v>
+        <v>6688</v>
       </c>
     </row>
     <row r="1042" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1042" s="1" t="s">
-        <v>6685</v>
+        <v>6689</v>
       </c>
       <c r="C1042" t="s">
         <v>3312</v>
@@ -49448,19 +49448,22 @@
       <c r="D1042" s="1">
         <v>68000</v>
       </c>
+      <c r="E1042" t="s">
+        <v>2</v>
+      </c>
       <c r="L1042" t="s">
-        <v>1155</v>
+        <v>1687</v>
       </c>
       <c r="M1042" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q1042" t="s">
-        <v>6686</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="1043" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1043" s="1" t="s">
-        <v>6687</v>
+        <v>3314</v>
       </c>
       <c r="C1043" t="s">
         <v>3312</v>
@@ -49468,19 +49471,16 @@
       <c r="D1043" s="1">
         <v>68000</v>
       </c>
-      <c r="E1043" t="s">
-        <v>2</v>
-      </c>
       <c r="L1043" t="s">
-        <v>5238</v>
+        <v>3315</v>
       </c>
       <c r="Q1043" t="s">
-        <v>6688</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="1044" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1044" s="1" t="s">
-        <v>6689</v>
+        <v>3317</v>
       </c>
       <c r="C1044" t="s">
         <v>3312</v>
@@ -49488,22 +49488,16 @@
       <c r="D1044" s="1">
         <v>68000</v>
       </c>
-      <c r="E1044" t="s">
-        <v>2</v>
-      </c>
       <c r="L1044" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M1044" t="s">
-        <v>5070</v>
+        <v>3315</v>
       </c>
       <c r="Q1044" t="s">
-        <v>6690</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="1045" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1045" s="1" t="s">
-        <v>3314</v>
+        <v>6691</v>
       </c>
       <c r="C1045" t="s">
         <v>3312</v>
@@ -49515,89 +49509,95 @@
         <v>3315</v>
       </c>
       <c r="Q1045" t="s">
-        <v>3316</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="1046" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1046" s="1" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="C1046" t="s">
-        <v>3312</v>
+        <v>3319</v>
       </c>
       <c r="D1046" s="1">
         <v>68000</v>
       </c>
       <c r="L1046" t="s">
-        <v>3315</v>
+        <v>1687</v>
       </c>
       <c r="Q1046" t="s">
-        <v>4951</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1047" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1047" s="1" t="s">
-        <v>6691</v>
+        <v>3321</v>
       </c>
       <c r="C1047" t="s">
-        <v>3312</v>
-      </c>
-      <c r="D1047" s="1">
-        <v>68000</v>
+        <v>3322</v>
+      </c>
+      <c r="D1047" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>2</v>
       </c>
       <c r="L1047" t="s">
-        <v>3315</v>
+        <v>5070</v>
+      </c>
+      <c r="M1047" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1047" t="s">
-        <v>6692</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1048" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1048" s="1" t="s">
-        <v>3318</v>
+        <v>6693</v>
       </c>
       <c r="C1048" t="s">
-        <v>3319</v>
+        <v>6694</v>
       </c>
       <c r="D1048" s="1">
         <v>68000</v>
       </c>
       <c r="L1048" t="s">
-        <v>1687</v>
+        <v>55</v>
+      </c>
+      <c r="M1048" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1048" t="s">
-        <v>3320</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="1049" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1049" s="1" t="s">
-        <v>3321</v>
+        <v>6696</v>
       </c>
       <c r="C1049" t="s">
-        <v>3322</v>
+        <v>6694</v>
       </c>
       <c r="D1049" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1049" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1049" t="s">
-        <v>2</v>
-      </c>
       <c r="L1049" t="s">
-        <v>5070</v>
+        <v>55</v>
       </c>
       <c r="M1049" t="s">
-        <v>1687</v>
+        <v>3974</v>
       </c>
       <c r="Q1049" t="s">
-        <v>4560</v>
+        <v>6697</v>
       </c>
     </row>
     <row r="1050" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1050" s="1" t="s">
-        <v>6693</v>
+        <v>6698</v>
       </c>
       <c r="C1050" t="s">
         <v>6694</v>
@@ -49612,18 +49612,18 @@
         <v>3974</v>
       </c>
       <c r="Q1050" t="s">
-        <v>6695</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="1051" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1051" s="1" t="s">
-        <v>6696</v>
+        <v>6700</v>
       </c>
       <c r="C1051" t="s">
         <v>6694</v>
       </c>
-      <c r="D1051" s="1" t="s">
-        <v>2</v>
+      <c r="D1051" s="1">
+        <v>68000</v>
       </c>
       <c r="L1051" t="s">
         <v>55</v>
@@ -49632,52 +49632,58 @@
         <v>3974</v>
       </c>
       <c r="Q1051" t="s">
-        <v>6697</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="1052" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1052" s="1" t="s">
-        <v>6698</v>
+        <v>3325</v>
       </c>
       <c r="C1052" t="s">
-        <v>6694</v>
+        <v>3326</v>
       </c>
       <c r="D1052" s="1">
         <v>68000</v>
       </c>
+      <c r="E1052" t="s">
+        <v>4562</v>
+      </c>
       <c r="L1052" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="M1052" t="s">
-        <v>3974</v>
+        <v>5071</v>
       </c>
       <c r="Q1052" t="s">
-        <v>6699</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="1053" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1053" s="1" t="s">
-        <v>6700</v>
+        <v>3327</v>
       </c>
       <c r="C1053" t="s">
-        <v>6694</v>
+        <v>3326</v>
       </c>
       <c r="D1053" s="1">
         <v>68000</v>
       </c>
+      <c r="E1053" t="s">
+        <v>4562</v>
+      </c>
       <c r="L1053" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="M1053" t="s">
-        <v>3974</v>
+        <v>5071</v>
       </c>
       <c r="Q1053" t="s">
-        <v>6701</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1054" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1054" s="1" t="s">
-        <v>3325</v>
+        <v>3328</v>
       </c>
       <c r="C1054" t="s">
         <v>3326</v>
@@ -49689,18 +49695,15 @@
         <v>4562</v>
       </c>
       <c r="L1054" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1054" t="s">
-        <v>5071</v>
+        <v>77</v>
       </c>
       <c r="Q1054" t="s">
-        <v>4563</v>
+        <v>6702</v>
       </c>
     </row>
     <row r="1055" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1055" s="1" t="s">
-        <v>3327</v>
+        <v>3329</v>
       </c>
       <c r="C1055" t="s">
         <v>3326</v>
@@ -49712,18 +49715,15 @@
         <v>4562</v>
       </c>
       <c r="L1055" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1055" t="s">
-        <v>5071</v>
+        <v>77</v>
       </c>
       <c r="Q1055" t="s">
-        <v>4564</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="1056" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1056" s="1" t="s">
-        <v>3328</v>
+        <v>3331</v>
       </c>
       <c r="C1056" t="s">
         <v>3326</v>
@@ -49738,12 +49738,12 @@
         <v>77</v>
       </c>
       <c r="Q1056" t="s">
-        <v>6702</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1057" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1057" s="1" t="s">
-        <v>3329</v>
+        <v>3333</v>
       </c>
       <c r="C1057" t="s">
         <v>3326</v>
@@ -49758,12 +49758,12 @@
         <v>77</v>
       </c>
       <c r="Q1057" t="s">
-        <v>3330</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1058" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1058" s="1" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="C1058" t="s">
         <v>3326</v>
@@ -49771,19 +49771,16 @@
       <c r="D1058" s="1">
         <v>68000</v>
       </c>
-      <c r="E1058" t="s">
-        <v>4562</v>
-      </c>
       <c r="L1058" t="s">
         <v>77</v>
       </c>
       <c r="Q1058" t="s">
-        <v>3332</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1059" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1059" s="1" t="s">
-        <v>3333</v>
+        <v>3336</v>
       </c>
       <c r="C1059" t="s">
         <v>3326</v>
@@ -49798,12 +49795,12 @@
         <v>77</v>
       </c>
       <c r="Q1059" t="s">
-        <v>3334</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="1060" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1060" s="1" t="s">
-        <v>3335</v>
+        <v>3338</v>
       </c>
       <c r="C1060" t="s">
         <v>3326</v>
@@ -49811,16 +49808,19 @@
       <c r="D1060" s="1">
         <v>68000</v>
       </c>
+      <c r="E1060" t="s">
+        <v>4562</v>
+      </c>
       <c r="L1060" t="s">
         <v>77</v>
       </c>
       <c r="Q1060" t="s">
-        <v>4565</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="1061" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1061" s="1" t="s">
-        <v>3336</v>
+        <v>6703</v>
       </c>
       <c r="C1061" t="s">
         <v>3326</v>
@@ -49828,19 +49828,16 @@
       <c r="D1061" s="1">
         <v>68000</v>
       </c>
-      <c r="E1061" t="s">
-        <v>4562</v>
-      </c>
       <c r="L1061" t="s">
         <v>77</v>
       </c>
       <c r="Q1061" t="s">
-        <v>3337</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="1062" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1062" s="1" t="s">
-        <v>3338</v>
+        <v>6705</v>
       </c>
       <c r="C1062" t="s">
         <v>3326</v>
@@ -49848,19 +49845,16 @@
       <c r="D1062" s="1">
         <v>68000</v>
       </c>
-      <c r="E1062" t="s">
-        <v>4562</v>
-      </c>
       <c r="L1062" t="s">
         <v>77</v>
       </c>
       <c r="Q1062" t="s">
-        <v>3339</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="1063" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1063" s="1" t="s">
-        <v>6703</v>
+        <v>6707</v>
       </c>
       <c r="C1063" t="s">
         <v>3326</v>
@@ -49872,12 +49866,12 @@
         <v>77</v>
       </c>
       <c r="Q1063" t="s">
-        <v>6704</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="1064" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1064" s="1" t="s">
-        <v>6705</v>
+        <v>3340</v>
       </c>
       <c r="C1064" t="s">
         <v>3326</v>
@@ -49889,12 +49883,12 @@
         <v>77</v>
       </c>
       <c r="Q1064" t="s">
-        <v>6706</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="1065" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1065" s="1" t="s">
-        <v>6707</v>
+        <v>6710</v>
       </c>
       <c r="C1065" t="s">
         <v>3326</v>
@@ -49906,12 +49900,12 @@
         <v>77</v>
       </c>
       <c r="Q1065" t="s">
-        <v>6708</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="1066" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1066" s="1" t="s">
-        <v>3340</v>
+        <v>6712</v>
       </c>
       <c r="C1066" t="s">
         <v>3326</v>
@@ -49923,12 +49917,12 @@
         <v>77</v>
       </c>
       <c r="Q1066" t="s">
-        <v>6709</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="1067" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1067" s="1" t="s">
-        <v>6710</v>
+        <v>6714</v>
       </c>
       <c r="C1067" t="s">
         <v>3326</v>
@@ -49940,12 +49934,12 @@
         <v>77</v>
       </c>
       <c r="Q1067" t="s">
-        <v>6711</v>
+        <v>6715</v>
       </c>
     </row>
     <row r="1068" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1068" s="1" t="s">
-        <v>6712</v>
+        <v>3341</v>
       </c>
       <c r="C1068" t="s">
         <v>3326</v>
@@ -49957,12 +49951,12 @@
         <v>77</v>
       </c>
       <c r="Q1068" t="s">
-        <v>6713</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1069" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1069" s="1" t="s">
-        <v>6714</v>
+        <v>6716</v>
       </c>
       <c r="C1069" t="s">
         <v>3326</v>
@@ -49974,12 +49968,12 @@
         <v>77</v>
       </c>
       <c r="Q1069" t="s">
-        <v>6715</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="1070" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1070" s="1" t="s">
-        <v>3341</v>
+        <v>6718</v>
       </c>
       <c r="C1070" t="s">
         <v>3326</v>
@@ -49991,12 +49985,12 @@
         <v>77</v>
       </c>
       <c r="Q1070" t="s">
-        <v>3342</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="1071" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1071" s="1" t="s">
-        <v>6716</v>
+        <v>6720</v>
       </c>
       <c r="C1071" t="s">
         <v>3326</v>
@@ -50008,12 +50002,12 @@
         <v>77</v>
       </c>
       <c r="Q1071" t="s">
-        <v>6717</v>
+        <v>6721</v>
       </c>
     </row>
     <row r="1072" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1072" s="1" t="s">
-        <v>6718</v>
+        <v>3343</v>
       </c>
       <c r="C1072" t="s">
         <v>3326</v>
@@ -50025,12 +50019,12 @@
         <v>77</v>
       </c>
       <c r="Q1072" t="s">
-        <v>6719</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1073" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1073" s="1" t="s">
-        <v>6720</v>
+        <v>6722</v>
       </c>
       <c r="C1073" t="s">
         <v>3326</v>
@@ -50042,12 +50036,12 @@
         <v>77</v>
       </c>
       <c r="Q1073" t="s">
-        <v>6721</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="1074" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1074" s="1" t="s">
-        <v>3343</v>
+        <v>6724</v>
       </c>
       <c r="C1074" t="s">
         <v>3326</v>
@@ -50059,12 +50053,12 @@
         <v>77</v>
       </c>
       <c r="Q1074" t="s">
-        <v>4566</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="1075" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1075" s="1" t="s">
-        <v>6722</v>
+        <v>6726</v>
       </c>
       <c r="C1075" t="s">
         <v>3326</v>
@@ -50076,12 +50070,12 @@
         <v>77</v>
       </c>
       <c r="Q1075" t="s">
-        <v>6723</v>
+        <v>6727</v>
       </c>
     </row>
     <row r="1076" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1076" s="1" t="s">
-        <v>6724</v>
+        <v>6728</v>
       </c>
       <c r="C1076" t="s">
         <v>3326</v>
@@ -50093,12 +50087,12 @@
         <v>77</v>
       </c>
       <c r="Q1076" t="s">
-        <v>6725</v>
+        <v>6729</v>
       </c>
     </row>
     <row r="1077" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1077" s="1" t="s">
-        <v>6726</v>
+        <v>6730</v>
       </c>
       <c r="C1077" t="s">
         <v>3326</v>
@@ -50110,12 +50104,12 @@
         <v>77</v>
       </c>
       <c r="Q1077" t="s">
-        <v>6727</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="1078" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1078" s="1" t="s">
-        <v>6728</v>
+        <v>6732</v>
       </c>
       <c r="C1078" t="s">
         <v>3326</v>
@@ -50127,12 +50121,12 @@
         <v>77</v>
       </c>
       <c r="Q1078" t="s">
-        <v>6729</v>
+        <v>6733</v>
       </c>
     </row>
     <row r="1079" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1079" s="1" t="s">
-        <v>6730</v>
+        <v>6734</v>
       </c>
       <c r="C1079" t="s">
         <v>3326</v>
@@ -50144,15 +50138,15 @@
         <v>77</v>
       </c>
       <c r="Q1079" t="s">
-        <v>6731</v>
+        <v>6735</v>
       </c>
     </row>
     <row r="1080" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1080" s="1" t="s">
-        <v>6732</v>
+        <v>6736</v>
       </c>
       <c r="C1080" t="s">
-        <v>3326</v>
+        <v>6737</v>
       </c>
       <c r="D1080" s="1">
         <v>68000</v>
@@ -50161,15 +50155,15 @@
         <v>77</v>
       </c>
       <c r="Q1080" t="s">
-        <v>6733</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="1081" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1081" s="1" t="s">
-        <v>6734</v>
+        <v>6739</v>
       </c>
       <c r="C1081" t="s">
-        <v>3326</v>
+        <v>6737</v>
       </c>
       <c r="D1081" s="1">
         <v>68000</v>
@@ -50178,12 +50172,12 @@
         <v>77</v>
       </c>
       <c r="Q1081" t="s">
-        <v>6735</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="1082" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1082" s="1" t="s">
-        <v>6736</v>
+        <v>6741</v>
       </c>
       <c r="C1082" t="s">
         <v>6737</v>
@@ -50195,49 +50189,49 @@
         <v>77</v>
       </c>
       <c r="Q1082" t="s">
-        <v>6738</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="1083" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1083" s="1" t="s">
-        <v>6739</v>
+        <v>3347</v>
       </c>
       <c r="C1083" t="s">
-        <v>6737</v>
+        <v>3348</v>
       </c>
       <c r="D1083" s="1">
         <v>68000</v>
       </c>
       <c r="L1083" t="s">
-        <v>77</v>
+        <v>1687</v>
       </c>
       <c r="Q1083" t="s">
-        <v>6740</v>
+        <v>6743</v>
       </c>
     </row>
     <row r="1084" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1084" s="1" t="s">
-        <v>6741</v>
+        <v>3344</v>
       </c>
       <c r="C1084" t="s">
-        <v>6737</v>
+        <v>3345</v>
       </c>
       <c r="D1084" s="1">
         <v>68000</v>
       </c>
       <c r="L1084" t="s">
-        <v>77</v>
+        <v>1687</v>
       </c>
       <c r="Q1084" t="s">
-        <v>6742</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1085" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1085" s="1" t="s">
-        <v>3347</v>
+        <v>6744</v>
       </c>
       <c r="C1085" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="D1085" s="1">
         <v>68000</v>
@@ -50246,15 +50240,15 @@
         <v>1687</v>
       </c>
       <c r="Q1085" t="s">
-        <v>6743</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="1086" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1086" s="1" t="s">
-        <v>3344</v>
+        <v>6746</v>
       </c>
       <c r="C1086" t="s">
-        <v>3345</v>
+        <v>6747</v>
       </c>
       <c r="D1086" s="1">
         <v>68000</v>
@@ -50263,15 +50257,15 @@
         <v>1687</v>
       </c>
       <c r="Q1086" t="s">
-        <v>3346</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="1087" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1087" s="1" t="s">
-        <v>6744</v>
+        <v>6749</v>
       </c>
       <c r="C1087" t="s">
-        <v>3345</v>
+        <v>6747</v>
       </c>
       <c r="D1087" s="1">
         <v>68000</v>
@@ -50280,100 +50274,109 @@
         <v>1687</v>
       </c>
       <c r="Q1087" t="s">
-        <v>6745</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="1088" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1088" s="1" t="s">
-        <v>6746</v>
+        <v>2966</v>
       </c>
       <c r="C1088" t="s">
-        <v>6747</v>
-      </c>
-      <c r="D1088" s="1">
-        <v>68000</v>
+        <v>2967</v>
+      </c>
+      <c r="D1088" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>2</v>
       </c>
       <c r="L1088" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q1088" t="s">
-        <v>6748</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1089" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1089" s="1" t="s">
-        <v>6749</v>
+        <v>3349</v>
       </c>
       <c r="C1089" t="s">
-        <v>6747</v>
-      </c>
-      <c r="D1089" s="1">
-        <v>68000</v>
+        <v>3350</v>
+      </c>
+      <c r="D1089" s="1" t="s">
+        <v>951</v>
       </c>
       <c r="L1089" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q1089" t="s">
-        <v>6750</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="1090" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1090" s="1" t="s">
-        <v>2966</v>
+        <v>6765</v>
       </c>
       <c r="C1090" t="s">
-        <v>2967</v>
+        <v>3350</v>
       </c>
       <c r="D1090" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1090" t="s">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="L1090" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="Q1090" t="s">
-        <v>2968</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="1091" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1091" s="1" t="s">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="C1091" t="s">
-        <v>3350</v>
-      </c>
-      <c r="D1091" s="1" t="s">
-        <v>951</v>
+        <v>3352</v>
+      </c>
+      <c r="D1091" s="1">
+        <v>68000</v>
       </c>
       <c r="L1091" t="s">
-        <v>5070</v>
+        <v>55</v>
+      </c>
+      <c r="M1091" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1091" t="s">
-        <v>6764</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="1092" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1092" s="1" t="s">
-        <v>6765</v>
+        <v>3353</v>
       </c>
       <c r="C1092" t="s">
-        <v>3350</v>
-      </c>
-      <c r="D1092" s="1" t="s">
-        <v>951</v>
+        <v>3352</v>
+      </c>
+      <c r="D1092" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>2</v>
       </c>
       <c r="L1092" t="s">
-        <v>5070</v>
+        <v>6767</v>
+      </c>
+      <c r="M1092" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1092" t="s">
-        <v>6766</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1093" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1093" s="1" t="s">
-        <v>3351</v>
+        <v>3354</v>
       </c>
       <c r="C1093" t="s">
         <v>3352</v>
@@ -50381,68 +50384,65 @@
       <c r="D1093" s="1">
         <v>68000</v>
       </c>
+      <c r="E1093" t="s">
+        <v>2</v>
+      </c>
       <c r="L1093" t="s">
-        <v>55</v>
+        <v>6767</v>
       </c>
       <c r="M1093" t="s">
         <v>1687</v>
       </c>
       <c r="Q1093" t="s">
-        <v>4567</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="1094" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1094" s="1" t="s">
-        <v>3353</v>
+        <v>3355</v>
       </c>
       <c r="C1094" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D1094" s="1">
-        <v>68000</v>
+        <v>3356</v>
+      </c>
+      <c r="D1094" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1094" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1094" t="s">
-        <v>6767</v>
-      </c>
-      <c r="M1094" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q1094" t="s">
-        <v>4568</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="1095" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1095" s="1" t="s">
-        <v>3354</v>
+        <v>6768</v>
       </c>
       <c r="C1095" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D1095" s="1">
-        <v>68000</v>
+        <v>6769</v>
+      </c>
+      <c r="D1095" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1095" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1095" t="s">
-        <v>6767</v>
-      </c>
-      <c r="M1095" t="s">
-        <v>1687</v>
+        <v>5505</v>
       </c>
       <c r="Q1095" t="s">
-        <v>4569</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="1096" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1096" s="1" t="s">
-        <v>3355</v>
+        <v>6771</v>
       </c>
       <c r="C1096" t="s">
-        <v>3356</v>
+        <v>6769</v>
       </c>
       <c r="D1096" s="1" t="s">
         <v>2</v>
@@ -50451,15 +50451,18 @@
         <v>2426</v>
       </c>
       <c r="L1096" t="s">
-        <v>5070</v>
+        <v>5071</v>
+      </c>
+      <c r="M1096" t="s">
+        <v>55</v>
       </c>
       <c r="Q1096" t="s">
-        <v>3357</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="1097" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1097" s="1" t="s">
-        <v>6768</v>
+        <v>6773</v>
       </c>
       <c r="C1097" t="s">
         <v>6769</v>
@@ -50471,116 +50474,107 @@
         <v>2426</v>
       </c>
       <c r="L1097" t="s">
-        <v>5505</v>
+        <v>5071</v>
+      </c>
+      <c r="M1097" t="s">
+        <v>55</v>
       </c>
       <c r="Q1097" t="s">
-        <v>6770</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="1098" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1098" s="1" t="s">
-        <v>6771</v>
+        <v>3358</v>
       </c>
       <c r="C1098" t="s">
-        <v>6769</v>
-      </c>
-      <c r="D1098" s="1" t="s">
-        <v>2</v>
+        <v>6775</v>
+      </c>
+      <c r="D1098" s="1">
+        <v>68000</v>
       </c>
       <c r="E1098" t="s">
         <v>2426</v>
       </c>
+      <c r="F1098" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G1098" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1098" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M1098" t="s">
-        <v>55</v>
+        <v>4570</v>
       </c>
       <c r="Q1098" t="s">
-        <v>6772</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1099" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1099" s="1" t="s">
-        <v>6773</v>
+        <v>6776</v>
       </c>
       <c r="C1099" t="s">
-        <v>6769</v>
-      </c>
-      <c r="D1099" s="1" t="s">
-        <v>2</v>
+        <v>6775</v>
+      </c>
+      <c r="D1099" s="1">
+        <v>68000</v>
       </c>
       <c r="E1099" t="s">
         <v>2426</v>
       </c>
+      <c r="F1099" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1099" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M1099" t="s">
-        <v>55</v>
+        <v>2605</v>
       </c>
       <c r="Q1099" t="s">
-        <v>6774</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="1100" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1100" s="1" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="C1100" t="s">
-        <v>6775</v>
-      </c>
-      <c r="D1100" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1100" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1100" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G1100" t="s">
-        <v>2426</v>
+        <v>3360</v>
+      </c>
+      <c r="D1100" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1100" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1100" t="s">
-        <v>4570</v>
+        <v>5070</v>
       </c>
       <c r="Q1100" t="s">
-        <v>4571</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="1101" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1101" s="1" t="s">
-        <v>6776</v>
+        <v>3362</v>
       </c>
       <c r="C1101" t="s">
-        <v>6775</v>
-      </c>
-      <c r="D1101" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1101" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1101" t="s">
-        <v>2426</v>
+        <v>3360</v>
+      </c>
+      <c r="D1101" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1101" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1101" t="s">
-        <v>2605</v>
+        <v>5070</v>
       </c>
       <c r="Q1101" t="s">
-        <v>6777</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="1102" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1102" s="1" t="s">
-        <v>3359</v>
+        <v>6778</v>
       </c>
       <c r="C1102" t="s">
         <v>3360</v>
@@ -50592,12 +50586,12 @@
         <v>5070</v>
       </c>
       <c r="Q1102" t="s">
-        <v>3361</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="1103" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1103" s="1" t="s">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="C1103" t="s">
         <v>3360</v>
@@ -50609,12 +50603,12 @@
         <v>5070</v>
       </c>
       <c r="Q1103" t="s">
-        <v>3363</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1104" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1104" s="1" t="s">
-        <v>6778</v>
+        <v>3366</v>
       </c>
       <c r="C1104" t="s">
         <v>3360</v>
@@ -50626,49 +50620,61 @@
         <v>5070</v>
       </c>
       <c r="Q1104" t="s">
-        <v>6779</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="1105" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1105" s="1" t="s">
-        <v>3364</v>
+        <v>3377</v>
       </c>
       <c r="C1105" t="s">
-        <v>3360</v>
-      </c>
-      <c r="D1105" s="1" t="s">
-        <v>2</v>
+        <v>3369</v>
+      </c>
+      <c r="D1105" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>2426</v>
       </c>
       <c r="L1105" t="s">
-        <v>5070</v>
+        <v>5238</v>
+      </c>
+      <c r="M1105" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1105" t="s">
-        <v>3365</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="1106" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1106" s="1" t="s">
-        <v>3366</v>
+        <v>6795</v>
       </c>
       <c r="C1106" t="s">
-        <v>3360</v>
-      </c>
-      <c r="D1106" s="1" t="s">
-        <v>2</v>
+        <v>6796</v>
+      </c>
+      <c r="D1106" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>3964</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>2426</v>
       </c>
       <c r="L1106" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q1106" t="s">
-        <v>3367</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="1107" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1107" s="1" t="s">
-        <v>3377</v>
+        <v>3381</v>
       </c>
       <c r="C1107" t="s">
-        <v>3369</v>
+        <v>3382</v>
       </c>
       <c r="D1107" s="1">
         <v>68000</v>
@@ -50677,44 +50683,41 @@
         <v>2426</v>
       </c>
       <c r="L1107" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1107" t="s">
         <v>1687</v>
       </c>
       <c r="Q1107" t="s">
-        <v>4574</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1108" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1108" s="1" t="s">
-        <v>6795</v>
+        <v>3384</v>
       </c>
       <c r="C1108" t="s">
-        <v>6796</v>
+        <v>3385</v>
       </c>
       <c r="D1108" s="1">
         <v>68000</v>
       </c>
       <c r="E1108" t="s">
-        <v>3964</v>
-      </c>
-      <c r="F1108" t="s">
         <v>2426</v>
       </c>
       <c r="L1108" t="s">
-        <v>5505</v>
+        <v>5071</v>
+      </c>
+      <c r="M1108" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1108" t="s">
-        <v>6797</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1109" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1109" s="1" t="s">
-        <v>3381</v>
+        <v>3386</v>
       </c>
       <c r="C1109" t="s">
-        <v>3382</v>
+        <v>3385</v>
       </c>
       <c r="D1109" s="1">
         <v>68000</v>
@@ -50723,61 +50726,52 @@
         <v>2426</v>
       </c>
       <c r="L1109" t="s">
+        <v>5071</v>
+      </c>
+      <c r="M1109" t="s">
         <v>1687</v>
       </c>
       <c r="Q1109" t="s">
-        <v>3383</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1110" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1110" s="1" t="s">
-        <v>3384</v>
+        <v>3387</v>
       </c>
       <c r="C1110" t="s">
-        <v>3385</v>
+        <v>3319</v>
       </c>
       <c r="D1110" s="1">
         <v>68000</v>
       </c>
-      <c r="E1110" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1110" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1110" t="s">
         <v>1687</v>
       </c>
       <c r="Q1110" t="s">
-        <v>4575</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1111" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1111" s="1" t="s">
-        <v>3386</v>
+        <v>3389</v>
       </c>
       <c r="C1111" t="s">
-        <v>3385</v>
+        <v>3319</v>
       </c>
       <c r="D1111" s="1">
         <v>68000</v>
       </c>
-      <c r="E1111" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1111" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1111" t="s">
         <v>1687</v>
       </c>
       <c r="Q1111" t="s">
-        <v>4576</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="1112" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1112" s="1" t="s">
-        <v>3387</v>
+        <v>3391</v>
       </c>
       <c r="C1112" t="s">
         <v>3319</v>
@@ -50789,15 +50783,15 @@
         <v>1687</v>
       </c>
       <c r="Q1112" t="s">
-        <v>3388</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1113" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1113" s="1" t="s">
-        <v>3389</v>
+        <v>3393</v>
       </c>
       <c r="C1113" t="s">
-        <v>3319</v>
+        <v>3394</v>
       </c>
       <c r="D1113" s="1">
         <v>68000</v>
@@ -50806,15 +50800,15 @@
         <v>1687</v>
       </c>
       <c r="Q1113" t="s">
-        <v>3390</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="1114" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1114" s="1" t="s">
-        <v>3391</v>
+        <v>3396</v>
       </c>
       <c r="C1114" t="s">
-        <v>3319</v>
+        <v>3394</v>
       </c>
       <c r="D1114" s="1">
         <v>68000</v>
@@ -50823,46 +50817,52 @@
         <v>1687</v>
       </c>
       <c r="Q1114" t="s">
-        <v>3392</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="1115" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1115" s="1" t="s">
-        <v>3393</v>
+        <v>3398</v>
       </c>
       <c r="C1115" t="s">
-        <v>3394</v>
-      </c>
-      <c r="D1115" s="1">
-        <v>68000</v>
+        <v>3399</v>
+      </c>
+      <c r="D1115" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1115" t="s">
-        <v>1687</v>
+        <v>1155</v>
+      </c>
+      <c r="M1115" t="s">
+        <v>352</v>
       </c>
       <c r="Q1115" t="s">
-        <v>3395</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1116" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1116" s="1" t="s">
-        <v>3396</v>
+        <v>3400</v>
       </c>
       <c r="C1116" t="s">
-        <v>3394</v>
-      </c>
-      <c r="D1116" s="1">
-        <v>68000</v>
+        <v>3399</v>
+      </c>
+      <c r="D1116" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1116" t="s">
-        <v>1687</v>
+        <v>1155</v>
+      </c>
+      <c r="M1116" t="s">
+        <v>352</v>
       </c>
       <c r="Q1116" t="s">
-        <v>3397</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="1117" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1117" s="1" t="s">
-        <v>3398</v>
+        <v>3401</v>
       </c>
       <c r="C1117" t="s">
         <v>3399</v>
@@ -50877,12 +50877,12 @@
         <v>352</v>
       </c>
       <c r="Q1117" t="s">
-        <v>4577</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1118" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1118" s="1" t="s">
-        <v>3400</v>
+        <v>6798</v>
       </c>
       <c r="C1118" t="s">
         <v>3399</v>
@@ -50897,15 +50897,15 @@
         <v>352</v>
       </c>
       <c r="Q1118" t="s">
-        <v>4578</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="1119" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1119" s="1" t="s">
-        <v>3401</v>
+        <v>6803</v>
       </c>
       <c r="C1119" t="s">
-        <v>3399</v>
+        <v>6804</v>
       </c>
       <c r="D1119" s="1" t="s">
         <v>2</v>
@@ -50913,19 +50913,16 @@
       <c r="L1119" t="s">
         <v>1155</v>
       </c>
-      <c r="M1119" t="s">
-        <v>352</v>
-      </c>
       <c r="Q1119" t="s">
-        <v>4579</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="1120" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1120" s="1" t="s">
-        <v>6798</v>
+        <v>6806</v>
       </c>
       <c r="C1120" t="s">
-        <v>3399</v>
+        <v>6804</v>
       </c>
       <c r="D1120" s="1" t="s">
         <v>2</v>
@@ -50933,50 +50930,41 @@
       <c r="L1120" t="s">
         <v>1155</v>
       </c>
-      <c r="M1120" t="s">
-        <v>352</v>
-      </c>
       <c r="Q1120" t="s">
-        <v>6799</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="1121" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1121" s="1" t="s">
-        <v>6803</v>
+        <v>6808</v>
       </c>
       <c r="C1121" t="s">
-        <v>6804</v>
-      </c>
-      <c r="D1121" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1121" t="s">
-        <v>1155</v>
+        <v>6809</v>
+      </c>
+      <c r="D1121" s="1">
+        <v>68000</v>
       </c>
       <c r="Q1121" t="s">
-        <v>6805</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="1122" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1122" s="1" t="s">
-        <v>6806</v>
+        <v>6811</v>
       </c>
       <c r="C1122" t="s">
-        <v>6804</v>
-      </c>
-      <c r="D1122" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1122" t="s">
-        <v>1155</v>
+        <v>6809</v>
+      </c>
+      <c r="D1122" s="1">
+        <v>68000</v>
       </c>
       <c r="Q1122" t="s">
-        <v>6807</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="1123" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1123" s="1" t="s">
-        <v>6808</v>
+        <v>6813</v>
       </c>
       <c r="C1123" t="s">
         <v>6809</v>
@@ -50985,12 +50973,12 @@
         <v>68000</v>
       </c>
       <c r="Q1123" t="s">
-        <v>6810</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="1124" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1124" s="1" t="s">
-        <v>6811</v>
+        <v>6815</v>
       </c>
       <c r="C1124" t="s">
         <v>6809</v>
@@ -50999,12 +50987,12 @@
         <v>68000</v>
       </c>
       <c r="Q1124" t="s">
-        <v>6812</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="1125" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1125" s="1" t="s">
-        <v>6813</v>
+        <v>6817</v>
       </c>
       <c r="C1125" t="s">
         <v>6809</v>
@@ -51013,12 +51001,12 @@
         <v>68000</v>
       </c>
       <c r="Q1125" t="s">
-        <v>6814</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="1126" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1126" s="1" t="s">
-        <v>6815</v>
+        <v>6819</v>
       </c>
       <c r="C1126" t="s">
         <v>6809</v>
@@ -51027,12 +51015,12 @@
         <v>68000</v>
       </c>
       <c r="Q1126" t="s">
-        <v>6816</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="1127" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1127" s="1" t="s">
-        <v>6817</v>
+        <v>6821</v>
       </c>
       <c r="C1127" t="s">
         <v>6809</v>
@@ -51041,12 +51029,12 @@
         <v>68000</v>
       </c>
       <c r="Q1127" t="s">
-        <v>6818</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="1128" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1128" s="1" t="s">
-        <v>6819</v>
+        <v>6823</v>
       </c>
       <c r="C1128" t="s">
         <v>6809</v>
@@ -51055,12 +51043,12 @@
         <v>68000</v>
       </c>
       <c r="Q1128" t="s">
-        <v>6820</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="1129" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1129" s="1" t="s">
-        <v>6821</v>
+        <v>6825</v>
       </c>
       <c r="C1129" t="s">
         <v>6809</v>
@@ -51069,12 +51057,12 @@
         <v>68000</v>
       </c>
       <c r="Q1129" t="s">
-        <v>6822</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="1130" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1130" s="1" t="s">
-        <v>6823</v>
+        <v>6827</v>
       </c>
       <c r="C1130" t="s">
         <v>6809</v>
@@ -51083,12 +51071,12 @@
         <v>68000</v>
       </c>
       <c r="Q1130" t="s">
-        <v>6824</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="1131" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1131" s="1" t="s">
-        <v>6825</v>
+        <v>6829</v>
       </c>
       <c r="C1131" t="s">
         <v>6809</v>
@@ -51097,12 +51085,12 @@
         <v>68000</v>
       </c>
       <c r="Q1131" t="s">
-        <v>6826</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="1132" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1132" s="1" t="s">
-        <v>6827</v>
+        <v>6831</v>
       </c>
       <c r="C1132" t="s">
         <v>6809</v>
@@ -51111,12 +51099,12 @@
         <v>68000</v>
       </c>
       <c r="Q1132" t="s">
-        <v>6828</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="1133" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1133" s="1" t="s">
-        <v>6829</v>
+        <v>6833</v>
       </c>
       <c r="C1133" t="s">
         <v>6809</v>
@@ -51124,13 +51112,19 @@
       <c r="D1133" s="1">
         <v>68000</v>
       </c>
+      <c r="L1133" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1133" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1133" t="s">
-        <v>6830</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="1134" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1134" s="1" t="s">
-        <v>6831</v>
+        <v>6835</v>
       </c>
       <c r="C1134" t="s">
         <v>6809</v>
@@ -51138,13 +51132,19 @@
       <c r="D1134" s="1">
         <v>68000</v>
       </c>
+      <c r="L1134" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1134" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1134" t="s">
-        <v>6832</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="1135" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1135" s="1" t="s">
-        <v>6833</v>
+        <v>6837</v>
       </c>
       <c r="C1135" t="s">
         <v>6809</v>
@@ -51152,19 +51152,13 @@
       <c r="D1135" s="1">
         <v>68000</v>
       </c>
-      <c r="L1135" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M1135" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q1135" t="s">
-        <v>6834</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="1136" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1136" s="1" t="s">
-        <v>6835</v>
+        <v>6839</v>
       </c>
       <c r="C1136" t="s">
         <v>6809</v>
@@ -51172,19 +51166,13 @@
       <c r="D1136" s="1">
         <v>68000</v>
       </c>
-      <c r="L1136" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M1136" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q1136" t="s">
-        <v>6836</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="1137" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1137" s="1" t="s">
-        <v>6837</v>
+        <v>6841</v>
       </c>
       <c r="C1137" t="s">
         <v>6809</v>
@@ -51193,12 +51181,12 @@
         <v>68000</v>
       </c>
       <c r="Q1137" t="s">
-        <v>6838</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="1138" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1138" s="1" t="s">
-        <v>6839</v>
+        <v>6843</v>
       </c>
       <c r="C1138" t="s">
         <v>6809</v>
@@ -51206,13 +51194,19 @@
       <c r="D1138" s="1">
         <v>68000</v>
       </c>
+      <c r="L1138" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1138" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1138" t="s">
-        <v>6840</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="1139" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1139" s="1" t="s">
-        <v>6841</v>
+        <v>6845</v>
       </c>
       <c r="C1139" t="s">
         <v>6809</v>
@@ -51221,12 +51215,12 @@
         <v>68000</v>
       </c>
       <c r="Q1139" t="s">
-        <v>6842</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="1140" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1140" s="1" t="s">
-        <v>6843</v>
+        <v>6847</v>
       </c>
       <c r="C1140" t="s">
         <v>6809</v>
@@ -51241,12 +51235,12 @@
         <v>6093</v>
       </c>
       <c r="Q1140" t="s">
-        <v>6844</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="1141" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1141" s="1" t="s">
-        <v>6845</v>
+        <v>6849</v>
       </c>
       <c r="C1141" t="s">
         <v>6809</v>
@@ -51254,13 +51248,19 @@
       <c r="D1141" s="1">
         <v>68000</v>
       </c>
+      <c r="L1141" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1141" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1141" t="s">
-        <v>6846</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="1142" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1142" s="1" t="s">
-        <v>6847</v>
+        <v>6851</v>
       </c>
       <c r="C1142" t="s">
         <v>6809</v>
@@ -51268,53 +51268,53 @@
       <c r="D1142" s="1">
         <v>68000</v>
       </c>
-      <c r="L1142" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M1142" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q1142" t="s">
-        <v>6848</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="1143" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1143" s="1" t="s">
-        <v>6849</v>
+        <v>6853</v>
       </c>
       <c r="C1143" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D1143" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D1143" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>3794</v>
       </c>
       <c r="L1143" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M1143" t="s">
-        <v>6093</v>
+        <v>1900</v>
       </c>
       <c r="Q1143" t="s">
-        <v>6850</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="1144" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1144" s="1" t="s">
-        <v>6851</v>
+        <v>6856</v>
       </c>
       <c r="C1144" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D1144" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D1144" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L1144" t="s">
+        <v>1900</v>
       </c>
       <c r="Q1144" t="s">
-        <v>6852</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="1145" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1145" s="1" t="s">
-        <v>6853</v>
+        <v>3468</v>
       </c>
       <c r="C1145" t="s">
         <v>6854</v>
@@ -51329,52 +51329,76 @@
         <v>1900</v>
       </c>
       <c r="Q1145" t="s">
-        <v>6855</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="1146" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1146" s="1" t="s">
-        <v>6856</v>
+        <v>6858</v>
       </c>
       <c r="C1146" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D1146" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E1146" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>6862</v>
       </c>
       <c r="L1146" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M1146" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N1146" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O1146" t="s">
+        <v>6866</v>
       </c>
       <c r="Q1146" t="s">
-        <v>6857</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="1147" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1147" s="1" t="s">
-        <v>3468</v>
+        <v>6868</v>
       </c>
       <c r="C1147" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D1147" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E1147" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>6862</v>
       </c>
       <c r="L1147" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M1147" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N1147" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O1147" t="s">
+        <v>6866</v>
       </c>
       <c r="Q1147" t="s">
-        <v>3470</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="1148" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1148" s="1" t="s">
-        <v>6858</v>
+        <v>6870</v>
       </c>
       <c r="C1148" t="s">
         <v>6859</v>
@@ -51401,82 +51425,64 @@
         <v>6866</v>
       </c>
       <c r="Q1148" t="s">
-        <v>6867</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="1149" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1149" s="1" t="s">
-        <v>6868</v>
+        <v>6872</v>
       </c>
       <c r="C1149" t="s">
-        <v>6859</v>
+        <v>6873</v>
       </c>
       <c r="D1149" s="1" t="s">
-        <v>6860</v>
+        <v>2</v>
       </c>
       <c r="E1149" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F1149" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L1149" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M1149" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N1149" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O1149" t="s">
-        <v>6866</v>
+        <v>3974</v>
       </c>
       <c r="Q1149" t="s">
-        <v>6869</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="1150" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1150" s="1" t="s">
-        <v>6870</v>
+        <v>3490</v>
       </c>
       <c r="C1150" t="s">
-        <v>6859</v>
+        <v>6873</v>
       </c>
       <c r="D1150" s="1" t="s">
-        <v>6860</v>
+        <v>2</v>
       </c>
       <c r="E1150" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F1150" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L1150" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M1150" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N1150" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O1150" t="s">
-        <v>6866</v>
+        <v>3974</v>
       </c>
       <c r="Q1150" t="s">
-        <v>6871</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="1151" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1151" s="1" t="s">
-        <v>6872</v>
+        <v>6876</v>
       </c>
       <c r="C1151" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D1151" s="1" t="s">
-        <v>2</v>
+        <v>6877</v>
+      </c>
+      <c r="D1151" s="1">
+        <v>68000</v>
       </c>
       <c r="E1151" t="s">
         <v>2426</v>
@@ -51485,41 +51491,35 @@
         <v>5071</v>
       </c>
       <c r="M1151" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q1151" t="s">
-        <v>6874</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="1152" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1152" s="1" t="s">
-        <v>3490</v>
+        <v>6879</v>
       </c>
       <c r="C1152" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D1152" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1152" t="s">
-        <v>2426</v>
+        <v>6877</v>
+      </c>
+      <c r="D1152" s="1">
+        <v>68000</v>
       </c>
       <c r="L1152" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1152" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q1152" t="s">
-        <v>6875</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="1153" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1153" s="1" t="s">
-        <v>6876</v>
+        <v>6881</v>
       </c>
       <c r="C1153" t="s">
-        <v>6877</v>
+        <v>6882</v>
       </c>
       <c r="D1153" s="1">
         <v>68000</v>
@@ -51528,35 +51528,47 @@
         <v>2426</v>
       </c>
       <c r="L1153" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M1153" t="s">
         <v>5071</v>
       </c>
-      <c r="M1153" t="s">
+      <c r="N1153" t="s">
         <v>1687</v>
       </c>
       <c r="Q1153" t="s">
-        <v>6878</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="1154" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1154" s="1" t="s">
-        <v>6879</v>
+        <v>6884</v>
       </c>
       <c r="C1154" t="s">
-        <v>6877</v>
+        <v>6882</v>
       </c>
       <c r="D1154" s="1">
         <v>68000</v>
       </c>
+      <c r="E1154" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1154" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M1154" t="s">
+        <v>5071</v>
+      </c>
+      <c r="N1154" t="s">
         <v>1687</v>
       </c>
       <c r="Q1154" t="s">
-        <v>6880</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="1155" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1155" s="1" t="s">
-        <v>6881</v>
+        <v>6886</v>
       </c>
       <c r="C1155" t="s">
         <v>6882</v>
@@ -51577,107 +51589,101 @@
         <v>1687</v>
       </c>
       <c r="Q1155" t="s">
-        <v>6883</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="1156" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1156" s="1" t="s">
-        <v>6884</v>
+        <v>6888</v>
       </c>
       <c r="C1156" t="s">
-        <v>6882</v>
+        <v>6889</v>
       </c>
       <c r="D1156" s="1">
         <v>68000</v>
       </c>
-      <c r="E1156" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1156" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M1156" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N1156" t="s">
         <v>1687</v>
       </c>
       <c r="Q1156" t="s">
-        <v>6885</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="1157" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1157" s="1" t="s">
-        <v>6886</v>
+        <v>6891</v>
       </c>
       <c r="C1157" t="s">
-        <v>6882</v>
+        <v>6889</v>
       </c>
       <c r="D1157" s="1">
         <v>68000</v>
       </c>
-      <c r="E1157" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1157" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M1157" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N1157" t="s">
         <v>1687</v>
       </c>
       <c r="Q1157" t="s">
-        <v>6887</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="1158" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1158" s="1" t="s">
-        <v>6888</v>
+        <v>6893</v>
       </c>
       <c r="C1158" t="s">
-        <v>6889</v>
+        <v>6894</v>
       </c>
       <c r="D1158" s="1">
         <v>68000</v>
       </c>
+      <c r="E1158" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1158" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M1158" t="s">
         <v>1687</v>
       </c>
       <c r="Q1158" t="s">
-        <v>6890</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="1159" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1159" s="1" t="s">
-        <v>6891</v>
+        <v>6896</v>
       </c>
       <c r="C1159" t="s">
-        <v>6889</v>
+        <v>6894</v>
       </c>
       <c r="D1159" s="1">
         <v>68000</v>
       </c>
+      <c r="E1159" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1159" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M1159" t="s">
         <v>1687</v>
       </c>
       <c r="Q1159" t="s">
-        <v>6892</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="1160" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1160" s="1" t="s">
-        <v>6893</v>
+        <v>6898</v>
       </c>
       <c r="C1160" t="s">
-        <v>6894</v>
+        <v>6899</v>
       </c>
       <c r="D1160" s="1">
         <v>68000</v>
@@ -51686,309 +51692,300 @@
         <v>2426</v>
       </c>
       <c r="L1160" t="s">
-        <v>5238</v>
+        <v>5071</v>
       </c>
       <c r="M1160" t="s">
         <v>1687</v>
       </c>
       <c r="Q1160" t="s">
-        <v>6895</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="1161" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1161" s="1" t="s">
-        <v>6896</v>
+        <v>3439</v>
       </c>
       <c r="C1161" t="s">
-        <v>6894</v>
-      </c>
-      <c r="D1161" s="1">
-        <v>68000</v>
+        <v>3440</v>
+      </c>
+      <c r="D1161" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E1161" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L1161" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1161" t="s">
-        <v>1687</v>
+        <v>3888</v>
       </c>
       <c r="Q1161" t="s">
-        <v>6897</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="1162" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1162" s="1" t="s">
-        <v>6898</v>
+        <v>3442</v>
       </c>
       <c r="C1162" t="s">
-        <v>6899</v>
-      </c>
-      <c r="D1162" s="1">
-        <v>68000</v>
+        <v>3440</v>
+      </c>
+      <c r="D1162" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E1162" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L1162" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1162" t="s">
-        <v>1687</v>
+        <v>3888</v>
       </c>
       <c r="Q1162" t="s">
-        <v>6900</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="1163" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1163" s="1" t="s">
-        <v>3439</v>
+        <v>3419</v>
       </c>
       <c r="C1163" t="s">
-        <v>3440</v>
+        <v>3420</v>
       </c>
       <c r="D1163" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E1163" t="s">
-        <v>3888</v>
+        <v>2426</v>
+      </c>
+      <c r="L1163" t="s">
+        <v>1155</v>
       </c>
       <c r="Q1163" t="s">
-        <v>3441</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="1164" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1164" s="1" t="s">
-        <v>3442</v>
+        <v>3422</v>
       </c>
       <c r="C1164" t="s">
-        <v>3440</v>
+        <v>3423</v>
       </c>
       <c r="D1164" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E1164" t="s">
-        <v>3888</v>
+        <v>2</v>
+      </c>
+      <c r="L1164" t="s">
+        <v>1155</v>
       </c>
       <c r="Q1164" t="s">
-        <v>3443</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1165" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1165" s="1" t="s">
-        <v>3419</v>
+        <v>3425</v>
       </c>
       <c r="C1165" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="D1165" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1165" t="s">
-        <v>2426</v>
       </c>
       <c r="L1165" t="s">
         <v>1155</v>
       </c>
       <c r="Q1165" t="s">
-        <v>3421</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="1166" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1166" s="1" t="s">
-        <v>3422</v>
+        <v>3444</v>
       </c>
       <c r="C1166" t="s">
-        <v>3423</v>
-      </c>
-      <c r="D1166" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1166" t="s">
-        <v>1155</v>
+        <v>3445</v>
+      </c>
+      <c r="D1166" s="1">
+        <v>8080</v>
       </c>
       <c r="Q1166" t="s">
-        <v>3424</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1167" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1167" s="1" t="s">
-        <v>3425</v>
+        <v>3447</v>
       </c>
       <c r="C1167" t="s">
-        <v>3423</v>
+        <v>3448</v>
       </c>
       <c r="D1167" s="1" t="s">
-        <v>2</v>
+        <v>3006</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G1167" t="s">
+        <v>3899</v>
       </c>
       <c r="L1167" t="s">
-        <v>1155</v>
+        <v>2605</v>
+      </c>
+      <c r="M1167" t="s">
+        <v>5238</v>
       </c>
       <c r="Q1167" t="s">
-        <v>3426</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1168" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1168" s="1" t="s">
-        <v>3444</v>
+        <v>3463</v>
       </c>
       <c r="C1168" t="s">
-        <v>3445</v>
+        <v>3464</v>
       </c>
       <c r="D1168" s="1">
         <v>8080</v>
       </c>
+      <c r="L1168" t="s">
+        <v>352</v>
+      </c>
       <c r="Q1168" t="s">
-        <v>3446</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1169" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1169" s="1" t="s">
-        <v>3447</v>
+        <v>3466</v>
       </c>
       <c r="C1169" t="s">
-        <v>3448</v>
+        <v>3356</v>
       </c>
       <c r="D1169" s="1" t="s">
-        <v>3006</v>
+        <v>2</v>
       </c>
       <c r="E1169" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F1169" t="s">
-        <v>3899</v>
-      </c>
-      <c r="G1169" t="s">
-        <v>3899</v>
+        <v>2426</v>
       </c>
       <c r="L1169" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M1169" t="s">
-        <v>5238</v>
+        <v>5070</v>
       </c>
       <c r="Q1169" t="s">
-        <v>4581</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1170" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1170" s="1" t="s">
-        <v>3463</v>
+        <v>3471</v>
       </c>
       <c r="C1170" t="s">
-        <v>3464</v>
+        <v>3472</v>
       </c>
       <c r="D1170" s="1">
-        <v>8080</v>
+        <v>68000</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>2426</v>
       </c>
       <c r="L1170" t="s">
-        <v>352</v>
+        <v>3954</v>
       </c>
       <c r="Q1170" t="s">
-        <v>3465</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="1171" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1171" s="1" t="s">
-        <v>3466</v>
+        <v>6912</v>
       </c>
       <c r="C1171" t="s">
-        <v>3356</v>
+        <v>3478</v>
       </c>
       <c r="D1171" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1171" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1171" t="s">
-        <v>5070</v>
+        <v>352</v>
       </c>
       <c r="Q1171" t="s">
-        <v>3467</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="1172" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1172" s="1" t="s">
-        <v>3471</v>
+        <v>3477</v>
       </c>
       <c r="C1172" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D1172" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1172" t="s">
-        <v>2426</v>
+        <v>3478</v>
+      </c>
+      <c r="D1172" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1172" t="s">
-        <v>3954</v>
+        <v>352</v>
       </c>
       <c r="Q1172" t="s">
-        <v>3473</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1173" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1173" s="1" t="s">
-        <v>6912</v>
+        <v>6914</v>
       </c>
       <c r="C1173" t="s">
-        <v>3478</v>
+        <v>6915</v>
       </c>
       <c r="D1173" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1173" t="s">
+        <v>2</v>
+      </c>
       <c r="L1173" t="s">
-        <v>352</v>
+        <v>5238</v>
       </c>
       <c r="Q1173" t="s">
-        <v>6913</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="1174" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1174" s="1" t="s">
-        <v>3477</v>
+        <v>6917</v>
       </c>
       <c r="C1174" t="s">
-        <v>3478</v>
+        <v>6915</v>
       </c>
       <c r="D1174" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1174" t="s">
+        <v>2</v>
+      </c>
       <c r="L1174" t="s">
-        <v>352</v>
+        <v>5238</v>
       </c>
       <c r="Q1174" t="s">
-        <v>4586</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="1175" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1175" s="1" t="s">
-        <v>6914</v>
+        <v>6919</v>
       </c>
       <c r="C1175" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D1175" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1175" t="s">
-        <v>2</v>
-      </c>
       <c r="L1175" t="s">
-        <v>5238</v>
+        <v>55</v>
       </c>
       <c r="Q1175" t="s">
-        <v>6916</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="1176" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1176" s="1" t="s">
-        <v>6917</v>
+        <v>6922</v>
       </c>
       <c r="C1176" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D1176" s="1" t="s">
         <v>2</v>
@@ -51996,16 +51993,22 @@
       <c r="E1176" t="s">
         <v>2</v>
       </c>
+      <c r="F1176" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1176" t="s">
-        <v>5238</v>
+        <v>542</v>
+      </c>
+      <c r="M1176" t="s">
+        <v>55</v>
       </c>
       <c r="Q1176" t="s">
-        <v>6918</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="1177" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1177" s="1" t="s">
-        <v>6919</v>
+        <v>6924</v>
       </c>
       <c r="C1177" t="s">
         <v>6920</v>
@@ -52013,85 +52016,82 @@
       <c r="D1177" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1177" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1177" t="s">
+        <v>542</v>
+      </c>
+      <c r="M1177" t="s">
         <v>55</v>
       </c>
       <c r="Q1177" t="s">
-        <v>6921</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="1178" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1178" s="1" t="s">
-        <v>6922</v>
+        <v>6926</v>
       </c>
       <c r="C1178" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1178" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1178" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1178" t="s">
-        <v>2426</v>
+        <v>6927</v>
+      </c>
+      <c r="D1178" s="1">
+        <v>68000</v>
       </c>
       <c r="L1178" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1178" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q1178" t="s">
-        <v>6923</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="1179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1179" s="1" t="s">
-        <v>6924</v>
+        <v>3494</v>
       </c>
       <c r="C1179" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1179" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D1179" s="1">
+        <v>68000</v>
       </c>
       <c r="E1179" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1179" t="s">
         <v>2426</v>
       </c>
       <c r="L1179" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1179" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q1179" t="s">
-        <v>6925</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="1180" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1180" s="1" t="s">
-        <v>6926</v>
+        <v>3497</v>
       </c>
       <c r="C1180" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D1180" s="1">
         <v>68000</v>
       </c>
+      <c r="E1180" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1180" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q1180" t="s">
-        <v>6928</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1181" s="1" t="s">
-        <v>3494</v>
+        <v>3498</v>
       </c>
       <c r="C1181" t="s">
         <v>3495</v>
@@ -52106,12 +52106,12 @@
         <v>5549</v>
       </c>
       <c r="Q1181" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1182" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1182" s="1" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="C1182" t="s">
         <v>3495</v>
@@ -52126,12 +52126,12 @@
         <v>5549</v>
       </c>
       <c r="Q1182" t="s">
-        <v>4587</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1183" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1183" s="1" t="s">
-        <v>3498</v>
+        <v>3502</v>
       </c>
       <c r="C1183" t="s">
         <v>3495</v>
@@ -52146,12 +52146,12 @@
         <v>5549</v>
       </c>
       <c r="Q1183" t="s">
-        <v>3499</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1184" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1184" s="1" t="s">
-        <v>3500</v>
+        <v>3504</v>
       </c>
       <c r="C1184" t="s">
         <v>3495</v>
@@ -52166,12 +52166,12 @@
         <v>5549</v>
       </c>
       <c r="Q1184" t="s">
-        <v>3501</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1185" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1185" s="1" t="s">
-        <v>3502</v>
+        <v>3506</v>
       </c>
       <c r="C1185" t="s">
         <v>3495</v>
@@ -52186,12 +52186,12 @@
         <v>5549</v>
       </c>
       <c r="Q1185" t="s">
-        <v>3503</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="1186" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1186" s="1" t="s">
-        <v>3504</v>
+        <v>6930</v>
       </c>
       <c r="C1186" t="s">
         <v>3495</v>
@@ -52206,12 +52206,12 @@
         <v>5549</v>
       </c>
       <c r="Q1186" t="s">
-        <v>3505</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="1187" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1187" s="1" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="C1187" t="s">
         <v>3495</v>
@@ -52226,12 +52226,12 @@
         <v>5549</v>
       </c>
       <c r="Q1187" t="s">
-        <v>6929</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="1188" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1188" s="1" t="s">
-        <v>6930</v>
+        <v>3508</v>
       </c>
       <c r="C1188" t="s">
         <v>3495</v>
@@ -52246,12 +52246,12 @@
         <v>5549</v>
       </c>
       <c r="Q1188" t="s">
-        <v>6931</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1189" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1189" s="1" t="s">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="C1189" t="s">
         <v>3495</v>
@@ -52266,12 +52266,12 @@
         <v>5549</v>
       </c>
       <c r="Q1189" t="s">
-        <v>4952</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1190" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1190" s="1" t="s">
-        <v>3508</v>
+        <v>3512</v>
       </c>
       <c r="C1190" t="s">
         <v>3495</v>
@@ -52286,12 +52286,12 @@
         <v>5549</v>
       </c>
       <c r="Q1190" t="s">
-        <v>3509</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1191" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1191" s="1" t="s">
-        <v>3510</v>
+        <v>3514</v>
       </c>
       <c r="C1191" t="s">
         <v>3495</v>
@@ -52306,12 +52306,12 @@
         <v>5549</v>
       </c>
       <c r="Q1191" t="s">
-        <v>3511</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1192" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1192" s="1" t="s">
-        <v>3512</v>
+        <v>3516</v>
       </c>
       <c r="C1192" t="s">
         <v>3495</v>
@@ -52326,12 +52326,12 @@
         <v>5549</v>
       </c>
       <c r="Q1192" t="s">
-        <v>3513</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1193" s="1" t="s">
-        <v>3514</v>
+        <v>3518</v>
       </c>
       <c r="C1193" t="s">
         <v>3495</v>
@@ -52346,12 +52346,12 @@
         <v>5549</v>
       </c>
       <c r="Q1193" t="s">
-        <v>3515</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1194" s="1" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="C1194" t="s">
         <v>3495</v>
@@ -52366,12 +52366,12 @@
         <v>5549</v>
       </c>
       <c r="Q1194" t="s">
-        <v>3517</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="1195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1195" s="1" t="s">
-        <v>3518</v>
+        <v>3520</v>
       </c>
       <c r="C1195" t="s">
         <v>3495</v>
@@ -52386,12 +52386,12 @@
         <v>5549</v>
       </c>
       <c r="Q1195" t="s">
-        <v>4953</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1196" s="1" t="s">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="C1196" t="s">
         <v>3495</v>
@@ -52406,12 +52406,12 @@
         <v>5549</v>
       </c>
       <c r="Q1196" t="s">
-        <v>4954</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1197" s="1" t="s">
-        <v>3520</v>
+        <v>3524</v>
       </c>
       <c r="C1197" t="s">
         <v>3495</v>
@@ -52426,12 +52426,12 @@
         <v>5549</v>
       </c>
       <c r="Q1197" t="s">
-        <v>3521</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1198" s="1" t="s">
-        <v>3522</v>
+        <v>3526</v>
       </c>
       <c r="C1198" t="s">
         <v>3495</v>
@@ -52446,12 +52446,12 @@
         <v>5549</v>
       </c>
       <c r="Q1198" t="s">
-        <v>3523</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1199" s="1" t="s">
-        <v>3524</v>
+        <v>3528</v>
       </c>
       <c r="C1199" t="s">
         <v>3495</v>
@@ -52466,12 +52466,12 @@
         <v>5549</v>
       </c>
       <c r="Q1199" t="s">
-        <v>3525</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1200" s="1" t="s">
-        <v>3526</v>
+        <v>3530</v>
       </c>
       <c r="C1200" t="s">
         <v>3495</v>
@@ -52486,12 +52486,12 @@
         <v>5549</v>
       </c>
       <c r="Q1200" t="s">
-        <v>3527</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1201" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1201" s="1" t="s">
-        <v>3528</v>
+        <v>3532</v>
       </c>
       <c r="C1201" t="s">
         <v>3495</v>
@@ -52506,12 +52506,12 @@
         <v>5549</v>
       </c>
       <c r="Q1201" t="s">
-        <v>3529</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1202" s="1" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="C1202" t="s">
         <v>3495</v>
@@ -52526,12 +52526,12 @@
         <v>5549</v>
       </c>
       <c r="Q1202" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1203" s="1" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="C1203" t="s">
         <v>3495</v>
@@ -52546,12 +52546,12 @@
         <v>5549</v>
       </c>
       <c r="Q1203" t="s">
-        <v>4955</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1204" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1204" s="1" t="s">
-        <v>3533</v>
+        <v>3537</v>
       </c>
       <c r="C1204" t="s">
         <v>3495</v>
@@ -52566,12 +52566,12 @@
         <v>5549</v>
       </c>
       <c r="Q1204" t="s">
-        <v>3534</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1205" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1205" s="1" t="s">
-        <v>3535</v>
+        <v>3539</v>
       </c>
       <c r="C1205" t="s">
         <v>3495</v>
@@ -52586,12 +52586,12 @@
         <v>5549</v>
       </c>
       <c r="Q1205" t="s">
-        <v>3536</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="1206" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1206" s="1" t="s">
-        <v>3537</v>
+        <v>3540</v>
       </c>
       <c r="C1206" t="s">
         <v>3495</v>
@@ -52606,12 +52606,12 @@
         <v>5549</v>
       </c>
       <c r="Q1206" t="s">
-        <v>3538</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1207" s="1" t="s">
-        <v>3539</v>
+        <v>3541</v>
       </c>
       <c r="C1207" t="s">
         <v>3495</v>
@@ -52626,12 +52626,12 @@
         <v>5549</v>
       </c>
       <c r="Q1207" t="s">
-        <v>4956</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1208" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1208" s="1" t="s">
-        <v>3540</v>
+        <v>3542</v>
       </c>
       <c r="C1208" t="s">
         <v>3495</v>
@@ -52646,12 +52646,12 @@
         <v>5549</v>
       </c>
       <c r="Q1208" t="s">
-        <v>4588</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1209" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1209" s="1" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="C1209" t="s">
         <v>3495</v>
@@ -52666,12 +52666,12 @@
         <v>5549</v>
       </c>
       <c r="Q1209" t="s">
-        <v>4589</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1210" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1210" s="1" t="s">
-        <v>3542</v>
+        <v>3546</v>
       </c>
       <c r="C1210" t="s">
         <v>3495</v>
@@ -52686,12 +52686,12 @@
         <v>5549</v>
       </c>
       <c r="Q1210" t="s">
-        <v>3543</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1211" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1211" s="1" t="s">
-        <v>3544</v>
+        <v>3547</v>
       </c>
       <c r="C1211" t="s">
         <v>3495</v>
@@ -52706,12 +52706,12 @@
         <v>5549</v>
       </c>
       <c r="Q1211" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="1212" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1212" s="1" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
       <c r="C1212" t="s">
         <v>3495</v>
@@ -52726,12 +52726,12 @@
         <v>5549</v>
       </c>
       <c r="Q1212" t="s">
-        <v>4957</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1213" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1213" s="1" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="C1213" t="s">
         <v>3495</v>
@@ -52746,12 +52746,12 @@
         <v>5549</v>
       </c>
       <c r="Q1213" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1214" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1214" s="1" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="C1214" t="s">
         <v>3495</v>
@@ -52766,12 +52766,12 @@
         <v>5549</v>
       </c>
       <c r="Q1214" t="s">
-        <v>4590</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1215" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1215" s="1" t="s">
-        <v>3550</v>
+        <v>3554</v>
       </c>
       <c r="C1215" t="s">
         <v>3495</v>
@@ -52786,12 +52786,12 @@
         <v>5549</v>
       </c>
       <c r="Q1215" t="s">
-        <v>3551</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="1216" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1216" s="1" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="C1216" t="s">
         <v>3495</v>
@@ -52806,12 +52806,12 @@
         <v>5549</v>
       </c>
       <c r="Q1216" t="s">
-        <v>3553</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1217" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1217" s="1" t="s">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="C1217" t="s">
         <v>3495</v>
@@ -52826,12 +52826,12 @@
         <v>5549</v>
       </c>
       <c r="Q1217" t="s">
-        <v>4958</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1218" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1218" s="1" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="C1218" t="s">
         <v>3495</v>
@@ -52846,12 +52846,12 @@
         <v>5549</v>
       </c>
       <c r="Q1218" t="s">
-        <v>4591</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1219" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1219" s="1" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="C1219" t="s">
         <v>3495</v>
@@ -52866,12 +52866,12 @@
         <v>5549</v>
       </c>
       <c r="Q1219" t="s">
-        <v>3557</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1220" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1220" s="1" t="s">
-        <v>3558</v>
+        <v>3560</v>
       </c>
       <c r="C1220" t="s">
         <v>3495</v>
@@ -52886,12 +52886,12 @@
         <v>5549</v>
       </c>
       <c r="Q1220" t="s">
-        <v>4959</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1221" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1221" s="1" t="s">
-        <v>3559</v>
+        <v>3561</v>
       </c>
       <c r="C1221" t="s">
         <v>3495</v>
@@ -52906,12 +52906,12 @@
         <v>5549</v>
       </c>
       <c r="Q1221" t="s">
-        <v>4592</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="1222" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1222" s="1" t="s">
-        <v>3560</v>
+        <v>3562</v>
       </c>
       <c r="C1222" t="s">
         <v>3495</v>
@@ -52926,12 +52926,12 @@
         <v>5549</v>
       </c>
       <c r="Q1222" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1223" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1223" s="1" t="s">
-        <v>3561</v>
+        <v>3563</v>
       </c>
       <c r="C1223" t="s">
         <v>3495</v>
@@ -52946,12 +52946,12 @@
         <v>5549</v>
       </c>
       <c r="Q1223" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1224" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1224" s="1" t="s">
-        <v>3562</v>
+        <v>3564</v>
       </c>
       <c r="C1224" t="s">
         <v>3495</v>
@@ -52966,12 +52966,12 @@
         <v>5549</v>
       </c>
       <c r="Q1224" t="s">
-        <v>4594</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="1225" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1225" s="1" t="s">
-        <v>3563</v>
+        <v>3565</v>
       </c>
       <c r="C1225" t="s">
         <v>3495</v>
@@ -52986,12 +52986,12 @@
         <v>5549</v>
       </c>
       <c r="Q1225" t="s">
-        <v>4961</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="1226" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1226" s="1" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="C1226" t="s">
         <v>3495</v>
@@ -53006,12 +53006,12 @@
         <v>5549</v>
       </c>
       <c r="Q1226" t="s">
-        <v>4962</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1227" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1227" s="1" t="s">
-        <v>3565</v>
+        <v>3569</v>
       </c>
       <c r="C1227" t="s">
         <v>3495</v>
@@ -53026,12 +53026,12 @@
         <v>5549</v>
       </c>
       <c r="Q1227" t="s">
-        <v>3566</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="1228" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1228" s="1" t="s">
-        <v>3567</v>
+        <v>3571</v>
       </c>
       <c r="C1228" t="s">
         <v>3495</v>
@@ -53046,12 +53046,12 @@
         <v>5549</v>
       </c>
       <c r="Q1228" t="s">
-        <v>3568</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1229" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1229" s="1" t="s">
-        <v>3569</v>
+        <v>3572</v>
       </c>
       <c r="C1229" t="s">
         <v>3495</v>
@@ -53066,12 +53066,12 @@
         <v>5549</v>
       </c>
       <c r="Q1229" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1230" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1230" s="1" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="C1230" t="s">
         <v>3495</v>
@@ -53086,12 +53086,12 @@
         <v>5549</v>
       </c>
       <c r="Q1230" t="s">
-        <v>4595</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1231" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1231" s="1" t="s">
-        <v>3572</v>
+        <v>3576</v>
       </c>
       <c r="C1231" t="s">
         <v>3495</v>
@@ -53106,12 +53106,12 @@
         <v>5549</v>
       </c>
       <c r="Q1231" t="s">
-        <v>3573</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1232" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1232" s="1" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="C1232" t="s">
         <v>3495</v>
@@ -53126,12 +53126,12 @@
         <v>5549</v>
       </c>
       <c r="Q1232" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1233" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1233" s="1" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="C1233" t="s">
         <v>3495</v>
@@ -53146,12 +53146,12 @@
         <v>5549</v>
       </c>
       <c r="Q1233" t="s">
-        <v>4963</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="1234" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1234" s="1" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="C1234" t="s">
         <v>3495</v>
@@ -53166,12 +53166,12 @@
         <v>5549</v>
       </c>
       <c r="Q1234" t="s">
-        <v>3578</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1235" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1235" s="1" t="s">
-        <v>3579</v>
+        <v>3581</v>
       </c>
       <c r="C1235" t="s">
         <v>3495</v>
@@ -53186,12 +53186,12 @@
         <v>5549</v>
       </c>
       <c r="Q1235" t="s">
-        <v>4964</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1236" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1236" s="1" t="s">
-        <v>3580</v>
+        <v>3582</v>
       </c>
       <c r="C1236" t="s">
         <v>3495</v>
@@ -53206,12 +53206,12 @@
         <v>5549</v>
       </c>
       <c r="Q1236" t="s">
-        <v>4965</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="1237" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1237" s="1" t="s">
-        <v>3581</v>
+        <v>3583</v>
       </c>
       <c r="C1237" t="s">
         <v>3495</v>
@@ -53226,12 +53226,12 @@
         <v>5549</v>
       </c>
       <c r="Q1237" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1238" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1238" s="1" t="s">
-        <v>3582</v>
+        <v>3584</v>
       </c>
       <c r="C1238" t="s">
         <v>3495</v>
@@ -53246,12 +53246,12 @@
         <v>5549</v>
       </c>
       <c r="Q1238" t="s">
-        <v>4966</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1239" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1239" s="1" t="s">
-        <v>3583</v>
+        <v>3585</v>
       </c>
       <c r="C1239" t="s">
         <v>3495</v>
@@ -53266,12 +53266,12 @@
         <v>5549</v>
       </c>
       <c r="Q1239" t="s">
-        <v>4597</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="1240" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1240" s="1" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="C1240" t="s">
         <v>3495</v>
@@ -53286,12 +53286,12 @@
         <v>5549</v>
       </c>
       <c r="Q1240" t="s">
-        <v>4967</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1241" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1241" s="1" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="C1241" t="s">
         <v>3495</v>
@@ -53306,12 +53306,12 @@
         <v>5549</v>
       </c>
       <c r="Q1241" t="s">
-        <v>3586</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="1242" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1242" s="1" t="s">
-        <v>3587</v>
+        <v>3589</v>
       </c>
       <c r="C1242" t="s">
         <v>3495</v>
@@ -53326,12 +53326,12 @@
         <v>5549</v>
       </c>
       <c r="Q1242" t="s">
-        <v>4598</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="1243" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1243" s="1" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="C1243" t="s">
         <v>3495</v>
@@ -53346,12 +53346,12 @@
         <v>5549</v>
       </c>
       <c r="Q1243" t="s">
-        <v>4968</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1244" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1244" s="1" t="s">
-        <v>3589</v>
+        <v>3593</v>
       </c>
       <c r="C1244" t="s">
         <v>3495</v>
@@ -53366,12 +53366,12 @@
         <v>5549</v>
       </c>
       <c r="Q1244" t="s">
-        <v>3590</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1245" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1245" s="1" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="C1245" t="s">
         <v>3495</v>
@@ -53386,12 +53386,12 @@
         <v>5549</v>
       </c>
       <c r="Q1245" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1246" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1246" s="1" t="s">
-        <v>3593</v>
+        <v>3596</v>
       </c>
       <c r="C1246" t="s">
         <v>3495</v>
@@ -53406,12 +53406,12 @@
         <v>5549</v>
       </c>
       <c r="Q1246" t="s">
-        <v>4969</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="1247" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1247" s="1" t="s">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="C1247" t="s">
         <v>3495</v>
@@ -53426,12 +53426,12 @@
         <v>5549</v>
       </c>
       <c r="Q1247" t="s">
-        <v>3595</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1248" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1248" s="1" t="s">
-        <v>3596</v>
+        <v>3598</v>
       </c>
       <c r="C1248" t="s">
         <v>3495</v>
@@ -53446,12 +53446,12 @@
         <v>5549</v>
       </c>
       <c r="Q1248" t="s">
-        <v>4970</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1249" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1249" s="1" t="s">
-        <v>3597</v>
+        <v>3599</v>
       </c>
       <c r="C1249" t="s">
         <v>3495</v>
@@ -53466,12 +53466,12 @@
         <v>5549</v>
       </c>
       <c r="Q1249" t="s">
-        <v>4599</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1250" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1250" s="1" t="s">
-        <v>3598</v>
+        <v>3600</v>
       </c>
       <c r="C1250" t="s">
         <v>3495</v>
@@ -53486,12 +53486,12 @@
         <v>5549</v>
       </c>
       <c r="Q1250" t="s">
-        <v>4600</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="1251" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1251" s="1" t="s">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="C1251" t="s">
         <v>3495</v>
@@ -53506,12 +53506,12 @@
         <v>5549</v>
       </c>
       <c r="Q1251" t="s">
-        <v>4971</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1252" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1252" s="1" t="s">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="C1252" t="s">
         <v>3495</v>
@@ -53526,12 +53526,12 @@
         <v>5549</v>
       </c>
       <c r="Q1252" t="s">
-        <v>4972</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1253" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1253" s="1" t="s">
-        <v>3601</v>
+        <v>3604</v>
       </c>
       <c r="C1253" t="s">
         <v>3495</v>
@@ -53546,12 +53546,12 @@
         <v>5549</v>
       </c>
       <c r="Q1253" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1254" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1254" s="1" t="s">
-        <v>3603</v>
+        <v>6932</v>
       </c>
       <c r="C1254" t="s">
         <v>3495</v>
@@ -53566,12 +53566,12 @@
         <v>5549</v>
       </c>
       <c r="Q1254" t="s">
-        <v>4973</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="1255" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1255" s="1" t="s">
-        <v>3604</v>
+        <v>3607</v>
       </c>
       <c r="C1255" t="s">
         <v>3495</v>
@@ -53586,12 +53586,12 @@
         <v>5549</v>
       </c>
       <c r="Q1255" t="s">
-        <v>3605</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1256" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1256" s="1" t="s">
-        <v>6932</v>
+        <v>3609</v>
       </c>
       <c r="C1256" t="s">
         <v>3495</v>
@@ -53606,12 +53606,12 @@
         <v>5549</v>
       </c>
       <c r="Q1256" t="s">
-        <v>4974</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1257" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1257" s="1" t="s">
-        <v>3607</v>
+        <v>3611</v>
       </c>
       <c r="C1257" t="s">
         <v>3495</v>
@@ -53626,12 +53626,12 @@
         <v>5549</v>
       </c>
       <c r="Q1257" t="s">
-        <v>3608</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1258" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1258" s="1" t="s">
-        <v>3609</v>
+        <v>3612</v>
       </c>
       <c r="C1258" t="s">
         <v>3495</v>
@@ -53646,12 +53646,12 @@
         <v>5549</v>
       </c>
       <c r="Q1258" t="s">
-        <v>3610</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="1259" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1259" s="1" t="s">
-        <v>3611</v>
+        <v>3613</v>
       </c>
       <c r="C1259" t="s">
         <v>3495</v>
@@ -53666,12 +53666,12 @@
         <v>5549</v>
       </c>
       <c r="Q1259" t="s">
-        <v>4975</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1260" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1260" s="1" t="s">
-        <v>3612</v>
+        <v>3615</v>
       </c>
       <c r="C1260" t="s">
         <v>3495</v>
@@ -53686,12 +53686,12 @@
         <v>5549</v>
       </c>
       <c r="Q1260" t="s">
-        <v>4976</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="1261" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1261" s="1" t="s">
-        <v>3613</v>
+        <v>3617</v>
       </c>
       <c r="C1261" t="s">
         <v>3495</v>
@@ -53706,12 +53706,12 @@
         <v>5549</v>
       </c>
       <c r="Q1261" t="s">
-        <v>3614</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1262" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1262" s="1" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
       <c r="C1262" t="s">
         <v>3495</v>
@@ -53726,12 +53726,12 @@
         <v>5549</v>
       </c>
       <c r="Q1262" t="s">
-        <v>3616</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1263" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1263" s="1" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
       <c r="C1263" t="s">
         <v>3495</v>
@@ -53746,12 +53746,12 @@
         <v>5549</v>
       </c>
       <c r="Q1263" t="s">
-        <v>4977</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="1264" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1264" s="1" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
       <c r="C1264" t="s">
         <v>3495</v>
@@ -53766,12 +53766,12 @@
         <v>5549</v>
       </c>
       <c r="Q1264" t="s">
-        <v>3619</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1265" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1265" s="1" t="s">
-        <v>3620</v>
+        <v>3622</v>
       </c>
       <c r="C1265" t="s">
         <v>3495</v>
@@ -53786,12 +53786,12 @@
         <v>5549</v>
       </c>
       <c r="Q1265" t="s">
-        <v>4978</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="1266" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1266" s="1" t="s">
-        <v>3621</v>
+        <v>3623</v>
       </c>
       <c r="C1266" t="s">
         <v>3495</v>
@@ -53806,12 +53806,12 @@
         <v>5549</v>
       </c>
       <c r="Q1266" t="s">
-        <v>4979</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1267" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1267" s="1" t="s">
-        <v>3622</v>
+        <v>3624</v>
       </c>
       <c r="C1267" t="s">
         <v>3495</v>
@@ -53826,12 +53826,12 @@
         <v>5549</v>
       </c>
       <c r="Q1267" t="s">
-        <v>4980</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1268" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1268" s="1" t="s">
-        <v>3623</v>
+        <v>3625</v>
       </c>
       <c r="C1268" t="s">
         <v>3495</v>
@@ -53846,12 +53846,12 @@
         <v>5549</v>
       </c>
       <c r="Q1268" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1269" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1269" s="1" t="s">
-        <v>3624</v>
+        <v>3626</v>
       </c>
       <c r="C1269" t="s">
         <v>3495</v>
@@ -53866,12 +53866,12 @@
         <v>5549</v>
       </c>
       <c r="Q1269" t="s">
-        <v>4981</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1270" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1270" s="1" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="C1270" t="s">
         <v>3495</v>
@@ -53886,12 +53886,12 @@
         <v>5549</v>
       </c>
       <c r="Q1270" t="s">
-        <v>4602</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="1271" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1271" s="1" t="s">
-        <v>3626</v>
+        <v>3629</v>
       </c>
       <c r="C1271" t="s">
         <v>3495</v>
@@ -53906,12 +53906,12 @@
         <v>5549</v>
       </c>
       <c r="Q1271" t="s">
-        <v>3627</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1272" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1272" s="1" t="s">
-        <v>3628</v>
+        <v>3630</v>
       </c>
       <c r="C1272" t="s">
         <v>3495</v>
@@ -53926,12 +53926,12 @@
         <v>5549</v>
       </c>
       <c r="Q1272" t="s">
-        <v>4982</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1273" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1273" s="1" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="C1273" t="s">
         <v>3495</v>
@@ -53946,12 +53946,12 @@
         <v>5549</v>
       </c>
       <c r="Q1273" t="s">
-        <v>4603</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1274" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1274" s="1" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="C1274" t="s">
         <v>3495</v>
@@ -53966,12 +53966,12 @@
         <v>5549</v>
       </c>
       <c r="Q1274" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1275" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1275" s="1" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
       <c r="C1275" t="s">
         <v>3495</v>
@@ -53986,12 +53986,12 @@
         <v>5549</v>
       </c>
       <c r="Q1275" t="s">
-        <v>4983</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1276" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1276" s="1" t="s">
-        <v>3633</v>
+        <v>3637</v>
       </c>
       <c r="C1276" t="s">
         <v>3495</v>
@@ -54006,12 +54006,12 @@
         <v>5549</v>
       </c>
       <c r="Q1276" t="s">
-        <v>3634</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1277" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1277" s="1" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
       <c r="C1277" t="s">
         <v>3495</v>
@@ -54026,12 +54026,12 @@
         <v>5549</v>
       </c>
       <c r="Q1277" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1278" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1278" s="1" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
       <c r="C1278" t="s">
         <v>3495</v>
@@ -54046,12 +54046,12 @@
         <v>5549</v>
       </c>
       <c r="Q1278" t="s">
-        <v>4604</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="1279" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1279" s="1" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="C1279" t="s">
         <v>3495</v>
@@ -54066,12 +54066,12 @@
         <v>5549</v>
       </c>
       <c r="Q1279" t="s">
-        <v>3639</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1280" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1280" s="1" t="s">
-        <v>3640</v>
+        <v>3642</v>
       </c>
       <c r="C1280" t="s">
         <v>3495</v>
@@ -54086,12 +54086,12 @@
         <v>5549</v>
       </c>
       <c r="Q1280" t="s">
-        <v>4984</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1281" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1281" s="1" t="s">
-        <v>3641</v>
+        <v>3643</v>
       </c>
       <c r="C1281" t="s">
         <v>3495</v>
@@ -54106,12 +54106,12 @@
         <v>5549</v>
       </c>
       <c r="Q1281" t="s">
-        <v>4985</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="1282" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1282" s="1" t="s">
-        <v>3642</v>
+        <v>3644</v>
       </c>
       <c r="C1282" t="s">
         <v>3495</v>
@@ -54126,12 +54126,12 @@
         <v>5549</v>
       </c>
       <c r="Q1282" t="s">
-        <v>4605</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1283" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1283" s="1" t="s">
-        <v>3643</v>
+        <v>3645</v>
       </c>
       <c r="C1283" t="s">
         <v>3495</v>
@@ -54146,12 +54146,12 @@
         <v>5549</v>
       </c>
       <c r="Q1283" t="s">
-        <v>4986</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="1284" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1284" s="1" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="C1284" t="s">
         <v>3495</v>
@@ -54166,12 +54166,12 @@
         <v>5549</v>
       </c>
       <c r="Q1284" t="s">
-        <v>4987</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="1285" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1285" s="1" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
       <c r="C1285" t="s">
         <v>3495</v>
@@ -54186,12 +54186,12 @@
         <v>5549</v>
       </c>
       <c r="Q1285" t="s">
-        <v>3646</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1286" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1286" s="1" t="s">
-        <v>3647</v>
+        <v>3649</v>
       </c>
       <c r="C1286" t="s">
         <v>3495</v>
@@ -54206,12 +54206,12 @@
         <v>5549</v>
       </c>
       <c r="Q1286" t="s">
-        <v>4988</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1287" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1287" s="1" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="C1287" t="s">
         <v>3495</v>
@@ -54226,12 +54226,12 @@
         <v>5549</v>
       </c>
       <c r="Q1287" t="s">
-        <v>4989</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="1288" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1288" s="1" t="s">
-        <v>3649</v>
+        <v>3653</v>
       </c>
       <c r="C1288" t="s">
         <v>3495</v>
@@ -54246,12 +54246,12 @@
         <v>5549</v>
       </c>
       <c r="Q1288" t="s">
-        <v>3650</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1289" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1289" s="1" t="s">
-        <v>3651</v>
+        <v>3655</v>
       </c>
       <c r="C1289" t="s">
         <v>3495</v>
@@ -54266,12 +54266,12 @@
         <v>5549</v>
       </c>
       <c r="Q1289" t="s">
-        <v>3652</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="1290" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1290" s="1" t="s">
-        <v>3653</v>
+        <v>3657</v>
       </c>
       <c r="C1290" t="s">
         <v>3495</v>
@@ -54286,12 +54286,12 @@
         <v>5549</v>
       </c>
       <c r="Q1290" t="s">
-        <v>3654</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="1291" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1291" s="1" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="C1291" t="s">
         <v>3495</v>
@@ -54306,12 +54306,12 @@
         <v>5549</v>
       </c>
       <c r="Q1291" t="s">
-        <v>3656</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1292" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1292" s="1" t="s">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="C1292" t="s">
         <v>3495</v>
@@ -54326,12 +54326,12 @@
         <v>5549</v>
       </c>
       <c r="Q1292" t="s">
-        <v>4990</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1293" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1293" s="1" t="s">
-        <v>3658</v>
+        <v>3662</v>
       </c>
       <c r="C1293" t="s">
         <v>3495</v>
@@ -54346,12 +54346,12 @@
         <v>5549</v>
       </c>
       <c r="Q1293" t="s">
-        <v>3659</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1294" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1294" s="1" t="s">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="C1294" t="s">
         <v>3495</v>
@@ -54366,12 +54366,12 @@
         <v>5549</v>
       </c>
       <c r="Q1294" t="s">
-        <v>3661</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1295" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1295" s="1" t="s">
-        <v>3662</v>
+        <v>3665</v>
       </c>
       <c r="C1295" t="s">
         <v>3495</v>
@@ -54386,12 +54386,12 @@
         <v>5549</v>
       </c>
       <c r="Q1295" t="s">
-        <v>4991</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="1296" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1296" s="1" t="s">
-        <v>3663</v>
+        <v>3666</v>
       </c>
       <c r="C1296" t="s">
         <v>3495</v>
@@ -54406,12 +54406,12 @@
         <v>5549</v>
       </c>
       <c r="Q1296" t="s">
-        <v>3664</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1297" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1297" s="1" t="s">
-        <v>3665</v>
+        <v>3668</v>
       </c>
       <c r="C1297" t="s">
         <v>3495</v>
@@ -54426,12 +54426,12 @@
         <v>5549</v>
       </c>
       <c r="Q1297" t="s">
-        <v>4992</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1298" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1298" s="1" t="s">
-        <v>3666</v>
+        <v>3670</v>
       </c>
       <c r="C1298" t="s">
         <v>3495</v>
@@ -54446,12 +54446,12 @@
         <v>5549</v>
       </c>
       <c r="Q1298" t="s">
-        <v>3667</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1299" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1299" s="1" t="s">
-        <v>3668</v>
+        <v>3672</v>
       </c>
       <c r="C1299" t="s">
         <v>3495</v>
@@ -54466,12 +54466,12 @@
         <v>5549</v>
       </c>
       <c r="Q1299" t="s">
-        <v>3669</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1300" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1300" s="1" t="s">
-        <v>3670</v>
+        <v>3674</v>
       </c>
       <c r="C1300" t="s">
         <v>3495</v>
@@ -54486,12 +54486,12 @@
         <v>5549</v>
       </c>
       <c r="Q1300" t="s">
-        <v>3671</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1301" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1301" s="1" t="s">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="C1301" t="s">
         <v>3495</v>
@@ -54506,12 +54506,12 @@
         <v>5549</v>
       </c>
       <c r="Q1301" t="s">
-        <v>3673</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="1302" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1302" s="1" t="s">
-        <v>3674</v>
+        <v>3676</v>
       </c>
       <c r="C1302" t="s">
         <v>3495</v>
@@ -54526,12 +54526,12 @@
         <v>5549</v>
       </c>
       <c r="Q1302" t="s">
-        <v>4993</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1303" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1303" s="1" t="s">
-        <v>3675</v>
+        <v>3677</v>
       </c>
       <c r="C1303" t="s">
         <v>3495</v>
@@ -54546,12 +54546,12 @@
         <v>5549</v>
       </c>
       <c r="Q1303" t="s">
-        <v>4994</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="1304" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1304" s="1" t="s">
-        <v>3676</v>
+        <v>3678</v>
       </c>
       <c r="C1304" t="s">
         <v>3495</v>
@@ -54566,12 +54566,12 @@
         <v>5549</v>
       </c>
       <c r="Q1304" t="s">
-        <v>4995</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1305" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1305" s="1" t="s">
-        <v>3677</v>
+        <v>3679</v>
       </c>
       <c r="C1305" t="s">
         <v>3495</v>
@@ -54586,12 +54586,12 @@
         <v>5549</v>
       </c>
       <c r="Q1305" t="s">
-        <v>4996</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1306" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1306" s="1" t="s">
-        <v>3678</v>
+        <v>3681</v>
       </c>
       <c r="C1306" t="s">
         <v>3495</v>
@@ -54606,12 +54606,12 @@
         <v>5549</v>
       </c>
       <c r="Q1306" t="s">
-        <v>4997</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1307" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1307" s="1" t="s">
-        <v>3679</v>
+        <v>3682</v>
       </c>
       <c r="C1307" t="s">
         <v>3495</v>
@@ -54626,12 +54626,12 @@
         <v>5549</v>
       </c>
       <c r="Q1307" t="s">
-        <v>3680</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1308" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1308" s="1" t="s">
-        <v>3681</v>
+        <v>6933</v>
       </c>
       <c r="C1308" t="s">
         <v>3495</v>
@@ -54646,12 +54646,12 @@
         <v>5549</v>
       </c>
       <c r="Q1308" t="s">
-        <v>4606</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="1309" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1309" s="1" t="s">
-        <v>3682</v>
+        <v>6935</v>
       </c>
       <c r="C1309" t="s">
         <v>3495</v>
@@ -54666,12 +54666,12 @@
         <v>5549</v>
       </c>
       <c r="Q1309" t="s">
-        <v>3683</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="1310" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1310" s="1" t="s">
-        <v>6933</v>
+        <v>6937</v>
       </c>
       <c r="C1310" t="s">
         <v>3495</v>
@@ -54686,12 +54686,12 @@
         <v>5549</v>
       </c>
       <c r="Q1310" t="s">
-        <v>6934</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="1311" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1311" s="1" t="s">
-        <v>6935</v>
+        <v>6939</v>
       </c>
       <c r="C1311" t="s">
         <v>3495</v>
@@ -54706,12 +54706,12 @@
         <v>5549</v>
       </c>
       <c r="Q1311" t="s">
-        <v>6936</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="1312" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1312" s="1" t="s">
-        <v>6937</v>
+        <v>6941</v>
       </c>
       <c r="C1312" t="s">
         <v>3495</v>
@@ -54726,12 +54726,12 @@
         <v>5549</v>
       </c>
       <c r="Q1312" t="s">
-        <v>6938</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="1313" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1313" s="1" t="s">
-        <v>6939</v>
+        <v>6943</v>
       </c>
       <c r="C1313" t="s">
         <v>3495</v>
@@ -54746,12 +54746,12 @@
         <v>5549</v>
       </c>
       <c r="Q1313" t="s">
-        <v>6940</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="1314" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1314" s="1" t="s">
-        <v>6941</v>
+        <v>6945</v>
       </c>
       <c r="C1314" t="s">
         <v>3495</v>
@@ -54766,12 +54766,12 @@
         <v>5549</v>
       </c>
       <c r="Q1314" t="s">
-        <v>6942</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="1315" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1315" s="1" t="s">
-        <v>6943</v>
+        <v>6947</v>
       </c>
       <c r="C1315" t="s">
         <v>3495</v>
@@ -54786,12 +54786,12 @@
         <v>5549</v>
       </c>
       <c r="Q1315" t="s">
-        <v>6944</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="1316" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1316" s="1" t="s">
-        <v>6945</v>
+        <v>6949</v>
       </c>
       <c r="C1316" t="s">
         <v>3495</v>
@@ -54806,12 +54806,12 @@
         <v>5549</v>
       </c>
       <c r="Q1316" t="s">
-        <v>6946</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="1317" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1317" s="1" t="s">
-        <v>6947</v>
+        <v>6951</v>
       </c>
       <c r="C1317" t="s">
         <v>3495</v>
@@ -54826,12 +54826,12 @@
         <v>5549</v>
       </c>
       <c r="Q1317" t="s">
-        <v>6948</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="1318" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1318" s="1" t="s">
-        <v>6949</v>
+        <v>6953</v>
       </c>
       <c r="C1318" t="s">
         <v>3495</v>
@@ -54846,86 +54846,98 @@
         <v>5549</v>
       </c>
       <c r="Q1318" t="s">
-        <v>6950</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="1319" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1319" s="1" t="s">
-        <v>6951</v>
+        <v>2668</v>
       </c>
       <c r="C1319" t="s">
-        <v>3495</v>
+        <v>2669</v>
       </c>
       <c r="D1319" s="1">
         <v>68000</v>
       </c>
-      <c r="E1319" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1319" t="s">
-        <v>5549</v>
+        <v>2670</v>
       </c>
       <c r="Q1319" t="s">
-        <v>6952</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="1320" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1320" s="1" t="s">
-        <v>6953</v>
+        <v>2672</v>
       </c>
       <c r="C1320" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D1320" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1320" t="s">
-        <v>2426</v>
+        <v>2673</v>
+      </c>
+      <c r="D1320" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="L1320" t="s">
-        <v>5549</v>
+        <v>2538</v>
       </c>
       <c r="Q1320" t="s">
-        <v>6954</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="1321" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1321" s="1" t="s">
-        <v>2668</v>
+        <v>2691</v>
       </c>
       <c r="C1321" t="s">
-        <v>2669</v>
+        <v>2689</v>
       </c>
       <c r="D1321" s="1">
-        <v>68000</v>
+        <v>68010</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>351</v>
       </c>
       <c r="L1321" t="s">
-        <v>2670</v>
+        <v>5238</v>
+      </c>
+      <c r="M1321" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1321" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1321" t="s">
-        <v>2671</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="1322" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1322" s="1" t="s">
-        <v>2672</v>
+        <v>2688</v>
       </c>
       <c r="C1322" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D1322" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D1322" s="1">
+        <v>68010</v>
+      </c>
+      <c r="E1322" t="s">
         <v>351</v>
       </c>
       <c r="L1322" t="s">
-        <v>2538</v>
+        <v>5238</v>
+      </c>
+      <c r="M1322" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1322" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1322" t="s">
-        <v>2674</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="1323" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1323" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C1323" t="s">
         <v>2689</v>
@@ -54946,12 +54958,12 @@
         <v>3889</v>
       </c>
       <c r="Q1323" t="s">
-        <v>4870</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="1324" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1324" s="1" t="s">
-        <v>2688</v>
+        <v>6487</v>
       </c>
       <c r="C1324" t="s">
         <v>2689</v>
@@ -54972,12 +54984,12 @@
         <v>3889</v>
       </c>
       <c r="Q1324" t="s">
-        <v>4867</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="1325" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1325" s="1" t="s">
-        <v>2690</v>
+        <v>6488</v>
       </c>
       <c r="C1325" t="s">
         <v>2689</v>
@@ -54998,12 +55010,12 @@
         <v>3889</v>
       </c>
       <c r="Q1325" t="s">
-        <v>4868</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="1326" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1326" s="1" t="s">
-        <v>6487</v>
+        <v>2692</v>
       </c>
       <c r="C1326" t="s">
         <v>2689</v>
@@ -55024,12 +55036,12 @@
         <v>3889</v>
       </c>
       <c r="Q1326" t="s">
-        <v>4869</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="1327" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1327" s="1" t="s">
-        <v>6488</v>
+        <v>2693</v>
       </c>
       <c r="C1327" t="s">
         <v>2689</v>
@@ -55050,12 +55062,12 @@
         <v>3889</v>
       </c>
       <c r="Q1327" t="s">
-        <v>6489</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="1328" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1328" s="1" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="C1328" t="s">
         <v>2689</v>
@@ -55076,12 +55088,12 @@
         <v>3889</v>
       </c>
       <c r="Q1328" t="s">
-        <v>4871</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="1329" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1329" s="1" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="C1329" t="s">
         <v>2689</v>
@@ -55102,12 +55114,12 @@
         <v>3889</v>
       </c>
       <c r="Q1329" t="s">
-        <v>4872</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="1330" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1330" s="1" t="s">
-        <v>2694</v>
+        <v>6490</v>
       </c>
       <c r="C1330" t="s">
         <v>2689</v>
@@ -55128,12 +55140,12 @@
         <v>3889</v>
       </c>
       <c r="Q1330" t="s">
-        <v>4873</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="1331" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1331" s="1" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="C1331" t="s">
         <v>2689</v>
@@ -55154,12 +55166,12 @@
         <v>3889</v>
       </c>
       <c r="Q1331" t="s">
-        <v>4874</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1332" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1332" s="1" t="s">
-        <v>6490</v>
+        <v>2697</v>
       </c>
       <c r="C1332" t="s">
         <v>2689</v>
@@ -55180,18 +55192,18 @@
         <v>3889</v>
       </c>
       <c r="Q1332" t="s">
-        <v>6491</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="1333" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1333" s="1" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="C1333" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1333" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1333" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1333" t="s">
         <v>351</v>
@@ -55200,24 +55212,24 @@
         <v>5238</v>
       </c>
       <c r="M1333" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="N1333" t="s">
         <v>3889</v>
       </c>
       <c r="Q1333" t="s">
-        <v>4875</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1334" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1334" s="1" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="C1334" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1334" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1334" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1334" t="s">
         <v>351</v>
@@ -55226,18 +55238,15 @@
         <v>5238</v>
       </c>
       <c r="M1334" t="s">
-        <v>2534</v>
-      </c>
-      <c r="N1334" t="s">
-        <v>3889</v>
+        <v>2538</v>
       </c>
       <c r="Q1334" t="s">
-        <v>4876</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1335" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1335" s="1" t="s">
-        <v>2698</v>
+        <v>2702</v>
       </c>
       <c r="C1335" t="s">
         <v>2699</v>
@@ -55254,16 +55263,13 @@
       <c r="M1335" t="s">
         <v>2538</v>
       </c>
-      <c r="N1335" t="s">
-        <v>3889</v>
-      </c>
       <c r="Q1335" t="s">
-        <v>4877</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1336" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1336" s="1" t="s">
-        <v>2701</v>
+        <v>6492</v>
       </c>
       <c r="C1336" t="s">
         <v>2699</v>
@@ -55280,13 +55286,16 @@
       <c r="M1336" t="s">
         <v>2538</v>
       </c>
+      <c r="N1336" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q1336" t="s">
-        <v>4416</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="1337" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1337" s="1" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="C1337" t="s">
         <v>2699</v>
@@ -55303,13 +55312,16 @@
       <c r="M1337" t="s">
         <v>2538</v>
       </c>
+      <c r="N1337" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q1337" t="s">
-        <v>4417</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="1338" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1338" s="1" t="s">
-        <v>6492</v>
+        <v>2704</v>
       </c>
       <c r="C1338" t="s">
         <v>2699</v>
@@ -55330,12 +55342,12 @@
         <v>3889</v>
       </c>
       <c r="Q1338" t="s">
-        <v>4878</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1339" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1339" s="1" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="C1339" t="s">
         <v>2699</v>
@@ -55356,63 +55368,11 @@
         <v>3889</v>
       </c>
       <c r="Q1339" t="s">
-        <v>4879</v>
-      </c>
-    </row>
-    <row r="1340" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1340" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="C1340" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1340" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1340" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1340" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1340" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1340" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1340" t="s">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="1341" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1341" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C1341" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1341" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1341" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1341" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1341" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1341" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1341" t="s">
         <v>4881</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:R1320"/>
+  <autoFilter ref="B1:R1318"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -55420,10 +55380,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q455"/>
+  <dimension ref="B1:Q457"/>
   <sheetViews>
     <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A455" sqref="A455:XFD455"/>
+      <selection activeCell="A456" sqref="A456:XFD457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64820,6 +64780,46 @@
       </c>
       <c r="Q455" t="s">
         <v>4475</v>
+      </c>
+    </row>
+    <row r="456" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B456" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C456" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E456" t="s">
+        <v>2</v>
+      </c>
+      <c r="L456" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q456" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="457" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B457" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C457" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E457" t="s">
+        <v>2</v>
+      </c>
+      <c r="L457" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q457" t="s">
+        <v>3182</v>
       </c>
     </row>
   </sheetData>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -21,9 +21,9 @@
     <sheet name="To Check" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1316</definedName>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1318</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1316</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25879,10 +25879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1339"/>
+  <dimension ref="B1:Q1337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A951" workbookViewId="0">
-      <selection activeCell="C961" sqref="C961"/>
+    <sheetView tabSelected="1" topLeftCell="A1161" workbookViewId="0">
+      <selection activeCell="B1170" sqref="B1170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51891,64 +51891,67 @@
     </row>
     <row r="1171" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1171" s="1" t="s">
-        <v>6912</v>
+        <v>6914</v>
       </c>
       <c r="C1171" t="s">
-        <v>3478</v>
+        <v>6915</v>
       </c>
       <c r="D1171" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1171" t="s">
+        <v>2</v>
+      </c>
       <c r="L1171" t="s">
-        <v>352</v>
+        <v>5238</v>
       </c>
       <c r="Q1171" t="s">
-        <v>6913</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="1172" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1172" s="1" t="s">
-        <v>3477</v>
+        <v>6917</v>
       </c>
       <c r="C1172" t="s">
-        <v>3478</v>
+        <v>6915</v>
       </c>
       <c r="D1172" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1172" t="s">
+        <v>2</v>
+      </c>
       <c r="L1172" t="s">
-        <v>352</v>
+        <v>5238</v>
       </c>
       <c r="Q1172" t="s">
-        <v>4586</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="1173" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1173" s="1" t="s">
-        <v>6914</v>
+        <v>6919</v>
       </c>
       <c r="C1173" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D1173" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1173" t="s">
-        <v>2</v>
-      </c>
       <c r="L1173" t="s">
-        <v>5238</v>
+        <v>55</v>
       </c>
       <c r="Q1173" t="s">
-        <v>6916</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="1174" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1174" s="1" t="s">
-        <v>6917</v>
+        <v>6922</v>
       </c>
       <c r="C1174" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D1174" s="1" t="s">
         <v>2</v>
@@ -51956,16 +51959,22 @@
       <c r="E1174" t="s">
         <v>2</v>
       </c>
+      <c r="F1174" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1174" t="s">
-        <v>5238</v>
+        <v>542</v>
+      </c>
+      <c r="M1174" t="s">
+        <v>55</v>
       </c>
       <c r="Q1174" t="s">
-        <v>6918</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="1175" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1175" s="1" t="s">
-        <v>6919</v>
+        <v>6924</v>
       </c>
       <c r="C1175" t="s">
         <v>6920</v>
@@ -51973,85 +51982,82 @@
       <c r="D1175" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1175" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1175" t="s">
+        <v>542</v>
+      </c>
+      <c r="M1175" t="s">
         <v>55</v>
       </c>
       <c r="Q1175" t="s">
-        <v>6921</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="1176" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1176" s="1" t="s">
-        <v>6922</v>
+        <v>6926</v>
       </c>
       <c r="C1176" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1176" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1176" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1176" t="s">
-        <v>2426</v>
+        <v>6927</v>
+      </c>
+      <c r="D1176" s="1">
+        <v>68000</v>
       </c>
       <c r="L1176" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1176" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q1176" t="s">
-        <v>6923</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="1177" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1177" s="1" t="s">
-        <v>6924</v>
+        <v>3494</v>
       </c>
       <c r="C1177" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1177" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D1177" s="1">
+        <v>68000</v>
       </c>
       <c r="E1177" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1177" t="s">
         <v>2426</v>
       </c>
       <c r="L1177" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1177" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q1177" t="s">
-        <v>6925</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="1178" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1178" s="1" t="s">
-        <v>6926</v>
+        <v>3497</v>
       </c>
       <c r="C1178" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D1178" s="1">
         <v>68000</v>
       </c>
+      <c r="E1178" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1178" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q1178" t="s">
-        <v>6928</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1179" s="1" t="s">
-        <v>3494</v>
+        <v>3498</v>
       </c>
       <c r="C1179" t="s">
         <v>3495</v>
@@ -52066,12 +52072,12 @@
         <v>5549</v>
       </c>
       <c r="Q1179" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1180" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1180" s="1" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="C1180" t="s">
         <v>3495</v>
@@ -52086,12 +52092,12 @@
         <v>5549</v>
       </c>
       <c r="Q1180" t="s">
-        <v>4587</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1181" s="1" t="s">
-        <v>3498</v>
+        <v>3502</v>
       </c>
       <c r="C1181" t="s">
         <v>3495</v>
@@ -52106,12 +52112,12 @@
         <v>5549</v>
       </c>
       <c r="Q1181" t="s">
-        <v>3499</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1182" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1182" s="1" t="s">
-        <v>3500</v>
+        <v>3504</v>
       </c>
       <c r="C1182" t="s">
         <v>3495</v>
@@ -52126,12 +52132,12 @@
         <v>5549</v>
       </c>
       <c r="Q1182" t="s">
-        <v>3501</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1183" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1183" s="1" t="s">
-        <v>3502</v>
+        <v>3506</v>
       </c>
       <c r="C1183" t="s">
         <v>3495</v>
@@ -52146,12 +52152,12 @@
         <v>5549</v>
       </c>
       <c r="Q1183" t="s">
-        <v>3503</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="1184" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1184" s="1" t="s">
-        <v>3504</v>
+        <v>6930</v>
       </c>
       <c r="C1184" t="s">
         <v>3495</v>
@@ -52166,12 +52172,12 @@
         <v>5549</v>
       </c>
       <c r="Q1184" t="s">
-        <v>3505</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="1185" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1185" s="1" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="C1185" t="s">
         <v>3495</v>
@@ -52186,12 +52192,12 @@
         <v>5549</v>
       </c>
       <c r="Q1185" t="s">
-        <v>6929</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="1186" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1186" s="1" t="s">
-        <v>6930</v>
+        <v>3508</v>
       </c>
       <c r="C1186" t="s">
         <v>3495</v>
@@ -52206,12 +52212,12 @@
         <v>5549</v>
       </c>
       <c r="Q1186" t="s">
-        <v>6931</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1187" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1187" s="1" t="s">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="C1187" t="s">
         <v>3495</v>
@@ -52226,12 +52232,12 @@
         <v>5549</v>
       </c>
       <c r="Q1187" t="s">
-        <v>4952</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1188" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1188" s="1" t="s">
-        <v>3508</v>
+        <v>3512</v>
       </c>
       <c r="C1188" t="s">
         <v>3495</v>
@@ -52246,12 +52252,12 @@
         <v>5549</v>
       </c>
       <c r="Q1188" t="s">
-        <v>3509</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1189" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1189" s="1" t="s">
-        <v>3510</v>
+        <v>3514</v>
       </c>
       <c r="C1189" t="s">
         <v>3495</v>
@@ -52266,12 +52272,12 @@
         <v>5549</v>
       </c>
       <c r="Q1189" t="s">
-        <v>3511</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1190" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1190" s="1" t="s">
-        <v>3512</v>
+        <v>3516</v>
       </c>
       <c r="C1190" t="s">
         <v>3495</v>
@@ -52286,12 +52292,12 @@
         <v>5549</v>
       </c>
       <c r="Q1190" t="s">
-        <v>3513</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1191" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1191" s="1" t="s">
-        <v>3514</v>
+        <v>3518</v>
       </c>
       <c r="C1191" t="s">
         <v>3495</v>
@@ -52306,12 +52312,12 @@
         <v>5549</v>
       </c>
       <c r="Q1191" t="s">
-        <v>3515</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1192" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1192" s="1" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="C1192" t="s">
         <v>3495</v>
@@ -52326,12 +52332,12 @@
         <v>5549</v>
       </c>
       <c r="Q1192" t="s">
-        <v>3517</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="1193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1193" s="1" t="s">
-        <v>3518</v>
+        <v>3520</v>
       </c>
       <c r="C1193" t="s">
         <v>3495</v>
@@ -52346,12 +52352,12 @@
         <v>5549</v>
       </c>
       <c r="Q1193" t="s">
-        <v>4953</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1194" s="1" t="s">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="C1194" t="s">
         <v>3495</v>
@@ -52366,12 +52372,12 @@
         <v>5549</v>
       </c>
       <c r="Q1194" t="s">
-        <v>4954</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1195" s="1" t="s">
-        <v>3520</v>
+        <v>3524</v>
       </c>
       <c r="C1195" t="s">
         <v>3495</v>
@@ -52386,12 +52392,12 @@
         <v>5549</v>
       </c>
       <c r="Q1195" t="s">
-        <v>3521</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1196" s="1" t="s">
-        <v>3522</v>
+        <v>3526</v>
       </c>
       <c r="C1196" t="s">
         <v>3495</v>
@@ -52406,12 +52412,12 @@
         <v>5549</v>
       </c>
       <c r="Q1196" t="s">
-        <v>3523</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1197" s="1" t="s">
-        <v>3524</v>
+        <v>3528</v>
       </c>
       <c r="C1197" t="s">
         <v>3495</v>
@@ -52426,12 +52432,12 @@
         <v>5549</v>
       </c>
       <c r="Q1197" t="s">
-        <v>3525</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1198" s="1" t="s">
-        <v>3526</v>
+        <v>3530</v>
       </c>
       <c r="C1198" t="s">
         <v>3495</v>
@@ -52446,12 +52452,12 @@
         <v>5549</v>
       </c>
       <c r="Q1198" t="s">
-        <v>3527</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1199" s="1" t="s">
-        <v>3528</v>
+        <v>3532</v>
       </c>
       <c r="C1199" t="s">
         <v>3495</v>
@@ -52466,12 +52472,12 @@
         <v>5549</v>
       </c>
       <c r="Q1199" t="s">
-        <v>3529</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1200" s="1" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="C1200" t="s">
         <v>3495</v>
@@ -52486,12 +52492,12 @@
         <v>5549</v>
       </c>
       <c r="Q1200" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1201" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1201" s="1" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="C1201" t="s">
         <v>3495</v>
@@ -52506,12 +52512,12 @@
         <v>5549</v>
       </c>
       <c r="Q1201" t="s">
-        <v>4955</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1202" s="1" t="s">
-        <v>3533</v>
+        <v>3537</v>
       </c>
       <c r="C1202" t="s">
         <v>3495</v>
@@ -52526,12 +52532,12 @@
         <v>5549</v>
       </c>
       <c r="Q1202" t="s">
-        <v>3534</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1203" s="1" t="s">
-        <v>3535</v>
+        <v>3539</v>
       </c>
       <c r="C1203" t="s">
         <v>3495</v>
@@ -52546,12 +52552,12 @@
         <v>5549</v>
       </c>
       <c r="Q1203" t="s">
-        <v>3536</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="1204" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1204" s="1" t="s">
-        <v>3537</v>
+        <v>3540</v>
       </c>
       <c r="C1204" t="s">
         <v>3495</v>
@@ -52566,12 +52572,12 @@
         <v>5549</v>
       </c>
       <c r="Q1204" t="s">
-        <v>3538</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1205" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1205" s="1" t="s">
-        <v>3539</v>
+        <v>3541</v>
       </c>
       <c r="C1205" t="s">
         <v>3495</v>
@@ -52586,12 +52592,12 @@
         <v>5549</v>
       </c>
       <c r="Q1205" t="s">
-        <v>4956</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1206" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1206" s="1" t="s">
-        <v>3540</v>
+        <v>3542</v>
       </c>
       <c r="C1206" t="s">
         <v>3495</v>
@@ -52606,12 +52612,12 @@
         <v>5549</v>
       </c>
       <c r="Q1206" t="s">
-        <v>4588</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1207" s="1" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="C1207" t="s">
         <v>3495</v>
@@ -52626,12 +52632,12 @@
         <v>5549</v>
       </c>
       <c r="Q1207" t="s">
-        <v>4589</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1208" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1208" s="1" t="s">
-        <v>3542</v>
+        <v>3546</v>
       </c>
       <c r="C1208" t="s">
         <v>3495</v>
@@ -52646,12 +52652,12 @@
         <v>5549</v>
       </c>
       <c r="Q1208" t="s">
-        <v>3543</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1209" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1209" s="1" t="s">
-        <v>3544</v>
+        <v>3547</v>
       </c>
       <c r="C1209" t="s">
         <v>3495</v>
@@ -52666,12 +52672,12 @@
         <v>5549</v>
       </c>
       <c r="Q1209" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="1210" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1210" s="1" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
       <c r="C1210" t="s">
         <v>3495</v>
@@ -52686,12 +52692,12 @@
         <v>5549</v>
       </c>
       <c r="Q1210" t="s">
-        <v>4957</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1211" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1211" s="1" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="C1211" t="s">
         <v>3495</v>
@@ -52706,12 +52712,12 @@
         <v>5549</v>
       </c>
       <c r="Q1211" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1212" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1212" s="1" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="C1212" t="s">
         <v>3495</v>
@@ -52726,12 +52732,12 @@
         <v>5549</v>
       </c>
       <c r="Q1212" t="s">
-        <v>4590</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1213" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1213" s="1" t="s">
-        <v>3550</v>
+        <v>3554</v>
       </c>
       <c r="C1213" t="s">
         <v>3495</v>
@@ -52746,12 +52752,12 @@
         <v>5549</v>
       </c>
       <c r="Q1213" t="s">
-        <v>3551</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="1214" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1214" s="1" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="C1214" t="s">
         <v>3495</v>
@@ -52766,12 +52772,12 @@
         <v>5549</v>
       </c>
       <c r="Q1214" t="s">
-        <v>3553</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1215" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1215" s="1" t="s">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="C1215" t="s">
         <v>3495</v>
@@ -52786,12 +52792,12 @@
         <v>5549</v>
       </c>
       <c r="Q1215" t="s">
-        <v>4958</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1216" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1216" s="1" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="C1216" t="s">
         <v>3495</v>
@@ -52806,12 +52812,12 @@
         <v>5549</v>
       </c>
       <c r="Q1216" t="s">
-        <v>4591</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1217" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1217" s="1" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="C1217" t="s">
         <v>3495</v>
@@ -52826,12 +52832,12 @@
         <v>5549</v>
       </c>
       <c r="Q1217" t="s">
-        <v>3557</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1218" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1218" s="1" t="s">
-        <v>3558</v>
+        <v>3560</v>
       </c>
       <c r="C1218" t="s">
         <v>3495</v>
@@ -52846,12 +52852,12 @@
         <v>5549</v>
       </c>
       <c r="Q1218" t="s">
-        <v>4959</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1219" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1219" s="1" t="s">
-        <v>3559</v>
+        <v>3561</v>
       </c>
       <c r="C1219" t="s">
         <v>3495</v>
@@ -52866,12 +52872,12 @@
         <v>5549</v>
       </c>
       <c r="Q1219" t="s">
-        <v>4592</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="1220" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1220" s="1" t="s">
-        <v>3560</v>
+        <v>3562</v>
       </c>
       <c r="C1220" t="s">
         <v>3495</v>
@@ -52886,12 +52892,12 @@
         <v>5549</v>
       </c>
       <c r="Q1220" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1221" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1221" s="1" t="s">
-        <v>3561</v>
+        <v>3563</v>
       </c>
       <c r="C1221" t="s">
         <v>3495</v>
@@ -52906,12 +52912,12 @@
         <v>5549</v>
       </c>
       <c r="Q1221" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1222" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1222" s="1" t="s">
-        <v>3562</v>
+        <v>3564</v>
       </c>
       <c r="C1222" t="s">
         <v>3495</v>
@@ -52926,12 +52932,12 @@
         <v>5549</v>
       </c>
       <c r="Q1222" t="s">
-        <v>4594</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="1223" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1223" s="1" t="s">
-        <v>3563</v>
+        <v>3565</v>
       </c>
       <c r="C1223" t="s">
         <v>3495</v>
@@ -52946,12 +52952,12 @@
         <v>5549</v>
       </c>
       <c r="Q1223" t="s">
-        <v>4961</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="1224" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1224" s="1" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="C1224" t="s">
         <v>3495</v>
@@ -52966,12 +52972,12 @@
         <v>5549</v>
       </c>
       <c r="Q1224" t="s">
-        <v>4962</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1225" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1225" s="1" t="s">
-        <v>3565</v>
+        <v>3569</v>
       </c>
       <c r="C1225" t="s">
         <v>3495</v>
@@ -52986,12 +52992,12 @@
         <v>5549</v>
       </c>
       <c r="Q1225" t="s">
-        <v>3566</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="1226" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1226" s="1" t="s">
-        <v>3567</v>
+        <v>3571</v>
       </c>
       <c r="C1226" t="s">
         <v>3495</v>
@@ -53006,12 +53012,12 @@
         <v>5549</v>
       </c>
       <c r="Q1226" t="s">
-        <v>3568</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1227" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1227" s="1" t="s">
-        <v>3569</v>
+        <v>3572</v>
       </c>
       <c r="C1227" t="s">
         <v>3495</v>
@@ -53026,12 +53032,12 @@
         <v>5549</v>
       </c>
       <c r="Q1227" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1228" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1228" s="1" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="C1228" t="s">
         <v>3495</v>
@@ -53046,12 +53052,12 @@
         <v>5549</v>
       </c>
       <c r="Q1228" t="s">
-        <v>4595</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1229" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1229" s="1" t="s">
-        <v>3572</v>
+        <v>3576</v>
       </c>
       <c r="C1229" t="s">
         <v>3495</v>
@@ -53066,12 +53072,12 @@
         <v>5549</v>
       </c>
       <c r="Q1229" t="s">
-        <v>3573</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1230" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1230" s="1" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="C1230" t="s">
         <v>3495</v>
@@ -53086,12 +53092,12 @@
         <v>5549</v>
       </c>
       <c r="Q1230" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1231" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1231" s="1" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="C1231" t="s">
         <v>3495</v>
@@ -53106,12 +53112,12 @@
         <v>5549</v>
       </c>
       <c r="Q1231" t="s">
-        <v>4963</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="1232" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1232" s="1" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="C1232" t="s">
         <v>3495</v>
@@ -53126,12 +53132,12 @@
         <v>5549</v>
       </c>
       <c r="Q1232" t="s">
-        <v>3578</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1233" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1233" s="1" t="s">
-        <v>3579</v>
+        <v>3581</v>
       </c>
       <c r="C1233" t="s">
         <v>3495</v>
@@ -53146,12 +53152,12 @@
         <v>5549</v>
       </c>
       <c r="Q1233" t="s">
-        <v>4964</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1234" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1234" s="1" t="s">
-        <v>3580</v>
+        <v>3582</v>
       </c>
       <c r="C1234" t="s">
         <v>3495</v>
@@ -53166,12 +53172,12 @@
         <v>5549</v>
       </c>
       <c r="Q1234" t="s">
-        <v>4965</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="1235" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1235" s="1" t="s">
-        <v>3581</v>
+        <v>3583</v>
       </c>
       <c r="C1235" t="s">
         <v>3495</v>
@@ -53186,12 +53192,12 @@
         <v>5549</v>
       </c>
       <c r="Q1235" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1236" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1236" s="1" t="s">
-        <v>3582</v>
+        <v>3584</v>
       </c>
       <c r="C1236" t="s">
         <v>3495</v>
@@ -53206,12 +53212,12 @@
         <v>5549</v>
       </c>
       <c r="Q1236" t="s">
-        <v>4966</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1237" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1237" s="1" t="s">
-        <v>3583</v>
+        <v>3585</v>
       </c>
       <c r="C1237" t="s">
         <v>3495</v>
@@ -53226,12 +53232,12 @@
         <v>5549</v>
       </c>
       <c r="Q1237" t="s">
-        <v>4597</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="1238" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1238" s="1" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="C1238" t="s">
         <v>3495</v>
@@ -53246,12 +53252,12 @@
         <v>5549</v>
       </c>
       <c r="Q1238" t="s">
-        <v>4967</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1239" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1239" s="1" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="C1239" t="s">
         <v>3495</v>
@@ -53266,12 +53272,12 @@
         <v>5549</v>
       </c>
       <c r="Q1239" t="s">
-        <v>3586</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="1240" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1240" s="1" t="s">
-        <v>3587</v>
+        <v>3589</v>
       </c>
       <c r="C1240" t="s">
         <v>3495</v>
@@ -53286,12 +53292,12 @@
         <v>5549</v>
       </c>
       <c r="Q1240" t="s">
-        <v>4598</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="1241" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1241" s="1" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="C1241" t="s">
         <v>3495</v>
@@ -53306,12 +53312,12 @@
         <v>5549</v>
       </c>
       <c r="Q1241" t="s">
-        <v>4968</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1242" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1242" s="1" t="s">
-        <v>3589</v>
+        <v>3593</v>
       </c>
       <c r="C1242" t="s">
         <v>3495</v>
@@ -53326,12 +53332,12 @@
         <v>5549</v>
       </c>
       <c r="Q1242" t="s">
-        <v>3590</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1243" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1243" s="1" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="C1243" t="s">
         <v>3495</v>
@@ -53346,12 +53352,12 @@
         <v>5549</v>
       </c>
       <c r="Q1243" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1244" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1244" s="1" t="s">
-        <v>3593</v>
+        <v>3596</v>
       </c>
       <c r="C1244" t="s">
         <v>3495</v>
@@ -53366,12 +53372,12 @@
         <v>5549</v>
       </c>
       <c r="Q1244" t="s">
-        <v>4969</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="1245" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1245" s="1" t="s">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="C1245" t="s">
         <v>3495</v>
@@ -53386,12 +53392,12 @@
         <v>5549</v>
       </c>
       <c r="Q1245" t="s">
-        <v>3595</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1246" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1246" s="1" t="s">
-        <v>3596</v>
+        <v>3598</v>
       </c>
       <c r="C1246" t="s">
         <v>3495</v>
@@ -53406,12 +53412,12 @@
         <v>5549</v>
       </c>
       <c r="Q1246" t="s">
-        <v>4970</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1247" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1247" s="1" t="s">
-        <v>3597</v>
+        <v>3599</v>
       </c>
       <c r="C1247" t="s">
         <v>3495</v>
@@ -53426,12 +53432,12 @@
         <v>5549</v>
       </c>
       <c r="Q1247" t="s">
-        <v>4599</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1248" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1248" s="1" t="s">
-        <v>3598</v>
+        <v>3600</v>
       </c>
       <c r="C1248" t="s">
         <v>3495</v>
@@ -53446,12 +53452,12 @@
         <v>5549</v>
       </c>
       <c r="Q1248" t="s">
-        <v>4600</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="1249" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1249" s="1" t="s">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="C1249" t="s">
         <v>3495</v>
@@ -53466,12 +53472,12 @@
         <v>5549</v>
       </c>
       <c r="Q1249" t="s">
-        <v>4971</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1250" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1250" s="1" t="s">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="C1250" t="s">
         <v>3495</v>
@@ -53486,12 +53492,12 @@
         <v>5549</v>
       </c>
       <c r="Q1250" t="s">
-        <v>4972</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1251" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1251" s="1" t="s">
-        <v>3601</v>
+        <v>3604</v>
       </c>
       <c r="C1251" t="s">
         <v>3495</v>
@@ -53506,12 +53512,12 @@
         <v>5549</v>
       </c>
       <c r="Q1251" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1252" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1252" s="1" t="s">
-        <v>3603</v>
+        <v>6932</v>
       </c>
       <c r="C1252" t="s">
         <v>3495</v>
@@ -53526,12 +53532,12 @@
         <v>5549</v>
       </c>
       <c r="Q1252" t="s">
-        <v>4973</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="1253" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1253" s="1" t="s">
-        <v>3604</v>
+        <v>3607</v>
       </c>
       <c r="C1253" t="s">
         <v>3495</v>
@@ -53546,12 +53552,12 @@
         <v>5549</v>
       </c>
       <c r="Q1253" t="s">
-        <v>3605</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1254" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1254" s="1" t="s">
-        <v>6932</v>
+        <v>3609</v>
       </c>
       <c r="C1254" t="s">
         <v>3495</v>
@@ -53566,12 +53572,12 @@
         <v>5549</v>
       </c>
       <c r="Q1254" t="s">
-        <v>4974</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1255" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1255" s="1" t="s">
-        <v>3607</v>
+        <v>3611</v>
       </c>
       <c r="C1255" t="s">
         <v>3495</v>
@@ -53586,12 +53592,12 @@
         <v>5549</v>
       </c>
       <c r="Q1255" t="s">
-        <v>3608</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1256" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1256" s="1" t="s">
-        <v>3609</v>
+        <v>3612</v>
       </c>
       <c r="C1256" t="s">
         <v>3495</v>
@@ -53606,12 +53612,12 @@
         <v>5549</v>
       </c>
       <c r="Q1256" t="s">
-        <v>3610</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="1257" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1257" s="1" t="s">
-        <v>3611</v>
+        <v>3613</v>
       </c>
       <c r="C1257" t="s">
         <v>3495</v>
@@ -53626,12 +53632,12 @@
         <v>5549</v>
       </c>
       <c r="Q1257" t="s">
-        <v>4975</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1258" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1258" s="1" t="s">
-        <v>3612</v>
+        <v>3615</v>
       </c>
       <c r="C1258" t="s">
         <v>3495</v>
@@ -53646,12 +53652,12 @@
         <v>5549</v>
       </c>
       <c r="Q1258" t="s">
-        <v>4976</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="1259" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1259" s="1" t="s">
-        <v>3613</v>
+        <v>3617</v>
       </c>
       <c r="C1259" t="s">
         <v>3495</v>
@@ -53666,12 +53672,12 @@
         <v>5549</v>
       </c>
       <c r="Q1259" t="s">
-        <v>3614</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1260" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1260" s="1" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
       <c r="C1260" t="s">
         <v>3495</v>
@@ -53686,12 +53692,12 @@
         <v>5549</v>
       </c>
       <c r="Q1260" t="s">
-        <v>3616</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1261" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1261" s="1" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
       <c r="C1261" t="s">
         <v>3495</v>
@@ -53706,12 +53712,12 @@
         <v>5549</v>
       </c>
       <c r="Q1261" t="s">
-        <v>4977</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="1262" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1262" s="1" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
       <c r="C1262" t="s">
         <v>3495</v>
@@ -53726,12 +53732,12 @@
         <v>5549</v>
       </c>
       <c r="Q1262" t="s">
-        <v>3619</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1263" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1263" s="1" t="s">
-        <v>3620</v>
+        <v>3622</v>
       </c>
       <c r="C1263" t="s">
         <v>3495</v>
@@ -53746,12 +53752,12 @@
         <v>5549</v>
       </c>
       <c r="Q1263" t="s">
-        <v>4978</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="1264" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1264" s="1" t="s">
-        <v>3621</v>
+        <v>3623</v>
       </c>
       <c r="C1264" t="s">
         <v>3495</v>
@@ -53766,12 +53772,12 @@
         <v>5549</v>
       </c>
       <c r="Q1264" t="s">
-        <v>4979</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1265" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1265" s="1" t="s">
-        <v>3622</v>
+        <v>3624</v>
       </c>
       <c r="C1265" t="s">
         <v>3495</v>
@@ -53786,12 +53792,12 @@
         <v>5549</v>
       </c>
       <c r="Q1265" t="s">
-        <v>4980</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1266" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1266" s="1" t="s">
-        <v>3623</v>
+        <v>3625</v>
       </c>
       <c r="C1266" t="s">
         <v>3495</v>
@@ -53806,12 +53812,12 @@
         <v>5549</v>
       </c>
       <c r="Q1266" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1267" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1267" s="1" t="s">
-        <v>3624</v>
+        <v>3626</v>
       </c>
       <c r="C1267" t="s">
         <v>3495</v>
@@ -53826,12 +53832,12 @@
         <v>5549</v>
       </c>
       <c r="Q1267" t="s">
-        <v>4981</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1268" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1268" s="1" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="C1268" t="s">
         <v>3495</v>
@@ -53846,12 +53852,12 @@
         <v>5549</v>
       </c>
       <c r="Q1268" t="s">
-        <v>4602</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="1269" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1269" s="1" t="s">
-        <v>3626</v>
+        <v>3629</v>
       </c>
       <c r="C1269" t="s">
         <v>3495</v>
@@ -53866,12 +53872,12 @@
         <v>5549</v>
       </c>
       <c r="Q1269" t="s">
-        <v>3627</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1270" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1270" s="1" t="s">
-        <v>3628</v>
+        <v>3630</v>
       </c>
       <c r="C1270" t="s">
         <v>3495</v>
@@ -53886,12 +53892,12 @@
         <v>5549</v>
       </c>
       <c r="Q1270" t="s">
-        <v>4982</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1271" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1271" s="1" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="C1271" t="s">
         <v>3495</v>
@@ -53906,12 +53912,12 @@
         <v>5549</v>
       </c>
       <c r="Q1271" t="s">
-        <v>4603</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1272" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1272" s="1" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="C1272" t="s">
         <v>3495</v>
@@ -53926,12 +53932,12 @@
         <v>5549</v>
       </c>
       <c r="Q1272" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1273" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1273" s="1" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
       <c r="C1273" t="s">
         <v>3495</v>
@@ -53946,12 +53952,12 @@
         <v>5549</v>
       </c>
       <c r="Q1273" t="s">
-        <v>4983</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1274" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1274" s="1" t="s">
-        <v>3633</v>
+        <v>3637</v>
       </c>
       <c r="C1274" t="s">
         <v>3495</v>
@@ -53966,12 +53972,12 @@
         <v>5549</v>
       </c>
       <c r="Q1274" t="s">
-        <v>3634</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1275" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1275" s="1" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
       <c r="C1275" t="s">
         <v>3495</v>
@@ -53986,12 +53992,12 @@
         <v>5549</v>
       </c>
       <c r="Q1275" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1276" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1276" s="1" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
       <c r="C1276" t="s">
         <v>3495</v>
@@ -54006,12 +54012,12 @@
         <v>5549</v>
       </c>
       <c r="Q1276" t="s">
-        <v>4604</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="1277" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1277" s="1" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="C1277" t="s">
         <v>3495</v>
@@ -54026,12 +54032,12 @@
         <v>5549</v>
       </c>
       <c r="Q1277" t="s">
-        <v>3639</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1278" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1278" s="1" t="s">
-        <v>3640</v>
+        <v>3642</v>
       </c>
       <c r="C1278" t="s">
         <v>3495</v>
@@ -54046,12 +54052,12 @@
         <v>5549</v>
       </c>
       <c r="Q1278" t="s">
-        <v>4984</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1279" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1279" s="1" t="s">
-        <v>3641</v>
+        <v>3643</v>
       </c>
       <c r="C1279" t="s">
         <v>3495</v>
@@ -54066,12 +54072,12 @@
         <v>5549</v>
       </c>
       <c r="Q1279" t="s">
-        <v>4985</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="1280" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1280" s="1" t="s">
-        <v>3642</v>
+        <v>3644</v>
       </c>
       <c r="C1280" t="s">
         <v>3495</v>
@@ -54086,12 +54092,12 @@
         <v>5549</v>
       </c>
       <c r="Q1280" t="s">
-        <v>4605</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1281" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1281" s="1" t="s">
-        <v>3643</v>
+        <v>3645</v>
       </c>
       <c r="C1281" t="s">
         <v>3495</v>
@@ -54106,12 +54112,12 @@
         <v>5549</v>
       </c>
       <c r="Q1281" t="s">
-        <v>4986</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="1282" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1282" s="1" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="C1282" t="s">
         <v>3495</v>
@@ -54126,12 +54132,12 @@
         <v>5549</v>
       </c>
       <c r="Q1282" t="s">
-        <v>4987</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="1283" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1283" s="1" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
       <c r="C1283" t="s">
         <v>3495</v>
@@ -54146,12 +54152,12 @@
         <v>5549</v>
       </c>
       <c r="Q1283" t="s">
-        <v>3646</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1284" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1284" s="1" t="s">
-        <v>3647</v>
+        <v>3649</v>
       </c>
       <c r="C1284" t="s">
         <v>3495</v>
@@ -54166,12 +54172,12 @@
         <v>5549</v>
       </c>
       <c r="Q1284" t="s">
-        <v>4988</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1285" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1285" s="1" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="C1285" t="s">
         <v>3495</v>
@@ -54186,12 +54192,12 @@
         <v>5549</v>
       </c>
       <c r="Q1285" t="s">
-        <v>4989</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="1286" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1286" s="1" t="s">
-        <v>3649</v>
+        <v>3653</v>
       </c>
       <c r="C1286" t="s">
         <v>3495</v>
@@ -54206,12 +54212,12 @@
         <v>5549</v>
       </c>
       <c r="Q1286" t="s">
-        <v>3650</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1287" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1287" s="1" t="s">
-        <v>3651</v>
+        <v>3655</v>
       </c>
       <c r="C1287" t="s">
         <v>3495</v>
@@ -54226,12 +54232,12 @@
         <v>5549</v>
       </c>
       <c r="Q1287" t="s">
-        <v>3652</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="1288" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1288" s="1" t="s">
-        <v>3653</v>
+        <v>3657</v>
       </c>
       <c r="C1288" t="s">
         <v>3495</v>
@@ -54246,12 +54252,12 @@
         <v>5549</v>
       </c>
       <c r="Q1288" t="s">
-        <v>3654</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="1289" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1289" s="1" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="C1289" t="s">
         <v>3495</v>
@@ -54266,12 +54272,12 @@
         <v>5549</v>
       </c>
       <c r="Q1289" t="s">
-        <v>3656</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1290" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1290" s="1" t="s">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="C1290" t="s">
         <v>3495</v>
@@ -54286,12 +54292,12 @@
         <v>5549</v>
       </c>
       <c r="Q1290" t="s">
-        <v>4990</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1291" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1291" s="1" t="s">
-        <v>3658</v>
+        <v>3662</v>
       </c>
       <c r="C1291" t="s">
         <v>3495</v>
@@ -54306,12 +54312,12 @@
         <v>5549</v>
       </c>
       <c r="Q1291" t="s">
-        <v>3659</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1292" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1292" s="1" t="s">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="C1292" t="s">
         <v>3495</v>
@@ -54326,12 +54332,12 @@
         <v>5549</v>
       </c>
       <c r="Q1292" t="s">
-        <v>3661</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1293" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1293" s="1" t="s">
-        <v>3662</v>
+        <v>3665</v>
       </c>
       <c r="C1293" t="s">
         <v>3495</v>
@@ -54346,12 +54352,12 @@
         <v>5549</v>
       </c>
       <c r="Q1293" t="s">
-        <v>4991</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="1294" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1294" s="1" t="s">
-        <v>3663</v>
+        <v>3666</v>
       </c>
       <c r="C1294" t="s">
         <v>3495</v>
@@ -54366,12 +54372,12 @@
         <v>5549</v>
       </c>
       <c r="Q1294" t="s">
-        <v>3664</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1295" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1295" s="1" t="s">
-        <v>3665</v>
+        <v>3668</v>
       </c>
       <c r="C1295" t="s">
         <v>3495</v>
@@ -54386,12 +54392,12 @@
         <v>5549</v>
       </c>
       <c r="Q1295" t="s">
-        <v>4992</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1296" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1296" s="1" t="s">
-        <v>3666</v>
+        <v>3670</v>
       </c>
       <c r="C1296" t="s">
         <v>3495</v>
@@ -54406,12 +54412,12 @@
         <v>5549</v>
       </c>
       <c r="Q1296" t="s">
-        <v>3667</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1297" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1297" s="1" t="s">
-        <v>3668</v>
+        <v>3672</v>
       </c>
       <c r="C1297" t="s">
         <v>3495</v>
@@ -54426,12 +54432,12 @@
         <v>5549</v>
       </c>
       <c r="Q1297" t="s">
-        <v>3669</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1298" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1298" s="1" t="s">
-        <v>3670</v>
+        <v>3674</v>
       </c>
       <c r="C1298" t="s">
         <v>3495</v>
@@ -54446,12 +54452,12 @@
         <v>5549</v>
       </c>
       <c r="Q1298" t="s">
-        <v>3671</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1299" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1299" s="1" t="s">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="C1299" t="s">
         <v>3495</v>
@@ -54466,12 +54472,12 @@
         <v>5549</v>
       </c>
       <c r="Q1299" t="s">
-        <v>3673</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="1300" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1300" s="1" t="s">
-        <v>3674</v>
+        <v>3676</v>
       </c>
       <c r="C1300" t="s">
         <v>3495</v>
@@ -54486,12 +54492,12 @@
         <v>5549</v>
       </c>
       <c r="Q1300" t="s">
-        <v>4993</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1301" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1301" s="1" t="s">
-        <v>3675</v>
+        <v>3677</v>
       </c>
       <c r="C1301" t="s">
         <v>3495</v>
@@ -54506,12 +54512,12 @@
         <v>5549</v>
       </c>
       <c r="Q1301" t="s">
-        <v>4994</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="1302" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1302" s="1" t="s">
-        <v>3676</v>
+        <v>3678</v>
       </c>
       <c r="C1302" t="s">
         <v>3495</v>
@@ -54526,12 +54532,12 @@
         <v>5549</v>
       </c>
       <c r="Q1302" t="s">
-        <v>4995</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1303" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1303" s="1" t="s">
-        <v>3677</v>
+        <v>3679</v>
       </c>
       <c r="C1303" t="s">
         <v>3495</v>
@@ -54546,12 +54552,12 @@
         <v>5549</v>
       </c>
       <c r="Q1303" t="s">
-        <v>4996</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1304" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1304" s="1" t="s">
-        <v>3678</v>
+        <v>3681</v>
       </c>
       <c r="C1304" t="s">
         <v>3495</v>
@@ -54566,12 +54572,12 @@
         <v>5549</v>
       </c>
       <c r="Q1304" t="s">
-        <v>4997</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1305" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1305" s="1" t="s">
-        <v>3679</v>
+        <v>3682</v>
       </c>
       <c r="C1305" t="s">
         <v>3495</v>
@@ -54586,12 +54592,12 @@
         <v>5549</v>
       </c>
       <c r="Q1305" t="s">
-        <v>3680</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1306" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1306" s="1" t="s">
-        <v>3681</v>
+        <v>6933</v>
       </c>
       <c r="C1306" t="s">
         <v>3495</v>
@@ -54606,12 +54612,12 @@
         <v>5549</v>
       </c>
       <c r="Q1306" t="s">
-        <v>4606</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="1307" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1307" s="1" t="s">
-        <v>3682</v>
+        <v>6935</v>
       </c>
       <c r="C1307" t="s">
         <v>3495</v>
@@ -54626,12 +54632,12 @@
         <v>5549</v>
       </c>
       <c r="Q1307" t="s">
-        <v>3683</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="1308" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1308" s="1" t="s">
-        <v>6933</v>
+        <v>6937</v>
       </c>
       <c r="C1308" t="s">
         <v>3495</v>
@@ -54646,12 +54652,12 @@
         <v>5549</v>
       </c>
       <c r="Q1308" t="s">
-        <v>6934</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="1309" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1309" s="1" t="s">
-        <v>6935</v>
+        <v>6939</v>
       </c>
       <c r="C1309" t="s">
         <v>3495</v>
@@ -54666,12 +54672,12 @@
         <v>5549</v>
       </c>
       <c r="Q1309" t="s">
-        <v>6936</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="1310" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1310" s="1" t="s">
-        <v>6937</v>
+        <v>6941</v>
       </c>
       <c r="C1310" t="s">
         <v>3495</v>
@@ -54686,12 +54692,12 @@
         <v>5549</v>
       </c>
       <c r="Q1310" t="s">
-        <v>6938</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="1311" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1311" s="1" t="s">
-        <v>6939</v>
+        <v>6943</v>
       </c>
       <c r="C1311" t="s">
         <v>3495</v>
@@ -54706,12 +54712,12 @@
         <v>5549</v>
       </c>
       <c r="Q1311" t="s">
-        <v>6940</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="1312" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1312" s="1" t="s">
-        <v>6941</v>
+        <v>6945</v>
       </c>
       <c r="C1312" t="s">
         <v>3495</v>
@@ -54726,12 +54732,12 @@
         <v>5549</v>
       </c>
       <c r="Q1312" t="s">
-        <v>6942</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="1313" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1313" s="1" t="s">
-        <v>6943</v>
+        <v>6947</v>
       </c>
       <c r="C1313" t="s">
         <v>3495</v>
@@ -54746,12 +54752,12 @@
         <v>5549</v>
       </c>
       <c r="Q1313" t="s">
-        <v>6944</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="1314" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1314" s="1" t="s">
-        <v>6945</v>
+        <v>6949</v>
       </c>
       <c r="C1314" t="s">
         <v>3495</v>
@@ -54766,12 +54772,12 @@
         <v>5549</v>
       </c>
       <c r="Q1314" t="s">
-        <v>6946</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="1315" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1315" s="1" t="s">
-        <v>6947</v>
+        <v>6951</v>
       </c>
       <c r="C1315" t="s">
         <v>3495</v>
@@ -54786,12 +54792,12 @@
         <v>5549</v>
       </c>
       <c r="Q1315" t="s">
-        <v>6948</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="1316" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1316" s="1" t="s">
-        <v>6949</v>
+        <v>6953</v>
       </c>
       <c r="C1316" t="s">
         <v>3495</v>
@@ -54806,86 +54812,98 @@
         <v>5549</v>
       </c>
       <c r="Q1316" t="s">
-        <v>6950</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="1317" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1317" s="1" t="s">
-        <v>6951</v>
+        <v>2668</v>
       </c>
       <c r="C1317" t="s">
-        <v>3495</v>
+        <v>2669</v>
       </c>
       <c r="D1317" s="1">
         <v>68000</v>
       </c>
-      <c r="E1317" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1317" t="s">
-        <v>5549</v>
+        <v>2670</v>
       </c>
       <c r="Q1317" t="s">
-        <v>6952</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="1318" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1318" s="1" t="s">
-        <v>6953</v>
+        <v>2672</v>
       </c>
       <c r="C1318" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D1318" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1318" t="s">
-        <v>2426</v>
+        <v>2673</v>
+      </c>
+      <c r="D1318" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="L1318" t="s">
-        <v>5549</v>
+        <v>2538</v>
       </c>
       <c r="Q1318" t="s">
-        <v>6954</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="1319" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1319" s="1" t="s">
-        <v>2668</v>
+        <v>2691</v>
       </c>
       <c r="C1319" t="s">
-        <v>2669</v>
+        <v>2689</v>
       </c>
       <c r="D1319" s="1">
-        <v>68000</v>
+        <v>68010</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>351</v>
       </c>
       <c r="L1319" t="s">
-        <v>2670</v>
+        <v>5238</v>
+      </c>
+      <c r="M1319" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1319" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1319" t="s">
-        <v>2671</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="1320" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1320" s="1" t="s">
-        <v>2672</v>
+        <v>2688</v>
       </c>
       <c r="C1320" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D1320" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D1320" s="1">
+        <v>68010</v>
+      </c>
+      <c r="E1320" t="s">
         <v>351</v>
       </c>
       <c r="L1320" t="s">
-        <v>2538</v>
+        <v>5238</v>
+      </c>
+      <c r="M1320" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1320" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1320" t="s">
-        <v>2674</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="1321" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1321" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C1321" t="s">
         <v>2689</v>
@@ -54906,12 +54924,12 @@
         <v>3889</v>
       </c>
       <c r="Q1321" t="s">
-        <v>4870</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="1322" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1322" s="1" t="s">
-        <v>2688</v>
+        <v>6487</v>
       </c>
       <c r="C1322" t="s">
         <v>2689</v>
@@ -54932,12 +54950,12 @@
         <v>3889</v>
       </c>
       <c r="Q1322" t="s">
-        <v>4867</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="1323" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1323" s="1" t="s">
-        <v>2690</v>
+        <v>6488</v>
       </c>
       <c r="C1323" t="s">
         <v>2689</v>
@@ -54958,12 +54976,12 @@
         <v>3889</v>
       </c>
       <c r="Q1323" t="s">
-        <v>4868</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="1324" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1324" s="1" t="s">
-        <v>6487</v>
+        <v>2692</v>
       </c>
       <c r="C1324" t="s">
         <v>2689</v>
@@ -54984,12 +55002,12 @@
         <v>3889</v>
       </c>
       <c r="Q1324" t="s">
-        <v>4869</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="1325" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1325" s="1" t="s">
-        <v>6488</v>
+        <v>2693</v>
       </c>
       <c r="C1325" t="s">
         <v>2689</v>
@@ -55010,12 +55028,12 @@
         <v>3889</v>
       </c>
       <c r="Q1325" t="s">
-        <v>6489</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="1326" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1326" s="1" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="C1326" t="s">
         <v>2689</v>
@@ -55036,12 +55054,12 @@
         <v>3889</v>
       </c>
       <c r="Q1326" t="s">
-        <v>4871</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="1327" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1327" s="1" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="C1327" t="s">
         <v>2689</v>
@@ -55062,12 +55080,12 @@
         <v>3889</v>
       </c>
       <c r="Q1327" t="s">
-        <v>4872</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="1328" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1328" s="1" t="s">
-        <v>2694</v>
+        <v>6490</v>
       </c>
       <c r="C1328" t="s">
         <v>2689</v>
@@ -55088,12 +55106,12 @@
         <v>3889</v>
       </c>
       <c r="Q1328" t="s">
-        <v>4873</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="1329" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1329" s="1" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="C1329" t="s">
         <v>2689</v>
@@ -55114,12 +55132,12 @@
         <v>3889</v>
       </c>
       <c r="Q1329" t="s">
-        <v>4874</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1330" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1330" s="1" t="s">
-        <v>6490</v>
+        <v>2697</v>
       </c>
       <c r="C1330" t="s">
         <v>2689</v>
@@ -55140,18 +55158,18 @@
         <v>3889</v>
       </c>
       <c r="Q1330" t="s">
-        <v>6491</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="1331" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1331" s="1" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="C1331" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1331" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1331" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1331" t="s">
         <v>351</v>
@@ -55160,24 +55178,24 @@
         <v>5238</v>
       </c>
       <c r="M1331" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="N1331" t="s">
         <v>3889</v>
       </c>
       <c r="Q1331" t="s">
-        <v>4875</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1332" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1332" s="1" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="C1332" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1332" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1332" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1332" t="s">
         <v>351</v>
@@ -55186,18 +55204,15 @@
         <v>5238</v>
       </c>
       <c r="M1332" t="s">
-        <v>2534</v>
-      </c>
-      <c r="N1332" t="s">
-        <v>3889</v>
+        <v>2538</v>
       </c>
       <c r="Q1332" t="s">
-        <v>4876</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1333" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1333" s="1" t="s">
-        <v>2698</v>
+        <v>2702</v>
       </c>
       <c r="C1333" t="s">
         <v>2699</v>
@@ -55214,16 +55229,13 @@
       <c r="M1333" t="s">
         <v>2538</v>
       </c>
-      <c r="N1333" t="s">
-        <v>3889</v>
-      </c>
       <c r="Q1333" t="s">
-        <v>4877</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1334" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1334" s="1" t="s">
-        <v>2701</v>
+        <v>6492</v>
       </c>
       <c r="C1334" t="s">
         <v>2699</v>
@@ -55240,13 +55252,16 @@
       <c r="M1334" t="s">
         <v>2538</v>
       </c>
+      <c r="N1334" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q1334" t="s">
-        <v>4416</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="1335" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1335" s="1" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="C1335" t="s">
         <v>2699</v>
@@ -55263,13 +55278,16 @@
       <c r="M1335" t="s">
         <v>2538</v>
       </c>
+      <c r="N1335" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q1335" t="s">
-        <v>4417</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="1336" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1336" s="1" t="s">
-        <v>6492</v>
+        <v>2704</v>
       </c>
       <c r="C1336" t="s">
         <v>2699</v>
@@ -55290,12 +55308,12 @@
         <v>3889</v>
       </c>
       <c r="Q1336" t="s">
-        <v>4878</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1337" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1337" s="1" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="C1337" t="s">
         <v>2699</v>
@@ -55316,63 +55334,11 @@
         <v>3889</v>
       </c>
       <c r="Q1337" t="s">
-        <v>4879</v>
-      </c>
-    </row>
-    <row r="1338" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1338" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="C1338" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1338" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1338" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1338" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1338" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1338" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1338" t="s">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="1339" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1339" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C1339" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1339" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1339" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1339" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1339" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1339" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1339" t="s">
         <v>4881</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:R1318"/>
+  <autoFilter ref="B1:R1316"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -55380,10 +55346,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q457"/>
+  <dimension ref="B1:Q459"/>
   <sheetViews>
     <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A456" sqref="A456:XFD457"/>
+      <selection activeCell="A458" sqref="A458:XFD459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64820,6 +64786,40 @@
       </c>
       <c r="Q457" t="s">
         <v>3182</v>
+      </c>
+    </row>
+    <row r="458" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B458" s="1" t="s">
+        <v>6912</v>
+      </c>
+      <c r="C458" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L458" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q458" t="s">
+        <v>6913</v>
+      </c>
+    </row>
+    <row r="459" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B459" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C459" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L459" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q459" t="s">
+        <v>4586</v>
       </c>
     </row>
   </sheetData>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -25879,10 +25879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1337"/>
+  <dimension ref="B1:Q1336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1161" workbookViewId="0">
-      <selection activeCell="B1170" sqref="B1170"/>
+    <sheetView tabSelected="1" topLeftCell="A1308" workbookViewId="0">
+      <selection activeCell="A1318" sqref="A1318:XFD1318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -54834,24 +54834,33 @@
     </row>
     <row r="1318" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1318" s="1" t="s">
-        <v>2672</v>
+        <v>2691</v>
       </c>
       <c r="C1318" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D1318" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D1318" s="1">
+        <v>68010</v>
+      </c>
+      <c r="E1318" t="s">
         <v>351</v>
       </c>
       <c r="L1318" t="s">
-        <v>2538</v>
+        <v>5238</v>
+      </c>
+      <c r="M1318" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1318" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1318" t="s">
-        <v>2674</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="1319" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1319" s="1" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="C1319" t="s">
         <v>2689</v>
@@ -54872,12 +54881,12 @@
         <v>3889</v>
       </c>
       <c r="Q1319" t="s">
-        <v>4870</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="1320" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1320" s="1" t="s">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="C1320" t="s">
         <v>2689</v>
@@ -54898,12 +54907,12 @@
         <v>3889</v>
       </c>
       <c r="Q1320" t="s">
-        <v>4867</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="1321" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1321" s="1" t="s">
-        <v>2690</v>
+        <v>6487</v>
       </c>
       <c r="C1321" t="s">
         <v>2689</v>
@@ -54924,12 +54933,12 @@
         <v>3889</v>
       </c>
       <c r="Q1321" t="s">
-        <v>4868</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="1322" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1322" s="1" t="s">
-        <v>6487</v>
+        <v>6488</v>
       </c>
       <c r="C1322" t="s">
         <v>2689</v>
@@ -54950,12 +54959,12 @@
         <v>3889</v>
       </c>
       <c r="Q1322" t="s">
-        <v>4869</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="1323" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1323" s="1" t="s">
-        <v>6488</v>
+        <v>2692</v>
       </c>
       <c r="C1323" t="s">
         <v>2689</v>
@@ -54976,12 +54985,12 @@
         <v>3889</v>
       </c>
       <c r="Q1323" t="s">
-        <v>6489</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="1324" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1324" s="1" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="C1324" t="s">
         <v>2689</v>
@@ -55002,12 +55011,12 @@
         <v>3889</v>
       </c>
       <c r="Q1324" t="s">
-        <v>4871</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="1325" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1325" s="1" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="C1325" t="s">
         <v>2689</v>
@@ -55028,12 +55037,12 @@
         <v>3889</v>
       </c>
       <c r="Q1325" t="s">
-        <v>4872</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="1326" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1326" s="1" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="C1326" t="s">
         <v>2689</v>
@@ -55054,12 +55063,12 @@
         <v>3889</v>
       </c>
       <c r="Q1326" t="s">
-        <v>4873</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="1327" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1327" s="1" t="s">
-        <v>2695</v>
+        <v>6490</v>
       </c>
       <c r="C1327" t="s">
         <v>2689</v>
@@ -55080,12 +55089,12 @@
         <v>3889</v>
       </c>
       <c r="Q1327" t="s">
-        <v>4874</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="1328" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1328" s="1" t="s">
-        <v>6490</v>
+        <v>2696</v>
       </c>
       <c r="C1328" t="s">
         <v>2689</v>
@@ -55106,12 +55115,12 @@
         <v>3889</v>
       </c>
       <c r="Q1328" t="s">
-        <v>6491</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1329" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1329" s="1" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="C1329" t="s">
         <v>2689</v>
@@ -55132,18 +55141,18 @@
         <v>3889</v>
       </c>
       <c r="Q1329" t="s">
-        <v>4875</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="1330" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1330" s="1" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="C1330" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1330" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1330" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1330" t="s">
         <v>351</v>
@@ -55152,18 +55161,18 @@
         <v>5238</v>
       </c>
       <c r="M1330" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="N1330" t="s">
         <v>3889</v>
       </c>
       <c r="Q1330" t="s">
-        <v>4876</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1331" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1331" s="1" t="s">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="C1331" t="s">
         <v>2699</v>
@@ -55180,16 +55189,13 @@
       <c r="M1331" t="s">
         <v>2538</v>
       </c>
-      <c r="N1331" t="s">
-        <v>3889</v>
-      </c>
       <c r="Q1331" t="s">
-        <v>4877</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1332" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1332" s="1" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="C1332" t="s">
         <v>2699</v>
@@ -55207,12 +55213,12 @@
         <v>2538</v>
       </c>
       <c r="Q1332" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1333" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1333" s="1" t="s">
-        <v>2702</v>
+        <v>6492</v>
       </c>
       <c r="C1333" t="s">
         <v>2699</v>
@@ -55229,13 +55235,16 @@
       <c r="M1333" t="s">
         <v>2538</v>
       </c>
+      <c r="N1333" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q1333" t="s">
-        <v>4417</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="1334" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1334" s="1" t="s">
-        <v>6492</v>
+        <v>2703</v>
       </c>
       <c r="C1334" t="s">
         <v>2699</v>
@@ -55256,12 +55265,12 @@
         <v>3889</v>
       </c>
       <c r="Q1334" t="s">
-        <v>4878</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="1335" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1335" s="1" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="C1335" t="s">
         <v>2699</v>
@@ -55282,12 +55291,12 @@
         <v>3889</v>
       </c>
       <c r="Q1335" t="s">
-        <v>4879</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1336" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1336" s="1" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="C1336" t="s">
         <v>2699</v>
@@ -55308,32 +55317,6 @@
         <v>3889</v>
       </c>
       <c r="Q1336" t="s">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="1337" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1337" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C1337" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1337" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1337" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1337" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1337" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1337" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1337" t="s">
         <v>4881</v>
       </c>
     </row>
@@ -64830,10 +64813,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R1167"/>
+  <dimension ref="B1:R1168"/>
   <sheetViews>
     <sheetView topLeftCell="A1131" workbookViewId="0">
-      <selection activeCell="A1164" sqref="A1164:XFD1167"/>
+      <selection activeCell="A1168" sqref="A1168:XFD1168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -89788,6 +89771,23 @@
         <v>2958</v>
       </c>
     </row>
+    <row r="1168" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1168" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D1168" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1168" t="s">
+        <v>2538</v>
+      </c>
+      <c r="Q1168" t="s">
+        <v>2674</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="working" sheetId="9" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="To Check" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1316</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1307</definedName>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1316</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1307</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25879,10 +25879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1336"/>
+  <dimension ref="B1:Q1327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1308" workbookViewId="0">
-      <selection activeCell="A1318" sqref="A1318:XFD1318"/>
+    <sheetView topLeftCell="A1100" workbookViewId="0">
+      <selection activeCell="D1110" sqref="D1110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49157,10 +49157,10 @@
     </row>
     <row r="1028" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1028" s="1" t="s">
-        <v>3287</v>
+        <v>3301</v>
       </c>
       <c r="C1028" t="s">
-        <v>3288</v>
+        <v>3302</v>
       </c>
       <c r="D1028" s="1" t="s">
         <v>2</v>
@@ -49172,15 +49172,15 @@
         <v>55</v>
       </c>
       <c r="Q1028" t="s">
-        <v>3289</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="1029" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1029" s="1" t="s">
-        <v>3290</v>
+        <v>3304</v>
       </c>
       <c r="C1029" t="s">
-        <v>3288</v>
+        <v>3302</v>
       </c>
       <c r="D1029" s="1" t="s">
         <v>2</v>
@@ -49192,175 +49192,178 @@
         <v>55</v>
       </c>
       <c r="Q1029" t="s">
-        <v>3291</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="1030" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1030" s="1" t="s">
-        <v>3292</v>
+        <v>3306</v>
       </c>
       <c r="C1030" t="s">
-        <v>3288</v>
-      </c>
-      <c r="D1030" s="1" t="s">
-        <v>2</v>
+        <v>3307</v>
+      </c>
+      <c r="D1030" s="1">
+        <v>68000</v>
       </c>
       <c r="E1030" t="s">
-        <v>2</v>
+        <v>3766</v>
       </c>
       <c r="L1030" t="s">
-        <v>55</v>
+        <v>5071</v>
+      </c>
+      <c r="M1030" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1030" t="s">
-        <v>3293</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1031" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1031" s="1" t="s">
-        <v>3294</v>
+        <v>3308</v>
       </c>
       <c r="C1031" t="s">
-        <v>3288</v>
-      </c>
-      <c r="D1031" s="1" t="s">
-        <v>2</v>
+        <v>3309</v>
+      </c>
+      <c r="D1031" s="1">
+        <v>68000</v>
       </c>
       <c r="E1031" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1031" t="s">
-        <v>55</v>
+        <v>5071</v>
+      </c>
+      <c r="M1031" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1031" t="s">
-        <v>3295</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1032" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1032" s="1" t="s">
-        <v>6682</v>
+        <v>3310</v>
       </c>
       <c r="C1032" t="s">
-        <v>3288</v>
-      </c>
-      <c r="D1032" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1032" t="s">
-        <v>2</v>
+        <v>3307</v>
+      </c>
+      <c r="D1032" s="1">
+        <v>68000</v>
       </c>
       <c r="L1032" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q1032" t="s">
-        <v>6683</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="1033" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1033" s="1" t="s">
-        <v>3301</v>
+        <v>3311</v>
       </c>
       <c r="C1033" t="s">
-        <v>3302</v>
-      </c>
-      <c r="D1033" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1033" t="s">
-        <v>2</v>
+        <v>3312</v>
+      </c>
+      <c r="D1033" s="1">
+        <v>68000</v>
       </c>
       <c r="L1033" t="s">
-        <v>55</v>
+        <v>1155</v>
+      </c>
+      <c r="M1033" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1033" t="s">
-        <v>3303</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1034" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1034" s="1" t="s">
-        <v>3304</v>
+        <v>3313</v>
       </c>
       <c r="C1034" t="s">
-        <v>3302</v>
-      </c>
-      <c r="D1034" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1034" t="s">
-        <v>2</v>
+        <v>3312</v>
+      </c>
+      <c r="D1034" s="1">
+        <v>68000</v>
       </c>
       <c r="L1034" t="s">
-        <v>55</v>
+        <v>1155</v>
+      </c>
+      <c r="M1034" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1034" t="s">
-        <v>3305</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1035" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1035" s="1" t="s">
-        <v>3306</v>
+        <v>6685</v>
       </c>
       <c r="C1035" t="s">
-        <v>3307</v>
+        <v>3312</v>
       </c>
       <c r="D1035" s="1">
         <v>68000</v>
       </c>
-      <c r="E1035" t="s">
-        <v>3766</v>
-      </c>
       <c r="L1035" t="s">
-        <v>5071</v>
+        <v>1155</v>
       </c>
       <c r="M1035" t="s">
         <v>1687</v>
       </c>
       <c r="Q1035" t="s">
-        <v>4556</v>
+        <v>6686</v>
       </c>
     </row>
     <row r="1036" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1036" s="1" t="s">
-        <v>3308</v>
+        <v>6687</v>
       </c>
       <c r="C1036" t="s">
-        <v>3309</v>
+        <v>3312</v>
       </c>
       <c r="D1036" s="1">
         <v>68000</v>
       </c>
       <c r="E1036" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1036" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1036" t="s">
-        <v>3974</v>
+        <v>5238</v>
       </c>
       <c r="Q1036" t="s">
-        <v>4557</v>
+        <v>6688</v>
       </c>
     </row>
     <row r="1037" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1037" s="1" t="s">
-        <v>3310</v>
+        <v>6689</v>
       </c>
       <c r="C1037" t="s">
-        <v>3307</v>
+        <v>3312</v>
       </c>
       <c r="D1037" s="1">
         <v>68000</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>2</v>
       </c>
       <c r="L1037" t="s">
         <v>1687</v>
       </c>
+      <c r="M1037" t="s">
+        <v>5070</v>
+      </c>
       <c r="Q1037" t="s">
-        <v>6684</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="1038" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1038" s="1" t="s">
-        <v>3311</v>
+        <v>3314</v>
       </c>
       <c r="C1038" t="s">
         <v>3312</v>
@@ -49369,18 +49372,15 @@
         <v>68000</v>
       </c>
       <c r="L1038" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M1038" t="s">
-        <v>1687</v>
+        <v>3315</v>
       </c>
       <c r="Q1038" t="s">
-        <v>4558</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="1039" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1039" s="1" t="s">
-        <v>3313</v>
+        <v>3317</v>
       </c>
       <c r="C1039" t="s">
         <v>3312</v>
@@ -49389,18 +49389,15 @@
         <v>68000</v>
       </c>
       <c r="L1039" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M1039" t="s">
-        <v>1687</v>
+        <v>3315</v>
       </c>
       <c r="Q1039" t="s">
-        <v>4559</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="1040" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1040" s="1" t="s">
-        <v>6685</v>
+        <v>6691</v>
       </c>
       <c r="C1040" t="s">
         <v>3312</v>
@@ -49409,235 +49406,244 @@
         <v>68000</v>
       </c>
       <c r="L1040" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M1040" t="s">
-        <v>1687</v>
+        <v>3315</v>
       </c>
       <c r="Q1040" t="s">
-        <v>6686</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="1041" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1041" s="1" t="s">
-        <v>6687</v>
+        <v>3318</v>
       </c>
       <c r="C1041" t="s">
-        <v>3312</v>
+        <v>3319</v>
       </c>
       <c r="D1041" s="1">
         <v>68000</v>
       </c>
-      <c r="E1041" t="s">
-        <v>2</v>
-      </c>
       <c r="L1041" t="s">
-        <v>5238</v>
+        <v>1687</v>
       </c>
       <c r="Q1041" t="s">
-        <v>6688</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1042" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1042" s="1" t="s">
-        <v>6689</v>
+        <v>3321</v>
       </c>
       <c r="C1042" t="s">
-        <v>3312</v>
-      </c>
-      <c r="D1042" s="1">
-        <v>68000</v>
+        <v>3322</v>
+      </c>
+      <c r="D1042" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1042" t="s">
         <v>2</v>
       </c>
+      <c r="F1042" t="s">
+        <v>2</v>
+      </c>
       <c r="L1042" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M1042" t="s">
         <v>1687</v>
       </c>
-      <c r="M1042" t="s">
-        <v>5070</v>
-      </c>
       <c r="Q1042" t="s">
-        <v>6690</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1043" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1043" s="1" t="s">
-        <v>3314</v>
+        <v>6693</v>
       </c>
       <c r="C1043" t="s">
-        <v>3312</v>
+        <v>6694</v>
       </c>
       <c r="D1043" s="1">
         <v>68000</v>
       </c>
       <c r="L1043" t="s">
-        <v>3315</v>
+        <v>55</v>
+      </c>
+      <c r="M1043" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1043" t="s">
-        <v>3316</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="1044" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1044" s="1" t="s">
-        <v>3317</v>
+        <v>6696</v>
       </c>
       <c r="C1044" t="s">
-        <v>3312</v>
-      </c>
-      <c r="D1044" s="1">
-        <v>68000</v>
+        <v>6694</v>
+      </c>
+      <c r="D1044" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1044" t="s">
-        <v>3315</v>
+        <v>55</v>
+      </c>
+      <c r="M1044" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1044" t="s">
-        <v>4951</v>
+        <v>6697</v>
       </c>
     </row>
     <row r="1045" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1045" s="1" t="s">
-        <v>6691</v>
+        <v>6698</v>
       </c>
       <c r="C1045" t="s">
-        <v>3312</v>
+        <v>6694</v>
       </c>
       <c r="D1045" s="1">
         <v>68000</v>
       </c>
       <c r="L1045" t="s">
-        <v>3315</v>
+        <v>55</v>
+      </c>
+      <c r="M1045" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1045" t="s">
-        <v>6692</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="1046" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1046" s="1" t="s">
-        <v>3318</v>
+        <v>6700</v>
       </c>
       <c r="C1046" t="s">
-        <v>3319</v>
+        <v>6694</v>
       </c>
       <c r="D1046" s="1">
         <v>68000</v>
       </c>
       <c r="L1046" t="s">
-        <v>1687</v>
+        <v>55</v>
+      </c>
+      <c r="M1046" t="s">
+        <v>3974</v>
       </c>
       <c r="Q1046" t="s">
-        <v>3320</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="1047" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1047" s="1" t="s">
-        <v>3321</v>
+        <v>3325</v>
       </c>
       <c r="C1047" t="s">
-        <v>3322</v>
-      </c>
-      <c r="D1047" s="1" t="s">
-        <v>2</v>
+        <v>3326</v>
+      </c>
+      <c r="D1047" s="1">
+        <v>68000</v>
       </c>
       <c r="E1047" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1047" t="s">
-        <v>2</v>
+        <v>4562</v>
       </c>
       <c r="L1047" t="s">
         <v>5070</v>
       </c>
       <c r="M1047" t="s">
-        <v>1687</v>
+        <v>5071</v>
       </c>
       <c r="Q1047" t="s">
-        <v>4560</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="1048" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1048" s="1" t="s">
-        <v>6693</v>
+        <v>3327</v>
       </c>
       <c r="C1048" t="s">
-        <v>6694</v>
+        <v>3326</v>
       </c>
       <c r="D1048" s="1">
         <v>68000</v>
       </c>
+      <c r="E1048" t="s">
+        <v>4562</v>
+      </c>
       <c r="L1048" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="M1048" t="s">
-        <v>3974</v>
+        <v>5071</v>
       </c>
       <c r="Q1048" t="s">
-        <v>6695</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1049" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1049" s="1" t="s">
-        <v>6696</v>
+        <v>3328</v>
       </c>
       <c r="C1049" t="s">
-        <v>6694</v>
-      </c>
-      <c r="D1049" s="1" t="s">
-        <v>2</v>
+        <v>3326</v>
+      </c>
+      <c r="D1049" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>4562</v>
       </c>
       <c r="L1049" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1049" t="s">
-        <v>3974</v>
+        <v>77</v>
       </c>
       <c r="Q1049" t="s">
-        <v>6697</v>
+        <v>6702</v>
       </c>
     </row>
     <row r="1050" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1050" s="1" t="s">
-        <v>6698</v>
+        <v>3329</v>
       </c>
       <c r="C1050" t="s">
-        <v>6694</v>
+        <v>3326</v>
       </c>
       <c r="D1050" s="1">
         <v>68000</v>
       </c>
+      <c r="E1050" t="s">
+        <v>4562</v>
+      </c>
       <c r="L1050" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1050" t="s">
-        <v>3974</v>
+        <v>77</v>
       </c>
       <c r="Q1050" t="s">
-        <v>6699</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="1051" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1051" s="1" t="s">
-        <v>6700</v>
+        <v>3331</v>
       </c>
       <c r="C1051" t="s">
-        <v>6694</v>
+        <v>3326</v>
       </c>
       <c r="D1051" s="1">
         <v>68000</v>
       </c>
+      <c r="E1051" t="s">
+        <v>4562</v>
+      </c>
       <c r="L1051" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1051" t="s">
-        <v>3974</v>
+        <v>77</v>
       </c>
       <c r="Q1051" t="s">
-        <v>6701</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1052" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1052" s="1" t="s">
-        <v>3325</v>
+        <v>3333</v>
       </c>
       <c r="C1052" t="s">
         <v>3326</v>
@@ -49649,18 +49655,15 @@
         <v>4562</v>
       </c>
       <c r="L1052" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1052" t="s">
-        <v>5071</v>
+        <v>77</v>
       </c>
       <c r="Q1052" t="s">
-        <v>4563</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1053" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1053" s="1" t="s">
-        <v>3327</v>
+        <v>3335</v>
       </c>
       <c r="C1053" t="s">
         <v>3326</v>
@@ -49668,22 +49671,16 @@
       <c r="D1053" s="1">
         <v>68000</v>
       </c>
-      <c r="E1053" t="s">
-        <v>4562</v>
-      </c>
       <c r="L1053" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1053" t="s">
-        <v>5071</v>
+        <v>77</v>
       </c>
       <c r="Q1053" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1054" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1054" s="1" t="s">
-        <v>3328</v>
+        <v>3336</v>
       </c>
       <c r="C1054" t="s">
         <v>3326</v>
@@ -49698,12 +49695,12 @@
         <v>77</v>
       </c>
       <c r="Q1054" t="s">
-        <v>6702</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="1055" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1055" s="1" t="s">
-        <v>3329</v>
+        <v>3338</v>
       </c>
       <c r="C1055" t="s">
         <v>3326</v>
@@ -49718,12 +49715,12 @@
         <v>77</v>
       </c>
       <c r="Q1055" t="s">
-        <v>3330</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="1056" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1056" s="1" t="s">
-        <v>3331</v>
+        <v>6703</v>
       </c>
       <c r="C1056" t="s">
         <v>3326</v>
@@ -49731,19 +49728,16 @@
       <c r="D1056" s="1">
         <v>68000</v>
       </c>
-      <c r="E1056" t="s">
-        <v>4562</v>
-      </c>
       <c r="L1056" t="s">
         <v>77</v>
       </c>
       <c r="Q1056" t="s">
-        <v>3332</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="1057" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1057" s="1" t="s">
-        <v>3333</v>
+        <v>6705</v>
       </c>
       <c r="C1057" t="s">
         <v>3326</v>
@@ -49751,19 +49745,16 @@
       <c r="D1057" s="1">
         <v>68000</v>
       </c>
-      <c r="E1057" t="s">
-        <v>4562</v>
-      </c>
       <c r="L1057" t="s">
         <v>77</v>
       </c>
       <c r="Q1057" t="s">
-        <v>3334</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="1058" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1058" s="1" t="s">
-        <v>3335</v>
+        <v>6707</v>
       </c>
       <c r="C1058" t="s">
         <v>3326</v>
@@ -49775,12 +49766,12 @@
         <v>77</v>
       </c>
       <c r="Q1058" t="s">
-        <v>4565</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="1059" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1059" s="1" t="s">
-        <v>3336</v>
+        <v>3340</v>
       </c>
       <c r="C1059" t="s">
         <v>3326</v>
@@ -49788,19 +49779,16 @@
       <c r="D1059" s="1">
         <v>68000</v>
       </c>
-      <c r="E1059" t="s">
-        <v>4562</v>
-      </c>
       <c r="L1059" t="s">
         <v>77</v>
       </c>
       <c r="Q1059" t="s">
-        <v>3337</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="1060" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1060" s="1" t="s">
-        <v>3338</v>
+        <v>6710</v>
       </c>
       <c r="C1060" t="s">
         <v>3326</v>
@@ -49808,19 +49796,16 @@
       <c r="D1060" s="1">
         <v>68000</v>
       </c>
-      <c r="E1060" t="s">
-        <v>4562</v>
-      </c>
       <c r="L1060" t="s">
         <v>77</v>
       </c>
       <c r="Q1060" t="s">
-        <v>3339</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="1061" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1061" s="1" t="s">
-        <v>6703</v>
+        <v>6712</v>
       </c>
       <c r="C1061" t="s">
         <v>3326</v>
@@ -49832,12 +49817,12 @@
         <v>77</v>
       </c>
       <c r="Q1061" t="s">
-        <v>6704</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="1062" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1062" s="1" t="s">
-        <v>6705</v>
+        <v>6714</v>
       </c>
       <c r="C1062" t="s">
         <v>3326</v>
@@ -49849,12 +49834,12 @@
         <v>77</v>
       </c>
       <c r="Q1062" t="s">
-        <v>6706</v>
+        <v>6715</v>
       </c>
     </row>
     <row r="1063" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1063" s="1" t="s">
-        <v>6707</v>
+        <v>3341</v>
       </c>
       <c r="C1063" t="s">
         <v>3326</v>
@@ -49866,12 +49851,12 @@
         <v>77</v>
       </c>
       <c r="Q1063" t="s">
-        <v>6708</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1064" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1064" s="1" t="s">
-        <v>3340</v>
+        <v>6716</v>
       </c>
       <c r="C1064" t="s">
         <v>3326</v>
@@ -49883,12 +49868,12 @@
         <v>77</v>
       </c>
       <c r="Q1064" t="s">
-        <v>6709</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="1065" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1065" s="1" t="s">
-        <v>6710</v>
+        <v>6718</v>
       </c>
       <c r="C1065" t="s">
         <v>3326</v>
@@ -49900,12 +49885,12 @@
         <v>77</v>
       </c>
       <c r="Q1065" t="s">
-        <v>6711</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="1066" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1066" s="1" t="s">
-        <v>6712</v>
+        <v>6720</v>
       </c>
       <c r="C1066" t="s">
         <v>3326</v>
@@ -49917,12 +49902,12 @@
         <v>77</v>
       </c>
       <c r="Q1066" t="s">
-        <v>6713</v>
+        <v>6721</v>
       </c>
     </row>
     <row r="1067" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1067" s="1" t="s">
-        <v>6714</v>
+        <v>3343</v>
       </c>
       <c r="C1067" t="s">
         <v>3326</v>
@@ -49934,12 +49919,12 @@
         <v>77</v>
       </c>
       <c r="Q1067" t="s">
-        <v>6715</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1068" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1068" s="1" t="s">
-        <v>3341</v>
+        <v>6722</v>
       </c>
       <c r="C1068" t="s">
         <v>3326</v>
@@ -49951,12 +49936,12 @@
         <v>77</v>
       </c>
       <c r="Q1068" t="s">
-        <v>3342</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="1069" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1069" s="1" t="s">
-        <v>6716</v>
+        <v>6724</v>
       </c>
       <c r="C1069" t="s">
         <v>3326</v>
@@ -49968,12 +49953,12 @@
         <v>77</v>
       </c>
       <c r="Q1069" t="s">
-        <v>6717</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="1070" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1070" s="1" t="s">
-        <v>6718</v>
+        <v>6726</v>
       </c>
       <c r="C1070" t="s">
         <v>3326</v>
@@ -49985,12 +49970,12 @@
         <v>77</v>
       </c>
       <c r="Q1070" t="s">
-        <v>6719</v>
+        <v>6727</v>
       </c>
     </row>
     <row r="1071" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1071" s="1" t="s">
-        <v>6720</v>
+        <v>6728</v>
       </c>
       <c r="C1071" t="s">
         <v>3326</v>
@@ -50002,12 +49987,12 @@
         <v>77</v>
       </c>
       <c r="Q1071" t="s">
-        <v>6721</v>
+        <v>6729</v>
       </c>
     </row>
     <row r="1072" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1072" s="1" t="s">
-        <v>3343</v>
+        <v>6730</v>
       </c>
       <c r="C1072" t="s">
         <v>3326</v>
@@ -50019,12 +50004,12 @@
         <v>77</v>
       </c>
       <c r="Q1072" t="s">
-        <v>4566</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="1073" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1073" s="1" t="s">
-        <v>6722</v>
+        <v>6732</v>
       </c>
       <c r="C1073" t="s">
         <v>3326</v>
@@ -50036,12 +50021,12 @@
         <v>77</v>
       </c>
       <c r="Q1073" t="s">
-        <v>6723</v>
+        <v>6733</v>
       </c>
     </row>
     <row r="1074" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1074" s="1" t="s">
-        <v>6724</v>
+        <v>6734</v>
       </c>
       <c r="C1074" t="s">
         <v>3326</v>
@@ -50053,15 +50038,15 @@
         <v>77</v>
       </c>
       <c r="Q1074" t="s">
-        <v>6725</v>
+        <v>6735</v>
       </c>
     </row>
     <row r="1075" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1075" s="1" t="s">
-        <v>6726</v>
+        <v>6736</v>
       </c>
       <c r="C1075" t="s">
-        <v>3326</v>
+        <v>6737</v>
       </c>
       <c r="D1075" s="1">
         <v>68000</v>
@@ -50070,15 +50055,15 @@
         <v>77</v>
       </c>
       <c r="Q1075" t="s">
-        <v>6727</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="1076" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1076" s="1" t="s">
-        <v>6728</v>
+        <v>6739</v>
       </c>
       <c r="C1076" t="s">
-        <v>3326</v>
+        <v>6737</v>
       </c>
       <c r="D1076" s="1">
         <v>68000</v>
@@ -50087,15 +50072,15 @@
         <v>77</v>
       </c>
       <c r="Q1076" t="s">
-        <v>6729</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="1077" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1077" s="1" t="s">
-        <v>6730</v>
+        <v>6741</v>
       </c>
       <c r="C1077" t="s">
-        <v>3326</v>
+        <v>6737</v>
       </c>
       <c r="D1077" s="1">
         <v>68000</v>
@@ -50104,839 +50089,800 @@
         <v>77</v>
       </c>
       <c r="Q1077" t="s">
-        <v>6731</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="1078" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1078" s="1" t="s">
-        <v>6732</v>
+        <v>3347</v>
       </c>
       <c r="C1078" t="s">
-        <v>3326</v>
+        <v>3348</v>
       </c>
       <c r="D1078" s="1">
         <v>68000</v>
       </c>
       <c r="L1078" t="s">
-        <v>77</v>
+        <v>1687</v>
       </c>
       <c r="Q1078" t="s">
-        <v>6733</v>
+        <v>6743</v>
       </c>
     </row>
     <row r="1079" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1079" s="1" t="s">
-        <v>6734</v>
+        <v>3344</v>
       </c>
       <c r="C1079" t="s">
-        <v>3326</v>
+        <v>3345</v>
       </c>
       <c r="D1079" s="1">
         <v>68000</v>
       </c>
       <c r="L1079" t="s">
-        <v>77</v>
+        <v>1687</v>
       </c>
       <c r="Q1079" t="s">
-        <v>6735</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1080" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1080" s="1" t="s">
-        <v>6736</v>
+        <v>6744</v>
       </c>
       <c r="C1080" t="s">
-        <v>6737</v>
+        <v>3345</v>
       </c>
       <c r="D1080" s="1">
         <v>68000</v>
       </c>
       <c r="L1080" t="s">
-        <v>77</v>
+        <v>1687</v>
       </c>
       <c r="Q1080" t="s">
-        <v>6738</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="1081" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1081" s="1" t="s">
-        <v>6739</v>
+        <v>6746</v>
       </c>
       <c r="C1081" t="s">
-        <v>6737</v>
+        <v>6747</v>
       </c>
       <c r="D1081" s="1">
         <v>68000</v>
       </c>
       <c r="L1081" t="s">
-        <v>77</v>
+        <v>1687</v>
       </c>
       <c r="Q1081" t="s">
-        <v>6740</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="1082" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1082" s="1" t="s">
-        <v>6741</v>
+        <v>6749</v>
       </c>
       <c r="C1082" t="s">
-        <v>6737</v>
+        <v>6747</v>
       </c>
       <c r="D1082" s="1">
         <v>68000</v>
       </c>
       <c r="L1082" t="s">
-        <v>77</v>
+        <v>1687</v>
       </c>
       <c r="Q1082" t="s">
-        <v>6742</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="1083" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1083" s="1" t="s">
-        <v>3347</v>
+        <v>2966</v>
       </c>
       <c r="C1083" t="s">
-        <v>3348</v>
-      </c>
-      <c r="D1083" s="1">
-        <v>68000</v>
+        <v>2967</v>
+      </c>
+      <c r="D1083" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>2</v>
       </c>
       <c r="L1083" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q1083" t="s">
-        <v>6743</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1084" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1084" s="1" t="s">
-        <v>3344</v>
+        <v>3349</v>
       </c>
       <c r="C1084" t="s">
-        <v>3345</v>
-      </c>
-      <c r="D1084" s="1">
-        <v>68000</v>
+        <v>3350</v>
+      </c>
+      <c r="D1084" s="1" t="s">
+        <v>951</v>
       </c>
       <c r="L1084" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q1084" t="s">
-        <v>3346</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="1085" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1085" s="1" t="s">
-        <v>6744</v>
+        <v>6765</v>
       </c>
       <c r="C1085" t="s">
-        <v>3345</v>
-      </c>
-      <c r="D1085" s="1">
-        <v>68000</v>
+        <v>3350</v>
+      </c>
+      <c r="D1085" s="1" t="s">
+        <v>951</v>
       </c>
       <c r="L1085" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q1085" t="s">
-        <v>6745</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="1086" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1086" s="1" t="s">
-        <v>6746</v>
+        <v>3351</v>
       </c>
       <c r="C1086" t="s">
-        <v>6747</v>
+        <v>3352</v>
       </c>
       <c r="D1086" s="1">
         <v>68000</v>
       </c>
       <c r="L1086" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1086" t="s">
         <v>1687</v>
       </c>
       <c r="Q1086" t="s">
-        <v>6748</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="1087" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1087" s="1" t="s">
-        <v>6749</v>
+        <v>3353</v>
       </c>
       <c r="C1087" t="s">
-        <v>6747</v>
+        <v>3352</v>
       </c>
       <c r="D1087" s="1">
         <v>68000</v>
       </c>
+      <c r="E1087" t="s">
+        <v>2</v>
+      </c>
       <c r="L1087" t="s">
+        <v>6767</v>
+      </c>
+      <c r="M1087" t="s">
         <v>1687</v>
       </c>
       <c r="Q1087" t="s">
-        <v>6750</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1088" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1088" s="1" t="s">
-        <v>2966</v>
+        <v>3354</v>
       </c>
       <c r="C1088" t="s">
-        <v>2967</v>
-      </c>
-      <c r="D1088" s="1" t="s">
-        <v>2</v>
+        <v>3352</v>
+      </c>
+      <c r="D1088" s="1">
+        <v>68000</v>
       </c>
       <c r="E1088" t="s">
         <v>2</v>
       </c>
       <c r="L1088" t="s">
-        <v>55</v>
+        <v>6767</v>
+      </c>
+      <c r="M1088" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1088" t="s">
-        <v>2968</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="1089" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1089" s="1" t="s">
-        <v>3349</v>
+        <v>3355</v>
       </c>
       <c r="C1089" t="s">
-        <v>3350</v>
+        <v>3356</v>
       </c>
       <c r="D1089" s="1" t="s">
-        <v>951</v>
+        <v>2</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>2426</v>
       </c>
       <c r="L1089" t="s">
         <v>5070</v>
       </c>
       <c r="Q1089" t="s">
-        <v>6764</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="1090" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1090" s="1" t="s">
-        <v>6765</v>
+        <v>6768</v>
       </c>
       <c r="C1090" t="s">
-        <v>3350</v>
+        <v>6769</v>
       </c>
       <c r="D1090" s="1" t="s">
-        <v>951</v>
+        <v>2</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>2426</v>
       </c>
       <c r="L1090" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q1090" t="s">
-        <v>6766</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="1091" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1091" s="1" t="s">
-        <v>3351</v>
+        <v>6771</v>
       </c>
       <c r="C1091" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D1091" s="1">
-        <v>68000</v>
+        <v>6769</v>
+      </c>
+      <c r="D1091" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>2426</v>
       </c>
       <c r="L1091" t="s">
+        <v>5071</v>
+      </c>
+      <c r="M1091" t="s">
         <v>55</v>
       </c>
-      <c r="M1091" t="s">
-        <v>1687</v>
-      </c>
       <c r="Q1091" t="s">
-        <v>4567</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="1092" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1092" s="1" t="s">
-        <v>3353</v>
+        <v>6773</v>
       </c>
       <c r="C1092" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D1092" s="1">
-        <v>68000</v>
+        <v>6769</v>
+      </c>
+      <c r="D1092" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1092" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1092" t="s">
-        <v>6767</v>
+        <v>5071</v>
       </c>
       <c r="M1092" t="s">
-        <v>1687</v>
+        <v>55</v>
       </c>
       <c r="Q1092" t="s">
-        <v>4568</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="1093" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1093" s="1" t="s">
-        <v>3354</v>
+        <v>3358</v>
       </c>
       <c r="C1093" t="s">
-        <v>3352</v>
+        <v>6775</v>
       </c>
       <c r="D1093" s="1">
         <v>68000</v>
       </c>
       <c r="E1093" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G1093" t="s">
+        <v>2426</v>
       </c>
       <c r="L1093" t="s">
-        <v>6767</v>
+        <v>5238</v>
       </c>
       <c r="M1093" t="s">
-        <v>1687</v>
+        <v>4570</v>
       </c>
       <c r="Q1093" t="s">
-        <v>4569</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1094" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1094" s="1" t="s">
-        <v>3355</v>
+        <v>6776</v>
       </c>
       <c r="C1094" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D1094" s="1" t="s">
-        <v>2</v>
+        <v>6775</v>
+      </c>
+      <c r="D1094" s="1">
+        <v>68000</v>
       </c>
       <c r="E1094" t="s">
         <v>2426</v>
       </c>
+      <c r="F1094" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1094" t="s">
-        <v>5070</v>
+        <v>5238</v>
+      </c>
+      <c r="M1094" t="s">
+        <v>2605</v>
       </c>
       <c r="Q1094" t="s">
-        <v>3357</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="1095" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1095" s="1" t="s">
-        <v>6768</v>
+        <v>3359</v>
       </c>
       <c r="C1095" t="s">
-        <v>6769</v>
+        <v>3360</v>
       </c>
       <c r="D1095" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1095" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1095" t="s">
-        <v>5505</v>
+        <v>5070</v>
       </c>
       <c r="Q1095" t="s">
-        <v>6770</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="1096" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1096" s="1" t="s">
-        <v>6771</v>
+        <v>3362</v>
       </c>
       <c r="C1096" t="s">
-        <v>6769</v>
+        <v>3360</v>
       </c>
       <c r="D1096" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1096" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1096" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1096" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="Q1096" t="s">
-        <v>6772</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="1097" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1097" s="1" t="s">
-        <v>6773</v>
+        <v>6778</v>
       </c>
       <c r="C1097" t="s">
-        <v>6769</v>
+        <v>3360</v>
       </c>
       <c r="D1097" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1097" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1097" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1097" t="s">
-        <v>55</v>
+        <v>5070</v>
       </c>
       <c r="Q1097" t="s">
-        <v>6774</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="1098" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1098" s="1" t="s">
-        <v>3358</v>
+        <v>3364</v>
       </c>
       <c r="C1098" t="s">
-        <v>6775</v>
-      </c>
-      <c r="D1098" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1098" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1098" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G1098" t="s">
-        <v>2426</v>
+        <v>3360</v>
+      </c>
+      <c r="D1098" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1098" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1098" t="s">
-        <v>4570</v>
+        <v>5070</v>
       </c>
       <c r="Q1098" t="s">
-        <v>4571</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1099" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1099" s="1" t="s">
-        <v>6776</v>
+        <v>3366</v>
       </c>
       <c r="C1099" t="s">
-        <v>6775</v>
-      </c>
-      <c r="D1099" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1099" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1099" t="s">
-        <v>2426</v>
+        <v>3360</v>
+      </c>
+      <c r="D1099" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1099" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1099" t="s">
-        <v>2605</v>
+        <v>5070</v>
       </c>
       <c r="Q1099" t="s">
-        <v>6777</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="1100" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1100" s="1" t="s">
-        <v>3359</v>
+        <v>3377</v>
       </c>
       <c r="C1100" t="s">
-        <v>3360</v>
-      </c>
-      <c r="D1100" s="1" t="s">
-        <v>2</v>
+        <v>3369</v>
+      </c>
+      <c r="D1100" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>2426</v>
       </c>
       <c r="L1100" t="s">
-        <v>5070</v>
+        <v>5238</v>
+      </c>
+      <c r="M1100" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1100" t="s">
-        <v>3361</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="1101" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1101" s="1" t="s">
-        <v>3362</v>
+        <v>6795</v>
       </c>
       <c r="C1101" t="s">
-        <v>3360</v>
-      </c>
-      <c r="D1101" s="1" t="s">
-        <v>2</v>
+        <v>6796</v>
+      </c>
+      <c r="D1101" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>3964</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>2426</v>
       </c>
       <c r="L1101" t="s">
-        <v>5070</v>
+        <v>5505</v>
       </c>
       <c r="Q1101" t="s">
-        <v>3363</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="1102" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1102" s="1" t="s">
-        <v>6778</v>
+        <v>3381</v>
       </c>
       <c r="C1102" t="s">
-        <v>3360</v>
-      </c>
-      <c r="D1102" s="1" t="s">
-        <v>2</v>
+        <v>3382</v>
+      </c>
+      <c r="D1102" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>2426</v>
       </c>
       <c r="L1102" t="s">
-        <v>5070</v>
+        <v>1687</v>
       </c>
       <c r="Q1102" t="s">
-        <v>6779</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1103" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1103" s="1" t="s">
-        <v>3364</v>
+        <v>3384</v>
       </c>
       <c r="C1103" t="s">
-        <v>3360</v>
-      </c>
-      <c r="D1103" s="1" t="s">
-        <v>2</v>
+        <v>3385</v>
+      </c>
+      <c r="D1103" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>2426</v>
       </c>
       <c r="L1103" t="s">
-        <v>5070</v>
+        <v>5071</v>
+      </c>
+      <c r="M1103" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1103" t="s">
-        <v>3365</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1104" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1104" s="1" t="s">
-        <v>3366</v>
+        <v>3386</v>
       </c>
       <c r="C1104" t="s">
-        <v>3360</v>
-      </c>
-      <c r="D1104" s="1" t="s">
-        <v>2</v>
+        <v>3385</v>
+      </c>
+      <c r="D1104" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>2426</v>
       </c>
       <c r="L1104" t="s">
-        <v>5070</v>
+        <v>5071</v>
+      </c>
+      <c r="M1104" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1104" t="s">
-        <v>3367</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1105" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1105" s="1" t="s">
-        <v>3377</v>
+        <v>3387</v>
       </c>
       <c r="C1105" t="s">
-        <v>3369</v>
+        <v>3319</v>
       </c>
       <c r="D1105" s="1">
         <v>68000</v>
       </c>
-      <c r="E1105" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1105" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1105" t="s">
         <v>1687</v>
       </c>
       <c r="Q1105" t="s">
-        <v>4574</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1106" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1106" s="1" t="s">
-        <v>6795</v>
+        <v>3389</v>
       </c>
       <c r="C1106" t="s">
-        <v>6796</v>
+        <v>3319</v>
       </c>
       <c r="D1106" s="1">
         <v>68000</v>
       </c>
-      <c r="E1106" t="s">
-        <v>3964</v>
-      </c>
-      <c r="F1106" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1106" t="s">
-        <v>5505</v>
+        <v>1687</v>
       </c>
       <c r="Q1106" t="s">
-        <v>6797</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="1107" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1107" s="1" t="s">
-        <v>3381</v>
+        <v>3391</v>
       </c>
       <c r="C1107" t="s">
-        <v>3382</v>
+        <v>3319</v>
       </c>
       <c r="D1107" s="1">
         <v>68000</v>
-      </c>
-      <c r="E1107" t="s">
-        <v>2426</v>
       </c>
       <c r="L1107" t="s">
         <v>1687</v>
       </c>
       <c r="Q1107" t="s">
-        <v>3383</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1108" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1108" s="1" t="s">
-        <v>3384</v>
+        <v>3393</v>
       </c>
       <c r="C1108" t="s">
-        <v>3385</v>
+        <v>3394</v>
       </c>
       <c r="D1108" s="1">
         <v>68000</v>
       </c>
-      <c r="E1108" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1108" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1108" t="s">
         <v>1687</v>
       </c>
       <c r="Q1108" t="s">
-        <v>4575</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="1109" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1109" s="1" t="s">
-        <v>3386</v>
+        <v>3396</v>
       </c>
       <c r="C1109" t="s">
-        <v>3385</v>
+        <v>3394</v>
       </c>
       <c r="D1109" s="1">
         <v>68000</v>
       </c>
-      <c r="E1109" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1109" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1109" t="s">
         <v>1687</v>
       </c>
       <c r="Q1109" t="s">
-        <v>4576</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="1110" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1110" s="1" t="s">
-        <v>3387</v>
+        <v>6803</v>
       </c>
       <c r="C1110" t="s">
-        <v>3319</v>
-      </c>
-      <c r="D1110" s="1">
-        <v>68000</v>
+        <v>6804</v>
+      </c>
+      <c r="D1110" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1110" t="s">
-        <v>1687</v>
+        <v>1155</v>
       </c>
       <c r="Q1110" t="s">
-        <v>3388</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="1111" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1111" s="1" t="s">
-        <v>3389</v>
+        <v>6806</v>
       </c>
       <c r="C1111" t="s">
-        <v>3319</v>
-      </c>
-      <c r="D1111" s="1">
-        <v>68000</v>
+        <v>6804</v>
+      </c>
+      <c r="D1111" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1111" t="s">
-        <v>1687</v>
+        <v>1155</v>
       </c>
       <c r="Q1111" t="s">
-        <v>3390</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="1112" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1112" s="1" t="s">
-        <v>3391</v>
+        <v>6808</v>
       </c>
       <c r="C1112" t="s">
-        <v>3319</v>
+        <v>6809</v>
       </c>
       <c r="D1112" s="1">
         <v>68000</v>
       </c>
-      <c r="L1112" t="s">
-        <v>1687</v>
-      </c>
       <c r="Q1112" t="s">
-        <v>3392</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="1113" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1113" s="1" t="s">
-        <v>3393</v>
+        <v>6811</v>
       </c>
       <c r="C1113" t="s">
-        <v>3394</v>
+        <v>6809</v>
       </c>
       <c r="D1113" s="1">
         <v>68000</v>
       </c>
-      <c r="L1113" t="s">
-        <v>1687</v>
-      </c>
       <c r="Q1113" t="s">
-        <v>3395</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="1114" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1114" s="1" t="s">
-        <v>3396</v>
+        <v>6813</v>
       </c>
       <c r="C1114" t="s">
-        <v>3394</v>
+        <v>6809</v>
       </c>
       <c r="D1114" s="1">
         <v>68000</v>
       </c>
-      <c r="L1114" t="s">
-        <v>1687</v>
-      </c>
       <c r="Q1114" t="s">
-        <v>3397</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="1115" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1115" s="1" t="s">
-        <v>3398</v>
+        <v>6815</v>
       </c>
       <c r="C1115" t="s">
-        <v>3399</v>
-      </c>
-      <c r="D1115" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1115" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M1115" t="s">
-        <v>352</v>
+        <v>6809</v>
+      </c>
+      <c r="D1115" s="1">
+        <v>68000</v>
       </c>
       <c r="Q1115" t="s">
-        <v>4577</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="1116" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1116" s="1" t="s">
-        <v>3400</v>
+        <v>6817</v>
       </c>
       <c r="C1116" t="s">
-        <v>3399</v>
-      </c>
-      <c r="D1116" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1116" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M1116" t="s">
-        <v>352</v>
+        <v>6809</v>
+      </c>
+      <c r="D1116" s="1">
+        <v>68000</v>
       </c>
       <c r="Q1116" t="s">
-        <v>4578</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="1117" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1117" s="1" t="s">
-        <v>3401</v>
+        <v>6819</v>
       </c>
       <c r="C1117" t="s">
-        <v>3399</v>
-      </c>
-      <c r="D1117" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1117" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M1117" t="s">
-        <v>352</v>
+        <v>6809</v>
+      </c>
+      <c r="D1117" s="1">
+        <v>68000</v>
       </c>
       <c r="Q1117" t="s">
-        <v>4579</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="1118" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1118" s="1" t="s">
-        <v>6798</v>
+        <v>6821</v>
       </c>
       <c r="C1118" t="s">
-        <v>3399</v>
-      </c>
-      <c r="D1118" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1118" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M1118" t="s">
-        <v>352</v>
+        <v>6809</v>
+      </c>
+      <c r="D1118" s="1">
+        <v>68000</v>
       </c>
       <c r="Q1118" t="s">
-        <v>6799</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="1119" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1119" s="1" t="s">
-        <v>6803</v>
+        <v>6823</v>
       </c>
       <c r="C1119" t="s">
-        <v>6804</v>
-      </c>
-      <c r="D1119" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1119" t="s">
-        <v>1155</v>
+        <v>6809</v>
+      </c>
+      <c r="D1119" s="1">
+        <v>68000</v>
       </c>
       <c r="Q1119" t="s">
-        <v>6805</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="1120" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1120" s="1" t="s">
-        <v>6806</v>
+        <v>6825</v>
       </c>
       <c r="C1120" t="s">
-        <v>6804</v>
-      </c>
-      <c r="D1120" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1120" t="s">
-        <v>1155</v>
+        <v>6809</v>
+      </c>
+      <c r="D1120" s="1">
+        <v>68000</v>
       </c>
       <c r="Q1120" t="s">
-        <v>6807</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="1121" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1121" s="1" t="s">
-        <v>6808</v>
+        <v>6827</v>
       </c>
       <c r="C1121" t="s">
         <v>6809</v>
@@ -50945,12 +50891,12 @@
         <v>68000</v>
       </c>
       <c r="Q1121" t="s">
-        <v>6810</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="1122" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1122" s="1" t="s">
-        <v>6811</v>
+        <v>6829</v>
       </c>
       <c r="C1122" t="s">
         <v>6809</v>
@@ -50959,12 +50905,12 @@
         <v>68000</v>
       </c>
       <c r="Q1122" t="s">
-        <v>6812</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="1123" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1123" s="1" t="s">
-        <v>6813</v>
+        <v>6831</v>
       </c>
       <c r="C1123" t="s">
         <v>6809</v>
@@ -50973,12 +50919,12 @@
         <v>68000</v>
       </c>
       <c r="Q1123" t="s">
-        <v>6814</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="1124" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1124" s="1" t="s">
-        <v>6815</v>
+        <v>6833</v>
       </c>
       <c r="C1124" t="s">
         <v>6809</v>
@@ -50986,13 +50932,19 @@
       <c r="D1124" s="1">
         <v>68000</v>
       </c>
+      <c r="L1124" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1124" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1124" t="s">
-        <v>6816</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="1125" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1125" s="1" t="s">
-        <v>6817</v>
+        <v>6835</v>
       </c>
       <c r="C1125" t="s">
         <v>6809</v>
@@ -51000,13 +50952,19 @@
       <c r="D1125" s="1">
         <v>68000</v>
       </c>
+      <c r="L1125" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1125" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1125" t="s">
-        <v>6818</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="1126" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1126" s="1" t="s">
-        <v>6819</v>
+        <v>6837</v>
       </c>
       <c r="C1126" t="s">
         <v>6809</v>
@@ -51015,12 +50973,12 @@
         <v>68000</v>
       </c>
       <c r="Q1126" t="s">
-        <v>6820</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="1127" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1127" s="1" t="s">
-        <v>6821</v>
+        <v>6839</v>
       </c>
       <c r="C1127" t="s">
         <v>6809</v>
@@ -51029,12 +50987,12 @@
         <v>68000</v>
       </c>
       <c r="Q1127" t="s">
-        <v>6822</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="1128" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1128" s="1" t="s">
-        <v>6823</v>
+        <v>6841</v>
       </c>
       <c r="C1128" t="s">
         <v>6809</v>
@@ -51043,12 +51001,12 @@
         <v>68000</v>
       </c>
       <c r="Q1128" t="s">
-        <v>6824</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="1129" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1129" s="1" t="s">
-        <v>6825</v>
+        <v>6843</v>
       </c>
       <c r="C1129" t="s">
         <v>6809</v>
@@ -51056,13 +51014,19 @@
       <c r="D1129" s="1">
         <v>68000</v>
       </c>
+      <c r="L1129" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1129" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1129" t="s">
-        <v>6826</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="1130" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1130" s="1" t="s">
-        <v>6827</v>
+        <v>6845</v>
       </c>
       <c r="C1130" t="s">
         <v>6809</v>
@@ -51071,12 +51035,12 @@
         <v>68000</v>
       </c>
       <c r="Q1130" t="s">
-        <v>6828</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="1131" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1131" s="1" t="s">
-        <v>6829</v>
+        <v>6847</v>
       </c>
       <c r="C1131" t="s">
         <v>6809</v>
@@ -51084,13 +51048,19 @@
       <c r="D1131" s="1">
         <v>68000</v>
       </c>
+      <c r="L1131" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1131" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1131" t="s">
-        <v>6830</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="1132" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1132" s="1" t="s">
-        <v>6831</v>
+        <v>6849</v>
       </c>
       <c r="C1132" t="s">
         <v>6809</v>
@@ -51098,13 +51068,19 @@
       <c r="D1132" s="1">
         <v>68000</v>
       </c>
+      <c r="L1132" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M1132" t="s">
+        <v>6093</v>
+      </c>
       <c r="Q1132" t="s">
-        <v>6832</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="1133" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1133" s="1" t="s">
-        <v>6833</v>
+        <v>6851</v>
       </c>
       <c r="C1133" t="s">
         <v>6809</v>
@@ -51112,374 +51088,422 @@
       <c r="D1133" s="1">
         <v>68000</v>
       </c>
-      <c r="L1133" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M1133" t="s">
-        <v>6093</v>
-      </c>
       <c r="Q1133" t="s">
-        <v>6834</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="1134" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1134" s="1" t="s">
-        <v>6835</v>
+        <v>6853</v>
       </c>
       <c r="C1134" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D1134" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D1134" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>3794</v>
       </c>
       <c r="L1134" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M1134" t="s">
-        <v>6093</v>
+        <v>1900</v>
       </c>
       <c r="Q1134" t="s">
-        <v>6836</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="1135" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1135" s="1" t="s">
-        <v>6837</v>
+        <v>6856</v>
       </c>
       <c r="C1135" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D1135" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D1135" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L1135" t="s">
+        <v>1900</v>
       </c>
       <c r="Q1135" t="s">
-        <v>6838</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="1136" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1136" s="1" t="s">
-        <v>6839</v>
+        <v>3468</v>
       </c>
       <c r="C1136" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D1136" s="1">
-        <v>68000</v>
+        <v>6854</v>
+      </c>
+      <c r="D1136" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L1136" t="s">
+        <v>1900</v>
       </c>
       <c r="Q1136" t="s">
-        <v>6840</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="1137" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1137" s="1" t="s">
-        <v>6841</v>
+        <v>6858</v>
       </c>
       <c r="C1137" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D1137" s="1">
-        <v>68000</v>
+        <v>6859</v>
+      </c>
+      <c r="D1137" s="1" t="s">
+        <v>6860</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>6861</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>6862</v>
+      </c>
+      <c r="L1137" t="s">
+        <v>6863</v>
+      </c>
+      <c r="M1137" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N1137" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O1137" t="s">
+        <v>6866</v>
       </c>
       <c r="Q1137" t="s">
-        <v>6842</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="1138" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1138" s="1" t="s">
-        <v>6843</v>
+        <v>6868</v>
       </c>
       <c r="C1138" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D1138" s="1">
-        <v>68000</v>
+        <v>6859</v>
+      </c>
+      <c r="D1138" s="1" t="s">
+        <v>6860</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>6861</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>6862</v>
       </c>
       <c r="L1138" t="s">
-        <v>1687</v>
+        <v>6863</v>
       </c>
       <c r="M1138" t="s">
-        <v>6093</v>
+        <v>6864</v>
+      </c>
+      <c r="N1138" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O1138" t="s">
+        <v>6866</v>
       </c>
       <c r="Q1138" t="s">
-        <v>6844</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="1139" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1139" s="1" t="s">
-        <v>6845</v>
+        <v>6870</v>
       </c>
       <c r="C1139" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D1139" s="1">
-        <v>68000</v>
+        <v>6859</v>
+      </c>
+      <c r="D1139" s="1" t="s">
+        <v>6860</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>6861</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>6862</v>
+      </c>
+      <c r="L1139" t="s">
+        <v>6863</v>
+      </c>
+      <c r="M1139" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N1139" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O1139" t="s">
+        <v>6866</v>
       </c>
       <c r="Q1139" t="s">
-        <v>6846</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="1140" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1140" s="1" t="s">
-        <v>6847</v>
+        <v>6872</v>
       </c>
       <c r="C1140" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D1140" s="1">
-        <v>68000</v>
+        <v>6873</v>
+      </c>
+      <c r="D1140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>2426</v>
       </c>
       <c r="L1140" t="s">
-        <v>1687</v>
+        <v>5071</v>
       </c>
       <c r="M1140" t="s">
-        <v>6093</v>
+        <v>3974</v>
       </c>
       <c r="Q1140" t="s">
-        <v>6848</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="1141" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1141" s="1" t="s">
-        <v>6849</v>
+        <v>3490</v>
       </c>
       <c r="C1141" t="s">
-        <v>6809</v>
-      </c>
-      <c r="D1141" s="1">
-        <v>68000</v>
+        <v>6873</v>
+      </c>
+      <c r="D1141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>2426</v>
       </c>
       <c r="L1141" t="s">
-        <v>1687</v>
+        <v>5071</v>
       </c>
       <c r="M1141" t="s">
-        <v>6093</v>
+        <v>3974</v>
       </c>
       <c r="Q1141" t="s">
-        <v>6850</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="1142" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1142" s="1" t="s">
-        <v>6851</v>
+        <v>6876</v>
       </c>
       <c r="C1142" t="s">
-        <v>6809</v>
+        <v>6877</v>
       </c>
       <c r="D1142" s="1">
         <v>68000</v>
       </c>
+      <c r="E1142" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L1142" t="s">
+        <v>5071</v>
+      </c>
+      <c r="M1142" t="s">
+        <v>1687</v>
+      </c>
       <c r="Q1142" t="s">
-        <v>6852</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="1143" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1143" s="1" t="s">
-        <v>6853</v>
+        <v>6879</v>
       </c>
       <c r="C1143" t="s">
-        <v>6854</v>
-      </c>
-      <c r="D1143" s="1" t="s">
-        <v>3469</v>
-      </c>
-      <c r="E1143" t="s">
-        <v>3794</v>
+        <v>6877</v>
+      </c>
+      <c r="D1143" s="1">
+        <v>68000</v>
       </c>
       <c r="L1143" t="s">
-        <v>1900</v>
+        <v>1687</v>
       </c>
       <c r="Q1143" t="s">
-        <v>6855</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="1144" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1144" s="1" t="s">
-        <v>6856</v>
+        <v>6881</v>
       </c>
       <c r="C1144" t="s">
-        <v>6854</v>
-      </c>
-      <c r="D1144" s="1" t="s">
-        <v>3469</v>
+        <v>6882</v>
+      </c>
+      <c r="D1144" s="1">
+        <v>68000</v>
       </c>
       <c r="E1144" t="s">
-        <v>3794</v>
+        <v>2426</v>
       </c>
       <c r="L1144" t="s">
-        <v>1900</v>
+        <v>5070</v>
+      </c>
+      <c r="M1144" t="s">
+        <v>5071</v>
+      </c>
+      <c r="N1144" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1144" t="s">
-        <v>6857</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="1145" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1145" s="1" t="s">
-        <v>3468</v>
+        <v>6884</v>
       </c>
       <c r="C1145" t="s">
-        <v>6854</v>
-      </c>
-      <c r="D1145" s="1" t="s">
-        <v>3469</v>
+        <v>6882</v>
+      </c>
+      <c r="D1145" s="1">
+        <v>68000</v>
       </c>
       <c r="E1145" t="s">
-        <v>3794</v>
+        <v>2426</v>
       </c>
       <c r="L1145" t="s">
-        <v>1900</v>
+        <v>5070</v>
+      </c>
+      <c r="M1145" t="s">
+        <v>5071</v>
+      </c>
+      <c r="N1145" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1145" t="s">
-        <v>3470</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="1146" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1146" s="1" t="s">
-        <v>6858</v>
+        <v>6886</v>
       </c>
       <c r="C1146" t="s">
-        <v>6859</v>
-      </c>
-      <c r="D1146" s="1" t="s">
-        <v>6860</v>
+        <v>6882</v>
+      </c>
+      <c r="D1146" s="1">
+        <v>68000</v>
       </c>
       <c r="E1146" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F1146" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L1146" t="s">
-        <v>6863</v>
+        <v>5070</v>
       </c>
       <c r="M1146" t="s">
-        <v>6864</v>
+        <v>5071</v>
       </c>
       <c r="N1146" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O1146" t="s">
-        <v>6866</v>
+        <v>1687</v>
       </c>
       <c r="Q1146" t="s">
-        <v>6867</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="1147" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1147" s="1" t="s">
-        <v>6868</v>
+        <v>6888</v>
       </c>
       <c r="C1147" t="s">
-        <v>6859</v>
-      </c>
-      <c r="D1147" s="1" t="s">
-        <v>6860</v>
-      </c>
-      <c r="E1147" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F1147" t="s">
-        <v>6862</v>
+        <v>6889</v>
+      </c>
+      <c r="D1147" s="1">
+        <v>68000</v>
       </c>
       <c r="L1147" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M1147" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N1147" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O1147" t="s">
-        <v>6866</v>
+        <v>1687</v>
       </c>
       <c r="Q1147" t="s">
-        <v>6869</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="1148" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1148" s="1" t="s">
-        <v>6870</v>
+        <v>6891</v>
       </c>
       <c r="C1148" t="s">
-        <v>6859</v>
-      </c>
-      <c r="D1148" s="1" t="s">
-        <v>6860</v>
-      </c>
-      <c r="E1148" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F1148" t="s">
-        <v>6862</v>
+        <v>6889</v>
+      </c>
+      <c r="D1148" s="1">
+        <v>68000</v>
       </c>
       <c r="L1148" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M1148" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N1148" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O1148" t="s">
-        <v>6866</v>
+        <v>1687</v>
       </c>
       <c r="Q1148" t="s">
-        <v>6871</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="1149" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1149" s="1" t="s">
-        <v>6872</v>
+        <v>6893</v>
       </c>
       <c r="C1149" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D1149" s="1" t="s">
-        <v>2</v>
+        <v>6894</v>
+      </c>
+      <c r="D1149" s="1">
+        <v>68000</v>
       </c>
       <c r="E1149" t="s">
         <v>2426</v>
       </c>
       <c r="L1149" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M1149" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q1149" t="s">
-        <v>6874</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="1150" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1150" s="1" t="s">
-        <v>3490</v>
+        <v>6896</v>
       </c>
       <c r="C1150" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D1150" s="1" t="s">
-        <v>2</v>
+        <v>6894</v>
+      </c>
+      <c r="D1150" s="1">
+        <v>68000</v>
       </c>
       <c r="E1150" t="s">
         <v>2426</v>
       </c>
       <c r="L1150" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M1150" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q1150" t="s">
-        <v>6875</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="1151" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1151" s="1" t="s">
-        <v>6876</v>
+        <v>6898</v>
       </c>
       <c r="C1151" t="s">
-        <v>6877</v>
+        <v>6899</v>
       </c>
       <c r="D1151" s="1">
         <v>68000</v>
@@ -51494,387 +51518,369 @@
         <v>1687</v>
       </c>
       <c r="Q1151" t="s">
-        <v>6878</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="1152" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1152" s="1" t="s">
-        <v>6879</v>
+        <v>3439</v>
       </c>
       <c r="C1152" t="s">
-        <v>6877</v>
-      </c>
-      <c r="D1152" s="1">
-        <v>68000</v>
-      </c>
-      <c r="L1152" t="s">
-        <v>1687</v>
+        <v>3440</v>
+      </c>
+      <c r="D1152" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>3888</v>
       </c>
       <c r="Q1152" t="s">
-        <v>6880</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="1153" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1153" s="1" t="s">
-        <v>6881</v>
+        <v>3442</v>
       </c>
       <c r="C1153" t="s">
-        <v>6882</v>
-      </c>
-      <c r="D1153" s="1">
-        <v>68000</v>
+        <v>3440</v>
+      </c>
+      <c r="D1153" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E1153" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L1153" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1153" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N1153" t="s">
-        <v>1687</v>
+        <v>3888</v>
       </c>
       <c r="Q1153" t="s">
-        <v>6883</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="1154" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1154" s="1" t="s">
-        <v>6884</v>
+        <v>3419</v>
       </c>
       <c r="C1154" t="s">
-        <v>6882</v>
-      </c>
-      <c r="D1154" s="1">
-        <v>68000</v>
+        <v>3420</v>
+      </c>
+      <c r="D1154" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1154" t="s">
         <v>2426</v>
       </c>
       <c r="L1154" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1154" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N1154" t="s">
-        <v>1687</v>
+        <v>1155</v>
       </c>
       <c r="Q1154" t="s">
-        <v>6885</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="1155" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1155" s="1" t="s">
-        <v>6886</v>
+        <v>3422</v>
       </c>
       <c r="C1155" t="s">
-        <v>6882</v>
-      </c>
-      <c r="D1155" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1155" t="s">
-        <v>2426</v>
+        <v>3423</v>
+      </c>
+      <c r="D1155" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1155" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1155" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N1155" t="s">
-        <v>1687</v>
+        <v>1155</v>
       </c>
       <c r="Q1155" t="s">
-        <v>6887</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1156" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1156" s="1" t="s">
-        <v>6888</v>
+        <v>3425</v>
       </c>
       <c r="C1156" t="s">
-        <v>6889</v>
-      </c>
-      <c r="D1156" s="1">
-        <v>68000</v>
+        <v>3423</v>
+      </c>
+      <c r="D1156" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1156" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1156" t="s">
-        <v>1687</v>
+        <v>1155</v>
       </c>
       <c r="Q1156" t="s">
-        <v>6890</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="1157" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1157" s="1" t="s">
-        <v>6891</v>
+        <v>3444</v>
       </c>
       <c r="C1157" t="s">
-        <v>6889</v>
+        <v>3445</v>
       </c>
       <c r="D1157" s="1">
-        <v>68000</v>
-      </c>
-      <c r="L1157" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1157" t="s">
-        <v>1687</v>
+        <v>8080</v>
       </c>
       <c r="Q1157" t="s">
-        <v>6892</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1158" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1158" s="1" t="s">
-        <v>6893</v>
+        <v>3447</v>
       </c>
       <c r="C1158" t="s">
-        <v>6894</v>
-      </c>
-      <c r="D1158" s="1">
-        <v>68000</v>
+        <v>3448</v>
+      </c>
+      <c r="D1158" s="1" t="s">
+        <v>3006</v>
       </c>
       <c r="E1158" t="s">
-        <v>2426</v>
+        <v>3006</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G1158" t="s">
+        <v>3899</v>
       </c>
       <c r="L1158" t="s">
+        <v>2605</v>
+      </c>
+      <c r="M1158" t="s">
         <v>5238</v>
       </c>
-      <c r="M1158" t="s">
-        <v>1687</v>
-      </c>
       <c r="Q1158" t="s">
-        <v>6895</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1159" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1159" s="1" t="s">
-        <v>6896</v>
+        <v>3463</v>
       </c>
       <c r="C1159" t="s">
-        <v>6894</v>
+        <v>3464</v>
       </c>
       <c r="D1159" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1159" t="s">
-        <v>2426</v>
+        <v>8080</v>
       </c>
       <c r="L1159" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1159" t="s">
-        <v>1687</v>
+        <v>352</v>
       </c>
       <c r="Q1159" t="s">
-        <v>6897</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1160" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1160" s="1" t="s">
-        <v>6898</v>
+        <v>3466</v>
       </c>
       <c r="C1160" t="s">
-        <v>6899</v>
-      </c>
-      <c r="D1160" s="1">
-        <v>68000</v>
+        <v>3356</v>
+      </c>
+      <c r="D1160" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1160" t="s">
         <v>2426</v>
       </c>
       <c r="L1160" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1160" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="Q1160" t="s">
-        <v>6900</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1161" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1161" s="1" t="s">
-        <v>3439</v>
+        <v>3471</v>
       </c>
       <c r="C1161" t="s">
-        <v>3440</v>
-      </c>
-      <c r="D1161" s="1" t="s">
-        <v>404</v>
+        <v>3472</v>
+      </c>
+      <c r="D1161" s="1">
+        <v>68000</v>
       </c>
       <c r="E1161" t="s">
-        <v>3888</v>
+        <v>2426</v>
+      </c>
+      <c r="L1161" t="s">
+        <v>3954</v>
       </c>
       <c r="Q1161" t="s">
-        <v>3441</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="1162" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1162" s="1" t="s">
-        <v>3442</v>
+        <v>6914</v>
       </c>
       <c r="C1162" t="s">
-        <v>3440</v>
+        <v>6915</v>
       </c>
       <c r="D1162" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E1162" t="s">
-        <v>3888</v>
+        <v>2</v>
+      </c>
+      <c r="L1162" t="s">
+        <v>5238</v>
       </c>
       <c r="Q1162" t="s">
-        <v>3443</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="1163" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1163" s="1" t="s">
-        <v>3419</v>
+        <v>6917</v>
       </c>
       <c r="C1163" t="s">
-        <v>3420</v>
+        <v>6915</v>
       </c>
       <c r="D1163" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1163" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1163" t="s">
-        <v>1155</v>
+        <v>5238</v>
       </c>
       <c r="Q1163" t="s">
-        <v>3421</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="1164" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1164" s="1" t="s">
-        <v>3422</v>
+        <v>6919</v>
       </c>
       <c r="C1164" t="s">
-        <v>3423</v>
+        <v>6920</v>
       </c>
       <c r="D1164" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L1164" t="s">
-        <v>1155</v>
+        <v>55</v>
       </c>
       <c r="Q1164" t="s">
-        <v>3424</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="1165" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1165" s="1" t="s">
-        <v>3425</v>
+        <v>6922</v>
       </c>
       <c r="C1165" t="s">
-        <v>3423</v>
+        <v>6920</v>
       </c>
       <c r="D1165" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1165" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1165" t="s">
-        <v>1155</v>
+        <v>542</v>
+      </c>
+      <c r="M1165" t="s">
+        <v>55</v>
       </c>
       <c r="Q1165" t="s">
-        <v>3426</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="1166" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1166" s="1" t="s">
-        <v>3444</v>
+        <v>6924</v>
       </c>
       <c r="C1166" t="s">
-        <v>3445</v>
-      </c>
-      <c r="D1166" s="1">
-        <v>8080</v>
+        <v>6920</v>
+      </c>
+      <c r="D1166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L1166" t="s">
+        <v>542</v>
+      </c>
+      <c r="M1166" t="s">
+        <v>55</v>
       </c>
       <c r="Q1166" t="s">
-        <v>3446</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="1167" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1167" s="1" t="s">
-        <v>3447</v>
+        <v>6926</v>
       </c>
       <c r="C1167" t="s">
-        <v>3448</v>
-      </c>
-      <c r="D1167" s="1" t="s">
-        <v>3006</v>
-      </c>
-      <c r="E1167" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F1167" t="s">
-        <v>3899</v>
-      </c>
-      <c r="G1167" t="s">
-        <v>3899</v>
+        <v>6927</v>
+      </c>
+      <c r="D1167" s="1">
+        <v>68000</v>
       </c>
       <c r="L1167" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M1167" t="s">
-        <v>5238</v>
+        <v>1687</v>
       </c>
       <c r="Q1167" t="s">
-        <v>4581</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="1168" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1168" s="1" t="s">
-        <v>3463</v>
+        <v>3494</v>
       </c>
       <c r="C1168" t="s">
-        <v>3464</v>
+        <v>3495</v>
       </c>
       <c r="D1168" s="1">
-        <v>8080</v>
+        <v>68000</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>2426</v>
       </c>
       <c r="L1168" t="s">
-        <v>352</v>
+        <v>5549</v>
       </c>
       <c r="Q1168" t="s">
-        <v>3465</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="1169" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1169" s="1" t="s">
-        <v>3466</v>
+        <v>3497</v>
       </c>
       <c r="C1169" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D1169" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D1169" s="1">
+        <v>68000</v>
       </c>
       <c r="E1169" t="s">
         <v>2426</v>
       </c>
       <c r="L1169" t="s">
-        <v>5070</v>
+        <v>5549</v>
       </c>
       <c r="Q1169" t="s">
-        <v>3467</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1170" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1170" s="1" t="s">
-        <v>3471</v>
+        <v>3498</v>
       </c>
       <c r="C1170" t="s">
-        <v>3472</v>
+        <v>3495</v>
       </c>
       <c r="D1170" s="1">
         <v>68000</v>
@@ -51883,141 +51889,135 @@
         <v>2426</v>
       </c>
       <c r="L1170" t="s">
-        <v>3954</v>
+        <v>5549</v>
       </c>
       <c r="Q1170" t="s">
-        <v>3473</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1171" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1171" s="1" t="s">
-        <v>6914</v>
+        <v>3500</v>
       </c>
       <c r="C1171" t="s">
-        <v>6915</v>
-      </c>
-      <c r="D1171" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D1171" s="1">
+        <v>68000</v>
       </c>
       <c r="E1171" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1171" t="s">
-        <v>5238</v>
+        <v>5549</v>
       </c>
       <c r="Q1171" t="s">
-        <v>6916</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1172" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1172" s="1" t="s">
-        <v>6917</v>
+        <v>3502</v>
       </c>
       <c r="C1172" t="s">
-        <v>6915</v>
-      </c>
-      <c r="D1172" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D1172" s="1">
+        <v>68000</v>
       </c>
       <c r="E1172" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1172" t="s">
-        <v>5238</v>
+        <v>5549</v>
       </c>
       <c r="Q1172" t="s">
-        <v>6918</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1173" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1173" s="1" t="s">
-        <v>6919</v>
+        <v>3504</v>
       </c>
       <c r="C1173" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1173" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D1173" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>2426</v>
       </c>
       <c r="L1173" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q1173" t="s">
-        <v>6921</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1174" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1174" s="1" t="s">
-        <v>6922</v>
+        <v>3506</v>
       </c>
       <c r="C1174" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1174" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D1174" s="1">
+        <v>68000</v>
       </c>
       <c r="E1174" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1174" t="s">
         <v>2426</v>
       </c>
       <c r="L1174" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1174" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q1174" t="s">
-        <v>6923</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="1175" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1175" s="1" t="s">
-        <v>6924</v>
+        <v>6930</v>
       </c>
       <c r="C1175" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1175" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D1175" s="1">
+        <v>68000</v>
       </c>
       <c r="E1175" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1175" t="s">
         <v>2426</v>
       </c>
       <c r="L1175" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1175" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q1175" t="s">
-        <v>6925</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="1176" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1176" s="1" t="s">
-        <v>6926</v>
+        <v>3507</v>
       </c>
       <c r="C1176" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D1176" s="1">
         <v>68000</v>
       </c>
+      <c r="E1176" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1176" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q1176" t="s">
-        <v>6928</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="1177" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1177" s="1" t="s">
-        <v>3494</v>
+        <v>3508</v>
       </c>
       <c r="C1177" t="s">
         <v>3495</v>
@@ -52032,12 +52032,12 @@
         <v>5549</v>
       </c>
       <c r="Q1177" t="s">
-        <v>3496</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1178" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1178" s="1" t="s">
-        <v>3497</v>
+        <v>3510</v>
       </c>
       <c r="C1178" t="s">
         <v>3495</v>
@@ -52052,12 +52052,12 @@
         <v>5549</v>
       </c>
       <c r="Q1178" t="s">
-        <v>4587</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1179" s="1" t="s">
-        <v>3498</v>
+        <v>3512</v>
       </c>
       <c r="C1179" t="s">
         <v>3495</v>
@@ -52072,12 +52072,12 @@
         <v>5549</v>
       </c>
       <c r="Q1179" t="s">
-        <v>3499</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1180" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1180" s="1" t="s">
-        <v>3500</v>
+        <v>3514</v>
       </c>
       <c r="C1180" t="s">
         <v>3495</v>
@@ -52092,12 +52092,12 @@
         <v>5549</v>
       </c>
       <c r="Q1180" t="s">
-        <v>3501</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1181" s="1" t="s">
-        <v>3502</v>
+        <v>3516</v>
       </c>
       <c r="C1181" t="s">
         <v>3495</v>
@@ -52112,12 +52112,12 @@
         <v>5549</v>
       </c>
       <c r="Q1181" t="s">
-        <v>3503</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1182" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1182" s="1" t="s">
-        <v>3504</v>
+        <v>3518</v>
       </c>
       <c r="C1182" t="s">
         <v>3495</v>
@@ -52132,12 +52132,12 @@
         <v>5549</v>
       </c>
       <c r="Q1182" t="s">
-        <v>3505</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1183" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1183" s="1" t="s">
-        <v>3506</v>
+        <v>3519</v>
       </c>
       <c r="C1183" t="s">
         <v>3495</v>
@@ -52152,12 +52152,12 @@
         <v>5549</v>
       </c>
       <c r="Q1183" t="s">
-        <v>6929</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="1184" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1184" s="1" t="s">
-        <v>6930</v>
+        <v>3520</v>
       </c>
       <c r="C1184" t="s">
         <v>3495</v>
@@ -52172,12 +52172,12 @@
         <v>5549</v>
       </c>
       <c r="Q1184" t="s">
-        <v>6931</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1185" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1185" s="1" t="s">
-        <v>3507</v>
+        <v>3522</v>
       </c>
       <c r="C1185" t="s">
         <v>3495</v>
@@ -52192,12 +52192,12 @@
         <v>5549</v>
       </c>
       <c r="Q1185" t="s">
-        <v>4952</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1186" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1186" s="1" t="s">
-        <v>3508</v>
+        <v>3524</v>
       </c>
       <c r="C1186" t="s">
         <v>3495</v>
@@ -52212,12 +52212,12 @@
         <v>5549</v>
       </c>
       <c r="Q1186" t="s">
-        <v>3509</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1187" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1187" s="1" t="s">
-        <v>3510</v>
+        <v>3526</v>
       </c>
       <c r="C1187" t="s">
         <v>3495</v>
@@ -52232,12 +52232,12 @@
         <v>5549</v>
       </c>
       <c r="Q1187" t="s">
-        <v>3511</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1188" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1188" s="1" t="s">
-        <v>3512</v>
+        <v>3528</v>
       </c>
       <c r="C1188" t="s">
         <v>3495</v>
@@ -52252,12 +52252,12 @@
         <v>5549</v>
       </c>
       <c r="Q1188" t="s">
-        <v>3513</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1189" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1189" s="1" t="s">
-        <v>3514</v>
+        <v>3530</v>
       </c>
       <c r="C1189" t="s">
         <v>3495</v>
@@ -52272,12 +52272,12 @@
         <v>5549</v>
       </c>
       <c r="Q1189" t="s">
-        <v>3515</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1190" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1190" s="1" t="s">
-        <v>3516</v>
+        <v>3532</v>
       </c>
       <c r="C1190" t="s">
         <v>3495</v>
@@ -52292,12 +52292,12 @@
         <v>5549</v>
       </c>
       <c r="Q1190" t="s">
-        <v>3517</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1191" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1191" s="1" t="s">
-        <v>3518</v>
+        <v>3533</v>
       </c>
       <c r="C1191" t="s">
         <v>3495</v>
@@ -52312,12 +52312,12 @@
         <v>5549</v>
       </c>
       <c r="Q1191" t="s">
-        <v>4953</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1192" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1192" s="1" t="s">
-        <v>3519</v>
+        <v>3535</v>
       </c>
       <c r="C1192" t="s">
         <v>3495</v>
@@ -52332,12 +52332,12 @@
         <v>5549</v>
       </c>
       <c r="Q1192" t="s">
-        <v>4954</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1193" s="1" t="s">
-        <v>3520</v>
+        <v>3537</v>
       </c>
       <c r="C1193" t="s">
         <v>3495</v>
@@ -52352,12 +52352,12 @@
         <v>5549</v>
       </c>
       <c r="Q1193" t="s">
-        <v>3521</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1194" s="1" t="s">
-        <v>3522</v>
+        <v>3539</v>
       </c>
       <c r="C1194" t="s">
         <v>3495</v>
@@ -52372,12 +52372,12 @@
         <v>5549</v>
       </c>
       <c r="Q1194" t="s">
-        <v>3523</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="1195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1195" s="1" t="s">
-        <v>3524</v>
+        <v>3540</v>
       </c>
       <c r="C1195" t="s">
         <v>3495</v>
@@ -52392,12 +52392,12 @@
         <v>5549</v>
       </c>
       <c r="Q1195" t="s">
-        <v>3525</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1196" s="1" t="s">
-        <v>3526</v>
+        <v>3541</v>
       </c>
       <c r="C1196" t="s">
         <v>3495</v>
@@ -52412,12 +52412,12 @@
         <v>5549</v>
       </c>
       <c r="Q1196" t="s">
-        <v>3527</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1197" s="1" t="s">
-        <v>3528</v>
+        <v>3542</v>
       </c>
       <c r="C1197" t="s">
         <v>3495</v>
@@ -52432,12 +52432,12 @@
         <v>5549</v>
       </c>
       <c r="Q1197" t="s">
-        <v>3529</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1198" s="1" t="s">
-        <v>3530</v>
+        <v>3544</v>
       </c>
       <c r="C1198" t="s">
         <v>3495</v>
@@ -52452,12 +52452,12 @@
         <v>5549</v>
       </c>
       <c r="Q1198" t="s">
-        <v>3531</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1199" s="1" t="s">
-        <v>3532</v>
+        <v>3546</v>
       </c>
       <c r="C1199" t="s">
         <v>3495</v>
@@ -52472,12 +52472,12 @@
         <v>5549</v>
       </c>
       <c r="Q1199" t="s">
-        <v>4955</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1200" s="1" t="s">
-        <v>3533</v>
+        <v>3547</v>
       </c>
       <c r="C1200" t="s">
         <v>3495</v>
@@ -52492,12 +52492,12 @@
         <v>5549</v>
       </c>
       <c r="Q1200" t="s">
-        <v>3534</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="1201" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1201" s="1" t="s">
-        <v>3535</v>
+        <v>3549</v>
       </c>
       <c r="C1201" t="s">
         <v>3495</v>
@@ -52512,12 +52512,12 @@
         <v>5549</v>
       </c>
       <c r="Q1201" t="s">
-        <v>3536</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1202" s="1" t="s">
-        <v>3537</v>
+        <v>3550</v>
       </c>
       <c r="C1202" t="s">
         <v>3495</v>
@@ -52532,12 +52532,12 @@
         <v>5549</v>
       </c>
       <c r="Q1202" t="s">
-        <v>3538</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1203" s="1" t="s">
-        <v>3539</v>
+        <v>3552</v>
       </c>
       <c r="C1203" t="s">
         <v>3495</v>
@@ -52552,12 +52552,12 @@
         <v>5549</v>
       </c>
       <c r="Q1203" t="s">
-        <v>4956</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1204" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1204" s="1" t="s">
-        <v>3540</v>
+        <v>3554</v>
       </c>
       <c r="C1204" t="s">
         <v>3495</v>
@@ -52572,12 +52572,12 @@
         <v>5549</v>
       </c>
       <c r="Q1204" t="s">
-        <v>4588</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="1205" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1205" s="1" t="s">
-        <v>3541</v>
+        <v>3555</v>
       </c>
       <c r="C1205" t="s">
         <v>3495</v>
@@ -52592,12 +52592,12 @@
         <v>5549</v>
       </c>
       <c r="Q1205" t="s">
-        <v>4589</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1206" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1206" s="1" t="s">
-        <v>3542</v>
+        <v>3556</v>
       </c>
       <c r="C1206" t="s">
         <v>3495</v>
@@ -52612,12 +52612,12 @@
         <v>5549</v>
       </c>
       <c r="Q1206" t="s">
-        <v>3543</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1207" s="1" t="s">
-        <v>3544</v>
+        <v>3558</v>
       </c>
       <c r="C1207" t="s">
         <v>3495</v>
@@ -52632,12 +52632,12 @@
         <v>5549</v>
       </c>
       <c r="Q1207" t="s">
-        <v>3545</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1208" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1208" s="1" t="s">
-        <v>3546</v>
+        <v>3559</v>
       </c>
       <c r="C1208" t="s">
         <v>3495</v>
@@ -52652,12 +52652,12 @@
         <v>5549</v>
       </c>
       <c r="Q1208" t="s">
-        <v>4957</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1209" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1209" s="1" t="s">
-        <v>3547</v>
+        <v>3560</v>
       </c>
       <c r="C1209" t="s">
         <v>3495</v>
@@ -52672,12 +52672,12 @@
         <v>5549</v>
       </c>
       <c r="Q1209" t="s">
-        <v>3548</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1210" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1210" s="1" t="s">
-        <v>3549</v>
+        <v>3561</v>
       </c>
       <c r="C1210" t="s">
         <v>3495</v>
@@ -52692,12 +52692,12 @@
         <v>5549</v>
       </c>
       <c r="Q1210" t="s">
-        <v>4590</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="1211" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1211" s="1" t="s">
-        <v>3550</v>
+        <v>3562</v>
       </c>
       <c r="C1211" t="s">
         <v>3495</v>
@@ -52712,12 +52712,12 @@
         <v>5549</v>
       </c>
       <c r="Q1211" t="s">
-        <v>3551</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1212" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1212" s="1" t="s">
-        <v>3552</v>
+        <v>3563</v>
       </c>
       <c r="C1212" t="s">
         <v>3495</v>
@@ -52732,12 +52732,12 @@
         <v>5549</v>
       </c>
       <c r="Q1212" t="s">
-        <v>3553</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1213" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1213" s="1" t="s">
-        <v>3554</v>
+        <v>3564</v>
       </c>
       <c r="C1213" t="s">
         <v>3495</v>
@@ -52752,12 +52752,12 @@
         <v>5549</v>
       </c>
       <c r="Q1213" t="s">
-        <v>4958</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="1214" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1214" s="1" t="s">
-        <v>3555</v>
+        <v>3565</v>
       </c>
       <c r="C1214" t="s">
         <v>3495</v>
@@ -52772,12 +52772,12 @@
         <v>5549</v>
       </c>
       <c r="Q1214" t="s">
-        <v>4591</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="1215" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1215" s="1" t="s">
-        <v>3556</v>
+        <v>3567</v>
       </c>
       <c r="C1215" t="s">
         <v>3495</v>
@@ -52792,12 +52792,12 @@
         <v>5549</v>
       </c>
       <c r="Q1215" t="s">
-        <v>3557</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1216" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1216" s="1" t="s">
-        <v>3558</v>
+        <v>3569</v>
       </c>
       <c r="C1216" t="s">
         <v>3495</v>
@@ -52812,12 +52812,12 @@
         <v>5549</v>
       </c>
       <c r="Q1216" t="s">
-        <v>4959</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="1217" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1217" s="1" t="s">
-        <v>3559</v>
+        <v>3571</v>
       </c>
       <c r="C1217" t="s">
         <v>3495</v>
@@ -52832,12 +52832,12 @@
         <v>5549</v>
       </c>
       <c r="Q1217" t="s">
-        <v>4592</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1218" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1218" s="1" t="s">
-        <v>3560</v>
+        <v>3572</v>
       </c>
       <c r="C1218" t="s">
         <v>3495</v>
@@ -52852,12 +52852,12 @@
         <v>5549</v>
       </c>
       <c r="Q1218" t="s">
-        <v>4593</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1219" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1219" s="1" t="s">
-        <v>3561</v>
+        <v>3574</v>
       </c>
       <c r="C1219" t="s">
         <v>3495</v>
@@ -52872,12 +52872,12 @@
         <v>5549</v>
       </c>
       <c r="Q1219" t="s">
-        <v>4960</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1220" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1220" s="1" t="s">
-        <v>3562</v>
+        <v>3576</v>
       </c>
       <c r="C1220" t="s">
         <v>3495</v>
@@ -52892,12 +52892,12 @@
         <v>5549</v>
       </c>
       <c r="Q1220" t="s">
-        <v>4594</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1221" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1221" s="1" t="s">
-        <v>3563</v>
+        <v>3577</v>
       </c>
       <c r="C1221" t="s">
         <v>3495</v>
@@ -52912,12 +52912,12 @@
         <v>5549</v>
       </c>
       <c r="Q1221" t="s">
-        <v>4961</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1222" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1222" s="1" t="s">
-        <v>3564</v>
+        <v>3579</v>
       </c>
       <c r="C1222" t="s">
         <v>3495</v>
@@ -52932,12 +52932,12 @@
         <v>5549</v>
       </c>
       <c r="Q1222" t="s">
-        <v>4962</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="1223" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1223" s="1" t="s">
-        <v>3565</v>
+        <v>3580</v>
       </c>
       <c r="C1223" t="s">
         <v>3495</v>
@@ -52952,12 +52952,12 @@
         <v>5549</v>
       </c>
       <c r="Q1223" t="s">
-        <v>3566</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1224" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1224" s="1" t="s">
-        <v>3567</v>
+        <v>3581</v>
       </c>
       <c r="C1224" t="s">
         <v>3495</v>
@@ -52972,12 +52972,12 @@
         <v>5549</v>
       </c>
       <c r="Q1224" t="s">
-        <v>3568</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1225" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1225" s="1" t="s">
-        <v>3569</v>
+        <v>3582</v>
       </c>
       <c r="C1225" t="s">
         <v>3495</v>
@@ -52992,12 +52992,12 @@
         <v>5549</v>
       </c>
       <c r="Q1225" t="s">
-        <v>3570</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="1226" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1226" s="1" t="s">
-        <v>3571</v>
+        <v>3583</v>
       </c>
       <c r="C1226" t="s">
         <v>3495</v>
@@ -53012,12 +53012,12 @@
         <v>5549</v>
       </c>
       <c r="Q1226" t="s">
-        <v>4595</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1227" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1227" s="1" t="s">
-        <v>3572</v>
+        <v>3584</v>
       </c>
       <c r="C1227" t="s">
         <v>3495</v>
@@ -53032,12 +53032,12 @@
         <v>5549</v>
       </c>
       <c r="Q1227" t="s">
-        <v>3573</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1228" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1228" s="1" t="s">
-        <v>3574</v>
+        <v>3585</v>
       </c>
       <c r="C1228" t="s">
         <v>3495</v>
@@ -53052,12 +53052,12 @@
         <v>5549</v>
       </c>
       <c r="Q1228" t="s">
-        <v>3575</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="1229" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1229" s="1" t="s">
-        <v>3576</v>
+        <v>3587</v>
       </c>
       <c r="C1229" t="s">
         <v>3495</v>
@@ -53072,12 +53072,12 @@
         <v>5549</v>
       </c>
       <c r="Q1229" t="s">
-        <v>4963</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1230" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1230" s="1" t="s">
-        <v>3577</v>
+        <v>3588</v>
       </c>
       <c r="C1230" t="s">
         <v>3495</v>
@@ -53092,12 +53092,12 @@
         <v>5549</v>
       </c>
       <c r="Q1230" t="s">
-        <v>3578</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="1231" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1231" s="1" t="s">
-        <v>3579</v>
+        <v>3589</v>
       </c>
       <c r="C1231" t="s">
         <v>3495</v>
@@ -53112,12 +53112,12 @@
         <v>5549</v>
       </c>
       <c r="Q1231" t="s">
-        <v>4964</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="1232" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1232" s="1" t="s">
-        <v>3580</v>
+        <v>3591</v>
       </c>
       <c r="C1232" t="s">
         <v>3495</v>
@@ -53132,12 +53132,12 @@
         <v>5549</v>
       </c>
       <c r="Q1232" t="s">
-        <v>4965</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1233" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1233" s="1" t="s">
-        <v>3581</v>
+        <v>3593</v>
       </c>
       <c r="C1233" t="s">
         <v>3495</v>
@@ -53152,12 +53152,12 @@
         <v>5549</v>
       </c>
       <c r="Q1233" t="s">
-        <v>4596</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1234" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1234" s="1" t="s">
-        <v>3582</v>
+        <v>3594</v>
       </c>
       <c r="C1234" t="s">
         <v>3495</v>
@@ -53172,12 +53172,12 @@
         <v>5549</v>
       </c>
       <c r="Q1234" t="s">
-        <v>4966</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1235" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1235" s="1" t="s">
-        <v>3583</v>
+        <v>3596</v>
       </c>
       <c r="C1235" t="s">
         <v>3495</v>
@@ -53192,12 +53192,12 @@
         <v>5549</v>
       </c>
       <c r="Q1235" t="s">
-        <v>4597</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="1236" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1236" s="1" t="s">
-        <v>3584</v>
+        <v>3597</v>
       </c>
       <c r="C1236" t="s">
         <v>3495</v>
@@ -53212,12 +53212,12 @@
         <v>5549</v>
       </c>
       <c r="Q1236" t="s">
-        <v>4967</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1237" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1237" s="1" t="s">
-        <v>3585</v>
+        <v>3598</v>
       </c>
       <c r="C1237" t="s">
         <v>3495</v>
@@ -53232,12 +53232,12 @@
         <v>5549</v>
       </c>
       <c r="Q1237" t="s">
-        <v>3586</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1238" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1238" s="1" t="s">
-        <v>3587</v>
+        <v>3599</v>
       </c>
       <c r="C1238" t="s">
         <v>3495</v>
@@ -53252,12 +53252,12 @@
         <v>5549</v>
       </c>
       <c r="Q1238" t="s">
-        <v>4598</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1239" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1239" s="1" t="s">
-        <v>3588</v>
+        <v>3600</v>
       </c>
       <c r="C1239" t="s">
         <v>3495</v>
@@ -53272,12 +53272,12 @@
         <v>5549</v>
       </c>
       <c r="Q1239" t="s">
-        <v>4968</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="1240" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1240" s="1" t="s">
-        <v>3589</v>
+        <v>3601</v>
       </c>
       <c r="C1240" t="s">
         <v>3495</v>
@@ -53292,12 +53292,12 @@
         <v>5549</v>
       </c>
       <c r="Q1240" t="s">
-        <v>3590</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1241" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1241" s="1" t="s">
-        <v>3591</v>
+        <v>3603</v>
       </c>
       <c r="C1241" t="s">
         <v>3495</v>
@@ -53312,12 +53312,12 @@
         <v>5549</v>
       </c>
       <c r="Q1241" t="s">
-        <v>3592</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1242" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1242" s="1" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="C1242" t="s">
         <v>3495</v>
@@ -53332,12 +53332,12 @@
         <v>5549</v>
       </c>
       <c r="Q1242" t="s">
-        <v>4969</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1243" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1243" s="1" t="s">
-        <v>3594</v>
+        <v>6932</v>
       </c>
       <c r="C1243" t="s">
         <v>3495</v>
@@ -53352,12 +53352,12 @@
         <v>5549</v>
       </c>
       <c r="Q1243" t="s">
-        <v>3595</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="1244" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1244" s="1" t="s">
-        <v>3596</v>
+        <v>3607</v>
       </c>
       <c r="C1244" t="s">
         <v>3495</v>
@@ -53372,12 +53372,12 @@
         <v>5549</v>
       </c>
       <c r="Q1244" t="s">
-        <v>4970</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1245" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1245" s="1" t="s">
-        <v>3597</v>
+        <v>3609</v>
       </c>
       <c r="C1245" t="s">
         <v>3495</v>
@@ -53392,12 +53392,12 @@
         <v>5549</v>
       </c>
       <c r="Q1245" t="s">
-        <v>4599</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1246" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1246" s="1" t="s">
-        <v>3598</v>
+        <v>3611</v>
       </c>
       <c r="C1246" t="s">
         <v>3495</v>
@@ -53412,12 +53412,12 @@
         <v>5549</v>
       </c>
       <c r="Q1246" t="s">
-        <v>4600</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1247" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1247" s="1" t="s">
-        <v>3599</v>
+        <v>3612</v>
       </c>
       <c r="C1247" t="s">
         <v>3495</v>
@@ -53432,12 +53432,12 @@
         <v>5549</v>
       </c>
       <c r="Q1247" t="s">
-        <v>4971</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="1248" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1248" s="1" t="s">
-        <v>3600</v>
+        <v>3613</v>
       </c>
       <c r="C1248" t="s">
         <v>3495</v>
@@ -53452,12 +53452,12 @@
         <v>5549</v>
       </c>
       <c r="Q1248" t="s">
-        <v>4972</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1249" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1249" s="1" t="s">
-        <v>3601</v>
+        <v>3615</v>
       </c>
       <c r="C1249" t="s">
         <v>3495</v>
@@ -53472,12 +53472,12 @@
         <v>5549</v>
       </c>
       <c r="Q1249" t="s">
-        <v>3602</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="1250" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1250" s="1" t="s">
-        <v>3603</v>
+        <v>3617</v>
       </c>
       <c r="C1250" t="s">
         <v>3495</v>
@@ -53492,12 +53492,12 @@
         <v>5549</v>
       </c>
       <c r="Q1250" t="s">
-        <v>4973</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1251" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1251" s="1" t="s">
-        <v>3604</v>
+        <v>3618</v>
       </c>
       <c r="C1251" t="s">
         <v>3495</v>
@@ -53512,12 +53512,12 @@
         <v>5549</v>
       </c>
       <c r="Q1251" t="s">
-        <v>3605</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1252" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1252" s="1" t="s">
-        <v>6932</v>
+        <v>3620</v>
       </c>
       <c r="C1252" t="s">
         <v>3495</v>
@@ -53532,12 +53532,12 @@
         <v>5549</v>
       </c>
       <c r="Q1252" t="s">
-        <v>4974</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="1253" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1253" s="1" t="s">
-        <v>3607</v>
+        <v>3621</v>
       </c>
       <c r="C1253" t="s">
         <v>3495</v>
@@ -53552,12 +53552,12 @@
         <v>5549</v>
       </c>
       <c r="Q1253" t="s">
-        <v>3608</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1254" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1254" s="1" t="s">
-        <v>3609</v>
+        <v>3622</v>
       </c>
       <c r="C1254" t="s">
         <v>3495</v>
@@ -53572,12 +53572,12 @@
         <v>5549</v>
       </c>
       <c r="Q1254" t="s">
-        <v>3610</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="1255" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1255" s="1" t="s">
-        <v>3611</v>
+        <v>3623</v>
       </c>
       <c r="C1255" t="s">
         <v>3495</v>
@@ -53592,12 +53592,12 @@
         <v>5549</v>
       </c>
       <c r="Q1255" t="s">
-        <v>4975</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1256" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1256" s="1" t="s">
-        <v>3612</v>
+        <v>3624</v>
       </c>
       <c r="C1256" t="s">
         <v>3495</v>
@@ -53612,12 +53612,12 @@
         <v>5549</v>
       </c>
       <c r="Q1256" t="s">
-        <v>4976</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1257" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1257" s="1" t="s">
-        <v>3613</v>
+        <v>3625</v>
       </c>
       <c r="C1257" t="s">
         <v>3495</v>
@@ -53632,12 +53632,12 @@
         <v>5549</v>
       </c>
       <c r="Q1257" t="s">
-        <v>3614</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1258" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1258" s="1" t="s">
-        <v>3615</v>
+        <v>3626</v>
       </c>
       <c r="C1258" t="s">
         <v>3495</v>
@@ -53652,12 +53652,12 @@
         <v>5549</v>
       </c>
       <c r="Q1258" t="s">
-        <v>3616</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1259" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1259" s="1" t="s">
-        <v>3617</v>
+        <v>3628</v>
       </c>
       <c r="C1259" t="s">
         <v>3495</v>
@@ -53672,12 +53672,12 @@
         <v>5549</v>
       </c>
       <c r="Q1259" t="s">
-        <v>4977</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="1260" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1260" s="1" t="s">
-        <v>3618</v>
+        <v>3629</v>
       </c>
       <c r="C1260" t="s">
         <v>3495</v>
@@ -53692,12 +53692,12 @@
         <v>5549</v>
       </c>
       <c r="Q1260" t="s">
-        <v>3619</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1261" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1261" s="1" t="s">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="C1261" t="s">
         <v>3495</v>
@@ -53712,12 +53712,12 @@
         <v>5549</v>
       </c>
       <c r="Q1261" t="s">
-        <v>4978</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1262" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1262" s="1" t="s">
-        <v>3621</v>
+        <v>3632</v>
       </c>
       <c r="C1262" t="s">
         <v>3495</v>
@@ -53732,12 +53732,12 @@
         <v>5549</v>
       </c>
       <c r="Q1262" t="s">
-        <v>4979</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1263" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1263" s="1" t="s">
-        <v>3622</v>
+        <v>3633</v>
       </c>
       <c r="C1263" t="s">
         <v>3495</v>
@@ -53752,12 +53752,12 @@
         <v>5549</v>
       </c>
       <c r="Q1263" t="s">
-        <v>4980</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1264" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1264" s="1" t="s">
-        <v>3623</v>
+        <v>3635</v>
       </c>
       <c r="C1264" t="s">
         <v>3495</v>
@@ -53772,12 +53772,12 @@
         <v>5549</v>
       </c>
       <c r="Q1264" t="s">
-        <v>4601</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1265" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1265" s="1" t="s">
-        <v>3624</v>
+        <v>3637</v>
       </c>
       <c r="C1265" t="s">
         <v>3495</v>
@@ -53792,12 +53792,12 @@
         <v>5549</v>
       </c>
       <c r="Q1265" t="s">
-        <v>4981</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1266" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1266" s="1" t="s">
-        <v>3625</v>
+        <v>3638</v>
       </c>
       <c r="C1266" t="s">
         <v>3495</v>
@@ -53812,12 +53812,12 @@
         <v>5549</v>
       </c>
       <c r="Q1266" t="s">
-        <v>4602</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1267" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1267" s="1" t="s">
-        <v>3626</v>
+        <v>3640</v>
       </c>
       <c r="C1267" t="s">
         <v>3495</v>
@@ -53832,12 +53832,12 @@
         <v>5549</v>
       </c>
       <c r="Q1267" t="s">
-        <v>3627</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="1268" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1268" s="1" t="s">
-        <v>3628</v>
+        <v>3641</v>
       </c>
       <c r="C1268" t="s">
         <v>3495</v>
@@ -53852,12 +53852,12 @@
         <v>5549</v>
       </c>
       <c r="Q1268" t="s">
-        <v>4982</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1269" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1269" s="1" t="s">
-        <v>3629</v>
+        <v>3642</v>
       </c>
       <c r="C1269" t="s">
         <v>3495</v>
@@ -53872,12 +53872,12 @@
         <v>5549</v>
       </c>
       <c r="Q1269" t="s">
-        <v>4603</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1270" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1270" s="1" t="s">
-        <v>3630</v>
+        <v>3643</v>
       </c>
       <c r="C1270" t="s">
         <v>3495</v>
@@ -53892,12 +53892,12 @@
         <v>5549</v>
       </c>
       <c r="Q1270" t="s">
-        <v>3631</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="1271" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1271" s="1" t="s">
-        <v>3632</v>
+        <v>3644</v>
       </c>
       <c r="C1271" t="s">
         <v>3495</v>
@@ -53912,12 +53912,12 @@
         <v>5549</v>
       </c>
       <c r="Q1271" t="s">
-        <v>4983</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1272" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1272" s="1" t="s">
-        <v>3633</v>
+        <v>3645</v>
       </c>
       <c r="C1272" t="s">
         <v>3495</v>
@@ -53932,12 +53932,12 @@
         <v>5549</v>
       </c>
       <c r="Q1272" t="s">
-        <v>3634</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="1273" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1273" s="1" t="s">
-        <v>3635</v>
+        <v>3647</v>
       </c>
       <c r="C1273" t="s">
         <v>3495</v>
@@ -53952,12 +53952,12 @@
         <v>5549</v>
       </c>
       <c r="Q1273" t="s">
-        <v>3636</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="1274" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1274" s="1" t="s">
-        <v>3637</v>
+        <v>3648</v>
       </c>
       <c r="C1274" t="s">
         <v>3495</v>
@@ -53972,12 +53972,12 @@
         <v>5549</v>
       </c>
       <c r="Q1274" t="s">
-        <v>4604</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1275" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1275" s="1" t="s">
-        <v>3638</v>
+        <v>3649</v>
       </c>
       <c r="C1275" t="s">
         <v>3495</v>
@@ -53992,12 +53992,12 @@
         <v>5549</v>
       </c>
       <c r="Q1275" t="s">
-        <v>3639</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1276" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1276" s="1" t="s">
-        <v>3640</v>
+        <v>3651</v>
       </c>
       <c r="C1276" t="s">
         <v>3495</v>
@@ -54012,12 +54012,12 @@
         <v>5549</v>
       </c>
       <c r="Q1276" t="s">
-        <v>4984</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="1277" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1277" s="1" t="s">
-        <v>3641</v>
+        <v>3653</v>
       </c>
       <c r="C1277" t="s">
         <v>3495</v>
@@ -54032,12 +54032,12 @@
         <v>5549</v>
       </c>
       <c r="Q1277" t="s">
-        <v>4985</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1278" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1278" s="1" t="s">
-        <v>3642</v>
+        <v>3655</v>
       </c>
       <c r="C1278" t="s">
         <v>3495</v>
@@ -54052,12 +54052,12 @@
         <v>5549</v>
       </c>
       <c r="Q1278" t="s">
-        <v>4605</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="1279" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1279" s="1" t="s">
-        <v>3643</v>
+        <v>3657</v>
       </c>
       <c r="C1279" t="s">
         <v>3495</v>
@@ -54072,12 +54072,12 @@
         <v>5549</v>
       </c>
       <c r="Q1279" t="s">
-        <v>4986</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="1280" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1280" s="1" t="s">
-        <v>3644</v>
+        <v>3658</v>
       </c>
       <c r="C1280" t="s">
         <v>3495</v>
@@ -54092,12 +54092,12 @@
         <v>5549</v>
       </c>
       <c r="Q1280" t="s">
-        <v>4987</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1281" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1281" s="1" t="s">
-        <v>3645</v>
+        <v>3660</v>
       </c>
       <c r="C1281" t="s">
         <v>3495</v>
@@ -54112,12 +54112,12 @@
         <v>5549</v>
       </c>
       <c r="Q1281" t="s">
-        <v>3646</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1282" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1282" s="1" t="s">
-        <v>3647</v>
+        <v>3662</v>
       </c>
       <c r="C1282" t="s">
         <v>3495</v>
@@ -54132,12 +54132,12 @@
         <v>5549</v>
       </c>
       <c r="Q1282" t="s">
-        <v>4988</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1283" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1283" s="1" t="s">
-        <v>3648</v>
+        <v>3663</v>
       </c>
       <c r="C1283" t="s">
         <v>3495</v>
@@ -54152,12 +54152,12 @@
         <v>5549</v>
       </c>
       <c r="Q1283" t="s">
-        <v>4989</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1284" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1284" s="1" t="s">
-        <v>3649</v>
+        <v>3665</v>
       </c>
       <c r="C1284" t="s">
         <v>3495</v>
@@ -54172,12 +54172,12 @@
         <v>5549</v>
       </c>
       <c r="Q1284" t="s">
-        <v>3650</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="1285" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1285" s="1" t="s">
-        <v>3651</v>
+        <v>3666</v>
       </c>
       <c r="C1285" t="s">
         <v>3495</v>
@@ -54192,12 +54192,12 @@
         <v>5549</v>
       </c>
       <c r="Q1285" t="s">
-        <v>3652</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1286" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1286" s="1" t="s">
-        <v>3653</v>
+        <v>3668</v>
       </c>
       <c r="C1286" t="s">
         <v>3495</v>
@@ -54212,12 +54212,12 @@
         <v>5549</v>
       </c>
       <c r="Q1286" t="s">
-        <v>3654</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1287" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1287" s="1" t="s">
-        <v>3655</v>
+        <v>3670</v>
       </c>
       <c r="C1287" t="s">
         <v>3495</v>
@@ -54232,12 +54232,12 @@
         <v>5549</v>
       </c>
       <c r="Q1287" t="s">
-        <v>3656</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1288" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1288" s="1" t="s">
-        <v>3657</v>
+        <v>3672</v>
       </c>
       <c r="C1288" t="s">
         <v>3495</v>
@@ -54252,12 +54252,12 @@
         <v>5549</v>
       </c>
       <c r="Q1288" t="s">
-        <v>4990</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1289" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1289" s="1" t="s">
-        <v>3658</v>
+        <v>3674</v>
       </c>
       <c r="C1289" t="s">
         <v>3495</v>
@@ -54272,12 +54272,12 @@
         <v>5549</v>
       </c>
       <c r="Q1289" t="s">
-        <v>3659</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1290" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1290" s="1" t="s">
-        <v>3660</v>
+        <v>3675</v>
       </c>
       <c r="C1290" t="s">
         <v>3495</v>
@@ -54292,12 +54292,12 @@
         <v>5549</v>
       </c>
       <c r="Q1290" t="s">
-        <v>3661</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="1291" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1291" s="1" t="s">
-        <v>3662</v>
+        <v>3676</v>
       </c>
       <c r="C1291" t="s">
         <v>3495</v>
@@ -54312,12 +54312,12 @@
         <v>5549</v>
       </c>
       <c r="Q1291" t="s">
-        <v>4991</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1292" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1292" s="1" t="s">
-        <v>3663</v>
+        <v>3677</v>
       </c>
       <c r="C1292" t="s">
         <v>3495</v>
@@ -54332,12 +54332,12 @@
         <v>5549</v>
       </c>
       <c r="Q1292" t="s">
-        <v>3664</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="1293" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1293" s="1" t="s">
-        <v>3665</v>
+        <v>3678</v>
       </c>
       <c r="C1293" t="s">
         <v>3495</v>
@@ -54352,12 +54352,12 @@
         <v>5549</v>
       </c>
       <c r="Q1293" t="s">
-        <v>4992</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1294" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1294" s="1" t="s">
-        <v>3666</v>
+        <v>3679</v>
       </c>
       <c r="C1294" t="s">
         <v>3495</v>
@@ -54372,12 +54372,12 @@
         <v>5549</v>
       </c>
       <c r="Q1294" t="s">
-        <v>3667</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1295" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1295" s="1" t="s">
-        <v>3668</v>
+        <v>3681</v>
       </c>
       <c r="C1295" t="s">
         <v>3495</v>
@@ -54392,12 +54392,12 @@
         <v>5549</v>
       </c>
       <c r="Q1295" t="s">
-        <v>3669</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1296" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1296" s="1" t="s">
-        <v>3670</v>
+        <v>3682</v>
       </c>
       <c r="C1296" t="s">
         <v>3495</v>
@@ -54412,12 +54412,12 @@
         <v>5549</v>
       </c>
       <c r="Q1296" t="s">
-        <v>3671</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1297" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1297" s="1" t="s">
-        <v>3672</v>
+        <v>6933</v>
       </c>
       <c r="C1297" t="s">
         <v>3495</v>
@@ -54432,12 +54432,12 @@
         <v>5549</v>
       </c>
       <c r="Q1297" t="s">
-        <v>3673</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="1298" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1298" s="1" t="s">
-        <v>3674</v>
+        <v>6935</v>
       </c>
       <c r="C1298" t="s">
         <v>3495</v>
@@ -54452,12 +54452,12 @@
         <v>5549</v>
       </c>
       <c r="Q1298" t="s">
-        <v>4993</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="1299" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1299" s="1" t="s">
-        <v>3675</v>
+        <v>6937</v>
       </c>
       <c r="C1299" t="s">
         <v>3495</v>
@@ -54472,12 +54472,12 @@
         <v>5549</v>
       </c>
       <c r="Q1299" t="s">
-        <v>4994</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="1300" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1300" s="1" t="s">
-        <v>3676</v>
+        <v>6939</v>
       </c>
       <c r="C1300" t="s">
         <v>3495</v>
@@ -54492,12 +54492,12 @@
         <v>5549</v>
       </c>
       <c r="Q1300" t="s">
-        <v>4995</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="1301" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1301" s="1" t="s">
-        <v>3677</v>
+        <v>6941</v>
       </c>
       <c r="C1301" t="s">
         <v>3495</v>
@@ -54512,12 +54512,12 @@
         <v>5549</v>
       </c>
       <c r="Q1301" t="s">
-        <v>4996</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="1302" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1302" s="1" t="s">
-        <v>3678</v>
+        <v>6943</v>
       </c>
       <c r="C1302" t="s">
         <v>3495</v>
@@ -54532,12 +54532,12 @@
         <v>5549</v>
       </c>
       <c r="Q1302" t="s">
-        <v>4997</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="1303" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1303" s="1" t="s">
-        <v>3679</v>
+        <v>6945</v>
       </c>
       <c r="C1303" t="s">
         <v>3495</v>
@@ -54552,12 +54552,12 @@
         <v>5549</v>
       </c>
       <c r="Q1303" t="s">
-        <v>3680</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="1304" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1304" s="1" t="s">
-        <v>3681</v>
+        <v>6947</v>
       </c>
       <c r="C1304" t="s">
         <v>3495</v>
@@ -54572,12 +54572,12 @@
         <v>5549</v>
       </c>
       <c r="Q1304" t="s">
-        <v>4606</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="1305" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1305" s="1" t="s">
-        <v>3682</v>
+        <v>6949</v>
       </c>
       <c r="C1305" t="s">
         <v>3495</v>
@@ -54592,12 +54592,12 @@
         <v>5549</v>
       </c>
       <c r="Q1305" t="s">
-        <v>3683</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="1306" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1306" s="1" t="s">
-        <v>6933</v>
+        <v>6951</v>
       </c>
       <c r="C1306" t="s">
         <v>3495</v>
@@ -54612,12 +54612,12 @@
         <v>5549</v>
       </c>
       <c r="Q1306" t="s">
-        <v>6934</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="1307" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1307" s="1" t="s">
-        <v>6935</v>
+        <v>6953</v>
       </c>
       <c r="C1307" t="s">
         <v>3495</v>
@@ -54632,209 +54632,263 @@
         <v>5549</v>
       </c>
       <c r="Q1307" t="s">
-        <v>6936</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="1308" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1308" s="1" t="s">
-        <v>6937</v>
+        <v>2668</v>
       </c>
       <c r="C1308" t="s">
-        <v>3495</v>
+        <v>2669</v>
       </c>
       <c r="D1308" s="1">
         <v>68000</v>
       </c>
-      <c r="E1308" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1308" t="s">
-        <v>5549</v>
+        <v>2670</v>
       </c>
       <c r="Q1308" t="s">
-        <v>6938</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="1309" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1309" s="1" t="s">
-        <v>6939</v>
+        <v>2691</v>
       </c>
       <c r="C1309" t="s">
-        <v>3495</v>
+        <v>2689</v>
       </c>
       <c r="D1309" s="1">
-        <v>68000</v>
+        <v>68010</v>
       </c>
       <c r="E1309" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L1309" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1309" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1309" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1309" t="s">
-        <v>6940</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="1310" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1310" s="1" t="s">
-        <v>6941</v>
+        <v>2688</v>
       </c>
       <c r="C1310" t="s">
-        <v>3495</v>
+        <v>2689</v>
       </c>
       <c r="D1310" s="1">
-        <v>68000</v>
+        <v>68010</v>
       </c>
       <c r="E1310" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L1310" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1310" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1310" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1310" t="s">
-        <v>6942</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="1311" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1311" s="1" t="s">
-        <v>6943</v>
+        <v>2690</v>
       </c>
       <c r="C1311" t="s">
-        <v>3495</v>
+        <v>2689</v>
       </c>
       <c r="D1311" s="1">
-        <v>68000</v>
+        <v>68010</v>
       </c>
       <c r="E1311" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L1311" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1311" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1311" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1311" t="s">
-        <v>6944</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="1312" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1312" s="1" t="s">
-        <v>6945</v>
+        <v>6487</v>
       </c>
       <c r="C1312" t="s">
-        <v>3495</v>
+        <v>2689</v>
       </c>
       <c r="D1312" s="1">
-        <v>68000</v>
+        <v>68010</v>
       </c>
       <c r="E1312" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L1312" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1312" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1312" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1312" t="s">
-        <v>6946</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="1313" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1313" s="1" t="s">
-        <v>6947</v>
+        <v>6488</v>
       </c>
       <c r="C1313" t="s">
-        <v>3495</v>
+        <v>2689</v>
       </c>
       <c r="D1313" s="1">
-        <v>68000</v>
+        <v>68010</v>
       </c>
       <c r="E1313" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L1313" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1313" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1313" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1313" t="s">
-        <v>6948</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="1314" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1314" s="1" t="s">
-        <v>6949</v>
+        <v>2692</v>
       </c>
       <c r="C1314" t="s">
-        <v>3495</v>
+        <v>2689</v>
       </c>
       <c r="D1314" s="1">
-        <v>68000</v>
+        <v>68010</v>
       </c>
       <c r="E1314" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L1314" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1314" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1314" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1314" t="s">
-        <v>6950</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="1315" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1315" s="1" t="s">
-        <v>6951</v>
+        <v>2693</v>
       </c>
       <c r="C1315" t="s">
-        <v>3495</v>
+        <v>2689</v>
       </c>
       <c r="D1315" s="1">
-        <v>68000</v>
+        <v>68010</v>
       </c>
       <c r="E1315" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L1315" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1315" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1315" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1315" t="s">
-        <v>6952</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="1316" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1316" s="1" t="s">
-        <v>6953</v>
+        <v>2694</v>
       </c>
       <c r="C1316" t="s">
-        <v>3495</v>
+        <v>2689</v>
       </c>
       <c r="D1316" s="1">
-        <v>68000</v>
+        <v>68010</v>
       </c>
       <c r="E1316" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L1316" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1316" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1316" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1316" t="s">
-        <v>6954</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="1317" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1317" s="1" t="s">
-        <v>2668</v>
+        <v>2695</v>
       </c>
       <c r="C1317" t="s">
-        <v>2669</v>
+        <v>2689</v>
       </c>
       <c r="D1317" s="1">
-        <v>68000</v>
+        <v>68010</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>351</v>
       </c>
       <c r="L1317" t="s">
-        <v>2670</v>
+        <v>5238</v>
+      </c>
+      <c r="M1317" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1317" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1317" t="s">
-        <v>2671</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="1318" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1318" s="1" t="s">
-        <v>2691</v>
+        <v>6490</v>
       </c>
       <c r="C1318" t="s">
         <v>2689</v>
@@ -54855,12 +54909,12 @@
         <v>3889</v>
       </c>
       <c r="Q1318" t="s">
-        <v>4870</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="1319" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1319" s="1" t="s">
-        <v>2688</v>
+        <v>2696</v>
       </c>
       <c r="C1319" t="s">
         <v>2689</v>
@@ -54881,12 +54935,12 @@
         <v>3889</v>
       </c>
       <c r="Q1319" t="s">
-        <v>4867</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1320" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1320" s="1" t="s">
-        <v>2690</v>
+        <v>2697</v>
       </c>
       <c r="C1320" t="s">
         <v>2689</v>
@@ -54907,18 +54961,18 @@
         <v>3889</v>
       </c>
       <c r="Q1320" t="s">
-        <v>4868</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="1321" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1321" s="1" t="s">
-        <v>6487</v>
+        <v>2698</v>
       </c>
       <c r="C1321" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1321" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1321" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1321" t="s">
         <v>351</v>
@@ -54927,24 +54981,24 @@
         <v>5238</v>
       </c>
       <c r="M1321" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="N1321" t="s">
         <v>3889</v>
       </c>
       <c r="Q1321" t="s">
-        <v>4869</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1322" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1322" s="1" t="s">
-        <v>6488</v>
+        <v>2701</v>
       </c>
       <c r="C1322" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1322" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1322" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1322" t="s">
         <v>351</v>
@@ -54953,24 +55007,21 @@
         <v>5238</v>
       </c>
       <c r="M1322" t="s">
-        <v>2534</v>
-      </c>
-      <c r="N1322" t="s">
-        <v>3889</v>
+        <v>2538</v>
       </c>
       <c r="Q1322" t="s">
-        <v>6489</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1323" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1323" s="1" t="s">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="C1323" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1323" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1323" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1323" t="s">
         <v>351</v>
@@ -54979,24 +55030,21 @@
         <v>5238</v>
       </c>
       <c r="M1323" t="s">
-        <v>2534</v>
-      </c>
-      <c r="N1323" t="s">
-        <v>3889</v>
+        <v>2538</v>
       </c>
       <c r="Q1323" t="s">
-        <v>4871</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1324" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1324" s="1" t="s">
-        <v>2693</v>
+        <v>6492</v>
       </c>
       <c r="C1324" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1324" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1324" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1324" t="s">
         <v>351</v>
@@ -55005,24 +55053,24 @@
         <v>5238</v>
       </c>
       <c r="M1324" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="N1324" t="s">
         <v>3889</v>
       </c>
       <c r="Q1324" t="s">
-        <v>4872</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="1325" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1325" s="1" t="s">
-        <v>2694</v>
+        <v>2703</v>
       </c>
       <c r="C1325" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1325" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1325" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1325" t="s">
         <v>351</v>
@@ -55031,24 +55079,24 @@
         <v>5238</v>
       </c>
       <c r="M1325" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="N1325" t="s">
         <v>3889</v>
       </c>
       <c r="Q1325" t="s">
-        <v>4873</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="1326" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1326" s="1" t="s">
-        <v>2695</v>
+        <v>2704</v>
       </c>
       <c r="C1326" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1326" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1326" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1326" t="s">
         <v>351</v>
@@ -55057,24 +55105,24 @@
         <v>5238</v>
       </c>
       <c r="M1326" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="N1326" t="s">
         <v>3889</v>
       </c>
       <c r="Q1326" t="s">
-        <v>4874</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1327" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1327" s="1" t="s">
-        <v>6490</v>
+        <v>2705</v>
       </c>
       <c r="C1327" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1327" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1327" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1327" t="s">
         <v>351</v>
@@ -55083,245 +55131,17 @@
         <v>5238</v>
       </c>
       <c r="M1327" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="N1327" t="s">
         <v>3889</v>
       </c>
       <c r="Q1327" t="s">
-        <v>6491</v>
-      </c>
-    </row>
-    <row r="1328" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1328" s="1" t="s">
-        <v>2696</v>
-      </c>
-      <c r="C1328" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1328" s="1">
-        <v>68010</v>
-      </c>
-      <c r="E1328" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1328" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1328" t="s">
-        <v>2534</v>
-      </c>
-      <c r="N1328" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1328" t="s">
-        <v>4875</v>
-      </c>
-    </row>
-    <row r="1329" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1329" s="1" t="s">
-        <v>2697</v>
-      </c>
-      <c r="C1329" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1329" s="1">
-        <v>68010</v>
-      </c>
-      <c r="E1329" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1329" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1329" t="s">
-        <v>2534</v>
-      </c>
-      <c r="N1329" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1329" t="s">
-        <v>4876</v>
-      </c>
-    </row>
-    <row r="1330" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1330" s="1" t="s">
-        <v>2698</v>
-      </c>
-      <c r="C1330" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1330" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1330" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1330" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1330" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1330" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1330" t="s">
-        <v>4877</v>
-      </c>
-    </row>
-    <row r="1331" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1331" s="1" t="s">
-        <v>2701</v>
-      </c>
-      <c r="C1331" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1331" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1331" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1331" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1331" t="s">
-        <v>2538</v>
-      </c>
-      <c r="Q1331" t="s">
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="1332" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1332" s="1" t="s">
-        <v>2702</v>
-      </c>
-      <c r="C1332" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1332" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1332" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1332" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1332" t="s">
-        <v>2538</v>
-      </c>
-      <c r="Q1332" t="s">
-        <v>4417</v>
-      </c>
-    </row>
-    <row r="1333" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1333" s="1" t="s">
-        <v>6492</v>
-      </c>
-      <c r="C1333" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1333" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1333" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1333" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1333" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1333" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1333" t="s">
-        <v>4878</v>
-      </c>
-    </row>
-    <row r="1334" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1334" s="1" t="s">
-        <v>2703</v>
-      </c>
-      <c r="C1334" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1334" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1334" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1334" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1334" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1334" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1334" t="s">
-        <v>4879</v>
-      </c>
-    </row>
-    <row r="1335" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1335" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="C1335" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1335" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1335" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1335" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1335" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1335" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1335" t="s">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="1336" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1336" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C1336" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1336" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1336" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1336" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1336" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1336" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1336" t="s">
         <v>4881</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:R1316"/>
+  <autoFilter ref="B1:R1307"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -55329,10 +55149,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q459"/>
+  <dimension ref="B1:Q468"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:XFD459"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="D470" sqref="D470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64803,6 +64623,186 @@
       </c>
       <c r="Q459" t="s">
         <v>4586</v>
+      </c>
+    </row>
+    <row r="460" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B460" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C460" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E460" t="s">
+        <v>2</v>
+      </c>
+      <c r="L460" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q460" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="461" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B461" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C461" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E461" t="s">
+        <v>2</v>
+      </c>
+      <c r="L461" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q461" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="462" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B462" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C462" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E462" t="s">
+        <v>2</v>
+      </c>
+      <c r="L462" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q462" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="463" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B463" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C463" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E463" t="s">
+        <v>2</v>
+      </c>
+      <c r="L463" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q463" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="464" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B464" s="1" t="s">
+        <v>6682</v>
+      </c>
+      <c r="C464" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E464" t="s">
+        <v>2</v>
+      </c>
+      <c r="L464" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q464" t="s">
+        <v>6683</v>
+      </c>
+    </row>
+    <row r="465" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B465" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C465" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L465" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M465" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q465" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="466" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B466" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C466" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L466" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M466" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q466" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="467" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B467" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C467" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L467" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M467" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q467" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="468" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B468" s="1" t="s">
+        <v>6798</v>
+      </c>
+      <c r="C468" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L468" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M468" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q468" t="s">
+        <v>6799</v>
       </c>
     </row>
   </sheetData>
@@ -64816,7 +64816,7 @@
   <dimension ref="B1:R1168"/>
   <sheetViews>
     <sheetView topLeftCell="A1131" workbookViewId="0">
-      <selection activeCell="A1168" sqref="A1168:XFD1168"/>
+      <selection activeCell="Q1163" sqref="Q1163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -21,9 +21,9 @@
     <sheet name="To Check" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1288</definedName>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1290</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1288</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25879,10 +25879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1310"/>
+  <dimension ref="B1:Q1308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="D324" sqref="D324"/>
+    <sheetView tabSelected="1" topLeftCell="A1125" workbookViewId="0">
+      <selection activeCell="C1136" sqref="C1136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51234,218 +51234,221 @@
     </row>
     <row r="1135" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1135" s="1" t="s">
-        <v>3439</v>
+        <v>3419</v>
       </c>
       <c r="C1135" t="s">
-        <v>3440</v>
+        <v>3420</v>
       </c>
       <c r="D1135" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E1135" t="s">
-        <v>3888</v>
+        <v>2426</v>
+      </c>
+      <c r="L1135" t="s">
+        <v>1155</v>
       </c>
       <c r="Q1135" t="s">
-        <v>3441</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="1136" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1136" s="1" t="s">
-        <v>3442</v>
+        <v>3422</v>
       </c>
       <c r="C1136" t="s">
-        <v>3440</v>
+        <v>3423</v>
       </c>
       <c r="D1136" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E1136" t="s">
-        <v>3888</v>
+        <v>2</v>
+      </c>
+      <c r="L1136" t="s">
+        <v>1155</v>
       </c>
       <c r="Q1136" t="s">
-        <v>3443</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1137" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1137" s="1" t="s">
-        <v>3419</v>
+        <v>3425</v>
       </c>
       <c r="C1137" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="D1137" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1137" t="s">
-        <v>2426</v>
       </c>
       <c r="L1137" t="s">
         <v>1155</v>
       </c>
       <c r="Q1137" t="s">
-        <v>3421</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="1138" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1138" s="1" t="s">
-        <v>3422</v>
+        <v>3444</v>
       </c>
       <c r="C1138" t="s">
-        <v>3423</v>
-      </c>
-      <c r="D1138" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1138" t="s">
-        <v>1155</v>
+        <v>3445</v>
+      </c>
+      <c r="D1138" s="1">
+        <v>8080</v>
       </c>
       <c r="Q1138" t="s">
-        <v>3424</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1139" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1139" s="1" t="s">
-        <v>3425</v>
+        <v>3447</v>
       </c>
       <c r="C1139" t="s">
-        <v>3423</v>
+        <v>3448</v>
       </c>
       <c r="D1139" s="1" t="s">
-        <v>2</v>
+        <v>3006</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G1139" t="s">
+        <v>3899</v>
       </c>
       <c r="L1139" t="s">
-        <v>1155</v>
+        <v>2605</v>
+      </c>
+      <c r="M1139" t="s">
+        <v>5238</v>
       </c>
       <c r="Q1139" t="s">
-        <v>3426</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1140" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1140" s="1" t="s">
-        <v>3444</v>
+        <v>3463</v>
       </c>
       <c r="C1140" t="s">
-        <v>3445</v>
+        <v>3464</v>
       </c>
       <c r="D1140" s="1">
         <v>8080</v>
       </c>
+      <c r="L1140" t="s">
+        <v>352</v>
+      </c>
       <c r="Q1140" t="s">
-        <v>3446</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1141" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1141" s="1" t="s">
-        <v>3447</v>
+        <v>3466</v>
       </c>
       <c r="C1141" t="s">
-        <v>3448</v>
+        <v>3356</v>
       </c>
       <c r="D1141" s="1" t="s">
-        <v>3006</v>
+        <v>2</v>
       </c>
       <c r="E1141" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F1141" t="s">
-        <v>3899</v>
-      </c>
-      <c r="G1141" t="s">
-        <v>3899</v>
+        <v>2426</v>
       </c>
       <c r="L1141" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M1141" t="s">
-        <v>5238</v>
+        <v>5070</v>
       </c>
       <c r="Q1141" t="s">
-        <v>4581</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1142" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1142" s="1" t="s">
-        <v>3463</v>
+        <v>3471</v>
       </c>
       <c r="C1142" t="s">
-        <v>3464</v>
+        <v>3472</v>
       </c>
       <c r="D1142" s="1">
-        <v>8080</v>
+        <v>68000</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>2426</v>
       </c>
       <c r="L1142" t="s">
-        <v>352</v>
+        <v>3954</v>
       </c>
       <c r="Q1142" t="s">
-        <v>3465</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="1143" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1143" s="1" t="s">
-        <v>3466</v>
+        <v>6914</v>
       </c>
       <c r="C1143" t="s">
-        <v>3356</v>
+        <v>6915</v>
       </c>
       <c r="D1143" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1143" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1143" t="s">
-        <v>5070</v>
+        <v>5238</v>
       </c>
       <c r="Q1143" t="s">
-        <v>3467</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="1144" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1144" s="1" t="s">
-        <v>3471</v>
+        <v>6917</v>
       </c>
       <c r="C1144" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D1144" s="1">
-        <v>68000</v>
+        <v>6915</v>
+      </c>
+      <c r="D1144" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1144" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1144" t="s">
-        <v>3954</v>
+        <v>5238</v>
       </c>
       <c r="Q1144" t="s">
-        <v>3473</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="1145" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1145" s="1" t="s">
-        <v>6914</v>
+        <v>6919</v>
       </c>
       <c r="C1145" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D1145" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1145" t="s">
-        <v>2</v>
-      </c>
       <c r="L1145" t="s">
-        <v>5238</v>
+        <v>55</v>
       </c>
       <c r="Q1145" t="s">
-        <v>6916</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="1146" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1146" s="1" t="s">
-        <v>6917</v>
+        <v>6922</v>
       </c>
       <c r="C1146" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D1146" s="1" t="s">
         <v>2</v>
@@ -51453,16 +51456,22 @@
       <c r="E1146" t="s">
         <v>2</v>
       </c>
+      <c r="F1146" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1146" t="s">
-        <v>5238</v>
+        <v>542</v>
+      </c>
+      <c r="M1146" t="s">
+        <v>55</v>
       </c>
       <c r="Q1146" t="s">
-        <v>6918</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="1147" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1147" s="1" t="s">
-        <v>6919</v>
+        <v>6924</v>
       </c>
       <c r="C1147" t="s">
         <v>6920</v>
@@ -51470,85 +51479,82 @@
       <c r="D1147" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1147" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1147" t="s">
+        <v>542</v>
+      </c>
+      <c r="M1147" t="s">
         <v>55</v>
       </c>
       <c r="Q1147" t="s">
-        <v>6921</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="1148" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1148" s="1" t="s">
-        <v>6922</v>
+        <v>6926</v>
       </c>
       <c r="C1148" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1148" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1148" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1148" t="s">
-        <v>2426</v>
+        <v>6927</v>
+      </c>
+      <c r="D1148" s="1">
+        <v>68000</v>
       </c>
       <c r="L1148" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1148" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q1148" t="s">
-        <v>6923</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="1149" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1149" s="1" t="s">
-        <v>6924</v>
+        <v>3494</v>
       </c>
       <c r="C1149" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1149" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D1149" s="1">
+        <v>68000</v>
       </c>
       <c r="E1149" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1149" t="s">
         <v>2426</v>
       </c>
       <c r="L1149" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1149" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q1149" t="s">
-        <v>6925</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="1150" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1150" s="1" t="s">
-        <v>6926</v>
+        <v>3497</v>
       </c>
       <c r="C1150" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D1150" s="1">
         <v>68000</v>
       </c>
+      <c r="E1150" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1150" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q1150" t="s">
-        <v>6928</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1151" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1151" s="1" t="s">
-        <v>3494</v>
+        <v>3498</v>
       </c>
       <c r="C1151" t="s">
         <v>3495</v>
@@ -51563,12 +51569,12 @@
         <v>5549</v>
       </c>
       <c r="Q1151" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1152" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1152" s="1" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="C1152" t="s">
         <v>3495</v>
@@ -51583,12 +51589,12 @@
         <v>5549</v>
       </c>
       <c r="Q1152" t="s">
-        <v>4587</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1153" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1153" s="1" t="s">
-        <v>3498</v>
+        <v>3502</v>
       </c>
       <c r="C1153" t="s">
         <v>3495</v>
@@ -51603,12 +51609,12 @@
         <v>5549</v>
       </c>
       <c r="Q1153" t="s">
-        <v>3499</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1154" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1154" s="1" t="s">
-        <v>3500</v>
+        <v>3504</v>
       </c>
       <c r="C1154" t="s">
         <v>3495</v>
@@ -51623,12 +51629,12 @@
         <v>5549</v>
       </c>
       <c r="Q1154" t="s">
-        <v>3501</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1155" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1155" s="1" t="s">
-        <v>3502</v>
+        <v>3506</v>
       </c>
       <c r="C1155" t="s">
         <v>3495</v>
@@ -51643,12 +51649,12 @@
         <v>5549</v>
       </c>
       <c r="Q1155" t="s">
-        <v>3503</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="1156" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1156" s="1" t="s">
-        <v>3504</v>
+        <v>6930</v>
       </c>
       <c r="C1156" t="s">
         <v>3495</v>
@@ -51663,12 +51669,12 @@
         <v>5549</v>
       </c>
       <c r="Q1156" t="s">
-        <v>3505</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="1157" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1157" s="1" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="C1157" t="s">
         <v>3495</v>
@@ -51683,12 +51689,12 @@
         <v>5549</v>
       </c>
       <c r="Q1157" t="s">
-        <v>6929</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="1158" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1158" s="1" t="s">
-        <v>6930</v>
+        <v>3508</v>
       </c>
       <c r="C1158" t="s">
         <v>3495</v>
@@ -51703,12 +51709,12 @@
         <v>5549</v>
       </c>
       <c r="Q1158" t="s">
-        <v>6931</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1159" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1159" s="1" t="s">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="C1159" t="s">
         <v>3495</v>
@@ -51723,12 +51729,12 @@
         <v>5549</v>
       </c>
       <c r="Q1159" t="s">
-        <v>4952</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1160" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1160" s="1" t="s">
-        <v>3508</v>
+        <v>3512</v>
       </c>
       <c r="C1160" t="s">
         <v>3495</v>
@@ -51743,12 +51749,12 @@
         <v>5549</v>
       </c>
       <c r="Q1160" t="s">
-        <v>3509</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1161" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1161" s="1" t="s">
-        <v>3510</v>
+        <v>3514</v>
       </c>
       <c r="C1161" t="s">
         <v>3495</v>
@@ -51763,12 +51769,12 @@
         <v>5549</v>
       </c>
       <c r="Q1161" t="s">
-        <v>3511</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1162" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1162" s="1" t="s">
-        <v>3512</v>
+        <v>3516</v>
       </c>
       <c r="C1162" t="s">
         <v>3495</v>
@@ -51783,12 +51789,12 @@
         <v>5549</v>
       </c>
       <c r="Q1162" t="s">
-        <v>3513</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1163" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1163" s="1" t="s">
-        <v>3514</v>
+        <v>3518</v>
       </c>
       <c r="C1163" t="s">
         <v>3495</v>
@@ -51803,12 +51809,12 @@
         <v>5549</v>
       </c>
       <c r="Q1163" t="s">
-        <v>3515</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1164" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1164" s="1" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="C1164" t="s">
         <v>3495</v>
@@ -51823,12 +51829,12 @@
         <v>5549</v>
       </c>
       <c r="Q1164" t="s">
-        <v>3517</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="1165" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1165" s="1" t="s">
-        <v>3518</v>
+        <v>3520</v>
       </c>
       <c r="C1165" t="s">
         <v>3495</v>
@@ -51843,12 +51849,12 @@
         <v>5549</v>
       </c>
       <c r="Q1165" t="s">
-        <v>4953</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1166" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1166" s="1" t="s">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="C1166" t="s">
         <v>3495</v>
@@ -51863,12 +51869,12 @@
         <v>5549</v>
       </c>
       <c r="Q1166" t="s">
-        <v>4954</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1167" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1167" s="1" t="s">
-        <v>3520</v>
+        <v>3524</v>
       </c>
       <c r="C1167" t="s">
         <v>3495</v>
@@ -51883,12 +51889,12 @@
         <v>5549</v>
       </c>
       <c r="Q1167" t="s">
-        <v>3521</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1168" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1168" s="1" t="s">
-        <v>3522</v>
+        <v>3526</v>
       </c>
       <c r="C1168" t="s">
         <v>3495</v>
@@ -51903,12 +51909,12 @@
         <v>5549</v>
       </c>
       <c r="Q1168" t="s">
-        <v>3523</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1169" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1169" s="1" t="s">
-        <v>3524</v>
+        <v>3528</v>
       </c>
       <c r="C1169" t="s">
         <v>3495</v>
@@ -51923,12 +51929,12 @@
         <v>5549</v>
       </c>
       <c r="Q1169" t="s">
-        <v>3525</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1170" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1170" s="1" t="s">
-        <v>3526</v>
+        <v>3530</v>
       </c>
       <c r="C1170" t="s">
         <v>3495</v>
@@ -51943,12 +51949,12 @@
         <v>5549</v>
       </c>
       <c r="Q1170" t="s">
-        <v>3527</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1171" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1171" s="1" t="s">
-        <v>3528</v>
+        <v>3532</v>
       </c>
       <c r="C1171" t="s">
         <v>3495</v>
@@ -51963,12 +51969,12 @@
         <v>5549</v>
       </c>
       <c r="Q1171" t="s">
-        <v>3529</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1172" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1172" s="1" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="C1172" t="s">
         <v>3495</v>
@@ -51983,12 +51989,12 @@
         <v>5549</v>
       </c>
       <c r="Q1172" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1173" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1173" s="1" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="C1173" t="s">
         <v>3495</v>
@@ -52003,12 +52009,12 @@
         <v>5549</v>
       </c>
       <c r="Q1173" t="s">
-        <v>4955</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1174" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1174" s="1" t="s">
-        <v>3533</v>
+        <v>3537</v>
       </c>
       <c r="C1174" t="s">
         <v>3495</v>
@@ -52023,12 +52029,12 @@
         <v>5549</v>
       </c>
       <c r="Q1174" t="s">
-        <v>3534</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1175" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1175" s="1" t="s">
-        <v>3535</v>
+        <v>3539</v>
       </c>
       <c r="C1175" t="s">
         <v>3495</v>
@@ -52043,12 +52049,12 @@
         <v>5549</v>
       </c>
       <c r="Q1175" t="s">
-        <v>3536</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="1176" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1176" s="1" t="s">
-        <v>3537</v>
+        <v>3540</v>
       </c>
       <c r="C1176" t="s">
         <v>3495</v>
@@ -52063,12 +52069,12 @@
         <v>5549</v>
       </c>
       <c r="Q1176" t="s">
-        <v>3538</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1177" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1177" s="1" t="s">
-        <v>3539</v>
+        <v>3541</v>
       </c>
       <c r="C1177" t="s">
         <v>3495</v>
@@ -52083,12 +52089,12 @@
         <v>5549</v>
       </c>
       <c r="Q1177" t="s">
-        <v>4956</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1178" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1178" s="1" t="s">
-        <v>3540</v>
+        <v>3542</v>
       </c>
       <c r="C1178" t="s">
         <v>3495</v>
@@ -52103,12 +52109,12 @@
         <v>5549</v>
       </c>
       <c r="Q1178" t="s">
-        <v>4588</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1179" s="1" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="C1179" t="s">
         <v>3495</v>
@@ -52123,12 +52129,12 @@
         <v>5549</v>
       </c>
       <c r="Q1179" t="s">
-        <v>4589</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1180" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1180" s="1" t="s">
-        <v>3542</v>
+        <v>3546</v>
       </c>
       <c r="C1180" t="s">
         <v>3495</v>
@@ -52143,12 +52149,12 @@
         <v>5549</v>
       </c>
       <c r="Q1180" t="s">
-        <v>3543</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1181" s="1" t="s">
-        <v>3544</v>
+        <v>3547</v>
       </c>
       <c r="C1181" t="s">
         <v>3495</v>
@@ -52163,12 +52169,12 @@
         <v>5549</v>
       </c>
       <c r="Q1181" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="1182" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1182" s="1" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
       <c r="C1182" t="s">
         <v>3495</v>
@@ -52183,12 +52189,12 @@
         <v>5549</v>
       </c>
       <c r="Q1182" t="s">
-        <v>4957</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1183" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1183" s="1" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="C1183" t="s">
         <v>3495</v>
@@ -52203,12 +52209,12 @@
         <v>5549</v>
       </c>
       <c r="Q1183" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1184" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1184" s="1" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="C1184" t="s">
         <v>3495</v>
@@ -52223,12 +52229,12 @@
         <v>5549</v>
       </c>
       <c r="Q1184" t="s">
-        <v>4590</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1185" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1185" s="1" t="s">
-        <v>3550</v>
+        <v>3554</v>
       </c>
       <c r="C1185" t="s">
         <v>3495</v>
@@ -52243,12 +52249,12 @@
         <v>5549</v>
       </c>
       <c r="Q1185" t="s">
-        <v>3551</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="1186" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1186" s="1" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="C1186" t="s">
         <v>3495</v>
@@ -52263,12 +52269,12 @@
         <v>5549</v>
       </c>
       <c r="Q1186" t="s">
-        <v>3553</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1187" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1187" s="1" t="s">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="C1187" t="s">
         <v>3495</v>
@@ -52283,12 +52289,12 @@
         <v>5549</v>
       </c>
       <c r="Q1187" t="s">
-        <v>4958</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1188" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1188" s="1" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="C1188" t="s">
         <v>3495</v>
@@ -52303,12 +52309,12 @@
         <v>5549</v>
       </c>
       <c r="Q1188" t="s">
-        <v>4591</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1189" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1189" s="1" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="C1189" t="s">
         <v>3495</v>
@@ -52323,12 +52329,12 @@
         <v>5549</v>
       </c>
       <c r="Q1189" t="s">
-        <v>3557</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1190" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1190" s="1" t="s">
-        <v>3558</v>
+        <v>3560</v>
       </c>
       <c r="C1190" t="s">
         <v>3495</v>
@@ -52343,12 +52349,12 @@
         <v>5549</v>
       </c>
       <c r="Q1190" t="s">
-        <v>4959</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1191" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1191" s="1" t="s">
-        <v>3559</v>
+        <v>3561</v>
       </c>
       <c r="C1191" t="s">
         <v>3495</v>
@@ -52363,12 +52369,12 @@
         <v>5549</v>
       </c>
       <c r="Q1191" t="s">
-        <v>4592</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="1192" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1192" s="1" t="s">
-        <v>3560</v>
+        <v>3562</v>
       </c>
       <c r="C1192" t="s">
         <v>3495</v>
@@ -52383,12 +52389,12 @@
         <v>5549</v>
       </c>
       <c r="Q1192" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1193" s="1" t="s">
-        <v>3561</v>
+        <v>3563</v>
       </c>
       <c r="C1193" t="s">
         <v>3495</v>
@@ -52403,12 +52409,12 @@
         <v>5549</v>
       </c>
       <c r="Q1193" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1194" s="1" t="s">
-        <v>3562</v>
+        <v>3564</v>
       </c>
       <c r="C1194" t="s">
         <v>3495</v>
@@ -52423,12 +52429,12 @@
         <v>5549</v>
       </c>
       <c r="Q1194" t="s">
-        <v>4594</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="1195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1195" s="1" t="s">
-        <v>3563</v>
+        <v>3565</v>
       </c>
       <c r="C1195" t="s">
         <v>3495</v>
@@ -52443,12 +52449,12 @@
         <v>5549</v>
       </c>
       <c r="Q1195" t="s">
-        <v>4961</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="1196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1196" s="1" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="C1196" t="s">
         <v>3495</v>
@@ -52463,12 +52469,12 @@
         <v>5549</v>
       </c>
       <c r="Q1196" t="s">
-        <v>4962</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1197" s="1" t="s">
-        <v>3565</v>
+        <v>3569</v>
       </c>
       <c r="C1197" t="s">
         <v>3495</v>
@@ -52483,12 +52489,12 @@
         <v>5549</v>
       </c>
       <c r="Q1197" t="s">
-        <v>3566</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="1198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1198" s="1" t="s">
-        <v>3567</v>
+        <v>3571</v>
       </c>
       <c r="C1198" t="s">
         <v>3495</v>
@@ -52503,12 +52509,12 @@
         <v>5549</v>
       </c>
       <c r="Q1198" t="s">
-        <v>3568</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1199" s="1" t="s">
-        <v>3569</v>
+        <v>3572</v>
       </c>
       <c r="C1199" t="s">
         <v>3495</v>
@@ -52523,12 +52529,12 @@
         <v>5549</v>
       </c>
       <c r="Q1199" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1200" s="1" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="C1200" t="s">
         <v>3495</v>
@@ -52543,12 +52549,12 @@
         <v>5549</v>
       </c>
       <c r="Q1200" t="s">
-        <v>4595</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1201" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1201" s="1" t="s">
-        <v>3572</v>
+        <v>3576</v>
       </c>
       <c r="C1201" t="s">
         <v>3495</v>
@@ -52563,12 +52569,12 @@
         <v>5549</v>
       </c>
       <c r="Q1201" t="s">
-        <v>3573</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1202" s="1" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="C1202" t="s">
         <v>3495</v>
@@ -52583,12 +52589,12 @@
         <v>5549</v>
       </c>
       <c r="Q1202" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1203" s="1" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="C1203" t="s">
         <v>3495</v>
@@ -52603,12 +52609,12 @@
         <v>5549</v>
       </c>
       <c r="Q1203" t="s">
-        <v>4963</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="1204" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1204" s="1" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="C1204" t="s">
         <v>3495</v>
@@ -52623,12 +52629,12 @@
         <v>5549</v>
       </c>
       <c r="Q1204" t="s">
-        <v>3578</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1205" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1205" s="1" t="s">
-        <v>3579</v>
+        <v>3581</v>
       </c>
       <c r="C1205" t="s">
         <v>3495</v>
@@ -52643,12 +52649,12 @@
         <v>5549</v>
       </c>
       <c r="Q1205" t="s">
-        <v>4964</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1206" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1206" s="1" t="s">
-        <v>3580</v>
+        <v>3582</v>
       </c>
       <c r="C1206" t="s">
         <v>3495</v>
@@ -52663,12 +52669,12 @@
         <v>5549</v>
       </c>
       <c r="Q1206" t="s">
-        <v>4965</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="1207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1207" s="1" t="s">
-        <v>3581</v>
+        <v>3583</v>
       </c>
       <c r="C1207" t="s">
         <v>3495</v>
@@ -52683,12 +52689,12 @@
         <v>5549</v>
       </c>
       <c r="Q1207" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1208" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1208" s="1" t="s">
-        <v>3582</v>
+        <v>3584</v>
       </c>
       <c r="C1208" t="s">
         <v>3495</v>
@@ -52703,12 +52709,12 @@
         <v>5549</v>
       </c>
       <c r="Q1208" t="s">
-        <v>4966</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1209" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1209" s="1" t="s">
-        <v>3583</v>
+        <v>3585</v>
       </c>
       <c r="C1209" t="s">
         <v>3495</v>
@@ -52723,12 +52729,12 @@
         <v>5549</v>
       </c>
       <c r="Q1209" t="s">
-        <v>4597</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="1210" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1210" s="1" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="C1210" t="s">
         <v>3495</v>
@@ -52743,12 +52749,12 @@
         <v>5549</v>
       </c>
       <c r="Q1210" t="s">
-        <v>4967</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1211" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1211" s="1" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="C1211" t="s">
         <v>3495</v>
@@ -52763,12 +52769,12 @@
         <v>5549</v>
       </c>
       <c r="Q1211" t="s">
-        <v>3586</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="1212" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1212" s="1" t="s">
-        <v>3587</v>
+        <v>3589</v>
       </c>
       <c r="C1212" t="s">
         <v>3495</v>
@@ -52783,12 +52789,12 @@
         <v>5549</v>
       </c>
       <c r="Q1212" t="s">
-        <v>4598</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="1213" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1213" s="1" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="C1213" t="s">
         <v>3495</v>
@@ -52803,12 +52809,12 @@
         <v>5549</v>
       </c>
       <c r="Q1213" t="s">
-        <v>4968</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1214" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1214" s="1" t="s">
-        <v>3589</v>
+        <v>3593</v>
       </c>
       <c r="C1214" t="s">
         <v>3495</v>
@@ -52823,12 +52829,12 @@
         <v>5549</v>
       </c>
       <c r="Q1214" t="s">
-        <v>3590</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1215" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1215" s="1" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="C1215" t="s">
         <v>3495</v>
@@ -52843,12 +52849,12 @@
         <v>5549</v>
       </c>
       <c r="Q1215" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1216" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1216" s="1" t="s">
-        <v>3593</v>
+        <v>3596</v>
       </c>
       <c r="C1216" t="s">
         <v>3495</v>
@@ -52863,12 +52869,12 @@
         <v>5549</v>
       </c>
       <c r="Q1216" t="s">
-        <v>4969</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="1217" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1217" s="1" t="s">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="C1217" t="s">
         <v>3495</v>
@@ -52883,12 +52889,12 @@
         <v>5549</v>
       </c>
       <c r="Q1217" t="s">
-        <v>3595</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1218" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1218" s="1" t="s">
-        <v>3596</v>
+        <v>3598</v>
       </c>
       <c r="C1218" t="s">
         <v>3495</v>
@@ -52903,12 +52909,12 @@
         <v>5549</v>
       </c>
       <c r="Q1218" t="s">
-        <v>4970</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1219" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1219" s="1" t="s">
-        <v>3597</v>
+        <v>3599</v>
       </c>
       <c r="C1219" t="s">
         <v>3495</v>
@@ -52923,12 +52929,12 @@
         <v>5549</v>
       </c>
       <c r="Q1219" t="s">
-        <v>4599</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1220" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1220" s="1" t="s">
-        <v>3598</v>
+        <v>3600</v>
       </c>
       <c r="C1220" t="s">
         <v>3495</v>
@@ -52943,12 +52949,12 @@
         <v>5549</v>
       </c>
       <c r="Q1220" t="s">
-        <v>4600</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="1221" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1221" s="1" t="s">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="C1221" t="s">
         <v>3495</v>
@@ -52963,12 +52969,12 @@
         <v>5549</v>
       </c>
       <c r="Q1221" t="s">
-        <v>4971</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1222" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1222" s="1" t="s">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="C1222" t="s">
         <v>3495</v>
@@ -52983,12 +52989,12 @@
         <v>5549</v>
       </c>
       <c r="Q1222" t="s">
-        <v>4972</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1223" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1223" s="1" t="s">
-        <v>3601</v>
+        <v>3604</v>
       </c>
       <c r="C1223" t="s">
         <v>3495</v>
@@ -53003,12 +53009,12 @@
         <v>5549</v>
       </c>
       <c r="Q1223" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1224" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1224" s="1" t="s">
-        <v>3603</v>
+        <v>6932</v>
       </c>
       <c r="C1224" t="s">
         <v>3495</v>
@@ -53023,12 +53029,12 @@
         <v>5549</v>
       </c>
       <c r="Q1224" t="s">
-        <v>4973</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="1225" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1225" s="1" t="s">
-        <v>3604</v>
+        <v>3607</v>
       </c>
       <c r="C1225" t="s">
         <v>3495</v>
@@ -53043,12 +53049,12 @@
         <v>5549</v>
       </c>
       <c r="Q1225" t="s">
-        <v>3605</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1226" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1226" s="1" t="s">
-        <v>6932</v>
+        <v>3609</v>
       </c>
       <c r="C1226" t="s">
         <v>3495</v>
@@ -53063,12 +53069,12 @@
         <v>5549</v>
       </c>
       <c r="Q1226" t="s">
-        <v>4974</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1227" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1227" s="1" t="s">
-        <v>3607</v>
+        <v>3611</v>
       </c>
       <c r="C1227" t="s">
         <v>3495</v>
@@ -53083,12 +53089,12 @@
         <v>5549</v>
       </c>
       <c r="Q1227" t="s">
-        <v>3608</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1228" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1228" s="1" t="s">
-        <v>3609</v>
+        <v>3612</v>
       </c>
       <c r="C1228" t="s">
         <v>3495</v>
@@ -53103,12 +53109,12 @@
         <v>5549</v>
       </c>
       <c r="Q1228" t="s">
-        <v>3610</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="1229" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1229" s="1" t="s">
-        <v>3611</v>
+        <v>3613</v>
       </c>
       <c r="C1229" t="s">
         <v>3495</v>
@@ -53123,12 +53129,12 @@
         <v>5549</v>
       </c>
       <c r="Q1229" t="s">
-        <v>4975</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1230" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1230" s="1" t="s">
-        <v>3612</v>
+        <v>3615</v>
       </c>
       <c r="C1230" t="s">
         <v>3495</v>
@@ -53143,12 +53149,12 @@
         <v>5549</v>
       </c>
       <c r="Q1230" t="s">
-        <v>4976</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="1231" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1231" s="1" t="s">
-        <v>3613</v>
+        <v>3617</v>
       </c>
       <c r="C1231" t="s">
         <v>3495</v>
@@ -53163,12 +53169,12 @@
         <v>5549</v>
       </c>
       <c r="Q1231" t="s">
-        <v>3614</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1232" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1232" s="1" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
       <c r="C1232" t="s">
         <v>3495</v>
@@ -53183,12 +53189,12 @@
         <v>5549</v>
       </c>
       <c r="Q1232" t="s">
-        <v>3616</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1233" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1233" s="1" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
       <c r="C1233" t="s">
         <v>3495</v>
@@ -53203,12 +53209,12 @@
         <v>5549</v>
       </c>
       <c r="Q1233" t="s">
-        <v>4977</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="1234" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1234" s="1" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
       <c r="C1234" t="s">
         <v>3495</v>
@@ -53223,12 +53229,12 @@
         <v>5549</v>
       </c>
       <c r="Q1234" t="s">
-        <v>3619</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1235" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1235" s="1" t="s">
-        <v>3620</v>
+        <v>3622</v>
       </c>
       <c r="C1235" t="s">
         <v>3495</v>
@@ -53243,12 +53249,12 @@
         <v>5549</v>
       </c>
       <c r="Q1235" t="s">
-        <v>4978</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="1236" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1236" s="1" t="s">
-        <v>3621</v>
+        <v>3623</v>
       </c>
       <c r="C1236" t="s">
         <v>3495</v>
@@ -53263,12 +53269,12 @@
         <v>5549</v>
       </c>
       <c r="Q1236" t="s">
-        <v>4979</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1237" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1237" s="1" t="s">
-        <v>3622</v>
+        <v>3624</v>
       </c>
       <c r="C1237" t="s">
         <v>3495</v>
@@ -53283,12 +53289,12 @@
         <v>5549</v>
       </c>
       <c r="Q1237" t="s">
-        <v>4980</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1238" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1238" s="1" t="s">
-        <v>3623</v>
+        <v>3625</v>
       </c>
       <c r="C1238" t="s">
         <v>3495</v>
@@ -53303,12 +53309,12 @@
         <v>5549</v>
       </c>
       <c r="Q1238" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1239" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1239" s="1" t="s">
-        <v>3624</v>
+        <v>3626</v>
       </c>
       <c r="C1239" t="s">
         <v>3495</v>
@@ -53323,12 +53329,12 @@
         <v>5549</v>
       </c>
       <c r="Q1239" t="s">
-        <v>4981</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1240" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1240" s="1" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="C1240" t="s">
         <v>3495</v>
@@ -53343,12 +53349,12 @@
         <v>5549</v>
       </c>
       <c r="Q1240" t="s">
-        <v>4602</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="1241" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1241" s="1" t="s">
-        <v>3626</v>
+        <v>3629</v>
       </c>
       <c r="C1241" t="s">
         <v>3495</v>
@@ -53363,12 +53369,12 @@
         <v>5549</v>
       </c>
       <c r="Q1241" t="s">
-        <v>3627</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1242" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1242" s="1" t="s">
-        <v>3628</v>
+        <v>3630</v>
       </c>
       <c r="C1242" t="s">
         <v>3495</v>
@@ -53383,12 +53389,12 @@
         <v>5549</v>
       </c>
       <c r="Q1242" t="s">
-        <v>4982</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1243" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1243" s="1" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="C1243" t="s">
         <v>3495</v>
@@ -53403,12 +53409,12 @@
         <v>5549</v>
       </c>
       <c r="Q1243" t="s">
-        <v>4603</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1244" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1244" s="1" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="C1244" t="s">
         <v>3495</v>
@@ -53423,12 +53429,12 @@
         <v>5549</v>
       </c>
       <c r="Q1244" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1245" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1245" s="1" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
       <c r="C1245" t="s">
         <v>3495</v>
@@ -53443,12 +53449,12 @@
         <v>5549</v>
       </c>
       <c r="Q1245" t="s">
-        <v>4983</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1246" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1246" s="1" t="s">
-        <v>3633</v>
+        <v>3637</v>
       </c>
       <c r="C1246" t="s">
         <v>3495</v>
@@ -53463,12 +53469,12 @@
         <v>5549</v>
       </c>
       <c r="Q1246" t="s">
-        <v>3634</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1247" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1247" s="1" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
       <c r="C1247" t="s">
         <v>3495</v>
@@ -53483,12 +53489,12 @@
         <v>5549</v>
       </c>
       <c r="Q1247" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1248" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1248" s="1" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
       <c r="C1248" t="s">
         <v>3495</v>
@@ -53503,12 +53509,12 @@
         <v>5549</v>
       </c>
       <c r="Q1248" t="s">
-        <v>4604</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="1249" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1249" s="1" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="C1249" t="s">
         <v>3495</v>
@@ -53523,12 +53529,12 @@
         <v>5549</v>
       </c>
       <c r="Q1249" t="s">
-        <v>3639</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1250" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1250" s="1" t="s">
-        <v>3640</v>
+        <v>3642</v>
       </c>
       <c r="C1250" t="s">
         <v>3495</v>
@@ -53543,12 +53549,12 @@
         <v>5549</v>
       </c>
       <c r="Q1250" t="s">
-        <v>4984</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1251" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1251" s="1" t="s">
-        <v>3641</v>
+        <v>3643</v>
       </c>
       <c r="C1251" t="s">
         <v>3495</v>
@@ -53563,12 +53569,12 @@
         <v>5549</v>
       </c>
       <c r="Q1251" t="s">
-        <v>4985</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="1252" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1252" s="1" t="s">
-        <v>3642</v>
+        <v>3644</v>
       </c>
       <c r="C1252" t="s">
         <v>3495</v>
@@ -53583,12 +53589,12 @@
         <v>5549</v>
       </c>
       <c r="Q1252" t="s">
-        <v>4605</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1253" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1253" s="1" t="s">
-        <v>3643</v>
+        <v>3645</v>
       </c>
       <c r="C1253" t="s">
         <v>3495</v>
@@ -53603,12 +53609,12 @@
         <v>5549</v>
       </c>
       <c r="Q1253" t="s">
-        <v>4986</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="1254" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1254" s="1" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="C1254" t="s">
         <v>3495</v>
@@ -53623,12 +53629,12 @@
         <v>5549</v>
       </c>
       <c r="Q1254" t="s">
-        <v>4987</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="1255" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1255" s="1" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
       <c r="C1255" t="s">
         <v>3495</v>
@@ -53643,12 +53649,12 @@
         <v>5549</v>
       </c>
       <c r="Q1255" t="s">
-        <v>3646</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1256" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1256" s="1" t="s">
-        <v>3647</v>
+        <v>3649</v>
       </c>
       <c r="C1256" t="s">
         <v>3495</v>
@@ -53663,12 +53669,12 @@
         <v>5549</v>
       </c>
       <c r="Q1256" t="s">
-        <v>4988</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1257" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1257" s="1" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="C1257" t="s">
         <v>3495</v>
@@ -53683,12 +53689,12 @@
         <v>5549</v>
       </c>
       <c r="Q1257" t="s">
-        <v>4989</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="1258" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1258" s="1" t="s">
-        <v>3649</v>
+        <v>3653</v>
       </c>
       <c r="C1258" t="s">
         <v>3495</v>
@@ -53703,12 +53709,12 @@
         <v>5549</v>
       </c>
       <c r="Q1258" t="s">
-        <v>3650</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1259" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1259" s="1" t="s">
-        <v>3651</v>
+        <v>3655</v>
       </c>
       <c r="C1259" t="s">
         <v>3495</v>
@@ -53723,12 +53729,12 @@
         <v>5549</v>
       </c>
       <c r="Q1259" t="s">
-        <v>3652</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="1260" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1260" s="1" t="s">
-        <v>3653</v>
+        <v>3657</v>
       </c>
       <c r="C1260" t="s">
         <v>3495</v>
@@ -53743,12 +53749,12 @@
         <v>5549</v>
       </c>
       <c r="Q1260" t="s">
-        <v>3654</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="1261" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1261" s="1" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="C1261" t="s">
         <v>3495</v>
@@ -53763,12 +53769,12 @@
         <v>5549</v>
       </c>
       <c r="Q1261" t="s">
-        <v>3656</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1262" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1262" s="1" t="s">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="C1262" t="s">
         <v>3495</v>
@@ -53783,12 +53789,12 @@
         <v>5549</v>
       </c>
       <c r="Q1262" t="s">
-        <v>4990</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1263" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1263" s="1" t="s">
-        <v>3658</v>
+        <v>3662</v>
       </c>
       <c r="C1263" t="s">
         <v>3495</v>
@@ -53803,12 +53809,12 @@
         <v>5549</v>
       </c>
       <c r="Q1263" t="s">
-        <v>3659</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1264" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1264" s="1" t="s">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="C1264" t="s">
         <v>3495</v>
@@ -53823,12 +53829,12 @@
         <v>5549</v>
       </c>
       <c r="Q1264" t="s">
-        <v>3661</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1265" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1265" s="1" t="s">
-        <v>3662</v>
+        <v>3665</v>
       </c>
       <c r="C1265" t="s">
         <v>3495</v>
@@ -53843,12 +53849,12 @@
         <v>5549</v>
       </c>
       <c r="Q1265" t="s">
-        <v>4991</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="1266" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1266" s="1" t="s">
-        <v>3663</v>
+        <v>3666</v>
       </c>
       <c r="C1266" t="s">
         <v>3495</v>
@@ -53863,12 +53869,12 @@
         <v>5549</v>
       </c>
       <c r="Q1266" t="s">
-        <v>3664</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1267" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1267" s="1" t="s">
-        <v>3665</v>
+        <v>3668</v>
       </c>
       <c r="C1267" t="s">
         <v>3495</v>
@@ -53883,12 +53889,12 @@
         <v>5549</v>
       </c>
       <c r="Q1267" t="s">
-        <v>4992</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1268" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1268" s="1" t="s">
-        <v>3666</v>
+        <v>3670</v>
       </c>
       <c r="C1268" t="s">
         <v>3495</v>
@@ -53903,12 +53909,12 @@
         <v>5549</v>
       </c>
       <c r="Q1268" t="s">
-        <v>3667</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1269" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1269" s="1" t="s">
-        <v>3668</v>
+        <v>3672</v>
       </c>
       <c r="C1269" t="s">
         <v>3495</v>
@@ -53923,12 +53929,12 @@
         <v>5549</v>
       </c>
       <c r="Q1269" t="s">
-        <v>3669</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1270" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1270" s="1" t="s">
-        <v>3670</v>
+        <v>3674</v>
       </c>
       <c r="C1270" t="s">
         <v>3495</v>
@@ -53943,12 +53949,12 @@
         <v>5549</v>
       </c>
       <c r="Q1270" t="s">
-        <v>3671</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1271" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1271" s="1" t="s">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="C1271" t="s">
         <v>3495</v>
@@ -53963,12 +53969,12 @@
         <v>5549</v>
       </c>
       <c r="Q1271" t="s">
-        <v>3673</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="1272" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1272" s="1" t="s">
-        <v>3674</v>
+        <v>3676</v>
       </c>
       <c r="C1272" t="s">
         <v>3495</v>
@@ -53983,12 +53989,12 @@
         <v>5549</v>
       </c>
       <c r="Q1272" t="s">
-        <v>4993</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1273" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1273" s="1" t="s">
-        <v>3675</v>
+        <v>3677</v>
       </c>
       <c r="C1273" t="s">
         <v>3495</v>
@@ -54003,12 +54009,12 @@
         <v>5549</v>
       </c>
       <c r="Q1273" t="s">
-        <v>4994</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="1274" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1274" s="1" t="s">
-        <v>3676</v>
+        <v>3678</v>
       </c>
       <c r="C1274" t="s">
         <v>3495</v>
@@ -54023,12 +54029,12 @@
         <v>5549</v>
       </c>
       <c r="Q1274" t="s">
-        <v>4995</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1275" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1275" s="1" t="s">
-        <v>3677</v>
+        <v>3679</v>
       </c>
       <c r="C1275" t="s">
         <v>3495</v>
@@ -54043,12 +54049,12 @@
         <v>5549</v>
       </c>
       <c r="Q1275" t="s">
-        <v>4996</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1276" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1276" s="1" t="s">
-        <v>3678</v>
+        <v>3681</v>
       </c>
       <c r="C1276" t="s">
         <v>3495</v>
@@ -54063,12 +54069,12 @@
         <v>5549</v>
       </c>
       <c r="Q1276" t="s">
-        <v>4997</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1277" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1277" s="1" t="s">
-        <v>3679</v>
+        <v>3682</v>
       </c>
       <c r="C1277" t="s">
         <v>3495</v>
@@ -54083,12 +54089,12 @@
         <v>5549</v>
       </c>
       <c r="Q1277" t="s">
-        <v>3680</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1278" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1278" s="1" t="s">
-        <v>3681</v>
+        <v>6933</v>
       </c>
       <c r="C1278" t="s">
         <v>3495</v>
@@ -54103,12 +54109,12 @@
         <v>5549</v>
       </c>
       <c r="Q1278" t="s">
-        <v>4606</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="1279" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1279" s="1" t="s">
-        <v>3682</v>
+        <v>6935</v>
       </c>
       <c r="C1279" t="s">
         <v>3495</v>
@@ -54123,12 +54129,12 @@
         <v>5549</v>
       </c>
       <c r="Q1279" t="s">
-        <v>3683</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="1280" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1280" s="1" t="s">
-        <v>6933</v>
+        <v>6937</v>
       </c>
       <c r="C1280" t="s">
         <v>3495</v>
@@ -54143,12 +54149,12 @@
         <v>5549</v>
       </c>
       <c r="Q1280" t="s">
-        <v>6934</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="1281" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1281" s="1" t="s">
-        <v>6935</v>
+        <v>6939</v>
       </c>
       <c r="C1281" t="s">
         <v>3495</v>
@@ -54163,12 +54169,12 @@
         <v>5549</v>
       </c>
       <c r="Q1281" t="s">
-        <v>6936</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="1282" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1282" s="1" t="s">
-        <v>6937</v>
+        <v>6941</v>
       </c>
       <c r="C1282" t="s">
         <v>3495</v>
@@ -54183,12 +54189,12 @@
         <v>5549</v>
       </c>
       <c r="Q1282" t="s">
-        <v>6938</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="1283" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1283" s="1" t="s">
-        <v>6939</v>
+        <v>6943</v>
       </c>
       <c r="C1283" t="s">
         <v>3495</v>
@@ -54203,12 +54209,12 @@
         <v>5549</v>
       </c>
       <c r="Q1283" t="s">
-        <v>6940</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="1284" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1284" s="1" t="s">
-        <v>6941</v>
+        <v>6945</v>
       </c>
       <c r="C1284" t="s">
         <v>3495</v>
@@ -54223,12 +54229,12 @@
         <v>5549</v>
       </c>
       <c r="Q1284" t="s">
-        <v>6942</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="1285" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1285" s="1" t="s">
-        <v>6943</v>
+        <v>6947</v>
       </c>
       <c r="C1285" t="s">
         <v>3495</v>
@@ -54243,12 +54249,12 @@
         <v>5549</v>
       </c>
       <c r="Q1285" t="s">
-        <v>6944</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="1286" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1286" s="1" t="s">
-        <v>6945</v>
+        <v>6949</v>
       </c>
       <c r="C1286" t="s">
         <v>3495</v>
@@ -54263,12 +54269,12 @@
         <v>5549</v>
       </c>
       <c r="Q1286" t="s">
-        <v>6946</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="1287" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1287" s="1" t="s">
-        <v>6947</v>
+        <v>6951</v>
       </c>
       <c r="C1287" t="s">
         <v>3495</v>
@@ -54283,12 +54289,12 @@
         <v>5549</v>
       </c>
       <c r="Q1287" t="s">
-        <v>6948</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="1288" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1288" s="1" t="s">
-        <v>6949</v>
+        <v>6953</v>
       </c>
       <c r="C1288" t="s">
         <v>3495</v>
@@ -54303,69 +54309,81 @@
         <v>5549</v>
       </c>
       <c r="Q1288" t="s">
-        <v>6950</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="1289" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1289" s="1" t="s">
-        <v>6951</v>
+        <v>2668</v>
       </c>
       <c r="C1289" t="s">
-        <v>3495</v>
+        <v>2669</v>
       </c>
       <c r="D1289" s="1">
         <v>68000</v>
       </c>
-      <c r="E1289" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1289" t="s">
-        <v>5549</v>
+        <v>2670</v>
       </c>
       <c r="Q1289" t="s">
-        <v>6952</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="1290" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1290" s="1" t="s">
-        <v>6953</v>
+        <v>2691</v>
       </c>
       <c r="C1290" t="s">
-        <v>3495</v>
+        <v>2689</v>
       </c>
       <c r="D1290" s="1">
-        <v>68000</v>
+        <v>68010</v>
       </c>
       <c r="E1290" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L1290" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1290" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1290" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1290" t="s">
-        <v>6954</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="1291" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1291" s="1" t="s">
-        <v>2668</v>
+        <v>2688</v>
       </c>
       <c r="C1291" t="s">
-        <v>2669</v>
+        <v>2689</v>
       </c>
       <c r="D1291" s="1">
-        <v>68000</v>
+        <v>68010</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>351</v>
       </c>
       <c r="L1291" t="s">
-        <v>2670</v>
+        <v>5238</v>
+      </c>
+      <c r="M1291" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1291" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1291" t="s">
-        <v>2671</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="1292" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1292" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C1292" t="s">
         <v>2689</v>
@@ -54386,12 +54404,12 @@
         <v>3889</v>
       </c>
       <c r="Q1292" t="s">
-        <v>4870</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="1293" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1293" s="1" t="s">
-        <v>2688</v>
+        <v>6487</v>
       </c>
       <c r="C1293" t="s">
         <v>2689</v>
@@ -54412,12 +54430,12 @@
         <v>3889</v>
       </c>
       <c r="Q1293" t="s">
-        <v>4867</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="1294" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1294" s="1" t="s">
-        <v>2690</v>
+        <v>6488</v>
       </c>
       <c r="C1294" t="s">
         <v>2689</v>
@@ -54438,12 +54456,12 @@
         <v>3889</v>
       </c>
       <c r="Q1294" t="s">
-        <v>4868</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="1295" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1295" s="1" t="s">
-        <v>6487</v>
+        <v>2692</v>
       </c>
       <c r="C1295" t="s">
         <v>2689</v>
@@ -54464,12 +54482,12 @@
         <v>3889</v>
       </c>
       <c r="Q1295" t="s">
-        <v>4869</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="1296" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1296" s="1" t="s">
-        <v>6488</v>
+        <v>2693</v>
       </c>
       <c r="C1296" t="s">
         <v>2689</v>
@@ -54490,12 +54508,12 @@
         <v>3889</v>
       </c>
       <c r="Q1296" t="s">
-        <v>6489</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="1297" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1297" s="1" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="C1297" t="s">
         <v>2689</v>
@@ -54516,12 +54534,12 @@
         <v>3889</v>
       </c>
       <c r="Q1297" t="s">
-        <v>4871</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="1298" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1298" s="1" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="C1298" t="s">
         <v>2689</v>
@@ -54542,12 +54560,12 @@
         <v>3889</v>
       </c>
       <c r="Q1298" t="s">
-        <v>4872</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="1299" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1299" s="1" t="s">
-        <v>2694</v>
+        <v>6490</v>
       </c>
       <c r="C1299" t="s">
         <v>2689</v>
@@ -54568,12 +54586,12 @@
         <v>3889</v>
       </c>
       <c r="Q1299" t="s">
-        <v>4873</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="1300" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1300" s="1" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="C1300" t="s">
         <v>2689</v>
@@ -54594,12 +54612,12 @@
         <v>3889</v>
       </c>
       <c r="Q1300" t="s">
-        <v>4874</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1301" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1301" s="1" t="s">
-        <v>6490</v>
+        <v>2697</v>
       </c>
       <c r="C1301" t="s">
         <v>2689</v>
@@ -54620,18 +54638,18 @@
         <v>3889</v>
       </c>
       <c r="Q1301" t="s">
-        <v>6491</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="1302" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1302" s="1" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="C1302" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1302" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1302" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1302" t="s">
         <v>351</v>
@@ -54640,24 +54658,24 @@
         <v>5238</v>
       </c>
       <c r="M1302" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="N1302" t="s">
         <v>3889</v>
       </c>
       <c r="Q1302" t="s">
-        <v>4875</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1303" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1303" s="1" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="C1303" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1303" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1303" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1303" t="s">
         <v>351</v>
@@ -54666,18 +54684,15 @@
         <v>5238</v>
       </c>
       <c r="M1303" t="s">
-        <v>2534</v>
-      </c>
-      <c r="N1303" t="s">
-        <v>3889</v>
+        <v>2538</v>
       </c>
       <c r="Q1303" t="s">
-        <v>4876</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1304" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1304" s="1" t="s">
-        <v>2698</v>
+        <v>2702</v>
       </c>
       <c r="C1304" t="s">
         <v>2699</v>
@@ -54694,16 +54709,13 @@
       <c r="M1304" t="s">
         <v>2538</v>
       </c>
-      <c r="N1304" t="s">
-        <v>3889</v>
-      </c>
       <c r="Q1304" t="s">
-        <v>4877</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1305" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1305" s="1" t="s">
-        <v>2701</v>
+        <v>6492</v>
       </c>
       <c r="C1305" t="s">
         <v>2699</v>
@@ -54720,13 +54732,16 @@
       <c r="M1305" t="s">
         <v>2538</v>
       </c>
+      <c r="N1305" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q1305" t="s">
-        <v>4416</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="1306" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1306" s="1" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="C1306" t="s">
         <v>2699</v>
@@ -54743,13 +54758,16 @@
       <c r="M1306" t="s">
         <v>2538</v>
       </c>
+      <c r="N1306" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q1306" t="s">
-        <v>4417</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="1307" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1307" s="1" t="s">
-        <v>6492</v>
+        <v>2704</v>
       </c>
       <c r="C1307" t="s">
         <v>2699</v>
@@ -54770,12 +54788,12 @@
         <v>3889</v>
       </c>
       <c r="Q1307" t="s">
-        <v>4878</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1308" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1308" s="1" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="C1308" t="s">
         <v>2699</v>
@@ -54796,63 +54814,11 @@
         <v>3889</v>
       </c>
       <c r="Q1308" t="s">
-        <v>4879</v>
-      </c>
-    </row>
-    <row r="1309" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1309" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="C1309" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1309" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1309" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1309" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1309" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1309" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1309" t="s">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="1310" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1310" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C1310" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1310" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1310" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1310" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1310" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1310" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1310" t="s">
         <v>4881</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:R1290"/>
+  <autoFilter ref="B1:R1288"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -54863,7 +54829,7 @@
   <dimension ref="B1:Q468"/>
   <sheetViews>
     <sheetView topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="D470" sqref="D470"/>
+      <selection activeCell="A469" sqref="A469:XFD470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64524,10 +64490,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R1185"/>
+  <dimension ref="B1:R1187"/>
   <sheetViews>
     <sheetView topLeftCell="A1171" workbookViewId="0">
-      <selection activeCell="A1181" sqref="A1181:XFD1185"/>
+      <selection activeCell="A1186" sqref="A1186:XFD1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -89788,6 +89754,40 @@
         <v>6170</v>
       </c>
     </row>
+    <row r="1186" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1186" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D1186" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>3888</v>
+      </c>
+      <c r="Q1186" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1187" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D1187" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>3888</v>
+      </c>
+      <c r="Q1187" t="s">
+        <v>3443</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -21,9 +21,9 @@
     <sheet name="To Check" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1288</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1285</definedName>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
-    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1288</definedName>
+    <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1285</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25879,10 +25879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1308"/>
+  <dimension ref="B1:Q1305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1125" workbookViewId="0">
-      <selection activeCell="C1136" sqref="C1136"/>
+    <sheetView tabSelected="1" topLeftCell="A1107" workbookViewId="0">
+      <selection activeCell="B1117" sqref="B1117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50805,212 +50805,218 @@
     </row>
     <row r="1117" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1117" s="1" t="s">
-        <v>6853</v>
+        <v>6858</v>
       </c>
       <c r="C1117" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D1117" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E1117" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>6862</v>
       </c>
       <c r="L1117" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M1117" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N1117" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O1117" t="s">
+        <v>6866</v>
       </c>
       <c r="Q1117" t="s">
-        <v>6855</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="1118" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1118" s="1" t="s">
-        <v>6856</v>
+        <v>6868</v>
       </c>
       <c r="C1118" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D1118" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E1118" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>6862</v>
       </c>
       <c r="L1118" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M1118" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N1118" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O1118" t="s">
+        <v>6866</v>
       </c>
       <c r="Q1118" t="s">
-        <v>6857</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="1119" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1119" s="1" t="s">
-        <v>3468</v>
+        <v>6870</v>
       </c>
       <c r="C1119" t="s">
-        <v>6854</v>
+        <v>6859</v>
       </c>
       <c r="D1119" s="1" t="s">
-        <v>3469</v>
+        <v>6860</v>
       </c>
       <c r="E1119" t="s">
-        <v>3794</v>
+        <v>6861</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>6862</v>
       </c>
       <c r="L1119" t="s">
-        <v>1900</v>
+        <v>6863</v>
+      </c>
+      <c r="M1119" t="s">
+        <v>6864</v>
+      </c>
+      <c r="N1119" t="s">
+        <v>6865</v>
+      </c>
+      <c r="O1119" t="s">
+        <v>6866</v>
       </c>
       <c r="Q1119" t="s">
-        <v>3470</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="1120" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1120" s="1" t="s">
-        <v>6858</v>
+        <v>6872</v>
       </c>
       <c r="C1120" t="s">
-        <v>6859</v>
+        <v>6873</v>
       </c>
       <c r="D1120" s="1" t="s">
-        <v>6860</v>
+        <v>2</v>
       </c>
       <c r="E1120" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F1120" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L1120" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M1120" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N1120" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O1120" t="s">
-        <v>6866</v>
+        <v>3974</v>
       </c>
       <c r="Q1120" t="s">
-        <v>6867</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="1121" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1121" s="1" t="s">
-        <v>6868</v>
+        <v>3490</v>
       </c>
       <c r="C1121" t="s">
-        <v>6859</v>
+        <v>6873</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>6860</v>
+        <v>2</v>
       </c>
       <c r="E1121" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F1121" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L1121" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M1121" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N1121" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O1121" t="s">
-        <v>6866</v>
+        <v>3974</v>
       </c>
       <c r="Q1121" t="s">
-        <v>6869</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="1122" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1122" s="1" t="s">
-        <v>6870</v>
+        <v>6876</v>
       </c>
       <c r="C1122" t="s">
-        <v>6859</v>
-      </c>
-      <c r="D1122" s="1" t="s">
-        <v>6860</v>
+        <v>6877</v>
+      </c>
+      <c r="D1122" s="1">
+        <v>68000</v>
       </c>
       <c r="E1122" t="s">
-        <v>6861</v>
-      </c>
-      <c r="F1122" t="s">
-        <v>6862</v>
+        <v>2426</v>
       </c>
       <c r="L1122" t="s">
-        <v>6863</v>
+        <v>5071</v>
       </c>
       <c r="M1122" t="s">
-        <v>6864</v>
-      </c>
-      <c r="N1122" t="s">
-        <v>6865</v>
-      </c>
-      <c r="O1122" t="s">
-        <v>6866</v>
+        <v>1687</v>
       </c>
       <c r="Q1122" t="s">
-        <v>6871</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="1123" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1123" s="1" t="s">
-        <v>6872</v>
+        <v>6879</v>
       </c>
       <c r="C1123" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D1123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1123" t="s">
-        <v>2426</v>
+        <v>6877</v>
+      </c>
+      <c r="D1123" s="1">
+        <v>68000</v>
       </c>
       <c r="L1123" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1123" t="s">
-        <v>3974</v>
+        <v>1687</v>
       </c>
       <c r="Q1123" t="s">
-        <v>6874</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="1124" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1124" s="1" t="s">
-        <v>3490</v>
+        <v>6881</v>
       </c>
       <c r="C1124" t="s">
-        <v>6873</v>
-      </c>
-      <c r="D1124" s="1" t="s">
-        <v>2</v>
+        <v>6882</v>
+      </c>
+      <c r="D1124" s="1">
+        <v>68000</v>
       </c>
       <c r="E1124" t="s">
         <v>2426</v>
       </c>
       <c r="L1124" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M1124" t="s">
         <v>5071</v>
       </c>
-      <c r="M1124" t="s">
-        <v>3974</v>
+      <c r="N1124" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1124" t="s">
-        <v>6875</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="1125" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1125" s="1" t="s">
-        <v>6876</v>
+        <v>6884</v>
       </c>
       <c r="C1125" t="s">
-        <v>6877</v>
+        <v>6882</v>
       </c>
       <c r="D1125" s="1">
         <v>68000</v>
@@ -51019,90 +51025,90 @@
         <v>2426</v>
       </c>
       <c r="L1125" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M1125" t="s">
         <v>5071</v>
       </c>
-      <c r="M1125" t="s">
+      <c r="N1125" t="s">
         <v>1687</v>
       </c>
       <c r="Q1125" t="s">
-        <v>6878</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="1126" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1126" s="1" t="s">
-        <v>6879</v>
+        <v>6886</v>
       </c>
       <c r="C1126" t="s">
-        <v>6877</v>
+        <v>6882</v>
       </c>
       <c r="D1126" s="1">
         <v>68000</v>
       </c>
+      <c r="E1126" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1126" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M1126" t="s">
+        <v>5071</v>
+      </c>
+      <c r="N1126" t="s">
         <v>1687</v>
       </c>
       <c r="Q1126" t="s">
-        <v>6880</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="1127" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1127" s="1" t="s">
-        <v>6881</v>
+        <v>6888</v>
       </c>
       <c r="C1127" t="s">
-        <v>6882</v>
+        <v>6889</v>
       </c>
       <c r="D1127" s="1">
         <v>68000</v>
       </c>
-      <c r="E1127" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1127" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M1127" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N1127" t="s">
         <v>1687</v>
       </c>
       <c r="Q1127" t="s">
-        <v>6883</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="1128" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1128" s="1" t="s">
-        <v>6884</v>
+        <v>6891</v>
       </c>
       <c r="C1128" t="s">
-        <v>6882</v>
+        <v>6889</v>
       </c>
       <c r="D1128" s="1">
         <v>68000</v>
       </c>
-      <c r="E1128" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1128" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M1128" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N1128" t="s">
         <v>1687</v>
       </c>
       <c r="Q1128" t="s">
-        <v>6885</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="1129" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1129" s="1" t="s">
-        <v>6886</v>
+        <v>6893</v>
       </c>
       <c r="C1129" t="s">
-        <v>6882</v>
+        <v>6894</v>
       </c>
       <c r="D1129" s="1">
         <v>68000</v>
@@ -51111,47 +51117,50 @@
         <v>2426</v>
       </c>
       <c r="L1129" t="s">
-        <v>5070</v>
+        <v>5238</v>
       </c>
       <c r="M1129" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N1129" t="s">
         <v>1687</v>
       </c>
       <c r="Q1129" t="s">
-        <v>6887</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="1130" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1130" s="1" t="s">
-        <v>6888</v>
+        <v>6896</v>
       </c>
       <c r="C1130" t="s">
-        <v>6889</v>
+        <v>6894</v>
       </c>
       <c r="D1130" s="1">
         <v>68000</v>
       </c>
+      <c r="E1130" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1130" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="M1130" t="s">
         <v>1687</v>
       </c>
       <c r="Q1130" t="s">
-        <v>6890</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="1131" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1131" s="1" t="s">
-        <v>6891</v>
+        <v>6898</v>
       </c>
       <c r="C1131" t="s">
-        <v>6889</v>
+        <v>6899</v>
       </c>
       <c r="D1131" s="1">
         <v>68000</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>2426</v>
       </c>
       <c r="L1131" t="s">
         <v>5071</v>
@@ -51160,238 +51169,226 @@
         <v>1687</v>
       </c>
       <c r="Q1131" t="s">
-        <v>6892</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="1132" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1132" s="1" t="s">
-        <v>6893</v>
+        <v>3419</v>
       </c>
       <c r="C1132" t="s">
-        <v>6894</v>
-      </c>
-      <c r="D1132" s="1">
-        <v>68000</v>
+        <v>3420</v>
+      </c>
+      <c r="D1132" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1132" t="s">
         <v>2426</v>
       </c>
       <c r="L1132" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1132" t="s">
-        <v>1687</v>
+        <v>1155</v>
       </c>
       <c r="Q1132" t="s">
-        <v>6895</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="1133" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1133" s="1" t="s">
-        <v>6896</v>
+        <v>3422</v>
       </c>
       <c r="C1133" t="s">
-        <v>6894</v>
-      </c>
-      <c r="D1133" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1133" t="s">
-        <v>2426</v>
+        <v>3423</v>
+      </c>
+      <c r="D1133" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1133" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1133" t="s">
-        <v>1687</v>
+        <v>1155</v>
       </c>
       <c r="Q1133" t="s">
-        <v>6897</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1134" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1134" s="1" t="s">
-        <v>6898</v>
+        <v>3425</v>
       </c>
       <c r="C1134" t="s">
-        <v>6899</v>
-      </c>
-      <c r="D1134" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1134" t="s">
-        <v>2426</v>
+        <v>3423</v>
+      </c>
+      <c r="D1134" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1134" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M1134" t="s">
-        <v>1687</v>
+        <v>1155</v>
       </c>
       <c r="Q1134" t="s">
-        <v>6900</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="1135" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1135" s="1" t="s">
-        <v>3419</v>
+        <v>3444</v>
       </c>
       <c r="C1135" t="s">
-        <v>3420</v>
-      </c>
-      <c r="D1135" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1135" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L1135" t="s">
-        <v>1155</v>
+        <v>3445</v>
+      </c>
+      <c r="D1135" s="1">
+        <v>8080</v>
       </c>
       <c r="Q1135" t="s">
-        <v>3421</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1136" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1136" s="1" t="s">
-        <v>3422</v>
+        <v>3447</v>
       </c>
       <c r="C1136" t="s">
-        <v>3423</v>
+        <v>3448</v>
       </c>
       <c r="D1136" s="1" t="s">
-        <v>2</v>
+        <v>3006</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G1136" t="s">
+        <v>3899</v>
       </c>
       <c r="L1136" t="s">
-        <v>1155</v>
+        <v>2605</v>
+      </c>
+      <c r="M1136" t="s">
+        <v>5238</v>
       </c>
       <c r="Q1136" t="s">
-        <v>3424</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1137" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1137" s="1" t="s">
-        <v>3425</v>
+        <v>3463</v>
       </c>
       <c r="C1137" t="s">
-        <v>3423</v>
-      </c>
-      <c r="D1137" s="1" t="s">
-        <v>2</v>
+        <v>3464</v>
+      </c>
+      <c r="D1137" s="1">
+        <v>8080</v>
       </c>
       <c r="L1137" t="s">
-        <v>1155</v>
+        <v>352</v>
       </c>
       <c r="Q1137" t="s">
-        <v>3426</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1138" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1138" s="1" t="s">
-        <v>3444</v>
+        <v>3466</v>
       </c>
       <c r="C1138" t="s">
-        <v>3445</v>
-      </c>
-      <c r="D1138" s="1">
-        <v>8080</v>
+        <v>3356</v>
+      </c>
+      <c r="D1138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L1138" t="s">
+        <v>5070</v>
       </c>
       <c r="Q1138" t="s">
-        <v>3446</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1139" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1139" s="1" t="s">
-        <v>3447</v>
+        <v>3471</v>
       </c>
       <c r="C1139" t="s">
-        <v>3448</v>
-      </c>
-      <c r="D1139" s="1" t="s">
-        <v>3006</v>
+        <v>3472</v>
+      </c>
+      <c r="D1139" s="1">
+        <v>68000</v>
       </c>
       <c r="E1139" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F1139" t="s">
-        <v>3899</v>
-      </c>
-      <c r="G1139" t="s">
-        <v>3899</v>
+        <v>2426</v>
       </c>
       <c r="L1139" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M1139" t="s">
-        <v>5238</v>
+        <v>3954</v>
       </c>
       <c r="Q1139" t="s">
-        <v>4581</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="1140" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1140" s="1" t="s">
-        <v>3463</v>
+        <v>6914</v>
       </c>
       <c r="C1140" t="s">
-        <v>3464</v>
-      </c>
-      <c r="D1140" s="1">
-        <v>8080</v>
+        <v>6915</v>
+      </c>
+      <c r="D1140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>2</v>
       </c>
       <c r="L1140" t="s">
-        <v>352</v>
+        <v>5238</v>
       </c>
       <c r="Q1140" t="s">
-        <v>3465</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="1141" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1141" s="1" t="s">
-        <v>3466</v>
+        <v>6917</v>
       </c>
       <c r="C1141" t="s">
-        <v>3356</v>
+        <v>6915</v>
       </c>
       <c r="D1141" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1141" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1141" t="s">
-        <v>5070</v>
+        <v>5238</v>
       </c>
       <c r="Q1141" t="s">
-        <v>3467</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="1142" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1142" s="1" t="s">
-        <v>3471</v>
+        <v>6919</v>
       </c>
       <c r="C1142" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D1142" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1142" t="s">
-        <v>2426</v>
+        <v>6920</v>
+      </c>
+      <c r="D1142" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L1142" t="s">
-        <v>3954</v>
+        <v>55</v>
       </c>
       <c r="Q1142" t="s">
-        <v>3473</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="1143" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1143" s="1" t="s">
-        <v>6914</v>
+        <v>6922</v>
       </c>
       <c r="C1143" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D1143" s="1" t="s">
         <v>2</v>
@@ -51399,19 +51396,25 @@
       <c r="E1143" t="s">
         <v>2</v>
       </c>
+      <c r="F1143" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1143" t="s">
-        <v>5238</v>
+        <v>542</v>
+      </c>
+      <c r="M1143" t="s">
+        <v>55</v>
       </c>
       <c r="Q1143" t="s">
-        <v>6916</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="1144" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1144" s="1" t="s">
-        <v>6917</v>
+        <v>6924</v>
       </c>
       <c r="C1144" t="s">
-        <v>6915</v>
+        <v>6920</v>
       </c>
       <c r="D1144" s="1" t="s">
         <v>2</v>
@@ -51419,102 +51422,99 @@
       <c r="E1144" t="s">
         <v>2</v>
       </c>
+      <c r="F1144" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1144" t="s">
-        <v>5238</v>
+        <v>542</v>
+      </c>
+      <c r="M1144" t="s">
+        <v>55</v>
       </c>
       <c r="Q1144" t="s">
-        <v>6918</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="1145" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1145" s="1" t="s">
-        <v>6919</v>
+        <v>6926</v>
       </c>
       <c r="C1145" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1145" s="1" t="s">
-        <v>2</v>
+        <v>6927</v>
+      </c>
+      <c r="D1145" s="1">
+        <v>68000</v>
       </c>
       <c r="L1145" t="s">
-        <v>55</v>
+        <v>1687</v>
       </c>
       <c r="Q1145" t="s">
-        <v>6921</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="1146" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1146" s="1" t="s">
-        <v>6922</v>
+        <v>3494</v>
       </c>
       <c r="C1146" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1146" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D1146" s="1">
+        <v>68000</v>
       </c>
       <c r="E1146" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1146" t="s">
         <v>2426</v>
       </c>
       <c r="L1146" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1146" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q1146" t="s">
-        <v>6923</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="1147" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1147" s="1" t="s">
-        <v>6924</v>
+        <v>3497</v>
       </c>
       <c r="C1147" t="s">
-        <v>6920</v>
-      </c>
-      <c r="D1147" s="1" t="s">
-        <v>2</v>
+        <v>3495</v>
+      </c>
+      <c r="D1147" s="1">
+        <v>68000</v>
       </c>
       <c r="E1147" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1147" t="s">
         <v>2426</v>
       </c>
       <c r="L1147" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1147" t="s">
-        <v>55</v>
+        <v>5549</v>
       </c>
       <c r="Q1147" t="s">
-        <v>6925</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1148" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1148" s="1" t="s">
-        <v>6926</v>
+        <v>3498</v>
       </c>
       <c r="C1148" t="s">
-        <v>6927</v>
+        <v>3495</v>
       </c>
       <c r="D1148" s="1">
         <v>68000</v>
       </c>
+      <c r="E1148" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1148" t="s">
-        <v>1687</v>
+        <v>5549</v>
       </c>
       <c r="Q1148" t="s">
-        <v>6928</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1149" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1149" s="1" t="s">
-        <v>3494</v>
+        <v>3500</v>
       </c>
       <c r="C1149" t="s">
         <v>3495</v>
@@ -51529,12 +51529,12 @@
         <v>5549</v>
       </c>
       <c r="Q1149" t="s">
-        <v>3496</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1150" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1150" s="1" t="s">
-        <v>3497</v>
+        <v>3502</v>
       </c>
       <c r="C1150" t="s">
         <v>3495</v>
@@ -51549,12 +51549,12 @@
         <v>5549</v>
       </c>
       <c r="Q1150" t="s">
-        <v>4587</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1151" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1151" s="1" t="s">
-        <v>3498</v>
+        <v>3504</v>
       </c>
       <c r="C1151" t="s">
         <v>3495</v>
@@ -51569,12 +51569,12 @@
         <v>5549</v>
       </c>
       <c r="Q1151" t="s">
-        <v>3499</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1152" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1152" s="1" t="s">
-        <v>3500</v>
+        <v>3506</v>
       </c>
       <c r="C1152" t="s">
         <v>3495</v>
@@ -51589,12 +51589,12 @@
         <v>5549</v>
       </c>
       <c r="Q1152" t="s">
-        <v>3501</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="1153" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1153" s="1" t="s">
-        <v>3502</v>
+        <v>6930</v>
       </c>
       <c r="C1153" t="s">
         <v>3495</v>
@@ -51609,12 +51609,12 @@
         <v>5549</v>
       </c>
       <c r="Q1153" t="s">
-        <v>3503</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="1154" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1154" s="1" t="s">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="C1154" t="s">
         <v>3495</v>
@@ -51629,12 +51629,12 @@
         <v>5549</v>
       </c>
       <c r="Q1154" t="s">
-        <v>3505</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="1155" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1155" s="1" t="s">
-        <v>3506</v>
+        <v>3508</v>
       </c>
       <c r="C1155" t="s">
         <v>3495</v>
@@ -51649,12 +51649,12 @@
         <v>5549</v>
       </c>
       <c r="Q1155" t="s">
-        <v>6929</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1156" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1156" s="1" t="s">
-        <v>6930</v>
+        <v>3510</v>
       </c>
       <c r="C1156" t="s">
         <v>3495</v>
@@ -51669,12 +51669,12 @@
         <v>5549</v>
       </c>
       <c r="Q1156" t="s">
-        <v>6931</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1157" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1157" s="1" t="s">
-        <v>3507</v>
+        <v>3512</v>
       </c>
       <c r="C1157" t="s">
         <v>3495</v>
@@ -51689,12 +51689,12 @@
         <v>5549</v>
       </c>
       <c r="Q1157" t="s">
-        <v>4952</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1158" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1158" s="1" t="s">
-        <v>3508</v>
+        <v>3514</v>
       </c>
       <c r="C1158" t="s">
         <v>3495</v>
@@ -51709,12 +51709,12 @@
         <v>5549</v>
       </c>
       <c r="Q1158" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1159" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1159" s="1" t="s">
-        <v>3510</v>
+        <v>3516</v>
       </c>
       <c r="C1159" t="s">
         <v>3495</v>
@@ -51729,12 +51729,12 @@
         <v>5549</v>
       </c>
       <c r="Q1159" t="s">
-        <v>3511</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1160" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1160" s="1" t="s">
-        <v>3512</v>
+        <v>3518</v>
       </c>
       <c r="C1160" t="s">
         <v>3495</v>
@@ -51749,12 +51749,12 @@
         <v>5549</v>
       </c>
       <c r="Q1160" t="s">
-        <v>3513</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1161" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1161" s="1" t="s">
-        <v>3514</v>
+        <v>3519</v>
       </c>
       <c r="C1161" t="s">
         <v>3495</v>
@@ -51769,12 +51769,12 @@
         <v>5549</v>
       </c>
       <c r="Q1161" t="s">
-        <v>3515</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="1162" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1162" s="1" t="s">
-        <v>3516</v>
+        <v>3520</v>
       </c>
       <c r="C1162" t="s">
         <v>3495</v>
@@ -51789,12 +51789,12 @@
         <v>5549</v>
       </c>
       <c r="Q1162" t="s">
-        <v>3517</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1163" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1163" s="1" t="s">
-        <v>3518</v>
+        <v>3522</v>
       </c>
       <c r="C1163" t="s">
         <v>3495</v>
@@ -51809,12 +51809,12 @@
         <v>5549</v>
       </c>
       <c r="Q1163" t="s">
-        <v>4953</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1164" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1164" s="1" t="s">
-        <v>3519</v>
+        <v>3524</v>
       </c>
       <c r="C1164" t="s">
         <v>3495</v>
@@ -51829,12 +51829,12 @@
         <v>5549</v>
       </c>
       <c r="Q1164" t="s">
-        <v>4954</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1165" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1165" s="1" t="s">
-        <v>3520</v>
+        <v>3526</v>
       </c>
       <c r="C1165" t="s">
         <v>3495</v>
@@ -51849,12 +51849,12 @@
         <v>5549</v>
       </c>
       <c r="Q1165" t="s">
-        <v>3521</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1166" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1166" s="1" t="s">
-        <v>3522</v>
+        <v>3528</v>
       </c>
       <c r="C1166" t="s">
         <v>3495</v>
@@ -51869,12 +51869,12 @@
         <v>5549</v>
       </c>
       <c r="Q1166" t="s">
-        <v>3523</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1167" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1167" s="1" t="s">
-        <v>3524</v>
+        <v>3530</v>
       </c>
       <c r="C1167" t="s">
         <v>3495</v>
@@ -51889,12 +51889,12 @@
         <v>5549</v>
       </c>
       <c r="Q1167" t="s">
-        <v>3525</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1168" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1168" s="1" t="s">
-        <v>3526</v>
+        <v>3532</v>
       </c>
       <c r="C1168" t="s">
         <v>3495</v>
@@ -51909,12 +51909,12 @@
         <v>5549</v>
       </c>
       <c r="Q1168" t="s">
-        <v>3527</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1169" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1169" s="1" t="s">
-        <v>3528</v>
+        <v>3533</v>
       </c>
       <c r="C1169" t="s">
         <v>3495</v>
@@ -51929,12 +51929,12 @@
         <v>5549</v>
       </c>
       <c r="Q1169" t="s">
-        <v>3529</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1170" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1170" s="1" t="s">
-        <v>3530</v>
+        <v>3535</v>
       </c>
       <c r="C1170" t="s">
         <v>3495</v>
@@ -51949,12 +51949,12 @@
         <v>5549</v>
       </c>
       <c r="Q1170" t="s">
-        <v>3531</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1171" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1171" s="1" t="s">
-        <v>3532</v>
+        <v>3537</v>
       </c>
       <c r="C1171" t="s">
         <v>3495</v>
@@ -51969,12 +51969,12 @@
         <v>5549</v>
       </c>
       <c r="Q1171" t="s">
-        <v>4955</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1172" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1172" s="1" t="s">
-        <v>3533</v>
+        <v>3539</v>
       </c>
       <c r="C1172" t="s">
         <v>3495</v>
@@ -51989,12 +51989,12 @@
         <v>5549</v>
       </c>
       <c r="Q1172" t="s">
-        <v>3534</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="1173" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1173" s="1" t="s">
-        <v>3535</v>
+        <v>3540</v>
       </c>
       <c r="C1173" t="s">
         <v>3495</v>
@@ -52009,12 +52009,12 @@
         <v>5549</v>
       </c>
       <c r="Q1173" t="s">
-        <v>3536</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1174" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1174" s="1" t="s">
-        <v>3537</v>
+        <v>3541</v>
       </c>
       <c r="C1174" t="s">
         <v>3495</v>
@@ -52029,12 +52029,12 @@
         <v>5549</v>
       </c>
       <c r="Q1174" t="s">
-        <v>3538</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1175" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1175" s="1" t="s">
-        <v>3539</v>
+        <v>3542</v>
       </c>
       <c r="C1175" t="s">
         <v>3495</v>
@@ -52049,12 +52049,12 @@
         <v>5549</v>
       </c>
       <c r="Q1175" t="s">
-        <v>4956</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1176" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1176" s="1" t="s">
-        <v>3540</v>
+        <v>3544</v>
       </c>
       <c r="C1176" t="s">
         <v>3495</v>
@@ -52069,12 +52069,12 @@
         <v>5549</v>
       </c>
       <c r="Q1176" t="s">
-        <v>4588</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1177" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1177" s="1" t="s">
-        <v>3541</v>
+        <v>3546</v>
       </c>
       <c r="C1177" t="s">
         <v>3495</v>
@@ -52089,12 +52089,12 @@
         <v>5549</v>
       </c>
       <c r="Q1177" t="s">
-        <v>4589</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1178" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1178" s="1" t="s">
-        <v>3542</v>
+        <v>3547</v>
       </c>
       <c r="C1178" t="s">
         <v>3495</v>
@@ -52109,12 +52109,12 @@
         <v>5549</v>
       </c>
       <c r="Q1178" t="s">
-        <v>3543</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="1179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1179" s="1" t="s">
-        <v>3544</v>
+        <v>3549</v>
       </c>
       <c r="C1179" t="s">
         <v>3495</v>
@@ -52129,12 +52129,12 @@
         <v>5549</v>
       </c>
       <c r="Q1179" t="s">
-        <v>3545</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1180" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1180" s="1" t="s">
-        <v>3546</v>
+        <v>3550</v>
       </c>
       <c r="C1180" t="s">
         <v>3495</v>
@@ -52149,12 +52149,12 @@
         <v>5549</v>
       </c>
       <c r="Q1180" t="s">
-        <v>4957</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1181" s="1" t="s">
-        <v>3547</v>
+        <v>3552</v>
       </c>
       <c r="C1181" t="s">
         <v>3495</v>
@@ -52169,12 +52169,12 @@
         <v>5549</v>
       </c>
       <c r="Q1181" t="s">
-        <v>3548</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1182" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1182" s="1" t="s">
-        <v>3549</v>
+        <v>3554</v>
       </c>
       <c r="C1182" t="s">
         <v>3495</v>
@@ -52189,12 +52189,12 @@
         <v>5549</v>
       </c>
       <c r="Q1182" t="s">
-        <v>4590</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="1183" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1183" s="1" t="s">
-        <v>3550</v>
+        <v>3555</v>
       </c>
       <c r="C1183" t="s">
         <v>3495</v>
@@ -52209,12 +52209,12 @@
         <v>5549</v>
       </c>
       <c r="Q1183" t="s">
-        <v>3551</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1184" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1184" s="1" t="s">
-        <v>3552</v>
+        <v>3556</v>
       </c>
       <c r="C1184" t="s">
         <v>3495</v>
@@ -52229,12 +52229,12 @@
         <v>5549</v>
       </c>
       <c r="Q1184" t="s">
-        <v>3553</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1185" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1185" s="1" t="s">
-        <v>3554</v>
+        <v>3558</v>
       </c>
       <c r="C1185" t="s">
         <v>3495</v>
@@ -52249,12 +52249,12 @@
         <v>5549</v>
       </c>
       <c r="Q1185" t="s">
-        <v>4958</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1186" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1186" s="1" t="s">
-        <v>3555</v>
+        <v>3559</v>
       </c>
       <c r="C1186" t="s">
         <v>3495</v>
@@ -52269,12 +52269,12 @@
         <v>5549</v>
       </c>
       <c r="Q1186" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1187" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1187" s="1" t="s">
-        <v>3556</v>
+        <v>3560</v>
       </c>
       <c r="C1187" t="s">
         <v>3495</v>
@@ -52289,12 +52289,12 @@
         <v>5549</v>
       </c>
       <c r="Q1187" t="s">
-        <v>3557</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1188" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1188" s="1" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="C1188" t="s">
         <v>3495</v>
@@ -52309,12 +52309,12 @@
         <v>5549</v>
       </c>
       <c r="Q1188" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="1189" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1189" s="1" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="C1189" t="s">
         <v>3495</v>
@@ -52329,12 +52329,12 @@
         <v>5549</v>
       </c>
       <c r="Q1189" t="s">
-        <v>4592</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1190" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1190" s="1" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
       <c r="C1190" t="s">
         <v>3495</v>
@@ -52349,12 +52349,12 @@
         <v>5549</v>
       </c>
       <c r="Q1190" t="s">
-        <v>4593</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1191" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1191" s="1" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="C1191" t="s">
         <v>3495</v>
@@ -52369,12 +52369,12 @@
         <v>5549</v>
       </c>
       <c r="Q1191" t="s">
-        <v>4960</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="1192" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1192" s="1" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="C1192" t="s">
         <v>3495</v>
@@ -52389,12 +52389,12 @@
         <v>5549</v>
       </c>
       <c r="Q1192" t="s">
-        <v>4594</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="1193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1193" s="1" t="s">
-        <v>3563</v>
+        <v>3567</v>
       </c>
       <c r="C1193" t="s">
         <v>3495</v>
@@ -52409,12 +52409,12 @@
         <v>5549</v>
       </c>
       <c r="Q1193" t="s">
-        <v>4961</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1194" s="1" t="s">
-        <v>3564</v>
+        <v>3569</v>
       </c>
       <c r="C1194" t="s">
         <v>3495</v>
@@ -52429,12 +52429,12 @@
         <v>5549</v>
       </c>
       <c r="Q1194" t="s">
-        <v>4962</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="1195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1195" s="1" t="s">
-        <v>3565</v>
+        <v>3571</v>
       </c>
       <c r="C1195" t="s">
         <v>3495</v>
@@ -52449,12 +52449,12 @@
         <v>5549</v>
       </c>
       <c r="Q1195" t="s">
-        <v>3566</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1196" s="1" t="s">
-        <v>3567</v>
+        <v>3572</v>
       </c>
       <c r="C1196" t="s">
         <v>3495</v>
@@ -52469,12 +52469,12 @@
         <v>5549</v>
       </c>
       <c r="Q1196" t="s">
-        <v>3568</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1197" s="1" t="s">
-        <v>3569</v>
+        <v>3574</v>
       </c>
       <c r="C1197" t="s">
         <v>3495</v>
@@ -52489,12 +52489,12 @@
         <v>5549</v>
       </c>
       <c r="Q1197" t="s">
-        <v>3570</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1198" s="1" t="s">
-        <v>3571</v>
+        <v>3576</v>
       </c>
       <c r="C1198" t="s">
         <v>3495</v>
@@ -52509,12 +52509,12 @@
         <v>5549</v>
       </c>
       <c r="Q1198" t="s">
-        <v>4595</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1199" s="1" t="s">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="C1199" t="s">
         <v>3495</v>
@@ -52529,12 +52529,12 @@
         <v>5549</v>
       </c>
       <c r="Q1199" t="s">
-        <v>3573</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1200" s="1" t="s">
-        <v>3574</v>
+        <v>3579</v>
       </c>
       <c r="C1200" t="s">
         <v>3495</v>
@@ -52549,12 +52549,12 @@
         <v>5549</v>
       </c>
       <c r="Q1200" t="s">
-        <v>3575</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="1201" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1201" s="1" t="s">
-        <v>3576</v>
+        <v>3580</v>
       </c>
       <c r="C1201" t="s">
         <v>3495</v>
@@ -52569,12 +52569,12 @@
         <v>5549</v>
       </c>
       <c r="Q1201" t="s">
-        <v>4963</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1202" s="1" t="s">
-        <v>3577</v>
+        <v>3581</v>
       </c>
       <c r="C1202" t="s">
         <v>3495</v>
@@ -52589,12 +52589,12 @@
         <v>5549</v>
       </c>
       <c r="Q1202" t="s">
-        <v>3578</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1203" s="1" t="s">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="C1203" t="s">
         <v>3495</v>
@@ -52609,12 +52609,12 @@
         <v>5549</v>
       </c>
       <c r="Q1203" t="s">
-        <v>4964</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="1204" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1204" s="1" t="s">
-        <v>3580</v>
+        <v>3583</v>
       </c>
       <c r="C1204" t="s">
         <v>3495</v>
@@ -52629,12 +52629,12 @@
         <v>5549</v>
       </c>
       <c r="Q1204" t="s">
-        <v>4965</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1205" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1205" s="1" t="s">
-        <v>3581</v>
+        <v>3584</v>
       </c>
       <c r="C1205" t="s">
         <v>3495</v>
@@ -52649,12 +52649,12 @@
         <v>5549</v>
       </c>
       <c r="Q1205" t="s">
-        <v>4596</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1206" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1206" s="1" t="s">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="C1206" t="s">
         <v>3495</v>
@@ -52669,12 +52669,12 @@
         <v>5549</v>
       </c>
       <c r="Q1206" t="s">
-        <v>4966</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="1207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1207" s="1" t="s">
-        <v>3583</v>
+        <v>3587</v>
       </c>
       <c r="C1207" t="s">
         <v>3495</v>
@@ -52689,12 +52689,12 @@
         <v>5549</v>
       </c>
       <c r="Q1207" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1208" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1208" s="1" t="s">
-        <v>3584</v>
+        <v>3588</v>
       </c>
       <c r="C1208" t="s">
         <v>3495</v>
@@ -52709,12 +52709,12 @@
         <v>5549</v>
       </c>
       <c r="Q1208" t="s">
-        <v>4967</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="1209" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1209" s="1" t="s">
-        <v>3585</v>
+        <v>3589</v>
       </c>
       <c r="C1209" t="s">
         <v>3495</v>
@@ -52729,12 +52729,12 @@
         <v>5549</v>
       </c>
       <c r="Q1209" t="s">
-        <v>3586</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="1210" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1210" s="1" t="s">
-        <v>3587</v>
+        <v>3591</v>
       </c>
       <c r="C1210" t="s">
         <v>3495</v>
@@ -52749,12 +52749,12 @@
         <v>5549</v>
       </c>
       <c r="Q1210" t="s">
-        <v>4598</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1211" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1211" s="1" t="s">
-        <v>3588</v>
+        <v>3593</v>
       </c>
       <c r="C1211" t="s">
         <v>3495</v>
@@ -52769,12 +52769,12 @@
         <v>5549</v>
       </c>
       <c r="Q1211" t="s">
-        <v>4968</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1212" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1212" s="1" t="s">
-        <v>3589</v>
+        <v>3594</v>
       </c>
       <c r="C1212" t="s">
         <v>3495</v>
@@ -52789,12 +52789,12 @@
         <v>5549</v>
       </c>
       <c r="Q1212" t="s">
-        <v>3590</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1213" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1213" s="1" t="s">
-        <v>3591</v>
+        <v>3596</v>
       </c>
       <c r="C1213" t="s">
         <v>3495</v>
@@ -52809,12 +52809,12 @@
         <v>5549</v>
       </c>
       <c r="Q1213" t="s">
-        <v>3592</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="1214" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1214" s="1" t="s">
-        <v>3593</v>
+        <v>3597</v>
       </c>
       <c r="C1214" t="s">
         <v>3495</v>
@@ -52829,12 +52829,12 @@
         <v>5549</v>
       </c>
       <c r="Q1214" t="s">
-        <v>4969</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1215" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1215" s="1" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="C1215" t="s">
         <v>3495</v>
@@ -52849,12 +52849,12 @@
         <v>5549</v>
       </c>
       <c r="Q1215" t="s">
-        <v>3595</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1216" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1216" s="1" t="s">
-        <v>3596</v>
+        <v>3599</v>
       </c>
       <c r="C1216" t="s">
         <v>3495</v>
@@ -52869,12 +52869,12 @@
         <v>5549</v>
       </c>
       <c r="Q1216" t="s">
-        <v>4970</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1217" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1217" s="1" t="s">
-        <v>3597</v>
+        <v>3600</v>
       </c>
       <c r="C1217" t="s">
         <v>3495</v>
@@ -52889,12 +52889,12 @@
         <v>5549</v>
       </c>
       <c r="Q1217" t="s">
-        <v>4599</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="1218" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1218" s="1" t="s">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="C1218" t="s">
         <v>3495</v>
@@ -52909,12 +52909,12 @@
         <v>5549</v>
       </c>
       <c r="Q1218" t="s">
-        <v>4600</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1219" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1219" s="1" t="s">
-        <v>3599</v>
+        <v>3603</v>
       </c>
       <c r="C1219" t="s">
         <v>3495</v>
@@ -52929,12 +52929,12 @@
         <v>5549</v>
       </c>
       <c r="Q1219" t="s">
-        <v>4971</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1220" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1220" s="1" t="s">
-        <v>3600</v>
+        <v>3604</v>
       </c>
       <c r="C1220" t="s">
         <v>3495</v>
@@ -52949,12 +52949,12 @@
         <v>5549</v>
       </c>
       <c r="Q1220" t="s">
-        <v>4972</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1221" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1221" s="1" t="s">
-        <v>3601</v>
+        <v>6932</v>
       </c>
       <c r="C1221" t="s">
         <v>3495</v>
@@ -52969,12 +52969,12 @@
         <v>5549</v>
       </c>
       <c r="Q1221" t="s">
-        <v>3602</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="1222" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1222" s="1" t="s">
-        <v>3603</v>
+        <v>3607</v>
       </c>
       <c r="C1222" t="s">
         <v>3495</v>
@@ -52989,12 +52989,12 @@
         <v>5549</v>
       </c>
       <c r="Q1222" t="s">
-        <v>4973</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1223" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1223" s="1" t="s">
-        <v>3604</v>
+        <v>3609</v>
       </c>
       <c r="C1223" t="s">
         <v>3495</v>
@@ -53009,12 +53009,12 @@
         <v>5549</v>
       </c>
       <c r="Q1223" t="s">
-        <v>3605</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1224" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1224" s="1" t="s">
-        <v>6932</v>
+        <v>3611</v>
       </c>
       <c r="C1224" t="s">
         <v>3495</v>
@@ -53029,12 +53029,12 @@
         <v>5549</v>
       </c>
       <c r="Q1224" t="s">
-        <v>4974</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1225" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1225" s="1" t="s">
-        <v>3607</v>
+        <v>3612</v>
       </c>
       <c r="C1225" t="s">
         <v>3495</v>
@@ -53049,12 +53049,12 @@
         <v>5549</v>
       </c>
       <c r="Q1225" t="s">
-        <v>3608</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="1226" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1226" s="1" t="s">
-        <v>3609</v>
+        <v>3613</v>
       </c>
       <c r="C1226" t="s">
         <v>3495</v>
@@ -53069,12 +53069,12 @@
         <v>5549</v>
       </c>
       <c r="Q1226" t="s">
-        <v>3610</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1227" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1227" s="1" t="s">
-        <v>3611</v>
+        <v>3615</v>
       </c>
       <c r="C1227" t="s">
         <v>3495</v>
@@ -53089,12 +53089,12 @@
         <v>5549</v>
       </c>
       <c r="Q1227" t="s">
-        <v>4975</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="1228" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1228" s="1" t="s">
-        <v>3612</v>
+        <v>3617</v>
       </c>
       <c r="C1228" t="s">
         <v>3495</v>
@@ -53109,12 +53109,12 @@
         <v>5549</v>
       </c>
       <c r="Q1228" t="s">
-        <v>4976</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1229" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1229" s="1" t="s">
-        <v>3613</v>
+        <v>3618</v>
       </c>
       <c r="C1229" t="s">
         <v>3495</v>
@@ -53129,12 +53129,12 @@
         <v>5549</v>
       </c>
       <c r="Q1229" t="s">
-        <v>3614</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1230" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1230" s="1" t="s">
-        <v>3615</v>
+        <v>3620</v>
       </c>
       <c r="C1230" t="s">
         <v>3495</v>
@@ -53149,12 +53149,12 @@
         <v>5549</v>
       </c>
       <c r="Q1230" t="s">
-        <v>3616</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="1231" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1231" s="1" t="s">
-        <v>3617</v>
+        <v>3621</v>
       </c>
       <c r="C1231" t="s">
         <v>3495</v>
@@ -53169,12 +53169,12 @@
         <v>5549</v>
       </c>
       <c r="Q1231" t="s">
-        <v>4977</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1232" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1232" s="1" t="s">
-        <v>3618</v>
+        <v>3622</v>
       </c>
       <c r="C1232" t="s">
         <v>3495</v>
@@ -53189,12 +53189,12 @@
         <v>5549</v>
       </c>
       <c r="Q1232" t="s">
-        <v>3619</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="1233" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1233" s="1" t="s">
-        <v>3620</v>
+        <v>3623</v>
       </c>
       <c r="C1233" t="s">
         <v>3495</v>
@@ -53209,12 +53209,12 @@
         <v>5549</v>
       </c>
       <c r="Q1233" t="s">
-        <v>4978</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1234" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1234" s="1" t="s">
-        <v>3621</v>
+        <v>3624</v>
       </c>
       <c r="C1234" t="s">
         <v>3495</v>
@@ -53229,12 +53229,12 @@
         <v>5549</v>
       </c>
       <c r="Q1234" t="s">
-        <v>4979</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1235" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1235" s="1" t="s">
-        <v>3622</v>
+        <v>3625</v>
       </c>
       <c r="C1235" t="s">
         <v>3495</v>
@@ -53249,12 +53249,12 @@
         <v>5549</v>
       </c>
       <c r="Q1235" t="s">
-        <v>4980</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1236" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1236" s="1" t="s">
-        <v>3623</v>
+        <v>3626</v>
       </c>
       <c r="C1236" t="s">
         <v>3495</v>
@@ -53269,12 +53269,12 @@
         <v>5549</v>
       </c>
       <c r="Q1236" t="s">
-        <v>4601</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1237" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1237" s="1" t="s">
-        <v>3624</v>
+        <v>3628</v>
       </c>
       <c r="C1237" t="s">
         <v>3495</v>
@@ -53289,12 +53289,12 @@
         <v>5549</v>
       </c>
       <c r="Q1237" t="s">
-        <v>4981</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="1238" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1238" s="1" t="s">
-        <v>3625</v>
+        <v>3629</v>
       </c>
       <c r="C1238" t="s">
         <v>3495</v>
@@ -53309,12 +53309,12 @@
         <v>5549</v>
       </c>
       <c r="Q1238" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1239" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1239" s="1" t="s">
-        <v>3626</v>
+        <v>3630</v>
       </c>
       <c r="C1239" t="s">
         <v>3495</v>
@@ -53329,12 +53329,12 @@
         <v>5549</v>
       </c>
       <c r="Q1239" t="s">
-        <v>3627</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1240" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1240" s="1" t="s">
-        <v>3628</v>
+        <v>3632</v>
       </c>
       <c r="C1240" t="s">
         <v>3495</v>
@@ -53349,12 +53349,12 @@
         <v>5549</v>
       </c>
       <c r="Q1240" t="s">
-        <v>4982</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1241" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1241" s="1" t="s">
-        <v>3629</v>
+        <v>3633</v>
       </c>
       <c r="C1241" t="s">
         <v>3495</v>
@@ -53369,12 +53369,12 @@
         <v>5549</v>
       </c>
       <c r="Q1241" t="s">
-        <v>4603</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1242" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1242" s="1" t="s">
-        <v>3630</v>
+        <v>3635</v>
       </c>
       <c r="C1242" t="s">
         <v>3495</v>
@@ -53389,12 +53389,12 @@
         <v>5549</v>
       </c>
       <c r="Q1242" t="s">
-        <v>3631</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1243" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1243" s="1" t="s">
-        <v>3632</v>
+        <v>3637</v>
       </c>
       <c r="C1243" t="s">
         <v>3495</v>
@@ -53409,12 +53409,12 @@
         <v>5549</v>
       </c>
       <c r="Q1243" t="s">
-        <v>4983</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1244" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1244" s="1" t="s">
-        <v>3633</v>
+        <v>3638</v>
       </c>
       <c r="C1244" t="s">
         <v>3495</v>
@@ -53429,12 +53429,12 @@
         <v>5549</v>
       </c>
       <c r="Q1244" t="s">
-        <v>3634</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1245" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1245" s="1" t="s">
-        <v>3635</v>
+        <v>3640</v>
       </c>
       <c r="C1245" t="s">
         <v>3495</v>
@@ -53449,12 +53449,12 @@
         <v>5549</v>
       </c>
       <c r="Q1245" t="s">
-        <v>3636</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="1246" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1246" s="1" t="s">
-        <v>3637</v>
+        <v>3641</v>
       </c>
       <c r="C1246" t="s">
         <v>3495</v>
@@ -53469,12 +53469,12 @@
         <v>5549</v>
       </c>
       <c r="Q1246" t="s">
-        <v>4604</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1247" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1247" s="1" t="s">
-        <v>3638</v>
+        <v>3642</v>
       </c>
       <c r="C1247" t="s">
         <v>3495</v>
@@ -53489,12 +53489,12 @@
         <v>5549</v>
       </c>
       <c r="Q1247" t="s">
-        <v>3639</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1248" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1248" s="1" t="s">
-        <v>3640</v>
+        <v>3643</v>
       </c>
       <c r="C1248" t="s">
         <v>3495</v>
@@ -53509,12 +53509,12 @@
         <v>5549</v>
       </c>
       <c r="Q1248" t="s">
-        <v>4984</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="1249" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1249" s="1" t="s">
-        <v>3641</v>
+        <v>3644</v>
       </c>
       <c r="C1249" t="s">
         <v>3495</v>
@@ -53529,12 +53529,12 @@
         <v>5549</v>
       </c>
       <c r="Q1249" t="s">
-        <v>4985</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1250" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1250" s="1" t="s">
-        <v>3642</v>
+        <v>3645</v>
       </c>
       <c r="C1250" t="s">
         <v>3495</v>
@@ -53549,12 +53549,12 @@
         <v>5549</v>
       </c>
       <c r="Q1250" t="s">
-        <v>4605</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="1251" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1251" s="1" t="s">
-        <v>3643</v>
+        <v>3647</v>
       </c>
       <c r="C1251" t="s">
         <v>3495</v>
@@ -53569,12 +53569,12 @@
         <v>5549</v>
       </c>
       <c r="Q1251" t="s">
-        <v>4986</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="1252" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1252" s="1" t="s">
-        <v>3644</v>
+        <v>3648</v>
       </c>
       <c r="C1252" t="s">
         <v>3495</v>
@@ -53589,12 +53589,12 @@
         <v>5549</v>
       </c>
       <c r="Q1252" t="s">
-        <v>4987</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1253" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1253" s="1" t="s">
-        <v>3645</v>
+        <v>3649</v>
       </c>
       <c r="C1253" t="s">
         <v>3495</v>
@@ -53609,12 +53609,12 @@
         <v>5549</v>
       </c>
       <c r="Q1253" t="s">
-        <v>3646</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1254" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1254" s="1" t="s">
-        <v>3647</v>
+        <v>3651</v>
       </c>
       <c r="C1254" t="s">
         <v>3495</v>
@@ -53629,12 +53629,12 @@
         <v>5549</v>
       </c>
       <c r="Q1254" t="s">
-        <v>4988</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="1255" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1255" s="1" t="s">
-        <v>3648</v>
+        <v>3653</v>
       </c>
       <c r="C1255" t="s">
         <v>3495</v>
@@ -53649,12 +53649,12 @@
         <v>5549</v>
       </c>
       <c r="Q1255" t="s">
-        <v>4989</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1256" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1256" s="1" t="s">
-        <v>3649</v>
+        <v>3655</v>
       </c>
       <c r="C1256" t="s">
         <v>3495</v>
@@ -53669,12 +53669,12 @@
         <v>5549</v>
       </c>
       <c r="Q1256" t="s">
-        <v>3650</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="1257" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1257" s="1" t="s">
-        <v>3651</v>
+        <v>3657</v>
       </c>
       <c r="C1257" t="s">
         <v>3495</v>
@@ -53689,12 +53689,12 @@
         <v>5549</v>
       </c>
       <c r="Q1257" t="s">
-        <v>3652</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="1258" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1258" s="1" t="s">
-        <v>3653</v>
+        <v>3658</v>
       </c>
       <c r="C1258" t="s">
         <v>3495</v>
@@ -53709,12 +53709,12 @@
         <v>5549</v>
       </c>
       <c r="Q1258" t="s">
-        <v>3654</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1259" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1259" s="1" t="s">
-        <v>3655</v>
+        <v>3660</v>
       </c>
       <c r="C1259" t="s">
         <v>3495</v>
@@ -53729,12 +53729,12 @@
         <v>5549</v>
       </c>
       <c r="Q1259" t="s">
-        <v>3656</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1260" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1260" s="1" t="s">
-        <v>3657</v>
+        <v>3662</v>
       </c>
       <c r="C1260" t="s">
         <v>3495</v>
@@ -53749,12 +53749,12 @@
         <v>5549</v>
       </c>
       <c r="Q1260" t="s">
-        <v>4990</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1261" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1261" s="1" t="s">
-        <v>3658</v>
+        <v>3663</v>
       </c>
       <c r="C1261" t="s">
         <v>3495</v>
@@ -53769,12 +53769,12 @@
         <v>5549</v>
       </c>
       <c r="Q1261" t="s">
-        <v>3659</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1262" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1262" s="1" t="s">
-        <v>3660</v>
+        <v>3665</v>
       </c>
       <c r="C1262" t="s">
         <v>3495</v>
@@ -53789,12 +53789,12 @@
         <v>5549</v>
       </c>
       <c r="Q1262" t="s">
-        <v>3661</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="1263" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1263" s="1" t="s">
-        <v>3662</v>
+        <v>3666</v>
       </c>
       <c r="C1263" t="s">
         <v>3495</v>
@@ -53809,12 +53809,12 @@
         <v>5549</v>
       </c>
       <c r="Q1263" t="s">
-        <v>4991</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1264" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1264" s="1" t="s">
-        <v>3663</v>
+        <v>3668</v>
       </c>
       <c r="C1264" t="s">
         <v>3495</v>
@@ -53829,12 +53829,12 @@
         <v>5549</v>
       </c>
       <c r="Q1264" t="s">
-        <v>3664</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1265" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1265" s="1" t="s">
-        <v>3665</v>
+        <v>3670</v>
       </c>
       <c r="C1265" t="s">
         <v>3495</v>
@@ -53849,12 +53849,12 @@
         <v>5549</v>
       </c>
       <c r="Q1265" t="s">
-        <v>4992</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1266" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1266" s="1" t="s">
-        <v>3666</v>
+        <v>3672</v>
       </c>
       <c r="C1266" t="s">
         <v>3495</v>
@@ -53869,12 +53869,12 @@
         <v>5549</v>
       </c>
       <c r="Q1266" t="s">
-        <v>3667</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1267" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1267" s="1" t="s">
-        <v>3668</v>
+        <v>3674</v>
       </c>
       <c r="C1267" t="s">
         <v>3495</v>
@@ -53889,12 +53889,12 @@
         <v>5549</v>
       </c>
       <c r="Q1267" t="s">
-        <v>3669</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1268" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1268" s="1" t="s">
-        <v>3670</v>
+        <v>3675</v>
       </c>
       <c r="C1268" t="s">
         <v>3495</v>
@@ -53909,12 +53909,12 @@
         <v>5549</v>
       </c>
       <c r="Q1268" t="s">
-        <v>3671</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="1269" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1269" s="1" t="s">
-        <v>3672</v>
+        <v>3676</v>
       </c>
       <c r="C1269" t="s">
         <v>3495</v>
@@ -53929,12 +53929,12 @@
         <v>5549</v>
       </c>
       <c r="Q1269" t="s">
-        <v>3673</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1270" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1270" s="1" t="s">
-        <v>3674</v>
+        <v>3677</v>
       </c>
       <c r="C1270" t="s">
         <v>3495</v>
@@ -53949,12 +53949,12 @@
         <v>5549</v>
       </c>
       <c r="Q1270" t="s">
-        <v>4993</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="1271" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1271" s="1" t="s">
-        <v>3675</v>
+        <v>3678</v>
       </c>
       <c r="C1271" t="s">
         <v>3495</v>
@@ -53969,12 +53969,12 @@
         <v>5549</v>
       </c>
       <c r="Q1271" t="s">
-        <v>4994</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1272" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1272" s="1" t="s">
-        <v>3676</v>
+        <v>3679</v>
       </c>
       <c r="C1272" t="s">
         <v>3495</v>
@@ -53989,12 +53989,12 @@
         <v>5549</v>
       </c>
       <c r="Q1272" t="s">
-        <v>4995</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1273" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1273" s="1" t="s">
-        <v>3677</v>
+        <v>3681</v>
       </c>
       <c r="C1273" t="s">
         <v>3495</v>
@@ -54009,12 +54009,12 @@
         <v>5549</v>
       </c>
       <c r="Q1273" t="s">
-        <v>4996</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1274" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1274" s="1" t="s">
-        <v>3678</v>
+        <v>3682</v>
       </c>
       <c r="C1274" t="s">
         <v>3495</v>
@@ -54029,12 +54029,12 @@
         <v>5549</v>
       </c>
       <c r="Q1274" t="s">
-        <v>4997</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1275" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1275" s="1" t="s">
-        <v>3679</v>
+        <v>6933</v>
       </c>
       <c r="C1275" t="s">
         <v>3495</v>
@@ -54049,12 +54049,12 @@
         <v>5549</v>
       </c>
       <c r="Q1275" t="s">
-        <v>3680</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="1276" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1276" s="1" t="s">
-        <v>3681</v>
+        <v>6935</v>
       </c>
       <c r="C1276" t="s">
         <v>3495</v>
@@ -54069,12 +54069,12 @@
         <v>5549</v>
       </c>
       <c r="Q1276" t="s">
-        <v>4606</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="1277" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1277" s="1" t="s">
-        <v>3682</v>
+        <v>6937</v>
       </c>
       <c r="C1277" t="s">
         <v>3495</v>
@@ -54089,12 +54089,12 @@
         <v>5549</v>
       </c>
       <c r="Q1277" t="s">
-        <v>3683</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="1278" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1278" s="1" t="s">
-        <v>6933</v>
+        <v>6939</v>
       </c>
       <c r="C1278" t="s">
         <v>3495</v>
@@ -54109,12 +54109,12 @@
         <v>5549</v>
       </c>
       <c r="Q1278" t="s">
-        <v>6934</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="1279" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1279" s="1" t="s">
-        <v>6935</v>
+        <v>6941</v>
       </c>
       <c r="C1279" t="s">
         <v>3495</v>
@@ -54129,12 +54129,12 @@
         <v>5549</v>
       </c>
       <c r="Q1279" t="s">
-        <v>6936</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="1280" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1280" s="1" t="s">
-        <v>6937</v>
+        <v>6943</v>
       </c>
       <c r="C1280" t="s">
         <v>3495</v>
@@ -54149,12 +54149,12 @@
         <v>5549</v>
       </c>
       <c r="Q1280" t="s">
-        <v>6938</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="1281" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1281" s="1" t="s">
-        <v>6939</v>
+        <v>6945</v>
       </c>
       <c r="C1281" t="s">
         <v>3495</v>
@@ -54169,12 +54169,12 @@
         <v>5549</v>
       </c>
       <c r="Q1281" t="s">
-        <v>6940</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="1282" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1282" s="1" t="s">
-        <v>6941</v>
+        <v>6947</v>
       </c>
       <c r="C1282" t="s">
         <v>3495</v>
@@ -54189,12 +54189,12 @@
         <v>5549</v>
       </c>
       <c r="Q1282" t="s">
-        <v>6942</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="1283" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1283" s="1" t="s">
-        <v>6943</v>
+        <v>6949</v>
       </c>
       <c r="C1283" t="s">
         <v>3495</v>
@@ -54209,12 +54209,12 @@
         <v>5549</v>
       </c>
       <c r="Q1283" t="s">
-        <v>6944</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="1284" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1284" s="1" t="s">
-        <v>6945</v>
+        <v>6951</v>
       </c>
       <c r="C1284" t="s">
         <v>3495</v>
@@ -54229,12 +54229,12 @@
         <v>5549</v>
       </c>
       <c r="Q1284" t="s">
-        <v>6946</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="1285" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1285" s="1" t="s">
-        <v>6947</v>
+        <v>6953</v>
       </c>
       <c r="C1285" t="s">
         <v>3495</v>
@@ -54249,89 +54249,107 @@
         <v>5549</v>
       </c>
       <c r="Q1285" t="s">
-        <v>6948</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="1286" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1286" s="1" t="s">
-        <v>6949</v>
+        <v>2668</v>
       </c>
       <c r="C1286" t="s">
-        <v>3495</v>
+        <v>2669</v>
       </c>
       <c r="D1286" s="1">
         <v>68000</v>
       </c>
-      <c r="E1286" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1286" t="s">
-        <v>5549</v>
+        <v>2670</v>
       </c>
       <c r="Q1286" t="s">
-        <v>6950</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="1287" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1287" s="1" t="s">
-        <v>6951</v>
+        <v>2691</v>
       </c>
       <c r="C1287" t="s">
-        <v>3495</v>
+        <v>2689</v>
       </c>
       <c r="D1287" s="1">
-        <v>68000</v>
+        <v>68010</v>
       </c>
       <c r="E1287" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L1287" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1287" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1287" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1287" t="s">
-        <v>6952</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="1288" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1288" s="1" t="s">
-        <v>6953</v>
+        <v>2688</v>
       </c>
       <c r="C1288" t="s">
-        <v>3495</v>
+        <v>2689</v>
       </c>
       <c r="D1288" s="1">
-        <v>68000</v>
+        <v>68010</v>
       </c>
       <c r="E1288" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L1288" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1288" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1288" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1288" t="s">
-        <v>6954</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="1289" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1289" s="1" t="s">
-        <v>2668</v>
+        <v>2690</v>
       </c>
       <c r="C1289" t="s">
-        <v>2669</v>
+        <v>2689</v>
       </c>
       <c r="D1289" s="1">
-        <v>68000</v>
+        <v>68010</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>351</v>
       </c>
       <c r="L1289" t="s">
-        <v>2670</v>
+        <v>5238</v>
+      </c>
+      <c r="M1289" t="s">
+        <v>2534</v>
+      </c>
+      <c r="N1289" t="s">
+        <v>3889</v>
       </c>
       <c r="Q1289" t="s">
-        <v>2671</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="1290" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1290" s="1" t="s">
-        <v>2691</v>
+        <v>6487</v>
       </c>
       <c r="C1290" t="s">
         <v>2689</v>
@@ -54352,12 +54370,12 @@
         <v>3889</v>
       </c>
       <c r="Q1290" t="s">
-        <v>4870</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="1291" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1291" s="1" t="s">
-        <v>2688</v>
+        <v>6488</v>
       </c>
       <c r="C1291" t="s">
         <v>2689</v>
@@ -54378,12 +54396,12 @@
         <v>3889</v>
       </c>
       <c r="Q1291" t="s">
-        <v>4867</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="1292" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1292" s="1" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="C1292" t="s">
         <v>2689</v>
@@ -54404,12 +54422,12 @@
         <v>3889</v>
       </c>
       <c r="Q1292" t="s">
-        <v>4868</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="1293" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1293" s="1" t="s">
-        <v>6487</v>
+        <v>2693</v>
       </c>
       <c r="C1293" t="s">
         <v>2689</v>
@@ -54430,12 +54448,12 @@
         <v>3889</v>
       </c>
       <c r="Q1293" t="s">
-        <v>4869</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="1294" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1294" s="1" t="s">
-        <v>6488</v>
+        <v>2694</v>
       </c>
       <c r="C1294" t="s">
         <v>2689</v>
@@ -54456,12 +54474,12 @@
         <v>3889</v>
       </c>
       <c r="Q1294" t="s">
-        <v>6489</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="1295" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1295" s="1" t="s">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="C1295" t="s">
         <v>2689</v>
@@ -54482,12 +54500,12 @@
         <v>3889</v>
       </c>
       <c r="Q1295" t="s">
-        <v>4871</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="1296" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1296" s="1" t="s">
-        <v>2693</v>
+        <v>6490</v>
       </c>
       <c r="C1296" t="s">
         <v>2689</v>
@@ -54508,12 +54526,12 @@
         <v>3889</v>
       </c>
       <c r="Q1296" t="s">
-        <v>4872</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="1297" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1297" s="1" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c r="C1297" t="s">
         <v>2689</v>
@@ -54534,12 +54552,12 @@
         <v>3889</v>
       </c>
       <c r="Q1297" t="s">
-        <v>4873</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1298" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1298" s="1" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="C1298" t="s">
         <v>2689</v>
@@ -54560,18 +54578,18 @@
         <v>3889</v>
       </c>
       <c r="Q1298" t="s">
-        <v>4874</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="1299" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1299" s="1" t="s">
-        <v>6490</v>
+        <v>2698</v>
       </c>
       <c r="C1299" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1299" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1299" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1299" t="s">
         <v>351</v>
@@ -54580,24 +54598,24 @@
         <v>5238</v>
       </c>
       <c r="M1299" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="N1299" t="s">
         <v>3889</v>
       </c>
       <c r="Q1299" t="s">
-        <v>6491</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1300" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1300" s="1" t="s">
-        <v>2696</v>
+        <v>2701</v>
       </c>
       <c r="C1300" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1300" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1300" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1300" t="s">
         <v>351</v>
@@ -54606,24 +54624,21 @@
         <v>5238</v>
       </c>
       <c r="M1300" t="s">
-        <v>2534</v>
-      </c>
-      <c r="N1300" t="s">
-        <v>3889</v>
+        <v>2538</v>
       </c>
       <c r="Q1300" t="s">
-        <v>4875</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1301" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1301" s="1" t="s">
-        <v>2697</v>
+        <v>2702</v>
       </c>
       <c r="C1301" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D1301" s="1">
-        <v>68010</v>
+        <v>2699</v>
+      </c>
+      <c r="D1301" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="E1301" t="s">
         <v>351</v>
@@ -54632,18 +54647,15 @@
         <v>5238</v>
       </c>
       <c r="M1301" t="s">
-        <v>2534</v>
-      </c>
-      <c r="N1301" t="s">
-        <v>3889</v>
+        <v>2538</v>
       </c>
       <c r="Q1301" t="s">
-        <v>4876</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1302" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1302" s="1" t="s">
-        <v>2698</v>
+        <v>6492</v>
       </c>
       <c r="C1302" t="s">
         <v>2699</v>
@@ -54664,12 +54676,12 @@
         <v>3889</v>
       </c>
       <c r="Q1302" t="s">
-        <v>4877</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="1303" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1303" s="1" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c r="C1303" t="s">
         <v>2699</v>
@@ -54686,13 +54698,16 @@
       <c r="M1303" t="s">
         <v>2538</v>
       </c>
+      <c r="N1303" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q1303" t="s">
-        <v>4416</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="1304" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1304" s="1" t="s">
-        <v>2702</v>
+        <v>2704</v>
       </c>
       <c r="C1304" t="s">
         <v>2699</v>
@@ -54709,13 +54724,16 @@
       <c r="M1304" t="s">
         <v>2538</v>
       </c>
+      <c r="N1304" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q1304" t="s">
-        <v>4417</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1305" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1305" s="1" t="s">
-        <v>6492</v>
+        <v>2705</v>
       </c>
       <c r="C1305" t="s">
         <v>2699</v>
@@ -54736,89 +54754,11 @@
         <v>3889</v>
       </c>
       <c r="Q1305" t="s">
-        <v>4878</v>
-      </c>
-    </row>
-    <row r="1306" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1306" s="1" t="s">
-        <v>2703</v>
-      </c>
-      <c r="C1306" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1306" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1306" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1306" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1306" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1306" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1306" t="s">
-        <v>4879</v>
-      </c>
-    </row>
-    <row r="1307" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1307" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="C1307" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1307" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1307" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1307" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1307" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1307" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1307" t="s">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="1308" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1308" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C1308" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1308" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E1308" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1308" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1308" t="s">
-        <v>2538</v>
-      </c>
-      <c r="N1308" t="s">
-        <v>3889</v>
-      </c>
-      <c r="Q1308" t="s">
         <v>4881</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:R1288"/>
+  <autoFilter ref="B1:R1285"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -64490,10 +64430,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R1187"/>
+  <dimension ref="B1:R1190"/>
   <sheetViews>
     <sheetView topLeftCell="A1171" workbookViewId="0">
-      <selection activeCell="A1186" sqref="A1186:XFD1187"/>
+      <selection activeCell="A1188" sqref="A1188:XFD1190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -89788,6 +89728,66 @@
         <v>3443</v>
       </c>
     </row>
+    <row r="1188" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1188" s="1" t="s">
+        <v>6853</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>6854</v>
+      </c>
+      <c r="D1188" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L1188" t="s">
+        <v>1900</v>
+      </c>
+      <c r="Q1188" t="s">
+        <v>6855</v>
+      </c>
+    </row>
+    <row r="1189" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1189" s="1" t="s">
+        <v>6856</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>6854</v>
+      </c>
+      <c r="D1189" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L1189" t="s">
+        <v>1900</v>
+      </c>
+      <c r="Q1189" t="s">
+        <v>6857</v>
+      </c>
+    </row>
+    <row r="1190" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1190" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>6854</v>
+      </c>
+      <c r="D1190" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L1190" t="s">
+        <v>1900</v>
+      </c>
+      <c r="Q1190" t="s">
+        <v>3470</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -64352,10 +64352,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q532"/>
+  <dimension ref="B1:Q533"/>
   <sheetViews>
-    <sheetView topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="C533" sqref="C533"/>
+    <sheetView topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="A533" sqref="A533:XFD533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -75310,6 +75310,20 @@
       </c>
       <c r="Q532" t="s">
         <v>549</v>
+      </c>
+    </row>
+    <row r="533" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B533" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C533" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q533" t="s">
+        <v>2602</v>
       </c>
     </row>
   </sheetData>
@@ -75320,10 +75334,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q679"/>
+  <dimension ref="B1:Q678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C269" sqref="C269"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="A336" sqref="A336:XFD336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -82502,35 +82516,41 @@
     </row>
     <row r="336" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B336" s="1" t="s">
-        <v>2600</v>
+        <v>2628</v>
       </c>
       <c r="C336" t="s">
-        <v>2601</v>
+        <v>2629</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>351</v>
       </c>
       <c r="Q336" t="s">
-        <v>2602</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="337" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B337" s="1" t="s">
-        <v>2628</v>
+        <v>2547</v>
       </c>
       <c r="C337" t="s">
-        <v>2629</v>
+        <v>2528</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="L337" t="s">
+        <v>6479</v>
+      </c>
+      <c r="M337" t="s">
+        <v>6480</v>
+      </c>
       <c r="Q337" t="s">
-        <v>2630</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="338" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B338" s="1" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="C338" t="s">
         <v>2528</v>
@@ -82545,12 +82565,12 @@
         <v>6480</v>
       </c>
       <c r="Q338" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="339" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B339" s="1" t="s">
-        <v>2549</v>
+        <v>2527</v>
       </c>
       <c r="C339" t="s">
         <v>2528</v>
@@ -82565,12 +82585,12 @@
         <v>6480</v>
       </c>
       <c r="Q339" t="s">
-        <v>2550</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="340" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B340" s="1" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="C340" t="s">
         <v>2528</v>
@@ -82585,12 +82605,12 @@
         <v>6480</v>
       </c>
       <c r="Q340" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="341" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B341" s="1" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="C341" t="s">
         <v>2528</v>
@@ -82605,12 +82625,12 @@
         <v>6480</v>
       </c>
       <c r="Q341" t="s">
-        <v>2531</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="342" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B342" s="1" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="C342" t="s">
         <v>2528</v>
@@ -82619,18 +82639,21 @@
         <v>351</v>
       </c>
       <c r="L342" t="s">
+        <v>2534</v>
+      </c>
+      <c r="M342" t="s">
         <v>6479</v>
       </c>
-      <c r="M342" t="s">
+      <c r="N342" t="s">
         <v>6480</v>
       </c>
       <c r="Q342" t="s">
-        <v>4866</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="343" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B343" s="1" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="C343" t="s">
         <v>2528</v>
@@ -82648,75 +82671,69 @@
         <v>6480</v>
       </c>
       <c r="Q343" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="344" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B344" s="1" t="s">
-        <v>2535</v>
+        <v>6484</v>
       </c>
       <c r="C344" t="s">
-        <v>2528</v>
+        <v>6485</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>351</v>
       </c>
       <c r="L344" t="s">
-        <v>2534</v>
-      </c>
-      <c r="M344" t="s">
-        <v>6479</v>
-      </c>
-      <c r="N344" t="s">
-        <v>6480</v>
+        <v>2538</v>
       </c>
       <c r="Q344" t="s">
-        <v>4401</v>
+        <v>6486</v>
       </c>
     </row>
     <row r="345" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B345" s="1" t="s">
-        <v>6484</v>
+        <v>2686</v>
       </c>
       <c r="C345" t="s">
-        <v>6485</v>
+        <v>2687</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="E345" t="s">
+        <v>351</v>
+      </c>
       <c r="L345" t="s">
-        <v>2538</v>
+        <v>3437</v>
+      </c>
+      <c r="M345" t="s">
+        <v>3889</v>
       </c>
       <c r="Q345" t="s">
-        <v>6486</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="346" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B346" s="1" t="s">
-        <v>2686</v>
+        <v>2897</v>
       </c>
       <c r="C346" t="s">
-        <v>2687</v>
+        <v>2898</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E346" t="s">
-        <v>351</v>
-      </c>
       <c r="L346" t="s">
-        <v>3437</v>
-      </c>
-      <c r="M346" t="s">
-        <v>3889</v>
+        <v>1155</v>
       </c>
       <c r="Q346" t="s">
-        <v>4415</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="347" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B347" s="1" t="s">
-        <v>2897</v>
+        <v>2900</v>
       </c>
       <c r="C347" t="s">
         <v>2898</v>
@@ -82728,12 +82745,12 @@
         <v>1155</v>
       </c>
       <c r="Q347" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="348" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B348" s="1" t="s">
-        <v>2900</v>
+        <v>6532</v>
       </c>
       <c r="C348" t="s">
         <v>2898</v>
@@ -82745,29 +82762,35 @@
         <v>1155</v>
       </c>
       <c r="Q348" t="s">
-        <v>2901</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="349" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B349" s="1" t="s">
-        <v>6532</v>
+        <v>2913</v>
       </c>
       <c r="C349" t="s">
-        <v>2898</v>
+        <v>2914</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="E349" t="s">
+        <v>3899</v>
+      </c>
       <c r="L349" t="s">
         <v>1155</v>
       </c>
+      <c r="M349" t="s">
+        <v>542</v>
+      </c>
       <c r="Q349" t="s">
-        <v>6533</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="350" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B350" s="1" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="C350" t="s">
         <v>2914</v>
@@ -82785,12 +82808,12 @@
         <v>542</v>
       </c>
       <c r="Q350" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="351" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B351" s="1" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="C351" t="s">
         <v>2914</v>
@@ -82799,21 +82822,24 @@
         <v>351</v>
       </c>
       <c r="E351" t="s">
-        <v>3899</v>
+        <v>3766</v>
+      </c>
+      <c r="F351" t="s">
+        <v>3964</v>
       </c>
       <c r="L351" t="s">
-        <v>1155</v>
+        <v>5068</v>
       </c>
       <c r="M351" t="s">
         <v>542</v>
       </c>
       <c r="Q351" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="352" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B352" s="1" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="C352" t="s">
         <v>2914</v>
@@ -82834,38 +82860,35 @@
         <v>542</v>
       </c>
       <c r="Q352" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="353" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B353" s="1" t="s">
-        <v>2917</v>
+        <v>2902</v>
       </c>
       <c r="C353" t="s">
-        <v>2914</v>
+        <v>2903</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E353" t="s">
-        <v>3766</v>
-      </c>
-      <c r="F353" t="s">
-        <v>3964</v>
+        <v>3899</v>
       </c>
       <c r="L353" t="s">
-        <v>5068</v>
+        <v>1155</v>
       </c>
       <c r="M353" t="s">
         <v>542</v>
       </c>
       <c r="Q353" t="s">
-        <v>4479</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="354" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B354" s="1" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="C354" t="s">
         <v>2903</v>
@@ -82883,35 +82906,35 @@
         <v>542</v>
       </c>
       <c r="Q354" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="355" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B355" s="1" t="s">
-        <v>2904</v>
+        <v>2918</v>
       </c>
       <c r="C355" t="s">
-        <v>2903</v>
+        <v>2919</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E355" t="s">
-        <v>3899</v>
+        <v>3766</v>
       </c>
       <c r="L355" t="s">
-        <v>1155</v>
+        <v>5068</v>
       </c>
       <c r="M355" t="s">
-        <v>542</v>
+        <v>3986</v>
       </c>
       <c r="Q355" t="s">
-        <v>4474</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="356" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B356" s="1" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="C356" t="s">
         <v>2919</v>
@@ -82929,12 +82952,12 @@
         <v>3986</v>
       </c>
       <c r="Q356" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="357" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B357" s="1" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="C357" t="s">
         <v>2919</v>
@@ -82952,58 +82975,58 @@
         <v>3986</v>
       </c>
       <c r="Q357" t="s">
-        <v>4481</v>
-      </c>
-    </row>
-    <row r="358" spans="2:17" x14ac:dyDescent="0.35">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="358" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B358" s="1" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="C358" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="E358" t="s">
+        <v>404</v>
+      </c>
+      <c r="F358" t="s">
         <v>3766</v>
       </c>
       <c r="L358" t="s">
-        <v>5068</v>
-      </c>
-      <c r="M358" t="s">
-        <v>3986</v>
+        <v>5505</v>
       </c>
       <c r="Q358" t="s">
-        <v>4905</v>
-      </c>
-    </row>
-    <row r="359" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="359" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B359" s="1" t="s">
-        <v>2922</v>
+        <v>3135</v>
       </c>
       <c r="C359" t="s">
-        <v>2923</v>
+        <v>3136</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E359" t="s">
-        <v>404</v>
-      </c>
-      <c r="F359" t="s">
-        <v>3766</v>
+        <v>3901</v>
       </c>
       <c r="L359" t="s">
-        <v>5505</v>
+        <v>1155</v>
+      </c>
+      <c r="M359" t="s">
+        <v>3902</v>
       </c>
       <c r="Q359" t="s">
-        <v>2924</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="360" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B360" s="1" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="C360" t="s">
         <v>3136</v>
@@ -83021,35 +83044,35 @@
         <v>3902</v>
       </c>
       <c r="Q360" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="361" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B361" s="1" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="C361" t="s">
-        <v>3136</v>
+        <v>3139</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E361" t="s">
-        <v>3901</v>
+        <v>2426</v>
       </c>
       <c r="L361" t="s">
-        <v>1155</v>
+        <v>5505</v>
       </c>
       <c r="M361" t="s">
-        <v>3902</v>
+        <v>3974</v>
       </c>
       <c r="Q361" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="362" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B362" s="1" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="C362" t="s">
         <v>3139</v>
@@ -83067,12 +83090,12 @@
         <v>3974</v>
       </c>
       <c r="Q362" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="363" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B363" s="1" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="C363" t="s">
         <v>3139</v>
@@ -83090,35 +83113,29 @@
         <v>3974</v>
       </c>
       <c r="Q363" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="364" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B364" s="1" t="s">
-        <v>3141</v>
+        <v>3282</v>
       </c>
       <c r="C364" t="s">
-        <v>3139</v>
+        <v>3283</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E364" t="s">
-        <v>2426</v>
-      </c>
       <c r="L364" t="s">
-        <v>5505</v>
-      </c>
-      <c r="M364" t="s">
-        <v>3974</v>
+        <v>55</v>
       </c>
       <c r="Q364" t="s">
-        <v>4521</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="365" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B365" s="1" t="s">
-        <v>3282</v>
+        <v>3285</v>
       </c>
       <c r="C365" t="s">
         <v>3283</v>
@@ -83130,32 +83147,35 @@
         <v>55</v>
       </c>
       <c r="Q365" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="366" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B366" s="1" t="s">
-        <v>3285</v>
+        <v>6761</v>
       </c>
       <c r="C366" t="s">
-        <v>3283</v>
+        <v>6762</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E366" t="s">
+        <v>2</v>
+      </c>
       <c r="L366" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q366" t="s">
-        <v>3286</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="367" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B367" s="1" t="s">
-        <v>6761</v>
+        <v>6800</v>
       </c>
       <c r="C367" t="s">
-        <v>6762</v>
+        <v>6801</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>2</v>
@@ -83164,69 +83184,69 @@
         <v>2</v>
       </c>
       <c r="L367" t="s">
-        <v>58</v>
+        <v>3714</v>
       </c>
       <c r="Q367" t="s">
-        <v>6763</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="368" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B368" s="1" t="s">
-        <v>6800</v>
+        <v>6901</v>
       </c>
       <c r="C368" t="s">
-        <v>6801</v>
+        <v>6902</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E368" t="s">
-        <v>2</v>
-      </c>
       <c r="L368" t="s">
-        <v>3714</v>
+        <v>5070</v>
       </c>
       <c r="Q368" t="s">
-        <v>6802</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="369" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B369" s="1" t="s">
-        <v>6901</v>
+        <v>3460</v>
       </c>
       <c r="C369" t="s">
-        <v>6902</v>
+        <v>3461</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L369" t="s">
-        <v>5070</v>
+        <v>1155</v>
       </c>
       <c r="Q369" t="s">
-        <v>6903</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="370" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B370" s="1" t="s">
-        <v>3460</v>
+        <v>316</v>
       </c>
       <c r="C370" t="s">
-        <v>3461</v>
+        <v>317</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>2</v>
+        <v>3469</v>
       </c>
       <c r="L370" t="s">
-        <v>1155</v>
+        <v>318</v>
+      </c>
+      <c r="M370" t="s">
+        <v>77</v>
       </c>
       <c r="Q370" t="s">
-        <v>3462</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="371" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B371" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C371" t="s">
         <v>317</v>
@@ -83241,12 +83261,12 @@
         <v>77</v>
       </c>
       <c r="Q371" t="s">
-        <v>3728</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="372" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B372" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C372" t="s">
         <v>317</v>
@@ -83261,12 +83281,12 @@
         <v>77</v>
       </c>
       <c r="Q372" t="s">
-        <v>3729</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="373" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B373" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C373" t="s">
         <v>317</v>
@@ -83281,12 +83301,12 @@
         <v>77</v>
       </c>
       <c r="Q373" t="s">
-        <v>3730</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="374" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B374" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C374" t="s">
         <v>317</v>
@@ -83301,12 +83321,12 @@
         <v>77</v>
       </c>
       <c r="Q374" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="375" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B375" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C375" t="s">
         <v>317</v>
@@ -83321,12 +83341,12 @@
         <v>77</v>
       </c>
       <c r="Q375" t="s">
-        <v>3732</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="376" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B376" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C376" t="s">
         <v>317</v>
@@ -83341,12 +83361,12 @@
         <v>77</v>
       </c>
       <c r="Q376" t="s">
-        <v>3733</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="377" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B377" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C377" t="s">
         <v>317</v>
@@ -83361,32 +83381,35 @@
         <v>77</v>
       </c>
       <c r="Q377" t="s">
-        <v>3734</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="378" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B378" s="1" t="s">
-        <v>325</v>
+        <v>5233</v>
       </c>
       <c r="C378" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>3469</v>
+        <v>404</v>
+      </c>
+      <c r="E378" t="s">
+        <v>3766</v>
+      </c>
+      <c r="F378">
+        <v>68000</v>
       </c>
       <c r="L378" t="s">
-        <v>318</v>
-      </c>
-      <c r="M378" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="Q378" t="s">
-        <v>3735</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="379" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B379" s="1" t="s">
-        <v>5233</v>
+        <v>441</v>
       </c>
       <c r="C379" t="s">
         <v>442</v>
@@ -83404,35 +83427,41 @@
         <v>3</v>
       </c>
       <c r="Q379" t="s">
-        <v>5234</v>
-      </c>
-    </row>
-    <row r="380" spans="2:17" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="380" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B380" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C380" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E380" t="s">
-        <v>3766</v>
-      </c>
-      <c r="F380">
-        <v>68000</v>
+        <v>3767</v>
+      </c>
+      <c r="F380" t="s">
+        <v>3767</v>
       </c>
       <c r="L380" t="s">
         <v>3</v>
       </c>
+      <c r="M380" t="s">
+        <v>77</v>
+      </c>
+      <c r="N380" t="s">
+        <v>352</v>
+      </c>
       <c r="Q380" t="s">
-        <v>443</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="381" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B381" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C381" t="s">
         <v>445</v>
@@ -83456,12 +83485,12 @@
         <v>352</v>
       </c>
       <c r="Q381" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="382" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B382" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C382" t="s">
         <v>445</v>
@@ -83485,12 +83514,12 @@
         <v>352</v>
       </c>
       <c r="Q382" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="383" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B383" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C383" t="s">
         <v>445</v>
@@ -83514,12 +83543,12 @@
         <v>352</v>
       </c>
       <c r="Q383" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="384" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B384" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C384" t="s">
         <v>445</v>
@@ -83543,12 +83572,12 @@
         <v>352</v>
       </c>
       <c r="Q384" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="385" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B385" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C385" t="s">
         <v>445</v>
@@ -83572,12 +83601,12 @@
         <v>352</v>
       </c>
       <c r="Q385" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="386" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B386" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C386" t="s">
         <v>445</v>
@@ -83601,12 +83630,12 @@
         <v>352</v>
       </c>
       <c r="Q386" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="387" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B387" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C387" t="s">
         <v>445</v>
@@ -83630,41 +83659,32 @@
         <v>352</v>
       </c>
       <c r="Q387" t="s">
-        <v>4630</v>
-      </c>
-    </row>
-    <row r="388" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="388" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B388" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C388" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E388" t="s">
-        <v>3767</v>
-      </c>
-      <c r="F388" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="L388" t="s">
         <v>3</v>
       </c>
-      <c r="M388" t="s">
-        <v>77</v>
-      </c>
-      <c r="N388" t="s">
-        <v>352</v>
-      </c>
       <c r="Q388" t="s">
-        <v>4631</v>
+        <v>455</v>
       </c>
     </row>
     <row r="389" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B389" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C389" t="s">
         <v>454</v>
@@ -83679,12 +83699,12 @@
         <v>3</v>
       </c>
       <c r="Q389" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="390" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B390" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C390" t="s">
         <v>454</v>
@@ -83699,12 +83719,12 @@
         <v>3</v>
       </c>
       <c r="Q390" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="391" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B391" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C391" t="s">
         <v>454</v>
@@ -83719,15 +83739,15 @@
         <v>3</v>
       </c>
       <c r="Q391" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="392" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B392" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C392" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>404</v>
@@ -83739,12 +83759,12 @@
         <v>3</v>
       </c>
       <c r="Q392" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="393" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B393" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C393" t="s">
         <v>467</v>
@@ -83759,32 +83779,44 @@
         <v>3</v>
       </c>
       <c r="Q393" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="394" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B394" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C394" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E394" t="s">
+        <v>404</v>
+      </c>
+      <c r="F394" t="s">
         <v>3768</v>
       </c>
       <c r="L394" t="s">
+        <v>5238</v>
+      </c>
+      <c r="M394" t="s">
         <v>3</v>
       </c>
+      <c r="N394" t="s">
+        <v>352</v>
+      </c>
+      <c r="O394" t="s">
+        <v>77</v>
+      </c>
       <c r="Q394" t="s">
-        <v>470</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="395" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B395" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C395" t="s">
         <v>472</v>
@@ -83811,12 +83843,12 @@
         <v>77</v>
       </c>
       <c r="Q395" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="396" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B396" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C396" t="s">
         <v>472</v>
@@ -83843,12 +83875,12 @@
         <v>77</v>
       </c>
       <c r="Q396" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="397" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B397" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C397" t="s">
         <v>472</v>
@@ -83875,12 +83907,12 @@
         <v>77</v>
       </c>
       <c r="Q397" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="398" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B398" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C398" t="s">
         <v>472</v>
@@ -83907,12 +83939,12 @@
         <v>77</v>
       </c>
       <c r="Q398" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="399" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B399" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C399" t="s">
         <v>472</v>
@@ -83939,12 +83971,12 @@
         <v>77</v>
       </c>
       <c r="Q399" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="400" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B400" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C400" t="s">
         <v>472</v>
@@ -83971,12 +84003,12 @@
         <v>77</v>
       </c>
       <c r="Q400" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="401" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B401" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C401" t="s">
         <v>472</v>
@@ -84003,15 +84035,15 @@
         <v>77</v>
       </c>
       <c r="Q401" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="402" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B402" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C402" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>404</v>
@@ -84020,6 +84052,9 @@
         <v>404</v>
       </c>
       <c r="F402" t="s">
+        <v>404</v>
+      </c>
+      <c r="G402" t="s">
         <v>3768</v>
       </c>
       <c r="L402" t="s">
@@ -84029,18 +84064,15 @@
         <v>3</v>
       </c>
       <c r="N402" t="s">
-        <v>352</v>
-      </c>
-      <c r="O402" t="s">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="Q402" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="403" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B403" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C403" t="s">
         <v>481</v>
@@ -84067,12 +84099,12 @@
         <v>542</v>
       </c>
       <c r="Q403" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="404" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B404" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C404" t="s">
         <v>481</v>
@@ -84099,12 +84131,12 @@
         <v>542</v>
       </c>
       <c r="Q404" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="405" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B405" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C405" t="s">
         <v>481</v>
@@ -84131,12 +84163,12 @@
         <v>542</v>
       </c>
       <c r="Q405" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="406" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B406" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C406" t="s">
         <v>481</v>
@@ -84163,12 +84195,12 @@
         <v>542</v>
       </c>
       <c r="Q406" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="407" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B407" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C407" t="s">
         <v>481</v>
@@ -84195,12 +84227,12 @@
         <v>542</v>
       </c>
       <c r="Q407" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="408" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B408" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C408" t="s">
         <v>481</v>
@@ -84227,12 +84259,12 @@
         <v>542</v>
       </c>
       <c r="Q408" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="409" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B409" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C409" t="s">
         <v>481</v>
@@ -84259,12 +84291,12 @@
         <v>542</v>
       </c>
       <c r="Q409" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="410" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B410" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C410" t="s">
         <v>481</v>
@@ -84291,12 +84323,12 @@
         <v>542</v>
       </c>
       <c r="Q410" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="411" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B411" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C411" t="s">
         <v>481</v>
@@ -84323,12 +84355,12 @@
         <v>542</v>
       </c>
       <c r="Q411" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="412" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B412" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C412" t="s">
         <v>481</v>
@@ -84355,12 +84387,12 @@
         <v>542</v>
       </c>
       <c r="Q412" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="413" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B413" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C413" t="s">
         <v>481</v>
@@ -84387,12 +84419,12 @@
         <v>542</v>
       </c>
       <c r="Q413" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="414" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B414" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C414" t="s">
         <v>481</v>
@@ -84419,12 +84451,12 @@
         <v>542</v>
       </c>
       <c r="Q414" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="415" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B415" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C415" t="s">
         <v>481</v>
@@ -84451,12 +84483,12 @@
         <v>542</v>
       </c>
       <c r="Q415" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="416" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B416" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C416" t="s">
         <v>481</v>
@@ -84483,12 +84515,12 @@
         <v>542</v>
       </c>
       <c r="Q416" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="417" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B417" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C417" t="s">
         <v>481</v>
@@ -84515,12 +84547,12 @@
         <v>542</v>
       </c>
       <c r="Q417" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="418" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B418" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C418" t="s">
         <v>481</v>
@@ -84547,12 +84579,12 @@
         <v>542</v>
       </c>
       <c r="Q418" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="419" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B419" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C419" t="s">
         <v>481</v>
@@ -84579,12 +84611,12 @@
         <v>542</v>
       </c>
       <c r="Q419" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="420" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B420" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C420" t="s">
         <v>481</v>
@@ -84611,12 +84643,12 @@
         <v>542</v>
       </c>
       <c r="Q420" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="421" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B421" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C421" t="s">
         <v>481</v>
@@ -84643,12 +84675,12 @@
         <v>542</v>
       </c>
       <c r="Q421" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="422" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B422" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C422" t="s">
         <v>481</v>
@@ -84675,12 +84707,12 @@
         <v>542</v>
       </c>
       <c r="Q422" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="423" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B423" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C423" t="s">
         <v>481</v>
@@ -84707,12 +84739,12 @@
         <v>542</v>
       </c>
       <c r="Q423" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="424" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B424" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C424" t="s">
         <v>481</v>
@@ -84739,12 +84771,12 @@
         <v>542</v>
       </c>
       <c r="Q424" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="425" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B425" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C425" t="s">
         <v>481</v>
@@ -84771,12 +84803,12 @@
         <v>542</v>
       </c>
       <c r="Q425" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="426" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B426" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C426" t="s">
         <v>481</v>
@@ -84803,12 +84835,12 @@
         <v>542</v>
       </c>
       <c r="Q426" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="427" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B427" s="1" t="s">
-        <v>505</v>
+        <v>5239</v>
       </c>
       <c r="C427" t="s">
         <v>481</v>
@@ -84835,12 +84867,12 @@
         <v>542</v>
       </c>
       <c r="Q427" t="s">
-        <v>4664</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="428" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B428" s="1" t="s">
-        <v>5239</v>
+        <v>506</v>
       </c>
       <c r="C428" t="s">
         <v>481</v>
@@ -84867,12 +84899,12 @@
         <v>542</v>
       </c>
       <c r="Q428" t="s">
-        <v>5240</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="429" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B429" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C429" t="s">
         <v>481</v>
@@ -84899,12 +84931,12 @@
         <v>542</v>
       </c>
       <c r="Q429" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="430" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B430" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C430" t="s">
         <v>481</v>
@@ -84931,12 +84963,12 @@
         <v>542</v>
       </c>
       <c r="Q430" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="431" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B431" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C431" t="s">
         <v>481</v>
@@ -84963,44 +84995,35 @@
         <v>542</v>
       </c>
       <c r="Q431" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="432" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B432" s="1" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="C432" t="s">
-        <v>481</v>
+        <v>578</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E432" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="F432" t="s">
-        <v>404</v>
-      </c>
-      <c r="G432" t="s">
-        <v>3768</v>
+        <v>2</v>
       </c>
       <c r="L432" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M432" t="s">
-        <v>3</v>
-      </c>
-      <c r="N432" t="s">
-        <v>542</v>
+        <v>3793</v>
       </c>
       <c r="Q432" t="s">
-        <v>4668</v>
+        <v>579</v>
       </c>
     </row>
     <row r="433" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B433" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C433" t="s">
         <v>578</v>
@@ -85018,12 +85041,12 @@
         <v>3793</v>
       </c>
       <c r="Q433" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="434" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B434" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C434" t="s">
         <v>578</v>
@@ -85041,12 +85064,12 @@
         <v>3793</v>
       </c>
       <c r="Q434" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="435" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B435" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C435" t="s">
         <v>578</v>
@@ -85064,12 +85087,12 @@
         <v>3793</v>
       </c>
       <c r="Q435" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="436" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B436" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C436" t="s">
         <v>578</v>
@@ -85087,12 +85110,12 @@
         <v>3793</v>
       </c>
       <c r="Q436" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="437" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B437" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C437" t="s">
         <v>578</v>
@@ -85110,12 +85133,12 @@
         <v>3793</v>
       </c>
       <c r="Q437" t="s">
-        <v>587</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="438" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B438" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C438" t="s">
         <v>578</v>
@@ -85133,12 +85156,12 @@
         <v>3793</v>
       </c>
       <c r="Q438" t="s">
-        <v>4672</v>
+        <v>590</v>
       </c>
     </row>
     <row r="439" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B439" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C439" t="s">
         <v>578</v>
@@ -85156,12 +85179,12 @@
         <v>3793</v>
       </c>
       <c r="Q439" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="440" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B440" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C440" t="s">
         <v>578</v>
@@ -85179,12 +85202,12 @@
         <v>3793</v>
       </c>
       <c r="Q440" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="441" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B441" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C441" t="s">
         <v>578</v>
@@ -85202,35 +85225,32 @@
         <v>3793</v>
       </c>
       <c r="Q441" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="442" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B442" s="1" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="C442" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="E442" t="s">
-        <v>2</v>
-      </c>
-      <c r="F442" t="s">
-        <v>2</v>
+        <v>3794</v>
       </c>
       <c r="L442" t="s">
-        <v>3793</v>
+        <v>542</v>
       </c>
       <c r="Q442" t="s">
-        <v>596</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="443" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B443" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C443" t="s">
         <v>598</v>
@@ -85245,32 +85265,35 @@
         <v>542</v>
       </c>
       <c r="Q443" t="s">
-        <v>5301</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="444" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B444" s="1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C444" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="E444" t="s">
-        <v>3794</v>
+        <v>3801</v>
       </c>
       <c r="L444" t="s">
-        <v>542</v>
+        <v>3806</v>
+      </c>
+      <c r="M444" t="s">
+        <v>3807</v>
       </c>
       <c r="Q444" t="s">
-        <v>4673</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="445" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B445" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C445" t="s">
         <v>619</v>
@@ -85288,12 +85311,12 @@
         <v>3807</v>
       </c>
       <c r="Q445" t="s">
-        <v>3808</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="446" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B446" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C446" t="s">
         <v>619</v>
@@ -85311,17 +85334,17 @@
         <v>3807</v>
       </c>
       <c r="Q446" t="s">
-        <v>3809</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="447" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B447" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C447" t="s">
         <v>619</v>
       </c>
-      <c r="D447" s="1" t="s">
+      <c r="D447" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E447" t="s">
@@ -85334,35 +85357,26 @@
         <v>3807</v>
       </c>
       <c r="Q447" t="s">
-        <v>3810</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="448" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B448" s="1" t="s">
-        <v>622</v>
+        <v>668</v>
       </c>
       <c r="C448" t="s">
-        <v>619</v>
-      </c>
-      <c r="D448" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E448" t="s">
-        <v>3801</v>
-      </c>
-      <c r="L448" t="s">
-        <v>3806</v>
-      </c>
-      <c r="M448" t="s">
-        <v>3807</v>
+        <v>669</v>
+      </c>
+      <c r="D448" s="1">
+        <v>8080</v>
       </c>
       <c r="Q448" t="s">
-        <v>3811</v>
+        <v>670</v>
       </c>
     </row>
     <row r="449" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B449" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C449" t="s">
         <v>669</v>
@@ -85371,12 +85385,12 @@
         <v>8080</v>
       </c>
       <c r="Q449" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="450" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B450" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C450" t="s">
         <v>669</v>
@@ -85385,12 +85399,12 @@
         <v>8080</v>
       </c>
       <c r="Q450" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="451" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B451" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C451" t="s">
         <v>669</v>
@@ -85399,12 +85413,12 @@
         <v>8080</v>
       </c>
       <c r="Q451" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="452" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B452" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C452" t="s">
         <v>669</v>
@@ -85413,12 +85427,12 @@
         <v>8080</v>
       </c>
       <c r="Q452" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="453" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B453" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C453" t="s">
         <v>669</v>
@@ -85426,13 +85440,16 @@
       <c r="D453" s="1">
         <v>8080</v>
       </c>
+      <c r="L453" t="s">
+        <v>352</v>
+      </c>
       <c r="Q453" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="454" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B454" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C454" t="s">
         <v>669</v>
@@ -85440,16 +85457,13 @@
       <c r="D454" s="1">
         <v>8080</v>
       </c>
-      <c r="L454" t="s">
-        <v>352</v>
-      </c>
       <c r="Q454" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="455" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B455" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C455" t="s">
         <v>669</v>
@@ -85458,12 +85472,12 @@
         <v>8080</v>
       </c>
       <c r="Q455" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="456" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B456" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C456" t="s">
         <v>669</v>
@@ -85472,12 +85486,12 @@
         <v>8080</v>
       </c>
       <c r="Q456" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="457" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B457" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C457" t="s">
         <v>669</v>
@@ -85486,12 +85500,12 @@
         <v>8080</v>
       </c>
       <c r="Q457" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="458" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B458" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C458" t="s">
         <v>669</v>
@@ -85500,12 +85514,12 @@
         <v>8080</v>
       </c>
       <c r="Q458" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="459" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B459" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C459" t="s">
         <v>669</v>
@@ -85514,12 +85528,12 @@
         <v>8080</v>
       </c>
       <c r="Q459" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="460" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B460" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C460" t="s">
         <v>669</v>
@@ -85528,12 +85542,12 @@
         <v>8080</v>
       </c>
       <c r="Q460" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="461" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B461" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C461" t="s">
         <v>669</v>
@@ -85542,12 +85556,12 @@
         <v>8080</v>
       </c>
       <c r="Q461" t="s">
-        <v>694</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="462" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B462" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C462" t="s">
         <v>669</v>
@@ -85556,12 +85570,12 @@
         <v>8080</v>
       </c>
       <c r="Q462" t="s">
-        <v>5391</v>
+        <v>697</v>
       </c>
     </row>
     <row r="463" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B463" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C463" t="s">
         <v>669</v>
@@ -85570,12 +85584,12 @@
         <v>8080</v>
       </c>
       <c r="Q463" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="464" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B464" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C464" t="s">
         <v>669</v>
@@ -85584,12 +85598,12 @@
         <v>8080</v>
       </c>
       <c r="Q464" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="465" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B465" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C465" t="s">
         <v>669</v>
@@ -85598,12 +85612,12 @@
         <v>8080</v>
       </c>
       <c r="Q465" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="466" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B466" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C466" t="s">
         <v>669</v>
@@ -85612,12 +85626,12 @@
         <v>8080</v>
       </c>
       <c r="Q466" t="s">
-        <v>703</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="467" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B467" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C467" t="s">
         <v>669</v>
@@ -85625,13 +85639,19 @@
       <c r="D467" s="1">
         <v>8080</v>
       </c>
+      <c r="L467" t="s">
+        <v>352</v>
+      </c>
+      <c r="M467" t="s">
+        <v>734</v>
+      </c>
       <c r="Q467" t="s">
-        <v>5392</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="468" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B468" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C468" t="s">
         <v>669</v>
@@ -85639,19 +85659,13 @@
       <c r="D468" s="1">
         <v>8080</v>
       </c>
-      <c r="L468" t="s">
-        <v>352</v>
-      </c>
-      <c r="M468" t="s">
-        <v>734</v>
-      </c>
       <c r="Q468" t="s">
-        <v>3849</v>
+        <v>707</v>
       </c>
     </row>
     <row r="469" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B469" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C469" t="s">
         <v>669</v>
@@ -85659,13 +85673,19 @@
       <c r="D469" s="1">
         <v>8080</v>
       </c>
+      <c r="L469" t="s">
+        <v>352</v>
+      </c>
+      <c r="M469" t="s">
+        <v>3850</v>
+      </c>
       <c r="Q469" t="s">
-        <v>707</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="470" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B470" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C470" t="s">
         <v>669</v>
@@ -85677,15 +85697,15 @@
         <v>352</v>
       </c>
       <c r="M470" t="s">
-        <v>3850</v>
+        <v>734</v>
       </c>
       <c r="Q470" t="s">
-        <v>4680</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="471" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B471" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C471" t="s">
         <v>669</v>
@@ -85700,12 +85720,12 @@
         <v>734</v>
       </c>
       <c r="Q471" t="s">
-        <v>3851</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="472" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B472" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C472" t="s">
         <v>669</v>
@@ -85720,12 +85740,12 @@
         <v>734</v>
       </c>
       <c r="Q472" t="s">
-        <v>3852</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="473" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B473" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C473" t="s">
         <v>669</v>
@@ -85740,12 +85760,12 @@
         <v>734</v>
       </c>
       <c r="Q473" t="s">
-        <v>3853</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="474" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B474" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C474" t="s">
         <v>669</v>
@@ -85760,12 +85780,12 @@
         <v>734</v>
       </c>
       <c r="Q474" t="s">
-        <v>3854</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="475" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B475" s="1" t="s">
-        <v>713</v>
+        <v>5394</v>
       </c>
       <c r="C475" t="s">
         <v>669</v>
@@ -85780,12 +85800,12 @@
         <v>734</v>
       </c>
       <c r="Q475" t="s">
-        <v>5393</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="476" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B476" s="1" t="s">
-        <v>5394</v>
+        <v>714</v>
       </c>
       <c r="C476" t="s">
         <v>669</v>
@@ -85800,12 +85820,12 @@
         <v>734</v>
       </c>
       <c r="Q476" t="s">
-        <v>3855</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="477" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B477" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C477" t="s">
         <v>669</v>
@@ -85820,12 +85840,12 @@
         <v>734</v>
       </c>
       <c r="Q477" t="s">
-        <v>4681</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="478" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B478" s="1" t="s">
-        <v>715</v>
+        <v>5395</v>
       </c>
       <c r="C478" t="s">
         <v>669</v>
@@ -85840,12 +85860,12 @@
         <v>734</v>
       </c>
       <c r="Q478" t="s">
-        <v>3856</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="479" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B479" s="1" t="s">
-        <v>5395</v>
+        <v>5397</v>
       </c>
       <c r="C479" t="s">
         <v>669</v>
@@ -85860,12 +85880,12 @@
         <v>734</v>
       </c>
       <c r="Q479" t="s">
-        <v>5396</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="480" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B480" s="1" t="s">
-        <v>5397</v>
+        <v>716</v>
       </c>
       <c r="C480" t="s">
         <v>669</v>
@@ -85880,12 +85900,12 @@
         <v>734</v>
       </c>
       <c r="Q480" t="s">
-        <v>5398</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="481" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B481" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C481" t="s">
         <v>669</v>
@@ -85900,12 +85920,12 @@
         <v>734</v>
       </c>
       <c r="Q481" t="s">
-        <v>3857</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="482" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B482" s="1" t="s">
-        <v>717</v>
+        <v>5400</v>
       </c>
       <c r="C482" t="s">
         <v>669</v>
@@ -85920,12 +85940,12 @@
         <v>734</v>
       </c>
       <c r="Q482" t="s">
-        <v>5399</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="483" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B483" s="1" t="s">
-        <v>5400</v>
+        <v>718</v>
       </c>
       <c r="C483" t="s">
         <v>669</v>
@@ -85933,19 +85953,13 @@
       <c r="D483" s="1">
         <v>8080</v>
       </c>
-      <c r="L483" t="s">
-        <v>352</v>
-      </c>
-      <c r="M483" t="s">
-        <v>734</v>
-      </c>
       <c r="Q483" t="s">
-        <v>5401</v>
+        <v>719</v>
       </c>
     </row>
     <row r="484" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B484" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C484" t="s">
         <v>669</v>
@@ -85954,12 +85968,12 @@
         <v>8080</v>
       </c>
       <c r="Q484" t="s">
-        <v>719</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="485" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B485" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C485" t="s">
         <v>669</v>
@@ -85967,13 +85981,19 @@
       <c r="D485" s="1">
         <v>8080</v>
       </c>
+      <c r="L485" t="s">
+        <v>352</v>
+      </c>
+      <c r="M485" t="s">
+        <v>734</v>
+      </c>
       <c r="Q485" t="s">
-        <v>3858</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="486" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B486" s="1" t="s">
-        <v>721</v>
+        <v>5403</v>
       </c>
       <c r="C486" t="s">
         <v>669</v>
@@ -85988,12 +86008,12 @@
         <v>734</v>
       </c>
       <c r="Q486" t="s">
-        <v>5402</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="487" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B487" s="1" t="s">
-        <v>5403</v>
+        <v>5405</v>
       </c>
       <c r="C487" t="s">
         <v>669</v>
@@ -86008,12 +86028,12 @@
         <v>734</v>
       </c>
       <c r="Q487" t="s">
-        <v>5404</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="488" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B488" s="1" t="s">
-        <v>5405</v>
+        <v>722</v>
       </c>
       <c r="C488" t="s">
         <v>669</v>
@@ -86028,12 +86048,12 @@
         <v>734</v>
       </c>
       <c r="Q488" t="s">
-        <v>5406</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="489" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B489" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C489" t="s">
         <v>669</v>
@@ -86048,12 +86068,12 @@
         <v>734</v>
       </c>
       <c r="Q489" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="490" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B490" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C490" t="s">
         <v>669</v>
@@ -86068,12 +86088,12 @@
         <v>734</v>
       </c>
       <c r="Q490" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="491" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B491" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C491" t="s">
         <v>669</v>
@@ -86088,12 +86108,12 @@
         <v>734</v>
       </c>
       <c r="Q491" t="s">
-        <v>3861</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="492" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B492" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C492" t="s">
         <v>669</v>
@@ -86108,12 +86128,12 @@
         <v>734</v>
       </c>
       <c r="Q492" t="s">
-        <v>3862</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="493" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B493" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C493" t="s">
         <v>669</v>
@@ -86121,19 +86141,13 @@
       <c r="D493" s="1">
         <v>8080</v>
       </c>
-      <c r="L493" t="s">
-        <v>352</v>
-      </c>
-      <c r="M493" t="s">
-        <v>734</v>
-      </c>
       <c r="Q493" t="s">
-        <v>3863</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="494" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B494" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C494" t="s">
         <v>669</v>
@@ -86141,13 +86155,22 @@
       <c r="D494" s="1">
         <v>8080</v>
       </c>
+      <c r="E494" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L494" t="s">
+        <v>542</v>
+      </c>
+      <c r="M494" t="s">
+        <v>734</v>
+      </c>
       <c r="Q494" t="s">
-        <v>3864</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="495" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B495" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C495" t="s">
         <v>669</v>
@@ -86165,12 +86188,12 @@
         <v>734</v>
       </c>
       <c r="Q495" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="496" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B496" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C496" t="s">
         <v>669</v>
@@ -86178,22 +86201,19 @@
       <c r="D496" s="1">
         <v>8080</v>
       </c>
-      <c r="E496" t="s">
-        <v>3794</v>
-      </c>
       <c r="L496" t="s">
-        <v>542</v>
+        <v>352</v>
       </c>
       <c r="M496" t="s">
         <v>734</v>
       </c>
       <c r="Q496" t="s">
-        <v>3866</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="497" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B497" s="1" t="s">
-        <v>730</v>
+        <v>5408</v>
       </c>
       <c r="C497" t="s">
         <v>669</v>
@@ -86208,12 +86228,12 @@
         <v>734</v>
       </c>
       <c r="Q497" t="s">
-        <v>5407</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="498" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B498" s="1" t="s">
-        <v>5408</v>
+        <v>731</v>
       </c>
       <c r="C498" t="s">
         <v>669</v>
@@ -86228,12 +86248,12 @@
         <v>734</v>
       </c>
       <c r="Q498" t="s">
-        <v>5409</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="499" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B499" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C499" t="s">
         <v>669</v>
@@ -86248,12 +86268,12 @@
         <v>734</v>
       </c>
       <c r="Q499" t="s">
-        <v>3867</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="500" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B500" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C500" t="s">
         <v>669</v>
@@ -86262,18 +86282,21 @@
         <v>8080</v>
       </c>
       <c r="L500" t="s">
-        <v>352</v>
+        <v>734</v>
       </c>
       <c r="M500" t="s">
-        <v>734</v>
+        <v>542</v>
+      </c>
+      <c r="N500" t="s">
+        <v>77</v>
       </c>
       <c r="Q500" t="s">
-        <v>3868</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="501" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B501" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C501" t="s">
         <v>669</v>
@@ -86281,22 +86304,13 @@
       <c r="D501" s="1">
         <v>8080</v>
       </c>
-      <c r="L501" t="s">
-        <v>734</v>
-      </c>
-      <c r="M501" t="s">
-        <v>542</v>
-      </c>
-      <c r="N501" t="s">
-        <v>77</v>
-      </c>
       <c r="Q501" t="s">
-        <v>4682</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="502" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B502" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C502" t="s">
         <v>669</v>
@@ -86305,12 +86319,12 @@
         <v>8080</v>
       </c>
       <c r="Q502" t="s">
-        <v>3869</v>
+        <v>737</v>
       </c>
     </row>
     <row r="503" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B503" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C503" t="s">
         <v>669</v>
@@ -86319,12 +86333,12 @@
         <v>8080</v>
       </c>
       <c r="Q503" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="504" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B504" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C504" t="s">
         <v>669</v>
@@ -86333,12 +86347,12 @@
         <v>8080</v>
       </c>
       <c r="Q504" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="505" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B505" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C505" t="s">
         <v>669</v>
@@ -86346,13 +86360,22 @@
       <c r="D505" s="1">
         <v>8080</v>
       </c>
+      <c r="E505" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L505" t="s">
+        <v>542</v>
+      </c>
+      <c r="M505" t="s">
+        <v>734</v>
+      </c>
       <c r="Q505" t="s">
-        <v>741</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="506" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B506" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C506" t="s">
         <v>669</v>
@@ -86370,12 +86393,12 @@
         <v>734</v>
       </c>
       <c r="Q506" t="s">
-        <v>3870</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="507" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B507" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C507" t="s">
         <v>669</v>
@@ -86383,22 +86406,19 @@
       <c r="D507" s="1">
         <v>8080</v>
       </c>
-      <c r="E507" t="s">
-        <v>3794</v>
-      </c>
       <c r="L507" t="s">
-        <v>542</v>
+        <v>352</v>
       </c>
       <c r="M507" t="s">
         <v>734</v>
       </c>
       <c r="Q507" t="s">
-        <v>3871</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="508" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B508" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C508" t="s">
         <v>669</v>
@@ -86413,12 +86433,12 @@
         <v>734</v>
       </c>
       <c r="Q508" t="s">
-        <v>3872</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="509" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B509" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C509" t="s">
         <v>669</v>
@@ -86433,12 +86453,12 @@
         <v>734</v>
       </c>
       <c r="Q509" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="510" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B510" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C510" t="s">
         <v>669</v>
@@ -86446,19 +86466,13 @@
       <c r="D510" s="1">
         <v>8080</v>
       </c>
-      <c r="L510" t="s">
-        <v>352</v>
-      </c>
-      <c r="M510" t="s">
-        <v>734</v>
-      </c>
       <c r="Q510" t="s">
-        <v>3874</v>
+        <v>748</v>
       </c>
     </row>
     <row r="511" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B511" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C511" t="s">
         <v>669</v>
@@ -86467,12 +86481,12 @@
         <v>8080</v>
       </c>
       <c r="Q511" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="512" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B512" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C512" t="s">
         <v>669</v>
@@ -86481,12 +86495,12 @@
         <v>8080</v>
       </c>
       <c r="Q512" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="513" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B513" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="C513" t="s">
         <v>669</v>
@@ -86494,13 +86508,19 @@
       <c r="D513" s="1">
         <v>8080</v>
       </c>
+      <c r="L513" t="s">
+        <v>352</v>
+      </c>
+      <c r="M513" t="s">
+        <v>734</v>
+      </c>
       <c r="Q513" t="s">
-        <v>752</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="514" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B514" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C514" t="s">
         <v>669</v>
@@ -86515,12 +86535,12 @@
         <v>734</v>
       </c>
       <c r="Q514" t="s">
-        <v>3875</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="515" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B515" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C515" t="s">
         <v>669</v>
@@ -86535,12 +86555,12 @@
         <v>734</v>
       </c>
       <c r="Q515" t="s">
-        <v>3876</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="516" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B516" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C516" t="s">
         <v>669</v>
@@ -86555,12 +86575,12 @@
         <v>734</v>
       </c>
       <c r="Q516" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="517" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B517" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C517" t="s">
         <v>669</v>
@@ -86575,12 +86595,12 @@
         <v>734</v>
       </c>
       <c r="Q517" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="518" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B518" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C518" t="s">
         <v>669</v>
@@ -86595,12 +86615,12 @@
         <v>734</v>
       </c>
       <c r="Q518" t="s">
-        <v>3879</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="519" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B519" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C519" t="s">
         <v>669</v>
@@ -86615,12 +86635,12 @@
         <v>734</v>
       </c>
       <c r="Q519" t="s">
-        <v>3880</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="520" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B520" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C520" t="s">
         <v>669</v>
@@ -86628,19 +86648,13 @@
       <c r="D520" s="1">
         <v>8080</v>
       </c>
-      <c r="L520" t="s">
-        <v>352</v>
-      </c>
-      <c r="M520" t="s">
-        <v>734</v>
-      </c>
       <c r="Q520" t="s">
-        <v>3881</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="521" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B521" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C521" t="s">
         <v>669</v>
@@ -86648,13 +86662,19 @@
       <c r="D521" s="1">
         <v>8080</v>
       </c>
+      <c r="L521" t="s">
+        <v>352</v>
+      </c>
+      <c r="M521" t="s">
+        <v>734</v>
+      </c>
       <c r="Q521" t="s">
-        <v>3882</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="522" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B522" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C522" t="s">
         <v>669</v>
@@ -86669,32 +86689,35 @@
         <v>734</v>
       </c>
       <c r="Q522" t="s">
-        <v>3883</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="523" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B523" s="1" t="s">
-        <v>765</v>
+        <v>5441</v>
       </c>
       <c r="C523" t="s">
-        <v>669</v>
-      </c>
-      <c r="D523" s="1">
-        <v>8080</v>
+        <v>5413</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E523" t="s">
+        <v>3885</v>
       </c>
       <c r="L523" t="s">
-        <v>352</v>
+        <v>2605</v>
       </c>
       <c r="M523" t="s">
-        <v>734</v>
+        <v>4510</v>
       </c>
       <c r="Q523" t="s">
-        <v>3884</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="524" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B524" s="1" t="s">
-        <v>5441</v>
+        <v>5447</v>
       </c>
       <c r="C524" t="s">
         <v>5413</v>
@@ -86712,49 +86735,40 @@
         <v>4510</v>
       </c>
       <c r="Q524" t="s">
-        <v>5442</v>
+        <v>5448</v>
       </c>
     </row>
     <row r="525" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B525" s="1" t="s">
-        <v>5447</v>
+        <v>5458</v>
       </c>
       <c r="C525" t="s">
-        <v>5413</v>
+        <v>5459</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E525" t="s">
-        <v>3885</v>
-      </c>
-      <c r="L525" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M525" t="s">
-        <v>4510</v>
+        <v>404</v>
       </c>
       <c r="Q525" t="s">
-        <v>5448</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="526" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B526" s="1" t="s">
-        <v>5458</v>
+        <v>904</v>
       </c>
       <c r="C526" t="s">
-        <v>5459</v>
+        <v>905</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="Q526" t="s">
-        <v>5460</v>
+        <v>906</v>
       </c>
     </row>
     <row r="527" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B527" s="1" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C527" t="s">
         <v>905</v>
@@ -86763,49 +86777,52 @@
         <v>351</v>
       </c>
       <c r="Q527" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="528" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B528" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C528" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="D528" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="E528" t="s">
+        <v>3899</v>
+      </c>
+      <c r="F528" t="s">
+        <v>3900</v>
+      </c>
+      <c r="L528" t="s">
+        <v>55</v>
+      </c>
       <c r="Q528" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="529" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B529" s="1" t="s">
-        <v>909</v>
+        <v>1037</v>
       </c>
       <c r="C529" t="s">
-        <v>910</v>
+        <v>1038</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E529" t="s">
-        <v>3899</v>
-      </c>
-      <c r="F529" t="s">
-        <v>3900</v>
+        <v>2</v>
       </c>
       <c r="L529" t="s">
-        <v>55</v>
+        <v>734</v>
       </c>
       <c r="Q529" t="s">
-        <v>911</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="530" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B530" s="1" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C530" t="s">
         <v>1038</v>
@@ -86817,55 +86834,61 @@
         <v>734</v>
       </c>
       <c r="Q530" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="531" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B531" s="1" t="s">
-        <v>1040</v>
+        <v>5502</v>
       </c>
       <c r="C531" t="s">
-        <v>1038</v>
+        <v>5503</v>
       </c>
       <c r="D531" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E531" t="s">
+        <v>2</v>
+      </c>
+      <c r="F531" t="s">
+        <v>2426</v>
+      </c>
       <c r="L531" t="s">
-        <v>734</v>
+        <v>3714</v>
       </c>
       <c r="Q531" t="s">
-        <v>1041</v>
+        <v>5504</v>
       </c>
     </row>
     <row r="532" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B532" s="1" t="s">
-        <v>5502</v>
+        <v>1083</v>
       </c>
       <c r="C532" t="s">
-        <v>5503</v>
+        <v>1084</v>
       </c>
       <c r="D532" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E532" t="s">
-        <v>2</v>
-      </c>
-      <c r="F532" t="s">
         <v>2426</v>
       </c>
       <c r="L532" t="s">
-        <v>3714</v>
+        <v>1155</v>
+      </c>
+      <c r="M532" t="s">
+        <v>542</v>
       </c>
       <c r="Q532" t="s">
-        <v>5504</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="533" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B533" s="1" t="s">
-        <v>1083</v>
+        <v>5521</v>
       </c>
       <c r="C533" t="s">
-        <v>1084</v>
+        <v>5522</v>
       </c>
       <c r="D533" s="1" t="s">
         <v>2</v>
@@ -86873,19 +86896,19 @@
       <c r="E533" t="s">
         <v>2426</v>
       </c>
+      <c r="F533" t="s">
+        <v>3964</v>
+      </c>
       <c r="L533" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M533" t="s">
-        <v>542</v>
+        <v>55</v>
       </c>
       <c r="Q533" t="s">
-        <v>3973</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="534" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B534" s="1" t="s">
-        <v>5521</v>
+        <v>5524</v>
       </c>
       <c r="C534" t="s">
         <v>5522</v>
@@ -86903,35 +86926,38 @@
         <v>55</v>
       </c>
       <c r="Q534" t="s">
-        <v>5523</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="535" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B535" s="1" t="s">
-        <v>5524</v>
+        <v>1108</v>
       </c>
       <c r="C535" t="s">
-        <v>5522</v>
+        <v>1109</v>
       </c>
       <c r="D535" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E535" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="F535" t="s">
-        <v>3964</v>
+        <v>3766</v>
       </c>
       <c r="L535" t="s">
-        <v>55</v>
+        <v>5070</v>
+      </c>
+      <c r="M535" t="s">
+        <v>3974</v>
       </c>
       <c r="Q535" t="s">
-        <v>5525</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="536" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B536" s="1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C536" t="s">
         <v>1109</v>
@@ -86952,15 +86978,15 @@
         <v>3974</v>
       </c>
       <c r="Q536" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="537" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B537" s="1" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="C537" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>2</v>
@@ -86969,21 +86995,18 @@
         <v>2</v>
       </c>
       <c r="F537" t="s">
-        <v>3766</v>
+        <v>2426</v>
       </c>
       <c r="L537" t="s">
         <v>5070</v>
       </c>
-      <c r="M537" t="s">
-        <v>3974</v>
-      </c>
       <c r="Q537" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="538" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B538" s="1" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C538" t="s">
         <v>1115</v>
@@ -87001,12 +87024,12 @@
         <v>5070</v>
       </c>
       <c r="Q538" t="s">
-        <v>3981</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="539" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B539" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C539" t="s">
         <v>1115</v>
@@ -87020,16 +87043,22 @@
       <c r="F539" t="s">
         <v>2426</v>
       </c>
+      <c r="G539" t="s">
+        <v>3964</v>
+      </c>
       <c r="L539" t="s">
         <v>5070</v>
       </c>
+      <c r="M539" t="s">
+        <v>5068</v>
+      </c>
       <c r="Q539" t="s">
-        <v>4711</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="540" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B540" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C540" t="s">
         <v>1115</v>
@@ -87053,12 +87082,12 @@
         <v>5068</v>
       </c>
       <c r="Q540" t="s">
-        <v>3982</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="541" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B541" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C541" t="s">
         <v>1115</v>
@@ -87082,14 +87111,14 @@
         <v>5068</v>
       </c>
       <c r="Q541" t="s">
-        <v>4712</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="542" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B542" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C542" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C542" s="2" t="s">
         <v>1115</v>
       </c>
       <c r="D542" s="1" t="s">
@@ -87100,9 +87129,6 @@
       </c>
       <c r="F542" t="s">
         <v>2426</v>
-      </c>
-      <c r="G542" t="s">
-        <v>3964</v>
       </c>
       <c r="L542" t="s">
         <v>5070</v>
@@ -87111,14 +87137,14 @@
         <v>5068</v>
       </c>
       <c r="Q542" t="s">
-        <v>3983</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="543" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B543" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C543" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C543" t="s">
         <v>1115</v>
       </c>
       <c r="D543" s="1" t="s">
@@ -87137,81 +87163,75 @@
         <v>5068</v>
       </c>
       <c r="Q543" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="544" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B544" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C544" t="s">
-        <v>1115</v>
+        <v>1153</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>1154</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E544" t="s">
-        <v>2</v>
-      </c>
-      <c r="F544" t="s">
-        <v>2426</v>
-      </c>
       <c r="L544" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M544" t="s">
-        <v>5068</v>
+        <v>1155</v>
       </c>
       <c r="Q544" t="s">
-        <v>3985</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="545" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B545" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C545" s="2" t="s">
-        <v>1154</v>
+        <v>5556</v>
+      </c>
+      <c r="C545" t="s">
+        <v>5557</v>
       </c>
       <c r="D545" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E545" t="s">
+        <v>2</v>
+      </c>
+      <c r="F545" t="s">
+        <v>2</v>
+      </c>
+      <c r="G545" t="s">
+        <v>2</v>
+      </c>
       <c r="L545" t="s">
-        <v>1155</v>
+        <v>5238</v>
       </c>
       <c r="Q545" t="s">
-        <v>1156</v>
+        <v>5558</v>
       </c>
     </row>
     <row r="546" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B546" s="1" t="s">
-        <v>5556</v>
+        <v>1436</v>
       </c>
       <c r="C546" t="s">
-        <v>5557</v>
+        <v>1437</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E546" t="s">
-        <v>2</v>
-      </c>
-      <c r="F546" t="s">
-        <v>2</v>
-      </c>
-      <c r="G546" t="s">
-        <v>2</v>
+        <v>4029</v>
       </c>
       <c r="L546" t="s">
-        <v>5238</v>
+        <v>542</v>
       </c>
       <c r="Q546" t="s">
-        <v>5558</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="547" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B547" s="1" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="C547" t="s">
         <v>1437</v>
@@ -87226,12 +87246,12 @@
         <v>542</v>
       </c>
       <c r="Q547" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="548" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B548" s="1" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="C548" t="s">
         <v>1437</v>
@@ -87246,12 +87266,12 @@
         <v>542</v>
       </c>
       <c r="Q548" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="549" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B549" s="1" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C549" t="s">
         <v>1437</v>
@@ -87266,12 +87286,12 @@
         <v>542</v>
       </c>
       <c r="Q549" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="550" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B550" s="1" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C550" t="s">
         <v>1437</v>
@@ -87286,12 +87306,12 @@
         <v>542</v>
       </c>
       <c r="Q550" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="551" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B551" s="1" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="C551" t="s">
         <v>1437</v>
@@ -87306,12 +87326,12 @@
         <v>542</v>
       </c>
       <c r="Q551" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="552" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B552" s="1" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C552" t="s">
         <v>1437</v>
@@ -87326,12 +87346,12 @@
         <v>542</v>
       </c>
       <c r="Q552" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="553" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B553" s="1" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="C553" t="s">
         <v>1437</v>
@@ -87346,12 +87366,12 @@
         <v>542</v>
       </c>
       <c r="Q553" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="554" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B554" s="1" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C554" t="s">
         <v>1437</v>
@@ -87366,12 +87386,12 @@
         <v>542</v>
       </c>
       <c r="Q554" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="555" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B555" s="1" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="C555" t="s">
         <v>1437</v>
@@ -87386,12 +87406,12 @@
         <v>542</v>
       </c>
       <c r="Q555" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="556" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B556" s="1" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="C556" t="s">
         <v>1437</v>
@@ -87406,12 +87426,12 @@
         <v>542</v>
       </c>
       <c r="Q556" t="s">
-        <v>1456</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="557" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B557" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C557" t="s">
         <v>1437</v>
@@ -87426,12 +87446,12 @@
         <v>542</v>
       </c>
       <c r="Q557" t="s">
-        <v>4030</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="558" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B558" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C558" t="s">
         <v>1437</v>
@@ -87446,12 +87466,12 @@
         <v>542</v>
       </c>
       <c r="Q558" t="s">
-        <v>4031</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="559" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B559" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C559" t="s">
         <v>1437</v>
@@ -87466,12 +87486,12 @@
         <v>542</v>
       </c>
       <c r="Q559" t="s">
-        <v>4032</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="560" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B560" s="1" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="C560" t="s">
         <v>1437</v>
@@ -87486,12 +87506,12 @@
         <v>542</v>
       </c>
       <c r="Q560" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="561" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B561" s="1" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C561" t="s">
         <v>1437</v>
@@ -87506,12 +87526,12 @@
         <v>542</v>
       </c>
       <c r="Q561" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="562" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B562" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="C562" t="s">
         <v>1437</v>
@@ -87526,12 +87546,12 @@
         <v>542</v>
       </c>
       <c r="Q562" t="s">
-        <v>1465</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="563" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B563" s="1" t="s">
-        <v>1466</v>
+        <v>5873</v>
       </c>
       <c r="C563" t="s">
         <v>1437</v>
@@ -87546,12 +87566,12 @@
         <v>542</v>
       </c>
       <c r="Q563" t="s">
-        <v>4033</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="564" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B564" s="1" t="s">
-        <v>5873</v>
+        <v>1467</v>
       </c>
       <c r="C564" t="s">
         <v>1437</v>
@@ -87566,12 +87586,12 @@
         <v>542</v>
       </c>
       <c r="Q564" t="s">
-        <v>5874</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="565" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B565" s="1" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C565" t="s">
         <v>1437</v>
@@ -87585,13 +87605,16 @@
       <c r="L565" t="s">
         <v>542</v>
       </c>
+      <c r="M565" t="s">
+        <v>4034</v>
+      </c>
       <c r="Q565" t="s">
-        <v>1468</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="566" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B566" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C566" t="s">
         <v>1437</v>
@@ -87609,12 +87632,12 @@
         <v>4034</v>
       </c>
       <c r="Q566" t="s">
-        <v>4035</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="567" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B567" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C567" t="s">
         <v>1437</v>
@@ -87632,12 +87655,12 @@
         <v>4034</v>
       </c>
       <c r="Q567" t="s">
-        <v>4036</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="568" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B568" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C568" t="s">
         <v>1437</v>
@@ -87651,16 +87674,13 @@
       <c r="L568" t="s">
         <v>542</v>
       </c>
-      <c r="M568" t="s">
-        <v>4034</v>
-      </c>
       <c r="Q568" t="s">
-        <v>4037</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="569" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B569" s="1" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="C569" t="s">
         <v>1437</v>
@@ -87675,12 +87695,12 @@
         <v>542</v>
       </c>
       <c r="Q569" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="570" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B570" s="1" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="C570" t="s">
         <v>1437</v>
@@ -87695,12 +87715,12 @@
         <v>542</v>
       </c>
       <c r="Q570" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="571" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B571" s="1" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="C571" t="s">
         <v>1437</v>
@@ -87715,12 +87735,12 @@
         <v>542</v>
       </c>
       <c r="Q571" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="572" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B572" s="1" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="C572" t="s">
         <v>1437</v>
@@ -87731,16 +87751,28 @@
       <c r="E572" t="s">
         <v>4029</v>
       </c>
+      <c r="F572" t="s">
+        <v>3766</v>
+      </c>
       <c r="L572" t="s">
+        <v>77</v>
+      </c>
+      <c r="M572" t="s">
+        <v>5238</v>
+      </c>
+      <c r="N572" t="s">
         <v>542</v>
       </c>
+      <c r="O572" t="s">
+        <v>4034</v>
+      </c>
       <c r="Q572" t="s">
-        <v>1479</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="573" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B573" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C573" t="s">
         <v>1437</v>
@@ -87751,48 +87783,36 @@
       <c r="E573" t="s">
         <v>4029</v>
       </c>
-      <c r="F573" t="s">
-        <v>3766</v>
-      </c>
       <c r="L573" t="s">
-        <v>77</v>
-      </c>
-      <c r="M573" t="s">
-        <v>5238</v>
-      </c>
-      <c r="N573" t="s">
         <v>542</v>
       </c>
-      <c r="O573" t="s">
-        <v>4034</v>
-      </c>
       <c r="Q573" t="s">
-        <v>4728</v>
-      </c>
-    </row>
-    <row r="574" spans="2:17" x14ac:dyDescent="0.35">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="574" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B574" s="1" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="C574" t="s">
-        <v>1437</v>
+        <v>1484</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E574" t="s">
-        <v>4029</v>
+        <v>2426</v>
       </c>
       <c r="L574" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q574" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="575" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B575" s="1" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="C575" t="s">
         <v>1484</v>
@@ -87807,12 +87827,12 @@
         <v>1155</v>
       </c>
       <c r="Q575" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="576" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B576" s="1" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="C576" t="s">
         <v>1484</v>
@@ -87827,15 +87847,15 @@
         <v>1155</v>
       </c>
       <c r="Q576" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="577" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B577" s="1" t="s">
-        <v>1488</v>
+        <v>5877</v>
       </c>
       <c r="C577" t="s">
-        <v>1484</v>
+        <v>1496</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>2</v>
@@ -87847,12 +87867,12 @@
         <v>1155</v>
       </c>
       <c r="Q577" t="s">
-        <v>1489</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="578" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B578" s="1" t="s">
-        <v>5877</v>
+        <v>1498</v>
       </c>
       <c r="C578" t="s">
         <v>1496</v>
@@ -87867,12 +87887,12 @@
         <v>1155</v>
       </c>
       <c r="Q578" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="579" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B579" s="1" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C579" t="s">
         <v>1496</v>
@@ -87887,32 +87907,32 @@
         <v>1155</v>
       </c>
       <c r="Q579" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="580" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="580" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B580" s="1" t="s">
-        <v>1500</v>
+        <v>1514</v>
       </c>
       <c r="C580" t="s">
-        <v>1496</v>
+        <v>1515</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E580" t="s">
         <v>2426</v>
       </c>
       <c r="L580" t="s">
-        <v>1155</v>
+        <v>5505</v>
       </c>
       <c r="Q580" t="s">
-        <v>1501</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="581" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B581" s="1" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="C581" t="s">
         <v>1515</v>
@@ -87927,12 +87947,12 @@
         <v>5505</v>
       </c>
       <c r="Q581" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="582" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B582" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C582" t="s">
         <v>1515</v>
@@ -87947,12 +87967,12 @@
         <v>5505</v>
       </c>
       <c r="Q582" t="s">
-        <v>4041</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="583" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B583" s="1" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="C583" t="s">
         <v>1515</v>
@@ -87967,12 +87987,12 @@
         <v>5505</v>
       </c>
       <c r="Q583" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="584" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B584" s="1" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="C584" t="s">
         <v>1515</v>
@@ -87987,12 +88007,12 @@
         <v>5505</v>
       </c>
       <c r="Q584" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="585" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B585" s="1" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="C585" t="s">
         <v>1515</v>
@@ -88007,12 +88027,12 @@
         <v>5505</v>
       </c>
       <c r="Q585" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="586" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B586" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="C586" t="s">
         <v>1515</v>
@@ -88027,15 +88047,15 @@
         <v>5505</v>
       </c>
       <c r="Q586" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="587" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B587" s="1" t="s">
-        <v>1525</v>
+        <v>2193</v>
       </c>
       <c r="C587" t="s">
-        <v>1515</v>
+        <v>2194</v>
       </c>
       <c r="D587" s="1" t="s">
         <v>404</v>
@@ -88043,16 +88063,22 @@
       <c r="E587" t="s">
         <v>2426</v>
       </c>
+      <c r="F587" t="s">
+        <v>3803</v>
+      </c>
       <c r="L587" t="s">
-        <v>5505</v>
+        <v>55</v>
+      </c>
+      <c r="M587" t="s">
+        <v>542</v>
       </c>
       <c r="Q587" t="s">
-        <v>1526</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="588" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B588" s="1" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="C588" t="s">
         <v>2194</v>
@@ -88073,38 +88099,32 @@
         <v>542</v>
       </c>
       <c r="Q588" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="589" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B589" s="1" t="s">
-        <v>2195</v>
+        <v>2508</v>
       </c>
       <c r="C589" t="s">
-        <v>2194</v>
+        <v>2509</v>
       </c>
       <c r="D589" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E589" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F589" t="s">
-        <v>3803</v>
+        <v>3766</v>
       </c>
       <c r="L589" t="s">
-        <v>55</v>
-      </c>
-      <c r="M589" t="s">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Q589" t="s">
-        <v>4311</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="590" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B590" s="1" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="C590" t="s">
         <v>2509</v>
@@ -88119,12 +88139,12 @@
         <v>77</v>
       </c>
       <c r="Q590" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="591" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B591" s="1" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="C591" t="s">
         <v>2509</v>
@@ -88139,12 +88159,12 @@
         <v>77</v>
       </c>
       <c r="Q591" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="592" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B592" s="1" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="C592" t="s">
         <v>2509</v>
@@ -88159,12 +88179,12 @@
         <v>77</v>
       </c>
       <c r="Q592" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="593" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B593" s="1" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="C593" t="s">
         <v>2509</v>
@@ -88179,12 +88199,12 @@
         <v>77</v>
       </c>
       <c r="Q593" t="s">
-        <v>2516</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="594" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B594" s="1" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="C594" t="s">
         <v>2509</v>
@@ -88199,12 +88219,12 @@
         <v>77</v>
       </c>
       <c r="Q594" t="s">
-        <v>4396</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="595" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B595" s="1" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="C595" t="s">
         <v>2509</v>
@@ -88219,12 +88239,12 @@
         <v>77</v>
       </c>
       <c r="Q595" t="s">
-        <v>2519</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="596" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B596" s="1" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="C596" t="s">
         <v>2509</v>
@@ -88239,12 +88259,12 @@
         <v>77</v>
       </c>
       <c r="Q596" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="597" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B597" s="1" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="C597" t="s">
         <v>2509</v>
@@ -88259,12 +88279,12 @@
         <v>77</v>
       </c>
       <c r="Q597" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="598" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B598" s="1" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="C598" t="s">
         <v>2509</v>
@@ -88279,12 +88299,12 @@
         <v>77</v>
       </c>
       <c r="Q598" t="s">
-        <v>4399</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="599" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B599" s="1" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="C599" t="s">
         <v>2509</v>
@@ -88299,32 +88319,32 @@
         <v>77</v>
       </c>
       <c r="Q599" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="600" spans="2:17" x14ac:dyDescent="0.35">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="600" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B600" s="1" t="s">
-        <v>2525</v>
+        <v>2540</v>
       </c>
       <c r="C600" t="s">
-        <v>2509</v>
+        <v>2541</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E600" t="s">
-        <v>3766</v>
+        <v>351</v>
       </c>
       <c r="L600" t="s">
+        <v>2534</v>
+      </c>
+      <c r="M600" t="s">
         <v>77</v>
       </c>
       <c r="Q600" t="s">
-        <v>2526</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="601" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B601" s="1" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="C601" t="s">
         <v>2541</v>
@@ -88339,12 +88359,12 @@
         <v>77</v>
       </c>
       <c r="Q601" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="602" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B602" s="1" t="s">
-        <v>2542</v>
+        <v>6482</v>
       </c>
       <c r="C602" t="s">
         <v>2541</v>
@@ -88359,12 +88379,12 @@
         <v>77</v>
       </c>
       <c r="Q602" t="s">
-        <v>4403</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="603" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B603" s="1" t="s">
-        <v>6482</v>
+        <v>2551</v>
       </c>
       <c r="C603" t="s">
         <v>2541</v>
@@ -88379,32 +88399,29 @@
         <v>77</v>
       </c>
       <c r="Q603" t="s">
-        <v>6483</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="604" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B604" s="1" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="C604" t="s">
-        <v>2541</v>
+        <v>2555</v>
       </c>
       <c r="D604" s="1" t="s">
         <v>351</v>
       </c>
       <c r="L604" t="s">
-        <v>2534</v>
-      </c>
-      <c r="M604" t="s">
-        <v>77</v>
+        <v>2538</v>
       </c>
       <c r="Q604" t="s">
-        <v>4404</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="605" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B605" s="1" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="C605" t="s">
         <v>2555</v>
@@ -88416,12 +88433,12 @@
         <v>2538</v>
       </c>
       <c r="Q605" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="606" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B606" s="1" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="C606" t="s">
         <v>2555</v>
@@ -88433,12 +88450,12 @@
         <v>2538</v>
       </c>
       <c r="Q606" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="607" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B607" s="1" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="C607" t="s">
         <v>2555</v>
@@ -88450,15 +88467,15 @@
         <v>2538</v>
       </c>
       <c r="Q607" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="608" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B608" s="1" t="s">
-        <v>2561</v>
+        <v>2552</v>
       </c>
       <c r="C608" t="s">
-        <v>2555</v>
+        <v>2537</v>
       </c>
       <c r="D608" s="1" t="s">
         <v>351</v>
@@ -88467,12 +88484,12 @@
         <v>2538</v>
       </c>
       <c r="Q608" t="s">
-        <v>2562</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="609" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B609" s="1" t="s">
-        <v>2552</v>
+        <v>2543</v>
       </c>
       <c r="C609" t="s">
         <v>2537</v>
@@ -88484,12 +88501,12 @@
         <v>2538</v>
       </c>
       <c r="Q609" t="s">
-        <v>2553</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="610" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B610" s="1" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="C610" t="s">
         <v>2537</v>
@@ -88501,29 +88518,29 @@
         <v>2538</v>
       </c>
       <c r="Q610" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="611" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B611" s="1" t="s">
-        <v>2545</v>
+        <v>2575</v>
       </c>
       <c r="C611" t="s">
-        <v>2537</v>
-      </c>
-      <c r="D611" s="1" t="s">
-        <v>351</v>
+        <v>2576</v>
+      </c>
+      <c r="D611" s="1">
+        <v>68000</v>
       </c>
       <c r="L611" t="s">
         <v>2538</v>
       </c>
       <c r="Q611" t="s">
-        <v>2546</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="612" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B612" s="1" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="C612" t="s">
         <v>2576</v>
@@ -88535,12 +88552,12 @@
         <v>2538</v>
       </c>
       <c r="Q612" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="613" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B613" s="1" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="C613" t="s">
         <v>2576</v>
@@ -88552,46 +88569,52 @@
         <v>2538</v>
       </c>
       <c r="Q613" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="614" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B614" s="1" t="s">
-        <v>2580</v>
+        <v>2536</v>
       </c>
       <c r="C614" t="s">
-        <v>2576</v>
-      </c>
-      <c r="D614" s="1">
-        <v>68000</v>
+        <v>2537</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="L614" t="s">
         <v>2538</v>
       </c>
       <c r="Q614" t="s">
-        <v>2581</v>
-      </c>
-    </row>
-    <row r="615" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="615" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B615" s="1" t="s">
-        <v>2536</v>
+        <v>2563</v>
       </c>
       <c r="C615" t="s">
-        <v>2537</v>
+        <v>2564</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>351</v>
+        <v>404</v>
+      </c>
+      <c r="E615" t="s">
+        <v>3766</v>
       </c>
       <c r="L615" t="s">
-        <v>2538</v>
+        <v>3437</v>
+      </c>
+      <c r="M615" t="s">
+        <v>3889</v>
       </c>
       <c r="Q615" t="s">
-        <v>2539</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="616" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B616" s="1" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="C616" t="s">
         <v>2564</v>
@@ -88609,35 +88632,32 @@
         <v>3889</v>
       </c>
       <c r="Q616" t="s">
-        <v>4405</v>
-      </c>
-    </row>
-    <row r="617" spans="2:17" x14ac:dyDescent="0.35">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="617" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B617" s="1" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="C617" t="s">
-        <v>2564</v>
+        <v>2568</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="E617" t="s">
-        <v>3766</v>
+        <v>351</v>
       </c>
       <c r="L617" t="s">
         <v>3437</v>
       </c>
-      <c r="M617" t="s">
-        <v>3889</v>
-      </c>
       <c r="Q617" t="s">
-        <v>4406</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="618" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B618" s="1" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="C618" t="s">
         <v>2568</v>
@@ -88652,12 +88672,12 @@
         <v>3437</v>
       </c>
       <c r="Q618" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="619" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B619" s="1" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="C619" t="s">
         <v>2568</v>
@@ -88672,12 +88692,12 @@
         <v>3437</v>
       </c>
       <c r="Q619" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="620" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B620" s="1" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="C620" t="s">
         <v>2568</v>
@@ -88692,140 +88712,140 @@
         <v>3437</v>
       </c>
       <c r="Q620" t="s">
-        <v>2573</v>
-      </c>
-    </row>
-    <row r="621" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="621" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B621" s="1" t="s">
-        <v>2574</v>
+        <v>2566</v>
       </c>
       <c r="C621" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="E621" t="s">
-        <v>351</v>
+        <v>3766</v>
       </c>
       <c r="L621" t="s">
         <v>3437</v>
       </c>
+      <c r="M621" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q621" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="622" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B622" s="1" t="s">
-        <v>2566</v>
+        <v>3435</v>
       </c>
       <c r="C622" t="s">
-        <v>2564</v>
+        <v>3436</v>
       </c>
       <c r="D622" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E622" t="s">
-        <v>3766</v>
-      </c>
       <c r="L622" t="s">
         <v>3437</v>
       </c>
-      <c r="M622" t="s">
-        <v>3889</v>
-      </c>
       <c r="Q622" t="s">
-        <v>4407</v>
-      </c>
-    </row>
-    <row r="623" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B623" s="1" t="s">
-        <v>3435</v>
-      </c>
-      <c r="C623" t="s">
-        <v>3436</v>
-      </c>
-      <c r="D623" s="1" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="623" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B623" s="5" t="s">
+        <v>6790</v>
+      </c>
+      <c r="C623" s="6" t="s">
+        <v>6791</v>
+      </c>
+      <c r="D623" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="L623" t="s">
-        <v>3437</v>
-      </c>
-      <c r="Q623" t="s">
-        <v>3438</v>
-      </c>
-    </row>
-    <row r="624" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B624" s="5" t="s">
-        <v>6790</v>
-      </c>
-      <c r="C624" s="6" t="s">
+      <c r="E623" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="L623" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q623" s="6" t="s">
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="624" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B624" s="1" t="s">
+        <v>6793</v>
+      </c>
+      <c r="C624" t="s">
         <v>6791</v>
       </c>
-      <c r="D624" s="5" t="s">
+      <c r="D624" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E624" s="6" t="s">
+      <c r="E624" t="s">
         <v>404</v>
       </c>
-      <c r="L624" s="6" t="s">
+      <c r="L624" t="s">
         <v>542</v>
       </c>
-      <c r="Q624" s="6" t="s">
-        <v>6792</v>
+      <c r="Q624" t="s">
+        <v>6794</v>
       </c>
     </row>
     <row r="625" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B625" s="1" t="s">
-        <v>6793</v>
+        <v>313</v>
       </c>
       <c r="C625" t="s">
-        <v>6791</v>
-      </c>
-      <c r="D625" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E625" t="s">
-        <v>404</v>
-      </c>
-      <c r="L625" t="s">
-        <v>542</v>
+        <v>314</v>
+      </c>
+      <c r="D625" s="1">
+        <v>8080</v>
       </c>
       <c r="Q625" t="s">
-        <v>6794</v>
+        <v>315</v>
       </c>
     </row>
     <row r="626" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B626" s="1" t="s">
-        <v>313</v>
+        <v>753</v>
       </c>
       <c r="C626" t="s">
-        <v>314</v>
+        <v>754</v>
       </c>
       <c r="D626" s="1">
         <v>8080</v>
       </c>
       <c r="Q626" t="s">
-        <v>315</v>
+        <v>755</v>
       </c>
     </row>
     <row r="627" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B627" s="1" t="s">
-        <v>753</v>
+        <v>3188</v>
       </c>
       <c r="C627" t="s">
-        <v>754</v>
-      </c>
-      <c r="D627" s="1">
-        <v>8080</v>
+        <v>3189</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E627" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L627" t="s">
+        <v>5505</v>
       </c>
       <c r="Q627" t="s">
-        <v>755</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="628" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B628" s="1" t="s">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="C628" t="s">
         <v>3189</v>
@@ -88840,69 +88860,69 @@
         <v>5505</v>
       </c>
       <c r="Q628" t="s">
-        <v>3190</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="629" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B629" s="1" t="s">
-        <v>3191</v>
+        <v>2680</v>
       </c>
       <c r="C629" t="s">
-        <v>3189</v>
+        <v>2681</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="E629" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L629" t="s">
-        <v>5505</v>
+        <v>2538</v>
       </c>
       <c r="Q629" t="s">
-        <v>4535</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="630" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B630" s="1" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="C630" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
       <c r="D630" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E630" t="s">
-        <v>351</v>
-      </c>
       <c r="L630" t="s">
         <v>2538</v>
       </c>
       <c r="Q630" t="s">
-        <v>2682</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="631" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B631" s="1" t="s">
-        <v>2683</v>
+        <v>2950</v>
       </c>
       <c r="C631" t="s">
-        <v>2684</v>
+        <v>2951</v>
       </c>
       <c r="D631" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="E631" t="s">
+        <v>3899</v>
+      </c>
       <c r="L631" t="s">
-        <v>2538</v>
+        <v>55</v>
       </c>
       <c r="Q631" t="s">
-        <v>2685</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="632" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B632" s="1" t="s">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="C632" t="s">
         <v>2951</v>
@@ -88917,12 +88937,12 @@
         <v>55</v>
       </c>
       <c r="Q632" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="633" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B633" s="1" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="C633" t="s">
         <v>2951</v>
@@ -88937,12 +88957,12 @@
         <v>55</v>
       </c>
       <c r="Q633" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="634" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B634" s="1" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="C634" t="s">
         <v>2951</v>
@@ -88957,49 +88977,46 @@
         <v>55</v>
       </c>
       <c r="Q634" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="635" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B635" s="1" t="s">
-        <v>2957</v>
+        <v>2672</v>
       </c>
       <c r="C635" t="s">
-        <v>2951</v>
+        <v>2673</v>
       </c>
       <c r="D635" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E635" t="s">
-        <v>3899</v>
-      </c>
       <c r="L635" t="s">
-        <v>55</v>
+        <v>2538</v>
       </c>
       <c r="Q635" t="s">
-        <v>2958</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="636" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B636" s="1" t="s">
-        <v>2672</v>
+        <v>332</v>
       </c>
       <c r="C636" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D636" s="1" t="s">
-        <v>351</v>
+        <v>333</v>
+      </c>
+      <c r="D636" s="1">
+        <v>8080</v>
       </c>
       <c r="L636" t="s">
-        <v>2538</v>
+        <v>77</v>
       </c>
       <c r="Q636" t="s">
-        <v>2674</v>
+        <v>334</v>
       </c>
     </row>
     <row r="637" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B637" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C637" t="s">
         <v>333</v>
@@ -89011,12 +89028,12 @@
         <v>77</v>
       </c>
       <c r="Q637" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="638" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B638" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C638" t="s">
         <v>333</v>
@@ -89028,12 +89045,12 @@
         <v>77</v>
       </c>
       <c r="Q638" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="639" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B639" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C639" t="s">
         <v>333</v>
@@ -89045,12 +89062,12 @@
         <v>77</v>
       </c>
       <c r="Q639" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="640" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B640" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C640" t="s">
         <v>333</v>
@@ -89062,12 +89079,12 @@
         <v>77</v>
       </c>
       <c r="Q640" t="s">
-        <v>345</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="641" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B641" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C641" t="s">
         <v>333</v>
@@ -89079,46 +89096,46 @@
         <v>77</v>
       </c>
       <c r="Q641" t="s">
-        <v>3741</v>
+        <v>348</v>
       </c>
     </row>
     <row r="642" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B642" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C642" t="s">
-        <v>333</v>
-      </c>
-      <c r="D642" s="1">
-        <v>8080</v>
+        <v>350</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="L642" t="s">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="Q642" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="643" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B643" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C643" t="s">
-        <v>350</v>
-      </c>
-      <c r="D643" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
+      </c>
+      <c r="D643" s="1">
+        <v>8080</v>
       </c>
       <c r="L643" t="s">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Q643" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="644" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B644" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C644" t="s">
         <v>338</v>
@@ -89130,12 +89147,12 @@
         <v>77</v>
       </c>
       <c r="Q644" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="645" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B645" s="1" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="C645" t="s">
         <v>338</v>
@@ -89147,12 +89164,12 @@
         <v>77</v>
       </c>
       <c r="Q645" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="646" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B646" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C646" t="s">
         <v>338</v>
@@ -89164,12 +89181,12 @@
         <v>77</v>
       </c>
       <c r="Q646" t="s">
-        <v>355</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="647" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B647" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C647" t="s">
         <v>338</v>
@@ -89181,29 +89198,29 @@
         <v>77</v>
       </c>
       <c r="Q647" t="s">
-        <v>3742</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="648" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B648" s="1" t="s">
-        <v>357</v>
+        <v>1744</v>
       </c>
       <c r="C648" t="s">
-        <v>338</v>
+        <v>1745</v>
       </c>
       <c r="D648" s="1">
         <v>8080</v>
       </c>
       <c r="L648" t="s">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="Q648" t="s">
-        <v>3743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="649" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B649" s="1" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="C649" t="s">
         <v>1745</v>
@@ -89215,12 +89232,12 @@
         <v>352</v>
       </c>
       <c r="Q649" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="650" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B650" s="1" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="C650" t="s">
         <v>1745</v>
@@ -89232,12 +89249,12 @@
         <v>352</v>
       </c>
       <c r="Q650" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="651" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B651" s="1" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="C651" t="s">
         <v>1745</v>
@@ -89249,12 +89266,12 @@
         <v>352</v>
       </c>
       <c r="Q651" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="652" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B652" s="1" t="s">
-        <v>1751</v>
+        <v>6169</v>
       </c>
       <c r="C652" t="s">
         <v>1745</v>
@@ -89266,29 +89283,29 @@
         <v>352</v>
       </c>
       <c r="Q652" t="s">
-        <v>1752</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="653" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B653" s="1" t="s">
-        <v>6169</v>
+        <v>3439</v>
       </c>
       <c r="C653" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D653" s="1">
-        <v>8080</v>
-      </c>
-      <c r="L653" t="s">
-        <v>352</v>
+        <v>3440</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E653" t="s">
+        <v>3888</v>
       </c>
       <c r="Q653" t="s">
-        <v>6170</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="654" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B654" s="1" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="C654" t="s">
         <v>3440</v>
@@ -89300,29 +89317,32 @@
         <v>3888</v>
       </c>
       <c r="Q654" t="s">
-        <v>3441</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="655" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B655" s="1" t="s">
-        <v>3442</v>
+        <v>6853</v>
       </c>
       <c r="C655" t="s">
-        <v>3440</v>
+        <v>6854</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>404</v>
+        <v>3469</v>
       </c>
       <c r="E655" t="s">
-        <v>3888</v>
+        <v>3794</v>
+      </c>
+      <c r="L655" t="s">
+        <v>1900</v>
       </c>
       <c r="Q655" t="s">
-        <v>3443</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="656" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B656" s="1" t="s">
-        <v>6853</v>
+        <v>6856</v>
       </c>
       <c r="C656" t="s">
         <v>6854</v>
@@ -89337,12 +89357,12 @@
         <v>1900</v>
       </c>
       <c r="Q656" t="s">
-        <v>6855</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="657" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B657" s="1" t="s">
-        <v>6856</v>
+        <v>3468</v>
       </c>
       <c r="C657" t="s">
         <v>6854</v>
@@ -89357,32 +89377,32 @@
         <v>1900</v>
       </c>
       <c r="Q657" t="s">
-        <v>6857</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="658" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B658" s="1" t="s">
-        <v>3468</v>
+        <v>5080</v>
       </c>
       <c r="C658" t="s">
-        <v>6854</v>
+        <v>5081</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>3469</v>
-      </c>
-      <c r="E658" t="s">
-        <v>3794</v>
+        <v>2</v>
       </c>
       <c r="L658" t="s">
-        <v>1900</v>
+        <v>5071</v>
+      </c>
+      <c r="M658" t="s">
+        <v>542</v>
       </c>
       <c r="Q658" t="s">
-        <v>3470</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="659" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B659" s="1" t="s">
-        <v>5080</v>
+        <v>5083</v>
       </c>
       <c r="C659" t="s">
         <v>5081</v>
@@ -89397,12 +89417,12 @@
         <v>542</v>
       </c>
       <c r="Q659" t="s">
-        <v>5082</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="660" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B660" s="1" t="s">
-        <v>5083</v>
+        <v>5085</v>
       </c>
       <c r="C660" t="s">
         <v>5081</v>
@@ -89417,12 +89437,12 @@
         <v>542</v>
       </c>
       <c r="Q660" t="s">
-        <v>5084</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="661" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B661" s="1" t="s">
-        <v>5085</v>
+        <v>5087</v>
       </c>
       <c r="C661" t="s">
         <v>5081</v>
@@ -89437,12 +89457,12 @@
         <v>542</v>
       </c>
       <c r="Q661" t="s">
-        <v>5086</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="662" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B662" s="1" t="s">
-        <v>5087</v>
+        <v>5089</v>
       </c>
       <c r="C662" t="s">
         <v>5081</v>
@@ -89451,18 +89471,18 @@
         <v>2</v>
       </c>
       <c r="L662" t="s">
-        <v>5071</v>
+        <v>55</v>
       </c>
       <c r="M662" t="s">
         <v>542</v>
       </c>
       <c r="Q662" t="s">
-        <v>5088</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="663" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B663" s="1" t="s">
-        <v>5089</v>
+        <v>5091</v>
       </c>
       <c r="C663" t="s">
         <v>5081</v>
@@ -89477,12 +89497,12 @@
         <v>542</v>
       </c>
       <c r="Q663" t="s">
-        <v>5090</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="664" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B664" s="1" t="s">
-        <v>5091</v>
+        <v>5093</v>
       </c>
       <c r="C664" t="s">
         <v>5081</v>
@@ -89497,12 +89517,12 @@
         <v>542</v>
       </c>
       <c r="Q664" t="s">
-        <v>5092</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="665" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B665" s="1" t="s">
-        <v>5093</v>
+        <v>5095</v>
       </c>
       <c r="C665" t="s">
         <v>5081</v>
@@ -89517,12 +89537,12 @@
         <v>542</v>
       </c>
       <c r="Q665" t="s">
-        <v>5094</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="666" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B666" s="1" t="s">
-        <v>5095</v>
+        <v>5097</v>
       </c>
       <c r="C666" t="s">
         <v>5081</v>
@@ -89537,12 +89557,12 @@
         <v>542</v>
       </c>
       <c r="Q666" t="s">
-        <v>5096</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="667" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B667" s="1" t="s">
-        <v>5097</v>
+        <v>5099</v>
       </c>
       <c r="C667" t="s">
         <v>5081</v>
@@ -89557,12 +89577,12 @@
         <v>542</v>
       </c>
       <c r="Q667" t="s">
-        <v>5098</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="668" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B668" s="1" t="s">
-        <v>5099</v>
+        <v>5101</v>
       </c>
       <c r="C668" t="s">
         <v>5081</v>
@@ -89577,12 +89597,12 @@
         <v>542</v>
       </c>
       <c r="Q668" t="s">
-        <v>5100</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="669" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B669" s="1" t="s">
-        <v>5101</v>
+        <v>5103</v>
       </c>
       <c r="C669" t="s">
         <v>5081</v>
@@ -89597,12 +89617,12 @@
         <v>542</v>
       </c>
       <c r="Q669" t="s">
-        <v>5102</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="670" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B670" s="1" t="s">
-        <v>5103</v>
+        <v>5105</v>
       </c>
       <c r="C670" t="s">
         <v>5081</v>
@@ -89617,12 +89637,12 @@
         <v>542</v>
       </c>
       <c r="Q670" t="s">
-        <v>5104</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="671" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B671" s="1" t="s">
-        <v>5105</v>
+        <v>5107</v>
       </c>
       <c r="C671" t="s">
         <v>5081</v>
@@ -89637,12 +89657,12 @@
         <v>542</v>
       </c>
       <c r="Q671" t="s">
-        <v>5106</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="672" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B672" s="1" t="s">
-        <v>5107</v>
+        <v>5109</v>
       </c>
       <c r="C672" t="s">
         <v>5081</v>
@@ -89657,12 +89677,12 @@
         <v>542</v>
       </c>
       <c r="Q672" t="s">
-        <v>5108</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="673" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B673" s="1" t="s">
-        <v>5109</v>
+        <v>5111</v>
       </c>
       <c r="C673" t="s">
         <v>5081</v>
@@ -89677,12 +89697,12 @@
         <v>542</v>
       </c>
       <c r="Q673" t="s">
-        <v>5110</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="674" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B674" s="1" t="s">
-        <v>5111</v>
+        <v>5113</v>
       </c>
       <c r="C674" t="s">
         <v>5081</v>
@@ -89697,15 +89717,15 @@
         <v>542</v>
       </c>
       <c r="Q674" t="s">
-        <v>5112</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="675" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B675" s="1" t="s">
-        <v>5113</v>
+        <v>5072</v>
       </c>
       <c r="C675" t="s">
-        <v>5081</v>
+        <v>5073</v>
       </c>
       <c r="D675" s="1" t="s">
         <v>2</v>
@@ -89717,12 +89737,12 @@
         <v>542</v>
       </c>
       <c r="Q675" t="s">
-        <v>5114</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="676" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B676" s="1" t="s">
-        <v>5072</v>
+        <v>5075</v>
       </c>
       <c r="C676" t="s">
         <v>5073</v>
@@ -89737,32 +89757,26 @@
         <v>542</v>
       </c>
       <c r="Q676" t="s">
-        <v>5074</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="677" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B677" s="1" t="s">
-        <v>5075</v>
+        <v>2969</v>
       </c>
       <c r="C677" t="s">
-        <v>5073</v>
+        <v>2970</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L677" t="s">
-        <v>55</v>
-      </c>
-      <c r="M677" t="s">
-        <v>542</v>
+        <v>181</v>
       </c>
       <c r="Q677" t="s">
-        <v>5076</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="678" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B678" s="1" t="s">
-        <v>2969</v>
+        <v>2972</v>
       </c>
       <c r="C678" t="s">
         <v>2970</v>
@@ -89771,20 +89785,6 @@
         <v>181</v>
       </c>
       <c r="Q678" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="679" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B679" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="C679" t="s">
-        <v>2970</v>
-      </c>
-      <c r="D679" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q679" t="s">
         <v>2973</v>
       </c>
     </row>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -64351,10 +64351,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q575"/>
+  <dimension ref="B1:Q576"/>
   <sheetViews>
     <sheetView topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="A574" sqref="A574:XFD575"/>
+      <selection activeCell="A576" sqref="A576:XFD576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -76221,6 +76221,23 @@
       </c>
       <c r="Q575" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="576" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B576" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C576" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L576" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Q576" t="s">
+        <v>2606</v>
       </c>
     </row>
   </sheetData>
@@ -76231,10 +76248,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q636"/>
+  <dimension ref="B1:Q635"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -79814,61 +79831,67 @@
     </row>
     <row r="172" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B172" s="1" t="s">
-        <v>2603</v>
+        <v>6476</v>
       </c>
       <c r="C172" t="s">
-        <v>2604</v>
+        <v>6477</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>351</v>
+        <v>6478</v>
       </c>
       <c r="L172" t="s">
-        <v>2605</v>
+        <v>6479</v>
+      </c>
+      <c r="M172" t="s">
+        <v>6480</v>
       </c>
       <c r="Q172" t="s">
-        <v>2606</v>
+        <v>6481</v>
       </c>
     </row>
     <row r="173" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B173" s="1" t="s">
-        <v>6476</v>
+        <v>2631</v>
       </c>
       <c r="C173" t="s">
-        <v>6477</v>
+        <v>2632</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>6478</v>
+        <v>351</v>
       </c>
       <c r="L173" t="s">
-        <v>6479</v>
-      </c>
-      <c r="M173" t="s">
-        <v>6480</v>
+        <v>2534</v>
       </c>
       <c r="Q173" t="s">
-        <v>6481</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="174" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B174" s="1" t="s">
-        <v>2631</v>
+        <v>1348</v>
       </c>
       <c r="C174" t="s">
-        <v>2632</v>
+        <v>1349</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
+      </c>
+      <c r="E174" t="s">
+        <v>2</v>
+      </c>
+      <c r="F174" t="s">
+        <v>4013</v>
       </c>
       <c r="L174" t="s">
-        <v>2534</v>
+        <v>5071</v>
       </c>
       <c r="Q174" t="s">
-        <v>2633</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="175" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B175" s="1" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="C175" t="s">
         <v>1349</v>
@@ -79886,12 +79909,12 @@
         <v>5071</v>
       </c>
       <c r="Q175" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="176" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B176" s="1" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="C176" t="s">
         <v>1349</v>
@@ -79909,35 +79932,32 @@
         <v>5071</v>
       </c>
       <c r="Q176" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B177" s="1" t="s">
-        <v>1353</v>
+        <v>1505</v>
       </c>
       <c r="C177" t="s">
-        <v>1349</v>
+        <v>1506</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>2</v>
-      </c>
-      <c r="F177" t="s">
-        <v>4013</v>
+        <v>2426</v>
       </c>
       <c r="L177" t="s">
-        <v>5071</v>
+        <v>5505</v>
       </c>
       <c r="Q177" t="s">
-        <v>1354</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="178" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B178" s="1" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="C178" t="s">
         <v>1506</v>
@@ -79952,12 +79972,12 @@
         <v>5505</v>
       </c>
       <c r="Q178" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B179" s="1" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="C179" t="s">
         <v>1506</v>
@@ -79972,12 +79992,12 @@
         <v>5505</v>
       </c>
       <c r="Q179" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B180" s="1" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="C180" t="s">
         <v>1506</v>
@@ -79992,32 +80012,32 @@
         <v>5505</v>
       </c>
       <c r="Q180" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B181" s="1" t="s">
-        <v>1512</v>
+        <v>1685</v>
       </c>
       <c r="C181" t="s">
-        <v>1506</v>
+        <v>1686</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E181" t="s">
-        <v>2426</v>
-      </c>
       <c r="L181" t="s">
-        <v>5505</v>
+        <v>1687</v>
+      </c>
+      <c r="M181" t="s">
+        <v>6093</v>
       </c>
       <c r="Q181" t="s">
-        <v>1513</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B182" s="1" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="C182" t="s">
         <v>1686</v>
@@ -80032,12 +80052,12 @@
         <v>6093</v>
       </c>
       <c r="Q182" t="s">
-        <v>4112</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="183" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B183" s="1" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C183" t="s">
         <v>1686</v>
@@ -80052,12 +80072,12 @@
         <v>6093</v>
       </c>
       <c r="Q183" t="s">
-        <v>4758</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="184" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B184" s="1" t="s">
-        <v>1689</v>
+        <v>6094</v>
       </c>
       <c r="C184" t="s">
         <v>1686</v>
@@ -80072,12 +80092,12 @@
         <v>6093</v>
       </c>
       <c r="Q184" t="s">
-        <v>4113</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="185" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B185" s="1" t="s">
-        <v>6094</v>
+        <v>1690</v>
       </c>
       <c r="C185" t="s">
         <v>1686</v>
@@ -80092,12 +80112,12 @@
         <v>6093</v>
       </c>
       <c r="Q185" t="s">
-        <v>6095</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="186" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B186" s="1" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C186" t="s">
         <v>1686</v>
@@ -80112,12 +80132,12 @@
         <v>6093</v>
       </c>
       <c r="Q186" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="187" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B187" s="1" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C187" t="s">
         <v>1686</v>
@@ -80132,12 +80152,12 @@
         <v>6093</v>
       </c>
       <c r="Q187" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="188" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B188" s="1" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C188" t="s">
         <v>1686</v>
@@ -80152,12 +80172,12 @@
         <v>6093</v>
       </c>
       <c r="Q188" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="189" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B189" s="1" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C189" t="s">
         <v>1686</v>
@@ -80172,12 +80192,12 @@
         <v>6093</v>
       </c>
       <c r="Q189" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="190" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B190" s="1" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="C190" t="s">
         <v>1686</v>
@@ -80192,12 +80212,12 @@
         <v>6093</v>
       </c>
       <c r="Q190" t="s">
-        <v>4118</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="191" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B191" s="1" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C191" t="s">
         <v>1686</v>
@@ -80212,12 +80232,12 @@
         <v>6093</v>
       </c>
       <c r="Q191" t="s">
-        <v>4120</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B192" s="1" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C192" t="s">
         <v>1686</v>
@@ -80232,12 +80252,12 @@
         <v>6093</v>
       </c>
       <c r="Q192" t="s">
-        <v>4759</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B193" s="1" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C193" t="s">
         <v>1686</v>
@@ -80252,12 +80272,12 @@
         <v>6093</v>
       </c>
       <c r="Q193" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B194" s="1" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C194" t="s">
         <v>1686</v>
@@ -80272,12 +80292,12 @@
         <v>6093</v>
       </c>
       <c r="Q194" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B195" s="1" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C195" t="s">
         <v>1686</v>
@@ -80292,12 +80312,12 @@
         <v>6093</v>
       </c>
       <c r="Q195" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B196" s="1" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C196" t="s">
         <v>1686</v>
@@ -80312,12 +80332,12 @@
         <v>6093</v>
       </c>
       <c r="Q196" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B197" s="1" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C197" t="s">
         <v>1686</v>
@@ -80332,12 +80352,12 @@
         <v>6093</v>
       </c>
       <c r="Q197" t="s">
-        <v>4125</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B198" s="1" t="s">
-        <v>1704</v>
+        <v>6097</v>
       </c>
       <c r="C198" t="s">
         <v>1686</v>
@@ -80352,12 +80372,12 @@
         <v>6093</v>
       </c>
       <c r="Q198" t="s">
-        <v>6096</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B199" s="1" t="s">
-        <v>6097</v>
+        <v>1705</v>
       </c>
       <c r="C199" t="s">
         <v>1686</v>
@@ -80372,12 +80392,12 @@
         <v>6093</v>
       </c>
       <c r="Q199" t="s">
-        <v>6098</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B200" s="1" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C200" t="s">
         <v>1686</v>
@@ -80392,32 +80412,35 @@
         <v>6093</v>
       </c>
       <c r="Q200" t="s">
-        <v>6099</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B201" s="1" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C201" t="s">
-        <v>1686</v>
+        <v>1708</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E201" t="s">
+        <v>3766</v>
       </c>
       <c r="L201" t="s">
-        <v>1687</v>
+        <v>5070</v>
       </c>
       <c r="M201" t="s">
-        <v>6093</v>
+        <v>542</v>
       </c>
       <c r="Q201" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B202" s="1" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="C202" t="s">
         <v>1708</v>
@@ -80435,12 +80458,12 @@
         <v>542</v>
       </c>
       <c r="Q202" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B203" s="1" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C203" t="s">
         <v>1708</v>
@@ -80458,12 +80481,12 @@
         <v>542</v>
       </c>
       <c r="Q203" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="204" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B204" s="1" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C204" t="s">
         <v>1708</v>
@@ -80481,35 +80504,35 @@
         <v>542</v>
       </c>
       <c r="Q204" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="205" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B205" s="1" t="s">
-        <v>1711</v>
+        <v>6100</v>
       </c>
       <c r="C205" t="s">
-        <v>1708</v>
+        <v>6101</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E205" t="s">
-        <v>3766</v>
+        <v>404</v>
       </c>
       <c r="L205" t="s">
         <v>5070</v>
       </c>
       <c r="M205" t="s">
-        <v>542</v>
+        <v>1687</v>
       </c>
       <c r="Q205" t="s">
-        <v>4130</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B206" s="1" t="s">
-        <v>6100</v>
+        <v>6103</v>
       </c>
       <c r="C206" t="s">
         <v>6101</v>
@@ -80527,12 +80550,12 @@
         <v>1687</v>
       </c>
       <c r="Q206" t="s">
-        <v>6102</v>
+        <v>6104</v>
       </c>
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B207" s="1" t="s">
-        <v>6103</v>
+        <v>6105</v>
       </c>
       <c r="C207" t="s">
         <v>6101</v>
@@ -80550,12 +80573,12 @@
         <v>1687</v>
       </c>
       <c r="Q207" t="s">
-        <v>6104</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="208" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B208" s="1" t="s">
-        <v>6105</v>
+        <v>6107</v>
       </c>
       <c r="C208" t="s">
         <v>6101</v>
@@ -80573,12 +80596,12 @@
         <v>1687</v>
       </c>
       <c r="Q208" t="s">
-        <v>6106</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="209" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B209" s="1" t="s">
-        <v>6107</v>
+        <v>6109</v>
       </c>
       <c r="C209" t="s">
         <v>6101</v>
@@ -80590,18 +80613,18 @@
         <v>404</v>
       </c>
       <c r="L209" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M209" t="s">
         <v>1687</v>
       </c>
       <c r="Q209" t="s">
-        <v>6108</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="210" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B210" s="1" t="s">
-        <v>6109</v>
+        <v>6111</v>
       </c>
       <c r="C210" t="s">
         <v>6101</v>
@@ -80612,19 +80635,22 @@
       <c r="E210" t="s">
         <v>404</v>
       </c>
+      <c r="F210" t="s">
+        <v>2</v>
+      </c>
       <c r="L210" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="M210" t="s">
         <v>1687</v>
       </c>
       <c r="Q210" t="s">
-        <v>6110</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="211" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B211" s="1" t="s">
-        <v>6111</v>
+        <v>6113</v>
       </c>
       <c r="C211" t="s">
         <v>6101</v>
@@ -80645,12 +80671,12 @@
         <v>1687</v>
       </c>
       <c r="Q211" t="s">
-        <v>6112</v>
+        <v>6114</v>
       </c>
     </row>
     <row r="212" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B212" s="1" t="s">
-        <v>6113</v>
+        <v>6115</v>
       </c>
       <c r="C212" t="s">
         <v>6101</v>
@@ -80661,22 +80687,19 @@
       <c r="E212" t="s">
         <v>404</v>
       </c>
-      <c r="F212" t="s">
-        <v>2</v>
-      </c>
       <c r="L212" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M212" t="s">
         <v>1687</v>
       </c>
       <c r="Q212" t="s">
-        <v>6114</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="213" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B213" s="1" t="s">
-        <v>6115</v>
+        <v>6117</v>
       </c>
       <c r="C213" t="s">
         <v>6101</v>
@@ -80694,12 +80717,12 @@
         <v>1687</v>
       </c>
       <c r="Q213" t="s">
-        <v>6116</v>
+        <v>6118</v>
       </c>
     </row>
     <row r="214" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B214" s="1" t="s">
-        <v>6117</v>
+        <v>6119</v>
       </c>
       <c r="C214" t="s">
         <v>6101</v>
@@ -80717,12 +80740,12 @@
         <v>1687</v>
       </c>
       <c r="Q214" t="s">
-        <v>6118</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="215" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B215" s="1" t="s">
-        <v>6119</v>
+        <v>6121</v>
       </c>
       <c r="C215" t="s">
         <v>6101</v>
@@ -80740,12 +80763,12 @@
         <v>1687</v>
       </c>
       <c r="Q215" t="s">
-        <v>6120</v>
+        <v>6122</v>
       </c>
     </row>
     <row r="216" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B216" s="1" t="s">
-        <v>6121</v>
+        <v>6123</v>
       </c>
       <c r="C216" t="s">
         <v>6101</v>
@@ -80763,12 +80786,12 @@
         <v>1687</v>
       </c>
       <c r="Q216" t="s">
-        <v>6122</v>
+        <v>6124</v>
       </c>
     </row>
     <row r="217" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B217" s="1" t="s">
-        <v>6123</v>
+        <v>6125</v>
       </c>
       <c r="C217" t="s">
         <v>6101</v>
@@ -80786,12 +80809,12 @@
         <v>1687</v>
       </c>
       <c r="Q217" t="s">
-        <v>6124</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="218" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B218" s="1" t="s">
-        <v>6125</v>
+        <v>6127</v>
       </c>
       <c r="C218" t="s">
         <v>6101</v>
@@ -80809,18 +80832,18 @@
         <v>1687</v>
       </c>
       <c r="Q218" t="s">
-        <v>6126</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="219" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B219" s="1" t="s">
-        <v>6127</v>
+        <v>6129</v>
       </c>
       <c r="C219" t="s">
         <v>6101</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>404</v>
+      <c r="D219" s="1">
+        <v>68000</v>
       </c>
       <c r="E219" t="s">
         <v>404</v>
@@ -80832,18 +80855,18 @@
         <v>1687</v>
       </c>
       <c r="Q219" t="s">
-        <v>6128</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="220" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B220" s="1" t="s">
-        <v>6129</v>
+        <v>6131</v>
       </c>
       <c r="C220" t="s">
         <v>6101</v>
       </c>
-      <c r="D220" s="1">
-        <v>68000</v>
+      <c r="D220" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E220" t="s">
         <v>404</v>
@@ -80855,12 +80878,12 @@
         <v>1687</v>
       </c>
       <c r="Q220" t="s">
-        <v>6130</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="221" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B221" s="1" t="s">
-        <v>6131</v>
+        <v>6133</v>
       </c>
       <c r="C221" t="s">
         <v>6101</v>
@@ -80872,18 +80895,18 @@
         <v>404</v>
       </c>
       <c r="L221" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="M221" t="s">
         <v>1687</v>
       </c>
       <c r="Q221" t="s">
-        <v>6132</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="222" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B222" s="1" t="s">
-        <v>6133</v>
+        <v>6135</v>
       </c>
       <c r="C222" t="s">
         <v>6101</v>
@@ -80901,12 +80924,12 @@
         <v>1687</v>
       </c>
       <c r="Q222" t="s">
-        <v>6134</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="223" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B223" s="1" t="s">
-        <v>6135</v>
+        <v>6137</v>
       </c>
       <c r="C223" t="s">
         <v>6101</v>
@@ -80918,41 +80941,41 @@
         <v>404</v>
       </c>
       <c r="L223" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M223" t="s">
         <v>1687</v>
       </c>
       <c r="Q223" t="s">
-        <v>6136</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="224" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B224" s="1" t="s">
-        <v>6137</v>
+        <v>1712</v>
       </c>
       <c r="C224" t="s">
-        <v>6101</v>
+        <v>1713</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E224" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="L224" t="s">
-        <v>5071</v>
+        <v>1155</v>
       </c>
       <c r="M224" t="s">
-        <v>1687</v>
+        <v>77</v>
       </c>
       <c r="Q224" t="s">
-        <v>6138</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="225" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B225" s="1" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C225" t="s">
         <v>1713</v>
@@ -80970,12 +80993,12 @@
         <v>77</v>
       </c>
       <c r="Q225" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="226" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B226" s="1" t="s">
-        <v>1714</v>
+        <v>6165</v>
       </c>
       <c r="C226" t="s">
         <v>1713</v>
@@ -80993,12 +81016,12 @@
         <v>77</v>
       </c>
       <c r="Q226" t="s">
-        <v>4132</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="227" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B227" s="1" t="s">
-        <v>6165</v>
+        <v>1715</v>
       </c>
       <c r="C227" t="s">
         <v>1713</v>
@@ -81016,12 +81039,12 @@
         <v>77</v>
       </c>
       <c r="Q227" t="s">
-        <v>6166</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="228" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B228" s="1" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C228" t="s">
         <v>1713</v>
@@ -81039,12 +81062,12 @@
         <v>77</v>
       </c>
       <c r="Q228" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="229" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B229" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C229" t="s">
         <v>1713</v>
@@ -81062,12 +81085,12 @@
         <v>77</v>
       </c>
       <c r="Q229" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="230" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B230" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C230" t="s">
         <v>1713</v>
@@ -81085,12 +81108,12 @@
         <v>77</v>
       </c>
       <c r="Q230" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="231" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B231" s="1" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C231" t="s">
         <v>1713</v>
@@ -81108,12 +81131,12 @@
         <v>77</v>
       </c>
       <c r="Q231" t="s">
-        <v>4136</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="232" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B232" s="1" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C232" t="s">
         <v>1713</v>
@@ -81131,12 +81154,12 @@
         <v>77</v>
       </c>
       <c r="Q232" t="s">
-        <v>4760</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="233" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B233" s="1" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C233" t="s">
         <v>1713</v>
@@ -81147,6 +81170,9 @@
       <c r="E233" t="s">
         <v>2</v>
       </c>
+      <c r="F233" t="s">
+        <v>4138</v>
+      </c>
       <c r="L233" t="s">
         <v>1155</v>
       </c>
@@ -81154,12 +81180,12 @@
         <v>77</v>
       </c>
       <c r="Q233" t="s">
-        <v>4137</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="234" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B234" s="1" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C234" t="s">
         <v>1713</v>
@@ -81180,12 +81206,12 @@
         <v>77</v>
       </c>
       <c r="Q234" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="235" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B235" s="1" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C235" t="s">
         <v>1713</v>
@@ -81206,12 +81232,12 @@
         <v>77</v>
       </c>
       <c r="Q235" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="236" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B236" s="1" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C236" t="s">
         <v>1713</v>
@@ -81232,12 +81258,12 @@
         <v>77</v>
       </c>
       <c r="Q236" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="237" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B237" s="1" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C237" t="s">
         <v>1713</v>
@@ -81258,12 +81284,12 @@
         <v>77</v>
       </c>
       <c r="Q237" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="238" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B238" s="1" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C238" t="s">
         <v>1713</v>
@@ -81284,12 +81310,12 @@
         <v>77</v>
       </c>
       <c r="Q238" t="s">
-        <v>4143</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="239" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B239" s="1" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C239" t="s">
         <v>1713</v>
@@ -81310,12 +81336,12 @@
         <v>77</v>
       </c>
       <c r="Q239" t="s">
-        <v>4761</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="240" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B240" s="1" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C240" t="s">
         <v>1713</v>
@@ -81336,12 +81362,12 @@
         <v>77</v>
       </c>
       <c r="Q240" t="s">
-        <v>4144</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="241" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B241" s="1" t="s">
-        <v>1728</v>
+        <v>6167</v>
       </c>
       <c r="C241" t="s">
         <v>1713</v>
@@ -81362,12 +81388,12 @@
         <v>77</v>
       </c>
       <c r="Q241" t="s">
-        <v>4762</v>
+        <v>6168</v>
       </c>
     </row>
     <row r="242" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B242" s="1" t="s">
-        <v>6167</v>
+        <v>1729</v>
       </c>
       <c r="C242" t="s">
         <v>1713</v>
@@ -81388,12 +81414,12 @@
         <v>77</v>
       </c>
       <c r="Q242" t="s">
-        <v>6168</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="243" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B243" s="1" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C243" t="s">
         <v>1713</v>
@@ -81414,12 +81440,12 @@
         <v>77</v>
       </c>
       <c r="Q243" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="244" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B244" s="1" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C244" t="s">
         <v>1713</v>
@@ -81440,12 +81466,12 @@
         <v>77</v>
       </c>
       <c r="Q244" t="s">
-        <v>4146</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="245" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B245" s="1" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C245" t="s">
         <v>1713</v>
@@ -81466,12 +81492,12 @@
         <v>77</v>
       </c>
       <c r="Q245" t="s">
-        <v>4763</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="246" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B246" s="1" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C246" t="s">
         <v>1713</v>
@@ -81492,15 +81518,15 @@
         <v>77</v>
       </c>
       <c r="Q246" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="247" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B247" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C247" t="s">
-        <v>1713</v>
+        <v>1735</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>2</v>
@@ -81512,18 +81538,15 @@
         <v>4138</v>
       </c>
       <c r="L247" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M247" t="s">
         <v>77</v>
       </c>
       <c r="Q247" t="s">
-        <v>4148</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="248" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B248" s="1" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="C248" t="s">
         <v>1735</v>
@@ -81541,12 +81564,12 @@
         <v>77</v>
       </c>
       <c r="Q248" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="249" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B249" s="1" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="C249" t="s">
         <v>1735</v>
@@ -81564,12 +81587,12 @@
         <v>77</v>
       </c>
       <c r="Q249" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="250" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B250" s="1" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="C250" t="s">
         <v>1735</v>
@@ -81586,13 +81609,16 @@
       <c r="L250" t="s">
         <v>77</v>
       </c>
+      <c r="M250" t="s">
+        <v>5238</v>
+      </c>
       <c r="Q250" t="s">
-        <v>1740</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="251" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B251" s="1" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C251" t="s">
         <v>1735</v>
@@ -81613,12 +81639,12 @@
         <v>5238</v>
       </c>
       <c r="Q251" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="252" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B252" s="1" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C252" t="s">
         <v>1735</v>
@@ -81639,38 +81665,32 @@
         <v>5238</v>
       </c>
       <c r="Q252" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="253" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B253" s="1" t="s">
-        <v>1743</v>
+        <v>1793</v>
       </c>
       <c r="C253" t="s">
-        <v>1735</v>
+        <v>1794</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E253" t="s">
-        <v>2</v>
-      </c>
-      <c r="F253" t="s">
-        <v>4138</v>
-      </c>
       <c r="L253" t="s">
+        <v>352</v>
+      </c>
+      <c r="M253" t="s">
         <v>77</v>
       </c>
-      <c r="M253" t="s">
-        <v>5238</v>
-      </c>
       <c r="Q253" t="s">
-        <v>4151</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="254" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B254" s="1" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="C254" t="s">
         <v>1794</v>
@@ -81685,12 +81705,12 @@
         <v>77</v>
       </c>
       <c r="Q254" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="255" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B255" s="1" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="C255" t="s">
         <v>1794</v>
@@ -81705,12 +81725,12 @@
         <v>77</v>
       </c>
       <c r="Q255" t="s">
-        <v>4156</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="256" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B256" s="1" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C256" t="s">
         <v>1794</v>
@@ -81725,12 +81745,12 @@
         <v>77</v>
       </c>
       <c r="Q256" t="s">
-        <v>6171</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="257" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B257" s="1" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C257" t="s">
         <v>1794</v>
@@ -81745,12 +81765,12 @@
         <v>77</v>
       </c>
       <c r="Q257" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="258" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B258" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C258" t="s">
         <v>1794</v>
@@ -81765,12 +81785,12 @@
         <v>77</v>
       </c>
       <c r="Q258" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="259" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B259" s="1" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C259" t="s">
         <v>1794</v>
@@ -81785,12 +81805,12 @@
         <v>77</v>
       </c>
       <c r="Q259" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="260" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B260" s="1" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C260" t="s">
         <v>1794</v>
@@ -81805,15 +81825,15 @@
         <v>77</v>
       </c>
       <c r="Q260" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="261" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B261" s="1" t="s">
-        <v>1801</v>
+        <v>1888</v>
       </c>
       <c r="C261" t="s">
-        <v>1794</v>
+        <v>1889</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>2</v>
@@ -81821,16 +81841,13 @@
       <c r="L261" t="s">
         <v>352</v>
       </c>
-      <c r="M261" t="s">
-        <v>77</v>
-      </c>
       <c r="Q261" t="s">
-        <v>4161</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="262" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B262" s="1" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="C262" t="s">
         <v>1889</v>
@@ -81842,12 +81859,12 @@
         <v>352</v>
       </c>
       <c r="Q262" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="263" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B263" s="1" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="C263" t="s">
         <v>1889</v>
@@ -81859,29 +81876,35 @@
         <v>352</v>
       </c>
       <c r="Q263" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="264" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B264" s="1" t="s">
-        <v>1893</v>
+        <v>2051</v>
       </c>
       <c r="C264" t="s">
-        <v>1889</v>
+        <v>2052</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>2</v>
+        <v>351</v>
+      </c>
+      <c r="E264" t="s">
+        <v>404</v>
       </c>
       <c r="L264" t="s">
-        <v>352</v>
+        <v>5070</v>
+      </c>
+      <c r="M264" t="s">
+        <v>5068</v>
       </c>
       <c r="Q264" t="s">
-        <v>1894</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="265" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B265" s="1" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="C265" t="s">
         <v>2052</v>
@@ -81899,12 +81922,12 @@
         <v>5068</v>
       </c>
       <c r="Q265" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="266" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B266" s="1" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="C266" t="s">
         <v>2052</v>
@@ -81922,12 +81945,12 @@
         <v>5068</v>
       </c>
       <c r="Q266" t="s">
-        <v>4262</v>
+        <v>6349</v>
       </c>
     </row>
     <row r="267" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B267" s="1" t="s">
-        <v>2054</v>
+        <v>6350</v>
       </c>
       <c r="C267" t="s">
         <v>2052</v>
@@ -81945,35 +81968,35 @@
         <v>5068</v>
       </c>
       <c r="Q267" t="s">
-        <v>6349</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="268" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B268" s="1" t="s">
-        <v>6350</v>
+        <v>2167</v>
       </c>
       <c r="C268" t="s">
-        <v>2052</v>
+        <v>2168</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="E268" t="s">
-        <v>404</v>
+        <v>2426</v>
       </c>
       <c r="L268" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="M268" t="s">
-        <v>5068</v>
+        <v>3974</v>
       </c>
       <c r="Q268" t="s">
-        <v>6351</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="269" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B269" s="1" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="C269" t="s">
         <v>2168</v>
@@ -81991,12 +82014,12 @@
         <v>3974</v>
       </c>
       <c r="Q269" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="270" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B270" s="1" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="C270" t="s">
         <v>2168</v>
@@ -82014,12 +82037,12 @@
         <v>3974</v>
       </c>
       <c r="Q270" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="271" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B271" s="1" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="C271" t="s">
         <v>2168</v>
@@ -82037,12 +82060,12 @@
         <v>3974</v>
       </c>
       <c r="Q271" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="272" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B272" s="1" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="C272" t="s">
         <v>2168</v>
@@ -82060,12 +82083,12 @@
         <v>3974</v>
       </c>
       <c r="Q272" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="273" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B273" s="1" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="C273" t="s">
         <v>2168</v>
@@ -82083,35 +82106,29 @@
         <v>3974</v>
       </c>
       <c r="Q273" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="274" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B274" s="1" t="s">
-        <v>2173</v>
+        <v>2266</v>
       </c>
       <c r="C274" t="s">
-        <v>2168</v>
+        <v>2267</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E274" t="s">
-        <v>2426</v>
-      </c>
       <c r="L274" t="s">
-        <v>5071</v>
-      </c>
-      <c r="M274" t="s">
-        <v>3974</v>
+        <v>2256</v>
       </c>
       <c r="Q274" t="s">
-        <v>4302</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="275" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B275" s="1" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="C275" t="s">
         <v>2267</v>
@@ -82123,12 +82140,12 @@
         <v>2256</v>
       </c>
       <c r="Q275" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="276" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B276" s="1" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="C276" t="s">
         <v>2267</v>
@@ -82140,12 +82157,12 @@
         <v>2256</v>
       </c>
       <c r="Q276" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="277" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B277" s="1" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="C277" t="s">
         <v>2267</v>
@@ -82157,29 +82174,35 @@
         <v>2256</v>
       </c>
       <c r="Q277" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="278" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B278" s="1" t="s">
-        <v>2273</v>
+        <v>2474</v>
       </c>
       <c r="C278" t="s">
-        <v>2267</v>
+        <v>2475</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="L278" t="s">
-        <v>2256</v>
+        <v>77</v>
+      </c>
+      <c r="M278" t="s">
+        <v>352</v>
+      </c>
+      <c r="N278" t="s">
+        <v>542</v>
       </c>
       <c r="Q278" t="s">
-        <v>2274</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="279" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B279" s="1" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="C279" t="s">
         <v>2475</v>
@@ -82197,12 +82220,12 @@
         <v>542</v>
       </c>
       <c r="Q279" t="s">
-        <v>4862</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="280" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B280" s="1" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="C280" t="s">
         <v>2475</v>
@@ -82220,12 +82243,12 @@
         <v>542</v>
       </c>
       <c r="Q280" t="s">
-        <v>4863</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="281" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B281" s="1" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="C281" t="s">
         <v>2475</v>
@@ -82243,12 +82266,12 @@
         <v>542</v>
       </c>
       <c r="Q281" t="s">
-        <v>4864</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="282" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B282" s="1" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="C282" t="s">
         <v>2475</v>
@@ -82256,22 +82279,19 @@
       <c r="D282" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="E282" t="s">
+        <v>3899</v>
+      </c>
       <c r="L282" t="s">
         <v>77</v>
       </c>
-      <c r="M282" t="s">
-        <v>352</v>
-      </c>
-      <c r="N282" t="s">
-        <v>542</v>
-      </c>
       <c r="Q282" t="s">
-        <v>4865</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="283" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B283" s="1" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="C283" t="s">
         <v>2475</v>
@@ -82286,12 +82306,12 @@
         <v>77</v>
       </c>
       <c r="Q283" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="284" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B284" s="1" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="C284" t="s">
         <v>2475</v>
@@ -82306,12 +82326,12 @@
         <v>77</v>
       </c>
       <c r="Q284" t="s">
-        <v>4390</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="285" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B285" s="1" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="C285" t="s">
         <v>2475</v>
@@ -82322,16 +82342,22 @@
       <c r="E285" t="s">
         <v>3899</v>
       </c>
+      <c r="F285" t="s">
+        <v>2426</v>
+      </c>
       <c r="L285" t="s">
+        <v>4034</v>
+      </c>
+      <c r="M285" t="s">
         <v>77</v>
       </c>
       <c r="Q285" t="s">
-        <v>2482</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="286" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B286" s="1" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="C286" t="s">
         <v>2475</v>
@@ -82352,12 +82378,12 @@
         <v>77</v>
       </c>
       <c r="Q286" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="287" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B287" s="1" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="C287" t="s">
         <v>2475</v>
@@ -82378,12 +82404,12 @@
         <v>77</v>
       </c>
       <c r="Q287" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="288" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B288" s="1" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="C288" t="s">
         <v>2475</v>
@@ -82394,22 +82420,16 @@
       <c r="E288" t="s">
         <v>3899</v>
       </c>
-      <c r="F288" t="s">
-        <v>2426</v>
-      </c>
       <c r="L288" t="s">
-        <v>4034</v>
-      </c>
-      <c r="M288" t="s">
         <v>77</v>
       </c>
       <c r="Q288" t="s">
-        <v>4393</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="289" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B289" s="1" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="C289" t="s">
         <v>2475</v>
@@ -82424,12 +82444,12 @@
         <v>77</v>
       </c>
       <c r="Q289" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="290" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B290" s="1" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="C290" t="s">
         <v>2475</v>
@@ -82444,18 +82464,18 @@
         <v>77</v>
       </c>
       <c r="Q290" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="291" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B291" s="1" t="s">
-        <v>2490</v>
+        <v>2505</v>
       </c>
       <c r="C291" t="s">
-        <v>2475</v>
+        <v>2506</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="E291" t="s">
         <v>3899</v>
@@ -82463,13 +82483,16 @@
       <c r="L291" t="s">
         <v>77</v>
       </c>
+      <c r="M291" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q291" t="s">
-        <v>2491</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="292" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B292" s="1" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="C292" t="s">
         <v>2506</v>
@@ -82487,49 +82510,46 @@
         <v>3889</v>
       </c>
       <c r="Q292" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="293" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B293" s="1" t="s">
-        <v>2507</v>
+        <v>2628</v>
       </c>
       <c r="C293" t="s">
-        <v>2506</v>
+        <v>2629</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E293" t="s">
-        <v>3899</v>
-      </c>
-      <c r="L293" t="s">
-        <v>77</v>
-      </c>
-      <c r="M293" t="s">
-        <v>3889</v>
+        <v>351</v>
       </c>
       <c r="Q293" t="s">
-        <v>4395</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="294" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B294" s="1" t="s">
-        <v>2628</v>
+        <v>2547</v>
       </c>
       <c r="C294" t="s">
-        <v>2629</v>
+        <v>2528</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="L294" t="s">
+        <v>6479</v>
+      </c>
+      <c r="M294" t="s">
+        <v>6480</v>
+      </c>
       <c r="Q294" t="s">
-        <v>2630</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="295" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B295" s="1" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="C295" t="s">
         <v>2528</v>
@@ -82544,12 +82564,12 @@
         <v>6480</v>
       </c>
       <c r="Q295" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="296" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B296" s="1" t="s">
-        <v>2549</v>
+        <v>2527</v>
       </c>
       <c r="C296" t="s">
         <v>2528</v>
@@ -82564,12 +82584,12 @@
         <v>6480</v>
       </c>
       <c r="Q296" t="s">
-        <v>2550</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="297" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B297" s="1" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="C297" t="s">
         <v>2528</v>
@@ -82584,12 +82604,12 @@
         <v>6480</v>
       </c>
       <c r="Q297" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="298" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B298" s="1" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="C298" t="s">
         <v>2528</v>
@@ -82604,12 +82624,12 @@
         <v>6480</v>
       </c>
       <c r="Q298" t="s">
-        <v>2531</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="299" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B299" s="1" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="C299" t="s">
         <v>2528</v>
@@ -82618,18 +82638,21 @@
         <v>351</v>
       </c>
       <c r="L299" t="s">
+        <v>2534</v>
+      </c>
+      <c r="M299" t="s">
         <v>6479</v>
       </c>
-      <c r="M299" t="s">
+      <c r="N299" t="s">
         <v>6480</v>
       </c>
       <c r="Q299" t="s">
-        <v>4866</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="300" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B300" s="1" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="C300" t="s">
         <v>2528</v>
@@ -82647,75 +82670,69 @@
         <v>6480</v>
       </c>
       <c r="Q300" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="301" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B301" s="1" t="s">
-        <v>2535</v>
+        <v>6484</v>
       </c>
       <c r="C301" t="s">
-        <v>2528</v>
+        <v>6485</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>351</v>
       </c>
       <c r="L301" t="s">
-        <v>2534</v>
-      </c>
-      <c r="M301" t="s">
-        <v>6479</v>
-      </c>
-      <c r="N301" t="s">
-        <v>6480</v>
+        <v>2538</v>
       </c>
       <c r="Q301" t="s">
-        <v>4401</v>
+        <v>6486</v>
       </c>
     </row>
     <row r="302" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B302" s="1" t="s">
-        <v>6484</v>
+        <v>2686</v>
       </c>
       <c r="C302" t="s">
-        <v>6485</v>
+        <v>2687</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="E302" t="s">
+        <v>351</v>
+      </c>
       <c r="L302" t="s">
-        <v>2538</v>
+        <v>3437</v>
+      </c>
+      <c r="M302" t="s">
+        <v>3889</v>
       </c>
       <c r="Q302" t="s">
-        <v>6486</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="303" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B303" s="1" t="s">
-        <v>2686</v>
+        <v>2897</v>
       </c>
       <c r="C303" t="s">
-        <v>2687</v>
+        <v>2898</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E303" t="s">
-        <v>351</v>
-      </c>
       <c r="L303" t="s">
-        <v>3437</v>
-      </c>
-      <c r="M303" t="s">
-        <v>3889</v>
+        <v>1155</v>
       </c>
       <c r="Q303" t="s">
-        <v>4415</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="304" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B304" s="1" t="s">
-        <v>2897</v>
+        <v>2900</v>
       </c>
       <c r="C304" t="s">
         <v>2898</v>
@@ -82727,12 +82744,12 @@
         <v>1155</v>
       </c>
       <c r="Q304" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="305" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B305" s="1" t="s">
-        <v>2900</v>
+        <v>6532</v>
       </c>
       <c r="C305" t="s">
         <v>2898</v>
@@ -82744,29 +82761,35 @@
         <v>1155</v>
       </c>
       <c r="Q305" t="s">
-        <v>2901</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="306" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B306" s="1" t="s">
-        <v>6532</v>
+        <v>2913</v>
       </c>
       <c r="C306" t="s">
-        <v>2898</v>
+        <v>2914</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="E306" t="s">
+        <v>3899</v>
+      </c>
       <c r="L306" t="s">
         <v>1155</v>
       </c>
+      <c r="M306" t="s">
+        <v>542</v>
+      </c>
       <c r="Q306" t="s">
-        <v>6533</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="307" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B307" s="1" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="C307" t="s">
         <v>2914</v>
@@ -82784,12 +82807,12 @@
         <v>542</v>
       </c>
       <c r="Q307" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="308" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B308" s="1" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="C308" t="s">
         <v>2914</v>
@@ -82798,21 +82821,24 @@
         <v>351</v>
       </c>
       <c r="E308" t="s">
-        <v>3899</v>
+        <v>3766</v>
+      </c>
+      <c r="F308" t="s">
+        <v>3964</v>
       </c>
       <c r="L308" t="s">
-        <v>1155</v>
+        <v>5068</v>
       </c>
       <c r="M308" t="s">
         <v>542</v>
       </c>
       <c r="Q308" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="309" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B309" s="1" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="C309" t="s">
         <v>2914</v>
@@ -82833,38 +82859,35 @@
         <v>542</v>
       </c>
       <c r="Q309" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="310" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B310" s="1" t="s">
-        <v>2917</v>
+        <v>2902</v>
       </c>
       <c r="C310" t="s">
-        <v>2914</v>
+        <v>2903</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E310" t="s">
-        <v>3766</v>
-      </c>
-      <c r="F310" t="s">
-        <v>3964</v>
+        <v>3899</v>
       </c>
       <c r="L310" t="s">
-        <v>5068</v>
+        <v>1155</v>
       </c>
       <c r="M310" t="s">
         <v>542</v>
       </c>
       <c r="Q310" t="s">
-        <v>4479</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="311" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B311" s="1" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="C311" t="s">
         <v>2903</v>
@@ -82882,35 +82905,35 @@
         <v>542</v>
       </c>
       <c r="Q311" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="312" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B312" s="1" t="s">
-        <v>2904</v>
+        <v>2918</v>
       </c>
       <c r="C312" t="s">
-        <v>2903</v>
+        <v>2919</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E312" t="s">
-        <v>3899</v>
+        <v>3766</v>
       </c>
       <c r="L312" t="s">
-        <v>1155</v>
+        <v>5068</v>
       </c>
       <c r="M312" t="s">
-        <v>542</v>
+        <v>3986</v>
       </c>
       <c r="Q312" t="s">
-        <v>4474</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="313" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B313" s="1" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="C313" t="s">
         <v>2919</v>
@@ -82928,12 +82951,12 @@
         <v>3986</v>
       </c>
       <c r="Q313" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="314" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B314" s="1" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="C314" t="s">
         <v>2919</v>
@@ -82951,58 +82974,58 @@
         <v>3986</v>
       </c>
       <c r="Q314" t="s">
-        <v>4481</v>
-      </c>
-    </row>
-    <row r="315" spans="2:17" x14ac:dyDescent="0.35">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="315" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B315" s="1" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="C315" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="E315" t="s">
+        <v>404</v>
+      </c>
+      <c r="F315" t="s">
         <v>3766</v>
       </c>
       <c r="L315" t="s">
-        <v>5068</v>
-      </c>
-      <c r="M315" t="s">
-        <v>3986</v>
+        <v>5505</v>
       </c>
       <c r="Q315" t="s">
-        <v>4905</v>
-      </c>
-    </row>
-    <row r="316" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="316" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B316" s="1" t="s">
-        <v>2922</v>
+        <v>3135</v>
       </c>
       <c r="C316" t="s">
-        <v>2923</v>
+        <v>3136</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E316" t="s">
-        <v>404</v>
-      </c>
-      <c r="F316" t="s">
-        <v>3766</v>
+        <v>3901</v>
       </c>
       <c r="L316" t="s">
-        <v>5505</v>
+        <v>1155</v>
+      </c>
+      <c r="M316" t="s">
+        <v>3902</v>
       </c>
       <c r="Q316" t="s">
-        <v>2924</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="317" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B317" s="1" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="C317" t="s">
         <v>3136</v>
@@ -83020,35 +83043,35 @@
         <v>3902</v>
       </c>
       <c r="Q317" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="318" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B318" s="1" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="C318" t="s">
-        <v>3136</v>
+        <v>3139</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E318" t="s">
-        <v>3901</v>
+        <v>2426</v>
       </c>
       <c r="L318" t="s">
-        <v>1155</v>
+        <v>5505</v>
       </c>
       <c r="M318" t="s">
-        <v>3902</v>
+        <v>3974</v>
       </c>
       <c r="Q318" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="319" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B319" s="1" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="C319" t="s">
         <v>3139</v>
@@ -83066,12 +83089,12 @@
         <v>3974</v>
       </c>
       <c r="Q319" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="320" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B320" s="1" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="C320" t="s">
         <v>3139</v>
@@ -83089,35 +83112,29 @@
         <v>3974</v>
       </c>
       <c r="Q320" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="321" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B321" s="1" t="s">
-        <v>3141</v>
+        <v>3282</v>
       </c>
       <c r="C321" t="s">
-        <v>3139</v>
+        <v>3283</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E321" t="s">
-        <v>2426</v>
-      </c>
       <c r="L321" t="s">
-        <v>5505</v>
-      </c>
-      <c r="M321" t="s">
-        <v>3974</v>
+        <v>55</v>
       </c>
       <c r="Q321" t="s">
-        <v>4521</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="322" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B322" s="1" t="s">
-        <v>3282</v>
+        <v>3285</v>
       </c>
       <c r="C322" t="s">
         <v>3283</v>
@@ -83129,32 +83146,35 @@
         <v>55</v>
       </c>
       <c r="Q322" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="323" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B323" s="1" t="s">
-        <v>3285</v>
+        <v>6761</v>
       </c>
       <c r="C323" t="s">
-        <v>3283</v>
+        <v>6762</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E323" t="s">
+        <v>2</v>
+      </c>
       <c r="L323" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q323" t="s">
-        <v>3286</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="324" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B324" s="1" t="s">
-        <v>6761</v>
+        <v>6800</v>
       </c>
       <c r="C324" t="s">
-        <v>6762</v>
+        <v>6801</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>2</v>
@@ -83163,69 +83183,69 @@
         <v>2</v>
       </c>
       <c r="L324" t="s">
-        <v>58</v>
+        <v>3714</v>
       </c>
       <c r="Q324" t="s">
-        <v>6763</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="325" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B325" s="1" t="s">
-        <v>6800</v>
+        <v>6901</v>
       </c>
       <c r="C325" t="s">
-        <v>6801</v>
+        <v>6902</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E325" t="s">
-        <v>2</v>
-      </c>
       <c r="L325" t="s">
-        <v>3714</v>
+        <v>5070</v>
       </c>
       <c r="Q325" t="s">
-        <v>6802</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="326" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B326" s="1" t="s">
-        <v>6901</v>
+        <v>3460</v>
       </c>
       <c r="C326" t="s">
-        <v>6902</v>
+        <v>3461</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L326" t="s">
-        <v>5070</v>
+        <v>1155</v>
       </c>
       <c r="Q326" t="s">
-        <v>6903</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="327" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B327" s="1" t="s">
-        <v>3460</v>
+        <v>316</v>
       </c>
       <c r="C327" t="s">
-        <v>3461</v>
+        <v>317</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>2</v>
+        <v>3469</v>
       </c>
       <c r="L327" t="s">
-        <v>1155</v>
+        <v>318</v>
+      </c>
+      <c r="M327" t="s">
+        <v>77</v>
       </c>
       <c r="Q327" t="s">
-        <v>3462</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="328" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B328" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C328" t="s">
         <v>317</v>
@@ -83240,12 +83260,12 @@
         <v>77</v>
       </c>
       <c r="Q328" t="s">
-        <v>3728</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="329" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B329" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C329" t="s">
         <v>317</v>
@@ -83260,12 +83280,12 @@
         <v>77</v>
       </c>
       <c r="Q329" t="s">
-        <v>3729</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="330" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B330" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C330" t="s">
         <v>317</v>
@@ -83280,12 +83300,12 @@
         <v>77</v>
       </c>
       <c r="Q330" t="s">
-        <v>3730</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="331" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B331" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C331" t="s">
         <v>317</v>
@@ -83300,12 +83320,12 @@
         <v>77</v>
       </c>
       <c r="Q331" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="332" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B332" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C332" t="s">
         <v>317</v>
@@ -83320,12 +83340,12 @@
         <v>77</v>
       </c>
       <c r="Q332" t="s">
-        <v>3732</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="333" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B333" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C333" t="s">
         <v>317</v>
@@ -83340,12 +83360,12 @@
         <v>77</v>
       </c>
       <c r="Q333" t="s">
-        <v>3733</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="334" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B334" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C334" t="s">
         <v>317</v>
@@ -83360,32 +83380,35 @@
         <v>77</v>
       </c>
       <c r="Q334" t="s">
-        <v>3734</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="335" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B335" s="1" t="s">
-        <v>325</v>
+        <v>5233</v>
       </c>
       <c r="C335" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>3469</v>
+        <v>404</v>
+      </c>
+      <c r="E335" t="s">
+        <v>3766</v>
+      </c>
+      <c r="F335">
+        <v>68000</v>
       </c>
       <c r="L335" t="s">
-        <v>318</v>
-      </c>
-      <c r="M335" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="Q335" t="s">
-        <v>3735</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="336" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B336" s="1" t="s">
-        <v>5233</v>
+        <v>441</v>
       </c>
       <c r="C336" t="s">
         <v>442</v>
@@ -83403,35 +83426,41 @@
         <v>3</v>
       </c>
       <c r="Q336" t="s">
-        <v>5234</v>
-      </c>
-    </row>
-    <row r="337" spans="2:17" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="337" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B337" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C337" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E337" t="s">
-        <v>3766</v>
-      </c>
-      <c r="F337">
-        <v>68000</v>
+        <v>3767</v>
+      </c>
+      <c r="F337" t="s">
+        <v>3767</v>
       </c>
       <c r="L337" t="s">
         <v>3</v>
       </c>
+      <c r="M337" t="s">
+        <v>77</v>
+      </c>
+      <c r="N337" t="s">
+        <v>352</v>
+      </c>
       <c r="Q337" t="s">
-        <v>443</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="338" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B338" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C338" t="s">
         <v>445</v>
@@ -83455,12 +83484,12 @@
         <v>352</v>
       </c>
       <c r="Q338" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="339" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B339" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C339" t="s">
         <v>445</v>
@@ -83484,12 +83513,12 @@
         <v>352</v>
       </c>
       <c r="Q339" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="340" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B340" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C340" t="s">
         <v>445</v>
@@ -83513,12 +83542,12 @@
         <v>352</v>
       </c>
       <c r="Q340" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="341" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B341" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C341" t="s">
         <v>445</v>
@@ -83542,12 +83571,12 @@
         <v>352</v>
       </c>
       <c r="Q341" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="342" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B342" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C342" t="s">
         <v>445</v>
@@ -83571,12 +83600,12 @@
         <v>352</v>
       </c>
       <c r="Q342" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="343" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B343" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C343" t="s">
         <v>445</v>
@@ -83600,12 +83629,12 @@
         <v>352</v>
       </c>
       <c r="Q343" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="344" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B344" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C344" t="s">
         <v>445</v>
@@ -83629,41 +83658,32 @@
         <v>352</v>
       </c>
       <c r="Q344" t="s">
-        <v>4630</v>
-      </c>
-    </row>
-    <row r="345" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="345" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B345" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C345" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E345" t="s">
-        <v>3767</v>
-      </c>
-      <c r="F345" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="L345" t="s">
         <v>3</v>
       </c>
-      <c r="M345" t="s">
-        <v>77</v>
-      </c>
-      <c r="N345" t="s">
-        <v>352</v>
-      </c>
       <c r="Q345" t="s">
-        <v>4631</v>
+        <v>455</v>
       </c>
     </row>
     <row r="346" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B346" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C346" t="s">
         <v>454</v>
@@ -83678,12 +83698,12 @@
         <v>3</v>
       </c>
       <c r="Q346" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="347" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B347" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C347" t="s">
         <v>454</v>
@@ -83698,12 +83718,12 @@
         <v>3</v>
       </c>
       <c r="Q347" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="348" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B348" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C348" t="s">
         <v>454</v>
@@ -83718,15 +83738,15 @@
         <v>3</v>
       </c>
       <c r="Q348" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="349" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B349" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C349" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>404</v>
@@ -83738,12 +83758,12 @@
         <v>3</v>
       </c>
       <c r="Q349" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="350" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B350" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C350" t="s">
         <v>467</v>
@@ -83758,32 +83778,44 @@
         <v>3</v>
       </c>
       <c r="Q350" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="351" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B351" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C351" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E351" t="s">
+        <v>404</v>
+      </c>
+      <c r="F351" t="s">
         <v>3768</v>
       </c>
       <c r="L351" t="s">
+        <v>5238</v>
+      </c>
+      <c r="M351" t="s">
         <v>3</v>
       </c>
+      <c r="N351" t="s">
+        <v>352</v>
+      </c>
+      <c r="O351" t="s">
+        <v>77</v>
+      </c>
       <c r="Q351" t="s">
-        <v>470</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="352" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B352" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C352" t="s">
         <v>472</v>
@@ -83810,12 +83842,12 @@
         <v>77</v>
       </c>
       <c r="Q352" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="353" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B353" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C353" t="s">
         <v>472</v>
@@ -83842,12 +83874,12 @@
         <v>77</v>
       </c>
       <c r="Q353" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="354" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B354" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C354" t="s">
         <v>472</v>
@@ -83874,12 +83906,12 @@
         <v>77</v>
       </c>
       <c r="Q354" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="355" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B355" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C355" t="s">
         <v>472</v>
@@ -83906,12 +83938,12 @@
         <v>77</v>
       </c>
       <c r="Q355" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="356" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B356" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C356" t="s">
         <v>472</v>
@@ -83938,12 +83970,12 @@
         <v>77</v>
       </c>
       <c r="Q356" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="357" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B357" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C357" t="s">
         <v>472</v>
@@ -83970,12 +84002,12 @@
         <v>77</v>
       </c>
       <c r="Q357" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="358" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B358" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C358" t="s">
         <v>472</v>
@@ -84002,15 +84034,15 @@
         <v>77</v>
       </c>
       <c r="Q358" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="359" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B359" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C359" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>404</v>
@@ -84019,6 +84051,9 @@
         <v>404</v>
       </c>
       <c r="F359" t="s">
+        <v>404</v>
+      </c>
+      <c r="G359" t="s">
         <v>3768</v>
       </c>
       <c r="L359" t="s">
@@ -84028,18 +84063,15 @@
         <v>3</v>
       </c>
       <c r="N359" t="s">
-        <v>352</v>
-      </c>
-      <c r="O359" t="s">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="Q359" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="360" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B360" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C360" t="s">
         <v>481</v>
@@ -84066,12 +84098,12 @@
         <v>542</v>
       </c>
       <c r="Q360" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="361" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B361" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C361" t="s">
         <v>481</v>
@@ -84098,12 +84130,12 @@
         <v>542</v>
       </c>
       <c r="Q361" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="362" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B362" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C362" t="s">
         <v>481</v>
@@ -84130,12 +84162,12 @@
         <v>542</v>
       </c>
       <c r="Q362" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="363" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B363" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C363" t="s">
         <v>481</v>
@@ -84162,12 +84194,12 @@
         <v>542</v>
       </c>
       <c r="Q363" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="364" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B364" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C364" t="s">
         <v>481</v>
@@ -84194,12 +84226,12 @@
         <v>542</v>
       </c>
       <c r="Q364" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="365" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B365" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C365" t="s">
         <v>481</v>
@@ -84226,12 +84258,12 @@
         <v>542</v>
       </c>
       <c r="Q365" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="366" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B366" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C366" t="s">
         <v>481</v>
@@ -84258,12 +84290,12 @@
         <v>542</v>
       </c>
       <c r="Q366" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="367" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B367" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C367" t="s">
         <v>481</v>
@@ -84290,12 +84322,12 @@
         <v>542</v>
       </c>
       <c r="Q367" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="368" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B368" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C368" t="s">
         <v>481</v>
@@ -84322,12 +84354,12 @@
         <v>542</v>
       </c>
       <c r="Q368" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="369" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B369" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C369" t="s">
         <v>481</v>
@@ -84354,12 +84386,12 @@
         <v>542</v>
       </c>
       <c r="Q369" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="370" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B370" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C370" t="s">
         <v>481</v>
@@ -84386,12 +84418,12 @@
         <v>542</v>
       </c>
       <c r="Q370" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="371" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B371" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C371" t="s">
         <v>481</v>
@@ -84418,12 +84450,12 @@
         <v>542</v>
       </c>
       <c r="Q371" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="372" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B372" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C372" t="s">
         <v>481</v>
@@ -84450,12 +84482,12 @@
         <v>542</v>
       </c>
       <c r="Q372" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="373" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B373" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C373" t="s">
         <v>481</v>
@@ -84482,12 +84514,12 @@
         <v>542</v>
       </c>
       <c r="Q373" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="374" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B374" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C374" t="s">
         <v>481</v>
@@ -84514,12 +84546,12 @@
         <v>542</v>
       </c>
       <c r="Q374" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="375" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B375" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C375" t="s">
         <v>481</v>
@@ -84546,12 +84578,12 @@
         <v>542</v>
       </c>
       <c r="Q375" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="376" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B376" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C376" t="s">
         <v>481</v>
@@ -84578,12 +84610,12 @@
         <v>542</v>
       </c>
       <c r="Q376" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="377" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B377" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C377" t="s">
         <v>481</v>
@@ -84610,12 +84642,12 @@
         <v>542</v>
       </c>
       <c r="Q377" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="378" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B378" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C378" t="s">
         <v>481</v>
@@ -84642,12 +84674,12 @@
         <v>542</v>
       </c>
       <c r="Q378" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="379" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B379" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C379" t="s">
         <v>481</v>
@@ -84674,12 +84706,12 @@
         <v>542</v>
       </c>
       <c r="Q379" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="380" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B380" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C380" t="s">
         <v>481</v>
@@ -84706,12 +84738,12 @@
         <v>542</v>
       </c>
       <c r="Q380" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="381" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B381" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C381" t="s">
         <v>481</v>
@@ -84738,12 +84770,12 @@
         <v>542</v>
       </c>
       <c r="Q381" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="382" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B382" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C382" t="s">
         <v>481</v>
@@ -84770,12 +84802,12 @@
         <v>542</v>
       </c>
       <c r="Q382" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="383" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B383" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C383" t="s">
         <v>481</v>
@@ -84802,12 +84834,12 @@
         <v>542</v>
       </c>
       <c r="Q383" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="384" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B384" s="1" t="s">
-        <v>505</v>
+        <v>5239</v>
       </c>
       <c r="C384" t="s">
         <v>481</v>
@@ -84834,12 +84866,12 @@
         <v>542</v>
       </c>
       <c r="Q384" t="s">
-        <v>4664</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="385" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B385" s="1" t="s">
-        <v>5239</v>
+        <v>506</v>
       </c>
       <c r="C385" t="s">
         <v>481</v>
@@ -84866,12 +84898,12 @@
         <v>542</v>
       </c>
       <c r="Q385" t="s">
-        <v>5240</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="386" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B386" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C386" t="s">
         <v>481</v>
@@ -84898,12 +84930,12 @@
         <v>542</v>
       </c>
       <c r="Q386" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="387" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B387" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C387" t="s">
         <v>481</v>
@@ -84930,12 +84962,12 @@
         <v>542</v>
       </c>
       <c r="Q387" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="388" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B388" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C388" t="s">
         <v>481</v>
@@ -84962,44 +84994,35 @@
         <v>542</v>
       </c>
       <c r="Q388" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="389" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B389" s="1" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="C389" t="s">
-        <v>481</v>
+        <v>578</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E389" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="F389" t="s">
-        <v>404</v>
-      </c>
-      <c r="G389" t="s">
-        <v>3768</v>
+        <v>2</v>
       </c>
       <c r="L389" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M389" t="s">
-        <v>3</v>
-      </c>
-      <c r="N389" t="s">
-        <v>542</v>
+        <v>3793</v>
       </c>
       <c r="Q389" t="s">
-        <v>4668</v>
+        <v>579</v>
       </c>
     </row>
     <row r="390" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B390" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C390" t="s">
         <v>578</v>
@@ -85017,12 +85040,12 @@
         <v>3793</v>
       </c>
       <c r="Q390" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="391" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B391" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C391" t="s">
         <v>578</v>
@@ -85040,12 +85063,12 @@
         <v>3793</v>
       </c>
       <c r="Q391" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="392" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B392" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C392" t="s">
         <v>578</v>
@@ -85063,12 +85086,12 @@
         <v>3793</v>
       </c>
       <c r="Q392" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="393" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B393" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C393" t="s">
         <v>578</v>
@@ -85086,12 +85109,12 @@
         <v>3793</v>
       </c>
       <c r="Q393" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="394" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B394" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C394" t="s">
         <v>578</v>
@@ -85109,12 +85132,12 @@
         <v>3793</v>
       </c>
       <c r="Q394" t="s">
-        <v>587</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="395" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B395" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C395" t="s">
         <v>578</v>
@@ -85132,12 +85155,12 @@
         <v>3793</v>
       </c>
       <c r="Q395" t="s">
-        <v>4672</v>
+        <v>590</v>
       </c>
     </row>
     <row r="396" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B396" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C396" t="s">
         <v>578</v>
@@ -85155,12 +85178,12 @@
         <v>3793</v>
       </c>
       <c r="Q396" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="397" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B397" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C397" t="s">
         <v>578</v>
@@ -85178,12 +85201,12 @@
         <v>3793</v>
       </c>
       <c r="Q397" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="398" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B398" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C398" t="s">
         <v>578</v>
@@ -85201,35 +85224,32 @@
         <v>3793</v>
       </c>
       <c r="Q398" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="399" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B399" s="1" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="C399" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="E399" t="s">
-        <v>2</v>
-      </c>
-      <c r="F399" t="s">
-        <v>2</v>
+        <v>3794</v>
       </c>
       <c r="L399" t="s">
-        <v>3793</v>
+        <v>542</v>
       </c>
       <c r="Q399" t="s">
-        <v>596</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="400" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B400" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C400" t="s">
         <v>598</v>
@@ -85244,32 +85264,35 @@
         <v>542</v>
       </c>
       <c r="Q400" t="s">
-        <v>5301</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="401" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B401" s="1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C401" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="E401" t="s">
-        <v>3794</v>
+        <v>3801</v>
       </c>
       <c r="L401" t="s">
-        <v>542</v>
+        <v>3806</v>
+      </c>
+      <c r="M401" t="s">
+        <v>3807</v>
       </c>
       <c r="Q401" t="s">
-        <v>4673</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="402" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B402" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C402" t="s">
         <v>619</v>
@@ -85287,12 +85310,12 @@
         <v>3807</v>
       </c>
       <c r="Q402" t="s">
-        <v>3808</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="403" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B403" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C403" t="s">
         <v>619</v>
@@ -85310,17 +85333,17 @@
         <v>3807</v>
       </c>
       <c r="Q403" t="s">
-        <v>3809</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="404" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B404" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C404" t="s">
         <v>619</v>
       </c>
-      <c r="D404" s="1" t="s">
+      <c r="D404" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E404" t="s">
@@ -85333,35 +85356,26 @@
         <v>3807</v>
       </c>
       <c r="Q404" t="s">
-        <v>3810</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="405" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B405" s="1" t="s">
-        <v>622</v>
+        <v>668</v>
       </c>
       <c r="C405" t="s">
-        <v>619</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E405" t="s">
-        <v>3801</v>
-      </c>
-      <c r="L405" t="s">
-        <v>3806</v>
-      </c>
-      <c r="M405" t="s">
-        <v>3807</v>
+        <v>669</v>
+      </c>
+      <c r="D405" s="1">
+        <v>8080</v>
       </c>
       <c r="Q405" t="s">
-        <v>3811</v>
+        <v>670</v>
       </c>
     </row>
     <row r="406" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B406" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C406" t="s">
         <v>669</v>
@@ -85370,12 +85384,12 @@
         <v>8080</v>
       </c>
       <c r="Q406" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="407" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B407" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C407" t="s">
         <v>669</v>
@@ -85384,12 +85398,12 @@
         <v>8080</v>
       </c>
       <c r="Q407" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="408" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B408" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C408" t="s">
         <v>669</v>
@@ -85398,12 +85412,12 @@
         <v>8080</v>
       </c>
       <c r="Q408" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="409" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B409" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C409" t="s">
         <v>669</v>
@@ -85412,12 +85426,12 @@
         <v>8080</v>
       </c>
       <c r="Q409" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="410" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B410" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C410" t="s">
         <v>669</v>
@@ -85425,13 +85439,16 @@
       <c r="D410" s="1">
         <v>8080</v>
       </c>
+      <c r="L410" t="s">
+        <v>352</v>
+      </c>
       <c r="Q410" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="411" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B411" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C411" t="s">
         <v>669</v>
@@ -85439,16 +85456,13 @@
       <c r="D411" s="1">
         <v>8080</v>
       </c>
-      <c r="L411" t="s">
-        <v>352</v>
-      </c>
       <c r="Q411" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="412" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B412" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C412" t="s">
         <v>669</v>
@@ -85457,12 +85471,12 @@
         <v>8080</v>
       </c>
       <c r="Q412" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="413" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B413" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C413" t="s">
         <v>669</v>
@@ -85471,12 +85485,12 @@
         <v>8080</v>
       </c>
       <c r="Q413" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="414" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B414" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C414" t="s">
         <v>669</v>
@@ -85485,12 +85499,12 @@
         <v>8080</v>
       </c>
       <c r="Q414" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="415" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B415" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C415" t="s">
         <v>669</v>
@@ -85499,12 +85513,12 @@
         <v>8080</v>
       </c>
       <c r="Q415" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="416" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B416" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C416" t="s">
         <v>669</v>
@@ -85513,12 +85527,12 @@
         <v>8080</v>
       </c>
       <c r="Q416" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="417" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B417" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C417" t="s">
         <v>669</v>
@@ -85527,12 +85541,12 @@
         <v>8080</v>
       </c>
       <c r="Q417" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="418" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B418" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C418" t="s">
         <v>669</v>
@@ -85541,12 +85555,12 @@
         <v>8080</v>
       </c>
       <c r="Q418" t="s">
-        <v>694</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="419" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B419" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C419" t="s">
         <v>669</v>
@@ -85555,12 +85569,12 @@
         <v>8080</v>
       </c>
       <c r="Q419" t="s">
-        <v>5391</v>
+        <v>697</v>
       </c>
     </row>
     <row r="420" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B420" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C420" t="s">
         <v>669</v>
@@ -85569,12 +85583,12 @@
         <v>8080</v>
       </c>
       <c r="Q420" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="421" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B421" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C421" t="s">
         <v>669</v>
@@ -85583,12 +85597,12 @@
         <v>8080</v>
       </c>
       <c r="Q421" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="422" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B422" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C422" t="s">
         <v>669</v>
@@ -85597,12 +85611,12 @@
         <v>8080</v>
       </c>
       <c r="Q422" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="423" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B423" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C423" t="s">
         <v>669</v>
@@ -85611,12 +85625,12 @@
         <v>8080</v>
       </c>
       <c r="Q423" t="s">
-        <v>703</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="424" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B424" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C424" t="s">
         <v>669</v>
@@ -85624,13 +85638,19 @@
       <c r="D424" s="1">
         <v>8080</v>
       </c>
+      <c r="L424" t="s">
+        <v>352</v>
+      </c>
+      <c r="M424" t="s">
+        <v>734</v>
+      </c>
       <c r="Q424" t="s">
-        <v>5392</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="425" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B425" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C425" t="s">
         <v>669</v>
@@ -85638,19 +85658,13 @@
       <c r="D425" s="1">
         <v>8080</v>
       </c>
-      <c r="L425" t="s">
-        <v>352</v>
-      </c>
-      <c r="M425" t="s">
-        <v>734</v>
-      </c>
       <c r="Q425" t="s">
-        <v>3849</v>
+        <v>707</v>
       </c>
     </row>
     <row r="426" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B426" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C426" t="s">
         <v>669</v>
@@ -85658,13 +85672,19 @@
       <c r="D426" s="1">
         <v>8080</v>
       </c>
+      <c r="L426" t="s">
+        <v>352</v>
+      </c>
+      <c r="M426" t="s">
+        <v>3850</v>
+      </c>
       <c r="Q426" t="s">
-        <v>707</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="427" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B427" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C427" t="s">
         <v>669</v>
@@ -85676,15 +85696,15 @@
         <v>352</v>
       </c>
       <c r="M427" t="s">
-        <v>3850</v>
+        <v>734</v>
       </c>
       <c r="Q427" t="s">
-        <v>4680</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="428" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B428" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C428" t="s">
         <v>669</v>
@@ -85699,12 +85719,12 @@
         <v>734</v>
       </c>
       <c r="Q428" t="s">
-        <v>3851</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="429" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B429" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C429" t="s">
         <v>669</v>
@@ -85719,12 +85739,12 @@
         <v>734</v>
       </c>
       <c r="Q429" t="s">
-        <v>3852</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="430" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B430" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C430" t="s">
         <v>669</v>
@@ -85739,12 +85759,12 @@
         <v>734</v>
       </c>
       <c r="Q430" t="s">
-        <v>3853</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="431" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B431" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C431" t="s">
         <v>669</v>
@@ -85759,12 +85779,12 @@
         <v>734</v>
       </c>
       <c r="Q431" t="s">
-        <v>3854</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="432" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B432" s="1" t="s">
-        <v>713</v>
+        <v>5394</v>
       </c>
       <c r="C432" t="s">
         <v>669</v>
@@ -85779,12 +85799,12 @@
         <v>734</v>
       </c>
       <c r="Q432" t="s">
-        <v>5393</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="433" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B433" s="1" t="s">
-        <v>5394</v>
+        <v>714</v>
       </c>
       <c r="C433" t="s">
         <v>669</v>
@@ -85799,12 +85819,12 @@
         <v>734</v>
       </c>
       <c r="Q433" t="s">
-        <v>3855</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="434" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B434" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C434" t="s">
         <v>669</v>
@@ -85819,12 +85839,12 @@
         <v>734</v>
       </c>
       <c r="Q434" t="s">
-        <v>4681</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="435" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B435" s="1" t="s">
-        <v>715</v>
+        <v>5395</v>
       </c>
       <c r="C435" t="s">
         <v>669</v>
@@ -85839,12 +85859,12 @@
         <v>734</v>
       </c>
       <c r="Q435" t="s">
-        <v>3856</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="436" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B436" s="1" t="s">
-        <v>5395</v>
+        <v>5397</v>
       </c>
       <c r="C436" t="s">
         <v>669</v>
@@ -85859,12 +85879,12 @@
         <v>734</v>
       </c>
       <c r="Q436" t="s">
-        <v>5396</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="437" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B437" s="1" t="s">
-        <v>5397</v>
+        <v>716</v>
       </c>
       <c r="C437" t="s">
         <v>669</v>
@@ -85879,12 +85899,12 @@
         <v>734</v>
       </c>
       <c r="Q437" t="s">
-        <v>5398</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="438" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B438" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C438" t="s">
         <v>669</v>
@@ -85899,12 +85919,12 @@
         <v>734</v>
       </c>
       <c r="Q438" t="s">
-        <v>3857</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="439" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B439" s="1" t="s">
-        <v>717</v>
+        <v>5400</v>
       </c>
       <c r="C439" t="s">
         <v>669</v>
@@ -85919,12 +85939,12 @@
         <v>734</v>
       </c>
       <c r="Q439" t="s">
-        <v>5399</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="440" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B440" s="1" t="s">
-        <v>5400</v>
+        <v>718</v>
       </c>
       <c r="C440" t="s">
         <v>669</v>
@@ -85932,19 +85952,13 @@
       <c r="D440" s="1">
         <v>8080</v>
       </c>
-      <c r="L440" t="s">
-        <v>352</v>
-      </c>
-      <c r="M440" t="s">
-        <v>734</v>
-      </c>
       <c r="Q440" t="s">
-        <v>5401</v>
+        <v>719</v>
       </c>
     </row>
     <row r="441" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B441" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C441" t="s">
         <v>669</v>
@@ -85953,12 +85967,12 @@
         <v>8080</v>
       </c>
       <c r="Q441" t="s">
-        <v>719</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="442" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B442" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C442" t="s">
         <v>669</v>
@@ -85966,13 +85980,19 @@
       <c r="D442" s="1">
         <v>8080</v>
       </c>
+      <c r="L442" t="s">
+        <v>352</v>
+      </c>
+      <c r="M442" t="s">
+        <v>734</v>
+      </c>
       <c r="Q442" t="s">
-        <v>3858</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="443" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B443" s="1" t="s">
-        <v>721</v>
+        <v>5403</v>
       </c>
       <c r="C443" t="s">
         <v>669</v>
@@ -85987,12 +86007,12 @@
         <v>734</v>
       </c>
       <c r="Q443" t="s">
-        <v>5402</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="444" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B444" s="1" t="s">
-        <v>5403</v>
+        <v>5405</v>
       </c>
       <c r="C444" t="s">
         <v>669</v>
@@ -86007,12 +86027,12 @@
         <v>734</v>
       </c>
       <c r="Q444" t="s">
-        <v>5404</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="445" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B445" s="1" t="s">
-        <v>5405</v>
+        <v>722</v>
       </c>
       <c r="C445" t="s">
         <v>669</v>
@@ -86027,12 +86047,12 @@
         <v>734</v>
       </c>
       <c r="Q445" t="s">
-        <v>5406</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="446" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B446" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C446" t="s">
         <v>669</v>
@@ -86047,12 +86067,12 @@
         <v>734</v>
       </c>
       <c r="Q446" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="447" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B447" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C447" t="s">
         <v>669</v>
@@ -86067,12 +86087,12 @@
         <v>734</v>
       </c>
       <c r="Q447" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="448" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B448" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C448" t="s">
         <v>669</v>
@@ -86087,12 +86107,12 @@
         <v>734</v>
       </c>
       <c r="Q448" t="s">
-        <v>3861</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="449" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B449" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C449" t="s">
         <v>669</v>
@@ -86107,12 +86127,12 @@
         <v>734</v>
       </c>
       <c r="Q449" t="s">
-        <v>3862</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="450" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B450" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C450" t="s">
         <v>669</v>
@@ -86120,19 +86140,13 @@
       <c r="D450" s="1">
         <v>8080</v>
       </c>
-      <c r="L450" t="s">
-        <v>352</v>
-      </c>
-      <c r="M450" t="s">
-        <v>734</v>
-      </c>
       <c r="Q450" t="s">
-        <v>3863</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="451" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B451" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C451" t="s">
         <v>669</v>
@@ -86140,13 +86154,22 @@
       <c r="D451" s="1">
         <v>8080</v>
       </c>
+      <c r="E451" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L451" t="s">
+        <v>542</v>
+      </c>
+      <c r="M451" t="s">
+        <v>734</v>
+      </c>
       <c r="Q451" t="s">
-        <v>3864</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="452" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B452" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C452" t="s">
         <v>669</v>
@@ -86164,12 +86187,12 @@
         <v>734</v>
       </c>
       <c r="Q452" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="453" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B453" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C453" t="s">
         <v>669</v>
@@ -86177,22 +86200,19 @@
       <c r="D453" s="1">
         <v>8080</v>
       </c>
-      <c r="E453" t="s">
-        <v>3794</v>
-      </c>
       <c r="L453" t="s">
-        <v>542</v>
+        <v>352</v>
       </c>
       <c r="M453" t="s">
         <v>734</v>
       </c>
       <c r="Q453" t="s">
-        <v>3866</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="454" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B454" s="1" t="s">
-        <v>730</v>
+        <v>5408</v>
       </c>
       <c r="C454" t="s">
         <v>669</v>
@@ -86207,12 +86227,12 @@
         <v>734</v>
       </c>
       <c r="Q454" t="s">
-        <v>5407</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="455" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B455" s="1" t="s">
-        <v>5408</v>
+        <v>731</v>
       </c>
       <c r="C455" t="s">
         <v>669</v>
@@ -86227,12 +86247,12 @@
         <v>734</v>
       </c>
       <c r="Q455" t="s">
-        <v>5409</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="456" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B456" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C456" t="s">
         <v>669</v>
@@ -86247,12 +86267,12 @@
         <v>734</v>
       </c>
       <c r="Q456" t="s">
-        <v>3867</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="457" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B457" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C457" t="s">
         <v>669</v>
@@ -86261,18 +86281,21 @@
         <v>8080</v>
       </c>
       <c r="L457" t="s">
-        <v>352</v>
+        <v>734</v>
       </c>
       <c r="M457" t="s">
-        <v>734</v>
+        <v>542</v>
+      </c>
+      <c r="N457" t="s">
+        <v>77</v>
       </c>
       <c r="Q457" t="s">
-        <v>3868</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="458" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B458" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C458" t="s">
         <v>669</v>
@@ -86280,22 +86303,13 @@
       <c r="D458" s="1">
         <v>8080</v>
       </c>
-      <c r="L458" t="s">
-        <v>734</v>
-      </c>
-      <c r="M458" t="s">
-        <v>542</v>
-      </c>
-      <c r="N458" t="s">
-        <v>77</v>
-      </c>
       <c r="Q458" t="s">
-        <v>4682</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="459" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B459" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C459" t="s">
         <v>669</v>
@@ -86304,12 +86318,12 @@
         <v>8080</v>
       </c>
       <c r="Q459" t="s">
-        <v>3869</v>
+        <v>737</v>
       </c>
     </row>
     <row r="460" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B460" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C460" t="s">
         <v>669</v>
@@ -86318,12 +86332,12 @@
         <v>8080</v>
       </c>
       <c r="Q460" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="461" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B461" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C461" t="s">
         <v>669</v>
@@ -86332,12 +86346,12 @@
         <v>8080</v>
       </c>
       <c r="Q461" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="462" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B462" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C462" t="s">
         <v>669</v>
@@ -86345,13 +86359,22 @@
       <c r="D462" s="1">
         <v>8080</v>
       </c>
+      <c r="E462" t="s">
+        <v>3794</v>
+      </c>
+      <c r="L462" t="s">
+        <v>542</v>
+      </c>
+      <c r="M462" t="s">
+        <v>734</v>
+      </c>
       <c r="Q462" t="s">
-        <v>741</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="463" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B463" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C463" t="s">
         <v>669</v>
@@ -86369,12 +86392,12 @@
         <v>734</v>
       </c>
       <c r="Q463" t="s">
-        <v>3870</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="464" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B464" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C464" t="s">
         <v>669</v>
@@ -86382,22 +86405,19 @@
       <c r="D464" s="1">
         <v>8080</v>
       </c>
-      <c r="E464" t="s">
-        <v>3794</v>
-      </c>
       <c r="L464" t="s">
-        <v>542</v>
+        <v>352</v>
       </c>
       <c r="M464" t="s">
         <v>734</v>
       </c>
       <c r="Q464" t="s">
-        <v>3871</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="465" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B465" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C465" t="s">
         <v>669</v>
@@ -86412,12 +86432,12 @@
         <v>734</v>
       </c>
       <c r="Q465" t="s">
-        <v>3872</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="466" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B466" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C466" t="s">
         <v>669</v>
@@ -86432,12 +86452,12 @@
         <v>734</v>
       </c>
       <c r="Q466" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="467" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B467" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C467" t="s">
         <v>669</v>
@@ -86445,19 +86465,13 @@
       <c r="D467" s="1">
         <v>8080</v>
       </c>
-      <c r="L467" t="s">
-        <v>352</v>
-      </c>
-      <c r="M467" t="s">
-        <v>734</v>
-      </c>
       <c r="Q467" t="s">
-        <v>3874</v>
+        <v>748</v>
       </c>
     </row>
     <row r="468" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B468" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C468" t="s">
         <v>669</v>
@@ -86466,12 +86480,12 @@
         <v>8080</v>
       </c>
       <c r="Q468" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="469" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B469" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C469" t="s">
         <v>669</v>
@@ -86480,12 +86494,12 @@
         <v>8080</v>
       </c>
       <c r="Q469" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="470" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B470" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="C470" t="s">
         <v>669</v>
@@ -86493,13 +86507,19 @@
       <c r="D470" s="1">
         <v>8080</v>
       </c>
+      <c r="L470" t="s">
+        <v>352</v>
+      </c>
+      <c r="M470" t="s">
+        <v>734</v>
+      </c>
       <c r="Q470" t="s">
-        <v>752</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="471" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B471" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C471" t="s">
         <v>669</v>
@@ -86514,12 +86534,12 @@
         <v>734</v>
       </c>
       <c r="Q471" t="s">
-        <v>3875</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="472" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B472" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C472" t="s">
         <v>669</v>
@@ -86534,12 +86554,12 @@
         <v>734</v>
       </c>
       <c r="Q472" t="s">
-        <v>3876</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="473" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B473" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C473" t="s">
         <v>669</v>
@@ -86554,12 +86574,12 @@
         <v>734</v>
       </c>
       <c r="Q473" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="474" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B474" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C474" t="s">
         <v>669</v>
@@ -86574,12 +86594,12 @@
         <v>734</v>
       </c>
       <c r="Q474" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="475" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B475" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C475" t="s">
         <v>669</v>
@@ -86594,12 +86614,12 @@
         <v>734</v>
       </c>
       <c r="Q475" t="s">
-        <v>3879</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="476" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B476" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C476" t="s">
         <v>669</v>
@@ -86614,12 +86634,12 @@
         <v>734</v>
       </c>
       <c r="Q476" t="s">
-        <v>3880</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="477" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B477" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C477" t="s">
         <v>669</v>
@@ -86627,19 +86647,13 @@
       <c r="D477" s="1">
         <v>8080</v>
       </c>
-      <c r="L477" t="s">
-        <v>352</v>
-      </c>
-      <c r="M477" t="s">
-        <v>734</v>
-      </c>
       <c r="Q477" t="s">
-        <v>3881</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="478" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B478" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C478" t="s">
         <v>669</v>
@@ -86647,13 +86661,19 @@
       <c r="D478" s="1">
         <v>8080</v>
       </c>
+      <c r="L478" t="s">
+        <v>352</v>
+      </c>
+      <c r="M478" t="s">
+        <v>734</v>
+      </c>
       <c r="Q478" t="s">
-        <v>3882</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="479" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B479" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C479" t="s">
         <v>669</v>
@@ -86668,32 +86688,35 @@
         <v>734</v>
       </c>
       <c r="Q479" t="s">
-        <v>3883</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="480" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B480" s="1" t="s">
-        <v>765</v>
+        <v>5441</v>
       </c>
       <c r="C480" t="s">
-        <v>669</v>
-      </c>
-      <c r="D480" s="1">
-        <v>8080</v>
+        <v>5413</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E480" t="s">
+        <v>3885</v>
       </c>
       <c r="L480" t="s">
-        <v>352</v>
+        <v>2605</v>
       </c>
       <c r="M480" t="s">
-        <v>734</v>
+        <v>4510</v>
       </c>
       <c r="Q480" t="s">
-        <v>3884</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="481" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B481" s="1" t="s">
-        <v>5441</v>
+        <v>5447</v>
       </c>
       <c r="C481" t="s">
         <v>5413</v>
@@ -86711,49 +86734,40 @@
         <v>4510</v>
       </c>
       <c r="Q481" t="s">
-        <v>5442</v>
+        <v>5448</v>
       </c>
     </row>
     <row r="482" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B482" s="1" t="s">
-        <v>5447</v>
+        <v>5458</v>
       </c>
       <c r="C482" t="s">
-        <v>5413</v>
+        <v>5459</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E482" t="s">
-        <v>3885</v>
-      </c>
-      <c r="L482" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M482" t="s">
-        <v>4510</v>
+        <v>404</v>
       </c>
       <c r="Q482" t="s">
-        <v>5448</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="483" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B483" s="1" t="s">
-        <v>5458</v>
+        <v>904</v>
       </c>
       <c r="C483" t="s">
-        <v>5459</v>
+        <v>905</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="Q483" t="s">
-        <v>5460</v>
+        <v>906</v>
       </c>
     </row>
     <row r="484" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B484" s="1" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C484" t="s">
         <v>905</v>
@@ -86762,49 +86776,52 @@
         <v>351</v>
       </c>
       <c r="Q484" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="485" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B485" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C485" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="E485" t="s">
+        <v>3899</v>
+      </c>
+      <c r="F485" t="s">
+        <v>3900</v>
+      </c>
+      <c r="L485" t="s">
+        <v>55</v>
+      </c>
       <c r="Q485" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="486" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B486" s="1" t="s">
-        <v>909</v>
+        <v>1037</v>
       </c>
       <c r="C486" t="s">
-        <v>910</v>
+        <v>1038</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E486" t="s">
-        <v>3899</v>
-      </c>
-      <c r="F486" t="s">
-        <v>3900</v>
+        <v>2</v>
       </c>
       <c r="L486" t="s">
-        <v>55</v>
+        <v>734</v>
       </c>
       <c r="Q486" t="s">
-        <v>911</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="487" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B487" s="1" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C487" t="s">
         <v>1038</v>
@@ -86816,55 +86833,61 @@
         <v>734</v>
       </c>
       <c r="Q487" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="488" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B488" s="1" t="s">
-        <v>1040</v>
+        <v>5502</v>
       </c>
       <c r="C488" t="s">
-        <v>1038</v>
+        <v>5503</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E488" t="s">
+        <v>2</v>
+      </c>
+      <c r="F488" t="s">
+        <v>2426</v>
+      </c>
       <c r="L488" t="s">
-        <v>734</v>
+        <v>3714</v>
       </c>
       <c r="Q488" t="s">
-        <v>1041</v>
+        <v>5504</v>
       </c>
     </row>
     <row r="489" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B489" s="1" t="s">
-        <v>5502</v>
+        <v>1083</v>
       </c>
       <c r="C489" t="s">
-        <v>5503</v>
+        <v>1084</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E489" t="s">
-        <v>2</v>
-      </c>
-      <c r="F489" t="s">
         <v>2426</v>
       </c>
       <c r="L489" t="s">
-        <v>3714</v>
+        <v>1155</v>
+      </c>
+      <c r="M489" t="s">
+        <v>542</v>
       </c>
       <c r="Q489" t="s">
-        <v>5504</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="490" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B490" s="1" t="s">
-        <v>1083</v>
+        <v>5521</v>
       </c>
       <c r="C490" t="s">
-        <v>1084</v>
+        <v>5522</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>2</v>
@@ -86872,19 +86895,19 @@
       <c r="E490" t="s">
         <v>2426</v>
       </c>
+      <c r="F490" t="s">
+        <v>3964</v>
+      </c>
       <c r="L490" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M490" t="s">
-        <v>542</v>
+        <v>55</v>
       </c>
       <c r="Q490" t="s">
-        <v>3973</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="491" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B491" s="1" t="s">
-        <v>5521</v>
+        <v>5524</v>
       </c>
       <c r="C491" t="s">
         <v>5522</v>
@@ -86902,35 +86925,38 @@
         <v>55</v>
       </c>
       <c r="Q491" t="s">
-        <v>5523</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="492" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B492" s="1" t="s">
-        <v>5524</v>
+        <v>1108</v>
       </c>
       <c r="C492" t="s">
-        <v>5522</v>
+        <v>1109</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E492" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="F492" t="s">
-        <v>3964</v>
+        <v>3766</v>
       </c>
       <c r="L492" t="s">
-        <v>55</v>
+        <v>5070</v>
+      </c>
+      <c r="M492" t="s">
+        <v>3974</v>
       </c>
       <c r="Q492" t="s">
-        <v>5525</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="493" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B493" s="1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C493" t="s">
         <v>1109</v>
@@ -86951,15 +86977,15 @@
         <v>3974</v>
       </c>
       <c r="Q493" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="494" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B494" s="1" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="C494" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>2</v>
@@ -86968,21 +86994,18 @@
         <v>2</v>
       </c>
       <c r="F494" t="s">
-        <v>3766</v>
+        <v>2426</v>
       </c>
       <c r="L494" t="s">
         <v>5070</v>
       </c>
-      <c r="M494" t="s">
-        <v>3974</v>
-      </c>
       <c r="Q494" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="495" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B495" s="1" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C495" t="s">
         <v>1115</v>
@@ -87000,12 +87023,12 @@
         <v>5070</v>
       </c>
       <c r="Q495" t="s">
-        <v>3981</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="496" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B496" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C496" t="s">
         <v>1115</v>
@@ -87019,16 +87042,22 @@
       <c r="F496" t="s">
         <v>2426</v>
       </c>
+      <c r="G496" t="s">
+        <v>3964</v>
+      </c>
       <c r="L496" t="s">
         <v>5070</v>
       </c>
+      <c r="M496" t="s">
+        <v>5068</v>
+      </c>
       <c r="Q496" t="s">
-        <v>4711</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="497" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B497" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C497" t="s">
         <v>1115</v>
@@ -87052,12 +87081,12 @@
         <v>5068</v>
       </c>
       <c r="Q497" t="s">
-        <v>3982</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="498" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B498" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C498" t="s">
         <v>1115</v>
@@ -87081,14 +87110,14 @@
         <v>5068</v>
       </c>
       <c r="Q498" t="s">
-        <v>4712</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="499" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B499" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C499" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C499" s="2" t="s">
         <v>1115</v>
       </c>
       <c r="D499" s="1" t="s">
@@ -87099,9 +87128,6 @@
       </c>
       <c r="F499" t="s">
         <v>2426</v>
-      </c>
-      <c r="G499" t="s">
-        <v>3964</v>
       </c>
       <c r="L499" t="s">
         <v>5070</v>
@@ -87110,14 +87136,14 @@
         <v>5068</v>
       </c>
       <c r="Q499" t="s">
-        <v>3983</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="500" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B500" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C500" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C500" t="s">
         <v>1115</v>
       </c>
       <c r="D500" s="1" t="s">
@@ -87136,81 +87162,75 @@
         <v>5068</v>
       </c>
       <c r="Q500" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="501" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B501" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C501" t="s">
-        <v>1115</v>
+        <v>1153</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>1154</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E501" t="s">
-        <v>2</v>
-      </c>
-      <c r="F501" t="s">
-        <v>2426</v>
-      </c>
       <c r="L501" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M501" t="s">
-        <v>5068</v>
+        <v>1155</v>
       </c>
       <c r="Q501" t="s">
-        <v>3985</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="502" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B502" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>1154</v>
+        <v>5556</v>
+      </c>
+      <c r="C502" t="s">
+        <v>5557</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E502" t="s">
+        <v>2</v>
+      </c>
+      <c r="F502" t="s">
+        <v>2</v>
+      </c>
+      <c r="G502" t="s">
+        <v>2</v>
+      </c>
       <c r="L502" t="s">
-        <v>1155</v>
+        <v>5238</v>
       </c>
       <c r="Q502" t="s">
-        <v>1156</v>
+        <v>5558</v>
       </c>
     </row>
     <row r="503" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B503" s="1" t="s">
-        <v>5556</v>
+        <v>1436</v>
       </c>
       <c r="C503" t="s">
-        <v>5557</v>
+        <v>1437</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E503" t="s">
-        <v>2</v>
-      </c>
-      <c r="F503" t="s">
-        <v>2</v>
-      </c>
-      <c r="G503" t="s">
-        <v>2</v>
+        <v>4029</v>
       </c>
       <c r="L503" t="s">
-        <v>5238</v>
+        <v>542</v>
       </c>
       <c r="Q503" t="s">
-        <v>5558</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="504" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B504" s="1" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="C504" t="s">
         <v>1437</v>
@@ -87225,12 +87245,12 @@
         <v>542</v>
       </c>
       <c r="Q504" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="505" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B505" s="1" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="C505" t="s">
         <v>1437</v>
@@ -87245,12 +87265,12 @@
         <v>542</v>
       </c>
       <c r="Q505" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="506" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B506" s="1" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C506" t="s">
         <v>1437</v>
@@ -87265,12 +87285,12 @@
         <v>542</v>
       </c>
       <c r="Q506" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="507" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B507" s="1" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C507" t="s">
         <v>1437</v>
@@ -87285,12 +87305,12 @@
         <v>542</v>
       </c>
       <c r="Q507" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="508" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B508" s="1" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="C508" t="s">
         <v>1437</v>
@@ -87305,12 +87325,12 @@
         <v>542</v>
       </c>
       <c r="Q508" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="509" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B509" s="1" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C509" t="s">
         <v>1437</v>
@@ -87325,12 +87345,12 @@
         <v>542</v>
       </c>
       <c r="Q509" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="510" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B510" s="1" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="C510" t="s">
         <v>1437</v>
@@ -87345,12 +87365,12 @@
         <v>542</v>
       </c>
       <c r="Q510" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="511" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B511" s="1" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C511" t="s">
         <v>1437</v>
@@ -87365,12 +87385,12 @@
         <v>542</v>
       </c>
       <c r="Q511" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="512" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B512" s="1" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="C512" t="s">
         <v>1437</v>
@@ -87385,12 +87405,12 @@
         <v>542</v>
       </c>
       <c r="Q512" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="513" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B513" s="1" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="C513" t="s">
         <v>1437</v>
@@ -87405,12 +87425,12 @@
         <v>542</v>
       </c>
       <c r="Q513" t="s">
-        <v>1456</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="514" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B514" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C514" t="s">
         <v>1437</v>
@@ -87425,12 +87445,12 @@
         <v>542</v>
       </c>
       <c r="Q514" t="s">
-        <v>4030</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="515" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B515" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C515" t="s">
         <v>1437</v>
@@ -87445,12 +87465,12 @@
         <v>542</v>
       </c>
       <c r="Q515" t="s">
-        <v>4031</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="516" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B516" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C516" t="s">
         <v>1437</v>
@@ -87465,12 +87485,12 @@
         <v>542</v>
       </c>
       <c r="Q516" t="s">
-        <v>4032</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="517" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B517" s="1" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="C517" t="s">
         <v>1437</v>
@@ -87485,12 +87505,12 @@
         <v>542</v>
       </c>
       <c r="Q517" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="518" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B518" s="1" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C518" t="s">
         <v>1437</v>
@@ -87505,12 +87525,12 @@
         <v>542</v>
       </c>
       <c r="Q518" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="519" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B519" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="C519" t="s">
         <v>1437</v>
@@ -87525,12 +87545,12 @@
         <v>542</v>
       </c>
       <c r="Q519" t="s">
-        <v>1465</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="520" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B520" s="1" t="s">
-        <v>1466</v>
+        <v>5873</v>
       </c>
       <c r="C520" t="s">
         <v>1437</v>
@@ -87545,12 +87565,12 @@
         <v>542</v>
       </c>
       <c r="Q520" t="s">
-        <v>4033</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="521" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B521" s="1" t="s">
-        <v>5873</v>
+        <v>1467</v>
       </c>
       <c r="C521" t="s">
         <v>1437</v>
@@ -87565,12 +87585,12 @@
         <v>542</v>
       </c>
       <c r="Q521" t="s">
-        <v>5874</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="522" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B522" s="1" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C522" t="s">
         <v>1437</v>
@@ -87584,13 +87604,16 @@
       <c r="L522" t="s">
         <v>542</v>
       </c>
+      <c r="M522" t="s">
+        <v>4034</v>
+      </c>
       <c r="Q522" t="s">
-        <v>1468</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="523" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B523" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C523" t="s">
         <v>1437</v>
@@ -87608,12 +87631,12 @@
         <v>4034</v>
       </c>
       <c r="Q523" t="s">
-        <v>4035</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="524" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B524" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C524" t="s">
         <v>1437</v>
@@ -87631,12 +87654,12 @@
         <v>4034</v>
       </c>
       <c r="Q524" t="s">
-        <v>4036</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="525" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B525" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C525" t="s">
         <v>1437</v>
@@ -87650,16 +87673,13 @@
       <c r="L525" t="s">
         <v>542</v>
       </c>
-      <c r="M525" t="s">
-        <v>4034</v>
-      </c>
       <c r="Q525" t="s">
-        <v>4037</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="526" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B526" s="1" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="C526" t="s">
         <v>1437</v>
@@ -87674,12 +87694,12 @@
         <v>542</v>
       </c>
       <c r="Q526" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="527" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B527" s="1" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="C527" t="s">
         <v>1437</v>
@@ -87694,12 +87714,12 @@
         <v>542</v>
       </c>
       <c r="Q527" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="528" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B528" s="1" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="C528" t="s">
         <v>1437</v>
@@ -87714,12 +87734,12 @@
         <v>542</v>
       </c>
       <c r="Q528" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="529" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B529" s="1" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="C529" t="s">
         <v>1437</v>
@@ -87730,16 +87750,28 @@
       <c r="E529" t="s">
         <v>4029</v>
       </c>
+      <c r="F529" t="s">
+        <v>3766</v>
+      </c>
       <c r="L529" t="s">
+        <v>77</v>
+      </c>
+      <c r="M529" t="s">
+        <v>5238</v>
+      </c>
+      <c r="N529" t="s">
         <v>542</v>
       </c>
+      <c r="O529" t="s">
+        <v>4034</v>
+      </c>
       <c r="Q529" t="s">
-        <v>1479</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="530" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B530" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C530" t="s">
         <v>1437</v>
@@ -87750,48 +87782,36 @@
       <c r="E530" t="s">
         <v>4029</v>
       </c>
-      <c r="F530" t="s">
-        <v>3766</v>
-      </c>
       <c r="L530" t="s">
-        <v>77</v>
-      </c>
-      <c r="M530" t="s">
-        <v>5238</v>
-      </c>
-      <c r="N530" t="s">
         <v>542</v>
       </c>
-      <c r="O530" t="s">
-        <v>4034</v>
-      </c>
       <c r="Q530" t="s">
-        <v>4728</v>
-      </c>
-    </row>
-    <row r="531" spans="2:17" x14ac:dyDescent="0.35">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="531" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B531" s="1" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="C531" t="s">
-        <v>1437</v>
+        <v>1484</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E531" t="s">
-        <v>4029</v>
+        <v>2426</v>
       </c>
       <c r="L531" t="s">
-        <v>542</v>
+        <v>1155</v>
       </c>
       <c r="Q531" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="532" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B532" s="1" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="C532" t="s">
         <v>1484</v>
@@ -87806,12 +87826,12 @@
         <v>1155</v>
       </c>
       <c r="Q532" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="533" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B533" s="1" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="C533" t="s">
         <v>1484</v>
@@ -87826,15 +87846,15 @@
         <v>1155</v>
       </c>
       <c r="Q533" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="534" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B534" s="1" t="s">
-        <v>1488</v>
+        <v>5877</v>
       </c>
       <c r="C534" t="s">
-        <v>1484</v>
+        <v>1496</v>
       </c>
       <c r="D534" s="1" t="s">
         <v>2</v>
@@ -87846,12 +87866,12 @@
         <v>1155</v>
       </c>
       <c r="Q534" t="s">
-        <v>1489</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="535" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B535" s="1" t="s">
-        <v>5877</v>
+        <v>1498</v>
       </c>
       <c r="C535" t="s">
         <v>1496</v>
@@ -87866,12 +87886,12 @@
         <v>1155</v>
       </c>
       <c r="Q535" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="536" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B536" s="1" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C536" t="s">
         <v>1496</v>
@@ -87886,32 +87906,32 @@
         <v>1155</v>
       </c>
       <c r="Q536" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="537" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="537" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B537" s="1" t="s">
-        <v>1500</v>
+        <v>1514</v>
       </c>
       <c r="C537" t="s">
-        <v>1496</v>
+        <v>1515</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E537" t="s">
         <v>2426</v>
       </c>
       <c r="L537" t="s">
-        <v>1155</v>
+        <v>5505</v>
       </c>
       <c r="Q537" t="s">
-        <v>1501</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="538" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B538" s="1" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="C538" t="s">
         <v>1515</v>
@@ -87926,12 +87946,12 @@
         <v>5505</v>
       </c>
       <c r="Q538" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="539" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B539" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C539" t="s">
         <v>1515</v>
@@ -87946,12 +87966,12 @@
         <v>5505</v>
       </c>
       <c r="Q539" t="s">
-        <v>4041</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="540" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B540" s="1" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="C540" t="s">
         <v>1515</v>
@@ -87966,12 +87986,12 @@
         <v>5505</v>
       </c>
       <c r="Q540" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="541" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B541" s="1" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="C541" t="s">
         <v>1515</v>
@@ -87986,12 +88006,12 @@
         <v>5505</v>
       </c>
       <c r="Q541" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="542" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B542" s="1" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="C542" t="s">
         <v>1515</v>
@@ -88006,12 +88026,12 @@
         <v>5505</v>
       </c>
       <c r="Q542" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="543" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B543" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="C543" t="s">
         <v>1515</v>
@@ -88026,15 +88046,15 @@
         <v>5505</v>
       </c>
       <c r="Q543" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="544" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B544" s="1" t="s">
-        <v>1525</v>
+        <v>2193</v>
       </c>
       <c r="C544" t="s">
-        <v>1515</v>
+        <v>2194</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>404</v>
@@ -88042,16 +88062,22 @@
       <c r="E544" t="s">
         <v>2426</v>
       </c>
+      <c r="F544" t="s">
+        <v>3803</v>
+      </c>
       <c r="L544" t="s">
-        <v>5505</v>
+        <v>55</v>
+      </c>
+      <c r="M544" t="s">
+        <v>542</v>
       </c>
       <c r="Q544" t="s">
-        <v>1526</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="545" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B545" s="1" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="C545" t="s">
         <v>2194</v>
@@ -88072,38 +88098,32 @@
         <v>542</v>
       </c>
       <c r="Q545" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="546" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B546" s="1" t="s">
-        <v>2195</v>
+        <v>2508</v>
       </c>
       <c r="C546" t="s">
-        <v>2194</v>
+        <v>2509</v>
       </c>
       <c r="D546" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E546" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F546" t="s">
-        <v>3803</v>
+        <v>3766</v>
       </c>
       <c r="L546" t="s">
-        <v>55</v>
-      </c>
-      <c r="M546" t="s">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Q546" t="s">
-        <v>4311</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="547" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B547" s="1" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="C547" t="s">
         <v>2509</v>
@@ -88118,12 +88138,12 @@
         <v>77</v>
       </c>
       <c r="Q547" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="548" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B548" s="1" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="C548" t="s">
         <v>2509</v>
@@ -88138,12 +88158,12 @@
         <v>77</v>
       </c>
       <c r="Q548" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="549" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B549" s="1" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="C549" t="s">
         <v>2509</v>
@@ -88158,12 +88178,12 @@
         <v>77</v>
       </c>
       <c r="Q549" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="550" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B550" s="1" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="C550" t="s">
         <v>2509</v>
@@ -88178,12 +88198,12 @@
         <v>77</v>
       </c>
       <c r="Q550" t="s">
-        <v>2516</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="551" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B551" s="1" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="C551" t="s">
         <v>2509</v>
@@ -88198,12 +88218,12 @@
         <v>77</v>
       </c>
       <c r="Q551" t="s">
-        <v>4396</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="552" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B552" s="1" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="C552" t="s">
         <v>2509</v>
@@ -88218,12 +88238,12 @@
         <v>77</v>
       </c>
       <c r="Q552" t="s">
-        <v>2519</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="553" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B553" s="1" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="C553" t="s">
         <v>2509</v>
@@ -88238,12 +88258,12 @@
         <v>77</v>
       </c>
       <c r="Q553" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="554" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B554" s="1" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="C554" t="s">
         <v>2509</v>
@@ -88258,12 +88278,12 @@
         <v>77</v>
       </c>
       <c r="Q554" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="555" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B555" s="1" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="C555" t="s">
         <v>2509</v>
@@ -88278,12 +88298,12 @@
         <v>77</v>
       </c>
       <c r="Q555" t="s">
-        <v>4399</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="556" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B556" s="1" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="C556" t="s">
         <v>2509</v>
@@ -88298,32 +88318,32 @@
         <v>77</v>
       </c>
       <c r="Q556" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="557" spans="2:17" x14ac:dyDescent="0.35">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="557" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B557" s="1" t="s">
-        <v>2525</v>
+        <v>2540</v>
       </c>
       <c r="C557" t="s">
-        <v>2509</v>
+        <v>2541</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E557" t="s">
-        <v>3766</v>
+        <v>351</v>
       </c>
       <c r="L557" t="s">
+        <v>2534</v>
+      </c>
+      <c r="M557" t="s">
         <v>77</v>
       </c>
       <c r="Q557" t="s">
-        <v>2526</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="558" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B558" s="1" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="C558" t="s">
         <v>2541</v>
@@ -88338,12 +88358,12 @@
         <v>77</v>
       </c>
       <c r="Q558" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="559" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B559" s="1" t="s">
-        <v>2542</v>
+        <v>6482</v>
       </c>
       <c r="C559" t="s">
         <v>2541</v>
@@ -88358,12 +88378,12 @@
         <v>77</v>
       </c>
       <c r="Q559" t="s">
-        <v>4403</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="560" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B560" s="1" t="s">
-        <v>6482</v>
+        <v>2551</v>
       </c>
       <c r="C560" t="s">
         <v>2541</v>
@@ -88378,32 +88398,29 @@
         <v>77</v>
       </c>
       <c r="Q560" t="s">
-        <v>6483</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="561" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B561" s="1" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="C561" t="s">
-        <v>2541</v>
+        <v>2555</v>
       </c>
       <c r="D561" s="1" t="s">
         <v>351</v>
       </c>
       <c r="L561" t="s">
-        <v>2534</v>
-      </c>
-      <c r="M561" t="s">
-        <v>77</v>
+        <v>2538</v>
       </c>
       <c r="Q561" t="s">
-        <v>4404</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="562" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B562" s="1" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="C562" t="s">
         <v>2555</v>
@@ -88415,12 +88432,12 @@
         <v>2538</v>
       </c>
       <c r="Q562" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="563" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B563" s="1" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="C563" t="s">
         <v>2555</v>
@@ -88432,12 +88449,12 @@
         <v>2538</v>
       </c>
       <c r="Q563" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="564" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B564" s="1" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="C564" t="s">
         <v>2555</v>
@@ -88449,15 +88466,15 @@
         <v>2538</v>
       </c>
       <c r="Q564" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="565" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B565" s="1" t="s">
-        <v>2561</v>
+        <v>2552</v>
       </c>
       <c r="C565" t="s">
-        <v>2555</v>
+        <v>2537</v>
       </c>
       <c r="D565" s="1" t="s">
         <v>351</v>
@@ -88466,12 +88483,12 @@
         <v>2538</v>
       </c>
       <c r="Q565" t="s">
-        <v>2562</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="566" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B566" s="1" t="s">
-        <v>2552</v>
+        <v>2543</v>
       </c>
       <c r="C566" t="s">
         <v>2537</v>
@@ -88483,12 +88500,12 @@
         <v>2538</v>
       </c>
       <c r="Q566" t="s">
-        <v>2553</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="567" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B567" s="1" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="C567" t="s">
         <v>2537</v>
@@ -88500,29 +88517,29 @@
         <v>2538</v>
       </c>
       <c r="Q567" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="568" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B568" s="1" t="s">
-        <v>2545</v>
+        <v>2575</v>
       </c>
       <c r="C568" t="s">
-        <v>2537</v>
-      </c>
-      <c r="D568" s="1" t="s">
-        <v>351</v>
+        <v>2576</v>
+      </c>
+      <c r="D568" s="1">
+        <v>68000</v>
       </c>
       <c r="L568" t="s">
         <v>2538</v>
       </c>
       <c r="Q568" t="s">
-        <v>2546</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="569" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B569" s="1" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="C569" t="s">
         <v>2576</v>
@@ -88534,12 +88551,12 @@
         <v>2538</v>
       </c>
       <c r="Q569" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="570" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B570" s="1" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="C570" t="s">
         <v>2576</v>
@@ -88551,46 +88568,52 @@
         <v>2538</v>
       </c>
       <c r="Q570" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="571" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B571" s="1" t="s">
-        <v>2580</v>
+        <v>2536</v>
       </c>
       <c r="C571" t="s">
-        <v>2576</v>
-      </c>
-      <c r="D571" s="1">
-        <v>68000</v>
+        <v>2537</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="L571" t="s">
         <v>2538</v>
       </c>
       <c r="Q571" t="s">
-        <v>2581</v>
-      </c>
-    </row>
-    <row r="572" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="572" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B572" s="1" t="s">
-        <v>2536</v>
+        <v>2563</v>
       </c>
       <c r="C572" t="s">
-        <v>2537</v>
+        <v>2564</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>351</v>
+        <v>404</v>
+      </c>
+      <c r="E572" t="s">
+        <v>3766</v>
       </c>
       <c r="L572" t="s">
-        <v>2538</v>
+        <v>3437</v>
+      </c>
+      <c r="M572" t="s">
+        <v>3889</v>
       </c>
       <c r="Q572" t="s">
-        <v>2539</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="573" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B573" s="1" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="C573" t="s">
         <v>2564</v>
@@ -88608,35 +88631,32 @@
         <v>3889</v>
       </c>
       <c r="Q573" t="s">
-        <v>4405</v>
-      </c>
-    </row>
-    <row r="574" spans="2:17" x14ac:dyDescent="0.35">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="574" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B574" s="1" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="C574" t="s">
-        <v>2564</v>
+        <v>2568</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="E574" t="s">
-        <v>3766</v>
+        <v>351</v>
       </c>
       <c r="L574" t="s">
         <v>3437</v>
       </c>
-      <c r="M574" t="s">
-        <v>3889</v>
-      </c>
       <c r="Q574" t="s">
-        <v>4406</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="575" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B575" s="1" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="C575" t="s">
         <v>2568</v>
@@ -88651,12 +88671,12 @@
         <v>3437</v>
       </c>
       <c r="Q575" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="576" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B576" s="1" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="C576" t="s">
         <v>2568</v>
@@ -88671,12 +88691,12 @@
         <v>3437</v>
       </c>
       <c r="Q576" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="577" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B577" s="1" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="C577" t="s">
         <v>2568</v>
@@ -88691,140 +88711,140 @@
         <v>3437</v>
       </c>
       <c r="Q577" t="s">
-        <v>2573</v>
-      </c>
-    </row>
-    <row r="578" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="578" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B578" s="1" t="s">
-        <v>2574</v>
+        <v>2566</v>
       </c>
       <c r="C578" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="E578" t="s">
-        <v>351</v>
+        <v>3766</v>
       </c>
       <c r="L578" t="s">
         <v>3437</v>
       </c>
+      <c r="M578" t="s">
+        <v>3889</v>
+      </c>
       <c r="Q578" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="579" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B579" s="1" t="s">
-        <v>2566</v>
+        <v>3435</v>
       </c>
       <c r="C579" t="s">
-        <v>2564</v>
+        <v>3436</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E579" t="s">
-        <v>3766</v>
-      </c>
       <c r="L579" t="s">
         <v>3437</v>
       </c>
-      <c r="M579" t="s">
-        <v>3889</v>
-      </c>
       <c r="Q579" t="s">
-        <v>4407</v>
-      </c>
-    </row>
-    <row r="580" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B580" s="1" t="s">
-        <v>3435</v>
-      </c>
-      <c r="C580" t="s">
-        <v>3436</v>
-      </c>
-      <c r="D580" s="1" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="580" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B580" s="4" t="s">
+        <v>6790</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>6791</v>
+      </c>
+      <c r="D580" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="L580" t="s">
-        <v>3437</v>
-      </c>
-      <c r="Q580" t="s">
-        <v>3438</v>
-      </c>
-    </row>
-    <row r="581" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B581" s="4" t="s">
-        <v>6790</v>
-      </c>
-      <c r="C581" s="5" t="s">
+      <c r="E580" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="L580" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q580" s="5" t="s">
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="581" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B581" s="1" t="s">
+        <v>6793</v>
+      </c>
+      <c r="C581" t="s">
         <v>6791</v>
       </c>
-      <c r="D581" s="4" t="s">
+      <c r="D581" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E581" s="5" t="s">
+      <c r="E581" t="s">
         <v>404</v>
       </c>
-      <c r="L581" s="5" t="s">
+      <c r="L581" t="s">
         <v>542</v>
       </c>
-      <c r="Q581" s="5" t="s">
-        <v>6792</v>
+      <c r="Q581" t="s">
+        <v>6794</v>
       </c>
     </row>
     <row r="582" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B582" s="1" t="s">
-        <v>6793</v>
+        <v>313</v>
       </c>
       <c r="C582" t="s">
-        <v>6791</v>
-      </c>
-      <c r="D582" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E582" t="s">
-        <v>404</v>
-      </c>
-      <c r="L582" t="s">
-        <v>542</v>
+        <v>314</v>
+      </c>
+      <c r="D582" s="1">
+        <v>8080</v>
       </c>
       <c r="Q582" t="s">
-        <v>6794</v>
+        <v>315</v>
       </c>
     </row>
     <row r="583" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B583" s="1" t="s">
-        <v>313</v>
+        <v>753</v>
       </c>
       <c r="C583" t="s">
-        <v>314</v>
+        <v>754</v>
       </c>
       <c r="D583" s="1">
         <v>8080</v>
       </c>
       <c r="Q583" t="s">
-        <v>315</v>
+        <v>755</v>
       </c>
     </row>
     <row r="584" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B584" s="1" t="s">
-        <v>753</v>
+        <v>3188</v>
       </c>
       <c r="C584" t="s">
-        <v>754</v>
-      </c>
-      <c r="D584" s="1">
-        <v>8080</v>
+        <v>3189</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E584" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L584" t="s">
+        <v>5505</v>
       </c>
       <c r="Q584" t="s">
-        <v>755</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="585" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B585" s="1" t="s">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="C585" t="s">
         <v>3189</v>
@@ -88839,69 +88859,69 @@
         <v>5505</v>
       </c>
       <c r="Q585" t="s">
-        <v>3190</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="586" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B586" s="1" t="s">
-        <v>3191</v>
+        <v>2680</v>
       </c>
       <c r="C586" t="s">
-        <v>3189</v>
+        <v>2681</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="E586" t="s">
-        <v>2426</v>
+        <v>351</v>
       </c>
       <c r="L586" t="s">
-        <v>5505</v>
+        <v>2538</v>
       </c>
       <c r="Q586" t="s">
-        <v>4535</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="587" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B587" s="1" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="C587" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
       <c r="D587" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E587" t="s">
-        <v>351</v>
-      </c>
       <c r="L587" t="s">
         <v>2538</v>
       </c>
       <c r="Q587" t="s">
-        <v>2682</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="588" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B588" s="1" t="s">
-        <v>2683</v>
+        <v>2950</v>
       </c>
       <c r="C588" t="s">
-        <v>2684</v>
+        <v>2951</v>
       </c>
       <c r="D588" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="E588" t="s">
+        <v>3899</v>
+      </c>
       <c r="L588" t="s">
-        <v>2538</v>
+        <v>55</v>
       </c>
       <c r="Q588" t="s">
-        <v>2685</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="589" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B589" s="1" t="s">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="C589" t="s">
         <v>2951</v>
@@ -88916,12 +88936,12 @@
         <v>55</v>
       </c>
       <c r="Q589" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="590" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B590" s="1" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="C590" t="s">
         <v>2951</v>
@@ -88936,12 +88956,12 @@
         <v>55</v>
       </c>
       <c r="Q590" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="591" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B591" s="1" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="C591" t="s">
         <v>2951</v>
@@ -88956,49 +88976,46 @@
         <v>55</v>
       </c>
       <c r="Q591" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="592" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B592" s="1" t="s">
-        <v>2957</v>
+        <v>2672</v>
       </c>
       <c r="C592" t="s">
-        <v>2951</v>
+        <v>2673</v>
       </c>
       <c r="D592" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E592" t="s">
-        <v>3899</v>
-      </c>
       <c r="L592" t="s">
-        <v>55</v>
+        <v>2538</v>
       </c>
       <c r="Q592" t="s">
-        <v>2958</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="593" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B593" s="1" t="s">
-        <v>2672</v>
+        <v>332</v>
       </c>
       <c r="C593" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D593" s="1" t="s">
-        <v>351</v>
+        <v>333</v>
+      </c>
+      <c r="D593" s="1">
+        <v>8080</v>
       </c>
       <c r="L593" t="s">
-        <v>2538</v>
+        <v>77</v>
       </c>
       <c r="Q593" t="s">
-        <v>2674</v>
+        <v>334</v>
       </c>
     </row>
     <row r="594" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B594" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C594" t="s">
         <v>333</v>
@@ -89010,12 +89027,12 @@
         <v>77</v>
       </c>
       <c r="Q594" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="595" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B595" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C595" t="s">
         <v>333</v>
@@ -89027,12 +89044,12 @@
         <v>77</v>
       </c>
       <c r="Q595" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="596" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B596" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C596" t="s">
         <v>333</v>
@@ -89044,12 +89061,12 @@
         <v>77</v>
       </c>
       <c r="Q596" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="597" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B597" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C597" t="s">
         <v>333</v>
@@ -89061,12 +89078,12 @@
         <v>77</v>
       </c>
       <c r="Q597" t="s">
-        <v>345</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="598" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B598" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C598" t="s">
         <v>333</v>
@@ -89078,46 +89095,46 @@
         <v>77</v>
       </c>
       <c r="Q598" t="s">
-        <v>3741</v>
+        <v>348</v>
       </c>
     </row>
     <row r="599" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B599" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C599" t="s">
-        <v>333</v>
-      </c>
-      <c r="D599" s="1">
-        <v>8080</v>
+        <v>350</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="L599" t="s">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="Q599" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="600" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B600" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C600" t="s">
-        <v>350</v>
-      </c>
-      <c r="D600" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
+      </c>
+      <c r="D600" s="1">
+        <v>8080</v>
       </c>
       <c r="L600" t="s">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Q600" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="601" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B601" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C601" t="s">
         <v>338</v>
@@ -89129,12 +89146,12 @@
         <v>77</v>
       </c>
       <c r="Q601" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="602" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B602" s="1" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="C602" t="s">
         <v>338</v>
@@ -89146,12 +89163,12 @@
         <v>77</v>
       </c>
       <c r="Q602" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="603" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B603" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C603" t="s">
         <v>338</v>
@@ -89163,12 +89180,12 @@
         <v>77</v>
       </c>
       <c r="Q603" t="s">
-        <v>355</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="604" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B604" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C604" t="s">
         <v>338</v>
@@ -89180,29 +89197,29 @@
         <v>77</v>
       </c>
       <c r="Q604" t="s">
-        <v>3742</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="605" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B605" s="1" t="s">
-        <v>357</v>
+        <v>1744</v>
       </c>
       <c r="C605" t="s">
-        <v>338</v>
+        <v>1745</v>
       </c>
       <c r="D605" s="1">
         <v>8080</v>
       </c>
       <c r="L605" t="s">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="Q605" t="s">
-        <v>3743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="606" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B606" s="1" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="C606" t="s">
         <v>1745</v>
@@ -89214,12 +89231,12 @@
         <v>352</v>
       </c>
       <c r="Q606" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="607" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B607" s="1" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="C607" t="s">
         <v>1745</v>
@@ -89231,12 +89248,12 @@
         <v>352</v>
       </c>
       <c r="Q607" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="608" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B608" s="1" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="C608" t="s">
         <v>1745</v>
@@ -89248,12 +89265,12 @@
         <v>352</v>
       </c>
       <c r="Q608" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="609" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B609" s="1" t="s">
-        <v>1751</v>
+        <v>6169</v>
       </c>
       <c r="C609" t="s">
         <v>1745</v>
@@ -89265,29 +89282,29 @@
         <v>352</v>
       </c>
       <c r="Q609" t="s">
-        <v>1752</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="610" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B610" s="1" t="s">
-        <v>6169</v>
+        <v>3439</v>
       </c>
       <c r="C610" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D610" s="1">
-        <v>8080</v>
-      </c>
-      <c r="L610" t="s">
-        <v>352</v>
+        <v>3440</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E610" t="s">
+        <v>3888</v>
       </c>
       <c r="Q610" t="s">
-        <v>6170</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="611" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B611" s="1" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="C611" t="s">
         <v>3440</v>
@@ -89299,29 +89316,32 @@
         <v>3888</v>
       </c>
       <c r="Q611" t="s">
-        <v>3441</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="612" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B612" s="1" t="s">
-        <v>3442</v>
+        <v>6853</v>
       </c>
       <c r="C612" t="s">
-        <v>3440</v>
+        <v>6854</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>404</v>
+        <v>3469</v>
       </c>
       <c r="E612" t="s">
-        <v>3888</v>
+        <v>3794</v>
+      </c>
+      <c r="L612" t="s">
+        <v>1900</v>
       </c>
       <c r="Q612" t="s">
-        <v>3443</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="613" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B613" s="1" t="s">
-        <v>6853</v>
+        <v>6856</v>
       </c>
       <c r="C613" t="s">
         <v>6854</v>
@@ -89336,12 +89356,12 @@
         <v>1900</v>
       </c>
       <c r="Q613" t="s">
-        <v>6855</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="614" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B614" s="1" t="s">
-        <v>6856</v>
+        <v>3468</v>
       </c>
       <c r="C614" t="s">
         <v>6854</v>
@@ -89356,32 +89376,32 @@
         <v>1900</v>
       </c>
       <c r="Q614" t="s">
-        <v>6857</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="615" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B615" s="1" t="s">
-        <v>3468</v>
+        <v>5080</v>
       </c>
       <c r="C615" t="s">
-        <v>6854</v>
+        <v>5081</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>3469</v>
-      </c>
-      <c r="E615" t="s">
-        <v>3794</v>
+        <v>2</v>
       </c>
       <c r="L615" t="s">
-        <v>1900</v>
+        <v>5071</v>
+      </c>
+      <c r="M615" t="s">
+        <v>542</v>
       </c>
       <c r="Q615" t="s">
-        <v>3470</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="616" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B616" s="1" t="s">
-        <v>5080</v>
+        <v>5083</v>
       </c>
       <c r="C616" t="s">
         <v>5081</v>
@@ -89396,12 +89416,12 @@
         <v>542</v>
       </c>
       <c r="Q616" t="s">
-        <v>5082</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="617" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B617" s="1" t="s">
-        <v>5083</v>
+        <v>5085</v>
       </c>
       <c r="C617" t="s">
         <v>5081</v>
@@ -89416,12 +89436,12 @@
         <v>542</v>
       </c>
       <c r="Q617" t="s">
-        <v>5084</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="618" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B618" s="1" t="s">
-        <v>5085</v>
+        <v>5087</v>
       </c>
       <c r="C618" t="s">
         <v>5081</v>
@@ -89436,12 +89456,12 @@
         <v>542</v>
       </c>
       <c r="Q618" t="s">
-        <v>5086</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="619" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B619" s="1" t="s">
-        <v>5087</v>
+        <v>5089</v>
       </c>
       <c r="C619" t="s">
         <v>5081</v>
@@ -89450,18 +89470,18 @@
         <v>2</v>
       </c>
       <c r="L619" t="s">
-        <v>5071</v>
+        <v>55</v>
       </c>
       <c r="M619" t="s">
         <v>542</v>
       </c>
       <c r="Q619" t="s">
-        <v>5088</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="620" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B620" s="1" t="s">
-        <v>5089</v>
+        <v>5091</v>
       </c>
       <c r="C620" t="s">
         <v>5081</v>
@@ -89476,12 +89496,12 @@
         <v>542</v>
       </c>
       <c r="Q620" t="s">
-        <v>5090</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="621" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B621" s="1" t="s">
-        <v>5091</v>
+        <v>5093</v>
       </c>
       <c r="C621" t="s">
         <v>5081</v>
@@ -89496,12 +89516,12 @@
         <v>542</v>
       </c>
       <c r="Q621" t="s">
-        <v>5092</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="622" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B622" s="1" t="s">
-        <v>5093</v>
+        <v>5095</v>
       </c>
       <c r="C622" t="s">
         <v>5081</v>
@@ -89516,12 +89536,12 @@
         <v>542</v>
       </c>
       <c r="Q622" t="s">
-        <v>5094</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="623" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B623" s="1" t="s">
-        <v>5095</v>
+        <v>5097</v>
       </c>
       <c r="C623" t="s">
         <v>5081</v>
@@ -89536,12 +89556,12 @@
         <v>542</v>
       </c>
       <c r="Q623" t="s">
-        <v>5096</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="624" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B624" s="1" t="s">
-        <v>5097</v>
+        <v>5099</v>
       </c>
       <c r="C624" t="s">
         <v>5081</v>
@@ -89556,12 +89576,12 @@
         <v>542</v>
       </c>
       <c r="Q624" t="s">
-        <v>5098</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="625" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B625" s="1" t="s">
-        <v>5099</v>
+        <v>5101</v>
       </c>
       <c r="C625" t="s">
         <v>5081</v>
@@ -89576,12 +89596,12 @@
         <v>542</v>
       </c>
       <c r="Q625" t="s">
-        <v>5100</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="626" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B626" s="1" t="s">
-        <v>5101</v>
+        <v>5103</v>
       </c>
       <c r="C626" t="s">
         <v>5081</v>
@@ -89596,12 +89616,12 @@
         <v>542</v>
       </c>
       <c r="Q626" t="s">
-        <v>5102</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="627" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B627" s="1" t="s">
-        <v>5103</v>
+        <v>5105</v>
       </c>
       <c r="C627" t="s">
         <v>5081</v>
@@ -89616,12 +89636,12 @@
         <v>542</v>
       </c>
       <c r="Q627" t="s">
-        <v>5104</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="628" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B628" s="1" t="s">
-        <v>5105</v>
+        <v>5107</v>
       </c>
       <c r="C628" t="s">
         <v>5081</v>
@@ -89636,12 +89656,12 @@
         <v>542</v>
       </c>
       <c r="Q628" t="s">
-        <v>5106</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="629" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B629" s="1" t="s">
-        <v>5107</v>
+        <v>5109</v>
       </c>
       <c r="C629" t="s">
         <v>5081</v>
@@ -89656,12 +89676,12 @@
         <v>542</v>
       </c>
       <c r="Q629" t="s">
-        <v>5108</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="630" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B630" s="1" t="s">
-        <v>5109</v>
+        <v>5111</v>
       </c>
       <c r="C630" t="s">
         <v>5081</v>
@@ -89676,12 +89696,12 @@
         <v>542</v>
       </c>
       <c r="Q630" t="s">
-        <v>5110</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="631" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B631" s="1" t="s">
-        <v>5111</v>
+        <v>5113</v>
       </c>
       <c r="C631" t="s">
         <v>5081</v>
@@ -89696,15 +89716,15 @@
         <v>542</v>
       </c>
       <c r="Q631" t="s">
-        <v>5112</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="632" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B632" s="1" t="s">
-        <v>5113</v>
+        <v>5072</v>
       </c>
       <c r="C632" t="s">
-        <v>5081</v>
+        <v>5073</v>
       </c>
       <c r="D632" s="1" t="s">
         <v>2</v>
@@ -89716,12 +89736,12 @@
         <v>542</v>
       </c>
       <c r="Q632" t="s">
-        <v>5114</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="633" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B633" s="1" t="s">
-        <v>5072</v>
+        <v>5075</v>
       </c>
       <c r="C633" t="s">
         <v>5073</v>
@@ -89736,32 +89756,26 @@
         <v>542</v>
       </c>
       <c r="Q633" t="s">
-        <v>5074</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="634" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B634" s="1" t="s">
-        <v>5075</v>
+        <v>2969</v>
       </c>
       <c r="C634" t="s">
-        <v>5073</v>
+        <v>2970</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L634" t="s">
-        <v>55</v>
-      </c>
-      <c r="M634" t="s">
-        <v>542</v>
+        <v>181</v>
       </c>
       <c r="Q634" t="s">
-        <v>5076</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="635" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B635" s="1" t="s">
-        <v>2969</v>
+        <v>2972</v>
       </c>
       <c r="C635" t="s">
         <v>2970</v>
@@ -89770,20 +89784,6 @@
         <v>181</v>
       </c>
       <c r="Q635" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="636" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B636" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="C636" t="s">
-        <v>2970</v>
-      </c>
-      <c r="D636" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q636" t="s">
         <v>2973</v>
       </c>
     </row>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -64351,10 +64351,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q576"/>
+  <dimension ref="B1:Q585"/>
   <sheetViews>
-    <sheetView topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="A576" sqref="A576:XFD576"/>
+    <sheetView topLeftCell="A571" workbookViewId="0">
+      <selection activeCell="A585" sqref="A585:XFD585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -76238,6 +76238,219 @@
       </c>
       <c r="Q576" t="s">
         <v>2606</v>
+      </c>
+    </row>
+    <row r="577" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B577" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C577" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E577" t="s">
+        <v>3899</v>
+      </c>
+      <c r="L577" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M577" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q577" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="578" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B578" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C578" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E578" t="s">
+        <v>3899</v>
+      </c>
+      <c r="L578" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M578" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q578" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="579" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B579" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C579" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E579" t="s">
+        <v>3766</v>
+      </c>
+      <c r="F579" t="s">
+        <v>3964</v>
+      </c>
+      <c r="L579" t="s">
+        <v>5068</v>
+      </c>
+      <c r="M579" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q579" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="580" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B580" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C580" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E580" t="s">
+        <v>3766</v>
+      </c>
+      <c r="F580" t="s">
+        <v>3964</v>
+      </c>
+      <c r="L580" t="s">
+        <v>5068</v>
+      </c>
+      <c r="M580" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q580" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="581" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B581" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C581" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E581" t="s">
+        <v>3899</v>
+      </c>
+      <c r="L581" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M581" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q581" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="582" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B582" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C582" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E582" t="s">
+        <v>3899</v>
+      </c>
+      <c r="L582" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M582" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q582" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="583" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B583" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E583" t="s">
+        <v>2</v>
+      </c>
+      <c r="F583" t="s">
+        <v>3766</v>
+      </c>
+      <c r="L583" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M583" t="s">
+        <v>3974</v>
+      </c>
+      <c r="Q583" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="584" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B584" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E584" t="s">
+        <v>2</v>
+      </c>
+      <c r="F584" t="s">
+        <v>3766</v>
+      </c>
+      <c r="L584" t="s">
+        <v>5070</v>
+      </c>
+      <c r="M584" t="s">
+        <v>3974</v>
+      </c>
+      <c r="Q584" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="585" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B585" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C585" t="s">
+        <v>350</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L585" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q585" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -76248,10 +76461,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q635"/>
+  <dimension ref="B1:Q626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A611" workbookViewId="0">
+      <selection activeCell="B625" sqref="B625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -82766,56 +82979,56 @@
     </row>
     <row r="306" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B306" s="1" t="s">
-        <v>2913</v>
+        <v>2918</v>
       </c>
       <c r="C306" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E306" t="s">
-        <v>3899</v>
+        <v>3766</v>
       </c>
       <c r="L306" t="s">
-        <v>1155</v>
+        <v>5068</v>
       </c>
       <c r="M306" t="s">
-        <v>542</v>
+        <v>3986</v>
       </c>
       <c r="Q306" t="s">
-        <v>4476</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="307" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B307" s="1" t="s">
-        <v>2915</v>
+        <v>2920</v>
       </c>
       <c r="C307" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E307" t="s">
-        <v>3899</v>
+        <v>3766</v>
       </c>
       <c r="L307" t="s">
-        <v>1155</v>
+        <v>5068</v>
       </c>
       <c r="M307" t="s">
-        <v>542</v>
+        <v>3986</v>
       </c>
       <c r="Q307" t="s">
-        <v>4477</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="308" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B308" s="1" t="s">
-        <v>2916</v>
+        <v>2921</v>
       </c>
       <c r="C308" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>351</v>
@@ -82823,409 +83036,385 @@
       <c r="E308" t="s">
         <v>3766</v>
       </c>
-      <c r="F308" t="s">
-        <v>3964</v>
-      </c>
       <c r="L308" t="s">
         <v>5068</v>
       </c>
       <c r="M308" t="s">
-        <v>542</v>
+        <v>3986</v>
       </c>
       <c r="Q308" t="s">
-        <v>4478</v>
-      </c>
-    </row>
-    <row r="309" spans="2:17" x14ac:dyDescent="0.35">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="309" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B309" s="1" t="s">
-        <v>2917</v>
+        <v>2922</v>
       </c>
       <c r="C309" t="s">
-        <v>2914</v>
+        <v>2923</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="E309" t="s">
+        <v>404</v>
+      </c>
+      <c r="F309" t="s">
         <v>3766</v>
       </c>
-      <c r="F309" t="s">
-        <v>3964</v>
-      </c>
       <c r="L309" t="s">
-        <v>5068</v>
-      </c>
-      <c r="M309" t="s">
-        <v>542</v>
+        <v>5505</v>
       </c>
       <c r="Q309" t="s">
-        <v>4479</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="310" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B310" s="1" t="s">
-        <v>2902</v>
+        <v>3135</v>
       </c>
       <c r="C310" t="s">
-        <v>2903</v>
+        <v>3136</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="E310" t="s">
-        <v>3899</v>
+        <v>3901</v>
       </c>
       <c r="L310" t="s">
         <v>1155</v>
       </c>
       <c r="M310" t="s">
-        <v>542</v>
+        <v>3902</v>
       </c>
       <c r="Q310" t="s">
-        <v>4473</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="311" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B311" s="1" t="s">
-        <v>2904</v>
+        <v>3137</v>
       </c>
       <c r="C311" t="s">
-        <v>2903</v>
+        <v>3136</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="E311" t="s">
-        <v>3899</v>
+        <v>3901</v>
       </c>
       <c r="L311" t="s">
         <v>1155</v>
       </c>
       <c r="M311" t="s">
-        <v>542</v>
+        <v>3902</v>
       </c>
       <c r="Q311" t="s">
-        <v>4474</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="312" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B312" s="1" t="s">
-        <v>2918</v>
+        <v>3138</v>
       </c>
       <c r="C312" t="s">
-        <v>2919</v>
+        <v>3139</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="E312" t="s">
-        <v>3766</v>
+        <v>2426</v>
       </c>
       <c r="L312" t="s">
-        <v>5068</v>
+        <v>5505</v>
       </c>
       <c r="M312" t="s">
-        <v>3986</v>
+        <v>3974</v>
       </c>
       <c r="Q312" t="s">
-        <v>4480</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="313" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B313" s="1" t="s">
-        <v>2920</v>
+        <v>3140</v>
       </c>
       <c r="C313" t="s">
-        <v>2919</v>
+        <v>3139</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="E313" t="s">
-        <v>3766</v>
+        <v>2426</v>
       </c>
       <c r="L313" t="s">
-        <v>5068</v>
+        <v>5505</v>
       </c>
       <c r="M313" t="s">
-        <v>3986</v>
+        <v>3974</v>
       </c>
       <c r="Q313" t="s">
-        <v>4481</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="314" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B314" s="1" t="s">
-        <v>2921</v>
+        <v>3141</v>
       </c>
       <c r="C314" t="s">
-        <v>2919</v>
+        <v>3139</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="E314" t="s">
-        <v>3766</v>
+        <v>2426</v>
       </c>
       <c r="L314" t="s">
-        <v>5068</v>
+        <v>5505</v>
       </c>
       <c r="M314" t="s">
-        <v>3986</v>
+        <v>3974</v>
       </c>
       <c r="Q314" t="s">
-        <v>4905</v>
-      </c>
-    </row>
-    <row r="315" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="315" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B315" s="1" t="s">
-        <v>2922</v>
+        <v>3282</v>
       </c>
       <c r="C315" t="s">
-        <v>2923</v>
+        <v>3283</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E315" t="s">
-        <v>404</v>
-      </c>
-      <c r="F315" t="s">
-        <v>3766</v>
+        <v>2</v>
       </c>
       <c r="L315" t="s">
-        <v>5505</v>
+        <v>55</v>
       </c>
       <c r="Q315" t="s">
-        <v>2924</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="316" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B316" s="1" t="s">
-        <v>3135</v>
+        <v>3285</v>
       </c>
       <c r="C316" t="s">
-        <v>3136</v>
+        <v>3283</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E316" t="s">
-        <v>3901</v>
-      </c>
       <c r="L316" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M316" t="s">
-        <v>3902</v>
+        <v>55</v>
       </c>
       <c r="Q316" t="s">
-        <v>4517</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="317" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B317" s="1" t="s">
-        <v>3137</v>
+        <v>6761</v>
       </c>
       <c r="C317" t="s">
-        <v>3136</v>
+        <v>6762</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E317" t="s">
-        <v>3901</v>
+        <v>2</v>
       </c>
       <c r="L317" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M317" t="s">
-        <v>3902</v>
+        <v>58</v>
       </c>
       <c r="Q317" t="s">
-        <v>4518</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="318" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B318" s="1" t="s">
-        <v>3138</v>
+        <v>6800</v>
       </c>
       <c r="C318" t="s">
-        <v>3139</v>
+        <v>6801</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E318" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L318" t="s">
-        <v>5505</v>
-      </c>
-      <c r="M318" t="s">
-        <v>3974</v>
+        <v>3714</v>
       </c>
       <c r="Q318" t="s">
-        <v>4519</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="319" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B319" s="1" t="s">
-        <v>3140</v>
+        <v>6901</v>
       </c>
       <c r="C319" t="s">
-        <v>3139</v>
+        <v>6902</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E319" t="s">
-        <v>2426</v>
-      </c>
       <c r="L319" t="s">
-        <v>5505</v>
-      </c>
-      <c r="M319" t="s">
-        <v>3974</v>
+        <v>5070</v>
       </c>
       <c r="Q319" t="s">
-        <v>4520</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="320" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B320" s="1" t="s">
-        <v>3141</v>
+        <v>3460</v>
       </c>
       <c r="C320" t="s">
-        <v>3139</v>
+        <v>3461</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E320" t="s">
-        <v>2426</v>
-      </c>
       <c r="L320" t="s">
-        <v>5505</v>
-      </c>
-      <c r="M320" t="s">
-        <v>3974</v>
+        <v>1155</v>
       </c>
       <c r="Q320" t="s">
-        <v>4521</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="321" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B321" s="1" t="s">
-        <v>3282</v>
+        <v>316</v>
       </c>
       <c r="C321" t="s">
-        <v>3283</v>
+        <v>317</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>2</v>
+        <v>3469</v>
       </c>
       <c r="L321" t="s">
-        <v>55</v>
+        <v>318</v>
+      </c>
+      <c r="M321" t="s">
+        <v>77</v>
       </c>
       <c r="Q321" t="s">
-        <v>3284</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="322" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B322" s="1" t="s">
-        <v>3285</v>
+        <v>319</v>
       </c>
       <c r="C322" t="s">
-        <v>3283</v>
+        <v>317</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>2</v>
+        <v>3469</v>
       </c>
       <c r="L322" t="s">
-        <v>55</v>
+        <v>318</v>
+      </c>
+      <c r="M322" t="s">
+        <v>77</v>
       </c>
       <c r="Q322" t="s">
-        <v>3286</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="323" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B323" s="1" t="s">
-        <v>6761</v>
+        <v>320</v>
       </c>
       <c r="C323" t="s">
-        <v>6762</v>
+        <v>317</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E323" t="s">
-        <v>2</v>
+        <v>3469</v>
       </c>
       <c r="L323" t="s">
-        <v>58</v>
+        <v>318</v>
+      </c>
+      <c r="M323" t="s">
+        <v>77</v>
       </c>
       <c r="Q323" t="s">
-        <v>6763</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="324" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B324" s="1" t="s">
-        <v>6800</v>
+        <v>321</v>
       </c>
       <c r="C324" t="s">
-        <v>6801</v>
+        <v>317</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E324" t="s">
-        <v>2</v>
+        <v>3469</v>
       </c>
       <c r="L324" t="s">
-        <v>3714</v>
+        <v>318</v>
+      </c>
+      <c r="M324" t="s">
+        <v>77</v>
       </c>
       <c r="Q324" t="s">
-        <v>6802</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="325" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B325" s="1" t="s">
-        <v>6901</v>
+        <v>322</v>
       </c>
       <c r="C325" t="s">
-        <v>6902</v>
+        <v>317</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>2</v>
+        <v>3469</v>
       </c>
       <c r="L325" t="s">
-        <v>5070</v>
+        <v>318</v>
+      </c>
+      <c r="M325" t="s">
+        <v>77</v>
       </c>
       <c r="Q325" t="s">
-        <v>6903</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="326" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B326" s="1" t="s">
-        <v>3460</v>
+        <v>323</v>
       </c>
       <c r="C326" t="s">
-        <v>3461</v>
+        <v>317</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>2</v>
+        <v>3469</v>
       </c>
       <c r="L326" t="s">
-        <v>1155</v>
+        <v>318</v>
+      </c>
+      <c r="M326" t="s">
+        <v>77</v>
       </c>
       <c r="Q326" t="s">
-        <v>3462</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="327" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B327" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C327" t="s">
         <v>317</v>
@@ -83240,12 +83429,12 @@
         <v>77</v>
       </c>
       <c r="Q327" t="s">
-        <v>3728</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="328" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B328" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C328" t="s">
         <v>317</v>
@@ -83260,178 +83449,232 @@
         <v>77</v>
       </c>
       <c r="Q328" t="s">
-        <v>3729</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="329" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B329" s="1" t="s">
-        <v>320</v>
+        <v>5233</v>
       </c>
       <c r="C329" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>3469</v>
+        <v>404</v>
+      </c>
+      <c r="E329" t="s">
+        <v>3766</v>
+      </c>
+      <c r="F329">
+        <v>68000</v>
       </c>
       <c r="L329" t="s">
-        <v>318</v>
-      </c>
-      <c r="M329" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="Q329" t="s">
-        <v>3730</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="330" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B330" s="1" t="s">
-        <v>321</v>
+        <v>441</v>
       </c>
       <c r="C330" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>3469</v>
+        <v>404</v>
+      </c>
+      <c r="E330" t="s">
+        <v>3766</v>
+      </c>
+      <c r="F330">
+        <v>68000</v>
       </c>
       <c r="L330" t="s">
-        <v>318</v>
-      </c>
-      <c r="M330" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="Q330" t="s">
-        <v>3731</v>
-      </c>
-    </row>
-    <row r="331" spans="2:17" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="331" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B331" s="1" t="s">
-        <v>322</v>
+        <v>444</v>
       </c>
       <c r="C331" t="s">
-        <v>317</v>
+        <v>445</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>3469</v>
+        <v>2</v>
+      </c>
+      <c r="E331" t="s">
+        <v>3767</v>
+      </c>
+      <c r="F331" t="s">
+        <v>3767</v>
       </c>
       <c r="L331" t="s">
-        <v>318</v>
+        <v>3</v>
       </c>
       <c r="M331" t="s">
         <v>77</v>
       </c>
+      <c r="N331" t="s">
+        <v>352</v>
+      </c>
       <c r="Q331" t="s">
-        <v>3732</v>
-      </c>
-    </row>
-    <row r="332" spans="2:17" x14ac:dyDescent="0.35">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="332" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B332" s="1" t="s">
-        <v>323</v>
+        <v>446</v>
       </c>
       <c r="C332" t="s">
-        <v>317</v>
+        <v>445</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>3469</v>
+        <v>2</v>
+      </c>
+      <c r="E332" t="s">
+        <v>3767</v>
+      </c>
+      <c r="F332" t="s">
+        <v>3767</v>
       </c>
       <c r="L332" t="s">
-        <v>318</v>
+        <v>3</v>
       </c>
       <c r="M332" t="s">
         <v>77</v>
       </c>
+      <c r="N332" t="s">
+        <v>352</v>
+      </c>
       <c r="Q332" t="s">
-        <v>3733</v>
-      </c>
-    </row>
-    <row r="333" spans="2:17" x14ac:dyDescent="0.35">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="333" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B333" s="1" t="s">
-        <v>324</v>
+        <v>447</v>
       </c>
       <c r="C333" t="s">
-        <v>317</v>
+        <v>445</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>3469</v>
+        <v>2</v>
+      </c>
+      <c r="E333" t="s">
+        <v>3767</v>
+      </c>
+      <c r="F333" t="s">
+        <v>3767</v>
       </c>
       <c r="L333" t="s">
-        <v>318</v>
+        <v>3</v>
       </c>
       <c r="M333" t="s">
         <v>77</v>
       </c>
+      <c r="N333" t="s">
+        <v>352</v>
+      </c>
       <c r="Q333" t="s">
-        <v>3734</v>
-      </c>
-    </row>
-    <row r="334" spans="2:17" x14ac:dyDescent="0.35">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="334" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B334" s="1" t="s">
-        <v>325</v>
+        <v>448</v>
       </c>
       <c r="C334" t="s">
-        <v>317</v>
+        <v>445</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>3469</v>
+        <v>2</v>
+      </c>
+      <c r="E334" t="s">
+        <v>3767</v>
+      </c>
+      <c r="F334" t="s">
+        <v>3767</v>
       </c>
       <c r="L334" t="s">
-        <v>318</v>
+        <v>3</v>
       </c>
       <c r="M334" t="s">
         <v>77</v>
       </c>
+      <c r="N334" t="s">
+        <v>352</v>
+      </c>
       <c r="Q334" t="s">
-        <v>3735</v>
-      </c>
-    </row>
-    <row r="335" spans="2:17" x14ac:dyDescent="0.35">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="335" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B335" s="1" t="s">
-        <v>5233</v>
+        <v>449</v>
       </c>
       <c r="C335" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E335" t="s">
-        <v>3766</v>
-      </c>
-      <c r="F335">
-        <v>68000</v>
+        <v>3767</v>
+      </c>
+      <c r="F335" t="s">
+        <v>3767</v>
       </c>
       <c r="L335" t="s">
         <v>3</v>
       </c>
+      <c r="M335" t="s">
+        <v>77</v>
+      </c>
+      <c r="N335" t="s">
+        <v>352</v>
+      </c>
       <c r="Q335" t="s">
-        <v>5234</v>
-      </c>
-    </row>
-    <row r="336" spans="2:17" x14ac:dyDescent="0.35">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="336" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B336" s="1" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C336" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E336" t="s">
-        <v>3766</v>
-      </c>
-      <c r="F336">
-        <v>68000</v>
+        <v>3767</v>
+      </c>
+      <c r="F336" t="s">
+        <v>3767</v>
       </c>
       <c r="L336" t="s">
         <v>3</v>
       </c>
+      <c r="M336" t="s">
+        <v>77</v>
+      </c>
+      <c r="N336" t="s">
+        <v>352</v>
+      </c>
       <c r="Q336" t="s">
-        <v>443</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="337" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B337" s="1" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C337" t="s">
         <v>445</v>
@@ -83455,12 +83698,12 @@
         <v>352</v>
       </c>
       <c r="Q337" t="s">
-        <v>4624</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="338" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="B338" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C338" t="s">
         <v>445</v>
@@ -83484,306 +83727,324 @@
         <v>352</v>
       </c>
       <c r="Q338" t="s">
-        <v>4625</v>
-      </c>
-    </row>
-    <row r="339" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="339" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B339" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C339" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E339" t="s">
-        <v>3767</v>
-      </c>
-      <c r="F339" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="L339" t="s">
         <v>3</v>
       </c>
-      <c r="M339" t="s">
-        <v>77</v>
-      </c>
-      <c r="N339" t="s">
-        <v>352</v>
-      </c>
       <c r="Q339" t="s">
-        <v>4626</v>
-      </c>
-    </row>
-    <row r="340" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="340" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B340" s="1" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C340" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E340" t="s">
-        <v>3767</v>
-      </c>
-      <c r="F340" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="L340" t="s">
         <v>3</v>
       </c>
-      <c r="M340" t="s">
-        <v>77</v>
-      </c>
-      <c r="N340" t="s">
-        <v>352</v>
-      </c>
       <c r="Q340" t="s">
-        <v>4627</v>
-      </c>
-    </row>
-    <row r="341" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="341" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B341" s="1" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C341" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E341" t="s">
-        <v>3767</v>
-      </c>
-      <c r="F341" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="L341" t="s">
         <v>3</v>
       </c>
-      <c r="M341" t="s">
-        <v>77</v>
-      </c>
-      <c r="N341" t="s">
-        <v>352</v>
-      </c>
       <c r="Q341" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="342" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="342" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B342" s="1" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C342" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E342" t="s">
-        <v>3767</v>
-      </c>
-      <c r="F342" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="L342" t="s">
         <v>3</v>
       </c>
-      <c r="M342" t="s">
-        <v>77</v>
-      </c>
-      <c r="N342" t="s">
-        <v>352</v>
-      </c>
       <c r="Q342" t="s">
-        <v>4629</v>
-      </c>
-    </row>
-    <row r="343" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="343" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B343" s="1" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="C343" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E343" t="s">
-        <v>3767</v>
-      </c>
-      <c r="F343" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="L343" t="s">
         <v>3</v>
       </c>
-      <c r="M343" t="s">
-        <v>77</v>
-      </c>
-      <c r="N343" t="s">
-        <v>352</v>
-      </c>
       <c r="Q343" t="s">
-        <v>4630</v>
-      </c>
-    </row>
-    <row r="344" spans="2:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="344" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B344" s="1" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="C344" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E344" t="s">
-        <v>3767</v>
-      </c>
-      <c r="F344" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="L344" t="s">
         <v>3</v>
       </c>
-      <c r="M344" t="s">
-        <v>77</v>
-      </c>
-      <c r="N344" t="s">
-        <v>352</v>
-      </c>
       <c r="Q344" t="s">
-        <v>4631</v>
+        <v>470</v>
       </c>
     </row>
     <row r="345" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B345" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="C345" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E345" t="s">
+        <v>404</v>
+      </c>
+      <c r="F345" t="s">
         <v>3768</v>
       </c>
       <c r="L345" t="s">
+        <v>5238</v>
+      </c>
+      <c r="M345" t="s">
         <v>3</v>
       </c>
+      <c r="N345" t="s">
+        <v>352</v>
+      </c>
+      <c r="O345" t="s">
+        <v>77</v>
+      </c>
       <c r="Q345" t="s">
-        <v>455</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="346" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B346" s="1" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="C346" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E346" t="s">
+        <v>404</v>
+      </c>
+      <c r="F346" t="s">
         <v>3768</v>
       </c>
       <c r="L346" t="s">
+        <v>5238</v>
+      </c>
+      <c r="M346" t="s">
         <v>3</v>
       </c>
+      <c r="N346" t="s">
+        <v>352</v>
+      </c>
+      <c r="O346" t="s">
+        <v>77</v>
+      </c>
       <c r="Q346" t="s">
-        <v>457</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="347" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B347" s="1" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="C347" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E347" t="s">
+        <v>404</v>
+      </c>
+      <c r="F347" t="s">
         <v>3768</v>
       </c>
       <c r="L347" t="s">
+        <v>5238</v>
+      </c>
+      <c r="M347" t="s">
         <v>3</v>
       </c>
+      <c r="N347" t="s">
+        <v>352</v>
+      </c>
+      <c r="O347" t="s">
+        <v>77</v>
+      </c>
       <c r="Q347" t="s">
-        <v>459</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="348" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B348" s="1" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="C348" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E348" t="s">
+        <v>404</v>
+      </c>
+      <c r="F348" t="s">
         <v>3768</v>
       </c>
       <c r="L348" t="s">
+        <v>5238</v>
+      </c>
+      <c r="M348" t="s">
         <v>3</v>
       </c>
+      <c r="N348" t="s">
+        <v>352</v>
+      </c>
+      <c r="O348" t="s">
+        <v>77</v>
+      </c>
       <c r="Q348" t="s">
-        <v>461</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="349" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B349" s="1" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C349" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E349" t="s">
+        <v>404</v>
+      </c>
+      <c r="F349" t="s">
         <v>3768</v>
       </c>
       <c r="L349" t="s">
+        <v>5238</v>
+      </c>
+      <c r="M349" t="s">
         <v>3</v>
       </c>
+      <c r="N349" t="s">
+        <v>352</v>
+      </c>
+      <c r="O349" t="s">
+        <v>77</v>
+      </c>
       <c r="Q349" t="s">
-        <v>468</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="350" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B350" s="1" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C350" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E350" t="s">
+        <v>404</v>
+      </c>
+      <c r="F350" t="s">
         <v>3768</v>
       </c>
       <c r="L350" t="s">
+        <v>5238</v>
+      </c>
+      <c r="M350" t="s">
         <v>3</v>
       </c>
+      <c r="N350" t="s">
+        <v>352</v>
+      </c>
+      <c r="O350" t="s">
+        <v>77</v>
+      </c>
       <c r="Q350" t="s">
-        <v>470</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="351" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B351" s="1" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C351" t="s">
         <v>472</v>
@@ -83810,12 +84071,12 @@
         <v>77</v>
       </c>
       <c r="Q351" t="s">
-        <v>4632</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="352" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B352" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C352" t="s">
         <v>472</v>
@@ -83842,15 +84103,15 @@
         <v>77</v>
       </c>
       <c r="Q352" t="s">
-        <v>4633</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="353" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B353" s="1" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C353" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>404</v>
@@ -83859,6 +84120,9 @@
         <v>404</v>
       </c>
       <c r="F353" t="s">
+        <v>404</v>
+      </c>
+      <c r="G353" t="s">
         <v>3768</v>
       </c>
       <c r="L353" t="s">
@@ -83868,21 +84132,18 @@
         <v>3</v>
       </c>
       <c r="N353" t="s">
-        <v>352</v>
-      </c>
-      <c r="O353" t="s">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="Q353" t="s">
-        <v>4634</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="354" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B354" s="1" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C354" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>404</v>
@@ -83891,6 +84152,9 @@
         <v>404</v>
       </c>
       <c r="F354" t="s">
+        <v>404</v>
+      </c>
+      <c r="G354" t="s">
         <v>3768</v>
       </c>
       <c r="L354" t="s">
@@ -83900,21 +84164,18 @@
         <v>3</v>
       </c>
       <c r="N354" t="s">
-        <v>352</v>
-      </c>
-      <c r="O354" t="s">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="Q354" t="s">
-        <v>4635</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="355" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B355" s="1" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C355" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>404</v>
@@ -83923,6 +84184,9 @@
         <v>404</v>
       </c>
       <c r="F355" t="s">
+        <v>404</v>
+      </c>
+      <c r="G355" t="s">
         <v>3768</v>
       </c>
       <c r="L355" t="s">
@@ -83932,21 +84196,18 @@
         <v>3</v>
       </c>
       <c r="N355" t="s">
-        <v>352</v>
-      </c>
-      <c r="O355" t="s">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="Q355" t="s">
-        <v>4636</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="356" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B356" s="1" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C356" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>404</v>
@@ -83955,6 +84216,9 @@
         <v>404</v>
       </c>
       <c r="F356" t="s">
+        <v>404</v>
+      </c>
+      <c r="G356" t="s">
         <v>3768</v>
       </c>
       <c r="L356" t="s">
@@ -83964,21 +84228,18 @@
         <v>3</v>
       </c>
       <c r="N356" t="s">
-        <v>352</v>
-      </c>
-      <c r="O356" t="s">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="Q356" t="s">
-        <v>4637</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="357" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B357" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C357" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>404</v>
@@ -83987,6 +84248,9 @@
         <v>404</v>
       </c>
       <c r="F357" t="s">
+        <v>404</v>
+      </c>
+      <c r="G357" t="s">
         <v>3768</v>
       </c>
       <c r="L357" t="s">
@@ -83996,21 +84260,18 @@
         <v>3</v>
       </c>
       <c r="N357" t="s">
-        <v>352</v>
-      </c>
-      <c r="O357" t="s">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="Q357" t="s">
-        <v>4638</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="358" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B358" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C358" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>404</v>
@@ -84019,6 +84280,9 @@
         <v>404</v>
       </c>
       <c r="F358" t="s">
+        <v>404</v>
+      </c>
+      <c r="G358" t="s">
         <v>3768</v>
       </c>
       <c r="L358" t="s">
@@ -84028,18 +84292,15 @@
         <v>3</v>
       </c>
       <c r="N358" t="s">
-        <v>352</v>
-      </c>
-      <c r="O358" t="s">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="Q358" t="s">
-        <v>4639</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="359" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B359" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C359" t="s">
         <v>481</v>
@@ -84066,12 +84327,12 @@
         <v>542</v>
       </c>
       <c r="Q359" t="s">
-        <v>4640</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="360" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B360" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C360" t="s">
         <v>481</v>
@@ -84098,12 +84359,12 @@
         <v>542</v>
       </c>
       <c r="Q360" t="s">
-        <v>4641</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="361" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B361" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C361" t="s">
         <v>481</v>
@@ -84130,12 +84391,12 @@
         <v>542</v>
       </c>
       <c r="Q361" t="s">
-        <v>4642</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="362" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B362" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C362" t="s">
         <v>481</v>
@@ -84162,12 +84423,12 @@
         <v>542</v>
       </c>
       <c r="Q362" t="s">
-        <v>4643</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="363" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B363" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C363" t="s">
         <v>481</v>
@@ -84194,12 +84455,12 @@
         <v>542</v>
       </c>
       <c r="Q363" t="s">
-        <v>4644</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="364" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B364" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C364" t="s">
         <v>481</v>
@@ -84226,12 +84487,12 @@
         <v>542</v>
       </c>
       <c r="Q364" t="s">
-        <v>4645</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="365" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B365" s="1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C365" t="s">
         <v>481</v>
@@ -84258,12 +84519,12 @@
         <v>542</v>
       </c>
       <c r="Q365" t="s">
-        <v>4646</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="366" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B366" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C366" t="s">
         <v>481</v>
@@ -84290,12 +84551,12 @@
         <v>542</v>
       </c>
       <c r="Q366" t="s">
-        <v>4647</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="367" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B367" s="1" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C367" t="s">
         <v>481</v>
@@ -84322,12 +84583,12 @@
         <v>542</v>
       </c>
       <c r="Q367" t="s">
-        <v>4648</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="368" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B368" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C368" t="s">
         <v>481</v>
@@ -84354,12 +84615,12 @@
         <v>542</v>
       </c>
       <c r="Q368" t="s">
-        <v>4649</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="369" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B369" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C369" t="s">
         <v>481</v>
@@ -84386,12 +84647,12 @@
         <v>542</v>
       </c>
       <c r="Q369" t="s">
-        <v>4650</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="370" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B370" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C370" t="s">
         <v>481</v>
@@ -84418,12 +84679,12 @@
         <v>542</v>
       </c>
       <c r="Q370" t="s">
-        <v>4651</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="371" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B371" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C371" t="s">
         <v>481</v>
@@ -84450,12 +84711,12 @@
         <v>542</v>
       </c>
       <c r="Q371" t="s">
-        <v>4652</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="372" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B372" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C372" t="s">
         <v>481</v>
@@ -84482,12 +84743,12 @@
         <v>542</v>
       </c>
       <c r="Q372" t="s">
-        <v>4653</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="373" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B373" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C373" t="s">
         <v>481</v>
@@ -84514,12 +84775,12 @@
         <v>542</v>
       </c>
       <c r="Q373" t="s">
-        <v>4654</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="374" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B374" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C374" t="s">
         <v>481</v>
@@ -84546,12 +84807,12 @@
         <v>542</v>
       </c>
       <c r="Q374" t="s">
-        <v>4655</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="375" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B375" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C375" t="s">
         <v>481</v>
@@ -84578,12 +84839,12 @@
         <v>542</v>
       </c>
       <c r="Q375" t="s">
-        <v>4656</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="376" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B376" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C376" t="s">
         <v>481</v>
@@ -84610,12 +84871,12 @@
         <v>542</v>
       </c>
       <c r="Q376" t="s">
-        <v>4657</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="377" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B377" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C377" t="s">
         <v>481</v>
@@ -84642,12 +84903,12 @@
         <v>542</v>
       </c>
       <c r="Q377" t="s">
-        <v>4658</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="378" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B378" s="1" t="s">
-        <v>500</v>
+        <v>5239</v>
       </c>
       <c r="C378" t="s">
         <v>481</v>
@@ -84674,12 +84935,12 @@
         <v>542</v>
       </c>
       <c r="Q378" t="s">
-        <v>4659</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="379" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B379" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C379" t="s">
         <v>481</v>
@@ -84706,12 +84967,12 @@
         <v>542</v>
       </c>
       <c r="Q379" t="s">
-        <v>4660</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="380" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B380" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C380" t="s">
         <v>481</v>
@@ -84738,12 +84999,12 @@
         <v>542</v>
       </c>
       <c r="Q380" t="s">
-        <v>4661</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="381" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B381" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C381" t="s">
         <v>481</v>
@@ -84770,12 +85031,12 @@
         <v>542</v>
       </c>
       <c r="Q381" t="s">
-        <v>4662</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="382" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B382" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C382" t="s">
         <v>481</v>
@@ -84802,204 +85063,150 @@
         <v>542</v>
       </c>
       <c r="Q382" t="s">
-        <v>4663</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="383" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B383" s="1" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="C383" t="s">
-        <v>481</v>
+        <v>578</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E383" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="F383" t="s">
-        <v>404</v>
-      </c>
-      <c r="G383" t="s">
-        <v>3768</v>
+        <v>2</v>
       </c>
       <c r="L383" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M383" t="s">
-        <v>3</v>
-      </c>
-      <c r="N383" t="s">
-        <v>542</v>
+        <v>3793</v>
       </c>
       <c r="Q383" t="s">
-        <v>4664</v>
+        <v>579</v>
       </c>
     </row>
     <row r="384" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B384" s="1" t="s">
-        <v>5239</v>
+        <v>580</v>
       </c>
       <c r="C384" t="s">
-        <v>481</v>
+        <v>578</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E384" t="s">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="F384" t="s">
-        <v>404</v>
-      </c>
-      <c r="G384" t="s">
-        <v>3768</v>
+        <v>2</v>
       </c>
       <c r="L384" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M384" t="s">
-        <v>3</v>
-      </c>
-      <c r="N384" t="s">
-        <v>542</v>
+        <v>3793</v>
       </c>
       <c r="Q384" t="s">
-        <v>5240</v>
+        <v>581<